--- a/api自動化測試腳清單.xlsx
+++ b/api自動化測試腳清單.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2675" uniqueCount="1067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2682" uniqueCount="1072">
   <si>
     <t>Module</t>
   </si>
@@ -3641,6 +3641,26 @@
   </si>
   <si>
     <t>Decrypted --&gt;MID:XXXXXXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0026取得銀行清單</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test10.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test11.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decrypted--&gt;BankCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3818,13 +3838,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4143,8 +4163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H518"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4185,7 +4205,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="15"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="2" t="s">
         <v>1063</v>
       </c>
@@ -4203,7 +4223,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="15"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="10" t="s">
         <v>1063</v>
       </c>
@@ -4221,7 +4241,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="15"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="2" t="s">
         <v>1061</v>
       </c>
@@ -4239,7 +4259,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="15"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="2" t="s">
         <v>1058</v>
       </c>
@@ -4257,7 +4277,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="15"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="2" t="s">
         <v>1053</v>
       </c>
@@ -4275,7 +4295,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="15"/>
+      <c r="B7" s="14"/>
       <c r="C7" t="s">
         <v>1053</v>
       </c>
@@ -4293,27 +4313,41 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>1068</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="F8" s="13" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>1069</v>
+      </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="2"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="10" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>1070</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="13" t="s">
+        <v>1071</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="15"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4323,7 +4357,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="15"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -4333,7 +4367,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="15"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -4343,7 +4377,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="15"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -4353,7 +4387,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="15"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -4363,7 +4397,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="15"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -4373,7 +4407,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="15"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -4383,7 +4417,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="15"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="10"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -4393,7 +4427,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="15"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -4403,7 +4437,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="15"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -4413,7 +4447,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="15"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -4423,7 +4457,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="15"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -4433,7 +4467,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="15"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -4443,7 +4477,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="15"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -4453,7 +4487,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="15"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -4462,11 +4496,11 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="15"/>
+      <c r="B25" s="14"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="15"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -4476,7 +4510,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
-      <c r="B27" s="15"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -4486,7 +4520,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
-      <c r="B28" s="15"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -4496,7 +4530,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
-      <c r="B29" s="15"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -4506,7 +4540,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
-      <c r="B30" s="15"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -4516,7 +4550,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="B31" s="15"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -4526,7 +4560,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
-      <c r="B32" s="15"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -4536,7 +4570,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
-      <c r="B33" s="15"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -4546,7 +4580,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
-      <c r="B34" s="15"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -4556,7 +4590,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
-      <c r="B35" s="15"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -4566,7 +4600,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
-      <c r="B36" s="15"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -4576,7 +4610,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
-      <c r="B37" s="15"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="10"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -4586,7 +4620,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
-      <c r="B38" s="15"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -4596,7 +4630,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
-      <c r="B39" s="15"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -4606,7 +4640,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
-      <c r="B40" s="15"/>
+      <c r="B40" s="14"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -4616,7 +4650,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
-      <c r="B41" s="15"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -4626,7 +4660,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
-      <c r="B42" s="15"/>
+      <c r="B42" s="14"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -4636,7 +4670,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
-      <c r="B43" s="15"/>
+      <c r="B43" s="14"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -4646,7 +4680,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
-      <c r="B44" s="15"/>
+      <c r="B44" s="14"/>
       <c r="C44" s="10"/>
       <c r="D44" s="2"/>
       <c r="E44" s="10"/>
@@ -4655,11 +4689,11 @@
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="15"/>
+      <c r="B45" s="14"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
-      <c r="B46" s="15"/>
+      <c r="B46" s="14"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -4669,7 +4703,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
-      <c r="B47" s="15"/>
+      <c r="B47" s="14"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -4679,7 +4713,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
-      <c r="B48" s="15"/>
+      <c r="B48" s="14"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -4689,7 +4723,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
-      <c r="B49" s="15"/>
+      <c r="B49" s="14"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -4699,7 +4733,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
-      <c r="B50" s="15"/>
+      <c r="B50" s="14"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -4709,7 +4743,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
-      <c r="B51" s="15"/>
+      <c r="B51" s="14"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -4719,7 +4753,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
-      <c r="B52" s="15"/>
+      <c r="B52" s="14"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -4729,7 +4763,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
-      <c r="B53" s="15"/>
+      <c r="B53" s="14"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -4739,7 +4773,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
-      <c r="B54" s="15"/>
+      <c r="B54" s="14"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -4749,7 +4783,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
-      <c r="B55" s="15"/>
+      <c r="B55" s="14"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -4759,7 +4793,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
-      <c r="B56" s="15"/>
+      <c r="B56" s="14"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -4769,7 +4803,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
-      <c r="B57" s="15"/>
+      <c r="B57" s="14"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -4779,7 +4813,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
-      <c r="B58" s="15"/>
+      <c r="B58" s="14"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -4789,7 +4823,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
-      <c r="B59" s="15"/>
+      <c r="B59" s="14"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -4799,7 +4833,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
-      <c r="B60" s="15"/>
+      <c r="B60" s="14"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -4809,7 +4843,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
-      <c r="B61" s="15"/>
+      <c r="B61" s="14"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -4819,7 +4853,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
-      <c r="B62" s="15"/>
+      <c r="B62" s="14"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -4829,7 +4863,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
-      <c r="B63" s="15"/>
+      <c r="B63" s="14"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -4839,7 +4873,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
-      <c r="B64" s="15"/>
+      <c r="B64" s="14"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -4849,7 +4883,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
-      <c r="B65" s="15"/>
+      <c r="B65" s="14"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -4859,7 +4893,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
-      <c r="B66" s="15"/>
+      <c r="B66" s="14"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -4869,7 +4903,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
-      <c r="B67" s="15"/>
+      <c r="B67" s="14"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -4879,7 +4913,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
-      <c r="B68" s="15"/>
+      <c r="B68" s="14"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -4889,7 +4923,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
-      <c r="B69" s="15"/>
+      <c r="B69" s="14"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -4899,7 +4933,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
-      <c r="B70" s="15"/>
+      <c r="B70" s="14"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -4909,7 +4943,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
-      <c r="B71" s="15"/>
+      <c r="B71" s="14"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -4919,7 +4953,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
-      <c r="B72" s="15"/>
+      <c r="B72" s="14"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -4929,7 +4963,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
-      <c r="B73" s="15"/>
+      <c r="B73" s="14"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -4939,7 +4973,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
-      <c r="B74" s="15"/>
+      <c r="B74" s="14"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -4949,7 +4983,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
-      <c r="B75" s="15"/>
+      <c r="B75" s="14"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -4959,7 +4993,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
-      <c r="B76" s="15"/>
+      <c r="B76" s="14"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -4969,7 +5003,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
-      <c r="B77" s="15"/>
+      <c r="B77" s="14"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -4979,7 +5013,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
-      <c r="B78" s="15"/>
+      <c r="B78" s="14"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -4989,7 +5023,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
-      <c r="B79" s="15"/>
+      <c r="B79" s="14"/>
       <c r="C79" s="10"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -4998,11 +5032,11 @@
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="15"/>
+      <c r="B80" s="14"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
-      <c r="B81" s="15"/>
+      <c r="B81" s="14"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -5012,7 +5046,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
-      <c r="B82" s="15"/>
+      <c r="B82" s="14"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -5022,7 +5056,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
-      <c r="B83" s="15"/>
+      <c r="B83" s="14"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -5032,7 +5066,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
-      <c r="B84" s="15"/>
+      <c r="B84" s="14"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -5042,7 +5076,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
-      <c r="B85" s="15"/>
+      <c r="B85" s="14"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -5052,7 +5086,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
-      <c r="B86" s="15"/>
+      <c r="B86" s="14"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -5062,7 +5096,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
-      <c r="B87" s="15"/>
+      <c r="B87" s="14"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -5072,7 +5106,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
-      <c r="B88" s="15"/>
+      <c r="B88" s="14"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -5082,7 +5116,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
-      <c r="B89" s="15"/>
+      <c r="B89" s="14"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -5092,7 +5126,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
-      <c r="B90" s="15"/>
+      <c r="B90" s="14"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -5102,7 +5136,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
-      <c r="B91" s="15"/>
+      <c r="B91" s="14"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -5112,7 +5146,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
-      <c r="B92" s="15"/>
+      <c r="B92" s="14"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -5122,7 +5156,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
-      <c r="B93" s="15"/>
+      <c r="B93" s="14"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -5132,7 +5166,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
-      <c r="B94" s="15"/>
+      <c r="B94" s="14"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -5142,7 +5176,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
-      <c r="B95" s="15"/>
+      <c r="B95" s="14"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -5152,7 +5186,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
-      <c r="B96" s="15"/>
+      <c r="B96" s="14"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -5162,7 +5196,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
-      <c r="B97" s="15"/>
+      <c r="B97" s="14"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -5172,7 +5206,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
-      <c r="B98" s="15"/>
+      <c r="B98" s="14"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -5182,7 +5216,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
-      <c r="B99" s="15"/>
+      <c r="B99" s="14"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -5192,7 +5226,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
-      <c r="B100" s="15"/>
+      <c r="B100" s="14"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -5202,7 +5236,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
-      <c r="B101" s="15"/>
+      <c r="B101" s="14"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -5212,7 +5246,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
-      <c r="B102" s="15"/>
+      <c r="B102" s="14"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -5222,7 +5256,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
-      <c r="B103" s="15"/>
+      <c r="B103" s="14"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -5232,7 +5266,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
-      <c r="B104" s="15"/>
+      <c r="B104" s="14"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -5242,7 +5276,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
-      <c r="B105" s="15"/>
+      <c r="B105" s="14"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -5252,7 +5286,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
-      <c r="B106" s="15"/>
+      <c r="B106" s="14"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -5262,7 +5296,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
-      <c r="B107" s="15"/>
+      <c r="B107" s="14"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -5272,7 +5306,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
-      <c r="B108" s="15"/>
+      <c r="B108" s="14"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -5282,7 +5316,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
-      <c r="B109" s="15"/>
+      <c r="B109" s="14"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -5292,7 +5326,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
-      <c r="B110" s="15"/>
+      <c r="B110" s="14"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -5302,7 +5336,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
-      <c r="B111" s="15"/>
+      <c r="B111" s="14"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -5312,7 +5346,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
-      <c r="B112" s="15"/>
+      <c r="B112" s="14"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -5322,7 +5356,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
-      <c r="B113" s="15"/>
+      <c r="B113" s="14"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -5332,7 +5366,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
-      <c r="B114" s="15"/>
+      <c r="B114" s="14"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -5342,7 +5376,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
-      <c r="B115" s="15"/>
+      <c r="B115" s="14"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -5352,7 +5386,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
-      <c r="B116" s="15"/>
+      <c r="B116" s="14"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -5362,7 +5396,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
-      <c r="B117" s="15"/>
+      <c r="B117" s="14"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -5372,7 +5406,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
-      <c r="B118" s="15"/>
+      <c r="B118" s="14"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -5382,7 +5416,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
-      <c r="B119" s="15"/>
+      <c r="B119" s="14"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -5392,7 +5426,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
-      <c r="B120" s="15"/>
+      <c r="B120" s="14"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -5402,7 +5436,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
-      <c r="B121" s="15"/>
+      <c r="B121" s="14"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -5412,7 +5446,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
-      <c r="B122" s="15"/>
+      <c r="B122" s="14"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -5422,7 +5456,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
-      <c r="B123" s="15"/>
+      <c r="B123" s="14"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -5432,7 +5466,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
-      <c r="B124" s="15"/>
+      <c r="B124" s="14"/>
       <c r="C124" s="10"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -5442,7 +5476,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
-      <c r="B125" s="15"/>
+      <c r="B125" s="14"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -5452,7 +5486,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
-      <c r="B126" s="15"/>
+      <c r="B126" s="14"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -5462,7 +5496,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
-      <c r="B127" s="15"/>
+      <c r="B127" s="14"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -5472,7 +5506,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
-      <c r="B128" s="15"/>
+      <c r="B128" s="14"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -5482,7 +5516,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
-      <c r="B129" s="15"/>
+      <c r="B129" s="14"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -5492,7 +5526,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
-      <c r="B130" s="15"/>
+      <c r="B130" s="14"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -5502,7 +5536,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
-      <c r="B131" s="15"/>
+      <c r="B131" s="14"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -5512,7 +5546,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
-      <c r="B132" s="15"/>
+      <c r="B132" s="14"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -5522,7 +5556,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
-      <c r="B133" s="15"/>
+      <c r="B133" s="14"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -5532,7 +5566,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
-      <c r="B134" s="15"/>
+      <c r="B134" s="14"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -5542,7 +5576,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
-      <c r="B135" s="15"/>
+      <c r="B135" s="14"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -5552,7 +5586,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
-      <c r="B136" s="15"/>
+      <c r="B136" s="14"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -5562,7 +5596,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
-      <c r="B137" s="15"/>
+      <c r="B137" s="14"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -5572,7 +5606,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
-      <c r="B138" s="15"/>
+      <c r="B138" s="14"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -5582,7 +5616,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
-      <c r="B139" s="15"/>
+      <c r="B139" s="14"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -5592,7 +5626,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
-      <c r="B140" s="15"/>
+      <c r="B140" s="14"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -5602,7 +5636,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
-      <c r="B141" s="15"/>
+      <c r="B141" s="14"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -5612,7 +5646,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
-      <c r="B142" s="15"/>
+      <c r="B142" s="14"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -5622,7 +5656,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
-      <c r="B143" s="15"/>
+      <c r="B143" s="14"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -5632,7 +5666,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
-      <c r="B144" s="15"/>
+      <c r="B144" s="14"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -5642,7 +5676,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
-      <c r="B145" s="15"/>
+      <c r="B145" s="14"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -5652,7 +5686,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
-      <c r="B146" s="15"/>
+      <c r="B146" s="14"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -5662,7 +5696,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
-      <c r="B147" s="15"/>
+      <c r="B147" s="14"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -5672,7 +5706,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
-      <c r="B148" s="15"/>
+      <c r="B148" s="14"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -5682,7 +5716,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
-      <c r="B149" s="15"/>
+      <c r="B149" s="14"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -5692,7 +5726,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
-      <c r="B150" s="15"/>
+      <c r="B150" s="14"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -5702,7 +5736,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
-      <c r="B151" s="15"/>
+      <c r="B151" s="14"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -5712,7 +5746,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
-      <c r="B152" s="15"/>
+      <c r="B152" s="14"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -5722,7 +5756,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
-      <c r="B153" s="15"/>
+      <c r="B153" s="14"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -5732,7 +5766,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
-      <c r="B154" s="15"/>
+      <c r="B154" s="14"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -5742,7 +5776,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
-      <c r="B155" s="15"/>
+      <c r="B155" s="14"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -5752,7 +5786,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
-      <c r="B156" s="15"/>
+      <c r="B156" s="14"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -5762,7 +5796,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
-      <c r="B157" s="15"/>
+      <c r="B157" s="14"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -5772,7 +5806,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
-      <c r="B158" s="15"/>
+      <c r="B158" s="14"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -5782,7 +5816,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
-      <c r="B159" s="15"/>
+      <c r="B159" s="14"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -5792,7 +5826,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
-      <c r="B160" s="15"/>
+      <c r="B160" s="14"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -5802,7 +5836,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
-      <c r="B161" s="15"/>
+      <c r="B161" s="14"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -5812,7 +5846,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
-      <c r="B162" s="15"/>
+      <c r="B162" s="14"/>
       <c r="C162" s="10"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -5822,7 +5856,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
-      <c r="B163" s="15"/>
+      <c r="B163" s="14"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -5832,7 +5866,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
-      <c r="B164" s="15"/>
+      <c r="B164" s="14"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -5842,7 +5876,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
-      <c r="B165" s="15"/>
+      <c r="B165" s="14"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -5852,7 +5886,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
-      <c r="B166" s="15"/>
+      <c r="B166" s="14"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -5862,7 +5896,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
-      <c r="B167" s="15"/>
+      <c r="B167" s="14"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -5872,7 +5906,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
-      <c r="B168" s="15"/>
+      <c r="B168" s="14"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -5882,7 +5916,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
-      <c r="B169" s="15"/>
+      <c r="B169" s="14"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -5892,7 +5926,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
-      <c r="B170" s="15"/>
+      <c r="B170" s="14"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -5902,7 +5936,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
-      <c r="B171" s="15"/>
+      <c r="B171" s="14"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -5912,7 +5946,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
-      <c r="B172" s="15"/>
+      <c r="B172" s="14"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -5922,7 +5956,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
-      <c r="B173" s="15"/>
+      <c r="B173" s="14"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -5932,7 +5966,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
-      <c r="B174" s="15"/>
+      <c r="B174" s="14"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -5942,7 +5976,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
-      <c r="B175" s="15"/>
+      <c r="B175" s="14"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -5952,7 +5986,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
-      <c r="B176" s="15"/>
+      <c r="B176" s="14"/>
       <c r="C176" s="10"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -5962,7 +5996,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
-      <c r="B177" s="15"/>
+      <c r="B177" s="14"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -5972,7 +6006,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
-      <c r="B178" s="15"/>
+      <c r="B178" s="14"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -5982,7 +6016,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
-      <c r="B179" s="15"/>
+      <c r="B179" s="14"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -5992,7 +6026,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
-      <c r="B180" s="15"/>
+      <c r="B180" s="14"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -6002,7 +6036,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
-      <c r="B181" s="15"/>
+      <c r="B181" s="14"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -6012,7 +6046,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
-      <c r="B182" s="15"/>
+      <c r="B182" s="14"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -6022,7 +6056,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
-      <c r="B183" s="15"/>
+      <c r="B183" s="14"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -6032,7 +6066,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
-      <c r="B184" s="16"/>
+      <c r="B184" s="15"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -6042,7 +6076,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="2"/>
-      <c r="B185" s="14"/>
+      <c r="B185" s="16"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -6162,7 +6196,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
-      <c r="B197" s="15"/>
+      <c r="B197" s="14"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="5"/>
@@ -6172,7 +6206,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
-      <c r="B198" s="15"/>
+      <c r="B198" s="14"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="5"/>
@@ -6182,7 +6216,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="2"/>
-      <c r="B199" s="15"/>
+      <c r="B199" s="14"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="5"/>
@@ -6192,7 +6226,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
-      <c r="B200" s="15"/>
+      <c r="B200" s="14"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="5"/>
@@ -6202,7 +6236,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="2"/>
-      <c r="B201" s="15"/>
+      <c r="B201" s="14"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="5"/>
@@ -6212,7 +6246,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="2"/>
-      <c r="B202" s="15"/>
+      <c r="B202" s="14"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="5"/>
@@ -6222,7 +6256,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="2"/>
-      <c r="B203" s="15"/>
+      <c r="B203" s="14"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="5"/>
@@ -6232,7 +6266,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="2"/>
-      <c r="B204" s="15"/>
+      <c r="B204" s="14"/>
       <c r="C204" s="10"/>
       <c r="D204" s="2"/>
       <c r="E204" s="5"/>
@@ -6242,7 +6276,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="2"/>
-      <c r="B205" s="15"/>
+      <c r="B205" s="14"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="5"/>
@@ -6252,7 +6286,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
-      <c r="B206" s="15"/>
+      <c r="B206" s="14"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="5"/>
@@ -6262,7 +6296,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="2"/>
-      <c r="B207" s="15"/>
+      <c r="B207" s="14"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="5"/>
@@ -6272,7 +6306,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="2"/>
-      <c r="B208" s="15"/>
+      <c r="B208" s="14"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="5"/>
@@ -6282,7 +6316,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="2"/>
-      <c r="B209" s="15"/>
+      <c r="B209" s="14"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="5"/>
@@ -6292,7 +6326,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="2"/>
-      <c r="B210" s="15"/>
+      <c r="B210" s="14"/>
       <c r="C210" s="10"/>
       <c r="D210" s="2"/>
       <c r="E210" s="5"/>
@@ -6302,7 +6336,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="2"/>
-      <c r="B211" s="15"/>
+      <c r="B211" s="14"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="5"/>
@@ -6312,7 +6346,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="2"/>
-      <c r="B212" s="15"/>
+      <c r="B212" s="14"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="5"/>
@@ -6322,7 +6356,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="2"/>
-      <c r="B213" s="15"/>
+      <c r="B213" s="14"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="5"/>
@@ -6332,7 +6366,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="2"/>
-      <c r="B214" s="15"/>
+      <c r="B214" s="14"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -6342,7 +6376,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="2"/>
-      <c r="B215" s="15"/>
+      <c r="B215" s="14"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
@@ -6352,7 +6386,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="2"/>
-      <c r="B216" s="15"/>
+      <c r="B216" s="14"/>
       <c r="C216" s="10"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -6362,7 +6396,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="2"/>
-      <c r="B217" s="15"/>
+      <c r="B217" s="14"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -6372,7 +6406,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="2"/>
-      <c r="B218" s="15"/>
+      <c r="B218" s="14"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -6382,7 +6416,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="2"/>
-      <c r="B219" s="15"/>
+      <c r="B219" s="14"/>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -6392,7 +6426,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="2"/>
-      <c r="B220" s="15"/>
+      <c r="B220" s="14"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -6402,7 +6436,7 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="2"/>
-      <c r="B221" s="15"/>
+      <c r="B221" s="14"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -6412,7 +6446,7 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="2"/>
-      <c r="B222" s="15"/>
+      <c r="B222" s="14"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -6422,7 +6456,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="2"/>
-      <c r="B223" s="15"/>
+      <c r="B223" s="14"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -6432,7 +6466,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="2"/>
-      <c r="B224" s="15"/>
+      <c r="B224" s="14"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -6442,7 +6476,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="2"/>
-      <c r="B225" s="15"/>
+      <c r="B225" s="14"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -6452,7 +6486,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="2"/>
-      <c r="B226" s="15"/>
+      <c r="B226" s="14"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -6462,7 +6496,7 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="2"/>
-      <c r="B227" s="15"/>
+      <c r="B227" s="14"/>
       <c r="C227" s="10"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -6472,7 +6506,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="2"/>
-      <c r="B228" s="15"/>
+      <c r="B228" s="14"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -6482,7 +6516,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="2"/>
-      <c r="B229" s="15"/>
+      <c r="B229" s="14"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -6492,7 +6526,7 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="2"/>
-      <c r="B230" s="15"/>
+      <c r="B230" s="14"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
@@ -6502,7 +6536,7 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="2"/>
-      <c r="B231" s="15"/>
+      <c r="B231" s="14"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -6512,7 +6546,7 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="2"/>
-      <c r="B232" s="15"/>
+      <c r="B232" s="14"/>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -6522,7 +6556,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="2"/>
-      <c r="B233" s="15"/>
+      <c r="B233" s="14"/>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -6532,7 +6566,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="2"/>
-      <c r="B234" s="15"/>
+      <c r="B234" s="14"/>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="5"/>
@@ -6542,7 +6576,7 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="2"/>
-      <c r="B235" s="15"/>
+      <c r="B235" s="14"/>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="5"/>
@@ -6552,7 +6586,7 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="2"/>
-      <c r="B236" s="15"/>
+      <c r="B236" s="14"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="5"/>
@@ -6562,7 +6596,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="2"/>
-      <c r="B237" s="15"/>
+      <c r="B237" s="14"/>
       <c r="C237" s="10"/>
       <c r="D237" s="2"/>
       <c r="E237" s="5"/>
@@ -6572,7 +6606,7 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="2"/>
-      <c r="B238" s="15"/>
+      <c r="B238" s="14"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="5"/>
@@ -6582,7 +6616,7 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="2"/>
-      <c r="B239" s="15"/>
+      <c r="B239" s="14"/>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="5"/>
@@ -6592,7 +6626,7 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="2"/>
-      <c r="B240" s="15"/>
+      <c r="B240" s="14"/>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="5"/>
@@ -6602,7 +6636,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="2"/>
-      <c r="B241" s="15"/>
+      <c r="B241" s="14"/>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
@@ -6612,7 +6646,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="2"/>
-      <c r="B242" s="15"/>
+      <c r="B242" s="14"/>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
@@ -6622,7 +6656,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="2"/>
-      <c r="B243" s="15"/>
+      <c r="B243" s="14"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
@@ -6632,7 +6666,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="2"/>
-      <c r="B244" s="15"/>
+      <c r="B244" s="14"/>
       <c r="C244" s="10"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -6642,7 +6676,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="2"/>
-      <c r="B245" s="15"/>
+      <c r="B245" s="14"/>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -6652,7 +6686,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="2"/>
-      <c r="B246" s="15"/>
+      <c r="B246" s="14"/>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -6662,7 +6696,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="2"/>
-      <c r="B247" s="15"/>
+      <c r="B247" s="14"/>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
@@ -6672,7 +6706,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="2"/>
-      <c r="B248" s="15"/>
+      <c r="B248" s="14"/>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -6682,7 +6716,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="2"/>
-      <c r="B249" s="15"/>
+      <c r="B249" s="14"/>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
@@ -6692,7 +6726,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="2"/>
-      <c r="B250" s="15"/>
+      <c r="B250" s="14"/>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -6702,7 +6736,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="2"/>
-      <c r="B251" s="15"/>
+      <c r="B251" s="14"/>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -6712,7 +6746,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="2"/>
-      <c r="B252" s="15"/>
+      <c r="B252" s="14"/>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -6722,7 +6756,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="2"/>
-      <c r="B253" s="15"/>
+      <c r="B253" s="14"/>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -6732,7 +6766,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="2"/>
-      <c r="B254" s="15"/>
+      <c r="B254" s="14"/>
       <c r="C254" s="10"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -6742,7 +6776,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="2"/>
-      <c r="B255" s="15"/>
+      <c r="B255" s="14"/>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -6752,7 +6786,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="2"/>
-      <c r="B256" s="15"/>
+      <c r="B256" s="14"/>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
@@ -9382,6 +9416,14 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B34:B68"/>
+    <mergeCell ref="B14:B33"/>
+    <mergeCell ref="B164:B167"/>
+    <mergeCell ref="B168:B171"/>
+    <mergeCell ref="B69:B119"/>
+    <mergeCell ref="B160:B163"/>
+    <mergeCell ref="B120:B159"/>
     <mergeCell ref="B197:B206"/>
     <mergeCell ref="B207:B213"/>
     <mergeCell ref="B214:B218"/>
@@ -9393,14 +9435,6 @@
     <mergeCell ref="B234:B240"/>
     <mergeCell ref="B241:B249"/>
     <mergeCell ref="B185:B196"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B34:B68"/>
-    <mergeCell ref="B14:B33"/>
-    <mergeCell ref="B164:B167"/>
-    <mergeCell ref="B168:B171"/>
-    <mergeCell ref="B69:B119"/>
-    <mergeCell ref="B160:B163"/>
-    <mergeCell ref="B120:B159"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9456,7 +9490,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -10320,7 +10354,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -10342,7 +10376,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
-      <c r="B46" s="15"/>
+      <c r="B46" s="14"/>
       <c r="C46" s="7" t="s">
         <v>104</v>
       </c>
@@ -10362,7 +10396,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
-      <c r="B47" s="15"/>
+      <c r="B47" s="14"/>
       <c r="C47" s="7" t="s">
         <v>104</v>
       </c>
@@ -10382,7 +10416,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
-      <c r="B48" s="15"/>
+      <c r="B48" s="14"/>
       <c r="C48" s="7" t="s">
         <v>104</v>
       </c>
@@ -10402,7 +10436,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
-      <c r="B49" s="15"/>
+      <c r="B49" s="14"/>
       <c r="C49" s="7" t="s">
         <v>104</v>
       </c>
@@ -10422,7 +10456,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
-      <c r="B50" s="15"/>
+      <c r="B50" s="14"/>
       <c r="C50" s="7" t="s">
         <v>104</v>
       </c>
@@ -10442,7 +10476,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
-      <c r="B51" s="15"/>
+      <c r="B51" s="14"/>
       <c r="C51" s="7" t="s">
         <v>104</v>
       </c>
@@ -10462,7 +10496,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C52" s="7" t="s">
@@ -10484,7 +10518,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
-      <c r="B53" s="15"/>
+      <c r="B53" s="14"/>
       <c r="C53" s="7" t="s">
         <v>118</v>
       </c>
@@ -10504,7 +10538,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
-      <c r="B54" s="15"/>
+      <c r="B54" s="14"/>
       <c r="C54" s="7" t="s">
         <v>118</v>
       </c>
@@ -10524,7 +10558,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
-      <c r="B55" s="15"/>
+      <c r="B55" s="14"/>
       <c r="C55" s="7" t="s">
         <v>118</v>
       </c>
@@ -10544,7 +10578,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
-      <c r="B56" s="15"/>
+      <c r="B56" s="14"/>
       <c r="C56" s="7" t="s">
         <v>118</v>
       </c>
@@ -10564,7 +10598,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
-      <c r="B57" s="15"/>
+      <c r="B57" s="14"/>
       <c r="C57" s="7" t="s">
         <v>118</v>
       </c>
@@ -10584,7 +10618,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
-      <c r="B58" s="15"/>
+      <c r="B58" s="14"/>
       <c r="C58" s="7" t="s">
         <v>118</v>
       </c>
@@ -10604,7 +10638,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
-      <c r="B59" s="15"/>
+      <c r="B59" s="14"/>
       <c r="C59" s="7" t="s">
         <v>118</v>
       </c>
@@ -10624,7 +10658,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="7"/>
-      <c r="B60" s="15"/>
+      <c r="B60" s="14"/>
       <c r="C60" s="7" t="s">
         <v>118</v>
       </c>
@@ -10644,7 +10678,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="7"/>
-      <c r="B61" s="15"/>
+      <c r="B61" s="14"/>
       <c r="C61" s="7" t="s">
         <v>118</v>
       </c>
@@ -10664,7 +10698,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
-      <c r="B62" s="15"/>
+      <c r="B62" s="14"/>
       <c r="C62" s="7" t="s">
         <v>118</v>
       </c>
@@ -10684,7 +10718,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="7"/>
-      <c r="B63" s="15"/>
+      <c r="B63" s="14"/>
       <c r="C63" s="7" t="s">
         <v>118</v>
       </c>
@@ -10704,7 +10738,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
-      <c r="B64" s="15"/>
+      <c r="B64" s="14"/>
       <c r="C64" s="7" t="s">
         <v>118</v>
       </c>
@@ -10726,7 +10760,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="7"/>
-      <c r="B65" s="15"/>
+      <c r="B65" s="14"/>
       <c r="C65" s="7" t="s">
         <v>118</v>
       </c>
@@ -10746,7 +10780,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
-      <c r="B66" s="15"/>
+      <c r="B66" s="14"/>
       <c r="C66" s="7" t="s">
         <v>118</v>
       </c>
@@ -10768,7 +10802,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
-      <c r="B67" s="15"/>
+      <c r="B67" s="14"/>
       <c r="C67" s="7" t="s">
         <v>118</v>
       </c>
@@ -10788,7 +10822,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
-      <c r="B68" s="15"/>
+      <c r="B68" s="14"/>
       <c r="C68" s="7" t="s">
         <v>118</v>
       </c>
@@ -10808,7 +10842,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
-      <c r="B69" s="15"/>
+      <c r="B69" s="14"/>
       <c r="C69" s="7" t="s">
         <v>118</v>
       </c>
@@ -10828,7 +10862,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="7"/>
-      <c r="B70" s="15"/>
+      <c r="B70" s="14"/>
       <c r="C70" s="7" t="s">
         <v>118</v>
       </c>
@@ -10848,7 +10882,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
-      <c r="B71" s="15"/>
+      <c r="B71" s="14"/>
       <c r="C71" s="7" t="s">
         <v>118</v>
       </c>
@@ -10868,7 +10902,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
-      <c r="B72" s="15"/>
+      <c r="B72" s="14"/>
       <c r="C72" s="7" t="s">
         <v>118</v>
       </c>
@@ -10888,7 +10922,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
-      <c r="B73" s="15"/>
+      <c r="B73" s="14"/>
       <c r="C73" s="7" t="s">
         <v>118</v>
       </c>
@@ -10908,7 +10942,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
-      <c r="B74" s="15"/>
+      <c r="B74" s="14"/>
       <c r="C74" s="7" t="s">
         <v>118</v>
       </c>
@@ -10928,7 +10962,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="7"/>
-      <c r="B75" s="15"/>
+      <c r="B75" s="14"/>
       <c r="C75" s="7" t="s">
         <v>118</v>
       </c>
@@ -10948,7 +10982,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="7"/>
-      <c r="B76" s="15"/>
+      <c r="B76" s="14"/>
       <c r="C76" s="7" t="s">
         <v>118</v>
       </c>
@@ -10968,7 +11002,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
-      <c r="B77" s="15" t="s">
+      <c r="B77" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C77" s="7" t="s">
@@ -10990,7 +11024,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="7"/>
-      <c r="B78" s="15"/>
+      <c r="B78" s="14"/>
       <c r="C78" s="7" t="s">
         <v>536</v>
       </c>
@@ -11010,7 +11044,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="7"/>
-      <c r="B79" s="15"/>
+      <c r="B79" s="14"/>
       <c r="C79" s="7" t="s">
         <v>536</v>
       </c>
@@ -11030,7 +11064,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
-      <c r="B80" s="15"/>
+      <c r="B80" s="14"/>
       <c r="C80" s="7" t="s">
         <v>536</v>
       </c>
@@ -11050,7 +11084,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
-      <c r="B81" s="15"/>
+      <c r="B81" s="14"/>
       <c r="C81" s="7" t="s">
         <v>536</v>
       </c>
@@ -11070,7 +11104,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="7"/>
-      <c r="B82" s="15"/>
+      <c r="B82" s="14"/>
       <c r="C82" s="7" t="s">
         <v>536</v>
       </c>
@@ -11090,7 +11124,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="7"/>
-      <c r="B83" s="15"/>
+      <c r="B83" s="14"/>
       <c r="C83" s="7" t="s">
         <v>536</v>
       </c>
@@ -11110,7 +11144,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="7"/>
-      <c r="B84" s="15"/>
+      <c r="B84" s="14"/>
       <c r="C84" s="7" t="s">
         <v>536</v>
       </c>
@@ -11130,7 +11164,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="7"/>
-      <c r="B85" s="15"/>
+      <c r="B85" s="14"/>
       <c r="C85" s="7" t="s">
         <v>536</v>
       </c>
@@ -11150,7 +11184,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="7"/>
-      <c r="B86" s="15"/>
+      <c r="B86" s="14"/>
       <c r="C86" s="7" t="s">
         <v>536</v>
       </c>
@@ -11170,7 +11204,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="7"/>
-      <c r="B87" s="15"/>
+      <c r="B87" s="14"/>
       <c r="C87" s="7" t="s">
         <v>536</v>
       </c>
@@ -11190,7 +11224,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="7"/>
-      <c r="B88" s="15"/>
+      <c r="B88" s="14"/>
       <c r="C88" s="7" t="s">
         <v>536</v>
       </c>
@@ -11210,7 +11244,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="7"/>
-      <c r="B89" s="15"/>
+      <c r="B89" s="14"/>
       <c r="C89" s="7" t="s">
         <v>536</v>
       </c>
@@ -11230,7 +11264,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="7"/>
-      <c r="B90" s="15"/>
+      <c r="B90" s="14"/>
       <c r="C90" s="7" t="s">
         <v>536</v>
       </c>
@@ -11250,7 +11284,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="7"/>
-      <c r="B91" s="15"/>
+      <c r="B91" s="14"/>
       <c r="C91" s="7" t="s">
         <v>536</v>
       </c>
@@ -11270,7 +11304,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="7"/>
-      <c r="B92" s="15"/>
+      <c r="B92" s="14"/>
       <c r="C92" s="7" t="s">
         <v>536</v>
       </c>
@@ -11290,7 +11324,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="7"/>
-      <c r="B93" s="15"/>
+      <c r="B93" s="14"/>
       <c r="C93" s="7" t="s">
         <v>536</v>
       </c>
@@ -11310,7 +11344,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="7"/>
-      <c r="B94" s="15"/>
+      <c r="B94" s="14"/>
       <c r="C94" s="7" t="s">
         <v>536</v>
       </c>
@@ -11330,7 +11364,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="7"/>
-      <c r="B95" s="15"/>
+      <c r="B95" s="14"/>
       <c r="C95" s="7" t="s">
         <v>536</v>
       </c>
@@ -11350,7 +11384,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="7"/>
-      <c r="B96" s="15"/>
+      <c r="B96" s="14"/>
       <c r="C96" s="7" t="s">
         <v>536</v>
       </c>
@@ -11370,7 +11404,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="7"/>
-      <c r="B97" s="15"/>
+      <c r="B97" s="14"/>
       <c r="C97" s="7" t="s">
         <v>536</v>
       </c>
@@ -11390,7 +11424,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="7"/>
-      <c r="B98" s="15"/>
+      <c r="B98" s="14"/>
       <c r="C98" s="7" t="s">
         <v>536</v>
       </c>
@@ -11410,7 +11444,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="7"/>
-      <c r="B99" s="15"/>
+      <c r="B99" s="14"/>
       <c r="C99" s="7" t="s">
         <v>536</v>
       </c>
@@ -11430,7 +11464,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="7"/>
-      <c r="B100" s="15" t="s">
+      <c r="B100" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C100" s="7" t="s">
@@ -11452,7 +11486,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="7"/>
-      <c r="B101" s="15"/>
+      <c r="B101" s="14"/>
       <c r="C101" s="7" t="s">
         <v>561</v>
       </c>
@@ -11472,7 +11506,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="7"/>
-      <c r="B102" s="15"/>
+      <c r="B102" s="14"/>
       <c r="C102" s="7" t="s">
         <v>170</v>
       </c>
@@ -11492,7 +11526,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="7"/>
-      <c r="B103" s="15"/>
+      <c r="B103" s="14"/>
       <c r="C103" s="7" t="s">
         <v>170</v>
       </c>
@@ -11512,7 +11546,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="7"/>
-      <c r="B104" s="15" t="s">
+      <c r="B104" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C104" s="7" t="s">
@@ -11534,7 +11568,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="7"/>
-      <c r="B105" s="15"/>
+      <c r="B105" s="14"/>
       <c r="C105" s="7" t="s">
         <v>179</v>
       </c>
@@ -11554,7 +11588,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="7"/>
-      <c r="B106" s="15"/>
+      <c r="B106" s="14"/>
       <c r="C106" s="7" t="s">
         <v>562</v>
       </c>
@@ -11574,7 +11608,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="7"/>
-      <c r="B107" s="15"/>
+      <c r="B107" s="14"/>
       <c r="C107" s="7" t="s">
         <v>179</v>
       </c>
@@ -11594,7 +11628,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="7"/>
-      <c r="B108" s="15"/>
+      <c r="B108" s="14"/>
       <c r="C108" s="7" t="s">
         <v>179</v>
       </c>
@@ -11614,7 +11648,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="7"/>
-      <c r="B109" s="15"/>
+      <c r="B109" s="14"/>
       <c r="C109" s="7" t="s">
         <v>179</v>
       </c>
@@ -11634,7 +11668,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="7"/>
-      <c r="B110" s="15"/>
+      <c r="B110" s="14"/>
       <c r="C110" s="7" t="s">
         <v>179</v>
       </c>
@@ -11654,7 +11688,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="7"/>
-      <c r="B111" s="15"/>
+      <c r="B111" s="14"/>
       <c r="C111" s="7" t="s">
         <v>179</v>
       </c>
@@ -11674,7 +11708,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="7"/>
-      <c r="B112" s="15"/>
+      <c r="B112" s="14"/>
       <c r="C112" s="7" t="s">
         <v>179</v>
       </c>
@@ -11694,7 +11728,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="7"/>
-      <c r="B113" s="15"/>
+      <c r="B113" s="14"/>
       <c r="C113" s="7" t="s">
         <v>179</v>
       </c>
@@ -11714,7 +11748,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="7"/>
-      <c r="B114" s="15"/>
+      <c r="B114" s="14"/>
       <c r="C114" s="7" t="s">
         <v>179</v>
       </c>
@@ -11734,7 +11768,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="7"/>
-      <c r="B115" s="15"/>
+      <c r="B115" s="14"/>
       <c r="C115" s="7" t="s">
         <v>179</v>
       </c>
@@ -11754,7 +11788,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="7"/>
-      <c r="B116" s="15"/>
+      <c r="B116" s="14"/>
       <c r="C116" s="7" t="s">
         <v>179</v>
       </c>
@@ -11774,7 +11808,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="7"/>
-      <c r="B117" s="15"/>
+      <c r="B117" s="14"/>
       <c r="C117" s="7" t="s">
         <v>179</v>
       </c>
@@ -11794,7 +11828,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="7"/>
-      <c r="B118" s="15"/>
+      <c r="B118" s="14"/>
       <c r="C118" s="7" t="s">
         <v>179</v>
       </c>
@@ -11816,7 +11850,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="7"/>
-      <c r="B119" s="15"/>
+      <c r="B119" s="14"/>
       <c r="C119" s="7" t="s">
         <v>179</v>
       </c>
@@ -11836,7 +11870,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="7"/>
-      <c r="B120" s="15"/>
+      <c r="B120" s="14"/>
       <c r="C120" s="7" t="s">
         <v>179</v>
       </c>
@@ -11856,7 +11890,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="7"/>
-      <c r="B121" s="15"/>
+      <c r="B121" s="14"/>
       <c r="C121" s="7" t="s">
         <v>179</v>
       </c>
@@ -11876,7 +11910,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="7"/>
-      <c r="B122" s="15"/>
+      <c r="B122" s="14"/>
       <c r="C122" s="7" t="s">
         <v>179</v>
       </c>
@@ -11896,7 +11930,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="7"/>
-      <c r="B123" s="15"/>
+      <c r="B123" s="14"/>
       <c r="C123" s="7" t="s">
         <v>179</v>
       </c>
@@ -11916,7 +11950,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="7"/>
-      <c r="B124" s="15"/>
+      <c r="B124" s="14"/>
       <c r="C124" s="7" t="s">
         <v>179</v>
       </c>
@@ -11936,7 +11970,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="7"/>
-      <c r="B125" s="15"/>
+      <c r="B125" s="14"/>
       <c r="C125" s="7" t="s">
         <v>179</v>
       </c>
@@ -11956,7 +11990,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="7"/>
-      <c r="B126" s="15"/>
+      <c r="B126" s="14"/>
       <c r="C126" s="7" t="s">
         <v>179</v>
       </c>
@@ -11976,7 +12010,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="7"/>
-      <c r="B127" s="15"/>
+      <c r="B127" s="14"/>
       <c r="C127" s="7" t="s">
         <v>179</v>
       </c>
@@ -11996,7 +12030,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="7"/>
-      <c r="B128" s="15"/>
+      <c r="B128" s="14"/>
       <c r="C128" s="7" t="s">
         <v>179</v>
       </c>
@@ -12018,7 +12052,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="7"/>
-      <c r="B129" s="15"/>
+      <c r="B129" s="14"/>
       <c r="C129" s="7" t="s">
         <v>179</v>
       </c>
@@ -12038,7 +12072,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="7"/>
-      <c r="B130" s="15"/>
+      <c r="B130" s="14"/>
       <c r="C130" s="7" t="s">
         <v>179</v>
       </c>
@@ -12060,7 +12094,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="7"/>
-      <c r="B131" s="15"/>
+      <c r="B131" s="14"/>
       <c r="C131" s="7" t="s">
         <v>179</v>
       </c>
@@ -12082,7 +12116,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="7"/>
-      <c r="B132" s="15"/>
+      <c r="B132" s="14"/>
       <c r="C132" s="7" t="s">
         <v>179</v>
       </c>
@@ -12104,7 +12138,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="7"/>
-      <c r="B133" s="15"/>
+      <c r="B133" s="14"/>
       <c r="C133" s="7" t="s">
         <v>179</v>
       </c>
@@ -12126,7 +12160,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="7"/>
-      <c r="B134" s="15"/>
+      <c r="B134" s="14"/>
       <c r="C134" s="7" t="s">
         <v>179</v>
       </c>
@@ -12148,7 +12182,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="7"/>
-      <c r="B135" s="15"/>
+      <c r="B135" s="14"/>
       <c r="C135" s="7" t="s">
         <v>179</v>
       </c>
@@ -12170,7 +12204,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="7"/>
-      <c r="B136" s="15"/>
+      <c r="B136" s="14"/>
       <c r="C136" s="7" t="s">
         <v>179</v>
       </c>
@@ -12192,7 +12226,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="7"/>
-      <c r="B137" s="15"/>
+      <c r="B137" s="14"/>
       <c r="C137" s="7" t="s">
         <v>179</v>
       </c>
@@ -12214,7 +12248,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="7"/>
-      <c r="B138" s="15"/>
+      <c r="B138" s="14"/>
       <c r="C138" s="7" t="s">
         <v>179</v>
       </c>
@@ -12236,7 +12270,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="7"/>
-      <c r="B139" s="15"/>
+      <c r="B139" s="14"/>
       <c r="C139" s="7" t="s">
         <v>179</v>
       </c>
@@ -12258,7 +12292,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="7"/>
-      <c r="B140" s="15"/>
+      <c r="B140" s="14"/>
       <c r="C140" s="7" t="s">
         <v>179</v>
       </c>
@@ -12280,7 +12314,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="7"/>
-      <c r="B141" s="15"/>
+      <c r="B141" s="14"/>
       <c r="C141" s="7" t="s">
         <v>179</v>
       </c>
@@ -12300,7 +12334,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="7"/>
-      <c r="B142" s="15"/>
+      <c r="B142" s="14"/>
       <c r="C142" s="7" t="s">
         <v>179</v>
       </c>
@@ -12320,7 +12354,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="7"/>
-      <c r="B143" s="15"/>
+      <c r="B143" s="14"/>
       <c r="C143" s="7" t="s">
         <v>179</v>
       </c>
@@ -12340,7 +12374,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="7"/>
-      <c r="B144" s="15"/>
+      <c r="B144" s="14"/>
       <c r="C144" s="7" t="s">
         <v>179</v>
       </c>
@@ -12360,7 +12394,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="7"/>
-      <c r="B145" s="15"/>
+      <c r="B145" s="14"/>
       <c r="C145" s="7" t="s">
         <v>179</v>
       </c>
@@ -12380,7 +12414,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="7"/>
-      <c r="B146" s="15"/>
+      <c r="B146" s="14"/>
       <c r="C146" s="7" t="s">
         <v>179</v>
       </c>
@@ -12400,7 +12434,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="7"/>
-      <c r="B147" s="15"/>
+      <c r="B147" s="14"/>
       <c r="C147" s="7" t="s">
         <v>179</v>
       </c>
@@ -12420,7 +12454,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="7"/>
-      <c r="B148" s="15"/>
+      <c r="B148" s="14"/>
       <c r="C148" s="7" t="s">
         <v>179</v>
       </c>
@@ -12440,7 +12474,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="7"/>
-      <c r="B149" s="15" t="s">
+      <c r="B149" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C149" s="7" t="s">
@@ -12462,7 +12496,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="7"/>
-      <c r="B150" s="15"/>
+      <c r="B150" s="14"/>
       <c r="C150" s="7" t="s">
         <v>272</v>
       </c>
@@ -12482,7 +12516,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="7"/>
-      <c r="B151" s="15"/>
+      <c r="B151" s="14"/>
       <c r="C151" s="7" t="s">
         <v>272</v>
       </c>
@@ -12502,7 +12536,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="7"/>
-      <c r="B152" s="15"/>
+      <c r="B152" s="14"/>
       <c r="C152" s="7" t="s">
         <v>272</v>
       </c>
@@ -12522,7 +12556,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="7"/>
-      <c r="B153" s="15" t="s">
+      <c r="B153" s="14" t="s">
         <v>563</v>
       </c>
       <c r="C153" s="7" t="s">
@@ -12544,7 +12578,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="7"/>
-      <c r="B154" s="15"/>
+      <c r="B154" s="14"/>
       <c r="C154" s="7" t="s">
         <v>280</v>
       </c>
@@ -12564,7 +12598,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="7"/>
-      <c r="B155" s="15"/>
+      <c r="B155" s="14"/>
       <c r="C155" s="7" t="s">
         <v>280</v>
       </c>
@@ -12584,7 +12618,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="7"/>
-      <c r="B156" s="15"/>
+      <c r="B156" s="14"/>
       <c r="C156" s="7" t="s">
         <v>280</v>
       </c>
@@ -12604,7 +12638,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="7"/>
-      <c r="B157" s="15"/>
+      <c r="B157" s="14"/>
       <c r="C157" s="7" t="s">
         <v>280</v>
       </c>
@@ -12624,7 +12658,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="7"/>
-      <c r="B158" s="15"/>
+      <c r="B158" s="14"/>
       <c r="C158" s="7" t="s">
         <v>280</v>
       </c>
@@ -12644,7 +12678,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="7"/>
-      <c r="B159" s="15"/>
+      <c r="B159" s="14"/>
       <c r="C159" s="7" t="s">
         <v>280</v>
       </c>
@@ -12664,7 +12698,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="7"/>
-      <c r="B160" s="15"/>
+      <c r="B160" s="14"/>
       <c r="C160" s="7" t="s">
         <v>280</v>
       </c>
@@ -12684,7 +12718,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="7"/>
-      <c r="B161" s="15"/>
+      <c r="B161" s="14"/>
       <c r="C161" s="7" t="s">
         <v>280</v>
       </c>
@@ -12704,7 +12738,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="7"/>
-      <c r="B162" s="15"/>
+      <c r="B162" s="14"/>
       <c r="C162" s="7" t="s">
         <v>280</v>
       </c>
@@ -12724,7 +12758,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="7"/>
-      <c r="B163" s="15"/>
+      <c r="B163" s="14"/>
       <c r="C163" s="7" t="s">
         <v>280</v>
       </c>
@@ -12744,7 +12778,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="7"/>
-      <c r="B164" s="15"/>
+      <c r="B164" s="14"/>
       <c r="C164" s="7" t="s">
         <v>280</v>
       </c>
@@ -12764,7 +12798,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="7"/>
-      <c r="B165" s="15"/>
+      <c r="B165" s="14"/>
       <c r="C165" s="7" t="s">
         <v>280</v>
       </c>
@@ -12784,7 +12818,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="7"/>
-      <c r="B166" s="15"/>
+      <c r="B166" s="14"/>
       <c r="C166" s="7" t="s">
         <v>280</v>
       </c>
@@ -12804,7 +12838,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="7"/>
-      <c r="B167" s="15"/>
+      <c r="B167" s="14"/>
       <c r="C167" s="7" t="s">
         <v>280</v>
       </c>
@@ -12824,7 +12858,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="7"/>
-      <c r="B168" s="15"/>
+      <c r="B168" s="14"/>
       <c r="C168" s="7" t="s">
         <v>280</v>
       </c>
@@ -12844,7 +12878,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="7"/>
-      <c r="B169" s="15"/>
+      <c r="B169" s="14"/>
       <c r="C169" s="7" t="s">
         <v>280</v>
       </c>
@@ -12864,7 +12898,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="7"/>
-      <c r="B170" s="15"/>
+      <c r="B170" s="14"/>
       <c r="C170" s="7" t="s">
         <v>280</v>
       </c>
@@ -12884,7 +12918,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="7"/>
-      <c r="B171" s="15"/>
+      <c r="B171" s="14"/>
       <c r="C171" s="7" t="s">
         <v>280</v>
       </c>
@@ -12904,7 +12938,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="7"/>
-      <c r="B172" s="15"/>
+      <c r="B172" s="14"/>
       <c r="C172" s="7" t="s">
         <v>280</v>
       </c>
@@ -12924,7 +12958,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="7"/>
-      <c r="B173" s="15"/>
+      <c r="B173" s="14"/>
       <c r="C173" s="7" t="s">
         <v>280</v>
       </c>
@@ -12944,7 +12978,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="7"/>
-      <c r="B174" s="15"/>
+      <c r="B174" s="14"/>
       <c r="C174" s="7" t="s">
         <v>564</v>
       </c>
@@ -12964,7 +12998,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="7"/>
-      <c r="B175" s="15"/>
+      <c r="B175" s="14"/>
       <c r="C175" s="7" t="s">
         <v>280</v>
       </c>
@@ -12984,7 +13018,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="7"/>
-      <c r="B176" s="15"/>
+      <c r="B176" s="14"/>
       <c r="C176" s="7" t="s">
         <v>280</v>
       </c>
@@ -13004,7 +13038,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="7"/>
-      <c r="B177" s="15"/>
+      <c r="B177" s="14"/>
       <c r="C177" s="7" t="s">
         <v>280</v>
       </c>
@@ -13024,7 +13058,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="7"/>
-      <c r="B178" s="15"/>
+      <c r="B178" s="14"/>
       <c r="C178" s="7" t="s">
         <v>280</v>
       </c>
@@ -13044,7 +13078,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="7"/>
-      <c r="B179" s="15"/>
+      <c r="B179" s="14"/>
       <c r="C179" s="7" t="s">
         <v>280</v>
       </c>
@@ -13064,7 +13098,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="7"/>
-      <c r="B180" s="15"/>
+      <c r="B180" s="14"/>
       <c r="C180" s="7" t="s">
         <v>280</v>
       </c>
@@ -13084,7 +13118,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="7"/>
-      <c r="B181" s="15"/>
+      <c r="B181" s="14"/>
       <c r="C181" s="7" t="s">
         <v>280</v>
       </c>
@@ -13104,7 +13138,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="7"/>
-      <c r="B182" s="15"/>
+      <c r="B182" s="14"/>
       <c r="C182" s="7" t="s">
         <v>280</v>
       </c>
@@ -13124,7 +13158,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="7"/>
-      <c r="B183" s="15"/>
+      <c r="B183" s="14"/>
       <c r="C183" s="7" t="s">
         <v>280</v>
       </c>
@@ -13144,7 +13178,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="7"/>
-      <c r="B184" s="15"/>
+      <c r="B184" s="14"/>
       <c r="C184" s="7" t="s">
         <v>280</v>
       </c>
@@ -13164,7 +13198,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="7"/>
-      <c r="B185" s="15"/>
+      <c r="B185" s="14"/>
       <c r="C185" s="7" t="s">
         <v>280</v>
       </c>
@@ -13184,7 +13218,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="7"/>
-      <c r="B186" s="15"/>
+      <c r="B186" s="14"/>
       <c r="C186" s="7" t="s">
         <v>280</v>
       </c>
@@ -13204,7 +13238,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="7"/>
-      <c r="B187" s="15"/>
+      <c r="B187" s="14"/>
       <c r="C187" s="7" t="s">
         <v>280</v>
       </c>
@@ -13224,7 +13258,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="7"/>
-      <c r="B188" s="15"/>
+      <c r="B188" s="14"/>
       <c r="C188" s="7" t="s">
         <v>280</v>
       </c>
@@ -13244,7 +13278,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="7"/>
-      <c r="B189" s="15"/>
+      <c r="B189" s="14"/>
       <c r="C189" s="7" t="s">
         <v>280</v>
       </c>
@@ -13264,7 +13298,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="7"/>
-      <c r="B190" s="15"/>
+      <c r="B190" s="14"/>
       <c r="C190" s="7" t="s">
         <v>280</v>
       </c>
@@ -13284,7 +13318,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="7"/>
-      <c r="B191" s="15"/>
+      <c r="B191" s="14"/>
       <c r="C191" s="7" t="s">
         <v>280</v>
       </c>
@@ -13304,7 +13338,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="7"/>
-      <c r="B192" s="15"/>
+      <c r="B192" s="14"/>
       <c r="C192" s="7" t="s">
         <v>280</v>
       </c>
@@ -13324,7 +13358,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="7"/>
-      <c r="B193" s="15"/>
+      <c r="B193" s="14"/>
       <c r="C193" s="7" t="s">
         <v>280</v>
       </c>
@@ -13344,7 +13378,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="7"/>
-      <c r="B194" s="15"/>
+      <c r="B194" s="14"/>
       <c r="C194" s="7" t="s">
         <v>280</v>
       </c>
@@ -13364,7 +13398,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="7"/>
-      <c r="B195" s="15"/>
+      <c r="B195" s="14"/>
       <c r="C195" s="7" t="s">
         <v>280</v>
       </c>
@@ -13384,7 +13418,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="7"/>
-      <c r="B196" s="15"/>
+      <c r="B196" s="14"/>
       <c r="C196" s="7" t="s">
         <v>280</v>
       </c>
@@ -13404,7 +13438,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="7"/>
-      <c r="B197" s="15"/>
+      <c r="B197" s="14"/>
       <c r="C197" s="7" t="s">
         <v>280</v>
       </c>
@@ -13424,7 +13458,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="7"/>
-      <c r="B198" s="15"/>
+      <c r="B198" s="14"/>
       <c r="C198" s="7" t="s">
         <v>280</v>
       </c>
@@ -13444,7 +13478,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="7"/>
-      <c r="B199" s="15"/>
+      <c r="B199" s="14"/>
       <c r="C199" s="7" t="s">
         <v>280</v>
       </c>
@@ -13464,7 +13498,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="7"/>
-      <c r="B200" s="15"/>
+      <c r="B200" s="14"/>
       <c r="C200" s="7" t="s">
         <v>280</v>
       </c>
@@ -13484,7 +13518,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="7"/>
-      <c r="B201" s="15"/>
+      <c r="B201" s="14"/>
       <c r="C201" s="7" t="s">
         <v>280</v>
       </c>
@@ -13504,7 +13538,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="7"/>
-      <c r="B202" s="15"/>
+      <c r="B202" s="14"/>
       <c r="C202" s="7" t="s">
         <v>280</v>
       </c>
@@ -13524,7 +13558,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="7"/>
-      <c r="B203" s="15"/>
+      <c r="B203" s="14"/>
       <c r="C203" s="7" t="s">
         <v>280</v>
       </c>
@@ -13544,7 +13578,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="7"/>
-      <c r="B204" s="15"/>
+      <c r="B204" s="14"/>
       <c r="C204" s="7" t="s">
         <v>280</v>
       </c>
@@ -13564,7 +13598,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="7"/>
-      <c r="B205" s="15"/>
+      <c r="B205" s="14"/>
       <c r="C205" s="7" t="s">
         <v>280</v>
       </c>
@@ -13584,7 +13618,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="7"/>
-      <c r="B206" s="15"/>
+      <c r="B206" s="14"/>
       <c r="C206" s="7" t="s">
         <v>280</v>
       </c>
@@ -13604,7 +13638,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="7"/>
-      <c r="B207" s="15"/>
+      <c r="B207" s="14"/>
       <c r="C207" s="7" t="s">
         <v>280</v>
       </c>
@@ -13624,7 +13658,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="7"/>
-      <c r="B208" s="15"/>
+      <c r="B208" s="14"/>
       <c r="C208" s="7" t="s">
         <v>280</v>
       </c>
@@ -13644,7 +13678,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="7"/>
-      <c r="B209" s="15"/>
+      <c r="B209" s="14"/>
       <c r="C209" s="7" t="s">
         <v>280</v>
       </c>
@@ -13664,7 +13698,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="7"/>
-      <c r="B210" s="15"/>
+      <c r="B210" s="14"/>
       <c r="C210" s="7" t="s">
         <v>280</v>
       </c>
@@ -13684,7 +13718,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="7"/>
-      <c r="B211" s="15"/>
+      <c r="B211" s="14"/>
       <c r="C211" s="7" t="s">
         <v>280</v>
       </c>
@@ -13704,7 +13738,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="7"/>
-      <c r="B212" s="15"/>
+      <c r="B212" s="14"/>
       <c r="C212" s="7" t="s">
         <v>280</v>
       </c>
@@ -13724,7 +13758,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="7"/>
-      <c r="B213" s="15"/>
+      <c r="B213" s="14"/>
       <c r="C213" s="7" t="s">
         <v>280</v>
       </c>
@@ -13744,7 +13778,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="7"/>
-      <c r="B214" s="15"/>
+      <c r="B214" s="14"/>
       <c r="C214" s="7" t="s">
         <v>280</v>
       </c>
@@ -13764,7 +13798,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="7"/>
-      <c r="B215" s="15"/>
+      <c r="B215" s="14"/>
       <c r="C215" s="7" t="s">
         <v>280</v>
       </c>
@@ -13784,7 +13818,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="7"/>
-      <c r="B216" s="15"/>
+      <c r="B216" s="14"/>
       <c r="C216" s="7" t="s">
         <v>280</v>
       </c>
@@ -13804,7 +13838,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="7"/>
-      <c r="B217" s="15"/>
+      <c r="B217" s="14"/>
       <c r="C217" s="7" t="s">
         <v>280</v>
       </c>
@@ -13824,7 +13858,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="7"/>
-      <c r="B218" s="15"/>
+      <c r="B218" s="14"/>
       <c r="C218" s="7" t="s">
         <v>280</v>
       </c>
@@ -13844,7 +13878,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="7"/>
-      <c r="B219" s="15"/>
+      <c r="B219" s="14"/>
       <c r="C219" s="7" t="s">
         <v>280</v>
       </c>
@@ -13864,7 +13898,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="7"/>
-      <c r="B220" s="15"/>
+      <c r="B220" s="14"/>
       <c r="C220" s="7" t="s">
         <v>280</v>
       </c>
@@ -14026,7 +14060,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="7"/>
-      <c r="B228" s="15" t="s">
+      <c r="B228" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C228" s="7" t="s">
@@ -14048,7 +14082,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="7"/>
-      <c r="B229" s="15"/>
+      <c r="B229" s="14"/>
       <c r="C229" s="7" t="s">
         <v>430</v>
       </c>
@@ -14068,7 +14102,7 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="7"/>
-      <c r="B230" s="15"/>
+      <c r="B230" s="14"/>
       <c r="C230" s="7" t="s">
         <v>430</v>
       </c>
@@ -14088,7 +14122,7 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="7"/>
-      <c r="B231" s="15"/>
+      <c r="B231" s="14"/>
       <c r="C231" s="7" t="s">
         <v>430</v>
       </c>
@@ -14108,7 +14142,7 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="7"/>
-      <c r="B232" s="15"/>
+      <c r="B232" s="14"/>
       <c r="C232" s="7" t="s">
         <v>430</v>
       </c>
@@ -14128,7 +14162,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="7"/>
-      <c r="B233" s="15"/>
+      <c r="B233" s="14"/>
       <c r="C233" s="7" t="s">
         <v>430</v>
       </c>
@@ -14148,7 +14182,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="7"/>
-      <c r="B234" s="15"/>
+      <c r="B234" s="14"/>
       <c r="C234" s="7" t="s">
         <v>430</v>
       </c>
@@ -14168,7 +14202,7 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="7"/>
-      <c r="B235" s="15"/>
+      <c r="B235" s="14"/>
       <c r="C235" s="7" t="s">
         <v>430</v>
       </c>
@@ -14188,7 +14222,7 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="7"/>
-      <c r="B236" s="15"/>
+      <c r="B236" s="14"/>
       <c r="C236" s="7" t="s">
         <v>566</v>
       </c>
@@ -14208,7 +14242,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="7"/>
-      <c r="B237" s="15"/>
+      <c r="B237" s="14"/>
       <c r="C237" s="7" t="s">
         <v>430</v>
       </c>
@@ -14228,7 +14262,7 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="7"/>
-      <c r="B238" s="15"/>
+      <c r="B238" s="14"/>
       <c r="C238" s="7" t="s">
         <v>430</v>
       </c>
@@ -14248,7 +14282,7 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="7"/>
-      <c r="B239" s="15"/>
+      <c r="B239" s="14"/>
       <c r="C239" s="7" t="s">
         <v>430</v>
       </c>
@@ -14268,7 +14302,7 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="7"/>
-      <c r="B240" s="15"/>
+      <c r="B240" s="14"/>
       <c r="C240" s="7" t="s">
         <v>430</v>
       </c>
@@ -14288,7 +14322,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="7"/>
-      <c r="B241" s="15"/>
+      <c r="B241" s="14"/>
       <c r="C241" s="7" t="s">
         <v>430</v>
       </c>
@@ -14308,7 +14342,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="7"/>
-      <c r="B242" s="15"/>
+      <c r="B242" s="14"/>
       <c r="C242" s="7" t="s">
         <v>430</v>
       </c>
@@ -14328,7 +14362,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="7"/>
-      <c r="B243" s="15"/>
+      <c r="B243" s="14"/>
       <c r="C243" s="7" t="s">
         <v>430</v>
       </c>
@@ -14348,7 +14382,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="7"/>
-      <c r="B244" s="15"/>
+      <c r="B244" s="14"/>
       <c r="C244" s="7" t="s">
         <v>430</v>
       </c>
@@ -14368,7 +14402,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="7"/>
-      <c r="B245" s="15"/>
+      <c r="B245" s="14"/>
       <c r="C245" s="7" t="s">
         <v>430</v>
       </c>
@@ -14388,7 +14422,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="7"/>
-      <c r="B246" s="15"/>
+      <c r="B246" s="14"/>
       <c r="C246" s="7" t="s">
         <v>430</v>
       </c>
@@ -14408,7 +14442,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="7"/>
-      <c r="B247" s="15"/>
+      <c r="B247" s="14"/>
       <c r="C247" s="7" t="s">
         <v>430</v>
       </c>
@@ -14428,7 +14462,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="7"/>
-      <c r="B248" s="15"/>
+      <c r="B248" s="14"/>
       <c r="C248" s="7" t="s">
         <v>430</v>
       </c>
@@ -14448,7 +14482,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="7"/>
-      <c r="B249" s="15"/>
+      <c r="B249" s="14"/>
       <c r="C249" s="7" t="s">
         <v>430</v>
       </c>
@@ -14468,7 +14502,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="7"/>
-      <c r="B250" s="15"/>
+      <c r="B250" s="14"/>
       <c r="C250" s="7" t="s">
         <v>430</v>
       </c>
@@ -14488,7 +14522,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="7"/>
-      <c r="B251" s="15"/>
+      <c r="B251" s="14"/>
       <c r="C251" s="7" t="s">
         <v>430</v>
       </c>
@@ -14508,7 +14542,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="7"/>
-      <c r="B252" s="15"/>
+      <c r="B252" s="14"/>
       <c r="C252" s="7" t="s">
         <v>430</v>
       </c>
@@ -14528,7 +14562,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="7"/>
-      <c r="B253" s="15"/>
+      <c r="B253" s="14"/>
       <c r="C253" s="7" t="s">
         <v>430</v>
       </c>
@@ -14548,7 +14582,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="7"/>
-      <c r="B254" s="15"/>
+      <c r="B254" s="14"/>
       <c r="C254" s="7" t="s">
         <v>430</v>
       </c>
@@ -14568,7 +14602,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="7"/>
-      <c r="B255" s="15"/>
+      <c r="B255" s="14"/>
       <c r="C255" s="7" t="s">
         <v>430</v>
       </c>
@@ -14588,7 +14622,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="7"/>
-      <c r="B256" s="15"/>
+      <c r="B256" s="14"/>
       <c r="C256" s="7" t="s">
         <v>430</v>
       </c>
@@ -14608,7 +14642,7 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="7"/>
-      <c r="B257" s="15"/>
+      <c r="B257" s="14"/>
       <c r="C257" s="7" t="s">
         <v>430</v>
       </c>
@@ -14628,7 +14662,7 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="7"/>
-      <c r="B258" s="15"/>
+      <c r="B258" s="14"/>
       <c r="C258" s="7" t="s">
         <v>430</v>
       </c>
@@ -14648,7 +14682,7 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="7"/>
-      <c r="B259" s="15"/>
+      <c r="B259" s="14"/>
       <c r="C259" s="7" t="s">
         <v>430</v>
       </c>
@@ -14768,7 +14802,7 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="7"/>
-      <c r="B265" s="15" t="s">
+      <c r="B265" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C265" s="7" t="s">
@@ -14789,7 +14823,7 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="7"/>
-      <c r="B266" s="15"/>
+      <c r="B266" s="14"/>
       <c r="C266" s="7" t="s">
         <v>504</v>
       </c>
@@ -14808,7 +14842,7 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="7"/>
-      <c r="B267" s="15"/>
+      <c r="B267" s="14"/>
       <c r="C267" s="7" t="s">
         <v>504</v>
       </c>
@@ -14827,7 +14861,7 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="7"/>
-      <c r="B268" s="15"/>
+      <c r="B268" s="14"/>
       <c r="C268" s="7" t="s">
         <v>504</v>
       </c>
@@ -14846,7 +14880,7 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="7"/>
-      <c r="B269" s="15"/>
+      <c r="B269" s="14"/>
       <c r="C269" s="7" t="s">
         <v>504</v>
       </c>
@@ -14865,7 +14899,7 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="7"/>
-      <c r="B270" s="15" t="s">
+      <c r="B270" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C270" s="7" t="s">
@@ -14886,7 +14920,7 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="7"/>
-      <c r="B271" s="15"/>
+      <c r="B271" s="14"/>
       <c r="C271" s="7" t="s">
         <v>513</v>
       </c>
@@ -14905,7 +14939,7 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="7"/>
-      <c r="B272" s="15"/>
+      <c r="B272" s="14"/>
       <c r="C272" s="7" t="s">
         <v>513</v>
       </c>
@@ -14924,7 +14958,7 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="7"/>
-      <c r="B273" s="15"/>
+      <c r="B273" s="14"/>
       <c r="C273" s="7" t="s">
         <v>513</v>
       </c>
@@ -14943,7 +14977,7 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="7"/>
-      <c r="B274" s="15"/>
+      <c r="B274" s="14"/>
       <c r="C274" s="7" t="s">
         <v>513</v>
       </c>
@@ -14962,7 +14996,7 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="7"/>
-      <c r="B275" s="15"/>
+      <c r="B275" s="14"/>
       <c r="C275" s="7" t="s">
         <v>513</v>
       </c>
@@ -14981,7 +15015,7 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="7"/>
-      <c r="B276" s="15" t="s">
+      <c r="B276" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C276" s="7" t="s">
@@ -15002,7 +15036,7 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="7"/>
-      <c r="B277" s="15"/>
+      <c r="B277" s="14"/>
       <c r="C277" s="7" t="s">
         <v>526</v>
       </c>
@@ -15021,7 +15055,7 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="7"/>
-      <c r="B278" s="15"/>
+      <c r="B278" s="14"/>
       <c r="C278" s="7" t="s">
         <v>526</v>
       </c>
@@ -15040,7 +15074,7 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="7"/>
-      <c r="B279" s="15"/>
+      <c r="B279" s="14"/>
       <c r="C279" s="7" t="s">
         <v>526</v>
       </c>
@@ -15059,7 +15093,7 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="7"/>
-      <c r="B280" s="15"/>
+      <c r="B280" s="14"/>
       <c r="C280" s="7" t="s">
         <v>526</v>
       </c>
@@ -15693,6 +15727,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B276:B280"/>
+    <mergeCell ref="B153:B220"/>
+    <mergeCell ref="B221:B227"/>
+    <mergeCell ref="B228:B259"/>
+    <mergeCell ref="B260:B264"/>
+    <mergeCell ref="B265:B269"/>
+    <mergeCell ref="B270:B275"/>
     <mergeCell ref="B149:B152"/>
     <mergeCell ref="B2:B44"/>
     <mergeCell ref="B45:B51"/>
@@ -15700,13 +15741,6 @@
     <mergeCell ref="B52:B76"/>
     <mergeCell ref="B104:B148"/>
     <mergeCell ref="B77:B99"/>
-    <mergeCell ref="B276:B280"/>
-    <mergeCell ref="B153:B220"/>
-    <mergeCell ref="B221:B227"/>
-    <mergeCell ref="B228:B259"/>
-    <mergeCell ref="B260:B264"/>
-    <mergeCell ref="B265:B269"/>
-    <mergeCell ref="B270:B275"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15761,7 +15795,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>567</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -15783,7 +15817,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
-      <c r="B3" s="15"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="10" t="s">
         <v>568</v>
       </c>
@@ -15803,7 +15837,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
-      <c r="B4" s="15"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="10" t="s">
         <v>568</v>
       </c>
@@ -15823,7 +15857,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
-      <c r="B5" s="15"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="10" t="s">
         <v>568</v>
       </c>
@@ -15843,7 +15877,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
-      <c r="B6" s="15"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="10" t="s">
         <v>568</v>
       </c>
@@ -15863,7 +15897,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
-      <c r="B7" s="15"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="10" t="s">
         <v>568</v>
       </c>
@@ -15883,7 +15917,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
-      <c r="B8" s="15"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="10" t="s">
         <v>568</v>
       </c>
@@ -15903,7 +15937,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
-      <c r="B9" s="15"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="10" t="s">
         <v>568</v>
       </c>
@@ -16214,7 +16248,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>567</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -16235,7 +16269,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
-      <c r="B25" s="15"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="10" t="s">
         <v>615</v>
       </c>
@@ -16254,7 +16288,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
-      <c r="B26" s="15"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="10" t="s">
         <v>615</v>
       </c>
@@ -16273,7 +16307,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
-      <c r="B27" s="15"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="10" t="s">
         <v>615</v>
       </c>
@@ -16292,7 +16326,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
-      <c r="B28" s="15"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="10" t="s">
         <v>1035</v>
       </c>
@@ -16311,7 +16345,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
-      <c r="B29" s="15"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="10" t="s">
         <v>615</v>
       </c>
@@ -16330,7 +16364,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
-      <c r="B30" s="15"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="10" t="s">
         <v>615</v>
       </c>
@@ -16349,7 +16383,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>1036</v>
       </c>
       <c r="C31" s="10" t="s">
@@ -16370,7 +16404,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
-      <c r="B32" s="15"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="10" t="s">
         <v>630</v>
       </c>
@@ -16389,7 +16423,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
-      <c r="B33" s="15"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="10" t="s">
         <v>630</v>
       </c>
@@ -16408,7 +16442,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
-      <c r="B34" s="15"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="10" t="s">
         <v>1037</v>
       </c>
@@ -16427,7 +16461,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
-      <c r="B35" s="15"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="10" t="s">
         <v>630</v>
       </c>
@@ -16446,7 +16480,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
-      <c r="B36" s="15"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="10" t="s">
         <v>630</v>
       </c>
@@ -16465,7 +16499,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
-      <c r="B37" s="15"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="10" t="s">
         <v>630</v>
       </c>
@@ -16484,7 +16518,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="14" t="s">
         <v>567</v>
       </c>
       <c r="C38" s="10" t="s">
@@ -16505,7 +16539,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
-      <c r="B39" s="15"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="10" t="s">
         <v>645</v>
       </c>
@@ -16524,7 +16558,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
-      <c r="B40" s="15"/>
+      <c r="B40" s="14"/>
       <c r="C40" s="10" t="s">
         <v>645</v>
       </c>
@@ -16543,7 +16577,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
-      <c r="B41" s="15"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="10" t="s">
         <v>645</v>
       </c>
@@ -16562,7 +16596,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="14" t="s">
         <v>567</v>
       </c>
       <c r="C42" s="10" t="s">
@@ -16583,7 +16617,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
-      <c r="B43" s="15"/>
+      <c r="B43" s="14"/>
       <c r="C43" s="10" t="s">
         <v>654</v>
       </c>
@@ -16602,7 +16636,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
-      <c r="B44" s="15"/>
+      <c r="B44" s="14"/>
       <c r="C44" s="10" t="s">
         <v>654</v>
       </c>
@@ -16621,7 +16655,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
-      <c r="B45" s="15"/>
+      <c r="B45" s="14"/>
       <c r="C45" s="10" t="s">
         <v>1038</v>
       </c>
@@ -16640,7 +16674,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
-      <c r="B46" s="15"/>
+      <c r="B46" s="14"/>
       <c r="C46" s="10" t="s">
         <v>654</v>
       </c>
@@ -16659,7 +16693,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
-      <c r="B47" s="15"/>
+      <c r="B47" s="14"/>
       <c r="C47" s="10" t="s">
         <v>654</v>
       </c>
@@ -16678,7 +16712,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
-      <c r="B48" s="15"/>
+      <c r="B48" s="14"/>
       <c r="C48" s="10" t="s">
         <v>654</v>
       </c>
@@ -16697,7 +16731,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
-      <c r="B49" s="15"/>
+      <c r="B49" s="14"/>
       <c r="C49" s="10" t="s">
         <v>654</v>
       </c>
@@ -16716,7 +16750,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
-      <c r="B50" s="15"/>
+      <c r="B50" s="14"/>
       <c r="C50" s="10" t="s">
         <v>654</v>
       </c>
@@ -16735,7 +16769,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
-      <c r="B51" s="15"/>
+      <c r="B51" s="14"/>
       <c r="C51" s="10" t="s">
         <v>654</v>
       </c>
@@ -16754,7 +16788,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
-      <c r="B52" s="15"/>
+      <c r="B52" s="14"/>
       <c r="C52" s="10" t="s">
         <v>654</v>
       </c>
@@ -16773,7 +16807,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="14" t="s">
         <v>567</v>
       </c>
       <c r="C53" s="10" t="s">
@@ -16794,7 +16828,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
-      <c r="B54" s="15"/>
+      <c r="B54" s="14"/>
       <c r="C54" s="10" t="s">
         <v>676</v>
       </c>
@@ -16813,7 +16847,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
-      <c r="B55" s="15"/>
+      <c r="B55" s="14"/>
       <c r="C55" s="10" t="s">
         <v>1039</v>
       </c>
@@ -16832,7 +16866,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
-      <c r="B56" s="15"/>
+      <c r="B56" s="14"/>
       <c r="C56" s="10" t="s">
         <v>676</v>
       </c>
@@ -16851,7 +16885,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="14" t="s">
         <v>567</v>
       </c>
       <c r="C57" s="10" t="s">
@@ -16872,7 +16906,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
-      <c r="B58" s="15"/>
+      <c r="B58" s="14"/>
       <c r="C58" s="10" t="s">
         <v>684</v>
       </c>
@@ -16891,7 +16925,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
-      <c r="B59" s="15"/>
+      <c r="B59" s="14"/>
       <c r="C59" s="10" t="s">
         <v>684</v>
       </c>
@@ -16910,7 +16944,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
-      <c r="B60" s="15"/>
+      <c r="B60" s="14"/>
       <c r="C60" s="10" t="s">
         <v>684</v>
       </c>
@@ -16929,7 +16963,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="10"/>
-      <c r="B61" s="15"/>
+      <c r="B61" s="14"/>
       <c r="C61" s="10" t="s">
         <v>684</v>
       </c>
@@ -16948,7 +16982,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="10"/>
-      <c r="B62" s="15"/>
+      <c r="B62" s="14"/>
       <c r="C62" s="10" t="s">
         <v>684</v>
       </c>
@@ -16967,7 +17001,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
-      <c r="B63" s="15"/>
+      <c r="B63" s="14"/>
       <c r="C63" s="10" t="s">
         <v>684</v>
       </c>
@@ -16986,7 +17020,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="10"/>
-      <c r="B64" s="15"/>
+      <c r="B64" s="14"/>
       <c r="C64" s="10" t="s">
         <v>684</v>
       </c>
@@ -17005,7 +17039,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="10"/>
-      <c r="B65" s="15"/>
+      <c r="B65" s="14"/>
       <c r="C65" s="10" t="s">
         <v>684</v>
       </c>
@@ -17024,7 +17058,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="10"/>
-      <c r="B66" s="15"/>
+      <c r="B66" s="14"/>
       <c r="C66" s="10" t="s">
         <v>684</v>
       </c>
@@ -17043,7 +17077,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="10"/>
-      <c r="B67" s="15"/>
+      <c r="B67" s="14"/>
       <c r="C67" s="10" t="s">
         <v>684</v>
       </c>
@@ -17062,7 +17096,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="10"/>
-      <c r="B68" s="15"/>
+      <c r="B68" s="14"/>
       <c r="C68" s="10" t="s">
         <v>684</v>
       </c>
@@ -17081,7 +17115,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
-      <c r="B69" s="15"/>
+      <c r="B69" s="14"/>
       <c r="C69" s="10" t="s">
         <v>1040</v>
       </c>
@@ -17100,7 +17134,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="10"/>
-      <c r="B70" s="15"/>
+      <c r="B70" s="14"/>
       <c r="C70" s="10" t="s">
         <v>684</v>
       </c>
@@ -17119,7 +17153,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="10"/>
-      <c r="B71" s="15"/>
+      <c r="B71" s="14"/>
       <c r="C71" s="10" t="s">
         <v>684</v>
       </c>
@@ -17138,7 +17172,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="10"/>
-      <c r="B72" s="15"/>
+      <c r="B72" s="14"/>
       <c r="C72" s="10" t="s">
         <v>684</v>
       </c>
@@ -17157,7 +17191,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="10"/>
-      <c r="B73" s="15"/>
+      <c r="B73" s="14"/>
       <c r="C73" s="10" t="s">
         <v>684</v>
       </c>
@@ -17176,7 +17210,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="10"/>
-      <c r="B74" s="15"/>
+      <c r="B74" s="14"/>
       <c r="C74" s="10" t="s">
         <v>684</v>
       </c>
@@ -17195,7 +17229,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="10"/>
-      <c r="B75" s="15"/>
+      <c r="B75" s="14"/>
       <c r="C75" s="10" t="s">
         <v>684</v>
       </c>
@@ -17214,7 +17248,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="10"/>
-      <c r="B76" s="15"/>
+      <c r="B76" s="14"/>
       <c r="C76" s="10" t="s">
         <v>684</v>
       </c>
@@ -17233,7 +17267,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="10"/>
-      <c r="B77" s="15"/>
+      <c r="B77" s="14"/>
       <c r="C77" s="10" t="s">
         <v>684</v>
       </c>
@@ -17252,7 +17286,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="10"/>
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="14" t="s">
         <v>567</v>
       </c>
       <c r="C78" s="10" t="s">
@@ -17276,7 +17310,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="10"/>
-      <c r="B79" s="15"/>
+      <c r="B79" s="14"/>
       <c r="C79" s="10" t="s">
         <v>727</v>
       </c>
@@ -17298,7 +17332,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="10"/>
-      <c r="B80" s="15"/>
+      <c r="B80" s="14"/>
       <c r="C80" s="10" t="s">
         <v>727</v>
       </c>
@@ -17320,7 +17354,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="10"/>
-      <c r="B81" s="15"/>
+      <c r="B81" s="14"/>
       <c r="C81" s="10" t="s">
         <v>727</v>
       </c>
@@ -17342,7 +17376,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="10"/>
-      <c r="B82" s="15"/>
+      <c r="B82" s="14"/>
       <c r="C82" s="10" t="s">
         <v>727</v>
       </c>
@@ -17364,7 +17398,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="10"/>
-      <c r="B83" s="15"/>
+      <c r="B83" s="14"/>
       <c r="C83" s="10" t="s">
         <v>727</v>
       </c>
@@ -17386,7 +17420,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="10"/>
-      <c r="B84" s="15"/>
+      <c r="B84" s="14"/>
       <c r="C84" s="10" t="s">
         <v>1041</v>
       </c>
@@ -17408,7 +17442,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="10"/>
-      <c r="B85" s="15"/>
+      <c r="B85" s="14"/>
       <c r="C85" s="10" t="s">
         <v>727</v>
       </c>
@@ -17430,7 +17464,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="10"/>
-      <c r="B86" s="15"/>
+      <c r="B86" s="14"/>
       <c r="C86" s="10" t="s">
         <v>727</v>
       </c>
@@ -17452,7 +17486,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="10"/>
-      <c r="B87" s="15"/>
+      <c r="B87" s="14"/>
       <c r="C87" s="10" t="s">
         <v>727</v>
       </c>
@@ -17474,7 +17508,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="10"/>
-      <c r="B88" s="15"/>
+      <c r="B88" s="14"/>
       <c r="C88" s="10" t="s">
         <v>727</v>
       </c>
@@ -17496,7 +17530,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="10"/>
-      <c r="B89" s="15"/>
+      <c r="B89" s="14"/>
       <c r="C89" s="10" t="s">
         <v>727</v>
       </c>
@@ -17518,7 +17552,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="10"/>
-      <c r="B90" s="15"/>
+      <c r="B90" s="14"/>
       <c r="C90" s="10" t="s">
         <v>727</v>
       </c>
@@ -17540,7 +17574,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="10"/>
-      <c r="B91" s="15"/>
+      <c r="B91" s="14"/>
       <c r="C91" s="10" t="s">
         <v>727</v>
       </c>
@@ -17562,7 +17596,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="10"/>
-      <c r="B92" s="15"/>
+      <c r="B92" s="14"/>
       <c r="C92" s="10" t="s">
         <v>727</v>
       </c>
@@ -17584,7 +17618,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="10"/>
-      <c r="B93" s="15"/>
+      <c r="B93" s="14"/>
       <c r="C93" s="10" t="s">
         <v>727</v>
       </c>
@@ -17606,7 +17640,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="10"/>
-      <c r="B94" s="15"/>
+      <c r="B94" s="14"/>
       <c r="C94" s="10" t="s">
         <v>727</v>
       </c>
@@ -18628,7 +18662,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="10"/>
-      <c r="B146" s="15" t="s">
+      <c r="B146" s="14" t="s">
         <v>1036</v>
       </c>
       <c r="C146" s="10" t="s">
@@ -18650,7 +18684,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="10"/>
-      <c r="B147" s="15"/>
+      <c r="B147" s="14"/>
       <c r="C147" s="10" t="s">
         <v>853</v>
       </c>
@@ -18670,7 +18704,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="10"/>
-      <c r="B148" s="15"/>
+      <c r="B148" s="14"/>
       <c r="C148" s="10" t="s">
         <v>853</v>
       </c>
@@ -18690,7 +18724,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="10"/>
-      <c r="B149" s="15"/>
+      <c r="B149" s="14"/>
       <c r="C149" s="10" t="s">
         <v>853</v>
       </c>
@@ -18710,7 +18744,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="10"/>
-      <c r="B150" s="15"/>
+      <c r="B150" s="14"/>
       <c r="C150" s="10" t="s">
         <v>1045</v>
       </c>
@@ -18730,7 +18764,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="10"/>
-      <c r="B151" s="15"/>
+      <c r="B151" s="14"/>
       <c r="C151" s="10" t="s">
         <v>853</v>
       </c>
@@ -18750,7 +18784,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="10"/>
-      <c r="B152" s="15"/>
+      <c r="B152" s="14"/>
       <c r="C152" s="10" t="s">
         <v>853</v>
       </c>
@@ -18770,7 +18804,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="10"/>
-      <c r="B153" s="15"/>
+      <c r="B153" s="14"/>
       <c r="C153" s="10" t="s">
         <v>853</v>
       </c>
@@ -18790,7 +18824,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="10"/>
-      <c r="B154" s="15"/>
+      <c r="B154" s="14"/>
       <c r="C154" s="10" t="s">
         <v>853</v>
       </c>
@@ -18810,7 +18844,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="10"/>
-      <c r="B155" s="15"/>
+      <c r="B155" s="14"/>
       <c r="C155" s="10" t="s">
         <v>853</v>
       </c>
@@ -18830,7 +18864,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="10"/>
-      <c r="B156" s="15" t="s">
+      <c r="B156" s="14" t="s">
         <v>567</v>
       </c>
       <c r="C156" s="10" t="s">
@@ -18852,7 +18886,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="10"/>
-      <c r="B157" s="15"/>
+      <c r="B157" s="14"/>
       <c r="C157" s="10" t="s">
         <v>874</v>
       </c>
@@ -18872,7 +18906,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="10"/>
-      <c r="B158" s="15"/>
+      <c r="B158" s="14"/>
       <c r="C158" s="10" t="s">
         <v>874</v>
       </c>
@@ -18892,7 +18926,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="10"/>
-      <c r="B159" s="15"/>
+      <c r="B159" s="14"/>
       <c r="C159" s="10" t="s">
         <v>1046</v>
       </c>
@@ -18912,7 +18946,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="10"/>
-      <c r="B160" s="15"/>
+      <c r="B160" s="14"/>
       <c r="C160" s="10" t="s">
         <v>874</v>
       </c>
@@ -18932,7 +18966,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="10"/>
-      <c r="B161" s="15"/>
+      <c r="B161" s="14"/>
       <c r="C161" s="10" t="s">
         <v>874</v>
       </c>
@@ -18951,7 +18985,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="10"/>
-      <c r="B162" s="15"/>
+      <c r="B162" s="14"/>
       <c r="C162" s="10" t="s">
         <v>874</v>
       </c>
@@ -18970,7 +19004,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="10"/>
-      <c r="B163" s="15"/>
+      <c r="B163" s="14"/>
       <c r="C163" s="10" t="s">
         <v>874</v>
       </c>
@@ -18989,7 +19023,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="10"/>
-      <c r="B164" s="15"/>
+      <c r="B164" s="14"/>
       <c r="C164" s="10" t="s">
         <v>874</v>
       </c>
@@ -19008,7 +19042,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="10"/>
-      <c r="B165" s="15"/>
+      <c r="B165" s="14"/>
       <c r="C165" s="10" t="s">
         <v>874</v>
       </c>
@@ -19027,7 +19061,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="10"/>
-      <c r="B166" s="15"/>
+      <c r="B166" s="14"/>
       <c r="C166" s="10" t="s">
         <v>874</v>
       </c>
@@ -19046,7 +19080,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="10"/>
-      <c r="B167" s="15"/>
+      <c r="B167" s="14"/>
       <c r="C167" s="10" t="s">
         <v>874</v>
       </c>
@@ -19065,7 +19099,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="10"/>
-      <c r="B168" s="15"/>
+      <c r="B168" s="14"/>
       <c r="C168" s="10" t="s">
         <v>874</v>
       </c>
@@ -19084,7 +19118,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="10"/>
-      <c r="B169" s="15"/>
+      <c r="B169" s="14"/>
       <c r="C169" s="10" t="s">
         <v>874</v>
       </c>
@@ -19103,7 +19137,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="10"/>
-      <c r="B170" s="15"/>
+      <c r="B170" s="14"/>
       <c r="C170" s="10" t="s">
         <v>874</v>
       </c>
@@ -19122,7 +19156,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="10"/>
-      <c r="B171" s="15"/>
+      <c r="B171" s="14"/>
       <c r="C171" s="10" t="s">
         <v>874</v>
       </c>
@@ -19141,7 +19175,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="10"/>
-      <c r="B172" s="15"/>
+      <c r="B172" s="14"/>
       <c r="C172" s="10" t="s">
         <v>874</v>
       </c>
@@ -19160,7 +19194,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="10"/>
-      <c r="B173" s="15"/>
+      <c r="B173" s="14"/>
       <c r="C173" s="10" t="s">
         <v>874</v>
       </c>
@@ -19180,7 +19214,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="10"/>
-      <c r="B174" s="15"/>
+      <c r="B174" s="14"/>
       <c r="C174" s="10" t="s">
         <v>874</v>
       </c>
@@ -19199,7 +19233,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="10"/>
-      <c r="B175" s="15"/>
+      <c r="B175" s="14"/>
       <c r="C175" s="10" t="s">
         <v>874</v>
       </c>
@@ -19218,7 +19252,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="10"/>
-      <c r="B176" s="15"/>
+      <c r="B176" s="14"/>
       <c r="C176" s="10" t="s">
         <v>874</v>
       </c>
@@ -19237,7 +19271,7 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="10"/>
-      <c r="B177" s="15" t="s">
+      <c r="B177" s="14" t="s">
         <v>1036</v>
       </c>
       <c r="C177" s="10" t="s">
@@ -19258,7 +19292,7 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="10"/>
-      <c r="B178" s="15"/>
+      <c r="B178" s="14"/>
       <c r="C178" s="10" t="s">
         <v>917</v>
       </c>
@@ -19277,7 +19311,7 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="10"/>
-      <c r="B179" s="15"/>
+      <c r="B179" s="14"/>
       <c r="C179" s="10" t="s">
         <v>917</v>
       </c>
@@ -19296,7 +19330,7 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="10"/>
-      <c r="B180" s="15"/>
+      <c r="B180" s="14"/>
       <c r="C180" s="10" t="s">
         <v>1047</v>
       </c>
@@ -19315,7 +19349,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="10"/>
-      <c r="B181" s="15"/>
+      <c r="B181" s="14"/>
       <c r="C181" s="10" t="s">
         <v>917</v>
       </c>
@@ -19334,7 +19368,7 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="10"/>
-      <c r="B182" s="15"/>
+      <c r="B182" s="14"/>
       <c r="C182" s="10" t="s">
         <v>917</v>
       </c>
@@ -19353,7 +19387,7 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="10"/>
-      <c r="B183" s="15"/>
+      <c r="B183" s="14"/>
       <c r="C183" s="10" t="s">
         <v>917</v>
       </c>
@@ -19372,7 +19406,7 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="10"/>
-      <c r="B184" s="15"/>
+      <c r="B184" s="14"/>
       <c r="C184" s="10" t="s">
         <v>917</v>
       </c>
@@ -19391,7 +19425,7 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="10"/>
-      <c r="B185" s="15"/>
+      <c r="B185" s="14"/>
       <c r="C185" s="10" t="s">
         <v>917</v>
       </c>
@@ -19410,7 +19444,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="10"/>
-      <c r="B186" s="15" t="s">
+      <c r="B186" s="14" t="s">
         <v>567</v>
       </c>
       <c r="C186" s="10" t="s">
@@ -19431,7 +19465,7 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="10"/>
-      <c r="B187" s="15"/>
+      <c r="B187" s="14"/>
       <c r="C187" s="10" t="s">
         <v>936</v>
       </c>
@@ -19450,7 +19484,7 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="10"/>
-      <c r="B188" s="15"/>
+      <c r="B188" s="14"/>
       <c r="C188" s="10" t="s">
         <v>936</v>
       </c>
@@ -19469,7 +19503,7 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="10"/>
-      <c r="B189" s="15"/>
+      <c r="B189" s="14"/>
       <c r="C189" s="10" t="s">
         <v>936</v>
       </c>
@@ -19488,7 +19522,7 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="10"/>
-      <c r="B190" s="15"/>
+      <c r="B190" s="14"/>
       <c r="C190" s="10" t="s">
         <v>936</v>
       </c>
@@ -19507,7 +19541,7 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="10"/>
-      <c r="B191" s="15"/>
+      <c r="B191" s="14"/>
       <c r="C191" s="10" t="s">
         <v>936</v>
       </c>
@@ -19526,7 +19560,7 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="10"/>
-      <c r="B192" s="15"/>
+      <c r="B192" s="14"/>
       <c r="C192" s="10" t="s">
         <v>936</v>
       </c>
@@ -19545,7 +19579,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="10"/>
-      <c r="B193" s="15"/>
+      <c r="B193" s="14"/>
       <c r="C193" s="10" t="s">
         <v>936</v>
       </c>
@@ -19565,7 +19599,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="10"/>
-      <c r="B194" s="15"/>
+      <c r="B194" s="14"/>
       <c r="C194" s="10" t="s">
         <v>1048</v>
       </c>
@@ -19584,7 +19618,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="10"/>
-      <c r="B195" s="15"/>
+      <c r="B195" s="14"/>
       <c r="C195" s="10" t="s">
         <v>936</v>
       </c>
@@ -19603,7 +19637,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="10"/>
-      <c r="B196" s="15"/>
+      <c r="B196" s="14"/>
       <c r="C196" s="10" t="s">
         <v>936</v>
       </c>
@@ -19622,7 +19656,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="10"/>
-      <c r="B197" s="15"/>
+      <c r="B197" s="14"/>
       <c r="C197" s="10" t="s">
         <v>936</v>
       </c>
@@ -19641,7 +19675,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="10"/>
-      <c r="B198" s="15"/>
+      <c r="B198" s="14"/>
       <c r="C198" s="10" t="s">
         <v>936</v>
       </c>
@@ -19660,7 +19694,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="10"/>
-      <c r="B199" s="15"/>
+      <c r="B199" s="14"/>
       <c r="C199" s="10" t="s">
         <v>936</v>
       </c>
@@ -19679,7 +19713,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="10"/>
-      <c r="B200" s="15" t="s">
+      <c r="B200" s="14" t="s">
         <v>1036</v>
       </c>
       <c r="C200" s="10" t="s">
@@ -19700,7 +19734,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="10"/>
-      <c r="B201" s="15"/>
+      <c r="B201" s="14"/>
       <c r="C201" s="10" t="s">
         <v>963</v>
       </c>
@@ -19719,7 +19753,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="10"/>
-      <c r="B202" s="15"/>
+      <c r="B202" s="14"/>
       <c r="C202" s="10" t="s">
         <v>963</v>
       </c>
@@ -19738,7 +19772,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="10"/>
-      <c r="B203" s="15"/>
+      <c r="B203" s="14"/>
       <c r="C203" s="10" t="s">
         <v>963</v>
       </c>
@@ -19757,7 +19791,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="10"/>
-      <c r="B204" s="15"/>
+      <c r="B204" s="14"/>
       <c r="C204" s="10" t="s">
         <v>963</v>
       </c>
@@ -19776,7 +19810,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="10"/>
-      <c r="B205" s="15"/>
+      <c r="B205" s="14"/>
       <c r="C205" s="10" t="s">
         <v>963</v>
       </c>
@@ -19795,7 +19829,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="10"/>
-      <c r="B206" s="15"/>
+      <c r="B206" s="14"/>
       <c r="C206" s="10" t="s">
         <v>1049</v>
       </c>
@@ -19814,7 +19848,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="10"/>
-      <c r="B207" s="15"/>
+      <c r="B207" s="14"/>
       <c r="C207" s="10" t="s">
         <v>963</v>
       </c>
@@ -19833,7 +19867,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="10"/>
-      <c r="B208" s="15"/>
+      <c r="B208" s="14"/>
       <c r="C208" s="10" t="s">
         <v>963</v>
       </c>
@@ -19852,7 +19886,7 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="10"/>
-      <c r="B209" s="15"/>
+      <c r="B209" s="14"/>
       <c r="C209" s="10" t="s">
         <v>963</v>
       </c>
@@ -19871,7 +19905,7 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="10"/>
-      <c r="B210" s="15"/>
+      <c r="B210" s="14"/>
       <c r="C210" s="10" t="s">
         <v>963</v>
       </c>
@@ -19890,7 +19924,7 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="10"/>
-      <c r="B211" s="15"/>
+      <c r="B211" s="14"/>
       <c r="C211" s="10" t="s">
         <v>963</v>
       </c>
@@ -19909,7 +19943,7 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="10"/>
-      <c r="B212" s="15"/>
+      <c r="B212" s="14"/>
       <c r="C212" s="10" t="s">
         <v>963</v>
       </c>
@@ -19928,7 +19962,7 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="10"/>
-      <c r="B213" s="15"/>
+      <c r="B213" s="14"/>
       <c r="C213" s="10" t="s">
         <v>963</v>
       </c>
@@ -19947,7 +19981,7 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="10"/>
-      <c r="B214" s="15"/>
+      <c r="B214" s="14"/>
       <c r="C214" s="10" t="s">
         <v>963</v>
       </c>
@@ -19966,7 +20000,7 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="10"/>
-      <c r="B215" s="15" t="s">
+      <c r="B215" s="14" t="s">
         <v>567</v>
       </c>
       <c r="C215" s="10" t="s">
@@ -19987,7 +20021,7 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="10"/>
-      <c r="B216" s="15"/>
+      <c r="B216" s="14"/>
       <c r="C216" s="10" t="s">
         <v>994</v>
       </c>
@@ -20006,7 +20040,7 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="10"/>
-      <c r="B217" s="15"/>
+      <c r="B217" s="14"/>
       <c r="C217" s="10" t="s">
         <v>994</v>
       </c>
@@ -20025,7 +20059,7 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="10"/>
-      <c r="B218" s="15"/>
+      <c r="B218" s="14"/>
       <c r="C218" s="10" t="s">
         <v>1050</v>
       </c>
@@ -20044,7 +20078,7 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="10"/>
-      <c r="B219" s="15"/>
+      <c r="B219" s="14"/>
       <c r="C219" s="10" t="s">
         <v>994</v>
       </c>
@@ -20063,7 +20097,7 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="10"/>
-      <c r="B220" s="15"/>
+      <c r="B220" s="14"/>
       <c r="C220" s="10" t="s">
         <v>994</v>
       </c>
@@ -20082,7 +20116,7 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="10"/>
-      <c r="B221" s="15"/>
+      <c r="B221" s="14"/>
       <c r="C221" s="10" t="s">
         <v>994</v>
       </c>
@@ -20101,7 +20135,7 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="10"/>
-      <c r="B222" s="15"/>
+      <c r="B222" s="14"/>
       <c r="C222" s="10" t="s">
         <v>994</v>
       </c>
@@ -20120,7 +20154,7 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="10"/>
-      <c r="B223" s="15"/>
+      <c r="B223" s="14"/>
       <c r="C223" s="10" t="s">
         <v>994</v>
       </c>
@@ -20139,7 +20173,7 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="10"/>
-      <c r="B224" s="15"/>
+      <c r="B224" s="14"/>
       <c r="C224" s="10" t="s">
         <v>994</v>
       </c>
@@ -20158,7 +20192,7 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="10"/>
-      <c r="B225" s="15"/>
+      <c r="B225" s="14"/>
       <c r="C225" s="10" t="s">
         <v>994</v>
       </c>
@@ -20177,7 +20211,7 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="10"/>
-      <c r="B226" s="15"/>
+      <c r="B226" s="14"/>
       <c r="C226" s="10" t="s">
         <v>994</v>
       </c>
@@ -20196,7 +20230,7 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="10"/>
-      <c r="B227" s="15"/>
+      <c r="B227" s="14"/>
       <c r="C227" s="10" t="s">
         <v>994</v>
       </c>
@@ -20215,7 +20249,7 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="10"/>
-      <c r="B228" s="15"/>
+      <c r="B228" s="14"/>
       <c r="C228" s="10" t="s">
         <v>994</v>
       </c>
@@ -20234,7 +20268,7 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="10"/>
-      <c r="B229" s="15"/>
+      <c r="B229" s="14"/>
       <c r="C229" s="10" t="s">
         <v>994</v>
       </c>
@@ -20253,7 +20287,7 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="10"/>
-      <c r="B230" s="15"/>
+      <c r="B230" s="14"/>
       <c r="C230" s="10" t="s">
         <v>994</v>
       </c>
@@ -20272,7 +20306,7 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="10"/>
-      <c r="B231" s="15"/>
+      <c r="B231" s="14"/>
       <c r="C231" s="10" t="s">
         <v>994</v>
       </c>
@@ -20291,7 +20325,7 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="10"/>
-      <c r="B232" s="15"/>
+      <c r="B232" s="14"/>
       <c r="C232" s="10" t="s">
         <v>994</v>
       </c>
@@ -21015,6 +21049,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B42:B52"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B57:B77"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B31:B37"/>
     <mergeCell ref="B78:B94"/>
     <mergeCell ref="B95:B138"/>
     <mergeCell ref="B139:B145"/>
@@ -21024,15 +21067,6 @@
     <mergeCell ref="B177:B185"/>
     <mergeCell ref="B186:B199"/>
     <mergeCell ref="B200:B214"/>
-    <mergeCell ref="B42:B52"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="B57:B77"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B10:B16"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="B31:B37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/api自動化測試腳清單.xlsx
+++ b/api自動化測試腳清單.xlsx
@@ -3592,18 +3592,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Test8.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EncData</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Test9.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Decrypted --&gt;Barcode:ICXXXXXXX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3612,10 +3604,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Test7.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Decrypted --&gt;PayID:XXXXXXXXX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3624,22 +3612,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Test6.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>M0005_1會員登入(2022)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Test4.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test5.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Decrypted --&gt;MID:XXXXXXX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3648,19 +3624,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Test10.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Test11.py</t>
+    <t>Decrypted--&gt;BankCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Decrypted--&gt;BankCode</t>
+    <t>M0005UserCodeLogin2022_1.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0005UserCodeLogin2022_2.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0002GetMemberPayment_1.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0002GetMemberPayment_2.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0001CreateBarcode_1.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0001CreateBarcode_2.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0026GetListBankInfo_1.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0026GetListBankInfo_2.py</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3736,7 +3736,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -3788,6 +3788,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3795,7 +3821,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3854,6 +3880,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4163,8 +4198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H518"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4205,16 +4240,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="14"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="2" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1064</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>8</v>
@@ -4223,16 +4258,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="14"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="10" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D3" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>1065</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="13" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>8</v>
@@ -4241,16 +4276,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="14"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="2" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>1062</v>
+        <v>1058</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1066</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>8</v>
@@ -4259,16 +4294,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="14"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="2" t="s">
-        <v>1058</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>1059</v>
+        <v>1056</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>1067</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>8</v>
@@ -4277,34 +4312,34 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="14"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="2" t="s">
         <v>1053</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>1054</v>
+      <c r="D6" s="13" t="s">
+        <v>1068</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="13" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="14"/>
+      <c r="B7" s="21"/>
       <c r="C7" t="s">
         <v>1053</v>
       </c>
-      <c r="D7" t="s">
-        <v>1056</v>
+      <c r="D7" s="13" t="s">
+        <v>1069</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="13" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>8</v>
@@ -4313,41 +4348,41 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="14"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="2" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>1068</v>
+        <v>1061</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>1070</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="13" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
-      <c r="B9" s="14"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="10" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>1070</v>
+        <v>1061</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>1071</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="13" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="14"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4357,7 +4392,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="14"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -4367,7 +4402,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="14"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -4377,7 +4412,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="14"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -4387,7 +4422,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="14"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -4397,7 +4432,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="14"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -4407,7 +4442,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="14"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -4417,7 +4452,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="14"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="10"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -4427,7 +4462,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="14"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -4437,7 +4472,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="14"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -4447,7 +4482,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="14"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -4457,7 +4492,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="14"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -4467,7 +4502,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="14"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -4477,7 +4512,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="14"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -4487,7 +4522,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="14"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -4496,11 +4531,11 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="14"/>
+      <c r="B25" s="21"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="14"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -4510,7 +4545,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
-      <c r="B27" s="14"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -4520,7 +4555,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
-      <c r="B28" s="14"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -4530,7 +4565,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
-      <c r="B29" s="14"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -4540,7 +4575,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
-      <c r="B30" s="14"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -4550,7 +4585,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="B31" s="14"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -4560,7 +4595,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
-      <c r="B32" s="14"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -4570,7 +4605,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
-      <c r="B33" s="14"/>
+      <c r="B33" s="22"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -9415,26 +9450,24 @@
       <c r="H518" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B34:B68"/>
-    <mergeCell ref="B14:B33"/>
-    <mergeCell ref="B164:B167"/>
-    <mergeCell ref="B168:B171"/>
-    <mergeCell ref="B69:B119"/>
-    <mergeCell ref="B160:B163"/>
-    <mergeCell ref="B120:B159"/>
+  <mergeCells count="17">
     <mergeCell ref="B197:B206"/>
     <mergeCell ref="B207:B213"/>
     <mergeCell ref="B214:B218"/>
     <mergeCell ref="B250:B256"/>
-    <mergeCell ref="B8:B13"/>
     <mergeCell ref="B172:B184"/>
     <mergeCell ref="B219:B228"/>
     <mergeCell ref="B229:B233"/>
     <mergeCell ref="B234:B240"/>
     <mergeCell ref="B241:B249"/>
     <mergeCell ref="B185:B196"/>
+    <mergeCell ref="B2:B33"/>
+    <mergeCell ref="B34:B68"/>
+    <mergeCell ref="B164:B167"/>
+    <mergeCell ref="B168:B171"/>
+    <mergeCell ref="B69:B119"/>
+    <mergeCell ref="B160:B163"/>
+    <mergeCell ref="B120:B159"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15727,6 +15760,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B149:B152"/>
+    <mergeCell ref="B2:B44"/>
+    <mergeCell ref="B45:B51"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="B52:B76"/>
+    <mergeCell ref="B104:B148"/>
+    <mergeCell ref="B77:B99"/>
     <mergeCell ref="B276:B280"/>
     <mergeCell ref="B153:B220"/>
     <mergeCell ref="B221:B227"/>
@@ -15734,13 +15774,6 @@
     <mergeCell ref="B260:B264"/>
     <mergeCell ref="B265:B269"/>
     <mergeCell ref="B270:B275"/>
-    <mergeCell ref="B149:B152"/>
-    <mergeCell ref="B2:B44"/>
-    <mergeCell ref="B45:B51"/>
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="B52:B76"/>
-    <mergeCell ref="B104:B148"/>
-    <mergeCell ref="B77:B99"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21049,6 +21082,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B78:B94"/>
+    <mergeCell ref="B95:B138"/>
+    <mergeCell ref="B139:B145"/>
+    <mergeCell ref="B146:B155"/>
+    <mergeCell ref="B215:B232"/>
+    <mergeCell ref="B156:B176"/>
+    <mergeCell ref="B177:B185"/>
+    <mergeCell ref="B186:B199"/>
+    <mergeCell ref="B200:B214"/>
     <mergeCell ref="B42:B52"/>
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="B57:B77"/>
@@ -21058,15 +21100,6 @@
     <mergeCell ref="B17:B23"/>
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="B31:B37"/>
-    <mergeCell ref="B78:B94"/>
-    <mergeCell ref="B95:B138"/>
-    <mergeCell ref="B139:B145"/>
-    <mergeCell ref="B146:B155"/>
-    <mergeCell ref="B215:B232"/>
-    <mergeCell ref="B156:B176"/>
-    <mergeCell ref="B177:B185"/>
-    <mergeCell ref="B186:B199"/>
-    <mergeCell ref="B200:B214"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/api自動化測試腳清單.xlsx
+++ b/api自動化測試腳清單.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2682" uniqueCount="1072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2691" uniqueCount="1078">
   <si>
     <t>Module</t>
   </si>
@@ -3663,11 +3663,38 @@
     <t>M0026GetListBankInfo_2.py</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>M0027銀行帳戶驗證</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0027BankAccountAuth_1.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0027BankAccountAuth_2.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decrypted--&gt;URL銀行網址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3821,7 +3848,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3876,12 +3903,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3889,6 +3910,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4198,8 +4228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H518"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4208,7 +4238,7 @@
     <col min="3" max="3" width="26.88671875" customWidth="1"/>
     <col min="4" max="4" width="35.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="101.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" customWidth="1"/>
     <col min="8" max="8" width="36.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4240,7 +4270,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="20"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="2" t="s">
         <v>1059</v>
       </c>
@@ -4254,11 +4284,13 @@
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="23">
+        <v>45022</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="21"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="10" t="s">
         <v>1059</v>
       </c>
@@ -4272,11 +4304,13 @@
       <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="23">
+        <v>45022</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="21"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="2" t="s">
         <v>1058</v>
       </c>
@@ -4290,11 +4324,13 @@
       <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="23">
+        <v>45022</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="21"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="2" t="s">
         <v>1056</v>
       </c>
@@ -4308,11 +4344,13 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="23">
+        <v>45027</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="21"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="2" t="s">
         <v>1053</v>
       </c>
@@ -4326,11 +4364,13 @@
       <c r="G6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="23">
+        <v>45027</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="21"/>
+      <c r="B7" s="19"/>
       <c r="C7" t="s">
         <v>1053</v>
       </c>
@@ -4344,11 +4384,13 @@
       <c r="G7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="23">
+        <v>45027</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="21"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="2" t="s">
         <v>1061</v>
       </c>
@@ -4362,11 +4404,13 @@
       <c r="G8" s="13" t="s">
         <v>1062</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="23">
+        <v>45027</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
-      <c r="B9" s="21"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="10" t="s">
         <v>1061</v>
       </c>
@@ -4377,32 +4421,52 @@
       <c r="F9" s="13" t="s">
         <v>1063</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="G9" s="13" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H9" s="23">
+        <v>45027</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>1073</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="F10" s="13" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>1077</v>
+      </c>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>1074</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="F11" s="13" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>1075</v>
+      </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="21"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -4412,7 +4476,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="21"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -4422,7 +4486,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="21"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -4432,7 +4496,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="21"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -4442,7 +4506,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="21"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -4452,7 +4516,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="21"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="10"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -4462,7 +4526,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="21"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -4472,7 +4536,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="21"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -4482,7 +4546,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="21"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -4492,7 +4556,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="21"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -4502,7 +4566,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="21"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -4512,7 +4576,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="21"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -4522,7 +4586,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="21"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -4531,11 +4595,11 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="21"/>
+      <c r="B25" s="19"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="21"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -4545,7 +4609,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
-      <c r="B27" s="21"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -4555,7 +4619,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
-      <c r="B28" s="21"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -4565,7 +4629,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
-      <c r="B29" s="21"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -4575,7 +4639,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
-      <c r="B30" s="21"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -4585,7 +4649,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="B31" s="21"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -4595,7 +4659,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
-      <c r="B32" s="21"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -4605,7 +4669,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
-      <c r="B33" s="22"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -9451,6 +9515,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B2:B33"/>
+    <mergeCell ref="B34:B68"/>
+    <mergeCell ref="B164:B167"/>
+    <mergeCell ref="B168:B171"/>
+    <mergeCell ref="B69:B119"/>
+    <mergeCell ref="B160:B163"/>
+    <mergeCell ref="B120:B159"/>
     <mergeCell ref="B197:B206"/>
     <mergeCell ref="B207:B213"/>
     <mergeCell ref="B214:B218"/>
@@ -9461,13 +9532,6 @@
     <mergeCell ref="B234:B240"/>
     <mergeCell ref="B241:B249"/>
     <mergeCell ref="B185:B196"/>
-    <mergeCell ref="B2:B33"/>
-    <mergeCell ref="B34:B68"/>
-    <mergeCell ref="B164:B167"/>
-    <mergeCell ref="B168:B171"/>
-    <mergeCell ref="B69:B119"/>
-    <mergeCell ref="B160:B163"/>
-    <mergeCell ref="B120:B159"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13951,7 +14015,7 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="7"/>
-      <c r="B221" s="18" t="s">
+      <c r="B221" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C221" s="7" t="s">
@@ -13973,7 +14037,7 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="7"/>
-      <c r="B222" s="18"/>
+      <c r="B222" s="21"/>
       <c r="C222" s="7" t="s">
         <v>416</v>
       </c>
@@ -13993,7 +14057,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="7"/>
-      <c r="B223" s="18"/>
+      <c r="B223" s="21"/>
       <c r="C223" s="7" t="s">
         <v>416</v>
       </c>
@@ -14013,7 +14077,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="7"/>
-      <c r="B224" s="18"/>
+      <c r="B224" s="21"/>
       <c r="C224" s="7" t="s">
         <v>565</v>
       </c>
@@ -14033,7 +14097,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="7"/>
-      <c r="B225" s="18"/>
+      <c r="B225" s="21"/>
       <c r="C225" s="7" t="s">
         <v>416</v>
       </c>
@@ -14053,7 +14117,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="7"/>
-      <c r="B226" s="18"/>
+      <c r="B226" s="21"/>
       <c r="C226" s="7" t="s">
         <v>416</v>
       </c>
@@ -14073,7 +14137,7 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="7"/>
-      <c r="B227" s="18"/>
+      <c r="B227" s="21"/>
       <c r="C227" s="7" t="s">
         <v>416</v>
       </c>
@@ -14735,7 +14799,7 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="7"/>
-      <c r="B260" s="18" t="s">
+      <c r="B260" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C260" s="7" t="s">
@@ -14757,7 +14821,7 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="7"/>
-      <c r="B261" s="18"/>
+      <c r="B261" s="21"/>
       <c r="C261" s="7" t="s">
         <v>495</v>
       </c>
@@ -14777,7 +14841,7 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="7"/>
-      <c r="B262" s="18"/>
+      <c r="B262" s="21"/>
       <c r="C262" s="7" t="s">
         <v>495</v>
       </c>
@@ -14797,7 +14861,7 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="7"/>
-      <c r="B263" s="18"/>
+      <c r="B263" s="21"/>
       <c r="C263" s="7" t="s">
         <v>495</v>
       </c>
@@ -14816,7 +14880,7 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="7"/>
-      <c r="B264" s="18"/>
+      <c r="B264" s="21"/>
       <c r="C264" s="7" t="s">
         <v>495</v>
       </c>
@@ -15760,6 +15824,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B276:B280"/>
+    <mergeCell ref="B153:B220"/>
+    <mergeCell ref="B221:B227"/>
+    <mergeCell ref="B228:B259"/>
+    <mergeCell ref="B260:B264"/>
+    <mergeCell ref="B265:B269"/>
+    <mergeCell ref="B270:B275"/>
     <mergeCell ref="B149:B152"/>
     <mergeCell ref="B2:B44"/>
     <mergeCell ref="B45:B51"/>
@@ -15767,13 +15838,6 @@
     <mergeCell ref="B52:B76"/>
     <mergeCell ref="B104:B148"/>
     <mergeCell ref="B77:B99"/>
-    <mergeCell ref="B276:B280"/>
-    <mergeCell ref="B153:B220"/>
-    <mergeCell ref="B221:B227"/>
-    <mergeCell ref="B228:B259"/>
-    <mergeCell ref="B260:B264"/>
-    <mergeCell ref="B265:B269"/>
-    <mergeCell ref="B270:B275"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15990,7 +16054,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="22" t="s">
         <v>1033</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -16014,7 +16078,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
-      <c r="B11" s="19"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="10" t="s">
         <v>585</v>
       </c>
@@ -16036,7 +16100,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
-      <c r="B12" s="19"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="7" t="s">
         <v>1032</v>
       </c>
@@ -16058,7 +16122,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
-      <c r="B13" s="19"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="10" t="s">
         <v>585</v>
       </c>
@@ -16080,7 +16144,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
-      <c r="B14" s="19"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="10" t="s">
         <v>585</v>
       </c>
@@ -16102,7 +16166,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
-      <c r="B15" s="19"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="10" t="s">
         <v>585</v>
       </c>
@@ -16124,7 +16188,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
-      <c r="B16" s="19"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="10" t="s">
         <v>585</v>
       </c>
@@ -16146,7 +16210,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="22" t="s">
         <v>567</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -16167,7 +16231,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
-      <c r="B18" s="19"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="10" t="s">
         <v>601</v>
       </c>
@@ -16186,7 +16250,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
-      <c r="B19" s="19"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="10" t="s">
         <v>1034</v>
       </c>
@@ -16205,7 +16269,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
-      <c r="B20" s="19"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="10" t="s">
         <v>601</v>
       </c>
@@ -16224,7 +16288,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
-      <c r="B21" s="19"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="10" t="s">
         <v>601</v>
       </c>
@@ -16243,7 +16307,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
-      <c r="B22" s="19"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="10" t="s">
         <v>601</v>
       </c>
@@ -16262,7 +16326,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
-      <c r="B23" s="19"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="10" t="s">
         <v>601</v>
       </c>
@@ -17695,7 +17759,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="10"/>
-      <c r="B95" s="19" t="s">
+      <c r="B95" s="22" t="s">
         <v>1036</v>
       </c>
       <c r="C95" s="10" t="s">
@@ -17716,7 +17780,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="10"/>
-      <c r="B96" s="19"/>
+      <c r="B96" s="22"/>
       <c r="C96" s="10" t="s">
         <v>749</v>
       </c>
@@ -17735,7 +17799,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="10"/>
-      <c r="B97" s="19"/>
+      <c r="B97" s="22"/>
       <c r="C97" s="10" t="s">
         <v>749</v>
       </c>
@@ -17754,7 +17818,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="10"/>
-      <c r="B98" s="19"/>
+      <c r="B98" s="22"/>
       <c r="C98" s="10" t="s">
         <v>749</v>
       </c>
@@ -17773,7 +17837,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="10"/>
-      <c r="B99" s="19"/>
+      <c r="B99" s="22"/>
       <c r="C99" s="10" t="s">
         <v>749</v>
       </c>
@@ -17792,7 +17856,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="10"/>
-      <c r="B100" s="19"/>
+      <c r="B100" s="22"/>
       <c r="C100" s="10" t="s">
         <v>749</v>
       </c>
@@ -17811,7 +17875,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="10"/>
-      <c r="B101" s="19"/>
+      <c r="B101" s="22"/>
       <c r="C101" s="10" t="s">
         <v>749</v>
       </c>
@@ -17830,7 +17894,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="10"/>
-      <c r="B102" s="19"/>
+      <c r="B102" s="22"/>
       <c r="C102" s="10" t="s">
         <v>749</v>
       </c>
@@ -17849,7 +17913,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="10"/>
-      <c r="B103" s="19"/>
+      <c r="B103" s="22"/>
       <c r="C103" s="10" t="s">
         <v>749</v>
       </c>
@@ -17868,7 +17932,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="10"/>
-      <c r="B104" s="19"/>
+      <c r="B104" s="22"/>
       <c r="C104" s="10" t="s">
         <v>749</v>
       </c>
@@ -17887,7 +17951,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="10"/>
-      <c r="B105" s="19"/>
+      <c r="B105" s="22"/>
       <c r="C105" s="10" t="s">
         <v>749</v>
       </c>
@@ -17906,7 +17970,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="10"/>
-      <c r="B106" s="19"/>
+      <c r="B106" s="22"/>
       <c r="C106" s="10" t="s">
         <v>749</v>
       </c>
@@ -17925,7 +17989,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="10"/>
-      <c r="B107" s="19"/>
+      <c r="B107" s="22"/>
       <c r="C107" s="10" t="s">
         <v>749</v>
       </c>
@@ -17944,7 +18008,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="10"/>
-      <c r="B108" s="19"/>
+      <c r="B108" s="22"/>
       <c r="C108" s="10" t="s">
         <v>749</v>
       </c>
@@ -17963,7 +18027,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="10"/>
-      <c r="B109" s="19"/>
+      <c r="B109" s="22"/>
       <c r="C109" s="10" t="s">
         <v>749</v>
       </c>
@@ -17982,7 +18046,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="10"/>
-      <c r="B110" s="19"/>
+      <c r="B110" s="22"/>
       <c r="C110" s="10" t="s">
         <v>749</v>
       </c>
@@ -18001,7 +18065,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="10"/>
-      <c r="B111" s="19"/>
+      <c r="B111" s="22"/>
       <c r="C111" s="10" t="s">
         <v>749</v>
       </c>
@@ -18020,7 +18084,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="10"/>
-      <c r="B112" s="19"/>
+      <c r="B112" s="22"/>
       <c r="C112" s="10" t="s">
         <v>749</v>
       </c>
@@ -18039,7 +18103,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="10"/>
-      <c r="B113" s="19"/>
+      <c r="B113" s="22"/>
       <c r="C113" s="10" t="s">
         <v>749</v>
       </c>
@@ -18058,7 +18122,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="10"/>
-      <c r="B114" s="19"/>
+      <c r="B114" s="22"/>
       <c r="C114" s="10" t="s">
         <v>749</v>
       </c>
@@ -18077,7 +18141,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="10"/>
-      <c r="B115" s="19"/>
+      <c r="B115" s="22"/>
       <c r="C115" s="10" t="s">
         <v>749</v>
       </c>
@@ -18096,7 +18160,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="10"/>
-      <c r="B116" s="19"/>
+      <c r="B116" s="22"/>
       <c r="C116" s="10" t="s">
         <v>749</v>
       </c>
@@ -18115,7 +18179,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="10"/>
-      <c r="B117" s="19"/>
+      <c r="B117" s="22"/>
       <c r="C117" s="10" t="s">
         <v>749</v>
       </c>
@@ -18134,7 +18198,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="10"/>
-      <c r="B118" s="19"/>
+      <c r="B118" s="22"/>
       <c r="C118" s="10" t="s">
         <v>749</v>
       </c>
@@ -18153,7 +18217,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="10"/>
-      <c r="B119" s="19"/>
+      <c r="B119" s="22"/>
       <c r="C119" s="10" t="s">
         <v>749</v>
       </c>
@@ -18172,7 +18236,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="10"/>
-      <c r="B120" s="19"/>
+      <c r="B120" s="22"/>
       <c r="C120" s="10" t="s">
         <v>749</v>
       </c>
@@ -18191,7 +18255,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="10"/>
-      <c r="B121" s="19"/>
+      <c r="B121" s="22"/>
       <c r="C121" s="10" t="s">
         <v>749</v>
       </c>
@@ -18210,7 +18274,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="10"/>
-      <c r="B122" s="19"/>
+      <c r="B122" s="22"/>
       <c r="C122" s="10" t="s">
         <v>749</v>
       </c>
@@ -18229,7 +18293,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="10"/>
-      <c r="B123" s="19"/>
+      <c r="B123" s="22"/>
       <c r="C123" s="10" t="s">
         <v>749</v>
       </c>
@@ -18248,7 +18312,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="10"/>
-      <c r="B124" s="19"/>
+      <c r="B124" s="22"/>
       <c r="C124" s="10" t="s">
         <v>749</v>
       </c>
@@ -18267,7 +18331,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="10"/>
-      <c r="B125" s="19"/>
+      <c r="B125" s="22"/>
       <c r="C125" s="10" t="s">
         <v>749</v>
       </c>
@@ -18286,7 +18350,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="10"/>
-      <c r="B126" s="19"/>
+      <c r="B126" s="22"/>
       <c r="C126" s="10" t="s">
         <v>1043</v>
       </c>
@@ -18305,7 +18369,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="10"/>
-      <c r="B127" s="19"/>
+      <c r="B127" s="22"/>
       <c r="C127" s="10" t="s">
         <v>749</v>
       </c>
@@ -18324,7 +18388,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="10"/>
-      <c r="B128" s="19"/>
+      <c r="B128" s="22"/>
       <c r="C128" s="10" t="s">
         <v>749</v>
       </c>
@@ -18343,7 +18407,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="10"/>
-      <c r="B129" s="19"/>
+      <c r="B129" s="22"/>
       <c r="C129" s="10" t="s">
         <v>749</v>
       </c>
@@ -18363,7 +18427,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="10"/>
-      <c r="B130" s="19"/>
+      <c r="B130" s="22"/>
       <c r="C130" s="10" t="s">
         <v>749</v>
       </c>
@@ -18383,7 +18447,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="10"/>
-      <c r="B131" s="19"/>
+      <c r="B131" s="22"/>
       <c r="C131" s="10" t="s">
         <v>749</v>
       </c>
@@ -18403,7 +18467,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="10"/>
-      <c r="B132" s="19"/>
+      <c r="B132" s="22"/>
       <c r="C132" s="10" t="s">
         <v>749</v>
       </c>
@@ -18423,7 +18487,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="10"/>
-      <c r="B133" s="19"/>
+      <c r="B133" s="22"/>
       <c r="C133" s="10" t="s">
         <v>749</v>
       </c>
@@ -18443,7 +18507,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="10"/>
-      <c r="B134" s="19"/>
+      <c r="B134" s="22"/>
       <c r="C134" s="10" t="s">
         <v>749</v>
       </c>
@@ -18463,7 +18527,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="10"/>
-      <c r="B135" s="19"/>
+      <c r="B135" s="22"/>
       <c r="C135" s="10" t="s">
         <v>749</v>
       </c>
@@ -18483,7 +18547,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="10"/>
-      <c r="B136" s="19"/>
+      <c r="B136" s="22"/>
       <c r="C136" s="10" t="s">
         <v>749</v>
       </c>
@@ -18503,7 +18567,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="10"/>
-      <c r="B137" s="19"/>
+      <c r="B137" s="22"/>
       <c r="C137" s="10" t="s">
         <v>749</v>
       </c>
@@ -18523,7 +18587,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="10"/>
-      <c r="B138" s="19"/>
+      <c r="B138" s="22"/>
       <c r="C138" s="10" t="s">
         <v>749</v>
       </c>
@@ -18543,7 +18607,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="10"/>
-      <c r="B139" s="19" t="s">
+      <c r="B139" s="22" t="s">
         <v>1036</v>
       </c>
       <c r="C139" s="10" t="s">
@@ -18565,7 +18629,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="10"/>
-      <c r="B140" s="19"/>
+      <c r="B140" s="22"/>
       <c r="C140" s="10" t="s">
         <v>837</v>
       </c>
@@ -18585,7 +18649,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="10"/>
-      <c r="B141" s="19"/>
+      <c r="B141" s="22"/>
       <c r="C141" s="10" t="s">
         <v>837</v>
       </c>
@@ -18607,7 +18671,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="10"/>
-      <c r="B142" s="19"/>
+      <c r="B142" s="22"/>
       <c r="C142" s="10" t="s">
         <v>1044</v>
       </c>
@@ -18629,7 +18693,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="10"/>
-      <c r="B143" s="19"/>
+      <c r="B143" s="22"/>
       <c r="C143" s="10" t="s">
         <v>837</v>
       </c>
@@ -18651,7 +18715,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="10"/>
-      <c r="B144" s="19"/>
+      <c r="B144" s="22"/>
       <c r="C144" s="10" t="s">
         <v>837</v>
       </c>
@@ -18673,7 +18737,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="10"/>
-      <c r="B145" s="19"/>
+      <c r="B145" s="22"/>
       <c r="C145" s="10" t="s">
         <v>837</v>
       </c>
@@ -21082,6 +21146,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B42:B52"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B57:B77"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B31:B37"/>
     <mergeCell ref="B78:B94"/>
     <mergeCell ref="B95:B138"/>
     <mergeCell ref="B139:B145"/>
@@ -21091,15 +21164,6 @@
     <mergeCell ref="B177:B185"/>
     <mergeCell ref="B186:B199"/>
     <mergeCell ref="B200:B214"/>
-    <mergeCell ref="B42:B52"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="B57:B77"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B10:B16"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="B31:B37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/api自動化測試腳清單.xlsx
+++ b/api自動化測試腳清單.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2691" uniqueCount="1078">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2705" uniqueCount="1089">
   <si>
     <t>Module</t>
   </si>
@@ -3685,6 +3685,50 @@
   </si>
   <si>
     <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0028取得提領資訊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0028GetWitdhdrawBalanceInfo_1.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0028GetWitdhdrawBalanceInfo_2.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EncData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decrypted--&gt;AvailableWithdrawCash":2688(可提領金額)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0029更新會員同意項目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0029SetMemberAgree_1.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0029SetMemberAgree_2.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decrypted</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3891,6 +3935,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3916,9 +3963,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4229,7 +4273,7 @@
   <dimension ref="A1:H518"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4238,7 +4282,7 @@
     <col min="3" max="3" width="26.88671875" customWidth="1"/>
     <col min="4" max="4" width="35.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="34.6640625" customWidth="1"/>
+    <col min="6" max="6" width="53.109375" customWidth="1"/>
     <col min="8" max="8" width="36.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4270,7 +4314,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="18"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="2" t="s">
         <v>1059</v>
       </c>
@@ -4284,13 +4328,13 @@
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="14">
         <v>45022</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="19"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="10" t="s">
         <v>1059</v>
       </c>
@@ -4304,13 +4348,13 @@
       <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="14">
         <v>45022</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="19"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="2" t="s">
         <v>1058</v>
       </c>
@@ -4324,13 +4368,13 @@
       <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="14">
         <v>45022</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="19"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="2" t="s">
         <v>1056</v>
       </c>
@@ -4344,13 +4388,13 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="14">
         <v>45027</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="19"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="2" t="s">
         <v>1053</v>
       </c>
@@ -4364,13 +4408,13 @@
       <c r="G6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="14">
         <v>45027</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="19"/>
+      <c r="B7" s="20"/>
       <c r="C7" t="s">
         <v>1053</v>
       </c>
@@ -4384,13 +4428,13 @@
       <c r="G7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="14">
         <v>45027</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="19"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="2" t="s">
         <v>1061</v>
       </c>
@@ -4404,13 +4448,13 @@
       <c r="G8" s="13" t="s">
         <v>1062</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="14">
         <v>45027</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
-      <c r="B9" s="19"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="10" t="s">
         <v>1061</v>
       </c>
@@ -4424,13 +4468,13 @@
       <c r="G9" s="13" t="s">
         <v>1075</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="14">
         <v>45027</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="19"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="2" t="s">
         <v>1072</v>
       </c>
@@ -4444,11 +4488,13 @@
       <c r="G10" s="13" t="s">
         <v>1077</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="14">
+        <v>45027</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="19"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="2" t="s">
         <v>1072</v>
       </c>
@@ -4462,51 +4508,85 @@
       <c r="G11" s="13" t="s">
         <v>1075</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="14">
+        <v>45029</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>1079</v>
+      </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="F12" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H12" s="14">
+        <v>45029</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="10" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>1080</v>
+      </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="F13" s="13" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H13" s="14">
+        <v>45029</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>1086</v>
+      </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="13" t="s">
+        <v>1054</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>1087</v>
+      </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="13" t="s">
+        <v>1088</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="19"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -4516,7 +4596,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="19"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="10"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -4526,7 +4606,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="19"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -4536,7 +4616,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="19"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -4546,7 +4626,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="19"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -4556,7 +4636,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="19"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -4566,7 +4646,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="19"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -4576,7 +4656,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="19"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -4586,7 +4666,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="19"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -4595,11 +4675,11 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="19"/>
+      <c r="B25" s="20"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="19"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -4609,7 +4689,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
-      <c r="B27" s="19"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -4619,7 +4699,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
-      <c r="B28" s="19"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -4629,7 +4709,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
-      <c r="B29" s="19"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -4639,7 +4719,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
-      <c r="B30" s="19"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -4649,7 +4729,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="B31" s="19"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -4659,7 +4739,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
-      <c r="B32" s="19"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -4669,7 +4749,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
-      <c r="B33" s="20"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -4679,7 +4759,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
-      <c r="B34" s="14"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -4689,7 +4769,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
-      <c r="B35" s="14"/>
+      <c r="B35" s="15"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -4699,7 +4779,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
-      <c r="B36" s="14"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -4709,7 +4789,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
-      <c r="B37" s="14"/>
+      <c r="B37" s="15"/>
       <c r="C37" s="10"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -4719,7 +4799,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
-      <c r="B38" s="14"/>
+      <c r="B38" s="15"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -4729,7 +4809,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
-      <c r="B39" s="14"/>
+      <c r="B39" s="15"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -4739,7 +4819,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
-      <c r="B40" s="14"/>
+      <c r="B40" s="15"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -4749,7 +4829,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
-      <c r="B41" s="14"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -4759,7 +4839,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
-      <c r="B42" s="14"/>
+      <c r="B42" s="15"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -4769,7 +4849,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
-      <c r="B43" s="14"/>
+      <c r="B43" s="15"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -4779,7 +4859,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
-      <c r="B44" s="14"/>
+      <c r="B44" s="15"/>
       <c r="C44" s="10"/>
       <c r="D44" s="2"/>
       <c r="E44" s="10"/>
@@ -4788,11 +4868,11 @@
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="14"/>
+      <c r="B45" s="15"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
-      <c r="B46" s="14"/>
+      <c r="B46" s="15"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -4802,7 +4882,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
-      <c r="B47" s="14"/>
+      <c r="B47" s="15"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -4812,7 +4892,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
-      <c r="B48" s="14"/>
+      <c r="B48" s="15"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -4822,7 +4902,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
-      <c r="B49" s="14"/>
+      <c r="B49" s="15"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -4832,7 +4912,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
-      <c r="B50" s="14"/>
+      <c r="B50" s="15"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -4842,7 +4922,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
-      <c r="B51" s="14"/>
+      <c r="B51" s="15"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -4852,7 +4932,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
-      <c r="B52" s="14"/>
+      <c r="B52" s="15"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -4862,7 +4942,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
-      <c r="B53" s="14"/>
+      <c r="B53" s="15"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -4872,7 +4952,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
-      <c r="B54" s="14"/>
+      <c r="B54" s="15"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -4882,7 +4962,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
-      <c r="B55" s="14"/>
+      <c r="B55" s="15"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -4892,7 +4972,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
-      <c r="B56" s="14"/>
+      <c r="B56" s="15"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -4902,7 +4982,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
-      <c r="B57" s="14"/>
+      <c r="B57" s="15"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -4912,7 +4992,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
-      <c r="B58" s="14"/>
+      <c r="B58" s="15"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -4922,7 +5002,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
-      <c r="B59" s="14"/>
+      <c r="B59" s="15"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -4932,7 +5012,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
-      <c r="B60" s="14"/>
+      <c r="B60" s="15"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -4942,7 +5022,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
-      <c r="B61" s="14"/>
+      <c r="B61" s="15"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -4952,7 +5032,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
-      <c r="B62" s="14"/>
+      <c r="B62" s="15"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -4962,7 +5042,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
-      <c r="B63" s="14"/>
+      <c r="B63" s="15"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -4972,7 +5052,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
-      <c r="B64" s="14"/>
+      <c r="B64" s="15"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -4982,7 +5062,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
-      <c r="B65" s="14"/>
+      <c r="B65" s="15"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -4992,7 +5072,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
-      <c r="B66" s="14"/>
+      <c r="B66" s="15"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -5002,7 +5082,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
-      <c r="B67" s="14"/>
+      <c r="B67" s="15"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -5012,7 +5092,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
-      <c r="B68" s="14"/>
+      <c r="B68" s="15"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -5022,7 +5102,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
-      <c r="B69" s="14"/>
+      <c r="B69" s="15"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -5032,7 +5112,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
-      <c r="B70" s="14"/>
+      <c r="B70" s="15"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -5042,7 +5122,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
-      <c r="B71" s="14"/>
+      <c r="B71" s="15"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -5052,7 +5132,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
-      <c r="B72" s="14"/>
+      <c r="B72" s="15"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -5062,7 +5142,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
-      <c r="B73" s="14"/>
+      <c r="B73" s="15"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -5072,7 +5152,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
-      <c r="B74" s="14"/>
+      <c r="B74" s="15"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -5082,7 +5162,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
-      <c r="B75" s="14"/>
+      <c r="B75" s="15"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -5092,7 +5172,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
-      <c r="B76" s="14"/>
+      <c r="B76" s="15"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -5102,7 +5182,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
-      <c r="B77" s="14"/>
+      <c r="B77" s="15"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -5112,7 +5192,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
-      <c r="B78" s="14"/>
+      <c r="B78" s="15"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -5122,7 +5202,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
-      <c r="B79" s="14"/>
+      <c r="B79" s="15"/>
       <c r="C79" s="10"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -5131,11 +5211,11 @@
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="14"/>
+      <c r="B80" s="15"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
-      <c r="B81" s="14"/>
+      <c r="B81" s="15"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -5145,7 +5225,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
-      <c r="B82" s="14"/>
+      <c r="B82" s="15"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -5155,7 +5235,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
-      <c r="B83" s="14"/>
+      <c r="B83" s="15"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -5165,7 +5245,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
-      <c r="B84" s="14"/>
+      <c r="B84" s="15"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -5175,7 +5255,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
-      <c r="B85" s="14"/>
+      <c r="B85" s="15"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -5185,7 +5265,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
-      <c r="B86" s="14"/>
+      <c r="B86" s="15"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -5195,7 +5275,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
-      <c r="B87" s="14"/>
+      <c r="B87" s="15"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -5205,7 +5285,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
-      <c r="B88" s="14"/>
+      <c r="B88" s="15"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -5215,7 +5295,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
-      <c r="B89" s="14"/>
+      <c r="B89" s="15"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -5225,7 +5305,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
-      <c r="B90" s="14"/>
+      <c r="B90" s="15"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -5235,7 +5315,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
-      <c r="B91" s="14"/>
+      <c r="B91" s="15"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -5245,7 +5325,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
-      <c r="B92" s="14"/>
+      <c r="B92" s="15"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -5255,7 +5335,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
-      <c r="B93" s="14"/>
+      <c r="B93" s="15"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -5265,7 +5345,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
-      <c r="B94" s="14"/>
+      <c r="B94" s="15"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -5275,7 +5355,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
-      <c r="B95" s="14"/>
+      <c r="B95" s="15"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -5285,7 +5365,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
-      <c r="B96" s="14"/>
+      <c r="B96" s="15"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -5295,7 +5375,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
-      <c r="B97" s="14"/>
+      <c r="B97" s="15"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -5305,7 +5385,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
-      <c r="B98" s="14"/>
+      <c r="B98" s="15"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -5315,7 +5395,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
-      <c r="B99" s="14"/>
+      <c r="B99" s="15"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -5325,7 +5405,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
-      <c r="B100" s="14"/>
+      <c r="B100" s="15"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -5335,7 +5415,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
-      <c r="B101" s="14"/>
+      <c r="B101" s="15"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -5345,7 +5425,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
-      <c r="B102" s="14"/>
+      <c r="B102" s="15"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -5355,7 +5435,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
-      <c r="B103" s="14"/>
+      <c r="B103" s="15"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -5365,7 +5445,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
-      <c r="B104" s="14"/>
+      <c r="B104" s="15"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -5375,7 +5455,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
-      <c r="B105" s="14"/>
+      <c r="B105" s="15"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -5385,7 +5465,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
-      <c r="B106" s="14"/>
+      <c r="B106" s="15"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -5395,7 +5475,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
-      <c r="B107" s="14"/>
+      <c r="B107" s="15"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -5405,7 +5485,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
-      <c r="B108" s="14"/>
+      <c r="B108" s="15"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -5415,7 +5495,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
-      <c r="B109" s="14"/>
+      <c r="B109" s="15"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -5425,7 +5505,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
-      <c r="B110" s="14"/>
+      <c r="B110" s="15"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -5435,7 +5515,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
-      <c r="B111" s="14"/>
+      <c r="B111" s="15"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -5445,7 +5525,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
-      <c r="B112" s="14"/>
+      <c r="B112" s="15"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -5455,7 +5535,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
-      <c r="B113" s="14"/>
+      <c r="B113" s="15"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -5465,7 +5545,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
-      <c r="B114" s="14"/>
+      <c r="B114" s="15"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -5475,7 +5555,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
-      <c r="B115" s="14"/>
+      <c r="B115" s="15"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -5485,7 +5565,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
-      <c r="B116" s="14"/>
+      <c r="B116" s="15"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -5495,7 +5575,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
-      <c r="B117" s="14"/>
+      <c r="B117" s="15"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -5505,7 +5585,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
-      <c r="B118" s="14"/>
+      <c r="B118" s="15"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -5515,7 +5595,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
-      <c r="B119" s="14"/>
+      <c r="B119" s="15"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -5525,7 +5605,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
-      <c r="B120" s="14"/>
+      <c r="B120" s="15"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -5535,7 +5615,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
-      <c r="B121" s="14"/>
+      <c r="B121" s="15"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -5545,7 +5625,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
-      <c r="B122" s="14"/>
+      <c r="B122" s="15"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -5555,7 +5635,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
-      <c r="B123" s="14"/>
+      <c r="B123" s="15"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -5565,7 +5645,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
-      <c r="B124" s="14"/>
+      <c r="B124" s="15"/>
       <c r="C124" s="10"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -5575,7 +5655,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
-      <c r="B125" s="14"/>
+      <c r="B125" s="15"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -5585,7 +5665,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
-      <c r="B126" s="14"/>
+      <c r="B126" s="15"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -5595,7 +5675,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
-      <c r="B127" s="14"/>
+      <c r="B127" s="15"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -5605,7 +5685,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
-      <c r="B128" s="14"/>
+      <c r="B128" s="15"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -5615,7 +5695,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
-      <c r="B129" s="14"/>
+      <c r="B129" s="15"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -5625,7 +5705,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
-      <c r="B130" s="14"/>
+      <c r="B130" s="15"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -5635,7 +5715,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
-      <c r="B131" s="14"/>
+      <c r="B131" s="15"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -5645,7 +5725,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
-      <c r="B132" s="14"/>
+      <c r="B132" s="15"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -5655,7 +5735,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
-      <c r="B133" s="14"/>
+      <c r="B133" s="15"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -5665,7 +5745,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
-      <c r="B134" s="14"/>
+      <c r="B134" s="15"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -5675,7 +5755,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
-      <c r="B135" s="14"/>
+      <c r="B135" s="15"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -5685,7 +5765,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
-      <c r="B136" s="14"/>
+      <c r="B136" s="15"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -5695,7 +5775,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
-      <c r="B137" s="14"/>
+      <c r="B137" s="15"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -5705,7 +5785,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
-      <c r="B138" s="14"/>
+      <c r="B138" s="15"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -5715,7 +5795,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
-      <c r="B139" s="14"/>
+      <c r="B139" s="15"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -5725,7 +5805,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
-      <c r="B140" s="14"/>
+      <c r="B140" s="15"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -5735,7 +5815,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
-      <c r="B141" s="14"/>
+      <c r="B141" s="15"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -5745,7 +5825,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
-      <c r="B142" s="14"/>
+      <c r="B142" s="15"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -5755,7 +5835,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
-      <c r="B143" s="14"/>
+      <c r="B143" s="15"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -5765,7 +5845,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
-      <c r="B144" s="14"/>
+      <c r="B144" s="15"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -5775,7 +5855,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
-      <c r="B145" s="14"/>
+      <c r="B145" s="15"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -5785,7 +5865,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
-      <c r="B146" s="14"/>
+      <c r="B146" s="15"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -5795,7 +5875,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
-      <c r="B147" s="14"/>
+      <c r="B147" s="15"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -5805,7 +5885,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
-      <c r="B148" s="14"/>
+      <c r="B148" s="15"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -5815,7 +5895,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
-      <c r="B149" s="14"/>
+      <c r="B149" s="15"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -5825,7 +5905,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
-      <c r="B150" s="14"/>
+      <c r="B150" s="15"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -5835,7 +5915,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
-      <c r="B151" s="14"/>
+      <c r="B151" s="15"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -5845,7 +5925,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
-      <c r="B152" s="14"/>
+      <c r="B152" s="15"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -5855,7 +5935,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
-      <c r="B153" s="14"/>
+      <c r="B153" s="15"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -5865,7 +5945,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
-      <c r="B154" s="14"/>
+      <c r="B154" s="15"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -5875,7 +5955,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
-      <c r="B155" s="14"/>
+      <c r="B155" s="15"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -5885,7 +5965,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
-      <c r="B156" s="14"/>
+      <c r="B156" s="15"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -5895,7 +5975,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
-      <c r="B157" s="14"/>
+      <c r="B157" s="15"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -5905,7 +5985,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
-      <c r="B158" s="14"/>
+      <c r="B158" s="15"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -5915,7 +5995,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
-      <c r="B159" s="14"/>
+      <c r="B159" s="15"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -5925,7 +6005,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
-      <c r="B160" s="14"/>
+      <c r="B160" s="15"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -5935,7 +6015,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
-      <c r="B161" s="14"/>
+      <c r="B161" s="15"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -5945,7 +6025,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
-      <c r="B162" s="14"/>
+      <c r="B162" s="15"/>
       <c r="C162" s="10"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -5955,7 +6035,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
-      <c r="B163" s="14"/>
+      <c r="B163" s="15"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -5965,7 +6045,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
-      <c r="B164" s="14"/>
+      <c r="B164" s="15"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -5975,7 +6055,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
-      <c r="B165" s="14"/>
+      <c r="B165" s="15"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -5985,7 +6065,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
-      <c r="B166" s="14"/>
+      <c r="B166" s="15"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -5995,7 +6075,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
-      <c r="B167" s="14"/>
+      <c r="B167" s="15"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -6005,7 +6085,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
-      <c r="B168" s="14"/>
+      <c r="B168" s="15"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -6015,7 +6095,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
-      <c r="B169" s="14"/>
+      <c r="B169" s="15"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -6025,7 +6105,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
-      <c r="B170" s="14"/>
+      <c r="B170" s="15"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -6035,7 +6115,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
-      <c r="B171" s="14"/>
+      <c r="B171" s="15"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -6045,7 +6125,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
-      <c r="B172" s="14"/>
+      <c r="B172" s="15"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -6055,7 +6135,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
-      <c r="B173" s="14"/>
+      <c r="B173" s="15"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -6065,7 +6145,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
-      <c r="B174" s="14"/>
+      <c r="B174" s="15"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -6075,7 +6155,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
-      <c r="B175" s="14"/>
+      <c r="B175" s="15"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -6085,7 +6165,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
-      <c r="B176" s="14"/>
+      <c r="B176" s="15"/>
       <c r="C176" s="10"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -6095,7 +6175,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
-      <c r="B177" s="14"/>
+      <c r="B177" s="15"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -6105,7 +6185,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
-      <c r="B178" s="14"/>
+      <c r="B178" s="15"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -6115,7 +6195,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
-      <c r="B179" s="14"/>
+      <c r="B179" s="15"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -6125,7 +6205,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
-      <c r="B180" s="14"/>
+      <c r="B180" s="15"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -6135,7 +6215,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
-      <c r="B181" s="14"/>
+      <c r="B181" s="15"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -6145,7 +6225,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
-      <c r="B182" s="14"/>
+      <c r="B182" s="15"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -6155,7 +6235,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
-      <c r="B183" s="14"/>
+      <c r="B183" s="15"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -6165,7 +6245,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
-      <c r="B184" s="15"/>
+      <c r="B184" s="16"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -6175,7 +6255,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="2"/>
-      <c r="B185" s="16"/>
+      <c r="B185" s="17"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -6185,7 +6265,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
-      <c r="B186" s="17"/>
+      <c r="B186" s="18"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -6195,7 +6275,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
-      <c r="B187" s="17"/>
+      <c r="B187" s="18"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -6205,7 +6285,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
-      <c r="B188" s="17"/>
+      <c r="B188" s="18"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="5"/>
@@ -6215,7 +6295,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="2"/>
-      <c r="B189" s="17"/>
+      <c r="B189" s="18"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="5"/>
@@ -6225,7 +6305,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
-      <c r="B190" s="17"/>
+      <c r="B190" s="18"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="5"/>
@@ -6235,7 +6315,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
-      <c r="B191" s="17"/>
+      <c r="B191" s="18"/>
       <c r="C191" s="10"/>
       <c r="D191" s="2"/>
       <c r="E191" s="5"/>
@@ -6245,7 +6325,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
-      <c r="B192" s="17"/>
+      <c r="B192" s="18"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="5"/>
@@ -6255,7 +6335,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
-      <c r="B193" s="17"/>
+      <c r="B193" s="18"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="5"/>
@@ -6265,7 +6345,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
-      <c r="B194" s="17"/>
+      <c r="B194" s="18"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="5"/>
@@ -6275,7 +6355,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
-      <c r="B195" s="17"/>
+      <c r="B195" s="18"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="5"/>
@@ -6285,7 +6365,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
-      <c r="B196" s="17"/>
+      <c r="B196" s="18"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="5"/>
@@ -6295,7 +6375,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
-      <c r="B197" s="14"/>
+      <c r="B197" s="15"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="5"/>
@@ -6305,7 +6385,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
-      <c r="B198" s="14"/>
+      <c r="B198" s="15"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="5"/>
@@ -6315,7 +6395,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="2"/>
-      <c r="B199" s="14"/>
+      <c r="B199" s="15"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="5"/>
@@ -6325,7 +6405,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
-      <c r="B200" s="14"/>
+      <c r="B200" s="15"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="5"/>
@@ -6335,7 +6415,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="2"/>
-      <c r="B201" s="14"/>
+      <c r="B201" s="15"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="5"/>
@@ -6345,7 +6425,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="2"/>
-      <c r="B202" s="14"/>
+      <c r="B202" s="15"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="5"/>
@@ -6355,7 +6435,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="2"/>
-      <c r="B203" s="14"/>
+      <c r="B203" s="15"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="5"/>
@@ -6365,7 +6445,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="2"/>
-      <c r="B204" s="14"/>
+      <c r="B204" s="15"/>
       <c r="C204" s="10"/>
       <c r="D204" s="2"/>
       <c r="E204" s="5"/>
@@ -6375,7 +6455,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="2"/>
-      <c r="B205" s="14"/>
+      <c r="B205" s="15"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="5"/>
@@ -6385,7 +6465,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
-      <c r="B206" s="14"/>
+      <c r="B206" s="15"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="5"/>
@@ -6395,7 +6475,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="2"/>
-      <c r="B207" s="14"/>
+      <c r="B207" s="15"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="5"/>
@@ -6405,7 +6485,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="2"/>
-      <c r="B208" s="14"/>
+      <c r="B208" s="15"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="5"/>
@@ -6415,7 +6495,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="2"/>
-      <c r="B209" s="14"/>
+      <c r="B209" s="15"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="5"/>
@@ -6425,7 +6505,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="2"/>
-      <c r="B210" s="14"/>
+      <c r="B210" s="15"/>
       <c r="C210" s="10"/>
       <c r="D210" s="2"/>
       <c r="E210" s="5"/>
@@ -6435,7 +6515,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="2"/>
-      <c r="B211" s="14"/>
+      <c r="B211" s="15"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="5"/>
@@ -6445,7 +6525,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="2"/>
-      <c r="B212" s="14"/>
+      <c r="B212" s="15"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="5"/>
@@ -6455,7 +6535,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="2"/>
-      <c r="B213" s="14"/>
+      <c r="B213" s="15"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="5"/>
@@ -6465,7 +6545,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="2"/>
-      <c r="B214" s="14"/>
+      <c r="B214" s="15"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -6475,7 +6555,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="2"/>
-      <c r="B215" s="14"/>
+      <c r="B215" s="15"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
@@ -6485,7 +6565,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="2"/>
-      <c r="B216" s="14"/>
+      <c r="B216" s="15"/>
       <c r="C216" s="10"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -6495,7 +6575,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="2"/>
-      <c r="B217" s="14"/>
+      <c r="B217" s="15"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -6505,7 +6585,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="2"/>
-      <c r="B218" s="14"/>
+      <c r="B218" s="15"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -6515,7 +6595,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="2"/>
-      <c r="B219" s="14"/>
+      <c r="B219" s="15"/>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -6525,7 +6605,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="2"/>
-      <c r="B220" s="14"/>
+      <c r="B220" s="15"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -6535,7 +6615,7 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="2"/>
-      <c r="B221" s="14"/>
+      <c r="B221" s="15"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -6545,7 +6625,7 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="2"/>
-      <c r="B222" s="14"/>
+      <c r="B222" s="15"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -6555,7 +6635,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="2"/>
-      <c r="B223" s="14"/>
+      <c r="B223" s="15"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -6565,7 +6645,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="2"/>
-      <c r="B224" s="14"/>
+      <c r="B224" s="15"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -6575,7 +6655,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="2"/>
-      <c r="B225" s="14"/>
+      <c r="B225" s="15"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -6585,7 +6665,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="2"/>
-      <c r="B226" s="14"/>
+      <c r="B226" s="15"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -6595,7 +6675,7 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="2"/>
-      <c r="B227" s="14"/>
+      <c r="B227" s="15"/>
       <c r="C227" s="10"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -6605,7 +6685,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="2"/>
-      <c r="B228" s="14"/>
+      <c r="B228" s="15"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -6615,7 +6695,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="2"/>
-      <c r="B229" s="14"/>
+      <c r="B229" s="15"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -6625,7 +6705,7 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="2"/>
-      <c r="B230" s="14"/>
+      <c r="B230" s="15"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
@@ -6635,7 +6715,7 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="2"/>
-      <c r="B231" s="14"/>
+      <c r="B231" s="15"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -6645,7 +6725,7 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="2"/>
-      <c r="B232" s="14"/>
+      <c r="B232" s="15"/>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -6655,7 +6735,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="2"/>
-      <c r="B233" s="14"/>
+      <c r="B233" s="15"/>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -6665,7 +6745,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="2"/>
-      <c r="B234" s="14"/>
+      <c r="B234" s="15"/>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="5"/>
@@ -6675,7 +6755,7 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="2"/>
-      <c r="B235" s="14"/>
+      <c r="B235" s="15"/>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="5"/>
@@ -6685,7 +6765,7 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="2"/>
-      <c r="B236" s="14"/>
+      <c r="B236" s="15"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="5"/>
@@ -6695,7 +6775,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="2"/>
-      <c r="B237" s="14"/>
+      <c r="B237" s="15"/>
       <c r="C237" s="10"/>
       <c r="D237" s="2"/>
       <c r="E237" s="5"/>
@@ -6705,7 +6785,7 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="2"/>
-      <c r="B238" s="14"/>
+      <c r="B238" s="15"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="5"/>
@@ -6715,7 +6795,7 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="2"/>
-      <c r="B239" s="14"/>
+      <c r="B239" s="15"/>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="5"/>
@@ -6725,7 +6805,7 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="2"/>
-      <c r="B240" s="14"/>
+      <c r="B240" s="15"/>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="5"/>
@@ -6735,7 +6815,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="2"/>
-      <c r="B241" s="14"/>
+      <c r="B241" s="15"/>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
@@ -6745,7 +6825,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="2"/>
-      <c r="B242" s="14"/>
+      <c r="B242" s="15"/>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
@@ -6755,7 +6835,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="2"/>
-      <c r="B243" s="14"/>
+      <c r="B243" s="15"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
@@ -6765,7 +6845,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="2"/>
-      <c r="B244" s="14"/>
+      <c r="B244" s="15"/>
       <c r="C244" s="10"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -6775,7 +6855,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="2"/>
-      <c r="B245" s="14"/>
+      <c r="B245" s="15"/>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -6785,7 +6865,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="2"/>
-      <c r="B246" s="14"/>
+      <c r="B246" s="15"/>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -6795,7 +6875,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="2"/>
-      <c r="B247" s="14"/>
+      <c r="B247" s="15"/>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
@@ -6805,7 +6885,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="2"/>
-      <c r="B248" s="14"/>
+      <c r="B248" s="15"/>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -6815,7 +6895,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="2"/>
-      <c r="B249" s="14"/>
+      <c r="B249" s="15"/>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
@@ -6825,7 +6905,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="2"/>
-      <c r="B250" s="14"/>
+      <c r="B250" s="15"/>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -6835,7 +6915,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="2"/>
-      <c r="B251" s="14"/>
+      <c r="B251" s="15"/>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -6845,7 +6925,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="2"/>
-      <c r="B252" s="14"/>
+      <c r="B252" s="15"/>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -6855,7 +6935,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="2"/>
-      <c r="B253" s="14"/>
+      <c r="B253" s="15"/>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -6865,7 +6945,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="2"/>
-      <c r="B254" s="14"/>
+      <c r="B254" s="15"/>
       <c r="C254" s="10"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -6875,7 +6955,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="2"/>
-      <c r="B255" s="14"/>
+      <c r="B255" s="15"/>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -6885,7 +6965,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="2"/>
-      <c r="B256" s="14"/>
+      <c r="B256" s="15"/>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
@@ -9587,7 +9667,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -9609,7 +9689,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
-      <c r="B3" s="17"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
@@ -9629,7 +9709,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
-      <c r="B4" s="17"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
@@ -9649,7 +9729,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
-      <c r="B5" s="17"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
@@ -9669,7 +9749,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
-      <c r="B6" s="17"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
@@ -9689,7 +9769,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
-      <c r="B7" s="17"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
@@ -9709,7 +9789,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
-      <c r="B8" s="17"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
@@ -9729,7 +9809,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
-      <c r="B9" s="17"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
@@ -9749,7 +9829,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
-      <c r="B10" s="17"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="7" t="s">
         <v>16</v>
       </c>
@@ -9769,7 +9849,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
-      <c r="B11" s="17"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
@@ -9789,7 +9869,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
-      <c r="B12" s="17"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="7" t="s">
         <v>16</v>
       </c>
@@ -9811,7 +9891,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
-      <c r="B13" s="17"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="7" t="s">
         <v>16</v>
       </c>
@@ -9831,7 +9911,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
-      <c r="B14" s="17"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="7" t="s">
         <v>16</v>
       </c>
@@ -9851,7 +9931,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
-      <c r="B15" s="17"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="7" t="s">
         <v>16</v>
       </c>
@@ -9871,7 +9951,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
-      <c r="B16" s="17"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="7" t="s">
         <v>16</v>
       </c>
@@ -9891,7 +9971,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
-      <c r="B17" s="17"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="7" t="s">
         <v>16</v>
       </c>
@@ -9911,7 +9991,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
-      <c r="B18" s="17"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="7" t="s">
         <v>16</v>
       </c>
@@ -9931,7 +10011,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
-      <c r="B19" s="17"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="7" t="s">
         <v>16</v>
       </c>
@@ -9951,7 +10031,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
-      <c r="B20" s="17"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="7" t="s">
         <v>16</v>
       </c>
@@ -9971,7 +10051,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
-      <c r="B21" s="17"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="7" t="s">
         <v>16</v>
       </c>
@@ -9991,7 +10071,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
-      <c r="B22" s="17"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="7" t="s">
         <v>16</v>
       </c>
@@ -10011,7 +10091,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
-      <c r="B23" s="17"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="7" t="s">
         <v>16</v>
       </c>
@@ -10031,7 +10111,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
-      <c r="B24" s="17"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="7" t="s">
         <v>16</v>
       </c>
@@ -10051,7 +10131,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
-      <c r="B25" s="17"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="7" t="s">
         <v>16</v>
       </c>
@@ -10071,7 +10151,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
-      <c r="B26" s="17"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="7" t="s">
         <v>16</v>
       </c>
@@ -10091,7 +10171,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
-      <c r="B27" s="17"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="7" t="s">
         <v>16</v>
       </c>
@@ -10111,7 +10191,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
-      <c r="B28" s="17"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="7" t="s">
         <v>16</v>
       </c>
@@ -10131,7 +10211,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
-      <c r="B29" s="17"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="7" t="s">
         <v>16</v>
       </c>
@@ -10151,7 +10231,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
-      <c r="B30" s="17"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="7" t="s">
         <v>16</v>
       </c>
@@ -10171,7 +10251,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
-      <c r="B31" s="17"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="7" t="s">
         <v>16</v>
       </c>
@@ -10191,7 +10271,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
-      <c r="B32" s="17"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="7" t="s">
         <v>16</v>
       </c>
@@ -10211,7 +10291,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
-      <c r="B33" s="17"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="7" t="s">
         <v>16</v>
       </c>
@@ -10231,7 +10311,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
-      <c r="B34" s="17"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="7" t="s">
         <v>16</v>
       </c>
@@ -10251,7 +10331,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
-      <c r="B35" s="17"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="7" t="s">
         <v>16</v>
       </c>
@@ -10271,7 +10351,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
-      <c r="B36" s="17"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="7" t="s">
         <v>16</v>
       </c>
@@ -10291,7 +10371,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
-      <c r="B37" s="17"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="7" t="s">
         <v>16</v>
       </c>
@@ -10311,7 +10391,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
-      <c r="B38" s="17"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="7" t="s">
         <v>16</v>
       </c>
@@ -10331,7 +10411,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
-      <c r="B39" s="17"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="7" t="s">
         <v>16</v>
       </c>
@@ -10351,7 +10431,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
-      <c r="B40" s="17"/>
+      <c r="B40" s="18"/>
       <c r="C40" s="7" t="s">
         <v>16</v>
       </c>
@@ -10371,7 +10451,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
-      <c r="B41" s="17"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="7" t="s">
         <v>16</v>
       </c>
@@ -10391,7 +10471,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
-      <c r="B42" s="17"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="7" t="s">
         <v>16</v>
       </c>
@@ -10411,7 +10491,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
-      <c r="B43" s="17"/>
+      <c r="B43" s="18"/>
       <c r="C43" s="7" t="s">
         <v>16</v>
       </c>
@@ -10431,7 +10511,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
-      <c r="B44" s="17"/>
+      <c r="B44" s="18"/>
       <c r="C44" s="7" t="s">
         <v>16</v>
       </c>
@@ -10451,7 +10531,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -10473,7 +10553,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
-      <c r="B46" s="14"/>
+      <c r="B46" s="15"/>
       <c r="C46" s="7" t="s">
         <v>104</v>
       </c>
@@ -10493,7 +10573,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
-      <c r="B47" s="14"/>
+      <c r="B47" s="15"/>
       <c r="C47" s="7" t="s">
         <v>104</v>
       </c>
@@ -10513,7 +10593,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
-      <c r="B48" s="14"/>
+      <c r="B48" s="15"/>
       <c r="C48" s="7" t="s">
         <v>104</v>
       </c>
@@ -10533,7 +10613,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
-      <c r="B49" s="14"/>
+      <c r="B49" s="15"/>
       <c r="C49" s="7" t="s">
         <v>104</v>
       </c>
@@ -10553,7 +10633,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
-      <c r="B50" s="14"/>
+      <c r="B50" s="15"/>
       <c r="C50" s="7" t="s">
         <v>104</v>
       </c>
@@ -10573,7 +10653,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
-      <c r="B51" s="14"/>
+      <c r="B51" s="15"/>
       <c r="C51" s="7" t="s">
         <v>104</v>
       </c>
@@ -10593,7 +10673,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C52" s="7" t="s">
@@ -10615,7 +10695,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
-      <c r="B53" s="14"/>
+      <c r="B53" s="15"/>
       <c r="C53" s="7" t="s">
         <v>118</v>
       </c>
@@ -10635,7 +10715,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
-      <c r="B54" s="14"/>
+      <c r="B54" s="15"/>
       <c r="C54" s="7" t="s">
         <v>118</v>
       </c>
@@ -10655,7 +10735,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
-      <c r="B55" s="14"/>
+      <c r="B55" s="15"/>
       <c r="C55" s="7" t="s">
         <v>118</v>
       </c>
@@ -10675,7 +10755,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
-      <c r="B56" s="14"/>
+      <c r="B56" s="15"/>
       <c r="C56" s="7" t="s">
         <v>118</v>
       </c>
@@ -10695,7 +10775,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
-      <c r="B57" s="14"/>
+      <c r="B57" s="15"/>
       <c r="C57" s="7" t="s">
         <v>118</v>
       </c>
@@ -10715,7 +10795,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
-      <c r="B58" s="14"/>
+      <c r="B58" s="15"/>
       <c r="C58" s="7" t="s">
         <v>118</v>
       </c>
@@ -10735,7 +10815,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
-      <c r="B59" s="14"/>
+      <c r="B59" s="15"/>
       <c r="C59" s="7" t="s">
         <v>118</v>
       </c>
@@ -10755,7 +10835,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="7"/>
-      <c r="B60" s="14"/>
+      <c r="B60" s="15"/>
       <c r="C60" s="7" t="s">
         <v>118</v>
       </c>
@@ -10775,7 +10855,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="7"/>
-      <c r="B61" s="14"/>
+      <c r="B61" s="15"/>
       <c r="C61" s="7" t="s">
         <v>118</v>
       </c>
@@ -10795,7 +10875,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
-      <c r="B62" s="14"/>
+      <c r="B62" s="15"/>
       <c r="C62" s="7" t="s">
         <v>118</v>
       </c>
@@ -10815,7 +10895,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="7"/>
-      <c r="B63" s="14"/>
+      <c r="B63" s="15"/>
       <c r="C63" s="7" t="s">
         <v>118</v>
       </c>
@@ -10835,7 +10915,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
-      <c r="B64" s="14"/>
+      <c r="B64" s="15"/>
       <c r="C64" s="7" t="s">
         <v>118</v>
       </c>
@@ -10857,7 +10937,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="7"/>
-      <c r="B65" s="14"/>
+      <c r="B65" s="15"/>
       <c r="C65" s="7" t="s">
         <v>118</v>
       </c>
@@ -10877,7 +10957,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
-      <c r="B66" s="14"/>
+      <c r="B66" s="15"/>
       <c r="C66" s="7" t="s">
         <v>118</v>
       </c>
@@ -10899,7 +10979,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
-      <c r="B67" s="14"/>
+      <c r="B67" s="15"/>
       <c r="C67" s="7" t="s">
         <v>118</v>
       </c>
@@ -10919,7 +10999,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
-      <c r="B68" s="14"/>
+      <c r="B68" s="15"/>
       <c r="C68" s="7" t="s">
         <v>118</v>
       </c>
@@ -10939,7 +11019,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
-      <c r="B69" s="14"/>
+      <c r="B69" s="15"/>
       <c r="C69" s="7" t="s">
         <v>118</v>
       </c>
@@ -10959,7 +11039,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="7"/>
-      <c r="B70" s="14"/>
+      <c r="B70" s="15"/>
       <c r="C70" s="7" t="s">
         <v>118</v>
       </c>
@@ -10979,7 +11059,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
-      <c r="B71" s="14"/>
+      <c r="B71" s="15"/>
       <c r="C71" s="7" t="s">
         <v>118</v>
       </c>
@@ -10999,7 +11079,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
-      <c r="B72" s="14"/>
+      <c r="B72" s="15"/>
       <c r="C72" s="7" t="s">
         <v>118</v>
       </c>
@@ -11019,7 +11099,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
-      <c r="B73" s="14"/>
+      <c r="B73" s="15"/>
       <c r="C73" s="7" t="s">
         <v>118</v>
       </c>
@@ -11039,7 +11119,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
-      <c r="B74" s="14"/>
+      <c r="B74" s="15"/>
       <c r="C74" s="7" t="s">
         <v>118</v>
       </c>
@@ -11059,7 +11139,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="7"/>
-      <c r="B75" s="14"/>
+      <c r="B75" s="15"/>
       <c r="C75" s="7" t="s">
         <v>118</v>
       </c>
@@ -11079,7 +11159,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="7"/>
-      <c r="B76" s="14"/>
+      <c r="B76" s="15"/>
       <c r="C76" s="7" t="s">
         <v>118</v>
       </c>
@@ -11099,7 +11179,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C77" s="7" t="s">
@@ -11121,7 +11201,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="7"/>
-      <c r="B78" s="14"/>
+      <c r="B78" s="15"/>
       <c r="C78" s="7" t="s">
         <v>536</v>
       </c>
@@ -11141,7 +11221,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="7"/>
-      <c r="B79" s="14"/>
+      <c r="B79" s="15"/>
       <c r="C79" s="7" t="s">
         <v>536</v>
       </c>
@@ -11161,7 +11241,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
-      <c r="B80" s="14"/>
+      <c r="B80" s="15"/>
       <c r="C80" s="7" t="s">
         <v>536</v>
       </c>
@@ -11181,7 +11261,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
-      <c r="B81" s="14"/>
+      <c r="B81" s="15"/>
       <c r="C81" s="7" t="s">
         <v>536</v>
       </c>
@@ -11201,7 +11281,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="7"/>
-      <c r="B82" s="14"/>
+      <c r="B82" s="15"/>
       <c r="C82" s="7" t="s">
         <v>536</v>
       </c>
@@ -11221,7 +11301,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="7"/>
-      <c r="B83" s="14"/>
+      <c r="B83" s="15"/>
       <c r="C83" s="7" t="s">
         <v>536</v>
       </c>
@@ -11241,7 +11321,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="7"/>
-      <c r="B84" s="14"/>
+      <c r="B84" s="15"/>
       <c r="C84" s="7" t="s">
         <v>536</v>
       </c>
@@ -11261,7 +11341,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="7"/>
-      <c r="B85" s="14"/>
+      <c r="B85" s="15"/>
       <c r="C85" s="7" t="s">
         <v>536</v>
       </c>
@@ -11281,7 +11361,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="7"/>
-      <c r="B86" s="14"/>
+      <c r="B86" s="15"/>
       <c r="C86" s="7" t="s">
         <v>536</v>
       </c>
@@ -11301,7 +11381,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="7"/>
-      <c r="B87" s="14"/>
+      <c r="B87" s="15"/>
       <c r="C87" s="7" t="s">
         <v>536</v>
       </c>
@@ -11321,7 +11401,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="7"/>
-      <c r="B88" s="14"/>
+      <c r="B88" s="15"/>
       <c r="C88" s="7" t="s">
         <v>536</v>
       </c>
@@ -11341,7 +11421,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="7"/>
-      <c r="B89" s="14"/>
+      <c r="B89" s="15"/>
       <c r="C89" s="7" t="s">
         <v>536</v>
       </c>
@@ -11361,7 +11441,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="7"/>
-      <c r="B90" s="14"/>
+      <c r="B90" s="15"/>
       <c r="C90" s="7" t="s">
         <v>536</v>
       </c>
@@ -11381,7 +11461,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="7"/>
-      <c r="B91" s="14"/>
+      <c r="B91" s="15"/>
       <c r="C91" s="7" t="s">
         <v>536</v>
       </c>
@@ -11401,7 +11481,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="7"/>
-      <c r="B92" s="14"/>
+      <c r="B92" s="15"/>
       <c r="C92" s="7" t="s">
         <v>536</v>
       </c>
@@ -11421,7 +11501,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="7"/>
-      <c r="B93" s="14"/>
+      <c r="B93" s="15"/>
       <c r="C93" s="7" t="s">
         <v>536</v>
       </c>
@@ -11441,7 +11521,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="7"/>
-      <c r="B94" s="14"/>
+      <c r="B94" s="15"/>
       <c r="C94" s="7" t="s">
         <v>536</v>
       </c>
@@ -11461,7 +11541,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="7"/>
-      <c r="B95" s="14"/>
+      <c r="B95" s="15"/>
       <c r="C95" s="7" t="s">
         <v>536</v>
       </c>
@@ -11481,7 +11561,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="7"/>
-      <c r="B96" s="14"/>
+      <c r="B96" s="15"/>
       <c r="C96" s="7" t="s">
         <v>536</v>
       </c>
@@ -11501,7 +11581,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="7"/>
-      <c r="B97" s="14"/>
+      <c r="B97" s="15"/>
       <c r="C97" s="7" t="s">
         <v>536</v>
       </c>
@@ -11521,7 +11601,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="7"/>
-      <c r="B98" s="14"/>
+      <c r="B98" s="15"/>
       <c r="C98" s="7" t="s">
         <v>536</v>
       </c>
@@ -11541,7 +11621,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="7"/>
-      <c r="B99" s="14"/>
+      <c r="B99" s="15"/>
       <c r="C99" s="7" t="s">
         <v>536</v>
       </c>
@@ -11561,7 +11641,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="7"/>
-      <c r="B100" s="14" t="s">
+      <c r="B100" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C100" s="7" t="s">
@@ -11583,7 +11663,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="7"/>
-      <c r="B101" s="14"/>
+      <c r="B101" s="15"/>
       <c r="C101" s="7" t="s">
         <v>561</v>
       </c>
@@ -11603,7 +11683,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="7"/>
-      <c r="B102" s="14"/>
+      <c r="B102" s="15"/>
       <c r="C102" s="7" t="s">
         <v>170</v>
       </c>
@@ -11623,7 +11703,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="7"/>
-      <c r="B103" s="14"/>
+      <c r="B103" s="15"/>
       <c r="C103" s="7" t="s">
         <v>170</v>
       </c>
@@ -11643,7 +11723,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="7"/>
-      <c r="B104" s="14" t="s">
+      <c r="B104" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C104" s="7" t="s">
@@ -11665,7 +11745,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="7"/>
-      <c r="B105" s="14"/>
+      <c r="B105" s="15"/>
       <c r="C105" s="7" t="s">
         <v>179</v>
       </c>
@@ -11685,7 +11765,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="7"/>
-      <c r="B106" s="14"/>
+      <c r="B106" s="15"/>
       <c r="C106" s="7" t="s">
         <v>562</v>
       </c>
@@ -11705,7 +11785,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="7"/>
-      <c r="B107" s="14"/>
+      <c r="B107" s="15"/>
       <c r="C107" s="7" t="s">
         <v>179</v>
       </c>
@@ -11725,7 +11805,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="7"/>
-      <c r="B108" s="14"/>
+      <c r="B108" s="15"/>
       <c r="C108" s="7" t="s">
         <v>179</v>
       </c>
@@ -11745,7 +11825,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="7"/>
-      <c r="B109" s="14"/>
+      <c r="B109" s="15"/>
       <c r="C109" s="7" t="s">
         <v>179</v>
       </c>
@@ -11765,7 +11845,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="7"/>
-      <c r="B110" s="14"/>
+      <c r="B110" s="15"/>
       <c r="C110" s="7" t="s">
         <v>179</v>
       </c>
@@ -11785,7 +11865,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="7"/>
-      <c r="B111" s="14"/>
+      <c r="B111" s="15"/>
       <c r="C111" s="7" t="s">
         <v>179</v>
       </c>
@@ -11805,7 +11885,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="7"/>
-      <c r="B112" s="14"/>
+      <c r="B112" s="15"/>
       <c r="C112" s="7" t="s">
         <v>179</v>
       </c>
@@ -11825,7 +11905,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="7"/>
-      <c r="B113" s="14"/>
+      <c r="B113" s="15"/>
       <c r="C113" s="7" t="s">
         <v>179</v>
       </c>
@@ -11845,7 +11925,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="7"/>
-      <c r="B114" s="14"/>
+      <c r="B114" s="15"/>
       <c r="C114" s="7" t="s">
         <v>179</v>
       </c>
@@ -11865,7 +11945,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="7"/>
-      <c r="B115" s="14"/>
+      <c r="B115" s="15"/>
       <c r="C115" s="7" t="s">
         <v>179</v>
       </c>
@@ -11885,7 +11965,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="7"/>
-      <c r="B116" s="14"/>
+      <c r="B116" s="15"/>
       <c r="C116" s="7" t="s">
         <v>179</v>
       </c>
@@ -11905,7 +11985,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="7"/>
-      <c r="B117" s="14"/>
+      <c r="B117" s="15"/>
       <c r="C117" s="7" t="s">
         <v>179</v>
       </c>
@@ -11925,7 +12005,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="7"/>
-      <c r="B118" s="14"/>
+      <c r="B118" s="15"/>
       <c r="C118" s="7" t="s">
         <v>179</v>
       </c>
@@ -11947,7 +12027,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="7"/>
-      <c r="B119" s="14"/>
+      <c r="B119" s="15"/>
       <c r="C119" s="7" t="s">
         <v>179</v>
       </c>
@@ -11967,7 +12047,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="7"/>
-      <c r="B120" s="14"/>
+      <c r="B120" s="15"/>
       <c r="C120" s="7" t="s">
         <v>179</v>
       </c>
@@ -11987,7 +12067,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="7"/>
-      <c r="B121" s="14"/>
+      <c r="B121" s="15"/>
       <c r="C121" s="7" t="s">
         <v>179</v>
       </c>
@@ -12007,7 +12087,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="7"/>
-      <c r="B122" s="14"/>
+      <c r="B122" s="15"/>
       <c r="C122" s="7" t="s">
         <v>179</v>
       </c>
@@ -12027,7 +12107,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="7"/>
-      <c r="B123" s="14"/>
+      <c r="B123" s="15"/>
       <c r="C123" s="7" t="s">
         <v>179</v>
       </c>
@@ -12047,7 +12127,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="7"/>
-      <c r="B124" s="14"/>
+      <c r="B124" s="15"/>
       <c r="C124" s="7" t="s">
         <v>179</v>
       </c>
@@ -12067,7 +12147,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="7"/>
-      <c r="B125" s="14"/>
+      <c r="B125" s="15"/>
       <c r="C125" s="7" t="s">
         <v>179</v>
       </c>
@@ -12087,7 +12167,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="7"/>
-      <c r="B126" s="14"/>
+      <c r="B126" s="15"/>
       <c r="C126" s="7" t="s">
         <v>179</v>
       </c>
@@ -12107,7 +12187,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="7"/>
-      <c r="B127" s="14"/>
+      <c r="B127" s="15"/>
       <c r="C127" s="7" t="s">
         <v>179</v>
       </c>
@@ -12127,7 +12207,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="7"/>
-      <c r="B128" s="14"/>
+      <c r="B128" s="15"/>
       <c r="C128" s="7" t="s">
         <v>179</v>
       </c>
@@ -12149,7 +12229,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="7"/>
-      <c r="B129" s="14"/>
+      <c r="B129" s="15"/>
       <c r="C129" s="7" t="s">
         <v>179</v>
       </c>
@@ -12169,7 +12249,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="7"/>
-      <c r="B130" s="14"/>
+      <c r="B130" s="15"/>
       <c r="C130" s="7" t="s">
         <v>179</v>
       </c>
@@ -12191,7 +12271,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="7"/>
-      <c r="B131" s="14"/>
+      <c r="B131" s="15"/>
       <c r="C131" s="7" t="s">
         <v>179</v>
       </c>
@@ -12213,7 +12293,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="7"/>
-      <c r="B132" s="14"/>
+      <c r="B132" s="15"/>
       <c r="C132" s="7" t="s">
         <v>179</v>
       </c>
@@ -12235,7 +12315,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="7"/>
-      <c r="B133" s="14"/>
+      <c r="B133" s="15"/>
       <c r="C133" s="7" t="s">
         <v>179</v>
       </c>
@@ -12257,7 +12337,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="7"/>
-      <c r="B134" s="14"/>
+      <c r="B134" s="15"/>
       <c r="C134" s="7" t="s">
         <v>179</v>
       </c>
@@ -12279,7 +12359,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="7"/>
-      <c r="B135" s="14"/>
+      <c r="B135" s="15"/>
       <c r="C135" s="7" t="s">
         <v>179</v>
       </c>
@@ -12301,7 +12381,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="7"/>
-      <c r="B136" s="14"/>
+      <c r="B136" s="15"/>
       <c r="C136" s="7" t="s">
         <v>179</v>
       </c>
@@ -12323,7 +12403,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="7"/>
-      <c r="B137" s="14"/>
+      <c r="B137" s="15"/>
       <c r="C137" s="7" t="s">
         <v>179</v>
       </c>
@@ -12345,7 +12425,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="7"/>
-      <c r="B138" s="14"/>
+      <c r="B138" s="15"/>
       <c r="C138" s="7" t="s">
         <v>179</v>
       </c>
@@ -12367,7 +12447,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="7"/>
-      <c r="B139" s="14"/>
+      <c r="B139" s="15"/>
       <c r="C139" s="7" t="s">
         <v>179</v>
       </c>
@@ -12389,7 +12469,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="7"/>
-      <c r="B140" s="14"/>
+      <c r="B140" s="15"/>
       <c r="C140" s="7" t="s">
         <v>179</v>
       </c>
@@ -12411,7 +12491,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="7"/>
-      <c r="B141" s="14"/>
+      <c r="B141" s="15"/>
       <c r="C141" s="7" t="s">
         <v>179</v>
       </c>
@@ -12431,7 +12511,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="7"/>
-      <c r="B142" s="14"/>
+      <c r="B142" s="15"/>
       <c r="C142" s="7" t="s">
         <v>179</v>
       </c>
@@ -12451,7 +12531,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="7"/>
-      <c r="B143" s="14"/>
+      <c r="B143" s="15"/>
       <c r="C143" s="7" t="s">
         <v>179</v>
       </c>
@@ -12471,7 +12551,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="7"/>
-      <c r="B144" s="14"/>
+      <c r="B144" s="15"/>
       <c r="C144" s="7" t="s">
         <v>179</v>
       </c>
@@ -12491,7 +12571,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="7"/>
-      <c r="B145" s="14"/>
+      <c r="B145" s="15"/>
       <c r="C145" s="7" t="s">
         <v>179</v>
       </c>
@@ -12511,7 +12591,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="7"/>
-      <c r="B146" s="14"/>
+      <c r="B146" s="15"/>
       <c r="C146" s="7" t="s">
         <v>179</v>
       </c>
@@ -12531,7 +12611,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="7"/>
-      <c r="B147" s="14"/>
+      <c r="B147" s="15"/>
       <c r="C147" s="7" t="s">
         <v>179</v>
       </c>
@@ -12551,7 +12631,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="7"/>
-      <c r="B148" s="14"/>
+      <c r="B148" s="15"/>
       <c r="C148" s="7" t="s">
         <v>179</v>
       </c>
@@ -12571,7 +12651,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="7"/>
-      <c r="B149" s="14" t="s">
+      <c r="B149" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C149" s="7" t="s">
@@ -12593,7 +12673,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="7"/>
-      <c r="B150" s="14"/>
+      <c r="B150" s="15"/>
       <c r="C150" s="7" t="s">
         <v>272</v>
       </c>
@@ -12613,7 +12693,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="7"/>
-      <c r="B151" s="14"/>
+      <c r="B151" s="15"/>
       <c r="C151" s="7" t="s">
         <v>272</v>
       </c>
@@ -12633,7 +12713,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="7"/>
-      <c r="B152" s="14"/>
+      <c r="B152" s="15"/>
       <c r="C152" s="7" t="s">
         <v>272</v>
       </c>
@@ -12653,7 +12733,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="7"/>
-      <c r="B153" s="14" t="s">
+      <c r="B153" s="15" t="s">
         <v>563</v>
       </c>
       <c r="C153" s="7" t="s">
@@ -12675,7 +12755,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="7"/>
-      <c r="B154" s="14"/>
+      <c r="B154" s="15"/>
       <c r="C154" s="7" t="s">
         <v>280</v>
       </c>
@@ -12695,7 +12775,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="7"/>
-      <c r="B155" s="14"/>
+      <c r="B155" s="15"/>
       <c r="C155" s="7" t="s">
         <v>280</v>
       </c>
@@ -12715,7 +12795,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="7"/>
-      <c r="B156" s="14"/>
+      <c r="B156" s="15"/>
       <c r="C156" s="7" t="s">
         <v>280</v>
       </c>
@@ -12735,7 +12815,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="7"/>
-      <c r="B157" s="14"/>
+      <c r="B157" s="15"/>
       <c r="C157" s="7" t="s">
         <v>280</v>
       </c>
@@ -12755,7 +12835,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="7"/>
-      <c r="B158" s="14"/>
+      <c r="B158" s="15"/>
       <c r="C158" s="7" t="s">
         <v>280</v>
       </c>
@@ -12775,7 +12855,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="7"/>
-      <c r="B159" s="14"/>
+      <c r="B159" s="15"/>
       <c r="C159" s="7" t="s">
         <v>280</v>
       </c>
@@ -12795,7 +12875,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="7"/>
-      <c r="B160" s="14"/>
+      <c r="B160" s="15"/>
       <c r="C160" s="7" t="s">
         <v>280</v>
       </c>
@@ -12815,7 +12895,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="7"/>
-      <c r="B161" s="14"/>
+      <c r="B161" s="15"/>
       <c r="C161" s="7" t="s">
         <v>280</v>
       </c>
@@ -12835,7 +12915,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="7"/>
-      <c r="B162" s="14"/>
+      <c r="B162" s="15"/>
       <c r="C162" s="7" t="s">
         <v>280</v>
       </c>
@@ -12855,7 +12935,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="7"/>
-      <c r="B163" s="14"/>
+      <c r="B163" s="15"/>
       <c r="C163" s="7" t="s">
         <v>280</v>
       </c>
@@ -12875,7 +12955,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="7"/>
-      <c r="B164" s="14"/>
+      <c r="B164" s="15"/>
       <c r="C164" s="7" t="s">
         <v>280</v>
       </c>
@@ -12895,7 +12975,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="7"/>
-      <c r="B165" s="14"/>
+      <c r="B165" s="15"/>
       <c r="C165" s="7" t="s">
         <v>280</v>
       </c>
@@ -12915,7 +12995,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="7"/>
-      <c r="B166" s="14"/>
+      <c r="B166" s="15"/>
       <c r="C166" s="7" t="s">
         <v>280</v>
       </c>
@@ -12935,7 +13015,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="7"/>
-      <c r="B167" s="14"/>
+      <c r="B167" s="15"/>
       <c r="C167" s="7" t="s">
         <v>280</v>
       </c>
@@ -12955,7 +13035,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="7"/>
-      <c r="B168" s="14"/>
+      <c r="B168" s="15"/>
       <c r="C168" s="7" t="s">
         <v>280</v>
       </c>
@@ -12975,7 +13055,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="7"/>
-      <c r="B169" s="14"/>
+      <c r="B169" s="15"/>
       <c r="C169" s="7" t="s">
         <v>280</v>
       </c>
@@ -12995,7 +13075,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="7"/>
-      <c r="B170" s="14"/>
+      <c r="B170" s="15"/>
       <c r="C170" s="7" t="s">
         <v>280</v>
       </c>
@@ -13015,7 +13095,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="7"/>
-      <c r="B171" s="14"/>
+      <c r="B171" s="15"/>
       <c r="C171" s="7" t="s">
         <v>280</v>
       </c>
@@ -13035,7 +13115,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="7"/>
-      <c r="B172" s="14"/>
+      <c r="B172" s="15"/>
       <c r="C172" s="7" t="s">
         <v>280</v>
       </c>
@@ -13055,7 +13135,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="7"/>
-      <c r="B173" s="14"/>
+      <c r="B173" s="15"/>
       <c r="C173" s="7" t="s">
         <v>280</v>
       </c>
@@ -13075,7 +13155,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="7"/>
-      <c r="B174" s="14"/>
+      <c r="B174" s="15"/>
       <c r="C174" s="7" t="s">
         <v>564</v>
       </c>
@@ -13095,7 +13175,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="7"/>
-      <c r="B175" s="14"/>
+      <c r="B175" s="15"/>
       <c r="C175" s="7" t="s">
         <v>280</v>
       </c>
@@ -13115,7 +13195,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="7"/>
-      <c r="B176" s="14"/>
+      <c r="B176" s="15"/>
       <c r="C176" s="7" t="s">
         <v>280</v>
       </c>
@@ -13135,7 +13215,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="7"/>
-      <c r="B177" s="14"/>
+      <c r="B177" s="15"/>
       <c r="C177" s="7" t="s">
         <v>280</v>
       </c>
@@ -13155,7 +13235,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="7"/>
-      <c r="B178" s="14"/>
+      <c r="B178" s="15"/>
       <c r="C178" s="7" t="s">
         <v>280</v>
       </c>
@@ -13175,7 +13255,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="7"/>
-      <c r="B179" s="14"/>
+      <c r="B179" s="15"/>
       <c r="C179" s="7" t="s">
         <v>280</v>
       </c>
@@ -13195,7 +13275,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="7"/>
-      <c r="B180" s="14"/>
+      <c r="B180" s="15"/>
       <c r="C180" s="7" t="s">
         <v>280</v>
       </c>
@@ -13215,7 +13295,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="7"/>
-      <c r="B181" s="14"/>
+      <c r="B181" s="15"/>
       <c r="C181" s="7" t="s">
         <v>280</v>
       </c>
@@ -13235,7 +13315,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="7"/>
-      <c r="B182" s="14"/>
+      <c r="B182" s="15"/>
       <c r="C182" s="7" t="s">
         <v>280</v>
       </c>
@@ -13255,7 +13335,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="7"/>
-      <c r="B183" s="14"/>
+      <c r="B183" s="15"/>
       <c r="C183" s="7" t="s">
         <v>280</v>
       </c>
@@ -13275,7 +13355,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="7"/>
-      <c r="B184" s="14"/>
+      <c r="B184" s="15"/>
       <c r="C184" s="7" t="s">
         <v>280</v>
       </c>
@@ -13295,7 +13375,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="7"/>
-      <c r="B185" s="14"/>
+      <c r="B185" s="15"/>
       <c r="C185" s="7" t="s">
         <v>280</v>
       </c>
@@ -13315,7 +13395,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="7"/>
-      <c r="B186" s="14"/>
+      <c r="B186" s="15"/>
       <c r="C186" s="7" t="s">
         <v>280</v>
       </c>
@@ -13335,7 +13415,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="7"/>
-      <c r="B187" s="14"/>
+      <c r="B187" s="15"/>
       <c r="C187" s="7" t="s">
         <v>280</v>
       </c>
@@ -13355,7 +13435,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="7"/>
-      <c r="B188" s="14"/>
+      <c r="B188" s="15"/>
       <c r="C188" s="7" t="s">
         <v>280</v>
       </c>
@@ -13375,7 +13455,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="7"/>
-      <c r="B189" s="14"/>
+      <c r="B189" s="15"/>
       <c r="C189" s="7" t="s">
         <v>280</v>
       </c>
@@ -13395,7 +13475,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="7"/>
-      <c r="B190" s="14"/>
+      <c r="B190" s="15"/>
       <c r="C190" s="7" t="s">
         <v>280</v>
       </c>
@@ -13415,7 +13495,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="7"/>
-      <c r="B191" s="14"/>
+      <c r="B191" s="15"/>
       <c r="C191" s="7" t="s">
         <v>280</v>
       </c>
@@ -13435,7 +13515,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="7"/>
-      <c r="B192" s="14"/>
+      <c r="B192" s="15"/>
       <c r="C192" s="7" t="s">
         <v>280</v>
       </c>
@@ -13455,7 +13535,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="7"/>
-      <c r="B193" s="14"/>
+      <c r="B193" s="15"/>
       <c r="C193" s="7" t="s">
         <v>280</v>
       </c>
@@ -13475,7 +13555,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="7"/>
-      <c r="B194" s="14"/>
+      <c r="B194" s="15"/>
       <c r="C194" s="7" t="s">
         <v>280</v>
       </c>
@@ -13495,7 +13575,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="7"/>
-      <c r="B195" s="14"/>
+      <c r="B195" s="15"/>
       <c r="C195" s="7" t="s">
         <v>280</v>
       </c>
@@ -13515,7 +13595,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="7"/>
-      <c r="B196" s="14"/>
+      <c r="B196" s="15"/>
       <c r="C196" s="7" t="s">
         <v>280</v>
       </c>
@@ -13535,7 +13615,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="7"/>
-      <c r="B197" s="14"/>
+      <c r="B197" s="15"/>
       <c r="C197" s="7" t="s">
         <v>280</v>
       </c>
@@ -13555,7 +13635,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="7"/>
-      <c r="B198" s="14"/>
+      <c r="B198" s="15"/>
       <c r="C198" s="7" t="s">
         <v>280</v>
       </c>
@@ -13575,7 +13655,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="7"/>
-      <c r="B199" s="14"/>
+      <c r="B199" s="15"/>
       <c r="C199" s="7" t="s">
         <v>280</v>
       </c>
@@ -13595,7 +13675,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="7"/>
-      <c r="B200" s="14"/>
+      <c r="B200" s="15"/>
       <c r="C200" s="7" t="s">
         <v>280</v>
       </c>
@@ -13615,7 +13695,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="7"/>
-      <c r="B201" s="14"/>
+      <c r="B201" s="15"/>
       <c r="C201" s="7" t="s">
         <v>280</v>
       </c>
@@ -13635,7 +13715,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="7"/>
-      <c r="B202" s="14"/>
+      <c r="B202" s="15"/>
       <c r="C202" s="7" t="s">
         <v>280</v>
       </c>
@@ -13655,7 +13735,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="7"/>
-      <c r="B203" s="14"/>
+      <c r="B203" s="15"/>
       <c r="C203" s="7" t="s">
         <v>280</v>
       </c>
@@ -13675,7 +13755,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="7"/>
-      <c r="B204" s="14"/>
+      <c r="B204" s="15"/>
       <c r="C204" s="7" t="s">
         <v>280</v>
       </c>
@@ -13695,7 +13775,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="7"/>
-      <c r="B205" s="14"/>
+      <c r="B205" s="15"/>
       <c r="C205" s="7" t="s">
         <v>280</v>
       </c>
@@ -13715,7 +13795,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="7"/>
-      <c r="B206" s="14"/>
+      <c r="B206" s="15"/>
       <c r="C206" s="7" t="s">
         <v>280</v>
       </c>
@@ -13735,7 +13815,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="7"/>
-      <c r="B207" s="14"/>
+      <c r="B207" s="15"/>
       <c r="C207" s="7" t="s">
         <v>280</v>
       </c>
@@ -13755,7 +13835,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="7"/>
-      <c r="B208" s="14"/>
+      <c r="B208" s="15"/>
       <c r="C208" s="7" t="s">
         <v>280</v>
       </c>
@@ -13775,7 +13855,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="7"/>
-      <c r="B209" s="14"/>
+      <c r="B209" s="15"/>
       <c r="C209" s="7" t="s">
         <v>280</v>
       </c>
@@ -13795,7 +13875,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="7"/>
-      <c r="B210" s="14"/>
+      <c r="B210" s="15"/>
       <c r="C210" s="7" t="s">
         <v>280</v>
       </c>
@@ -13815,7 +13895,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="7"/>
-      <c r="B211" s="14"/>
+      <c r="B211" s="15"/>
       <c r="C211" s="7" t="s">
         <v>280</v>
       </c>
@@ -13835,7 +13915,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="7"/>
-      <c r="B212" s="14"/>
+      <c r="B212" s="15"/>
       <c r="C212" s="7" t="s">
         <v>280</v>
       </c>
@@ -13855,7 +13935,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="7"/>
-      <c r="B213" s="14"/>
+      <c r="B213" s="15"/>
       <c r="C213" s="7" t="s">
         <v>280</v>
       </c>
@@ -13875,7 +13955,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="7"/>
-      <c r="B214" s="14"/>
+      <c r="B214" s="15"/>
       <c r="C214" s="7" t="s">
         <v>280</v>
       </c>
@@ -13895,7 +13975,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="7"/>
-      <c r="B215" s="14"/>
+      <c r="B215" s="15"/>
       <c r="C215" s="7" t="s">
         <v>280</v>
       </c>
@@ -13915,7 +13995,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="7"/>
-      <c r="B216" s="14"/>
+      <c r="B216" s="15"/>
       <c r="C216" s="7" t="s">
         <v>280</v>
       </c>
@@ -13935,7 +14015,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="7"/>
-      <c r="B217" s="14"/>
+      <c r="B217" s="15"/>
       <c r="C217" s="7" t="s">
         <v>280</v>
       </c>
@@ -13955,7 +14035,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="7"/>
-      <c r="B218" s="14"/>
+      <c r="B218" s="15"/>
       <c r="C218" s="7" t="s">
         <v>280</v>
       </c>
@@ -13975,7 +14055,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="7"/>
-      <c r="B219" s="14"/>
+      <c r="B219" s="15"/>
       <c r="C219" s="7" t="s">
         <v>280</v>
       </c>
@@ -13995,7 +14075,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="7"/>
-      <c r="B220" s="14"/>
+      <c r="B220" s="15"/>
       <c r="C220" s="7" t="s">
         <v>280</v>
       </c>
@@ -14015,7 +14095,7 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="7"/>
-      <c r="B221" s="21" t="s">
+      <c r="B221" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C221" s="7" t="s">
@@ -14037,7 +14117,7 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="7"/>
-      <c r="B222" s="21"/>
+      <c r="B222" s="22"/>
       <c r="C222" s="7" t="s">
         <v>416</v>
       </c>
@@ -14057,7 +14137,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="7"/>
-      <c r="B223" s="21"/>
+      <c r="B223" s="22"/>
       <c r="C223" s="7" t="s">
         <v>416</v>
       </c>
@@ -14077,7 +14157,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="7"/>
-      <c r="B224" s="21"/>
+      <c r="B224" s="22"/>
       <c r="C224" s="7" t="s">
         <v>565</v>
       </c>
@@ -14097,7 +14177,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="7"/>
-      <c r="B225" s="21"/>
+      <c r="B225" s="22"/>
       <c r="C225" s="7" t="s">
         <v>416</v>
       </c>
@@ -14117,7 +14197,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="7"/>
-      <c r="B226" s="21"/>
+      <c r="B226" s="22"/>
       <c r="C226" s="7" t="s">
         <v>416</v>
       </c>
@@ -14137,7 +14217,7 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="7"/>
-      <c r="B227" s="21"/>
+      <c r="B227" s="22"/>
       <c r="C227" s="7" t="s">
         <v>416</v>
       </c>
@@ -14157,7 +14237,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="7"/>
-      <c r="B228" s="14" t="s">
+      <c r="B228" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C228" s="7" t="s">
@@ -14179,7 +14259,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="7"/>
-      <c r="B229" s="14"/>
+      <c r="B229" s="15"/>
       <c r="C229" s="7" t="s">
         <v>430</v>
       </c>
@@ -14199,7 +14279,7 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="7"/>
-      <c r="B230" s="14"/>
+      <c r="B230" s="15"/>
       <c r="C230" s="7" t="s">
         <v>430</v>
       </c>
@@ -14219,7 +14299,7 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="7"/>
-      <c r="B231" s="14"/>
+      <c r="B231" s="15"/>
       <c r="C231" s="7" t="s">
         <v>430</v>
       </c>
@@ -14239,7 +14319,7 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="7"/>
-      <c r="B232" s="14"/>
+      <c r="B232" s="15"/>
       <c r="C232" s="7" t="s">
         <v>430</v>
       </c>
@@ -14259,7 +14339,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="7"/>
-      <c r="B233" s="14"/>
+      <c r="B233" s="15"/>
       <c r="C233" s="7" t="s">
         <v>430</v>
       </c>
@@ -14279,7 +14359,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="7"/>
-      <c r="B234" s="14"/>
+      <c r="B234" s="15"/>
       <c r="C234" s="7" t="s">
         <v>430</v>
       </c>
@@ -14299,7 +14379,7 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="7"/>
-      <c r="B235" s="14"/>
+      <c r="B235" s="15"/>
       <c r="C235" s="7" t="s">
         <v>430</v>
       </c>
@@ -14319,7 +14399,7 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="7"/>
-      <c r="B236" s="14"/>
+      <c r="B236" s="15"/>
       <c r="C236" s="7" t="s">
         <v>566</v>
       </c>
@@ -14339,7 +14419,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="7"/>
-      <c r="B237" s="14"/>
+      <c r="B237" s="15"/>
       <c r="C237" s="7" t="s">
         <v>430</v>
       </c>
@@ -14359,7 +14439,7 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="7"/>
-      <c r="B238" s="14"/>
+      <c r="B238" s="15"/>
       <c r="C238" s="7" t="s">
         <v>430</v>
       </c>
@@ -14379,7 +14459,7 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="7"/>
-      <c r="B239" s="14"/>
+      <c r="B239" s="15"/>
       <c r="C239" s="7" t="s">
         <v>430</v>
       </c>
@@ -14399,7 +14479,7 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="7"/>
-      <c r="B240" s="14"/>
+      <c r="B240" s="15"/>
       <c r="C240" s="7" t="s">
         <v>430</v>
       </c>
@@ -14419,7 +14499,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="7"/>
-      <c r="B241" s="14"/>
+      <c r="B241" s="15"/>
       <c r="C241" s="7" t="s">
         <v>430</v>
       </c>
@@ -14439,7 +14519,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="7"/>
-      <c r="B242" s="14"/>
+      <c r="B242" s="15"/>
       <c r="C242" s="7" t="s">
         <v>430</v>
       </c>
@@ -14459,7 +14539,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="7"/>
-      <c r="B243" s="14"/>
+      <c r="B243" s="15"/>
       <c r="C243" s="7" t="s">
         <v>430</v>
       </c>
@@ -14479,7 +14559,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="7"/>
-      <c r="B244" s="14"/>
+      <c r="B244" s="15"/>
       <c r="C244" s="7" t="s">
         <v>430</v>
       </c>
@@ -14499,7 +14579,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="7"/>
-      <c r="B245" s="14"/>
+      <c r="B245" s="15"/>
       <c r="C245" s="7" t="s">
         <v>430</v>
       </c>
@@ -14519,7 +14599,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="7"/>
-      <c r="B246" s="14"/>
+      <c r="B246" s="15"/>
       <c r="C246" s="7" t="s">
         <v>430</v>
       </c>
@@ -14539,7 +14619,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="7"/>
-      <c r="B247" s="14"/>
+      <c r="B247" s="15"/>
       <c r="C247" s="7" t="s">
         <v>430</v>
       </c>
@@ -14559,7 +14639,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="7"/>
-      <c r="B248" s="14"/>
+      <c r="B248" s="15"/>
       <c r="C248" s="7" t="s">
         <v>430</v>
       </c>
@@ -14579,7 +14659,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="7"/>
-      <c r="B249" s="14"/>
+      <c r="B249" s="15"/>
       <c r="C249" s="7" t="s">
         <v>430</v>
       </c>
@@ -14599,7 +14679,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="7"/>
-      <c r="B250" s="14"/>
+      <c r="B250" s="15"/>
       <c r="C250" s="7" t="s">
         <v>430</v>
       </c>
@@ -14619,7 +14699,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="7"/>
-      <c r="B251" s="14"/>
+      <c r="B251" s="15"/>
       <c r="C251" s="7" t="s">
         <v>430</v>
       </c>
@@ -14639,7 +14719,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="7"/>
-      <c r="B252" s="14"/>
+      <c r="B252" s="15"/>
       <c r="C252" s="7" t="s">
         <v>430</v>
       </c>
@@ -14659,7 +14739,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="7"/>
-      <c r="B253" s="14"/>
+      <c r="B253" s="15"/>
       <c r="C253" s="7" t="s">
         <v>430</v>
       </c>
@@ -14679,7 +14759,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="7"/>
-      <c r="B254" s="14"/>
+      <c r="B254" s="15"/>
       <c r="C254" s="7" t="s">
         <v>430</v>
       </c>
@@ -14699,7 +14779,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="7"/>
-      <c r="B255" s="14"/>
+      <c r="B255" s="15"/>
       <c r="C255" s="7" t="s">
         <v>430</v>
       </c>
@@ -14719,7 +14799,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="7"/>
-      <c r="B256" s="14"/>
+      <c r="B256" s="15"/>
       <c r="C256" s="7" t="s">
         <v>430</v>
       </c>
@@ -14739,7 +14819,7 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="7"/>
-      <c r="B257" s="14"/>
+      <c r="B257" s="15"/>
       <c r="C257" s="7" t="s">
         <v>430</v>
       </c>
@@ -14759,7 +14839,7 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="7"/>
-      <c r="B258" s="14"/>
+      <c r="B258" s="15"/>
       <c r="C258" s="7" t="s">
         <v>430</v>
       </c>
@@ -14779,7 +14859,7 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="7"/>
-      <c r="B259" s="14"/>
+      <c r="B259" s="15"/>
       <c r="C259" s="7" t="s">
         <v>430</v>
       </c>
@@ -14799,7 +14879,7 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="7"/>
-      <c r="B260" s="21" t="s">
+      <c r="B260" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C260" s="7" t="s">
@@ -14821,7 +14901,7 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="7"/>
-      <c r="B261" s="21"/>
+      <c r="B261" s="22"/>
       <c r="C261" s="7" t="s">
         <v>495</v>
       </c>
@@ -14841,7 +14921,7 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="7"/>
-      <c r="B262" s="21"/>
+      <c r="B262" s="22"/>
       <c r="C262" s="7" t="s">
         <v>495</v>
       </c>
@@ -14861,7 +14941,7 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="7"/>
-      <c r="B263" s="21"/>
+      <c r="B263" s="22"/>
       <c r="C263" s="7" t="s">
         <v>495</v>
       </c>
@@ -14880,7 +14960,7 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="7"/>
-      <c r="B264" s="21"/>
+      <c r="B264" s="22"/>
       <c r="C264" s="7" t="s">
         <v>495</v>
       </c>
@@ -14899,7 +14979,7 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="7"/>
-      <c r="B265" s="14" t="s">
+      <c r="B265" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C265" s="7" t="s">
@@ -14920,7 +15000,7 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="7"/>
-      <c r="B266" s="14"/>
+      <c r="B266" s="15"/>
       <c r="C266" s="7" t="s">
         <v>504</v>
       </c>
@@ -14939,7 +15019,7 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="7"/>
-      <c r="B267" s="14"/>
+      <c r="B267" s="15"/>
       <c r="C267" s="7" t="s">
         <v>504</v>
       </c>
@@ -14958,7 +15038,7 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="7"/>
-      <c r="B268" s="14"/>
+      <c r="B268" s="15"/>
       <c r="C268" s="7" t="s">
         <v>504</v>
       </c>
@@ -14977,7 +15057,7 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="7"/>
-      <c r="B269" s="14"/>
+      <c r="B269" s="15"/>
       <c r="C269" s="7" t="s">
         <v>504</v>
       </c>
@@ -14996,7 +15076,7 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="7"/>
-      <c r="B270" s="14" t="s">
+      <c r="B270" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C270" s="7" t="s">
@@ -15017,7 +15097,7 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="7"/>
-      <c r="B271" s="14"/>
+      <c r="B271" s="15"/>
       <c r="C271" s="7" t="s">
         <v>513</v>
       </c>
@@ -15036,7 +15116,7 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="7"/>
-      <c r="B272" s="14"/>
+      <c r="B272" s="15"/>
       <c r="C272" s="7" t="s">
         <v>513</v>
       </c>
@@ -15055,7 +15135,7 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="7"/>
-      <c r="B273" s="14"/>
+      <c r="B273" s="15"/>
       <c r="C273" s="7" t="s">
         <v>513</v>
       </c>
@@ -15074,7 +15154,7 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="7"/>
-      <c r="B274" s="14"/>
+      <c r="B274" s="15"/>
       <c r="C274" s="7" t="s">
         <v>513</v>
       </c>
@@ -15093,7 +15173,7 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="7"/>
-      <c r="B275" s="14"/>
+      <c r="B275" s="15"/>
       <c r="C275" s="7" t="s">
         <v>513</v>
       </c>
@@ -15112,7 +15192,7 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="7"/>
-      <c r="B276" s="14" t="s">
+      <c r="B276" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C276" s="7" t="s">
@@ -15133,7 +15213,7 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="7"/>
-      <c r="B277" s="14"/>
+      <c r="B277" s="15"/>
       <c r="C277" s="7" t="s">
         <v>526</v>
       </c>
@@ -15152,7 +15232,7 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="7"/>
-      <c r="B278" s="14"/>
+      <c r="B278" s="15"/>
       <c r="C278" s="7" t="s">
         <v>526</v>
       </c>
@@ -15171,7 +15251,7 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="7"/>
-      <c r="B279" s="14"/>
+      <c r="B279" s="15"/>
       <c r="C279" s="7" t="s">
         <v>526</v>
       </c>
@@ -15190,7 +15270,7 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="7"/>
-      <c r="B280" s="14"/>
+      <c r="B280" s="15"/>
       <c r="C280" s="7" t="s">
         <v>526</v>
       </c>
@@ -15892,7 +15972,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>567</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -15914,7 +15994,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
-      <c r="B3" s="14"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="10" t="s">
         <v>568</v>
       </c>
@@ -15934,7 +16014,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
-      <c r="B4" s="14"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="10" t="s">
         <v>568</v>
       </c>
@@ -15954,7 +16034,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
-      <c r="B5" s="14"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="10" t="s">
         <v>568</v>
       </c>
@@ -15974,7 +16054,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
-      <c r="B6" s="14"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="10" t="s">
         <v>568</v>
       </c>
@@ -15994,7 +16074,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
-      <c r="B7" s="14"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="10" t="s">
         <v>568</v>
       </c>
@@ -16014,7 +16094,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
-      <c r="B8" s="14"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="10" t="s">
         <v>568</v>
       </c>
@@ -16034,7 +16114,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
-      <c r="B9" s="14"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="10" t="s">
         <v>568</v>
       </c>
@@ -16054,7 +16134,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="23" t="s">
         <v>1033</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -16078,7 +16158,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
-      <c r="B11" s="22"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="10" t="s">
         <v>585</v>
       </c>
@@ -16100,7 +16180,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
-      <c r="B12" s="22"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="7" t="s">
         <v>1032</v>
       </c>
@@ -16122,7 +16202,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
-      <c r="B13" s="22"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="10" t="s">
         <v>585</v>
       </c>
@@ -16144,7 +16224,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
-      <c r="B14" s="22"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="10" t="s">
         <v>585</v>
       </c>
@@ -16166,7 +16246,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
-      <c r="B15" s="22"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="10" t="s">
         <v>585</v>
       </c>
@@ -16188,7 +16268,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
-      <c r="B16" s="22"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="10" t="s">
         <v>585</v>
       </c>
@@ -16210,7 +16290,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="23" t="s">
         <v>567</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -16231,7 +16311,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
-      <c r="B18" s="22"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="10" t="s">
         <v>601</v>
       </c>
@@ -16250,7 +16330,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
-      <c r="B19" s="22"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="10" t="s">
         <v>1034</v>
       </c>
@@ -16269,7 +16349,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
-      <c r="B20" s="22"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="10" t="s">
         <v>601</v>
       </c>
@@ -16288,7 +16368,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
-      <c r="B21" s="22"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="10" t="s">
         <v>601</v>
       </c>
@@ -16307,7 +16387,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
-      <c r="B22" s="22"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="10" t="s">
         <v>601</v>
       </c>
@@ -16326,7 +16406,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
-      <c r="B23" s="22"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="10" t="s">
         <v>601</v>
       </c>
@@ -16345,7 +16425,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="15" t="s">
         <v>567</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -16366,7 +16446,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
-      <c r="B25" s="14"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="10" t="s">
         <v>615</v>
       </c>
@@ -16385,7 +16465,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
-      <c r="B26" s="14"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="10" t="s">
         <v>615</v>
       </c>
@@ -16404,7 +16484,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
-      <c r="B27" s="14"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="10" t="s">
         <v>615</v>
       </c>
@@ -16423,7 +16503,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
-      <c r="B28" s="14"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="10" t="s">
         <v>1035</v>
       </c>
@@ -16442,7 +16522,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
-      <c r="B29" s="14"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="10" t="s">
         <v>615</v>
       </c>
@@ -16461,7 +16541,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
-      <c r="B30" s="14"/>
+      <c r="B30" s="15"/>
       <c r="C30" s="10" t="s">
         <v>615</v>
       </c>
@@ -16480,7 +16560,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="15" t="s">
         <v>1036</v>
       </c>
       <c r="C31" s="10" t="s">
@@ -16501,7 +16581,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
-      <c r="B32" s="14"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="10" t="s">
         <v>630</v>
       </c>
@@ -16520,7 +16600,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
-      <c r="B33" s="14"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="10" t="s">
         <v>630</v>
       </c>
@@ -16539,7 +16619,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
-      <c r="B34" s="14"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="10" t="s">
         <v>1037</v>
       </c>
@@ -16558,7 +16638,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
-      <c r="B35" s="14"/>
+      <c r="B35" s="15"/>
       <c r="C35" s="10" t="s">
         <v>630</v>
       </c>
@@ -16577,7 +16657,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
-      <c r="B36" s="14"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="10" t="s">
         <v>630</v>
       </c>
@@ -16596,7 +16676,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
-      <c r="B37" s="14"/>
+      <c r="B37" s="15"/>
       <c r="C37" s="10" t="s">
         <v>630</v>
       </c>
@@ -16615,7 +16695,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="15" t="s">
         <v>567</v>
       </c>
       <c r="C38" s="10" t="s">
@@ -16636,7 +16716,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
-      <c r="B39" s="14"/>
+      <c r="B39" s="15"/>
       <c r="C39" s="10" t="s">
         <v>645</v>
       </c>
@@ -16655,7 +16735,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
-      <c r="B40" s="14"/>
+      <c r="B40" s="15"/>
       <c r="C40" s="10" t="s">
         <v>645</v>
       </c>
@@ -16674,7 +16754,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
-      <c r="B41" s="14"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="10" t="s">
         <v>645</v>
       </c>
@@ -16693,7 +16773,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="15" t="s">
         <v>567</v>
       </c>
       <c r="C42" s="10" t="s">
@@ -16714,7 +16794,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
-      <c r="B43" s="14"/>
+      <c r="B43" s="15"/>
       <c r="C43" s="10" t="s">
         <v>654</v>
       </c>
@@ -16733,7 +16813,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
-      <c r="B44" s="14"/>
+      <c r="B44" s="15"/>
       <c r="C44" s="10" t="s">
         <v>654</v>
       </c>
@@ -16752,7 +16832,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
-      <c r="B45" s="14"/>
+      <c r="B45" s="15"/>
       <c r="C45" s="10" t="s">
         <v>1038</v>
       </c>
@@ -16771,7 +16851,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
-      <c r="B46" s="14"/>
+      <c r="B46" s="15"/>
       <c r="C46" s="10" t="s">
         <v>654</v>
       </c>
@@ -16790,7 +16870,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
-      <c r="B47" s="14"/>
+      <c r="B47" s="15"/>
       <c r="C47" s="10" t="s">
         <v>654</v>
       </c>
@@ -16809,7 +16889,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
-      <c r="B48" s="14"/>
+      <c r="B48" s="15"/>
       <c r="C48" s="10" t="s">
         <v>654</v>
       </c>
@@ -16828,7 +16908,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
-      <c r="B49" s="14"/>
+      <c r="B49" s="15"/>
       <c r="C49" s="10" t="s">
         <v>654</v>
       </c>
@@ -16847,7 +16927,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
-      <c r="B50" s="14"/>
+      <c r="B50" s="15"/>
       <c r="C50" s="10" t="s">
         <v>654</v>
       </c>
@@ -16866,7 +16946,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
-      <c r="B51" s="14"/>
+      <c r="B51" s="15"/>
       <c r="C51" s="10" t="s">
         <v>654</v>
       </c>
@@ -16885,7 +16965,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
-      <c r="B52" s="14"/>
+      <c r="B52" s="15"/>
       <c r="C52" s="10" t="s">
         <v>654</v>
       </c>
@@ -16904,7 +16984,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="15" t="s">
         <v>567</v>
       </c>
       <c r="C53" s="10" t="s">
@@ -16925,7 +17005,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
-      <c r="B54" s="14"/>
+      <c r="B54" s="15"/>
       <c r="C54" s="10" t="s">
         <v>676</v>
       </c>
@@ -16944,7 +17024,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
-      <c r="B55" s="14"/>
+      <c r="B55" s="15"/>
       <c r="C55" s="10" t="s">
         <v>1039</v>
       </c>
@@ -16963,7 +17043,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
-      <c r="B56" s="14"/>
+      <c r="B56" s="15"/>
       <c r="C56" s="10" t="s">
         <v>676</v>
       </c>
@@ -16982,7 +17062,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="15" t="s">
         <v>567</v>
       </c>
       <c r="C57" s="10" t="s">
@@ -17003,7 +17083,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
-      <c r="B58" s="14"/>
+      <c r="B58" s="15"/>
       <c r="C58" s="10" t="s">
         <v>684</v>
       </c>
@@ -17022,7 +17102,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
-      <c r="B59" s="14"/>
+      <c r="B59" s="15"/>
       <c r="C59" s="10" t="s">
         <v>684</v>
       </c>
@@ -17041,7 +17121,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
-      <c r="B60" s="14"/>
+      <c r="B60" s="15"/>
       <c r="C60" s="10" t="s">
         <v>684</v>
       </c>
@@ -17060,7 +17140,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="10"/>
-      <c r="B61" s="14"/>
+      <c r="B61" s="15"/>
       <c r="C61" s="10" t="s">
         <v>684</v>
       </c>
@@ -17079,7 +17159,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="10"/>
-      <c r="B62" s="14"/>
+      <c r="B62" s="15"/>
       <c r="C62" s="10" t="s">
         <v>684</v>
       </c>
@@ -17098,7 +17178,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
-      <c r="B63" s="14"/>
+      <c r="B63" s="15"/>
       <c r="C63" s="10" t="s">
         <v>684</v>
       </c>
@@ -17117,7 +17197,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="10"/>
-      <c r="B64" s="14"/>
+      <c r="B64" s="15"/>
       <c r="C64" s="10" t="s">
         <v>684</v>
       </c>
@@ -17136,7 +17216,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="10"/>
-      <c r="B65" s="14"/>
+      <c r="B65" s="15"/>
       <c r="C65" s="10" t="s">
         <v>684</v>
       </c>
@@ -17155,7 +17235,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="10"/>
-      <c r="B66" s="14"/>
+      <c r="B66" s="15"/>
       <c r="C66" s="10" t="s">
         <v>684</v>
       </c>
@@ -17174,7 +17254,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="10"/>
-      <c r="B67" s="14"/>
+      <c r="B67" s="15"/>
       <c r="C67" s="10" t="s">
         <v>684</v>
       </c>
@@ -17193,7 +17273,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="10"/>
-      <c r="B68" s="14"/>
+      <c r="B68" s="15"/>
       <c r="C68" s="10" t="s">
         <v>684</v>
       </c>
@@ -17212,7 +17292,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
-      <c r="B69" s="14"/>
+      <c r="B69" s="15"/>
       <c r="C69" s="10" t="s">
         <v>1040</v>
       </c>
@@ -17231,7 +17311,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="10"/>
-      <c r="B70" s="14"/>
+      <c r="B70" s="15"/>
       <c r="C70" s="10" t="s">
         <v>684</v>
       </c>
@@ -17250,7 +17330,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="10"/>
-      <c r="B71" s="14"/>
+      <c r="B71" s="15"/>
       <c r="C71" s="10" t="s">
         <v>684</v>
       </c>
@@ -17269,7 +17349,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="10"/>
-      <c r="B72" s="14"/>
+      <c r="B72" s="15"/>
       <c r="C72" s="10" t="s">
         <v>684</v>
       </c>
@@ -17288,7 +17368,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="10"/>
-      <c r="B73" s="14"/>
+      <c r="B73" s="15"/>
       <c r="C73" s="10" t="s">
         <v>684</v>
       </c>
@@ -17307,7 +17387,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="10"/>
-      <c r="B74" s="14"/>
+      <c r="B74" s="15"/>
       <c r="C74" s="10" t="s">
         <v>684</v>
       </c>
@@ -17326,7 +17406,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="10"/>
-      <c r="B75" s="14"/>
+      <c r="B75" s="15"/>
       <c r="C75" s="10" t="s">
         <v>684</v>
       </c>
@@ -17345,7 +17425,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="10"/>
-      <c r="B76" s="14"/>
+      <c r="B76" s="15"/>
       <c r="C76" s="10" t="s">
         <v>684</v>
       </c>
@@ -17364,7 +17444,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="10"/>
-      <c r="B77" s="14"/>
+      <c r="B77" s="15"/>
       <c r="C77" s="10" t="s">
         <v>684</v>
       </c>
@@ -17383,7 +17463,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="10"/>
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="15" t="s">
         <v>567</v>
       </c>
       <c r="C78" s="10" t="s">
@@ -17407,7 +17487,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="10"/>
-      <c r="B79" s="14"/>
+      <c r="B79" s="15"/>
       <c r="C79" s="10" t="s">
         <v>727</v>
       </c>
@@ -17429,7 +17509,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="10"/>
-      <c r="B80" s="14"/>
+      <c r="B80" s="15"/>
       <c r="C80" s="10" t="s">
         <v>727</v>
       </c>
@@ -17451,7 +17531,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="10"/>
-      <c r="B81" s="14"/>
+      <c r="B81" s="15"/>
       <c r="C81" s="10" t="s">
         <v>727</v>
       </c>
@@ -17473,7 +17553,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="10"/>
-      <c r="B82" s="14"/>
+      <c r="B82" s="15"/>
       <c r="C82" s="10" t="s">
         <v>727</v>
       </c>
@@ -17495,7 +17575,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="10"/>
-      <c r="B83" s="14"/>
+      <c r="B83" s="15"/>
       <c r="C83" s="10" t="s">
         <v>727</v>
       </c>
@@ -17517,7 +17597,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="10"/>
-      <c r="B84" s="14"/>
+      <c r="B84" s="15"/>
       <c r="C84" s="10" t="s">
         <v>1041</v>
       </c>
@@ -17539,7 +17619,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="10"/>
-      <c r="B85" s="14"/>
+      <c r="B85" s="15"/>
       <c r="C85" s="10" t="s">
         <v>727</v>
       </c>
@@ -17561,7 +17641,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="10"/>
-      <c r="B86" s="14"/>
+      <c r="B86" s="15"/>
       <c r="C86" s="10" t="s">
         <v>727</v>
       </c>
@@ -17583,7 +17663,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="10"/>
-      <c r="B87" s="14"/>
+      <c r="B87" s="15"/>
       <c r="C87" s="10" t="s">
         <v>727</v>
       </c>
@@ -17605,7 +17685,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="10"/>
-      <c r="B88" s="14"/>
+      <c r="B88" s="15"/>
       <c r="C88" s="10" t="s">
         <v>727</v>
       </c>
@@ -17627,7 +17707,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="10"/>
-      <c r="B89" s="14"/>
+      <c r="B89" s="15"/>
       <c r="C89" s="10" t="s">
         <v>727</v>
       </c>
@@ -17649,7 +17729,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="10"/>
-      <c r="B90" s="14"/>
+      <c r="B90" s="15"/>
       <c r="C90" s="10" t="s">
         <v>727</v>
       </c>
@@ -17671,7 +17751,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="10"/>
-      <c r="B91" s="14"/>
+      <c r="B91" s="15"/>
       <c r="C91" s="10" t="s">
         <v>727</v>
       </c>
@@ -17693,7 +17773,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="10"/>
-      <c r="B92" s="14"/>
+      <c r="B92" s="15"/>
       <c r="C92" s="10" t="s">
         <v>727</v>
       </c>
@@ -17715,7 +17795,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="10"/>
-      <c r="B93" s="14"/>
+      <c r="B93" s="15"/>
       <c r="C93" s="10" t="s">
         <v>727</v>
       </c>
@@ -17737,7 +17817,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="10"/>
-      <c r="B94" s="14"/>
+      <c r="B94" s="15"/>
       <c r="C94" s="10" t="s">
         <v>727</v>
       </c>
@@ -17759,7 +17839,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="10"/>
-      <c r="B95" s="22" t="s">
+      <c r="B95" s="23" t="s">
         <v>1036</v>
       </c>
       <c r="C95" s="10" t="s">
@@ -17780,7 +17860,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="10"/>
-      <c r="B96" s="22"/>
+      <c r="B96" s="23"/>
       <c r="C96" s="10" t="s">
         <v>749</v>
       </c>
@@ -17799,7 +17879,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="10"/>
-      <c r="B97" s="22"/>
+      <c r="B97" s="23"/>
       <c r="C97" s="10" t="s">
         <v>749</v>
       </c>
@@ -17818,7 +17898,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="10"/>
-      <c r="B98" s="22"/>
+      <c r="B98" s="23"/>
       <c r="C98" s="10" t="s">
         <v>749</v>
       </c>
@@ -17837,7 +17917,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="10"/>
-      <c r="B99" s="22"/>
+      <c r="B99" s="23"/>
       <c r="C99" s="10" t="s">
         <v>749</v>
       </c>
@@ -17856,7 +17936,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="10"/>
-      <c r="B100" s="22"/>
+      <c r="B100" s="23"/>
       <c r="C100" s="10" t="s">
         <v>749</v>
       </c>
@@ -17875,7 +17955,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="10"/>
-      <c r="B101" s="22"/>
+      <c r="B101" s="23"/>
       <c r="C101" s="10" t="s">
         <v>749</v>
       </c>
@@ -17894,7 +17974,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="10"/>
-      <c r="B102" s="22"/>
+      <c r="B102" s="23"/>
       <c r="C102" s="10" t="s">
         <v>749</v>
       </c>
@@ -17913,7 +17993,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="10"/>
-      <c r="B103" s="22"/>
+      <c r="B103" s="23"/>
       <c r="C103" s="10" t="s">
         <v>749</v>
       </c>
@@ -17932,7 +18012,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="10"/>
-      <c r="B104" s="22"/>
+      <c r="B104" s="23"/>
       <c r="C104" s="10" t="s">
         <v>749</v>
       </c>
@@ -17951,7 +18031,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="10"/>
-      <c r="B105" s="22"/>
+      <c r="B105" s="23"/>
       <c r="C105" s="10" t="s">
         <v>749</v>
       </c>
@@ -17970,7 +18050,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="10"/>
-      <c r="B106" s="22"/>
+      <c r="B106" s="23"/>
       <c r="C106" s="10" t="s">
         <v>749</v>
       </c>
@@ -17989,7 +18069,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="10"/>
-      <c r="B107" s="22"/>
+      <c r="B107" s="23"/>
       <c r="C107" s="10" t="s">
         <v>749</v>
       </c>
@@ -18008,7 +18088,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="10"/>
-      <c r="B108" s="22"/>
+      <c r="B108" s="23"/>
       <c r="C108" s="10" t="s">
         <v>749</v>
       </c>
@@ -18027,7 +18107,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="10"/>
-      <c r="B109" s="22"/>
+      <c r="B109" s="23"/>
       <c r="C109" s="10" t="s">
         <v>749</v>
       </c>
@@ -18046,7 +18126,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="10"/>
-      <c r="B110" s="22"/>
+      <c r="B110" s="23"/>
       <c r="C110" s="10" t="s">
         <v>749</v>
       </c>
@@ -18065,7 +18145,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="10"/>
-      <c r="B111" s="22"/>
+      <c r="B111" s="23"/>
       <c r="C111" s="10" t="s">
         <v>749</v>
       </c>
@@ -18084,7 +18164,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="10"/>
-      <c r="B112" s="22"/>
+      <c r="B112" s="23"/>
       <c r="C112" s="10" t="s">
         <v>749</v>
       </c>
@@ -18103,7 +18183,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="10"/>
-      <c r="B113" s="22"/>
+      <c r="B113" s="23"/>
       <c r="C113" s="10" t="s">
         <v>749</v>
       </c>
@@ -18122,7 +18202,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="10"/>
-      <c r="B114" s="22"/>
+      <c r="B114" s="23"/>
       <c r="C114" s="10" t="s">
         <v>749</v>
       </c>
@@ -18141,7 +18221,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="10"/>
-      <c r="B115" s="22"/>
+      <c r="B115" s="23"/>
       <c r="C115" s="10" t="s">
         <v>749</v>
       </c>
@@ -18160,7 +18240,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="10"/>
-      <c r="B116" s="22"/>
+      <c r="B116" s="23"/>
       <c r="C116" s="10" t="s">
         <v>749</v>
       </c>
@@ -18179,7 +18259,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="10"/>
-      <c r="B117" s="22"/>
+      <c r="B117" s="23"/>
       <c r="C117" s="10" t="s">
         <v>749</v>
       </c>
@@ -18198,7 +18278,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="10"/>
-      <c r="B118" s="22"/>
+      <c r="B118" s="23"/>
       <c r="C118" s="10" t="s">
         <v>749</v>
       </c>
@@ -18217,7 +18297,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="10"/>
-      <c r="B119" s="22"/>
+      <c r="B119" s="23"/>
       <c r="C119" s="10" t="s">
         <v>749</v>
       </c>
@@ -18236,7 +18316,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="10"/>
-      <c r="B120" s="22"/>
+      <c r="B120" s="23"/>
       <c r="C120" s="10" t="s">
         <v>749</v>
       </c>
@@ -18255,7 +18335,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="10"/>
-      <c r="B121" s="22"/>
+      <c r="B121" s="23"/>
       <c r="C121" s="10" t="s">
         <v>749</v>
       </c>
@@ -18274,7 +18354,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="10"/>
-      <c r="B122" s="22"/>
+      <c r="B122" s="23"/>
       <c r="C122" s="10" t="s">
         <v>749</v>
       </c>
@@ -18293,7 +18373,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="10"/>
-      <c r="B123" s="22"/>
+      <c r="B123" s="23"/>
       <c r="C123" s="10" t="s">
         <v>749</v>
       </c>
@@ -18312,7 +18392,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="10"/>
-      <c r="B124" s="22"/>
+      <c r="B124" s="23"/>
       <c r="C124" s="10" t="s">
         <v>749</v>
       </c>
@@ -18331,7 +18411,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="10"/>
-      <c r="B125" s="22"/>
+      <c r="B125" s="23"/>
       <c r="C125" s="10" t="s">
         <v>749</v>
       </c>
@@ -18350,7 +18430,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="10"/>
-      <c r="B126" s="22"/>
+      <c r="B126" s="23"/>
       <c r="C126" s="10" t="s">
         <v>1043</v>
       </c>
@@ -18369,7 +18449,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="10"/>
-      <c r="B127" s="22"/>
+      <c r="B127" s="23"/>
       <c r="C127" s="10" t="s">
         <v>749</v>
       </c>
@@ -18388,7 +18468,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="10"/>
-      <c r="B128" s="22"/>
+      <c r="B128" s="23"/>
       <c r="C128" s="10" t="s">
         <v>749</v>
       </c>
@@ -18407,7 +18487,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="10"/>
-      <c r="B129" s="22"/>
+      <c r="B129" s="23"/>
       <c r="C129" s="10" t="s">
         <v>749</v>
       </c>
@@ -18427,7 +18507,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="10"/>
-      <c r="B130" s="22"/>
+      <c r="B130" s="23"/>
       <c r="C130" s="10" t="s">
         <v>749</v>
       </c>
@@ -18447,7 +18527,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="10"/>
-      <c r="B131" s="22"/>
+      <c r="B131" s="23"/>
       <c r="C131" s="10" t="s">
         <v>749</v>
       </c>
@@ -18467,7 +18547,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="10"/>
-      <c r="B132" s="22"/>
+      <c r="B132" s="23"/>
       <c r="C132" s="10" t="s">
         <v>749</v>
       </c>
@@ -18487,7 +18567,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="10"/>
-      <c r="B133" s="22"/>
+      <c r="B133" s="23"/>
       <c r="C133" s="10" t="s">
         <v>749</v>
       </c>
@@ -18507,7 +18587,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="10"/>
-      <c r="B134" s="22"/>
+      <c r="B134" s="23"/>
       <c r="C134" s="10" t="s">
         <v>749</v>
       </c>
@@ -18527,7 +18607,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="10"/>
-      <c r="B135" s="22"/>
+      <c r="B135" s="23"/>
       <c r="C135" s="10" t="s">
         <v>749</v>
       </c>
@@ -18547,7 +18627,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="10"/>
-      <c r="B136" s="22"/>
+      <c r="B136" s="23"/>
       <c r="C136" s="10" t="s">
         <v>749</v>
       </c>
@@ -18567,7 +18647,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="10"/>
-      <c r="B137" s="22"/>
+      <c r="B137" s="23"/>
       <c r="C137" s="10" t="s">
         <v>749</v>
       </c>
@@ -18587,7 +18667,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="10"/>
-      <c r="B138" s="22"/>
+      <c r="B138" s="23"/>
       <c r="C138" s="10" t="s">
         <v>749</v>
       </c>
@@ -18607,7 +18687,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="10"/>
-      <c r="B139" s="22" t="s">
+      <c r="B139" s="23" t="s">
         <v>1036</v>
       </c>
       <c r="C139" s="10" t="s">
@@ -18629,7 +18709,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="10"/>
-      <c r="B140" s="22"/>
+      <c r="B140" s="23"/>
       <c r="C140" s="10" t="s">
         <v>837</v>
       </c>
@@ -18649,7 +18729,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="10"/>
-      <c r="B141" s="22"/>
+      <c r="B141" s="23"/>
       <c r="C141" s="10" t="s">
         <v>837</v>
       </c>
@@ -18671,7 +18751,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="10"/>
-      <c r="B142" s="22"/>
+      <c r="B142" s="23"/>
       <c r="C142" s="10" t="s">
         <v>1044</v>
       </c>
@@ -18693,7 +18773,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="10"/>
-      <c r="B143" s="22"/>
+      <c r="B143" s="23"/>
       <c r="C143" s="10" t="s">
         <v>837</v>
       </c>
@@ -18715,7 +18795,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="10"/>
-      <c r="B144" s="22"/>
+      <c r="B144" s="23"/>
       <c r="C144" s="10" t="s">
         <v>837</v>
       </c>
@@ -18737,7 +18817,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="10"/>
-      <c r="B145" s="22"/>
+      <c r="B145" s="23"/>
       <c r="C145" s="10" t="s">
         <v>837</v>
       </c>
@@ -18759,7 +18839,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="10"/>
-      <c r="B146" s="14" t="s">
+      <c r="B146" s="15" t="s">
         <v>1036</v>
       </c>
       <c r="C146" s="10" t="s">
@@ -18781,7 +18861,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="10"/>
-      <c r="B147" s="14"/>
+      <c r="B147" s="15"/>
       <c r="C147" s="10" t="s">
         <v>853</v>
       </c>
@@ -18801,7 +18881,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="10"/>
-      <c r="B148" s="14"/>
+      <c r="B148" s="15"/>
       <c r="C148" s="10" t="s">
         <v>853</v>
       </c>
@@ -18821,7 +18901,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="10"/>
-      <c r="B149" s="14"/>
+      <c r="B149" s="15"/>
       <c r="C149" s="10" t="s">
         <v>853</v>
       </c>
@@ -18841,7 +18921,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="10"/>
-      <c r="B150" s="14"/>
+      <c r="B150" s="15"/>
       <c r="C150" s="10" t="s">
         <v>1045</v>
       </c>
@@ -18861,7 +18941,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="10"/>
-      <c r="B151" s="14"/>
+      <c r="B151" s="15"/>
       <c r="C151" s="10" t="s">
         <v>853</v>
       </c>
@@ -18881,7 +18961,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="10"/>
-      <c r="B152" s="14"/>
+      <c r="B152" s="15"/>
       <c r="C152" s="10" t="s">
         <v>853</v>
       </c>
@@ -18901,7 +18981,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="10"/>
-      <c r="B153" s="14"/>
+      <c r="B153" s="15"/>
       <c r="C153" s="10" t="s">
         <v>853</v>
       </c>
@@ -18921,7 +19001,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="10"/>
-      <c r="B154" s="14"/>
+      <c r="B154" s="15"/>
       <c r="C154" s="10" t="s">
         <v>853</v>
       </c>
@@ -18941,7 +19021,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="10"/>
-      <c r="B155" s="14"/>
+      <c r="B155" s="15"/>
       <c r="C155" s="10" t="s">
         <v>853</v>
       </c>
@@ -18961,7 +19041,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="10"/>
-      <c r="B156" s="14" t="s">
+      <c r="B156" s="15" t="s">
         <v>567</v>
       </c>
       <c r="C156" s="10" t="s">
@@ -18983,7 +19063,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="10"/>
-      <c r="B157" s="14"/>
+      <c r="B157" s="15"/>
       <c r="C157" s="10" t="s">
         <v>874</v>
       </c>
@@ -19003,7 +19083,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="10"/>
-      <c r="B158" s="14"/>
+      <c r="B158" s="15"/>
       <c r="C158" s="10" t="s">
         <v>874</v>
       </c>
@@ -19023,7 +19103,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="10"/>
-      <c r="B159" s="14"/>
+      <c r="B159" s="15"/>
       <c r="C159" s="10" t="s">
         <v>1046</v>
       </c>
@@ -19043,7 +19123,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="10"/>
-      <c r="B160" s="14"/>
+      <c r="B160" s="15"/>
       <c r="C160" s="10" t="s">
         <v>874</v>
       </c>
@@ -19063,7 +19143,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="10"/>
-      <c r="B161" s="14"/>
+      <c r="B161" s="15"/>
       <c r="C161" s="10" t="s">
         <v>874</v>
       </c>
@@ -19082,7 +19162,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="10"/>
-      <c r="B162" s="14"/>
+      <c r="B162" s="15"/>
       <c r="C162" s="10" t="s">
         <v>874</v>
       </c>
@@ -19101,7 +19181,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="10"/>
-      <c r="B163" s="14"/>
+      <c r="B163" s="15"/>
       <c r="C163" s="10" t="s">
         <v>874</v>
       </c>
@@ -19120,7 +19200,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="10"/>
-      <c r="B164" s="14"/>
+      <c r="B164" s="15"/>
       <c r="C164" s="10" t="s">
         <v>874</v>
       </c>
@@ -19139,7 +19219,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="10"/>
-      <c r="B165" s="14"/>
+      <c r="B165" s="15"/>
       <c r="C165" s="10" t="s">
         <v>874</v>
       </c>
@@ -19158,7 +19238,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="10"/>
-      <c r="B166" s="14"/>
+      <c r="B166" s="15"/>
       <c r="C166" s="10" t="s">
         <v>874</v>
       </c>
@@ -19177,7 +19257,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="10"/>
-      <c r="B167" s="14"/>
+      <c r="B167" s="15"/>
       <c r="C167" s="10" t="s">
         <v>874</v>
       </c>
@@ -19196,7 +19276,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="10"/>
-      <c r="B168" s="14"/>
+      <c r="B168" s="15"/>
       <c r="C168" s="10" t="s">
         <v>874</v>
       </c>
@@ -19215,7 +19295,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="10"/>
-      <c r="B169" s="14"/>
+      <c r="B169" s="15"/>
       <c r="C169" s="10" t="s">
         <v>874</v>
       </c>
@@ -19234,7 +19314,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="10"/>
-      <c r="B170" s="14"/>
+      <c r="B170" s="15"/>
       <c r="C170" s="10" t="s">
         <v>874</v>
       </c>
@@ -19253,7 +19333,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="10"/>
-      <c r="B171" s="14"/>
+      <c r="B171" s="15"/>
       <c r="C171" s="10" t="s">
         <v>874</v>
       </c>
@@ -19272,7 +19352,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="10"/>
-      <c r="B172" s="14"/>
+      <c r="B172" s="15"/>
       <c r="C172" s="10" t="s">
         <v>874</v>
       </c>
@@ -19291,7 +19371,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="10"/>
-      <c r="B173" s="14"/>
+      <c r="B173" s="15"/>
       <c r="C173" s="10" t="s">
         <v>874</v>
       </c>
@@ -19311,7 +19391,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="10"/>
-      <c r="B174" s="14"/>
+      <c r="B174" s="15"/>
       <c r="C174" s="10" t="s">
         <v>874</v>
       </c>
@@ -19330,7 +19410,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="10"/>
-      <c r="B175" s="14"/>
+      <c r="B175" s="15"/>
       <c r="C175" s="10" t="s">
         <v>874</v>
       </c>
@@ -19349,7 +19429,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="10"/>
-      <c r="B176" s="14"/>
+      <c r="B176" s="15"/>
       <c r="C176" s="10" t="s">
         <v>874</v>
       </c>
@@ -19368,7 +19448,7 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="10"/>
-      <c r="B177" s="14" t="s">
+      <c r="B177" s="15" t="s">
         <v>1036</v>
       </c>
       <c r="C177" s="10" t="s">
@@ -19389,7 +19469,7 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="10"/>
-      <c r="B178" s="14"/>
+      <c r="B178" s="15"/>
       <c r="C178" s="10" t="s">
         <v>917</v>
       </c>
@@ -19408,7 +19488,7 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="10"/>
-      <c r="B179" s="14"/>
+      <c r="B179" s="15"/>
       <c r="C179" s="10" t="s">
         <v>917</v>
       </c>
@@ -19427,7 +19507,7 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="10"/>
-      <c r="B180" s="14"/>
+      <c r="B180" s="15"/>
       <c r="C180" s="10" t="s">
         <v>1047</v>
       </c>
@@ -19446,7 +19526,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="10"/>
-      <c r="B181" s="14"/>
+      <c r="B181" s="15"/>
       <c r="C181" s="10" t="s">
         <v>917</v>
       </c>
@@ -19465,7 +19545,7 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="10"/>
-      <c r="B182" s="14"/>
+      <c r="B182" s="15"/>
       <c r="C182" s="10" t="s">
         <v>917</v>
       </c>
@@ -19484,7 +19564,7 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="10"/>
-      <c r="B183" s="14"/>
+      <c r="B183" s="15"/>
       <c r="C183" s="10" t="s">
         <v>917</v>
       </c>
@@ -19503,7 +19583,7 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="10"/>
-      <c r="B184" s="14"/>
+      <c r="B184" s="15"/>
       <c r="C184" s="10" t="s">
         <v>917</v>
       </c>
@@ -19522,7 +19602,7 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="10"/>
-      <c r="B185" s="14"/>
+      <c r="B185" s="15"/>
       <c r="C185" s="10" t="s">
         <v>917</v>
       </c>
@@ -19541,7 +19621,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="10"/>
-      <c r="B186" s="14" t="s">
+      <c r="B186" s="15" t="s">
         <v>567</v>
       </c>
       <c r="C186" s="10" t="s">
@@ -19562,7 +19642,7 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="10"/>
-      <c r="B187" s="14"/>
+      <c r="B187" s="15"/>
       <c r="C187" s="10" t="s">
         <v>936</v>
       </c>
@@ -19581,7 +19661,7 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="10"/>
-      <c r="B188" s="14"/>
+      <c r="B188" s="15"/>
       <c r="C188" s="10" t="s">
         <v>936</v>
       </c>
@@ -19600,7 +19680,7 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="10"/>
-      <c r="B189" s="14"/>
+      <c r="B189" s="15"/>
       <c r="C189" s="10" t="s">
         <v>936</v>
       </c>
@@ -19619,7 +19699,7 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="10"/>
-      <c r="B190" s="14"/>
+      <c r="B190" s="15"/>
       <c r="C190" s="10" t="s">
         <v>936</v>
       </c>
@@ -19638,7 +19718,7 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="10"/>
-      <c r="B191" s="14"/>
+      <c r="B191" s="15"/>
       <c r="C191" s="10" t="s">
         <v>936</v>
       </c>
@@ -19657,7 +19737,7 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="10"/>
-      <c r="B192" s="14"/>
+      <c r="B192" s="15"/>
       <c r="C192" s="10" t="s">
         <v>936</v>
       </c>
@@ -19676,7 +19756,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="10"/>
-      <c r="B193" s="14"/>
+      <c r="B193" s="15"/>
       <c r="C193" s="10" t="s">
         <v>936</v>
       </c>
@@ -19696,7 +19776,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="10"/>
-      <c r="B194" s="14"/>
+      <c r="B194" s="15"/>
       <c r="C194" s="10" t="s">
         <v>1048</v>
       </c>
@@ -19715,7 +19795,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="10"/>
-      <c r="B195" s="14"/>
+      <c r="B195" s="15"/>
       <c r="C195" s="10" t="s">
         <v>936</v>
       </c>
@@ -19734,7 +19814,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="10"/>
-      <c r="B196" s="14"/>
+      <c r="B196" s="15"/>
       <c r="C196" s="10" t="s">
         <v>936</v>
       </c>
@@ -19753,7 +19833,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="10"/>
-      <c r="B197" s="14"/>
+      <c r="B197" s="15"/>
       <c r="C197" s="10" t="s">
         <v>936</v>
       </c>
@@ -19772,7 +19852,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="10"/>
-      <c r="B198" s="14"/>
+      <c r="B198" s="15"/>
       <c r="C198" s="10" t="s">
         <v>936</v>
       </c>
@@ -19791,7 +19871,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="10"/>
-      <c r="B199" s="14"/>
+      <c r="B199" s="15"/>
       <c r="C199" s="10" t="s">
         <v>936</v>
       </c>
@@ -19810,7 +19890,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="10"/>
-      <c r="B200" s="14" t="s">
+      <c r="B200" s="15" t="s">
         <v>1036</v>
       </c>
       <c r="C200" s="10" t="s">
@@ -19831,7 +19911,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="10"/>
-      <c r="B201" s="14"/>
+      <c r="B201" s="15"/>
       <c r="C201" s="10" t="s">
         <v>963</v>
       </c>
@@ -19850,7 +19930,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="10"/>
-      <c r="B202" s="14"/>
+      <c r="B202" s="15"/>
       <c r="C202" s="10" t="s">
         <v>963</v>
       </c>
@@ -19869,7 +19949,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="10"/>
-      <c r="B203" s="14"/>
+      <c r="B203" s="15"/>
       <c r="C203" s="10" t="s">
         <v>963</v>
       </c>
@@ -19888,7 +19968,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="10"/>
-      <c r="B204" s="14"/>
+      <c r="B204" s="15"/>
       <c r="C204" s="10" t="s">
         <v>963</v>
       </c>
@@ -19907,7 +19987,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="10"/>
-      <c r="B205" s="14"/>
+      <c r="B205" s="15"/>
       <c r="C205" s="10" t="s">
         <v>963</v>
       </c>
@@ -19926,7 +20006,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="10"/>
-      <c r="B206" s="14"/>
+      <c r="B206" s="15"/>
       <c r="C206" s="10" t="s">
         <v>1049</v>
       </c>
@@ -19945,7 +20025,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="10"/>
-      <c r="B207" s="14"/>
+      <c r="B207" s="15"/>
       <c r="C207" s="10" t="s">
         <v>963</v>
       </c>
@@ -19964,7 +20044,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="10"/>
-      <c r="B208" s="14"/>
+      <c r="B208" s="15"/>
       <c r="C208" s="10" t="s">
         <v>963</v>
       </c>
@@ -19983,7 +20063,7 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="10"/>
-      <c r="B209" s="14"/>
+      <c r="B209" s="15"/>
       <c r="C209" s="10" t="s">
         <v>963</v>
       </c>
@@ -20002,7 +20082,7 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="10"/>
-      <c r="B210" s="14"/>
+      <c r="B210" s="15"/>
       <c r="C210" s="10" t="s">
         <v>963</v>
       </c>
@@ -20021,7 +20101,7 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="10"/>
-      <c r="B211" s="14"/>
+      <c r="B211" s="15"/>
       <c r="C211" s="10" t="s">
         <v>963</v>
       </c>
@@ -20040,7 +20120,7 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="10"/>
-      <c r="B212" s="14"/>
+      <c r="B212" s="15"/>
       <c r="C212" s="10" t="s">
         <v>963</v>
       </c>
@@ -20059,7 +20139,7 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="10"/>
-      <c r="B213" s="14"/>
+      <c r="B213" s="15"/>
       <c r="C213" s="10" t="s">
         <v>963</v>
       </c>
@@ -20078,7 +20158,7 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="10"/>
-      <c r="B214" s="14"/>
+      <c r="B214" s="15"/>
       <c r="C214" s="10" t="s">
         <v>963</v>
       </c>
@@ -20097,7 +20177,7 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="10"/>
-      <c r="B215" s="14" t="s">
+      <c r="B215" s="15" t="s">
         <v>567</v>
       </c>
       <c r="C215" s="10" t="s">
@@ -20118,7 +20198,7 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="10"/>
-      <c r="B216" s="14"/>
+      <c r="B216" s="15"/>
       <c r="C216" s="10" t="s">
         <v>994</v>
       </c>
@@ -20137,7 +20217,7 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="10"/>
-      <c r="B217" s="14"/>
+      <c r="B217" s="15"/>
       <c r="C217" s="10" t="s">
         <v>994</v>
       </c>
@@ -20156,7 +20236,7 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="10"/>
-      <c r="B218" s="14"/>
+      <c r="B218" s="15"/>
       <c r="C218" s="10" t="s">
         <v>1050</v>
       </c>
@@ -20175,7 +20255,7 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="10"/>
-      <c r="B219" s="14"/>
+      <c r="B219" s="15"/>
       <c r="C219" s="10" t="s">
         <v>994</v>
       </c>
@@ -20194,7 +20274,7 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="10"/>
-      <c r="B220" s="14"/>
+      <c r="B220" s="15"/>
       <c r="C220" s="10" t="s">
         <v>994</v>
       </c>
@@ -20213,7 +20293,7 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="10"/>
-      <c r="B221" s="14"/>
+      <c r="B221" s="15"/>
       <c r="C221" s="10" t="s">
         <v>994</v>
       </c>
@@ -20232,7 +20312,7 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="10"/>
-      <c r="B222" s="14"/>
+      <c r="B222" s="15"/>
       <c r="C222" s="10" t="s">
         <v>994</v>
       </c>
@@ -20251,7 +20331,7 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="10"/>
-      <c r="B223" s="14"/>
+      <c r="B223" s="15"/>
       <c r="C223" s="10" t="s">
         <v>994</v>
       </c>
@@ -20270,7 +20350,7 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="10"/>
-      <c r="B224" s="14"/>
+      <c r="B224" s="15"/>
       <c r="C224" s="10" t="s">
         <v>994</v>
       </c>
@@ -20289,7 +20369,7 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="10"/>
-      <c r="B225" s="14"/>
+      <c r="B225" s="15"/>
       <c r="C225" s="10" t="s">
         <v>994</v>
       </c>
@@ -20308,7 +20388,7 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="10"/>
-      <c r="B226" s="14"/>
+      <c r="B226" s="15"/>
       <c r="C226" s="10" t="s">
         <v>994</v>
       </c>
@@ -20327,7 +20407,7 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="10"/>
-      <c r="B227" s="14"/>
+      <c r="B227" s="15"/>
       <c r="C227" s="10" t="s">
         <v>994</v>
       </c>
@@ -20346,7 +20426,7 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="10"/>
-      <c r="B228" s="14"/>
+      <c r="B228" s="15"/>
       <c r="C228" s="10" t="s">
         <v>994</v>
       </c>
@@ -20365,7 +20445,7 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="10"/>
-      <c r="B229" s="14"/>
+      <c r="B229" s="15"/>
       <c r="C229" s="10" t="s">
         <v>994</v>
       </c>
@@ -20384,7 +20464,7 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="10"/>
-      <c r="B230" s="14"/>
+      <c r="B230" s="15"/>
       <c r="C230" s="10" t="s">
         <v>994</v>
       </c>
@@ -20403,7 +20483,7 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="10"/>
-      <c r="B231" s="14"/>
+      <c r="B231" s="15"/>
       <c r="C231" s="10" t="s">
         <v>994</v>
       </c>
@@ -20422,7 +20502,7 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="10"/>
-      <c r="B232" s="14"/>
+      <c r="B232" s="15"/>
       <c r="C232" s="10" t="s">
         <v>994</v>
       </c>

--- a/api自動化測試腳清單.xlsx
+++ b/api自動化測試腳清單.xlsx
@@ -3938,6 +3938,15 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3948,15 +3957,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4273,7 +4273,7 @@
   <dimension ref="A1:H518"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C15" sqref="C15:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4314,7 +4314,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="19"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="2" t="s">
         <v>1059</v>
       </c>
@@ -4334,7 +4334,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="20"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="10" t="s">
         <v>1059</v>
       </c>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="20"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="2" t="s">
         <v>1058</v>
       </c>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="20"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="2" t="s">
         <v>1056</v>
       </c>
@@ -4394,7 +4394,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="20"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="2" t="s">
         <v>1053</v>
       </c>
@@ -4414,7 +4414,7 @@
     </row>
     <row r="7" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="20"/>
+      <c r="B7" s="16"/>
       <c r="C7" t="s">
         <v>1053</v>
       </c>
@@ -4434,7 +4434,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="20"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="2" t="s">
         <v>1061</v>
       </c>
@@ -4454,7 +4454,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
-      <c r="B9" s="20"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="10" t="s">
         <v>1061</v>
       </c>
@@ -4474,7 +4474,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="20"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="2" t="s">
         <v>1072</v>
       </c>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="20"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="2" t="s">
         <v>1072</v>
       </c>
@@ -4514,7 +4514,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="20"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="2" t="s">
         <v>1078</v>
       </c>
@@ -4534,7 +4534,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="20"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="10" t="s">
         <v>1078</v>
       </c>
@@ -4554,7 +4554,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="20"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="2" t="s">
         <v>1085</v>
       </c>
@@ -4570,7 +4570,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="20"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="10" t="s">
         <v>1085</v>
       </c>
@@ -4586,7 +4586,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="20"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -4596,7 +4596,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="20"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="10"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="20"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -4616,7 +4616,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="20"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -4626,7 +4626,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="20"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -4636,7 +4636,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="20"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="20"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -4656,7 +4656,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="20"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -4666,7 +4666,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="20"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -4675,11 +4675,11 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="20"/>
+      <c r="B25" s="16"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="20"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -4689,7 +4689,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
-      <c r="B27" s="20"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -4699,7 +4699,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
-      <c r="B28" s="20"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -4709,7 +4709,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
-      <c r="B29" s="20"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -4719,7 +4719,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
-      <c r="B30" s="20"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -4729,7 +4729,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="B31" s="20"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -4739,7 +4739,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
-      <c r="B32" s="20"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -4749,7 +4749,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
-      <c r="B33" s="21"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
-      <c r="B34" s="15"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -4769,7 +4769,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
-      <c r="B35" s="15"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -4779,7 +4779,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
-      <c r="B36" s="15"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -4789,7 +4789,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
-      <c r="B37" s="15"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="10"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
-      <c r="B38" s="15"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -4809,7 +4809,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
-      <c r="B39" s="15"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -4819,7 +4819,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
-      <c r="B40" s="15"/>
+      <c r="B40" s="18"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -4829,7 +4829,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
-      <c r="B41" s="15"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
-      <c r="B42" s="15"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -4849,7 +4849,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
-      <c r="B43" s="15"/>
+      <c r="B43" s="18"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -4859,7 +4859,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
-      <c r="B44" s="15"/>
+      <c r="B44" s="18"/>
       <c r="C44" s="10"/>
       <c r="D44" s="2"/>
       <c r="E44" s="10"/>
@@ -4868,11 +4868,11 @@
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="15"/>
+      <c r="B45" s="18"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
-      <c r="B46" s="15"/>
+      <c r="B46" s="18"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -4882,7 +4882,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
-      <c r="B47" s="15"/>
+      <c r="B47" s="18"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -4892,7 +4892,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
-      <c r="B48" s="15"/>
+      <c r="B48" s="18"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -4902,7 +4902,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
-      <c r="B49" s="15"/>
+      <c r="B49" s="18"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -4912,7 +4912,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
-      <c r="B50" s="15"/>
+      <c r="B50" s="18"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -4922,7 +4922,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
-      <c r="B51" s="15"/>
+      <c r="B51" s="18"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -4932,7 +4932,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
-      <c r="B52" s="15"/>
+      <c r="B52" s="18"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
-      <c r="B53" s="15"/>
+      <c r="B53" s="18"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -4952,7 +4952,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
-      <c r="B54" s="15"/>
+      <c r="B54" s="18"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -4962,7 +4962,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
-      <c r="B55" s="15"/>
+      <c r="B55" s="18"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -4972,7 +4972,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
-      <c r="B56" s="15"/>
+      <c r="B56" s="18"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -4982,7 +4982,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
-      <c r="B57" s="15"/>
+      <c r="B57" s="18"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -4992,7 +4992,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
-      <c r="B58" s="15"/>
+      <c r="B58" s="18"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -5002,7 +5002,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
-      <c r="B59" s="15"/>
+      <c r="B59" s="18"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
-      <c r="B60" s="15"/>
+      <c r="B60" s="18"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -5022,7 +5022,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
-      <c r="B61" s="15"/>
+      <c r="B61" s="18"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -5032,7 +5032,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
-      <c r="B62" s="15"/>
+      <c r="B62" s="18"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -5042,7 +5042,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
-      <c r="B63" s="15"/>
+      <c r="B63" s="18"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -5052,7 +5052,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
-      <c r="B64" s="15"/>
+      <c r="B64" s="18"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -5062,7 +5062,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
-      <c r="B65" s="15"/>
+      <c r="B65" s="18"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -5072,7 +5072,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
-      <c r="B66" s="15"/>
+      <c r="B66" s="18"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
-      <c r="B67" s="15"/>
+      <c r="B67" s="18"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -5092,7 +5092,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
-      <c r="B68" s="15"/>
+      <c r="B68" s="18"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -5102,7 +5102,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
-      <c r="B69" s="15"/>
+      <c r="B69" s="18"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -5112,7 +5112,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
-      <c r="B70" s="15"/>
+      <c r="B70" s="18"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -5122,7 +5122,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
-      <c r="B71" s="15"/>
+      <c r="B71" s="18"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -5132,7 +5132,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
-      <c r="B72" s="15"/>
+      <c r="B72" s="18"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -5142,7 +5142,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
-      <c r="B73" s="15"/>
+      <c r="B73" s="18"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -5152,7 +5152,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
-      <c r="B74" s="15"/>
+      <c r="B74" s="18"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -5162,7 +5162,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
-      <c r="B75" s="15"/>
+      <c r="B75" s="18"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -5172,7 +5172,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
-      <c r="B76" s="15"/>
+      <c r="B76" s="18"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -5182,7 +5182,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
-      <c r="B77" s="15"/>
+      <c r="B77" s="18"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -5192,7 +5192,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
-      <c r="B78" s="15"/>
+      <c r="B78" s="18"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -5202,7 +5202,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
-      <c r="B79" s="15"/>
+      <c r="B79" s="18"/>
       <c r="C79" s="10"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -5211,11 +5211,11 @@
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="15"/>
+      <c r="B80" s="18"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
-      <c r="B81" s="15"/>
+      <c r="B81" s="18"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -5225,7 +5225,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
-      <c r="B82" s="15"/>
+      <c r="B82" s="18"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -5235,7 +5235,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
-      <c r="B83" s="15"/>
+      <c r="B83" s="18"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -5245,7 +5245,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
-      <c r="B84" s="15"/>
+      <c r="B84" s="18"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -5255,7 +5255,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
-      <c r="B85" s="15"/>
+      <c r="B85" s="18"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -5265,7 +5265,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
-      <c r="B86" s="15"/>
+      <c r="B86" s="18"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -5275,7 +5275,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
-      <c r="B87" s="15"/>
+      <c r="B87" s="18"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -5285,7 +5285,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
-      <c r="B88" s="15"/>
+      <c r="B88" s="18"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -5295,7 +5295,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
-      <c r="B89" s="15"/>
+      <c r="B89" s="18"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -5305,7 +5305,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
-      <c r="B90" s="15"/>
+      <c r="B90" s="18"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -5315,7 +5315,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
-      <c r="B91" s="15"/>
+      <c r="B91" s="18"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -5325,7 +5325,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
-      <c r="B92" s="15"/>
+      <c r="B92" s="18"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -5335,7 +5335,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
-      <c r="B93" s="15"/>
+      <c r="B93" s="18"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -5345,7 +5345,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
-      <c r="B94" s="15"/>
+      <c r="B94" s="18"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -5355,7 +5355,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
-      <c r="B95" s="15"/>
+      <c r="B95" s="18"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -5365,7 +5365,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
-      <c r="B96" s="15"/>
+      <c r="B96" s="18"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
-      <c r="B97" s="15"/>
+      <c r="B97" s="18"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -5385,7 +5385,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
-      <c r="B98" s="15"/>
+      <c r="B98" s="18"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -5395,7 +5395,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
-      <c r="B99" s="15"/>
+      <c r="B99" s="18"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -5405,7 +5405,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
-      <c r="B100" s="15"/>
+      <c r="B100" s="18"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -5415,7 +5415,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
-      <c r="B101" s="15"/>
+      <c r="B101" s="18"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -5425,7 +5425,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
-      <c r="B102" s="15"/>
+      <c r="B102" s="18"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -5435,7 +5435,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
-      <c r="B103" s="15"/>
+      <c r="B103" s="18"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -5445,7 +5445,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
-      <c r="B104" s="15"/>
+      <c r="B104" s="18"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -5455,7 +5455,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
-      <c r="B105" s="15"/>
+      <c r="B105" s="18"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -5465,7 +5465,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
-      <c r="B106" s="15"/>
+      <c r="B106" s="18"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -5475,7 +5475,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
-      <c r="B107" s="15"/>
+      <c r="B107" s="18"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -5485,7 +5485,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
-      <c r="B108" s="15"/>
+      <c r="B108" s="18"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -5495,7 +5495,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
-      <c r="B109" s="15"/>
+      <c r="B109" s="18"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -5505,7 +5505,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
-      <c r="B110" s="15"/>
+      <c r="B110" s="18"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -5515,7 +5515,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
-      <c r="B111" s="15"/>
+      <c r="B111" s="18"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -5525,7 +5525,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
-      <c r="B112" s="15"/>
+      <c r="B112" s="18"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
-      <c r="B113" s="15"/>
+      <c r="B113" s="18"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -5545,7 +5545,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
-      <c r="B114" s="15"/>
+      <c r="B114" s="18"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -5555,7 +5555,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
-      <c r="B115" s="15"/>
+      <c r="B115" s="18"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -5565,7 +5565,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
-      <c r="B116" s="15"/>
+      <c r="B116" s="18"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -5575,7 +5575,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
-      <c r="B117" s="15"/>
+      <c r="B117" s="18"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -5585,7 +5585,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
-      <c r="B118" s="15"/>
+      <c r="B118" s="18"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -5595,7 +5595,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
-      <c r="B119" s="15"/>
+      <c r="B119" s="18"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -5605,7 +5605,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
-      <c r="B120" s="15"/>
+      <c r="B120" s="18"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -5615,7 +5615,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
-      <c r="B121" s="15"/>
+      <c r="B121" s="18"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -5625,7 +5625,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
-      <c r="B122" s="15"/>
+      <c r="B122" s="18"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -5635,7 +5635,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
-      <c r="B123" s="15"/>
+      <c r="B123" s="18"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -5645,7 +5645,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
-      <c r="B124" s="15"/>
+      <c r="B124" s="18"/>
       <c r="C124" s="10"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -5655,7 +5655,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
-      <c r="B125" s="15"/>
+      <c r="B125" s="18"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -5665,7 +5665,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
-      <c r="B126" s="15"/>
+      <c r="B126" s="18"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -5675,7 +5675,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
-      <c r="B127" s="15"/>
+      <c r="B127" s="18"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -5685,7 +5685,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
-      <c r="B128" s="15"/>
+      <c r="B128" s="18"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -5695,7 +5695,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
-      <c r="B129" s="15"/>
+      <c r="B129" s="18"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -5705,7 +5705,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
-      <c r="B130" s="15"/>
+      <c r="B130" s="18"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -5715,7 +5715,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
-      <c r="B131" s="15"/>
+      <c r="B131" s="18"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -5725,7 +5725,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
-      <c r="B132" s="15"/>
+      <c r="B132" s="18"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -5735,7 +5735,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
-      <c r="B133" s="15"/>
+      <c r="B133" s="18"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -5745,7 +5745,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
-      <c r="B134" s="15"/>
+      <c r="B134" s="18"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -5755,7 +5755,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
-      <c r="B135" s="15"/>
+      <c r="B135" s="18"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -5765,7 +5765,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
-      <c r="B136" s="15"/>
+      <c r="B136" s="18"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -5775,7 +5775,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
-      <c r="B137" s="15"/>
+      <c r="B137" s="18"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -5785,7 +5785,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
-      <c r="B138" s="15"/>
+      <c r="B138" s="18"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -5795,7 +5795,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
-      <c r="B139" s="15"/>
+      <c r="B139" s="18"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -5805,7 +5805,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
-      <c r="B140" s="15"/>
+      <c r="B140" s="18"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -5815,7 +5815,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
-      <c r="B141" s="15"/>
+      <c r="B141" s="18"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -5825,7 +5825,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
-      <c r="B142" s="15"/>
+      <c r="B142" s="18"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -5835,7 +5835,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
-      <c r="B143" s="15"/>
+      <c r="B143" s="18"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -5845,7 +5845,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
-      <c r="B144" s="15"/>
+      <c r="B144" s="18"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -5855,7 +5855,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
-      <c r="B145" s="15"/>
+      <c r="B145" s="18"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -5865,7 +5865,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
-      <c r="B146" s="15"/>
+      <c r="B146" s="18"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -5875,7 +5875,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
-      <c r="B147" s="15"/>
+      <c r="B147" s="18"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -5885,7 +5885,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
-      <c r="B148" s="15"/>
+      <c r="B148" s="18"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -5895,7 +5895,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
-      <c r="B149" s="15"/>
+      <c r="B149" s="18"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -5905,7 +5905,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
-      <c r="B150" s="15"/>
+      <c r="B150" s="18"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -5915,7 +5915,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
-      <c r="B151" s="15"/>
+      <c r="B151" s="18"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -5925,7 +5925,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
-      <c r="B152" s="15"/>
+      <c r="B152" s="18"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -5935,7 +5935,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
-      <c r="B153" s="15"/>
+      <c r="B153" s="18"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -5945,7 +5945,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
-      <c r="B154" s="15"/>
+      <c r="B154" s="18"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -5955,7 +5955,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
-      <c r="B155" s="15"/>
+      <c r="B155" s="18"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -5965,7 +5965,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
-      <c r="B156" s="15"/>
+      <c r="B156" s="18"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -5975,7 +5975,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
-      <c r="B157" s="15"/>
+      <c r="B157" s="18"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -5985,7 +5985,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
-      <c r="B158" s="15"/>
+      <c r="B158" s="18"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -5995,7 +5995,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
-      <c r="B159" s="15"/>
+      <c r="B159" s="18"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -6005,7 +6005,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
-      <c r="B160" s="15"/>
+      <c r="B160" s="18"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -6015,7 +6015,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
-      <c r="B161" s="15"/>
+      <c r="B161" s="18"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -6025,7 +6025,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
-      <c r="B162" s="15"/>
+      <c r="B162" s="18"/>
       <c r="C162" s="10"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -6035,7 +6035,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
-      <c r="B163" s="15"/>
+      <c r="B163" s="18"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -6045,7 +6045,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
-      <c r="B164" s="15"/>
+      <c r="B164" s="18"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -6055,7 +6055,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
-      <c r="B165" s="15"/>
+      <c r="B165" s="18"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -6065,7 +6065,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
-      <c r="B166" s="15"/>
+      <c r="B166" s="18"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -6075,7 +6075,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
-      <c r="B167" s="15"/>
+      <c r="B167" s="18"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -6085,7 +6085,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
-      <c r="B168" s="15"/>
+      <c r="B168" s="18"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -6095,7 +6095,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
-      <c r="B169" s="15"/>
+      <c r="B169" s="18"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -6105,7 +6105,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
-      <c r="B170" s="15"/>
+      <c r="B170" s="18"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -6115,7 +6115,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
-      <c r="B171" s="15"/>
+      <c r="B171" s="18"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -6125,7 +6125,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
-      <c r="B172" s="15"/>
+      <c r="B172" s="18"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -6135,7 +6135,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
-      <c r="B173" s="15"/>
+      <c r="B173" s="18"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -6145,7 +6145,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
-      <c r="B174" s="15"/>
+      <c r="B174" s="18"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -6155,7 +6155,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
-      <c r="B175" s="15"/>
+      <c r="B175" s="18"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -6165,7 +6165,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
-      <c r="B176" s="15"/>
+      <c r="B176" s="18"/>
       <c r="C176" s="10"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -6175,7 +6175,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
-      <c r="B177" s="15"/>
+      <c r="B177" s="18"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -6185,7 +6185,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
-      <c r="B178" s="15"/>
+      <c r="B178" s="18"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -6195,7 +6195,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
-      <c r="B179" s="15"/>
+      <c r="B179" s="18"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -6205,7 +6205,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
-      <c r="B180" s="15"/>
+      <c r="B180" s="18"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -6215,7 +6215,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
-      <c r="B181" s="15"/>
+      <c r="B181" s="18"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -6225,7 +6225,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
-      <c r="B182" s="15"/>
+      <c r="B182" s="18"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -6235,7 +6235,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
-      <c r="B183" s="15"/>
+      <c r="B183" s="18"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -6245,7 +6245,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
-      <c r="B184" s="16"/>
+      <c r="B184" s="19"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -6255,7 +6255,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="2"/>
-      <c r="B185" s="17"/>
+      <c r="B185" s="20"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -6265,7 +6265,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
-      <c r="B186" s="18"/>
+      <c r="B186" s="21"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -6275,7 +6275,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
-      <c r="B187" s="18"/>
+      <c r="B187" s="21"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -6285,7 +6285,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
-      <c r="B188" s="18"/>
+      <c r="B188" s="21"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="5"/>
@@ -6295,7 +6295,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="2"/>
-      <c r="B189" s="18"/>
+      <c r="B189" s="21"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="5"/>
@@ -6305,7 +6305,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
-      <c r="B190" s="18"/>
+      <c r="B190" s="21"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="5"/>
@@ -6315,7 +6315,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
-      <c r="B191" s="18"/>
+      <c r="B191" s="21"/>
       <c r="C191" s="10"/>
       <c r="D191" s="2"/>
       <c r="E191" s="5"/>
@@ -6325,7 +6325,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
-      <c r="B192" s="18"/>
+      <c r="B192" s="21"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="5"/>
@@ -6335,7 +6335,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
-      <c r="B193" s="18"/>
+      <c r="B193" s="21"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="5"/>
@@ -6345,7 +6345,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
-      <c r="B194" s="18"/>
+      <c r="B194" s="21"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="5"/>
@@ -6355,7 +6355,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
-      <c r="B195" s="18"/>
+      <c r="B195" s="21"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="5"/>
@@ -6365,7 +6365,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
-      <c r="B196" s="18"/>
+      <c r="B196" s="21"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="5"/>
@@ -6375,7 +6375,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
-      <c r="B197" s="15"/>
+      <c r="B197" s="18"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="5"/>
@@ -6385,7 +6385,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
-      <c r="B198" s="15"/>
+      <c r="B198" s="18"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="5"/>
@@ -6395,7 +6395,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="2"/>
-      <c r="B199" s="15"/>
+      <c r="B199" s="18"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="5"/>
@@ -6405,7 +6405,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
-      <c r="B200" s="15"/>
+      <c r="B200" s="18"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="5"/>
@@ -6415,7 +6415,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="2"/>
-      <c r="B201" s="15"/>
+      <c r="B201" s="18"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="5"/>
@@ -6425,7 +6425,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="2"/>
-      <c r="B202" s="15"/>
+      <c r="B202" s="18"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="5"/>
@@ -6435,7 +6435,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="2"/>
-      <c r="B203" s="15"/>
+      <c r="B203" s="18"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="5"/>
@@ -6445,7 +6445,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="2"/>
-      <c r="B204" s="15"/>
+      <c r="B204" s="18"/>
       <c r="C204" s="10"/>
       <c r="D204" s="2"/>
       <c r="E204" s="5"/>
@@ -6455,7 +6455,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="2"/>
-      <c r="B205" s="15"/>
+      <c r="B205" s="18"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="5"/>
@@ -6465,7 +6465,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
-      <c r="B206" s="15"/>
+      <c r="B206" s="18"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="5"/>
@@ -6475,7 +6475,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="2"/>
-      <c r="B207" s="15"/>
+      <c r="B207" s="18"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="5"/>
@@ -6485,7 +6485,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="2"/>
-      <c r="B208" s="15"/>
+      <c r="B208" s="18"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="5"/>
@@ -6495,7 +6495,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="2"/>
-      <c r="B209" s="15"/>
+      <c r="B209" s="18"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="5"/>
@@ -6505,7 +6505,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="2"/>
-      <c r="B210" s="15"/>
+      <c r="B210" s="18"/>
       <c r="C210" s="10"/>
       <c r="D210" s="2"/>
       <c r="E210" s="5"/>
@@ -6515,7 +6515,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="2"/>
-      <c r="B211" s="15"/>
+      <c r="B211" s="18"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="5"/>
@@ -6525,7 +6525,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="2"/>
-      <c r="B212" s="15"/>
+      <c r="B212" s="18"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="5"/>
@@ -6535,7 +6535,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="2"/>
-      <c r="B213" s="15"/>
+      <c r="B213" s="18"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="5"/>
@@ -6545,7 +6545,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="2"/>
-      <c r="B214" s="15"/>
+      <c r="B214" s="18"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -6555,7 +6555,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="2"/>
-      <c r="B215" s="15"/>
+      <c r="B215" s="18"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
@@ -6565,7 +6565,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="2"/>
-      <c r="B216" s="15"/>
+      <c r="B216" s="18"/>
       <c r="C216" s="10"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -6575,7 +6575,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="2"/>
-      <c r="B217" s="15"/>
+      <c r="B217" s="18"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -6585,7 +6585,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="2"/>
-      <c r="B218" s="15"/>
+      <c r="B218" s="18"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -6595,7 +6595,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="2"/>
-      <c r="B219" s="15"/>
+      <c r="B219" s="18"/>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -6605,7 +6605,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="2"/>
-      <c r="B220" s="15"/>
+      <c r="B220" s="18"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -6615,7 +6615,7 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="2"/>
-      <c r="B221" s="15"/>
+      <c r="B221" s="18"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -6625,7 +6625,7 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="2"/>
-      <c r="B222" s="15"/>
+      <c r="B222" s="18"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -6635,7 +6635,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="2"/>
-      <c r="B223" s="15"/>
+      <c r="B223" s="18"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -6645,7 +6645,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="2"/>
-      <c r="B224" s="15"/>
+      <c r="B224" s="18"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -6655,7 +6655,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="2"/>
-      <c r="B225" s="15"/>
+      <c r="B225" s="18"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -6665,7 +6665,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="2"/>
-      <c r="B226" s="15"/>
+      <c r="B226" s="18"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -6675,7 +6675,7 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="2"/>
-      <c r="B227" s="15"/>
+      <c r="B227" s="18"/>
       <c r="C227" s="10"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -6685,7 +6685,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="2"/>
-      <c r="B228" s="15"/>
+      <c r="B228" s="18"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -6695,7 +6695,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="2"/>
-      <c r="B229" s="15"/>
+      <c r="B229" s="18"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -6705,7 +6705,7 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="2"/>
-      <c r="B230" s="15"/>
+      <c r="B230" s="18"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
@@ -6715,7 +6715,7 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="2"/>
-      <c r="B231" s="15"/>
+      <c r="B231" s="18"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -6725,7 +6725,7 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="2"/>
-      <c r="B232" s="15"/>
+      <c r="B232" s="18"/>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -6735,7 +6735,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="2"/>
-      <c r="B233" s="15"/>
+      <c r="B233" s="18"/>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -6745,7 +6745,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="2"/>
-      <c r="B234" s="15"/>
+      <c r="B234" s="18"/>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="5"/>
@@ -6755,7 +6755,7 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="2"/>
-      <c r="B235" s="15"/>
+      <c r="B235" s="18"/>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="5"/>
@@ -6765,7 +6765,7 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="2"/>
-      <c r="B236" s="15"/>
+      <c r="B236" s="18"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="5"/>
@@ -6775,7 +6775,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="2"/>
-      <c r="B237" s="15"/>
+      <c r="B237" s="18"/>
       <c r="C237" s="10"/>
       <c r="D237" s="2"/>
       <c r="E237" s="5"/>
@@ -6785,7 +6785,7 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="2"/>
-      <c r="B238" s="15"/>
+      <c r="B238" s="18"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="5"/>
@@ -6795,7 +6795,7 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="2"/>
-      <c r="B239" s="15"/>
+      <c r="B239" s="18"/>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="5"/>
@@ -6805,7 +6805,7 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="2"/>
-      <c r="B240" s="15"/>
+      <c r="B240" s="18"/>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="5"/>
@@ -6815,7 +6815,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="2"/>
-      <c r="B241" s="15"/>
+      <c r="B241" s="18"/>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
@@ -6825,7 +6825,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="2"/>
-      <c r="B242" s="15"/>
+      <c r="B242" s="18"/>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
@@ -6835,7 +6835,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="2"/>
-      <c r="B243" s="15"/>
+      <c r="B243" s="18"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
@@ -6845,7 +6845,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="2"/>
-      <c r="B244" s="15"/>
+      <c r="B244" s="18"/>
       <c r="C244" s="10"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -6855,7 +6855,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="2"/>
-      <c r="B245" s="15"/>
+      <c r="B245" s="18"/>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -6865,7 +6865,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="2"/>
-      <c r="B246" s="15"/>
+      <c r="B246" s="18"/>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -6875,7 +6875,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="2"/>
-      <c r="B247" s="15"/>
+      <c r="B247" s="18"/>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
@@ -6885,7 +6885,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="2"/>
-      <c r="B248" s="15"/>
+      <c r="B248" s="18"/>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -6895,7 +6895,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="2"/>
-      <c r="B249" s="15"/>
+      <c r="B249" s="18"/>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
@@ -6905,7 +6905,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="2"/>
-      <c r="B250" s="15"/>
+      <c r="B250" s="18"/>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -6915,7 +6915,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="2"/>
-      <c r="B251" s="15"/>
+      <c r="B251" s="18"/>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -6925,7 +6925,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="2"/>
-      <c r="B252" s="15"/>
+      <c r="B252" s="18"/>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -6935,7 +6935,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="2"/>
-      <c r="B253" s="15"/>
+      <c r="B253" s="18"/>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -6945,7 +6945,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="2"/>
-      <c r="B254" s="15"/>
+      <c r="B254" s="18"/>
       <c r="C254" s="10"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -6955,7 +6955,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="2"/>
-      <c r="B255" s="15"/>
+      <c r="B255" s="18"/>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -6965,7 +6965,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="2"/>
-      <c r="B256" s="15"/>
+      <c r="B256" s="18"/>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
@@ -9595,13 +9595,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B2:B33"/>
-    <mergeCell ref="B34:B68"/>
-    <mergeCell ref="B164:B167"/>
-    <mergeCell ref="B168:B171"/>
-    <mergeCell ref="B69:B119"/>
-    <mergeCell ref="B160:B163"/>
-    <mergeCell ref="B120:B159"/>
     <mergeCell ref="B197:B206"/>
     <mergeCell ref="B207:B213"/>
     <mergeCell ref="B214:B218"/>
@@ -9612,6 +9605,13 @@
     <mergeCell ref="B234:B240"/>
     <mergeCell ref="B241:B249"/>
     <mergeCell ref="B185:B196"/>
+    <mergeCell ref="B2:B33"/>
+    <mergeCell ref="B34:B68"/>
+    <mergeCell ref="B164:B167"/>
+    <mergeCell ref="B168:B171"/>
+    <mergeCell ref="B69:B119"/>
+    <mergeCell ref="B160:B163"/>
+    <mergeCell ref="B120:B159"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9667,7 +9667,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -9689,7 +9689,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
-      <c r="B3" s="18"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
@@ -9709,7 +9709,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
-      <c r="B4" s="18"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
@@ -9729,7 +9729,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
-      <c r="B5" s="18"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
@@ -9749,7 +9749,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
-      <c r="B6" s="18"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
@@ -9769,7 +9769,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
-      <c r="B7" s="18"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
@@ -9789,7 +9789,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
-      <c r="B8" s="18"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
@@ -9809,7 +9809,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
-      <c r="B9" s="18"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
@@ -9829,7 +9829,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
-      <c r="B10" s="18"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="7" t="s">
         <v>16</v>
       </c>
@@ -9849,7 +9849,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
-      <c r="B11" s="18"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
@@ -9869,7 +9869,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
-      <c r="B12" s="18"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="7" t="s">
         <v>16</v>
       </c>
@@ -9891,7 +9891,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
-      <c r="B13" s="18"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="7" t="s">
         <v>16</v>
       </c>
@@ -9911,7 +9911,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
-      <c r="B14" s="18"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="7" t="s">
         <v>16</v>
       </c>
@@ -9931,7 +9931,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
-      <c r="B15" s="18"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="7" t="s">
         <v>16</v>
       </c>
@@ -9951,7 +9951,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
-      <c r="B16" s="18"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="7" t="s">
         <v>16</v>
       </c>
@@ -9971,7 +9971,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
-      <c r="B17" s="18"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="7" t="s">
         <v>16</v>
       </c>
@@ -9991,7 +9991,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
-      <c r="B18" s="18"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="7" t="s">
         <v>16</v>
       </c>
@@ -10011,7 +10011,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
-      <c r="B19" s="18"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="7" t="s">
         <v>16</v>
       </c>
@@ -10031,7 +10031,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
-      <c r="B20" s="18"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="7" t="s">
         <v>16</v>
       </c>
@@ -10051,7 +10051,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
-      <c r="B21" s="18"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="7" t="s">
         <v>16</v>
       </c>
@@ -10071,7 +10071,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
-      <c r="B22" s="18"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="7" t="s">
         <v>16</v>
       </c>
@@ -10091,7 +10091,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
-      <c r="B23" s="18"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="7" t="s">
         <v>16</v>
       </c>
@@ -10111,7 +10111,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
-      <c r="B24" s="18"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="7" t="s">
         <v>16</v>
       </c>
@@ -10131,7 +10131,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
-      <c r="B25" s="18"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="7" t="s">
         <v>16</v>
       </c>
@@ -10151,7 +10151,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
-      <c r="B26" s="18"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="7" t="s">
         <v>16</v>
       </c>
@@ -10171,7 +10171,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
-      <c r="B27" s="18"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="7" t="s">
         <v>16</v>
       </c>
@@ -10191,7 +10191,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
-      <c r="B28" s="18"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="7" t="s">
         <v>16</v>
       </c>
@@ -10211,7 +10211,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
-      <c r="B29" s="18"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="7" t="s">
         <v>16</v>
       </c>
@@ -10231,7 +10231,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
-      <c r="B30" s="18"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="7" t="s">
         <v>16</v>
       </c>
@@ -10251,7 +10251,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
-      <c r="B31" s="18"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="7" t="s">
         <v>16</v>
       </c>
@@ -10271,7 +10271,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
-      <c r="B32" s="18"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="7" t="s">
         <v>16</v>
       </c>
@@ -10291,7 +10291,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
-      <c r="B33" s="18"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="7" t="s">
         <v>16</v>
       </c>
@@ -10311,7 +10311,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
-      <c r="B34" s="18"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="7" t="s">
         <v>16</v>
       </c>
@@ -10331,7 +10331,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
-      <c r="B35" s="18"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="7" t="s">
         <v>16</v>
       </c>
@@ -10351,7 +10351,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
-      <c r="B36" s="18"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="7" t="s">
         <v>16</v>
       </c>
@@ -10371,7 +10371,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
-      <c r="B37" s="18"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="7" t="s">
         <v>16</v>
       </c>
@@ -10391,7 +10391,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
-      <c r="B38" s="18"/>
+      <c r="B38" s="21"/>
       <c r="C38" s="7" t="s">
         <v>16</v>
       </c>
@@ -10411,7 +10411,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
-      <c r="B39" s="18"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="7" t="s">
         <v>16</v>
       </c>
@@ -10431,7 +10431,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
-      <c r="B40" s="18"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="7" t="s">
         <v>16</v>
       </c>
@@ -10451,7 +10451,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
-      <c r="B41" s="18"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="7" t="s">
         <v>16</v>
       </c>
@@ -10471,7 +10471,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
-      <c r="B42" s="18"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="7" t="s">
         <v>16</v>
       </c>
@@ -10491,7 +10491,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
-      <c r="B43" s="18"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="7" t="s">
         <v>16</v>
       </c>
@@ -10511,7 +10511,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
-      <c r="B44" s="18"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="7" t="s">
         <v>16</v>
       </c>
@@ -10531,7 +10531,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -10553,7 +10553,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
-      <c r="B46" s="15"/>
+      <c r="B46" s="18"/>
       <c r="C46" s="7" t="s">
         <v>104</v>
       </c>
@@ -10573,7 +10573,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
-      <c r="B47" s="15"/>
+      <c r="B47" s="18"/>
       <c r="C47" s="7" t="s">
         <v>104</v>
       </c>
@@ -10593,7 +10593,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
-      <c r="B48" s="15"/>
+      <c r="B48" s="18"/>
       <c r="C48" s="7" t="s">
         <v>104</v>
       </c>
@@ -10613,7 +10613,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
-      <c r="B49" s="15"/>
+      <c r="B49" s="18"/>
       <c r="C49" s="7" t="s">
         <v>104</v>
       </c>
@@ -10633,7 +10633,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
-      <c r="B50" s="15"/>
+      <c r="B50" s="18"/>
       <c r="C50" s="7" t="s">
         <v>104</v>
       </c>
@@ -10653,7 +10653,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
-      <c r="B51" s="15"/>
+      <c r="B51" s="18"/>
       <c r="C51" s="7" t="s">
         <v>104</v>
       </c>
@@ -10673,7 +10673,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C52" s="7" t="s">
@@ -10695,7 +10695,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
-      <c r="B53" s="15"/>
+      <c r="B53" s="18"/>
       <c r="C53" s="7" t="s">
         <v>118</v>
       </c>
@@ -10715,7 +10715,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
-      <c r="B54" s="15"/>
+      <c r="B54" s="18"/>
       <c r="C54" s="7" t="s">
         <v>118</v>
       </c>
@@ -10735,7 +10735,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
-      <c r="B55" s="15"/>
+      <c r="B55" s="18"/>
       <c r="C55" s="7" t="s">
         <v>118</v>
       </c>
@@ -10755,7 +10755,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
-      <c r="B56" s="15"/>
+      <c r="B56" s="18"/>
       <c r="C56" s="7" t="s">
         <v>118</v>
       </c>
@@ -10775,7 +10775,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
-      <c r="B57" s="15"/>
+      <c r="B57" s="18"/>
       <c r="C57" s="7" t="s">
         <v>118</v>
       </c>
@@ -10795,7 +10795,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
-      <c r="B58" s="15"/>
+      <c r="B58" s="18"/>
       <c r="C58" s="7" t="s">
         <v>118</v>
       </c>
@@ -10815,7 +10815,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
-      <c r="B59" s="15"/>
+      <c r="B59" s="18"/>
       <c r="C59" s="7" t="s">
         <v>118</v>
       </c>
@@ -10835,7 +10835,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="7"/>
-      <c r="B60" s="15"/>
+      <c r="B60" s="18"/>
       <c r="C60" s="7" t="s">
         <v>118</v>
       </c>
@@ -10855,7 +10855,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="7"/>
-      <c r="B61" s="15"/>
+      <c r="B61" s="18"/>
       <c r="C61" s="7" t="s">
         <v>118</v>
       </c>
@@ -10875,7 +10875,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
-      <c r="B62" s="15"/>
+      <c r="B62" s="18"/>
       <c r="C62" s="7" t="s">
         <v>118</v>
       </c>
@@ -10895,7 +10895,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="7"/>
-      <c r="B63" s="15"/>
+      <c r="B63" s="18"/>
       <c r="C63" s="7" t="s">
         <v>118</v>
       </c>
@@ -10915,7 +10915,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
-      <c r="B64" s="15"/>
+      <c r="B64" s="18"/>
       <c r="C64" s="7" t="s">
         <v>118</v>
       </c>
@@ -10937,7 +10937,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="7"/>
-      <c r="B65" s="15"/>
+      <c r="B65" s="18"/>
       <c r="C65" s="7" t="s">
         <v>118</v>
       </c>
@@ -10957,7 +10957,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
-      <c r="B66" s="15"/>
+      <c r="B66" s="18"/>
       <c r="C66" s="7" t="s">
         <v>118</v>
       </c>
@@ -10979,7 +10979,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
-      <c r="B67" s="15"/>
+      <c r="B67" s="18"/>
       <c r="C67" s="7" t="s">
         <v>118</v>
       </c>
@@ -10999,7 +10999,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
-      <c r="B68" s="15"/>
+      <c r="B68" s="18"/>
       <c r="C68" s="7" t="s">
         <v>118</v>
       </c>
@@ -11019,7 +11019,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
-      <c r="B69" s="15"/>
+      <c r="B69" s="18"/>
       <c r="C69" s="7" t="s">
         <v>118</v>
       </c>
@@ -11039,7 +11039,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="7"/>
-      <c r="B70" s="15"/>
+      <c r="B70" s="18"/>
       <c r="C70" s="7" t="s">
         <v>118</v>
       </c>
@@ -11059,7 +11059,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
-      <c r="B71" s="15"/>
+      <c r="B71" s="18"/>
       <c r="C71" s="7" t="s">
         <v>118</v>
       </c>
@@ -11079,7 +11079,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
-      <c r="B72" s="15"/>
+      <c r="B72" s="18"/>
       <c r="C72" s="7" t="s">
         <v>118</v>
       </c>
@@ -11099,7 +11099,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
-      <c r="B73" s="15"/>
+      <c r="B73" s="18"/>
       <c r="C73" s="7" t="s">
         <v>118</v>
       </c>
@@ -11119,7 +11119,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
-      <c r="B74" s="15"/>
+      <c r="B74" s="18"/>
       <c r="C74" s="7" t="s">
         <v>118</v>
       </c>
@@ -11139,7 +11139,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="7"/>
-      <c r="B75" s="15"/>
+      <c r="B75" s="18"/>
       <c r="C75" s="7" t="s">
         <v>118</v>
       </c>
@@ -11159,7 +11159,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="7"/>
-      <c r="B76" s="15"/>
+      <c r="B76" s="18"/>
       <c r="C76" s="7" t="s">
         <v>118</v>
       </c>
@@ -11179,7 +11179,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
-      <c r="B77" s="15" t="s">
+      <c r="B77" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C77" s="7" t="s">
@@ -11201,7 +11201,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="7"/>
-      <c r="B78" s="15"/>
+      <c r="B78" s="18"/>
       <c r="C78" s="7" t="s">
         <v>536</v>
       </c>
@@ -11221,7 +11221,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="7"/>
-      <c r="B79" s="15"/>
+      <c r="B79" s="18"/>
       <c r="C79" s="7" t="s">
         <v>536</v>
       </c>
@@ -11241,7 +11241,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
-      <c r="B80" s="15"/>
+      <c r="B80" s="18"/>
       <c r="C80" s="7" t="s">
         <v>536</v>
       </c>
@@ -11261,7 +11261,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
-      <c r="B81" s="15"/>
+      <c r="B81" s="18"/>
       <c r="C81" s="7" t="s">
         <v>536</v>
       </c>
@@ -11281,7 +11281,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="7"/>
-      <c r="B82" s="15"/>
+      <c r="B82" s="18"/>
       <c r="C82" s="7" t="s">
         <v>536</v>
       </c>
@@ -11301,7 +11301,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="7"/>
-      <c r="B83" s="15"/>
+      <c r="B83" s="18"/>
       <c r="C83" s="7" t="s">
         <v>536</v>
       </c>
@@ -11321,7 +11321,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="7"/>
-      <c r="B84" s="15"/>
+      <c r="B84" s="18"/>
       <c r="C84" s="7" t="s">
         <v>536</v>
       </c>
@@ -11341,7 +11341,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="7"/>
-      <c r="B85" s="15"/>
+      <c r="B85" s="18"/>
       <c r="C85" s="7" t="s">
         <v>536</v>
       </c>
@@ -11361,7 +11361,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="7"/>
-      <c r="B86" s="15"/>
+      <c r="B86" s="18"/>
       <c r="C86" s="7" t="s">
         <v>536</v>
       </c>
@@ -11381,7 +11381,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="7"/>
-      <c r="B87" s="15"/>
+      <c r="B87" s="18"/>
       <c r="C87" s="7" t="s">
         <v>536</v>
       </c>
@@ -11401,7 +11401,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="7"/>
-      <c r="B88" s="15"/>
+      <c r="B88" s="18"/>
       <c r="C88" s="7" t="s">
         <v>536</v>
       </c>
@@ -11421,7 +11421,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="7"/>
-      <c r="B89" s="15"/>
+      <c r="B89" s="18"/>
       <c r="C89" s="7" t="s">
         <v>536</v>
       </c>
@@ -11441,7 +11441,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="7"/>
-      <c r="B90" s="15"/>
+      <c r="B90" s="18"/>
       <c r="C90" s="7" t="s">
         <v>536</v>
       </c>
@@ -11461,7 +11461,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="7"/>
-      <c r="B91" s="15"/>
+      <c r="B91" s="18"/>
       <c r="C91" s="7" t="s">
         <v>536</v>
       </c>
@@ -11481,7 +11481,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="7"/>
-      <c r="B92" s="15"/>
+      <c r="B92" s="18"/>
       <c r="C92" s="7" t="s">
         <v>536</v>
       </c>
@@ -11501,7 +11501,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="7"/>
-      <c r="B93" s="15"/>
+      <c r="B93" s="18"/>
       <c r="C93" s="7" t="s">
         <v>536</v>
       </c>
@@ -11521,7 +11521,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="7"/>
-      <c r="B94" s="15"/>
+      <c r="B94" s="18"/>
       <c r="C94" s="7" t="s">
         <v>536</v>
       </c>
@@ -11541,7 +11541,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="7"/>
-      <c r="B95" s="15"/>
+      <c r="B95" s="18"/>
       <c r="C95" s="7" t="s">
         <v>536</v>
       </c>
@@ -11561,7 +11561,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="7"/>
-      <c r="B96" s="15"/>
+      <c r="B96" s="18"/>
       <c r="C96" s="7" t="s">
         <v>536</v>
       </c>
@@ -11581,7 +11581,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="7"/>
-      <c r="B97" s="15"/>
+      <c r="B97" s="18"/>
       <c r="C97" s="7" t="s">
         <v>536</v>
       </c>
@@ -11601,7 +11601,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="7"/>
-      <c r="B98" s="15"/>
+      <c r="B98" s="18"/>
       <c r="C98" s="7" t="s">
         <v>536</v>
       </c>
@@ -11621,7 +11621,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="7"/>
-      <c r="B99" s="15"/>
+      <c r="B99" s="18"/>
       <c r="C99" s="7" t="s">
         <v>536</v>
       </c>
@@ -11641,7 +11641,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="7"/>
-      <c r="B100" s="15" t="s">
+      <c r="B100" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C100" s="7" t="s">
@@ -11663,7 +11663,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="7"/>
-      <c r="B101" s="15"/>
+      <c r="B101" s="18"/>
       <c r="C101" s="7" t="s">
         <v>561</v>
       </c>
@@ -11683,7 +11683,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="7"/>
-      <c r="B102" s="15"/>
+      <c r="B102" s="18"/>
       <c r="C102" s="7" t="s">
         <v>170</v>
       </c>
@@ -11703,7 +11703,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="7"/>
-      <c r="B103" s="15"/>
+      <c r="B103" s="18"/>
       <c r="C103" s="7" t="s">
         <v>170</v>
       </c>
@@ -11723,7 +11723,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="7"/>
-      <c r="B104" s="15" t="s">
+      <c r="B104" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C104" s="7" t="s">
@@ -11745,7 +11745,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="7"/>
-      <c r="B105" s="15"/>
+      <c r="B105" s="18"/>
       <c r="C105" s="7" t="s">
         <v>179</v>
       </c>
@@ -11765,7 +11765,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="7"/>
-      <c r="B106" s="15"/>
+      <c r="B106" s="18"/>
       <c r="C106" s="7" t="s">
         <v>562</v>
       </c>
@@ -11785,7 +11785,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="7"/>
-      <c r="B107" s="15"/>
+      <c r="B107" s="18"/>
       <c r="C107" s="7" t="s">
         <v>179</v>
       </c>
@@ -11805,7 +11805,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="7"/>
-      <c r="B108" s="15"/>
+      <c r="B108" s="18"/>
       <c r="C108" s="7" t="s">
         <v>179</v>
       </c>
@@ -11825,7 +11825,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="7"/>
-      <c r="B109" s="15"/>
+      <c r="B109" s="18"/>
       <c r="C109" s="7" t="s">
         <v>179</v>
       </c>
@@ -11845,7 +11845,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="7"/>
-      <c r="B110" s="15"/>
+      <c r="B110" s="18"/>
       <c r="C110" s="7" t="s">
         <v>179</v>
       </c>
@@ -11865,7 +11865,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="7"/>
-      <c r="B111" s="15"/>
+      <c r="B111" s="18"/>
       <c r="C111" s="7" t="s">
         <v>179</v>
       </c>
@@ -11885,7 +11885,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="7"/>
-      <c r="B112" s="15"/>
+      <c r="B112" s="18"/>
       <c r="C112" s="7" t="s">
         <v>179</v>
       </c>
@@ -11905,7 +11905,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="7"/>
-      <c r="B113" s="15"/>
+      <c r="B113" s="18"/>
       <c r="C113" s="7" t="s">
         <v>179</v>
       </c>
@@ -11925,7 +11925,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="7"/>
-      <c r="B114" s="15"/>
+      <c r="B114" s="18"/>
       <c r="C114" s="7" t="s">
         <v>179</v>
       </c>
@@ -11945,7 +11945,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="7"/>
-      <c r="B115" s="15"/>
+      <c r="B115" s="18"/>
       <c r="C115" s="7" t="s">
         <v>179</v>
       </c>
@@ -11965,7 +11965,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="7"/>
-      <c r="B116" s="15"/>
+      <c r="B116" s="18"/>
       <c r="C116" s="7" t="s">
         <v>179</v>
       </c>
@@ -11985,7 +11985,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="7"/>
-      <c r="B117" s="15"/>
+      <c r="B117" s="18"/>
       <c r="C117" s="7" t="s">
         <v>179</v>
       </c>
@@ -12005,7 +12005,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="7"/>
-      <c r="B118" s="15"/>
+      <c r="B118" s="18"/>
       <c r="C118" s="7" t="s">
         <v>179</v>
       </c>
@@ -12027,7 +12027,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="7"/>
-      <c r="B119" s="15"/>
+      <c r="B119" s="18"/>
       <c r="C119" s="7" t="s">
         <v>179</v>
       </c>
@@ -12047,7 +12047,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="7"/>
-      <c r="B120" s="15"/>
+      <c r="B120" s="18"/>
       <c r="C120" s="7" t="s">
         <v>179</v>
       </c>
@@ -12067,7 +12067,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="7"/>
-      <c r="B121" s="15"/>
+      <c r="B121" s="18"/>
       <c r="C121" s="7" t="s">
         <v>179</v>
       </c>
@@ -12087,7 +12087,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="7"/>
-      <c r="B122" s="15"/>
+      <c r="B122" s="18"/>
       <c r="C122" s="7" t="s">
         <v>179</v>
       </c>
@@ -12107,7 +12107,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="7"/>
-      <c r="B123" s="15"/>
+      <c r="B123" s="18"/>
       <c r="C123" s="7" t="s">
         <v>179</v>
       </c>
@@ -12127,7 +12127,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="7"/>
-      <c r="B124" s="15"/>
+      <c r="B124" s="18"/>
       <c r="C124" s="7" t="s">
         <v>179</v>
       </c>
@@ -12147,7 +12147,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="7"/>
-      <c r="B125" s="15"/>
+      <c r="B125" s="18"/>
       <c r="C125" s="7" t="s">
         <v>179</v>
       </c>
@@ -12167,7 +12167,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="7"/>
-      <c r="B126" s="15"/>
+      <c r="B126" s="18"/>
       <c r="C126" s="7" t="s">
         <v>179</v>
       </c>
@@ -12187,7 +12187,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="7"/>
-      <c r="B127" s="15"/>
+      <c r="B127" s="18"/>
       <c r="C127" s="7" t="s">
         <v>179</v>
       </c>
@@ -12207,7 +12207,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="7"/>
-      <c r="B128" s="15"/>
+      <c r="B128" s="18"/>
       <c r="C128" s="7" t="s">
         <v>179</v>
       </c>
@@ -12229,7 +12229,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="7"/>
-      <c r="B129" s="15"/>
+      <c r="B129" s="18"/>
       <c r="C129" s="7" t="s">
         <v>179</v>
       </c>
@@ -12249,7 +12249,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="7"/>
-      <c r="B130" s="15"/>
+      <c r="B130" s="18"/>
       <c r="C130" s="7" t="s">
         <v>179</v>
       </c>
@@ -12271,7 +12271,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="7"/>
-      <c r="B131" s="15"/>
+      <c r="B131" s="18"/>
       <c r="C131" s="7" t="s">
         <v>179</v>
       </c>
@@ -12293,7 +12293,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="7"/>
-      <c r="B132" s="15"/>
+      <c r="B132" s="18"/>
       <c r="C132" s="7" t="s">
         <v>179</v>
       </c>
@@ -12315,7 +12315,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="7"/>
-      <c r="B133" s="15"/>
+      <c r="B133" s="18"/>
       <c r="C133" s="7" t="s">
         <v>179</v>
       </c>
@@ -12337,7 +12337,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="7"/>
-      <c r="B134" s="15"/>
+      <c r="B134" s="18"/>
       <c r="C134" s="7" t="s">
         <v>179</v>
       </c>
@@ -12359,7 +12359,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="7"/>
-      <c r="B135" s="15"/>
+      <c r="B135" s="18"/>
       <c r="C135" s="7" t="s">
         <v>179</v>
       </c>
@@ -12381,7 +12381,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="7"/>
-      <c r="B136" s="15"/>
+      <c r="B136" s="18"/>
       <c r="C136" s="7" t="s">
         <v>179</v>
       </c>
@@ -12403,7 +12403,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="7"/>
-      <c r="B137" s="15"/>
+      <c r="B137" s="18"/>
       <c r="C137" s="7" t="s">
         <v>179</v>
       </c>
@@ -12425,7 +12425,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="7"/>
-      <c r="B138" s="15"/>
+      <c r="B138" s="18"/>
       <c r="C138" s="7" t="s">
         <v>179</v>
       </c>
@@ -12447,7 +12447,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="7"/>
-      <c r="B139" s="15"/>
+      <c r="B139" s="18"/>
       <c r="C139" s="7" t="s">
         <v>179</v>
       </c>
@@ -12469,7 +12469,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="7"/>
-      <c r="B140" s="15"/>
+      <c r="B140" s="18"/>
       <c r="C140" s="7" t="s">
         <v>179</v>
       </c>
@@ -12491,7 +12491,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="7"/>
-      <c r="B141" s="15"/>
+      <c r="B141" s="18"/>
       <c r="C141" s="7" t="s">
         <v>179</v>
       </c>
@@ -12511,7 +12511,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="7"/>
-      <c r="B142" s="15"/>
+      <c r="B142" s="18"/>
       <c r="C142" s="7" t="s">
         <v>179</v>
       </c>
@@ -12531,7 +12531,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="7"/>
-      <c r="B143" s="15"/>
+      <c r="B143" s="18"/>
       <c r="C143" s="7" t="s">
         <v>179</v>
       </c>
@@ -12551,7 +12551,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="7"/>
-      <c r="B144" s="15"/>
+      <c r="B144" s="18"/>
       <c r="C144" s="7" t="s">
         <v>179</v>
       </c>
@@ -12571,7 +12571,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="7"/>
-      <c r="B145" s="15"/>
+      <c r="B145" s="18"/>
       <c r="C145" s="7" t="s">
         <v>179</v>
       </c>
@@ -12591,7 +12591,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="7"/>
-      <c r="B146" s="15"/>
+      <c r="B146" s="18"/>
       <c r="C146" s="7" t="s">
         <v>179</v>
       </c>
@@ -12611,7 +12611,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="7"/>
-      <c r="B147" s="15"/>
+      <c r="B147" s="18"/>
       <c r="C147" s="7" t="s">
         <v>179</v>
       </c>
@@ -12631,7 +12631,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="7"/>
-      <c r="B148" s="15"/>
+      <c r="B148" s="18"/>
       <c r="C148" s="7" t="s">
         <v>179</v>
       </c>
@@ -12651,7 +12651,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="7"/>
-      <c r="B149" s="15" t="s">
+      <c r="B149" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C149" s="7" t="s">
@@ -12673,7 +12673,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="7"/>
-      <c r="B150" s="15"/>
+      <c r="B150" s="18"/>
       <c r="C150" s="7" t="s">
         <v>272</v>
       </c>
@@ -12693,7 +12693,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="7"/>
-      <c r="B151" s="15"/>
+      <c r="B151" s="18"/>
       <c r="C151" s="7" t="s">
         <v>272</v>
       </c>
@@ -12713,7 +12713,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="7"/>
-      <c r="B152" s="15"/>
+      <c r="B152" s="18"/>
       <c r="C152" s="7" t="s">
         <v>272</v>
       </c>
@@ -12733,7 +12733,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="7"/>
-      <c r="B153" s="15" t="s">
+      <c r="B153" s="18" t="s">
         <v>563</v>
       </c>
       <c r="C153" s="7" t="s">
@@ -12755,7 +12755,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="7"/>
-      <c r="B154" s="15"/>
+      <c r="B154" s="18"/>
       <c r="C154" s="7" t="s">
         <v>280</v>
       </c>
@@ -12775,7 +12775,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="7"/>
-      <c r="B155" s="15"/>
+      <c r="B155" s="18"/>
       <c r="C155" s="7" t="s">
         <v>280</v>
       </c>
@@ -12795,7 +12795,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="7"/>
-      <c r="B156" s="15"/>
+      <c r="B156" s="18"/>
       <c r="C156" s="7" t="s">
         <v>280</v>
       </c>
@@ -12815,7 +12815,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="7"/>
-      <c r="B157" s="15"/>
+      <c r="B157" s="18"/>
       <c r="C157" s="7" t="s">
         <v>280</v>
       </c>
@@ -12835,7 +12835,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="7"/>
-      <c r="B158" s="15"/>
+      <c r="B158" s="18"/>
       <c r="C158" s="7" t="s">
         <v>280</v>
       </c>
@@ -12855,7 +12855,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="7"/>
-      <c r="B159" s="15"/>
+      <c r="B159" s="18"/>
       <c r="C159" s="7" t="s">
         <v>280</v>
       </c>
@@ -12875,7 +12875,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="7"/>
-      <c r="B160" s="15"/>
+      <c r="B160" s="18"/>
       <c r="C160" s="7" t="s">
         <v>280</v>
       </c>
@@ -12895,7 +12895,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="7"/>
-      <c r="B161" s="15"/>
+      <c r="B161" s="18"/>
       <c r="C161" s="7" t="s">
         <v>280</v>
       </c>
@@ -12915,7 +12915,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="7"/>
-      <c r="B162" s="15"/>
+      <c r="B162" s="18"/>
       <c r="C162" s="7" t="s">
         <v>280</v>
       </c>
@@ -12935,7 +12935,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="7"/>
-      <c r="B163" s="15"/>
+      <c r="B163" s="18"/>
       <c r="C163" s="7" t="s">
         <v>280</v>
       </c>
@@ -12955,7 +12955,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="7"/>
-      <c r="B164" s="15"/>
+      <c r="B164" s="18"/>
       <c r="C164" s="7" t="s">
         <v>280</v>
       </c>
@@ -12975,7 +12975,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="7"/>
-      <c r="B165" s="15"/>
+      <c r="B165" s="18"/>
       <c r="C165" s="7" t="s">
         <v>280</v>
       </c>
@@ -12995,7 +12995,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="7"/>
-      <c r="B166" s="15"/>
+      <c r="B166" s="18"/>
       <c r="C166" s="7" t="s">
         <v>280</v>
       </c>
@@ -13015,7 +13015,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="7"/>
-      <c r="B167" s="15"/>
+      <c r="B167" s="18"/>
       <c r="C167" s="7" t="s">
         <v>280</v>
       </c>
@@ -13035,7 +13035,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="7"/>
-      <c r="B168" s="15"/>
+      <c r="B168" s="18"/>
       <c r="C168" s="7" t="s">
         <v>280</v>
       </c>
@@ -13055,7 +13055,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="7"/>
-      <c r="B169" s="15"/>
+      <c r="B169" s="18"/>
       <c r="C169" s="7" t="s">
         <v>280</v>
       </c>
@@ -13075,7 +13075,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="7"/>
-      <c r="B170" s="15"/>
+      <c r="B170" s="18"/>
       <c r="C170" s="7" t="s">
         <v>280</v>
       </c>
@@ -13095,7 +13095,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="7"/>
-      <c r="B171" s="15"/>
+      <c r="B171" s="18"/>
       <c r="C171" s="7" t="s">
         <v>280</v>
       </c>
@@ -13115,7 +13115,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="7"/>
-      <c r="B172" s="15"/>
+      <c r="B172" s="18"/>
       <c r="C172" s="7" t="s">
         <v>280</v>
       </c>
@@ -13135,7 +13135,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="7"/>
-      <c r="B173" s="15"/>
+      <c r="B173" s="18"/>
       <c r="C173" s="7" t="s">
         <v>280</v>
       </c>
@@ -13155,7 +13155,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="7"/>
-      <c r="B174" s="15"/>
+      <c r="B174" s="18"/>
       <c r="C174" s="7" t="s">
         <v>564</v>
       </c>
@@ -13175,7 +13175,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="7"/>
-      <c r="B175" s="15"/>
+      <c r="B175" s="18"/>
       <c r="C175" s="7" t="s">
         <v>280</v>
       </c>
@@ -13195,7 +13195,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="7"/>
-      <c r="B176" s="15"/>
+      <c r="B176" s="18"/>
       <c r="C176" s="7" t="s">
         <v>280</v>
       </c>
@@ -13215,7 +13215,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="7"/>
-      <c r="B177" s="15"/>
+      <c r="B177" s="18"/>
       <c r="C177" s="7" t="s">
         <v>280</v>
       </c>
@@ -13235,7 +13235,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="7"/>
-      <c r="B178" s="15"/>
+      <c r="B178" s="18"/>
       <c r="C178" s="7" t="s">
         <v>280</v>
       </c>
@@ -13255,7 +13255,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="7"/>
-      <c r="B179" s="15"/>
+      <c r="B179" s="18"/>
       <c r="C179" s="7" t="s">
         <v>280</v>
       </c>
@@ -13275,7 +13275,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="7"/>
-      <c r="B180" s="15"/>
+      <c r="B180" s="18"/>
       <c r="C180" s="7" t="s">
         <v>280</v>
       </c>
@@ -13295,7 +13295,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="7"/>
-      <c r="B181" s="15"/>
+      <c r="B181" s="18"/>
       <c r="C181" s="7" t="s">
         <v>280</v>
       </c>
@@ -13315,7 +13315,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="7"/>
-      <c r="B182" s="15"/>
+      <c r="B182" s="18"/>
       <c r="C182" s="7" t="s">
         <v>280</v>
       </c>
@@ -13335,7 +13335,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="7"/>
-      <c r="B183" s="15"/>
+      <c r="B183" s="18"/>
       <c r="C183" s="7" t="s">
         <v>280</v>
       </c>
@@ -13355,7 +13355,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="7"/>
-      <c r="B184" s="15"/>
+      <c r="B184" s="18"/>
       <c r="C184" s="7" t="s">
         <v>280</v>
       </c>
@@ -13375,7 +13375,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="7"/>
-      <c r="B185" s="15"/>
+      <c r="B185" s="18"/>
       <c r="C185" s="7" t="s">
         <v>280</v>
       </c>
@@ -13395,7 +13395,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="7"/>
-      <c r="B186" s="15"/>
+      <c r="B186" s="18"/>
       <c r="C186" s="7" t="s">
         <v>280</v>
       </c>
@@ -13415,7 +13415,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="7"/>
-      <c r="B187" s="15"/>
+      <c r="B187" s="18"/>
       <c r="C187" s="7" t="s">
         <v>280</v>
       </c>
@@ -13435,7 +13435,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="7"/>
-      <c r="B188" s="15"/>
+      <c r="B188" s="18"/>
       <c r="C188" s="7" t="s">
         <v>280</v>
       </c>
@@ -13455,7 +13455,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="7"/>
-      <c r="B189" s="15"/>
+      <c r="B189" s="18"/>
       <c r="C189" s="7" t="s">
         <v>280</v>
       </c>
@@ -13475,7 +13475,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="7"/>
-      <c r="B190" s="15"/>
+      <c r="B190" s="18"/>
       <c r="C190" s="7" t="s">
         <v>280</v>
       </c>
@@ -13495,7 +13495,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="7"/>
-      <c r="B191" s="15"/>
+      <c r="B191" s="18"/>
       <c r="C191" s="7" t="s">
         <v>280</v>
       </c>
@@ -13515,7 +13515,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="7"/>
-      <c r="B192" s="15"/>
+      <c r="B192" s="18"/>
       <c r="C192" s="7" t="s">
         <v>280</v>
       </c>
@@ -13535,7 +13535,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="7"/>
-      <c r="B193" s="15"/>
+      <c r="B193" s="18"/>
       <c r="C193" s="7" t="s">
         <v>280</v>
       </c>
@@ -13555,7 +13555,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="7"/>
-      <c r="B194" s="15"/>
+      <c r="B194" s="18"/>
       <c r="C194" s="7" t="s">
         <v>280</v>
       </c>
@@ -13575,7 +13575,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="7"/>
-      <c r="B195" s="15"/>
+      <c r="B195" s="18"/>
       <c r="C195" s="7" t="s">
         <v>280</v>
       </c>
@@ -13595,7 +13595,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="7"/>
-      <c r="B196" s="15"/>
+      <c r="B196" s="18"/>
       <c r="C196" s="7" t="s">
         <v>280</v>
       </c>
@@ -13615,7 +13615,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="7"/>
-      <c r="B197" s="15"/>
+      <c r="B197" s="18"/>
       <c r="C197" s="7" t="s">
         <v>280</v>
       </c>
@@ -13635,7 +13635,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="7"/>
-      <c r="B198" s="15"/>
+      <c r="B198" s="18"/>
       <c r="C198" s="7" t="s">
         <v>280</v>
       </c>
@@ -13655,7 +13655,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="7"/>
-      <c r="B199" s="15"/>
+      <c r="B199" s="18"/>
       <c r="C199" s="7" t="s">
         <v>280</v>
       </c>
@@ -13675,7 +13675,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="7"/>
-      <c r="B200" s="15"/>
+      <c r="B200" s="18"/>
       <c r="C200" s="7" t="s">
         <v>280</v>
       </c>
@@ -13695,7 +13695,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="7"/>
-      <c r="B201" s="15"/>
+      <c r="B201" s="18"/>
       <c r="C201" s="7" t="s">
         <v>280</v>
       </c>
@@ -13715,7 +13715,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="7"/>
-      <c r="B202" s="15"/>
+      <c r="B202" s="18"/>
       <c r="C202" s="7" t="s">
         <v>280</v>
       </c>
@@ -13735,7 +13735,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="7"/>
-      <c r="B203" s="15"/>
+      <c r="B203" s="18"/>
       <c r="C203" s="7" t="s">
         <v>280</v>
       </c>
@@ -13755,7 +13755,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="7"/>
-      <c r="B204" s="15"/>
+      <c r="B204" s="18"/>
       <c r="C204" s="7" t="s">
         <v>280</v>
       </c>
@@ -13775,7 +13775,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="7"/>
-      <c r="B205" s="15"/>
+      <c r="B205" s="18"/>
       <c r="C205" s="7" t="s">
         <v>280</v>
       </c>
@@ -13795,7 +13795,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="7"/>
-      <c r="B206" s="15"/>
+      <c r="B206" s="18"/>
       <c r="C206" s="7" t="s">
         <v>280</v>
       </c>
@@ -13815,7 +13815,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="7"/>
-      <c r="B207" s="15"/>
+      <c r="B207" s="18"/>
       <c r="C207" s="7" t="s">
         <v>280</v>
       </c>
@@ -13835,7 +13835,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="7"/>
-      <c r="B208" s="15"/>
+      <c r="B208" s="18"/>
       <c r="C208" s="7" t="s">
         <v>280</v>
       </c>
@@ -13855,7 +13855,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="7"/>
-      <c r="B209" s="15"/>
+      <c r="B209" s="18"/>
       <c r="C209" s="7" t="s">
         <v>280</v>
       </c>
@@ -13875,7 +13875,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="7"/>
-      <c r="B210" s="15"/>
+      <c r="B210" s="18"/>
       <c r="C210" s="7" t="s">
         <v>280</v>
       </c>
@@ -13895,7 +13895,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="7"/>
-      <c r="B211" s="15"/>
+      <c r="B211" s="18"/>
       <c r="C211" s="7" t="s">
         <v>280</v>
       </c>
@@ -13915,7 +13915,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="7"/>
-      <c r="B212" s="15"/>
+      <c r="B212" s="18"/>
       <c r="C212" s="7" t="s">
         <v>280</v>
       </c>
@@ -13935,7 +13935,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="7"/>
-      <c r="B213" s="15"/>
+      <c r="B213" s="18"/>
       <c r="C213" s="7" t="s">
         <v>280</v>
       </c>
@@ -13955,7 +13955,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="7"/>
-      <c r="B214" s="15"/>
+      <c r="B214" s="18"/>
       <c r="C214" s="7" t="s">
         <v>280</v>
       </c>
@@ -13975,7 +13975,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="7"/>
-      <c r="B215" s="15"/>
+      <c r="B215" s="18"/>
       <c r="C215" s="7" t="s">
         <v>280</v>
       </c>
@@ -13995,7 +13995,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="7"/>
-      <c r="B216" s="15"/>
+      <c r="B216" s="18"/>
       <c r="C216" s="7" t="s">
         <v>280</v>
       </c>
@@ -14015,7 +14015,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="7"/>
-      <c r="B217" s="15"/>
+      <c r="B217" s="18"/>
       <c r="C217" s="7" t="s">
         <v>280</v>
       </c>
@@ -14035,7 +14035,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="7"/>
-      <c r="B218" s="15"/>
+      <c r="B218" s="18"/>
       <c r="C218" s="7" t="s">
         <v>280</v>
       </c>
@@ -14055,7 +14055,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="7"/>
-      <c r="B219" s="15"/>
+      <c r="B219" s="18"/>
       <c r="C219" s="7" t="s">
         <v>280</v>
       </c>
@@ -14075,7 +14075,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="7"/>
-      <c r="B220" s="15"/>
+      <c r="B220" s="18"/>
       <c r="C220" s="7" t="s">
         <v>280</v>
       </c>
@@ -14237,7 +14237,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="7"/>
-      <c r="B228" s="15" t="s">
+      <c r="B228" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C228" s="7" t="s">
@@ -14259,7 +14259,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="7"/>
-      <c r="B229" s="15"/>
+      <c r="B229" s="18"/>
       <c r="C229" s="7" t="s">
         <v>430</v>
       </c>
@@ -14279,7 +14279,7 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="7"/>
-      <c r="B230" s="15"/>
+      <c r="B230" s="18"/>
       <c r="C230" s="7" t="s">
         <v>430</v>
       </c>
@@ -14299,7 +14299,7 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="7"/>
-      <c r="B231" s="15"/>
+      <c r="B231" s="18"/>
       <c r="C231" s="7" t="s">
         <v>430</v>
       </c>
@@ -14319,7 +14319,7 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="7"/>
-      <c r="B232" s="15"/>
+      <c r="B232" s="18"/>
       <c r="C232" s="7" t="s">
         <v>430</v>
       </c>
@@ -14339,7 +14339,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="7"/>
-      <c r="B233" s="15"/>
+      <c r="B233" s="18"/>
       <c r="C233" s="7" t="s">
         <v>430</v>
       </c>
@@ -14359,7 +14359,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="7"/>
-      <c r="B234" s="15"/>
+      <c r="B234" s="18"/>
       <c r="C234" s="7" t="s">
         <v>430</v>
       </c>
@@ -14379,7 +14379,7 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="7"/>
-      <c r="B235" s="15"/>
+      <c r="B235" s="18"/>
       <c r="C235" s="7" t="s">
         <v>430</v>
       </c>
@@ -14399,7 +14399,7 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="7"/>
-      <c r="B236" s="15"/>
+      <c r="B236" s="18"/>
       <c r="C236" s="7" t="s">
         <v>566</v>
       </c>
@@ -14419,7 +14419,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="7"/>
-      <c r="B237" s="15"/>
+      <c r="B237" s="18"/>
       <c r="C237" s="7" t="s">
         <v>430</v>
       </c>
@@ -14439,7 +14439,7 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="7"/>
-      <c r="B238" s="15"/>
+      <c r="B238" s="18"/>
       <c r="C238" s="7" t="s">
         <v>430</v>
       </c>
@@ -14459,7 +14459,7 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="7"/>
-      <c r="B239" s="15"/>
+      <c r="B239" s="18"/>
       <c r="C239" s="7" t="s">
         <v>430</v>
       </c>
@@ -14479,7 +14479,7 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="7"/>
-      <c r="B240" s="15"/>
+      <c r="B240" s="18"/>
       <c r="C240" s="7" t="s">
         <v>430</v>
       </c>
@@ -14499,7 +14499,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="7"/>
-      <c r="B241" s="15"/>
+      <c r="B241" s="18"/>
       <c r="C241" s="7" t="s">
         <v>430</v>
       </c>
@@ -14519,7 +14519,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="7"/>
-      <c r="B242" s="15"/>
+      <c r="B242" s="18"/>
       <c r="C242" s="7" t="s">
         <v>430</v>
       </c>
@@ -14539,7 +14539,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="7"/>
-      <c r="B243" s="15"/>
+      <c r="B243" s="18"/>
       <c r="C243" s="7" t="s">
         <v>430</v>
       </c>
@@ -14559,7 +14559,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="7"/>
-      <c r="B244" s="15"/>
+      <c r="B244" s="18"/>
       <c r="C244" s="7" t="s">
         <v>430</v>
       </c>
@@ -14579,7 +14579,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="7"/>
-      <c r="B245" s="15"/>
+      <c r="B245" s="18"/>
       <c r="C245" s="7" t="s">
         <v>430</v>
       </c>
@@ -14599,7 +14599,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="7"/>
-      <c r="B246" s="15"/>
+      <c r="B246" s="18"/>
       <c r="C246" s="7" t="s">
         <v>430</v>
       </c>
@@ -14619,7 +14619,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="7"/>
-      <c r="B247" s="15"/>
+      <c r="B247" s="18"/>
       <c r="C247" s="7" t="s">
         <v>430</v>
       </c>
@@ -14639,7 +14639,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="7"/>
-      <c r="B248" s="15"/>
+      <c r="B248" s="18"/>
       <c r="C248" s="7" t="s">
         <v>430</v>
       </c>
@@ -14659,7 +14659,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="7"/>
-      <c r="B249" s="15"/>
+      <c r="B249" s="18"/>
       <c r="C249" s="7" t="s">
         <v>430</v>
       </c>
@@ -14679,7 +14679,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="7"/>
-      <c r="B250" s="15"/>
+      <c r="B250" s="18"/>
       <c r="C250" s="7" t="s">
         <v>430</v>
       </c>
@@ -14699,7 +14699,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="7"/>
-      <c r="B251" s="15"/>
+      <c r="B251" s="18"/>
       <c r="C251" s="7" t="s">
         <v>430</v>
       </c>
@@ -14719,7 +14719,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="7"/>
-      <c r="B252" s="15"/>
+      <c r="B252" s="18"/>
       <c r="C252" s="7" t="s">
         <v>430</v>
       </c>
@@ -14739,7 +14739,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="7"/>
-      <c r="B253" s="15"/>
+      <c r="B253" s="18"/>
       <c r="C253" s="7" t="s">
         <v>430</v>
       </c>
@@ -14759,7 +14759,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="7"/>
-      <c r="B254" s="15"/>
+      <c r="B254" s="18"/>
       <c r="C254" s="7" t="s">
         <v>430</v>
       </c>
@@ -14779,7 +14779,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="7"/>
-      <c r="B255" s="15"/>
+      <c r="B255" s="18"/>
       <c r="C255" s="7" t="s">
         <v>430</v>
       </c>
@@ -14799,7 +14799,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="7"/>
-      <c r="B256" s="15"/>
+      <c r="B256" s="18"/>
       <c r="C256" s="7" t="s">
         <v>430</v>
       </c>
@@ -14819,7 +14819,7 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="7"/>
-      <c r="B257" s="15"/>
+      <c r="B257" s="18"/>
       <c r="C257" s="7" t="s">
         <v>430</v>
       </c>
@@ -14839,7 +14839,7 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="7"/>
-      <c r="B258" s="15"/>
+      <c r="B258" s="18"/>
       <c r="C258" s="7" t="s">
         <v>430</v>
       </c>
@@ -14859,7 +14859,7 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="7"/>
-      <c r="B259" s="15"/>
+      <c r="B259" s="18"/>
       <c r="C259" s="7" t="s">
         <v>430</v>
       </c>
@@ -14979,7 +14979,7 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="7"/>
-      <c r="B265" s="15" t="s">
+      <c r="B265" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C265" s="7" t="s">
@@ -15000,7 +15000,7 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="7"/>
-      <c r="B266" s="15"/>
+      <c r="B266" s="18"/>
       <c r="C266" s="7" t="s">
         <v>504</v>
       </c>
@@ -15019,7 +15019,7 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="7"/>
-      <c r="B267" s="15"/>
+      <c r="B267" s="18"/>
       <c r="C267" s="7" t="s">
         <v>504</v>
       </c>
@@ -15038,7 +15038,7 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="7"/>
-      <c r="B268" s="15"/>
+      <c r="B268" s="18"/>
       <c r="C268" s="7" t="s">
         <v>504</v>
       </c>
@@ -15057,7 +15057,7 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="7"/>
-      <c r="B269" s="15"/>
+      <c r="B269" s="18"/>
       <c r="C269" s="7" t="s">
         <v>504</v>
       </c>
@@ -15076,7 +15076,7 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="7"/>
-      <c r="B270" s="15" t="s">
+      <c r="B270" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C270" s="7" t="s">
@@ -15097,7 +15097,7 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="7"/>
-      <c r="B271" s="15"/>
+      <c r="B271" s="18"/>
       <c r="C271" s="7" t="s">
         <v>513</v>
       </c>
@@ -15116,7 +15116,7 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="7"/>
-      <c r="B272" s="15"/>
+      <c r="B272" s="18"/>
       <c r="C272" s="7" t="s">
         <v>513</v>
       </c>
@@ -15135,7 +15135,7 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="7"/>
-      <c r="B273" s="15"/>
+      <c r="B273" s="18"/>
       <c r="C273" s="7" t="s">
         <v>513</v>
       </c>
@@ -15154,7 +15154,7 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="7"/>
-      <c r="B274" s="15"/>
+      <c r="B274" s="18"/>
       <c r="C274" s="7" t="s">
         <v>513</v>
       </c>
@@ -15173,7 +15173,7 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="7"/>
-      <c r="B275" s="15"/>
+      <c r="B275" s="18"/>
       <c r="C275" s="7" t="s">
         <v>513</v>
       </c>
@@ -15192,7 +15192,7 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="7"/>
-      <c r="B276" s="15" t="s">
+      <c r="B276" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C276" s="7" t="s">
@@ -15213,7 +15213,7 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="7"/>
-      <c r="B277" s="15"/>
+      <c r="B277" s="18"/>
       <c r="C277" s="7" t="s">
         <v>526</v>
       </c>
@@ -15232,7 +15232,7 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="7"/>
-      <c r="B278" s="15"/>
+      <c r="B278" s="18"/>
       <c r="C278" s="7" t="s">
         <v>526</v>
       </c>
@@ -15251,7 +15251,7 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="7"/>
-      <c r="B279" s="15"/>
+      <c r="B279" s="18"/>
       <c r="C279" s="7" t="s">
         <v>526</v>
       </c>
@@ -15270,7 +15270,7 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="7"/>
-      <c r="B280" s="15"/>
+      <c r="B280" s="18"/>
       <c r="C280" s="7" t="s">
         <v>526</v>
       </c>
@@ -15904,6 +15904,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B149:B152"/>
+    <mergeCell ref="B2:B44"/>
+    <mergeCell ref="B45:B51"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="B52:B76"/>
+    <mergeCell ref="B104:B148"/>
+    <mergeCell ref="B77:B99"/>
     <mergeCell ref="B276:B280"/>
     <mergeCell ref="B153:B220"/>
     <mergeCell ref="B221:B227"/>
@@ -15911,13 +15918,6 @@
     <mergeCell ref="B260:B264"/>
     <mergeCell ref="B265:B269"/>
     <mergeCell ref="B270:B275"/>
-    <mergeCell ref="B149:B152"/>
-    <mergeCell ref="B2:B44"/>
-    <mergeCell ref="B45:B51"/>
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="B52:B76"/>
-    <mergeCell ref="B104:B148"/>
-    <mergeCell ref="B77:B99"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15972,7 +15972,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="20" t="s">
         <v>567</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -15994,7 +15994,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
-      <c r="B3" s="15"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="10" t="s">
         <v>568</v>
       </c>
@@ -16014,7 +16014,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
-      <c r="B4" s="15"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="10" t="s">
         <v>568</v>
       </c>
@@ -16034,7 +16034,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
-      <c r="B5" s="15"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="10" t="s">
         <v>568</v>
       </c>
@@ -16054,7 +16054,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
-      <c r="B6" s="15"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="10" t="s">
         <v>568</v>
       </c>
@@ -16074,7 +16074,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
-      <c r="B7" s="15"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="10" t="s">
         <v>568</v>
       </c>
@@ -16094,7 +16094,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
-      <c r="B8" s="15"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="10" t="s">
         <v>568</v>
       </c>
@@ -16114,7 +16114,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
-      <c r="B9" s="15"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="10" t="s">
         <v>568</v>
       </c>
@@ -16425,7 +16425,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="18" t="s">
         <v>567</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -16446,7 +16446,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
-      <c r="B25" s="15"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="10" t="s">
         <v>615</v>
       </c>
@@ -16465,7 +16465,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
-      <c r="B26" s="15"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="10" t="s">
         <v>615</v>
       </c>
@@ -16484,7 +16484,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
-      <c r="B27" s="15"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="10" t="s">
         <v>615</v>
       </c>
@@ -16503,7 +16503,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
-      <c r="B28" s="15"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="10" t="s">
         <v>1035</v>
       </c>
@@ -16522,7 +16522,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
-      <c r="B29" s="15"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="10" t="s">
         <v>615</v>
       </c>
@@ -16541,7 +16541,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
-      <c r="B30" s="15"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="10" t="s">
         <v>615</v>
       </c>
@@ -16560,7 +16560,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="18" t="s">
         <v>1036</v>
       </c>
       <c r="C31" s="10" t="s">
@@ -16581,7 +16581,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
-      <c r="B32" s="15"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="10" t="s">
         <v>630</v>
       </c>
@@ -16600,7 +16600,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
-      <c r="B33" s="15"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="10" t="s">
         <v>630</v>
       </c>
@@ -16619,7 +16619,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
-      <c r="B34" s="15"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="10" t="s">
         <v>1037</v>
       </c>
@@ -16638,7 +16638,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
-      <c r="B35" s="15"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="10" t="s">
         <v>630</v>
       </c>
@@ -16657,7 +16657,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
-      <c r="B36" s="15"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="10" t="s">
         <v>630</v>
       </c>
@@ -16676,7 +16676,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
-      <c r="B37" s="15"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="10" t="s">
         <v>630</v>
       </c>
@@ -16695,7 +16695,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="18" t="s">
         <v>567</v>
       </c>
       <c r="C38" s="10" t="s">
@@ -16716,7 +16716,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
-      <c r="B39" s="15"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="10" t="s">
         <v>645</v>
       </c>
@@ -16735,7 +16735,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
-      <c r="B40" s="15"/>
+      <c r="B40" s="18"/>
       <c r="C40" s="10" t="s">
         <v>645</v>
       </c>
@@ -16754,7 +16754,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
-      <c r="B41" s="15"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="10" t="s">
         <v>645</v>
       </c>
@@ -16773,7 +16773,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="18" t="s">
         <v>567</v>
       </c>
       <c r="C42" s="10" t="s">
@@ -16794,7 +16794,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
-      <c r="B43" s="15"/>
+      <c r="B43" s="18"/>
       <c r="C43" s="10" t="s">
         <v>654</v>
       </c>
@@ -16813,7 +16813,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
-      <c r="B44" s="15"/>
+      <c r="B44" s="18"/>
       <c r="C44" s="10" t="s">
         <v>654</v>
       </c>
@@ -16832,7 +16832,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
-      <c r="B45" s="15"/>
+      <c r="B45" s="18"/>
       <c r="C45" s="10" t="s">
         <v>1038</v>
       </c>
@@ -16851,7 +16851,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
-      <c r="B46" s="15"/>
+      <c r="B46" s="18"/>
       <c r="C46" s="10" t="s">
         <v>654</v>
       </c>
@@ -16870,7 +16870,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
-      <c r="B47" s="15"/>
+      <c r="B47" s="18"/>
       <c r="C47" s="10" t="s">
         <v>654</v>
       </c>
@@ -16889,7 +16889,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
-      <c r="B48" s="15"/>
+      <c r="B48" s="18"/>
       <c r="C48" s="10" t="s">
         <v>654</v>
       </c>
@@ -16908,7 +16908,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
-      <c r="B49" s="15"/>
+      <c r="B49" s="18"/>
       <c r="C49" s="10" t="s">
         <v>654</v>
       </c>
@@ -16927,7 +16927,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
-      <c r="B50" s="15"/>
+      <c r="B50" s="18"/>
       <c r="C50" s="10" t="s">
         <v>654</v>
       </c>
@@ -16946,7 +16946,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
-      <c r="B51" s="15"/>
+      <c r="B51" s="18"/>
       <c r="C51" s="10" t="s">
         <v>654</v>
       </c>
@@ -16965,7 +16965,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
-      <c r="B52" s="15"/>
+      <c r="B52" s="18"/>
       <c r="C52" s="10" t="s">
         <v>654</v>
       </c>
@@ -16984,7 +16984,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="18" t="s">
         <v>567</v>
       </c>
       <c r="C53" s="10" t="s">
@@ -17005,7 +17005,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
-      <c r="B54" s="15"/>
+      <c r="B54" s="18"/>
       <c r="C54" s="10" t="s">
         <v>676</v>
       </c>
@@ -17024,7 +17024,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
-      <c r="B55" s="15"/>
+      <c r="B55" s="18"/>
       <c r="C55" s="10" t="s">
         <v>1039</v>
       </c>
@@ -17043,7 +17043,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
-      <c r="B56" s="15"/>
+      <c r="B56" s="18"/>
       <c r="C56" s="10" t="s">
         <v>676</v>
       </c>
@@ -17062,7 +17062,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="18" t="s">
         <v>567</v>
       </c>
       <c r="C57" s="10" t="s">
@@ -17083,7 +17083,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
-      <c r="B58" s="15"/>
+      <c r="B58" s="18"/>
       <c r="C58" s="10" t="s">
         <v>684</v>
       </c>
@@ -17102,7 +17102,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
-      <c r="B59" s="15"/>
+      <c r="B59" s="18"/>
       <c r="C59" s="10" t="s">
         <v>684</v>
       </c>
@@ -17121,7 +17121,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
-      <c r="B60" s="15"/>
+      <c r="B60" s="18"/>
       <c r="C60" s="10" t="s">
         <v>684</v>
       </c>
@@ -17140,7 +17140,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="10"/>
-      <c r="B61" s="15"/>
+      <c r="B61" s="18"/>
       <c r="C61" s="10" t="s">
         <v>684</v>
       </c>
@@ -17159,7 +17159,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="10"/>
-      <c r="B62" s="15"/>
+      <c r="B62" s="18"/>
       <c r="C62" s="10" t="s">
         <v>684</v>
       </c>
@@ -17178,7 +17178,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
-      <c r="B63" s="15"/>
+      <c r="B63" s="18"/>
       <c r="C63" s="10" t="s">
         <v>684</v>
       </c>
@@ -17197,7 +17197,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="10"/>
-      <c r="B64" s="15"/>
+      <c r="B64" s="18"/>
       <c r="C64" s="10" t="s">
         <v>684</v>
       </c>
@@ -17216,7 +17216,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="10"/>
-      <c r="B65" s="15"/>
+      <c r="B65" s="18"/>
       <c r="C65" s="10" t="s">
         <v>684</v>
       </c>
@@ -17235,7 +17235,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="10"/>
-      <c r="B66" s="15"/>
+      <c r="B66" s="18"/>
       <c r="C66" s="10" t="s">
         <v>684</v>
       </c>
@@ -17254,7 +17254,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="10"/>
-      <c r="B67" s="15"/>
+      <c r="B67" s="18"/>
       <c r="C67" s="10" t="s">
         <v>684</v>
       </c>
@@ -17273,7 +17273,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="10"/>
-      <c r="B68" s="15"/>
+      <c r="B68" s="18"/>
       <c r="C68" s="10" t="s">
         <v>684</v>
       </c>
@@ -17292,7 +17292,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
-      <c r="B69" s="15"/>
+      <c r="B69" s="18"/>
       <c r="C69" s="10" t="s">
         <v>1040</v>
       </c>
@@ -17311,7 +17311,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="10"/>
-      <c r="B70" s="15"/>
+      <c r="B70" s="18"/>
       <c r="C70" s="10" t="s">
         <v>684</v>
       </c>
@@ -17330,7 +17330,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="10"/>
-      <c r="B71" s="15"/>
+      <c r="B71" s="18"/>
       <c r="C71" s="10" t="s">
         <v>684</v>
       </c>
@@ -17349,7 +17349,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="10"/>
-      <c r="B72" s="15"/>
+      <c r="B72" s="18"/>
       <c r="C72" s="10" t="s">
         <v>684</v>
       </c>
@@ -17368,7 +17368,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="10"/>
-      <c r="B73" s="15"/>
+      <c r="B73" s="18"/>
       <c r="C73" s="10" t="s">
         <v>684</v>
       </c>
@@ -17387,7 +17387,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="10"/>
-      <c r="B74" s="15"/>
+      <c r="B74" s="18"/>
       <c r="C74" s="10" t="s">
         <v>684</v>
       </c>
@@ -17406,7 +17406,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="10"/>
-      <c r="B75" s="15"/>
+      <c r="B75" s="18"/>
       <c r="C75" s="10" t="s">
         <v>684</v>
       </c>
@@ -17425,7 +17425,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="10"/>
-      <c r="B76" s="15"/>
+      <c r="B76" s="18"/>
       <c r="C76" s="10" t="s">
         <v>684</v>
       </c>
@@ -17444,7 +17444,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="10"/>
-      <c r="B77" s="15"/>
+      <c r="B77" s="18"/>
       <c r="C77" s="10" t="s">
         <v>684</v>
       </c>
@@ -17463,7 +17463,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="10"/>
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="18" t="s">
         <v>567</v>
       </c>
       <c r="C78" s="10" t="s">
@@ -17487,7 +17487,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="10"/>
-      <c r="B79" s="15"/>
+      <c r="B79" s="18"/>
       <c r="C79" s="10" t="s">
         <v>727</v>
       </c>
@@ -17509,7 +17509,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="10"/>
-      <c r="B80" s="15"/>
+      <c r="B80" s="18"/>
       <c r="C80" s="10" t="s">
         <v>727</v>
       </c>
@@ -17531,7 +17531,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="10"/>
-      <c r="B81" s="15"/>
+      <c r="B81" s="18"/>
       <c r="C81" s="10" t="s">
         <v>727</v>
       </c>
@@ -17553,7 +17553,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="10"/>
-      <c r="B82" s="15"/>
+      <c r="B82" s="18"/>
       <c r="C82" s="10" t="s">
         <v>727</v>
       </c>
@@ -17575,7 +17575,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="10"/>
-      <c r="B83" s="15"/>
+      <c r="B83" s="18"/>
       <c r="C83" s="10" t="s">
         <v>727</v>
       </c>
@@ -17597,7 +17597,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="10"/>
-      <c r="B84" s="15"/>
+      <c r="B84" s="18"/>
       <c r="C84" s="10" t="s">
         <v>1041</v>
       </c>
@@ -17619,7 +17619,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="10"/>
-      <c r="B85" s="15"/>
+      <c r="B85" s="18"/>
       <c r="C85" s="10" t="s">
         <v>727</v>
       </c>
@@ -17641,7 +17641,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="10"/>
-      <c r="B86" s="15"/>
+      <c r="B86" s="18"/>
       <c r="C86" s="10" t="s">
         <v>727</v>
       </c>
@@ -17663,7 +17663,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="10"/>
-      <c r="B87" s="15"/>
+      <c r="B87" s="18"/>
       <c r="C87" s="10" t="s">
         <v>727</v>
       </c>
@@ -17685,7 +17685,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="10"/>
-      <c r="B88" s="15"/>
+      <c r="B88" s="18"/>
       <c r="C88" s="10" t="s">
         <v>727</v>
       </c>
@@ -17707,7 +17707,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="10"/>
-      <c r="B89" s="15"/>
+      <c r="B89" s="18"/>
       <c r="C89" s="10" t="s">
         <v>727</v>
       </c>
@@ -17729,7 +17729,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="10"/>
-      <c r="B90" s="15"/>
+      <c r="B90" s="18"/>
       <c r="C90" s="10" t="s">
         <v>727</v>
       </c>
@@ -17751,7 +17751,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="10"/>
-      <c r="B91" s="15"/>
+      <c r="B91" s="18"/>
       <c r="C91" s="10" t="s">
         <v>727</v>
       </c>
@@ -17773,7 +17773,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="10"/>
-      <c r="B92" s="15"/>
+      <c r="B92" s="18"/>
       <c r="C92" s="10" t="s">
         <v>727</v>
       </c>
@@ -17795,7 +17795,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="10"/>
-      <c r="B93" s="15"/>
+      <c r="B93" s="18"/>
       <c r="C93" s="10" t="s">
         <v>727</v>
       </c>
@@ -17817,7 +17817,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="10"/>
-      <c r="B94" s="15"/>
+      <c r="B94" s="18"/>
       <c r="C94" s="10" t="s">
         <v>727</v>
       </c>
@@ -18839,7 +18839,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="10"/>
-      <c r="B146" s="15" t="s">
+      <c r="B146" s="18" t="s">
         <v>1036</v>
       </c>
       <c r="C146" s="10" t="s">
@@ -18861,7 +18861,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="10"/>
-      <c r="B147" s="15"/>
+      <c r="B147" s="18"/>
       <c r="C147" s="10" t="s">
         <v>853</v>
       </c>
@@ -18881,7 +18881,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="10"/>
-      <c r="B148" s="15"/>
+      <c r="B148" s="18"/>
       <c r="C148" s="10" t="s">
         <v>853</v>
       </c>
@@ -18901,7 +18901,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="10"/>
-      <c r="B149" s="15"/>
+      <c r="B149" s="18"/>
       <c r="C149" s="10" t="s">
         <v>853</v>
       </c>
@@ -18921,7 +18921,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="10"/>
-      <c r="B150" s="15"/>
+      <c r="B150" s="18"/>
       <c r="C150" s="10" t="s">
         <v>1045</v>
       </c>
@@ -18941,7 +18941,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="10"/>
-      <c r="B151" s="15"/>
+      <c r="B151" s="18"/>
       <c r="C151" s="10" t="s">
         <v>853</v>
       </c>
@@ -18961,7 +18961,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="10"/>
-      <c r="B152" s="15"/>
+      <c r="B152" s="18"/>
       <c r="C152" s="10" t="s">
         <v>853</v>
       </c>
@@ -18981,7 +18981,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="10"/>
-      <c r="B153" s="15"/>
+      <c r="B153" s="18"/>
       <c r="C153" s="10" t="s">
         <v>853</v>
       </c>
@@ -19001,7 +19001,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="10"/>
-      <c r="B154" s="15"/>
+      <c r="B154" s="18"/>
       <c r="C154" s="10" t="s">
         <v>853</v>
       </c>
@@ -19021,7 +19021,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="10"/>
-      <c r="B155" s="15"/>
+      <c r="B155" s="18"/>
       <c r="C155" s="10" t="s">
         <v>853</v>
       </c>
@@ -19041,7 +19041,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="10"/>
-      <c r="B156" s="15" t="s">
+      <c r="B156" s="18" t="s">
         <v>567</v>
       </c>
       <c r="C156" s="10" t="s">
@@ -19063,7 +19063,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="10"/>
-      <c r="B157" s="15"/>
+      <c r="B157" s="18"/>
       <c r="C157" s="10" t="s">
         <v>874</v>
       </c>
@@ -19083,7 +19083,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="10"/>
-      <c r="B158" s="15"/>
+      <c r="B158" s="18"/>
       <c r="C158" s="10" t="s">
         <v>874</v>
       </c>
@@ -19103,7 +19103,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="10"/>
-      <c r="B159" s="15"/>
+      <c r="B159" s="18"/>
       <c r="C159" s="10" t="s">
         <v>1046</v>
       </c>
@@ -19123,7 +19123,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="10"/>
-      <c r="B160" s="15"/>
+      <c r="B160" s="18"/>
       <c r="C160" s="10" t="s">
         <v>874</v>
       </c>
@@ -19143,7 +19143,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="10"/>
-      <c r="B161" s="15"/>
+      <c r="B161" s="18"/>
       <c r="C161" s="10" t="s">
         <v>874</v>
       </c>
@@ -19162,7 +19162,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="10"/>
-      <c r="B162" s="15"/>
+      <c r="B162" s="18"/>
       <c r="C162" s="10" t="s">
         <v>874</v>
       </c>
@@ -19181,7 +19181,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="10"/>
-      <c r="B163" s="15"/>
+      <c r="B163" s="18"/>
       <c r="C163" s="10" t="s">
         <v>874</v>
       </c>
@@ -19200,7 +19200,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="10"/>
-      <c r="B164" s="15"/>
+      <c r="B164" s="18"/>
       <c r="C164" s="10" t="s">
         <v>874</v>
       </c>
@@ -19219,7 +19219,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="10"/>
-      <c r="B165" s="15"/>
+      <c r="B165" s="18"/>
       <c r="C165" s="10" t="s">
         <v>874</v>
       </c>
@@ -19238,7 +19238,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="10"/>
-      <c r="B166" s="15"/>
+      <c r="B166" s="18"/>
       <c r="C166" s="10" t="s">
         <v>874</v>
       </c>
@@ -19257,7 +19257,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="10"/>
-      <c r="B167" s="15"/>
+      <c r="B167" s="18"/>
       <c r="C167" s="10" t="s">
         <v>874</v>
       </c>
@@ -19276,7 +19276,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="10"/>
-      <c r="B168" s="15"/>
+      <c r="B168" s="18"/>
       <c r="C168" s="10" t="s">
         <v>874</v>
       </c>
@@ -19295,7 +19295,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="10"/>
-      <c r="B169" s="15"/>
+      <c r="B169" s="18"/>
       <c r="C169" s="10" t="s">
         <v>874</v>
       </c>
@@ -19314,7 +19314,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="10"/>
-      <c r="B170" s="15"/>
+      <c r="B170" s="18"/>
       <c r="C170" s="10" t="s">
         <v>874</v>
       </c>
@@ -19333,7 +19333,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="10"/>
-      <c r="B171" s="15"/>
+      <c r="B171" s="18"/>
       <c r="C171" s="10" t="s">
         <v>874</v>
       </c>
@@ -19352,7 +19352,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="10"/>
-      <c r="B172" s="15"/>
+      <c r="B172" s="18"/>
       <c r="C172" s="10" t="s">
         <v>874</v>
       </c>
@@ -19371,7 +19371,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="10"/>
-      <c r="B173" s="15"/>
+      <c r="B173" s="18"/>
       <c r="C173" s="10" t="s">
         <v>874</v>
       </c>
@@ -19391,7 +19391,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="10"/>
-      <c r="B174" s="15"/>
+      <c r="B174" s="18"/>
       <c r="C174" s="10" t="s">
         <v>874</v>
       </c>
@@ -19410,7 +19410,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="10"/>
-      <c r="B175" s="15"/>
+      <c r="B175" s="18"/>
       <c r="C175" s="10" t="s">
         <v>874</v>
       </c>
@@ -19429,7 +19429,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="10"/>
-      <c r="B176" s="15"/>
+      <c r="B176" s="18"/>
       <c r="C176" s="10" t="s">
         <v>874</v>
       </c>
@@ -19448,7 +19448,7 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="10"/>
-      <c r="B177" s="15" t="s">
+      <c r="B177" s="18" t="s">
         <v>1036</v>
       </c>
       <c r="C177" s="10" t="s">
@@ -19469,7 +19469,7 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="10"/>
-      <c r="B178" s="15"/>
+      <c r="B178" s="18"/>
       <c r="C178" s="10" t="s">
         <v>917</v>
       </c>
@@ -19488,7 +19488,7 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="10"/>
-      <c r="B179" s="15"/>
+      <c r="B179" s="18"/>
       <c r="C179" s="10" t="s">
         <v>917</v>
       </c>
@@ -19507,7 +19507,7 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="10"/>
-      <c r="B180" s="15"/>
+      <c r="B180" s="18"/>
       <c r="C180" s="10" t="s">
         <v>1047</v>
       </c>
@@ -19526,7 +19526,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="10"/>
-      <c r="B181" s="15"/>
+      <c r="B181" s="18"/>
       <c r="C181" s="10" t="s">
         <v>917</v>
       </c>
@@ -19545,7 +19545,7 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="10"/>
-      <c r="B182" s="15"/>
+      <c r="B182" s="18"/>
       <c r="C182" s="10" t="s">
         <v>917</v>
       </c>
@@ -19564,7 +19564,7 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="10"/>
-      <c r="B183" s="15"/>
+      <c r="B183" s="18"/>
       <c r="C183" s="10" t="s">
         <v>917</v>
       </c>
@@ -19583,7 +19583,7 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="10"/>
-      <c r="B184" s="15"/>
+      <c r="B184" s="18"/>
       <c r="C184" s="10" t="s">
         <v>917</v>
       </c>
@@ -19602,7 +19602,7 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="10"/>
-      <c r="B185" s="15"/>
+      <c r="B185" s="18"/>
       <c r="C185" s="10" t="s">
         <v>917</v>
       </c>
@@ -19621,7 +19621,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="10"/>
-      <c r="B186" s="15" t="s">
+      <c r="B186" s="18" t="s">
         <v>567</v>
       </c>
       <c r="C186" s="10" t="s">
@@ -19642,7 +19642,7 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="10"/>
-      <c r="B187" s="15"/>
+      <c r="B187" s="18"/>
       <c r="C187" s="10" t="s">
         <v>936</v>
       </c>
@@ -19661,7 +19661,7 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="10"/>
-      <c r="B188" s="15"/>
+      <c r="B188" s="18"/>
       <c r="C188" s="10" t="s">
         <v>936</v>
       </c>
@@ -19680,7 +19680,7 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="10"/>
-      <c r="B189" s="15"/>
+      <c r="B189" s="18"/>
       <c r="C189" s="10" t="s">
         <v>936</v>
       </c>
@@ -19699,7 +19699,7 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="10"/>
-      <c r="B190" s="15"/>
+      <c r="B190" s="18"/>
       <c r="C190" s="10" t="s">
         <v>936</v>
       </c>
@@ -19718,7 +19718,7 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="10"/>
-      <c r="B191" s="15"/>
+      <c r="B191" s="18"/>
       <c r="C191" s="10" t="s">
         <v>936</v>
       </c>
@@ -19737,7 +19737,7 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="10"/>
-      <c r="B192" s="15"/>
+      <c r="B192" s="18"/>
       <c r="C192" s="10" t="s">
         <v>936</v>
       </c>
@@ -19756,7 +19756,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="10"/>
-      <c r="B193" s="15"/>
+      <c r="B193" s="18"/>
       <c r="C193" s="10" t="s">
         <v>936</v>
       </c>
@@ -19776,7 +19776,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="10"/>
-      <c r="B194" s="15"/>
+      <c r="B194" s="18"/>
       <c r="C194" s="10" t="s">
         <v>1048</v>
       </c>
@@ -19795,7 +19795,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="10"/>
-      <c r="B195" s="15"/>
+      <c r="B195" s="18"/>
       <c r="C195" s="10" t="s">
         <v>936</v>
       </c>
@@ -19814,7 +19814,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="10"/>
-      <c r="B196" s="15"/>
+      <c r="B196" s="18"/>
       <c r="C196" s="10" t="s">
         <v>936</v>
       </c>
@@ -19833,7 +19833,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="10"/>
-      <c r="B197" s="15"/>
+      <c r="B197" s="18"/>
       <c r="C197" s="10" t="s">
         <v>936</v>
       </c>
@@ -19852,7 +19852,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="10"/>
-      <c r="B198" s="15"/>
+      <c r="B198" s="18"/>
       <c r="C198" s="10" t="s">
         <v>936</v>
       </c>
@@ -19871,7 +19871,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="10"/>
-      <c r="B199" s="15"/>
+      <c r="B199" s="18"/>
       <c r="C199" s="10" t="s">
         <v>936</v>
       </c>
@@ -19890,7 +19890,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="10"/>
-      <c r="B200" s="15" t="s">
+      <c r="B200" s="18" t="s">
         <v>1036</v>
       </c>
       <c r="C200" s="10" t="s">
@@ -19911,7 +19911,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="10"/>
-      <c r="B201" s="15"/>
+      <c r="B201" s="18"/>
       <c r="C201" s="10" t="s">
         <v>963</v>
       </c>
@@ -19930,7 +19930,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="10"/>
-      <c r="B202" s="15"/>
+      <c r="B202" s="18"/>
       <c r="C202" s="10" t="s">
         <v>963</v>
       </c>
@@ -19949,7 +19949,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="10"/>
-      <c r="B203" s="15"/>
+      <c r="B203" s="18"/>
       <c r="C203" s="10" t="s">
         <v>963</v>
       </c>
@@ -19968,7 +19968,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="10"/>
-      <c r="B204" s="15"/>
+      <c r="B204" s="18"/>
       <c r="C204" s="10" t="s">
         <v>963</v>
       </c>
@@ -19987,7 +19987,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="10"/>
-      <c r="B205" s="15"/>
+      <c r="B205" s="18"/>
       <c r="C205" s="10" t="s">
         <v>963</v>
       </c>
@@ -20006,7 +20006,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="10"/>
-      <c r="B206" s="15"/>
+      <c r="B206" s="18"/>
       <c r="C206" s="10" t="s">
         <v>1049</v>
       </c>
@@ -20025,7 +20025,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="10"/>
-      <c r="B207" s="15"/>
+      <c r="B207" s="18"/>
       <c r="C207" s="10" t="s">
         <v>963</v>
       </c>
@@ -20044,7 +20044,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="10"/>
-      <c r="B208" s="15"/>
+      <c r="B208" s="18"/>
       <c r="C208" s="10" t="s">
         <v>963</v>
       </c>
@@ -20063,7 +20063,7 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="10"/>
-      <c r="B209" s="15"/>
+      <c r="B209" s="18"/>
       <c r="C209" s="10" t="s">
         <v>963</v>
       </c>
@@ -20082,7 +20082,7 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="10"/>
-      <c r="B210" s="15"/>
+      <c r="B210" s="18"/>
       <c r="C210" s="10" t="s">
         <v>963</v>
       </c>
@@ -20101,7 +20101,7 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="10"/>
-      <c r="B211" s="15"/>
+      <c r="B211" s="18"/>
       <c r="C211" s="10" t="s">
         <v>963</v>
       </c>
@@ -20120,7 +20120,7 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="10"/>
-      <c r="B212" s="15"/>
+      <c r="B212" s="18"/>
       <c r="C212" s="10" t="s">
         <v>963</v>
       </c>
@@ -20139,7 +20139,7 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="10"/>
-      <c r="B213" s="15"/>
+      <c r="B213" s="18"/>
       <c r="C213" s="10" t="s">
         <v>963</v>
       </c>
@@ -20158,7 +20158,7 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="10"/>
-      <c r="B214" s="15"/>
+      <c r="B214" s="18"/>
       <c r="C214" s="10" t="s">
         <v>963</v>
       </c>
@@ -20177,7 +20177,7 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="10"/>
-      <c r="B215" s="15" t="s">
+      <c r="B215" s="18" t="s">
         <v>567</v>
       </c>
       <c r="C215" s="10" t="s">
@@ -20198,7 +20198,7 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="10"/>
-      <c r="B216" s="15"/>
+      <c r="B216" s="18"/>
       <c r="C216" s="10" t="s">
         <v>994</v>
       </c>
@@ -20217,7 +20217,7 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="10"/>
-      <c r="B217" s="15"/>
+      <c r="B217" s="18"/>
       <c r="C217" s="10" t="s">
         <v>994</v>
       </c>
@@ -20236,7 +20236,7 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="10"/>
-      <c r="B218" s="15"/>
+      <c r="B218" s="18"/>
       <c r="C218" s="10" t="s">
         <v>1050</v>
       </c>
@@ -20255,7 +20255,7 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="10"/>
-      <c r="B219" s="15"/>
+      <c r="B219" s="18"/>
       <c r="C219" s="10" t="s">
         <v>994</v>
       </c>
@@ -20274,7 +20274,7 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="10"/>
-      <c r="B220" s="15"/>
+      <c r="B220" s="18"/>
       <c r="C220" s="10" t="s">
         <v>994</v>
       </c>
@@ -20293,7 +20293,7 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="10"/>
-      <c r="B221" s="15"/>
+      <c r="B221" s="18"/>
       <c r="C221" s="10" t="s">
         <v>994</v>
       </c>
@@ -20312,7 +20312,7 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="10"/>
-      <c r="B222" s="15"/>
+      <c r="B222" s="18"/>
       <c r="C222" s="10" t="s">
         <v>994</v>
       </c>
@@ -20331,7 +20331,7 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="10"/>
-      <c r="B223" s="15"/>
+      <c r="B223" s="18"/>
       <c r="C223" s="10" t="s">
         <v>994</v>
       </c>
@@ -20350,7 +20350,7 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="10"/>
-      <c r="B224" s="15"/>
+      <c r="B224" s="18"/>
       <c r="C224" s="10" t="s">
         <v>994</v>
       </c>
@@ -20369,7 +20369,7 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="10"/>
-      <c r="B225" s="15"/>
+      <c r="B225" s="18"/>
       <c r="C225" s="10" t="s">
         <v>994</v>
       </c>
@@ -20388,7 +20388,7 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="10"/>
-      <c r="B226" s="15"/>
+      <c r="B226" s="18"/>
       <c r="C226" s="10" t="s">
         <v>994</v>
       </c>
@@ -20407,7 +20407,7 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="10"/>
-      <c r="B227" s="15"/>
+      <c r="B227" s="18"/>
       <c r="C227" s="10" t="s">
         <v>994</v>
       </c>
@@ -20426,7 +20426,7 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="10"/>
-      <c r="B228" s="15"/>
+      <c r="B228" s="18"/>
       <c r="C228" s="10" t="s">
         <v>994</v>
       </c>
@@ -20445,7 +20445,7 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="10"/>
-      <c r="B229" s="15"/>
+      <c r="B229" s="18"/>
       <c r="C229" s="10" t="s">
         <v>994</v>
       </c>
@@ -20464,7 +20464,7 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="10"/>
-      <c r="B230" s="15"/>
+      <c r="B230" s="18"/>
       <c r="C230" s="10" t="s">
         <v>994</v>
       </c>
@@ -20483,7 +20483,7 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="10"/>
-      <c r="B231" s="15"/>
+      <c r="B231" s="18"/>
       <c r="C231" s="10" t="s">
         <v>994</v>
       </c>
@@ -20502,7 +20502,7 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="10"/>
-      <c r="B232" s="15"/>
+      <c r="B232" s="18"/>
       <c r="C232" s="10" t="s">
         <v>994</v>
       </c>
@@ -21226,6 +21226,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B78:B94"/>
+    <mergeCell ref="B95:B138"/>
+    <mergeCell ref="B139:B145"/>
+    <mergeCell ref="B146:B155"/>
+    <mergeCell ref="B215:B232"/>
+    <mergeCell ref="B156:B176"/>
+    <mergeCell ref="B177:B185"/>
+    <mergeCell ref="B186:B199"/>
+    <mergeCell ref="B200:B214"/>
     <mergeCell ref="B42:B52"/>
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="B57:B77"/>
@@ -21235,15 +21244,6 @@
     <mergeCell ref="B17:B23"/>
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="B31:B37"/>
-    <mergeCell ref="B78:B94"/>
-    <mergeCell ref="B95:B138"/>
-    <mergeCell ref="B139:B145"/>
-    <mergeCell ref="B146:B155"/>
-    <mergeCell ref="B215:B232"/>
-    <mergeCell ref="B156:B176"/>
-    <mergeCell ref="B177:B185"/>
-    <mergeCell ref="B186:B199"/>
-    <mergeCell ref="B200:B214"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/api自動化測試腳清單.xlsx
+++ b/api自動化測試腳清單.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2705" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2741" uniqueCount="1119">
   <si>
     <t>Module</t>
   </si>
@@ -3729,6 +3729,126 @@
   </si>
   <si>
     <t>Decrypted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0030取得指定範圍訊息中心清單</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0030GetRangeNotifyMessageList_1.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0030GetRangeNotifyMessageList_2.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0031MID搜尋會員資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0031QueryChatMemberByMID_1.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0031QueryChatMemberByMID_2.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0022修改暱稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateNickName_1.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateNickName_2.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postData1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postData2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postData2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postData3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postData3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postData4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postData4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postData5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postData5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postData6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postData6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postData7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postData7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postData8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postData8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decrypted_TBC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EncData--&gt;RtnCode: 0 RtnMsg: 尚未啟用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3892,7 +4012,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3938,15 +4058,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3959,11 +4070,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4270,16 +4393,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H518"/>
+  <dimension ref="A1:H520"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:F15"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" customWidth="1"/>
     <col min="4" max="4" width="35.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" customWidth="1"/>
     <col min="6" max="6" width="53.109375" customWidth="1"/>
@@ -4300,7 +4423,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>3</v>
+        <v>1102</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
@@ -4314,14 +4437,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="15"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="2" t="s">
         <v>1059</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1064</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>1099</v>
+      </c>
       <c r="F2" s="2" t="s">
         <v>1054</v>
       </c>
@@ -4334,14 +4459,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="16"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="10" t="s">
         <v>1059</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>1065</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="10" t="s">
+        <v>1099</v>
+      </c>
       <c r="F3" s="13" t="s">
         <v>1060</v>
       </c>
@@ -4354,14 +4481,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="16"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="2" t="s">
         <v>1058</v>
       </c>
       <c r="D4" t="s">
         <v>1066</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="10" t="s">
+        <v>1100</v>
+      </c>
       <c r="F4" s="5" t="s">
         <v>1054</v>
       </c>
@@ -4374,14 +4503,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="16"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="2" t="s">
         <v>1056</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>1067</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="10" t="s">
+        <v>1101</v>
+      </c>
       <c r="F5" s="5" t="s">
         <v>1057</v>
       </c>
@@ -4394,14 +4525,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="16"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="2" t="s">
         <v>1053</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>1068</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="10" t="s">
+        <v>1103</v>
+      </c>
       <c r="F6" s="13" t="s">
         <v>1054</v>
       </c>
@@ -4414,14 +4547,16 @@
     </row>
     <row r="7" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="16"/>
+      <c r="B7" s="20"/>
       <c r="C7" t="s">
         <v>1053</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>1069</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="10" t="s">
+        <v>1104</v>
+      </c>
       <c r="F7" s="13" t="s">
         <v>1055</v>
       </c>
@@ -4432,61 +4567,61 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="2" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>1070</v>
-      </c>
-      <c r="E8" s="2"/>
+    <row r="8" spans="1:8" s="10" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="20"/>
+      <c r="C8" s="10" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>1113</v>
+      </c>
       <c r="F8" s="13" t="s">
         <v>1054</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>1062</v>
+        <v>1116</v>
       </c>
       <c r="H8" s="14">
-        <v>45027</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="16"/>
+        <v>45030</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="10" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="20"/>
       <c r="C9" s="10" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>1096</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>1114</v>
+      </c>
       <c r="F9" s="13" t="s">
-        <v>1063</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>1075</v>
-      </c>
-      <c r="H9" s="14">
-        <v>45027</v>
-      </c>
+        <v>1115</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="16"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="2" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E10" s="2"/>
+        <v>1061</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>1105</v>
+      </c>
       <c r="F10" s="13" t="s">
         <v>1054</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>1077</v>
+        <v>1062</v>
       </c>
       <c r="H10" s="14">
         <v>45027</v>
@@ -4494,59 +4629,65 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="2" t="s">
-        <v>1072</v>
+      <c r="B11" s="20"/>
+      <c r="C11" s="10" t="s">
+        <v>1061</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E11" s="2"/>
+        <v>1071</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>1106</v>
+      </c>
       <c r="F11" s="13" t="s">
-        <v>1076</v>
+        <v>1063</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>1075</v>
       </c>
       <c r="H11" s="14">
-        <v>45029</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="16"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="2" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E12" s="2"/>
+        <v>1073</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>1107</v>
+      </c>
       <c r="F12" s="13" t="s">
-        <v>1081</v>
+        <v>1054</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="H12" s="14">
-        <v>45029</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="10" t="s">
-        <v>1078</v>
+      <c r="B13" s="20"/>
+      <c r="C13" s="2" t="s">
+        <v>1072</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>1080</v>
-      </c>
-      <c r="E13" s="2"/>
+        <v>1074</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>1108</v>
+      </c>
       <c r="F13" s="13" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="H13" s="14">
         <v>45029</v>
@@ -4554,99 +4695,155 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="16"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="2" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E14" s="2"/>
+        <v>1079</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>1109</v>
+      </c>
       <c r="F14" s="13" t="s">
-        <v>1054</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+        <v>1081</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H14" s="14">
+        <v>45029</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="16"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="10" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>1087</v>
-      </c>
-      <c r="E15" s="2"/>
+        <v>1080</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>1110</v>
+      </c>
       <c r="F15" s="13" t="s">
-        <v>1088</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+        <v>1082</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H15" s="14">
+        <v>45029</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="1"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H16" s="14">
+        <v>45030</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>1088</v>
+      </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="1"/>
+      <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>1091</v>
+      </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="13" t="s">
+        <v>1090</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="10" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>1092</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="13" t="s">
+        <v>1090</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>1094</v>
+      </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="13" t="s">
+        <v>1090</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="10" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>1095</v>
+      </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="F21" s="13" t="s">
+        <v>1090</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="16"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -4656,7 +4853,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="16"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -4666,7 +4863,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="16"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -4674,12 +4871,19 @@
       <c r="G24" s="2"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="16"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="16"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -4687,19 +4891,12 @@
       <c r="G26" s="2"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="1"/>
+    <row r="27" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="20"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
-      <c r="B28" s="16"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -4709,7 +4906,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
-      <c r="B29" s="16"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -4719,7 +4916,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
-      <c r="B30" s="16"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -4729,7 +4926,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="B31" s="16"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -4739,7 +4936,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
-      <c r="B32" s="16"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -4749,27 +4946,27 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
-      <c r="B33" s="17"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
-      <c r="B34" s="18"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+      <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
-      <c r="B35" s="18"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -4779,7 +4976,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
-      <c r="B36" s="18"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -4789,8 +4986,8 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="10"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -4799,7 +4996,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
-      <c r="B38" s="18"/>
+      <c r="B38" s="15"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -4809,8 +5006,8 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="2"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="10"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -4819,7 +5016,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
-      <c r="B40" s="18"/>
+      <c r="B40" s="15"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -4829,7 +5026,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
-      <c r="B41" s="18"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -4839,7 +5036,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
-      <c r="B42" s="18"/>
+      <c r="B42" s="15"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -4849,7 +5046,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
-      <c r="B43" s="18"/>
+      <c r="B43" s="15"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -4859,40 +5056,40 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="10"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="10"/>
+      <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="18"/>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="2"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="2"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="10"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+      <c r="E46" s="10"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="2"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+    <row r="47" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="15"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
-      <c r="B48" s="18"/>
+      <c r="B48" s="15"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -4902,7 +5099,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
-      <c r="B49" s="18"/>
+      <c r="B49" s="15"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -4912,7 +5109,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
-      <c r="B50" s="18"/>
+      <c r="B50" s="15"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -4922,7 +5119,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
-      <c r="B51" s="18"/>
+      <c r="B51" s="15"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -4932,7 +5129,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
-      <c r="B52" s="18"/>
+      <c r="B52" s="15"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -4942,7 +5139,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
-      <c r="B53" s="18"/>
+      <c r="B53" s="15"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -4952,7 +5149,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
-      <c r="B54" s="18"/>
+      <c r="B54" s="15"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -4962,7 +5159,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
-      <c r="B55" s="18"/>
+      <c r="B55" s="15"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -4972,7 +5169,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
-      <c r="B56" s="18"/>
+      <c r="B56" s="15"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -4982,7 +5179,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
-      <c r="B57" s="18"/>
+      <c r="B57" s="15"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -4992,7 +5189,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
-      <c r="B58" s="18"/>
+      <c r="B58" s="15"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -5002,7 +5199,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
-      <c r="B59" s="18"/>
+      <c r="B59" s="15"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -5012,27 +5209,27 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
-      <c r="B60" s="18"/>
+      <c r="B60" s="15"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
-      <c r="G60" s="10"/>
+      <c r="G60" s="2"/>
       <c r="H60" s="2"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
-      <c r="B61" s="18"/>
+      <c r="B61" s="15"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
-      <c r="G61" s="10"/>
+      <c r="G61" s="2"/>
       <c r="H61" s="2"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
-      <c r="B62" s="18"/>
+      <c r="B62" s="15"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -5042,7 +5239,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
-      <c r="B63" s="18"/>
+      <c r="B63" s="15"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -5052,7 +5249,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
-      <c r="B64" s="18"/>
+      <c r="B64" s="15"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -5062,7 +5259,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
-      <c r="B65" s="18"/>
+      <c r="B65" s="15"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -5072,27 +5269,27 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
-      <c r="B66" s="18"/>
+      <c r="B66" s="15"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="10"/>
-      <c r="H66" s="1"/>
+      <c r="H66" s="2"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
-      <c r="B67" s="18"/>
+      <c r="B67" s="15"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="10"/>
-      <c r="H67" s="1"/>
+      <c r="H67" s="2"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
-      <c r="B68" s="18"/>
+      <c r="B68" s="15"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -5102,27 +5299,27 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
-      <c r="B69" s="18"/>
+      <c r="B69" s="15"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
+      <c r="G69" s="10"/>
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
-      <c r="B70" s="18"/>
+      <c r="B70" s="15"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
+      <c r="G70" s="10"/>
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
-      <c r="B71" s="18"/>
+      <c r="B71" s="15"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -5132,7 +5329,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
-      <c r="B72" s="18"/>
+      <c r="B72" s="15"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -5142,7 +5339,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
-      <c r="B73" s="18"/>
+      <c r="B73" s="15"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -5152,7 +5349,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
-      <c r="B74" s="18"/>
+      <c r="B74" s="15"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -5162,7 +5359,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
-      <c r="B75" s="18"/>
+      <c r="B75" s="15"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -5172,7 +5369,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
-      <c r="B76" s="18"/>
+      <c r="B76" s="15"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -5182,7 +5379,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
-      <c r="B77" s="18"/>
+      <c r="B77" s="15"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -5192,7 +5389,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
-      <c r="B78" s="18"/>
+      <c r="B78" s="15"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -5202,40 +5399,40 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="10"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="18"/>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="2"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="2"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="10"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="2"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="1"/>
+    <row r="82" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="15"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
-      <c r="B83" s="18"/>
+      <c r="B83" s="15"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -5245,7 +5442,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
-      <c r="B84" s="18"/>
+      <c r="B84" s="15"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -5255,7 +5452,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
-      <c r="B85" s="18"/>
+      <c r="B85" s="15"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -5265,7 +5462,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
-      <c r="B86" s="18"/>
+      <c r="B86" s="15"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -5275,7 +5472,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
-      <c r="B87" s="18"/>
+      <c r="B87" s="15"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -5285,7 +5482,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
-      <c r="B88" s="18"/>
+      <c r="B88" s="15"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -5295,7 +5492,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
-      <c r="B89" s="18"/>
+      <c r="B89" s="15"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -5305,7 +5502,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
-      <c r="B90" s="18"/>
+      <c r="B90" s="15"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -5315,7 +5512,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
-      <c r="B91" s="18"/>
+      <c r="B91" s="15"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -5325,7 +5522,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
-      <c r="B92" s="18"/>
+      <c r="B92" s="15"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -5335,7 +5532,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
-      <c r="B93" s="18"/>
+      <c r="B93" s="15"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -5345,7 +5542,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
-      <c r="B94" s="18"/>
+      <c r="B94" s="15"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -5355,7 +5552,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
-      <c r="B95" s="18"/>
+      <c r="B95" s="15"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -5365,27 +5562,27 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
-      <c r="B96" s="18"/>
+      <c r="B96" s="15"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
-      <c r="G96" s="10"/>
+      <c r="G96" s="2"/>
       <c r="H96" s="1"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
-      <c r="B97" s="18"/>
+      <c r="B97" s="15"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
-      <c r="G97" s="10"/>
+      <c r="G97" s="2"/>
       <c r="H97" s="1"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
-      <c r="B98" s="18"/>
+      <c r="B98" s="15"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -5395,27 +5592,27 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
-      <c r="B99" s="18"/>
+      <c r="B99" s="15"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="10"/>
-      <c r="H99" s="2"/>
+      <c r="H99" s="1"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
-      <c r="B100" s="18"/>
+      <c r="B100" s="15"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="10"/>
-      <c r="H100" s="2"/>
+      <c r="H100" s="1"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
-      <c r="B101" s="18"/>
+      <c r="B101" s="15"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -5425,7 +5622,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
-      <c r="B102" s="18"/>
+      <c r="B102" s="15"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -5435,7 +5632,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
-      <c r="B103" s="18"/>
+      <c r="B103" s="15"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -5445,7 +5642,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
-      <c r="B104" s="18"/>
+      <c r="B104" s="15"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -5455,7 +5652,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
-      <c r="B105" s="18"/>
+      <c r="B105" s="15"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -5465,7 +5662,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
-      <c r="B106" s="18"/>
+      <c r="B106" s="15"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -5475,7 +5672,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
-      <c r="B107" s="18"/>
+      <c r="B107" s="15"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -5485,27 +5682,27 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
-      <c r="B108" s="18"/>
+      <c r="B108" s="15"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="10"/>
-      <c r="H108" s="10"/>
+      <c r="H108" s="2"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
-      <c r="B109" s="18"/>
+      <c r="B109" s="15"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="10"/>
-      <c r="H109" s="10"/>
+      <c r="H109" s="2"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
-      <c r="B110" s="18"/>
+      <c r="B110" s="15"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -5515,7 +5712,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
-      <c r="B111" s="18"/>
+      <c r="B111" s="15"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -5525,7 +5722,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
-      <c r="B112" s="18"/>
+      <c r="B112" s="15"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -5535,7 +5732,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
-      <c r="B113" s="18"/>
+      <c r="B113" s="15"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -5545,27 +5742,27 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
-      <c r="B114" s="18"/>
+      <c r="B114" s="15"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="10"/>
-      <c r="H114" s="2"/>
+      <c r="H114" s="10"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
-      <c r="B115" s="18"/>
+      <c r="B115" s="15"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="10"/>
-      <c r="H115" s="2"/>
+      <c r="H115" s="10"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
-      <c r="B116" s="18"/>
+      <c r="B116" s="15"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -5575,7 +5772,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
-      <c r="B117" s="18"/>
+      <c r="B117" s="15"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -5585,7 +5782,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
-      <c r="B118" s="18"/>
+      <c r="B118" s="15"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -5595,27 +5792,27 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
-      <c r="B119" s="18"/>
+      <c r="B119" s="15"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
+      <c r="G119" s="10"/>
       <c r="H119" s="2"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
-      <c r="B120" s="18"/>
+      <c r="B120" s="15"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
-      <c r="G120" s="2"/>
+      <c r="G120" s="10"/>
       <c r="H120" s="2"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
-      <c r="B121" s="18"/>
+      <c r="B121" s="15"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -5625,7 +5822,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
-      <c r="B122" s="18"/>
+      <c r="B122" s="15"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -5635,7 +5832,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
-      <c r="B123" s="18"/>
+      <c r="B123" s="15"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -5645,8 +5842,8 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
-      <c r="B124" s="18"/>
-      <c r="C124" s="10"/>
+      <c r="B124" s="15"/>
+      <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
@@ -5655,7 +5852,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
-      <c r="B125" s="18"/>
+      <c r="B125" s="15"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -5665,8 +5862,8 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
-      <c r="B126" s="18"/>
-      <c r="C126" s="2"/>
+      <c r="B126" s="15"/>
+      <c r="C126" s="10"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
@@ -5675,7 +5872,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
-      <c r="B127" s="18"/>
+      <c r="B127" s="15"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -5685,7 +5882,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
-      <c r="B128" s="18"/>
+      <c r="B128" s="15"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -5695,7 +5892,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
-      <c r="B129" s="18"/>
+      <c r="B129" s="15"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -5705,7 +5902,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
-      <c r="B130" s="18"/>
+      <c r="B130" s="15"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -5715,7 +5912,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
-      <c r="B131" s="18"/>
+      <c r="B131" s="15"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -5725,7 +5922,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
-      <c r="B132" s="18"/>
+      <c r="B132" s="15"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -5735,7 +5932,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
-      <c r="B133" s="18"/>
+      <c r="B133" s="15"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -5745,7 +5942,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
-      <c r="B134" s="18"/>
+      <c r="B134" s="15"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -5755,7 +5952,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
-      <c r="B135" s="18"/>
+      <c r="B135" s="15"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -5765,7 +5962,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
-      <c r="B136" s="18"/>
+      <c r="B136" s="15"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -5775,7 +5972,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
-      <c r="B137" s="18"/>
+      <c r="B137" s="15"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -5785,7 +5982,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
-      <c r="B138" s="18"/>
+      <c r="B138" s="15"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -5795,17 +5992,17 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
-      <c r="B139" s="18"/>
+      <c r="B139" s="15"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
-      <c r="G139" s="10"/>
+      <c r="G139" s="2"/>
       <c r="H139" s="2"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
-      <c r="B140" s="18"/>
+      <c r="B140" s="15"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -5815,17 +6012,17 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
-      <c r="B141" s="18"/>
+      <c r="B141" s="15"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
-      <c r="G141" s="2"/>
+      <c r="G141" s="10"/>
       <c r="H141" s="2"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
-      <c r="B142" s="18"/>
+      <c r="B142" s="15"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -5835,7 +6032,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
-      <c r="B143" s="18"/>
+      <c r="B143" s="15"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -5845,7 +6042,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
-      <c r="B144" s="18"/>
+      <c r="B144" s="15"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -5855,7 +6052,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
-      <c r="B145" s="18"/>
+      <c r="B145" s="15"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -5865,7 +6062,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
-      <c r="B146" s="18"/>
+      <c r="B146" s="15"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -5875,7 +6072,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
-      <c r="B147" s="18"/>
+      <c r="B147" s="15"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -5885,7 +6082,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
-      <c r="B148" s="18"/>
+      <c r="B148" s="15"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -5895,7 +6092,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
-      <c r="B149" s="18"/>
+      <c r="B149" s="15"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -5905,7 +6102,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
-      <c r="B150" s="18"/>
+      <c r="B150" s="15"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -5915,7 +6112,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
-      <c r="B151" s="18"/>
+      <c r="B151" s="15"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -5925,7 +6122,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
-      <c r="B152" s="18"/>
+      <c r="B152" s="15"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -5935,7 +6132,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
-      <c r="B153" s="18"/>
+      <c r="B153" s="15"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -5945,7 +6142,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
-      <c r="B154" s="18"/>
+      <c r="B154" s="15"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -5955,7 +6152,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
-      <c r="B155" s="18"/>
+      <c r="B155" s="15"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -5965,7 +6162,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
-      <c r="B156" s="18"/>
+      <c r="B156" s="15"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -5975,7 +6172,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
-      <c r="B157" s="18"/>
+      <c r="B157" s="15"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -5985,7 +6182,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
-      <c r="B158" s="18"/>
+      <c r="B158" s="15"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -5995,7 +6192,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
-      <c r="B159" s="18"/>
+      <c r="B159" s="15"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -6005,7 +6202,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
-      <c r="B160" s="18"/>
+      <c r="B160" s="15"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -6015,7 +6212,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
-      <c r="B161" s="18"/>
+      <c r="B161" s="15"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -6025,8 +6222,8 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
-      <c r="B162" s="18"/>
-      <c r="C162" s="10"/>
+      <c r="B162" s="15"/>
+      <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
@@ -6035,18 +6232,18 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
-      <c r="B163" s="18"/>
+      <c r="B163" s="15"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
-      <c r="F163" s="5"/>
+      <c r="F163" s="2"/>
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
-      <c r="B164" s="18"/>
-      <c r="C164" s="2"/>
+      <c r="B164" s="15"/>
+      <c r="C164" s="10"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
@@ -6055,17 +6252,17 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
-      <c r="B165" s="18"/>
+      <c r="B165" s="15"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
-      <c r="F165" s="2"/>
+      <c r="F165" s="5"/>
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
-      <c r="B166" s="18"/>
+      <c r="B166" s="15"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -6075,17 +6272,17 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
-      <c r="B167" s="18"/>
+      <c r="B167" s="15"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
-      <c r="F167" s="5"/>
+      <c r="F167" s="2"/>
       <c r="G167" s="2"/>
       <c r="H167" s="2"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
-      <c r="B168" s="18"/>
+      <c r="B168" s="15"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -6095,17 +6292,17 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
-      <c r="B169" s="18"/>
+      <c r="B169" s="15"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
-      <c r="F169" s="2"/>
+      <c r="F169" s="5"/>
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
-      <c r="B170" s="18"/>
+      <c r="B170" s="15"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -6115,58 +6312,58 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
-      <c r="B171" s="18"/>
+      <c r="B171" s="15"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
-      <c r="F171" s="5"/>
+      <c r="F171" s="2"/>
       <c r="G171" s="2"/>
       <c r="H171" s="2"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
-      <c r="B172" s="18"/>
+      <c r="B172" s="15"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
-      <c r="F172" s="5"/>
+      <c r="F172" s="2"/>
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
-      <c r="B173" s="18"/>
+      <c r="B173" s="15"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
-      <c r="F173" s="2"/>
+      <c r="F173" s="5"/>
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
-      <c r="B174" s="18"/>
+      <c r="B174" s="15"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
+      <c r="F174" s="5"/>
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
-      <c r="B175" s="18"/>
+      <c r="B175" s="15"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
-      <c r="F175" s="5"/>
+      <c r="F175" s="2"/>
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
-      <c r="B176" s="18"/>
-      <c r="C176" s="10"/>
+      <c r="B176" s="15"/>
+      <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
@@ -6175,18 +6372,18 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
-      <c r="B177" s="18"/>
+      <c r="B177" s="15"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
-      <c r="F177" s="2"/>
+      <c r="F177" s="5"/>
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
-      <c r="B178" s="18"/>
-      <c r="C178" s="2"/>
+      <c r="B178" s="15"/>
+      <c r="C178" s="10"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
@@ -6195,7 +6392,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
-      <c r="B179" s="18"/>
+      <c r="B179" s="15"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -6205,7 +6402,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
-      <c r="B180" s="18"/>
+      <c r="B180" s="15"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -6215,7 +6412,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
-      <c r="B181" s="18"/>
+      <c r="B181" s="15"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -6225,7 +6422,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
-      <c r="B182" s="18"/>
+      <c r="B182" s="15"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -6235,7 +6432,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
-      <c r="B183" s="18"/>
+      <c r="B183" s="15"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -6245,7 +6442,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
-      <c r="B184" s="19"/>
+      <c r="B184" s="15"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -6255,7 +6452,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="2"/>
-      <c r="B185" s="20"/>
+      <c r="B185" s="15"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -6265,7 +6462,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
-      <c r="B186" s="21"/>
+      <c r="B186" s="16"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -6275,7 +6472,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
-      <c r="B187" s="21"/>
+      <c r="B187" s="17"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -6285,27 +6482,27 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
-      <c r="B188" s="21"/>
+      <c r="B188" s="18"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
-      <c r="E188" s="5"/>
+      <c r="E188" s="2"/>
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
       <c r="H188" s="2"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="2"/>
-      <c r="B189" s="21"/>
+      <c r="B189" s="18"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
-      <c r="E189" s="5"/>
+      <c r="E189" s="2"/>
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
       <c r="H189" s="2"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
-      <c r="B190" s="21"/>
+      <c r="B190" s="18"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="5"/>
@@ -6315,17 +6512,17 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
-      <c r="B191" s="21"/>
-      <c r="C191" s="10"/>
+      <c r="B191" s="18"/>
+      <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="5"/>
       <c r="F191" s="2"/>
-      <c r="G191" s="10"/>
+      <c r="G191" s="2"/>
       <c r="H191" s="2"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
-      <c r="B192" s="21"/>
+      <c r="B192" s="18"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="5"/>
@@ -6335,43 +6532,43 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
-      <c r="B193" s="21"/>
-      <c r="C193" s="2"/>
+      <c r="B193" s="18"/>
+      <c r="C193" s="10"/>
       <c r="D193" s="2"/>
       <c r="E193" s="5"/>
       <c r="F193" s="2"/>
-      <c r="G193" s="5"/>
+      <c r="G193" s="10"/>
       <c r="H193" s="2"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
-      <c r="B194" s="21"/>
+      <c r="B194" s="18"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="5"/>
       <c r="F194" s="2"/>
-      <c r="G194" s="5"/>
+      <c r="G194" s="2"/>
       <c r="H194" s="2"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
-      <c r="B195" s="21"/>
+      <c r="B195" s="18"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="5"/>
       <c r="F195" s="2"/>
       <c r="G195" s="5"/>
-      <c r="H195" s="1"/>
+      <c r="H195" s="2"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
-      <c r="B196" s="21"/>
+      <c r="B196" s="18"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="5"/>
       <c r="F196" s="2"/>
       <c r="G196" s="5"/>
-      <c r="H196" s="1"/>
+      <c r="H196" s="2"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
@@ -6380,7 +6577,7 @@
       <c r="D197" s="2"/>
       <c r="E197" s="5"/>
       <c r="F197" s="2"/>
-      <c r="G197" s="2"/>
+      <c r="G197" s="5"/>
       <c r="H197" s="1"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
@@ -6390,12 +6587,12 @@
       <c r="D198" s="2"/>
       <c r="E198" s="5"/>
       <c r="F198" s="2"/>
-      <c r="G198" s="2"/>
+      <c r="G198" s="5"/>
       <c r="H198" s="1"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="2"/>
-      <c r="B199" s="18"/>
+      <c r="B199" s="15"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="5"/>
@@ -6405,7 +6602,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
-      <c r="B200" s="18"/>
+      <c r="B200" s="15"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="5"/>
@@ -6415,7 +6612,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="2"/>
-      <c r="B201" s="18"/>
+      <c r="B201" s="15"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="5"/>
@@ -6425,7 +6622,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="2"/>
-      <c r="B202" s="18"/>
+      <c r="B202" s="15"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="5"/>
@@ -6435,7 +6632,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="2"/>
-      <c r="B203" s="18"/>
+      <c r="B203" s="15"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="5"/>
@@ -6445,8 +6642,8 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="2"/>
-      <c r="B204" s="18"/>
-      <c r="C204" s="10"/>
+      <c r="B204" s="15"/>
+      <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="5"/>
       <c r="F204" s="2"/>
@@ -6455,7 +6652,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="2"/>
-      <c r="B205" s="18"/>
+      <c r="B205" s="15"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="5"/>
@@ -6465,8 +6662,8 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
-      <c r="B206" s="18"/>
-      <c r="C206" s="2"/>
+      <c r="B206" s="15"/>
+      <c r="C206" s="10"/>
       <c r="D206" s="2"/>
       <c r="E206" s="5"/>
       <c r="F206" s="2"/>
@@ -6475,7 +6672,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="2"/>
-      <c r="B207" s="18"/>
+      <c r="B207" s="15"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="5"/>
@@ -6485,7 +6682,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="2"/>
-      <c r="B208" s="18"/>
+      <c r="B208" s="15"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="5"/>
@@ -6495,7 +6692,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="2"/>
-      <c r="B209" s="18"/>
+      <c r="B209" s="15"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="5"/>
@@ -6505,8 +6702,8 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="2"/>
-      <c r="B210" s="18"/>
-      <c r="C210" s="10"/>
+      <c r="B210" s="15"/>
+      <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="5"/>
       <c r="F210" s="2"/>
@@ -6515,27 +6712,27 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="2"/>
-      <c r="B211" s="18"/>
+      <c r="B211" s="15"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="5"/>
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
-      <c r="H211" s="2"/>
+      <c r="H211" s="1"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="2"/>
-      <c r="B212" s="18"/>
-      <c r="C212" s="2"/>
+      <c r="B212" s="15"/>
+      <c r="C212" s="10"/>
       <c r="D212" s="2"/>
       <c r="E212" s="5"/>
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
-      <c r="H212" s="2"/>
+      <c r="H212" s="1"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="2"/>
-      <c r="B213" s="18"/>
+      <c r="B213" s="15"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="5"/>
@@ -6545,28 +6742,28 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="2"/>
-      <c r="B214" s="18"/>
+      <c r="B214" s="15"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
-      <c r="E214" s="2"/>
+      <c r="E214" s="5"/>
       <c r="F214" s="2"/>
       <c r="G214" s="2"/>
       <c r="H214" s="2"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="2"/>
-      <c r="B215" s="18"/>
+      <c r="B215" s="15"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
-      <c r="E215" s="2"/>
+      <c r="E215" s="5"/>
       <c r="F215" s="2"/>
       <c r="G215" s="2"/>
       <c r="H215" s="2"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="2"/>
-      <c r="B216" s="18"/>
-      <c r="C216" s="10"/>
+      <c r="B216" s="15"/>
+      <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
@@ -6575,7 +6772,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="2"/>
-      <c r="B217" s="18"/>
+      <c r="B217" s="15"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -6585,8 +6782,8 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="2"/>
-      <c r="B218" s="18"/>
-      <c r="C218" s="2"/>
+      <c r="B218" s="15"/>
+      <c r="C218" s="10"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
@@ -6595,7 +6792,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="2"/>
-      <c r="B219" s="18"/>
+      <c r="B219" s="15"/>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -6605,7 +6802,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="2"/>
-      <c r="B220" s="18"/>
+      <c r="B220" s="15"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -6615,7 +6812,7 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="2"/>
-      <c r="B221" s="18"/>
+      <c r="B221" s="15"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -6625,7 +6822,7 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="2"/>
-      <c r="B222" s="18"/>
+      <c r="B222" s="15"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -6635,7 +6832,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="2"/>
-      <c r="B223" s="18"/>
+      <c r="B223" s="15"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -6645,7 +6842,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="2"/>
-      <c r="B224" s="18"/>
+      <c r="B224" s="15"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -6655,7 +6852,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="2"/>
-      <c r="B225" s="18"/>
+      <c r="B225" s="15"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -6665,7 +6862,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="2"/>
-      <c r="B226" s="18"/>
+      <c r="B226" s="15"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -6675,8 +6872,8 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="2"/>
-      <c r="B227" s="18"/>
-      <c r="C227" s="10"/>
+      <c r="B227" s="15"/>
+      <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
@@ -6685,7 +6882,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="2"/>
-      <c r="B228" s="18"/>
+      <c r="B228" s="15"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -6695,8 +6892,8 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="2"/>
-      <c r="B229" s="18"/>
-      <c r="C229" s="2"/>
+      <c r="B229" s="15"/>
+      <c r="C229" s="10"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
@@ -6705,7 +6902,7 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="2"/>
-      <c r="B230" s="18"/>
+      <c r="B230" s="15"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
@@ -6715,7 +6912,7 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="2"/>
-      <c r="B231" s="18"/>
+      <c r="B231" s="15"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -6725,7 +6922,7 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="2"/>
-      <c r="B232" s="18"/>
+      <c r="B232" s="15"/>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -6735,7 +6932,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="2"/>
-      <c r="B233" s="18"/>
+      <c r="B233" s="15"/>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -6745,27 +6942,27 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="2"/>
-      <c r="B234" s="18"/>
+      <c r="B234" s="15"/>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
-      <c r="E234" s="5"/>
+      <c r="E234" s="2"/>
       <c r="F234" s="2"/>
       <c r="G234" s="2"/>
       <c r="H234" s="2"/>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="2"/>
-      <c r="B235" s="18"/>
+      <c r="B235" s="15"/>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
-      <c r="E235" s="5"/>
+      <c r="E235" s="2"/>
       <c r="F235" s="2"/>
       <c r="G235" s="2"/>
       <c r="H235" s="2"/>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="2"/>
-      <c r="B236" s="18"/>
+      <c r="B236" s="15"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="5"/>
@@ -6775,8 +6972,8 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="2"/>
-      <c r="B237" s="18"/>
-      <c r="C237" s="10"/>
+      <c r="B237" s="15"/>
+      <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="5"/>
       <c r="F237" s="2"/>
@@ -6785,7 +6982,7 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="2"/>
-      <c r="B238" s="18"/>
+      <c r="B238" s="15"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="5"/>
@@ -6795,8 +6992,8 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="2"/>
-      <c r="B239" s="18"/>
-      <c r="C239" s="2"/>
+      <c r="B239" s="15"/>
+      <c r="C239" s="10"/>
       <c r="D239" s="2"/>
       <c r="E239" s="5"/>
       <c r="F239" s="2"/>
@@ -6805,7 +7002,7 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="2"/>
-      <c r="B240" s="18"/>
+      <c r="B240" s="15"/>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="5"/>
@@ -6815,27 +7012,27 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="2"/>
-      <c r="B241" s="18"/>
+      <c r="B241" s="15"/>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
-      <c r="E241" s="2"/>
+      <c r="E241" s="5"/>
       <c r="F241" s="2"/>
       <c r="G241" s="2"/>
       <c r="H241" s="2"/>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="2"/>
-      <c r="B242" s="18"/>
+      <c r="B242" s="15"/>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
-      <c r="E242" s="2"/>
+      <c r="E242" s="5"/>
       <c r="F242" s="2"/>
       <c r="G242" s="2"/>
       <c r="H242" s="2"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="2"/>
-      <c r="B243" s="18"/>
+      <c r="B243" s="15"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
@@ -6845,8 +7042,8 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="2"/>
-      <c r="B244" s="18"/>
-      <c r="C244" s="10"/>
+      <c r="B244" s="15"/>
+      <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
@@ -6855,7 +7052,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="2"/>
-      <c r="B245" s="18"/>
+      <c r="B245" s="15"/>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -6865,8 +7062,8 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="2"/>
-      <c r="B246" s="18"/>
-      <c r="C246" s="2"/>
+      <c r="B246" s="15"/>
+      <c r="C246" s="10"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
@@ -6875,7 +7072,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="2"/>
-      <c r="B247" s="18"/>
+      <c r="B247" s="15"/>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
@@ -6885,7 +7082,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="2"/>
-      <c r="B248" s="18"/>
+      <c r="B248" s="15"/>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -6895,7 +7092,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="2"/>
-      <c r="B249" s="18"/>
+      <c r="B249" s="15"/>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
@@ -6905,7 +7102,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="2"/>
-      <c r="B250" s="18"/>
+      <c r="B250" s="15"/>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -6915,7 +7112,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="2"/>
-      <c r="B251" s="18"/>
+      <c r="B251" s="15"/>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -6925,7 +7122,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="2"/>
-      <c r="B252" s="18"/>
+      <c r="B252" s="15"/>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -6935,7 +7132,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="2"/>
-      <c r="B253" s="18"/>
+      <c r="B253" s="15"/>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -6945,8 +7142,8 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="2"/>
-      <c r="B254" s="18"/>
-      <c r="C254" s="10"/>
+      <c r="B254" s="15"/>
+      <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
@@ -6955,7 +7152,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="2"/>
-      <c r="B255" s="18"/>
+      <c r="B255" s="15"/>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -6965,8 +7162,8 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="2"/>
-      <c r="B256" s="18"/>
-      <c r="C256" s="2"/>
+      <c r="B256" s="15"/>
+      <c r="C256" s="10"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
@@ -6975,7 +7172,7 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="2"/>
-      <c r="B257" s="6"/>
+      <c r="B257" s="15"/>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -6985,7 +7182,7 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="2"/>
-      <c r="B258" s="6"/>
+      <c r="B258" s="15"/>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -6995,7 +7192,7 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="2"/>
-      <c r="B259" s="2"/>
+      <c r="B259" s="6"/>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -7005,7 +7202,7 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="2"/>
-      <c r="B260" s="2"/>
+      <c r="B260" s="6"/>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
@@ -7155,23 +7352,23 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" s="2"/>
-      <c r="B275" s="1"/>
-      <c r="C275" s="1"/>
-      <c r="D275" s="1"/>
-      <c r="E275" s="1"/>
-      <c r="F275" s="1"/>
-      <c r="G275" s="1"/>
-      <c r="H275" s="1"/>
+      <c r="B275" s="2"/>
+      <c r="C275" s="2"/>
+      <c r="D275" s="2"/>
+      <c r="E275" s="2"/>
+      <c r="F275" s="2"/>
+      <c r="G275" s="2"/>
+      <c r="H275" s="2"/>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" s="2"/>
-      <c r="B276" s="1"/>
-      <c r="C276" s="1"/>
-      <c r="D276" s="1"/>
-      <c r="E276" s="1"/>
-      <c r="F276" s="1"/>
-      <c r="G276" s="1"/>
-      <c r="H276" s="1"/>
+      <c r="B276" s="2"/>
+      <c r="C276" s="2"/>
+      <c r="D276" s="2"/>
+      <c r="E276" s="2"/>
+      <c r="F276" s="2"/>
+      <c r="G276" s="2"/>
+      <c r="H276" s="2"/>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" s="2"/>
@@ -9235,23 +9432,23 @@
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A483" s="2"/>
-      <c r="B483" s="2"/>
-      <c r="C483" s="2"/>
-      <c r="D483" s="2"/>
-      <c r="E483" s="2"/>
-      <c r="F483" s="2"/>
-      <c r="G483" s="2"/>
-      <c r="H483" s="2"/>
+      <c r="B483" s="1"/>
+      <c r="C483" s="1"/>
+      <c r="D483" s="1"/>
+      <c r="E483" s="1"/>
+      <c r="F483" s="1"/>
+      <c r="G483" s="1"/>
+      <c r="H483" s="1"/>
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A484" s="2"/>
-      <c r="B484" s="2"/>
-      <c r="C484" s="2"/>
-      <c r="D484" s="2"/>
-      <c r="E484" s="2"/>
-      <c r="F484" s="2"/>
-      <c r="G484" s="2"/>
-      <c r="H484" s="2"/>
+      <c r="B484" s="1"/>
+      <c r="C484" s="1"/>
+      <c r="D484" s="1"/>
+      <c r="E484" s="1"/>
+      <c r="F484" s="1"/>
+      <c r="G484" s="1"/>
+      <c r="H484" s="1"/>
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A485" s="2"/>
@@ -9397,21 +9594,21 @@
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
-      <c r="D499" s="1"/>
-      <c r="E499" s="1"/>
-      <c r="F499" s="1"/>
-      <c r="G499" s="1"/>
-      <c r="H499" s="1"/>
+      <c r="D499" s="2"/>
+      <c r="E499" s="2"/>
+      <c r="F499" s="2"/>
+      <c r="G499" s="2"/>
+      <c r="H499" s="2"/>
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
-      <c r="D500" s="1"/>
-      <c r="E500" s="1"/>
-      <c r="F500" s="1"/>
-      <c r="G500" s="1"/>
-      <c r="H500" s="1"/>
+      <c r="D500" s="2"/>
+      <c r="E500" s="2"/>
+      <c r="F500" s="2"/>
+      <c r="G500" s="2"/>
+      <c r="H500" s="2"/>
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A501" s="2"/>
@@ -9593,25 +9790,45 @@
       <c r="G518" s="1"/>
       <c r="H518" s="1"/>
     </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A519" s="2"/>
+      <c r="B519" s="2"/>
+      <c r="C519" s="2"/>
+      <c r="D519" s="1"/>
+      <c r="E519" s="1"/>
+      <c r="F519" s="1"/>
+      <c r="G519" s="1"/>
+      <c r="H519" s="1"/>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A520" s="2"/>
+      <c r="B520" s="2"/>
+      <c r="C520" s="2"/>
+      <c r="D520" s="1"/>
+      <c r="E520" s="1"/>
+      <c r="F520" s="1"/>
+      <c r="G520" s="1"/>
+      <c r="H520" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B197:B206"/>
-    <mergeCell ref="B207:B213"/>
-    <mergeCell ref="B214:B218"/>
-    <mergeCell ref="B250:B256"/>
-    <mergeCell ref="B172:B184"/>
-    <mergeCell ref="B219:B228"/>
-    <mergeCell ref="B229:B233"/>
-    <mergeCell ref="B234:B240"/>
-    <mergeCell ref="B241:B249"/>
-    <mergeCell ref="B185:B196"/>
-    <mergeCell ref="B2:B33"/>
-    <mergeCell ref="B34:B68"/>
-    <mergeCell ref="B164:B167"/>
-    <mergeCell ref="B168:B171"/>
-    <mergeCell ref="B69:B119"/>
-    <mergeCell ref="B160:B163"/>
-    <mergeCell ref="B120:B159"/>
+    <mergeCell ref="B2:B35"/>
+    <mergeCell ref="B36:B70"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="B170:B173"/>
+    <mergeCell ref="B71:B121"/>
+    <mergeCell ref="B162:B165"/>
+    <mergeCell ref="B122:B161"/>
+    <mergeCell ref="B199:B208"/>
+    <mergeCell ref="B209:B215"/>
+    <mergeCell ref="B216:B220"/>
+    <mergeCell ref="B252:B258"/>
+    <mergeCell ref="B174:B186"/>
+    <mergeCell ref="B221:B230"/>
+    <mergeCell ref="B231:B235"/>
+    <mergeCell ref="B236:B242"/>
+    <mergeCell ref="B243:B251"/>
+    <mergeCell ref="B187:B198"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9667,7 +9884,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -9689,7 +9906,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
-      <c r="B3" s="21"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
@@ -9709,7 +9926,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
-      <c r="B4" s="21"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
@@ -9729,7 +9946,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
-      <c r="B5" s="21"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
@@ -9749,7 +9966,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
-      <c r="B6" s="21"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
@@ -9769,7 +9986,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
-      <c r="B7" s="21"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
@@ -9789,7 +10006,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
-      <c r="B8" s="21"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
@@ -9809,7 +10026,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
-      <c r="B9" s="21"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
@@ -9829,7 +10046,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
-      <c r="B10" s="21"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="7" t="s">
         <v>16</v>
       </c>
@@ -9849,7 +10066,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
-      <c r="B11" s="21"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
@@ -9869,7 +10086,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
-      <c r="B12" s="21"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="7" t="s">
         <v>16</v>
       </c>
@@ -9891,7 +10108,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
-      <c r="B13" s="21"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="7" t="s">
         <v>16</v>
       </c>
@@ -9911,7 +10128,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
-      <c r="B14" s="21"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="7" t="s">
         <v>16</v>
       </c>
@@ -9931,7 +10148,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
-      <c r="B15" s="21"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="7" t="s">
         <v>16</v>
       </c>
@@ -9951,7 +10168,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
-      <c r="B16" s="21"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="7" t="s">
         <v>16</v>
       </c>
@@ -9971,7 +10188,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
-      <c r="B17" s="21"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="7" t="s">
         <v>16</v>
       </c>
@@ -9991,7 +10208,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
-      <c r="B18" s="21"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="7" t="s">
         <v>16</v>
       </c>
@@ -10011,7 +10228,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
-      <c r="B19" s="21"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="7" t="s">
         <v>16</v>
       </c>
@@ -10031,7 +10248,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
-      <c r="B20" s="21"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="7" t="s">
         <v>16</v>
       </c>
@@ -10051,7 +10268,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
-      <c r="B21" s="21"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="7" t="s">
         <v>16</v>
       </c>
@@ -10071,7 +10288,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
-      <c r="B22" s="21"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="7" t="s">
         <v>16</v>
       </c>
@@ -10091,7 +10308,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
-      <c r="B23" s="21"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="7" t="s">
         <v>16</v>
       </c>
@@ -10111,7 +10328,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
-      <c r="B24" s="21"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="7" t="s">
         <v>16</v>
       </c>
@@ -10131,7 +10348,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
-      <c r="B25" s="21"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="7" t="s">
         <v>16</v>
       </c>
@@ -10151,7 +10368,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
-      <c r="B26" s="21"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="7" t="s">
         <v>16</v>
       </c>
@@ -10171,7 +10388,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
-      <c r="B27" s="21"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="7" t="s">
         <v>16</v>
       </c>
@@ -10191,7 +10408,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
-      <c r="B28" s="21"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="7" t="s">
         <v>16</v>
       </c>
@@ -10211,7 +10428,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
-      <c r="B29" s="21"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="7" t="s">
         <v>16</v>
       </c>
@@ -10231,7 +10448,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
-      <c r="B30" s="21"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="7" t="s">
         <v>16</v>
       </c>
@@ -10251,7 +10468,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
-      <c r="B31" s="21"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="7" t="s">
         <v>16</v>
       </c>
@@ -10271,7 +10488,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
-      <c r="B32" s="21"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="7" t="s">
         <v>16</v>
       </c>
@@ -10291,7 +10508,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
-      <c r="B33" s="21"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="7" t="s">
         <v>16</v>
       </c>
@@ -10311,7 +10528,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
-      <c r="B34" s="21"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="7" t="s">
         <v>16</v>
       </c>
@@ -10331,7 +10548,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
-      <c r="B35" s="21"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="7" t="s">
         <v>16</v>
       </c>
@@ -10351,7 +10568,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
-      <c r="B36" s="21"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="7" t="s">
         <v>16</v>
       </c>
@@ -10371,7 +10588,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
-      <c r="B37" s="21"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="7" t="s">
         <v>16</v>
       </c>
@@ -10391,7 +10608,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
-      <c r="B38" s="21"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="7" t="s">
         <v>16</v>
       </c>
@@ -10411,7 +10628,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
-      <c r="B39" s="21"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="7" t="s">
         <v>16</v>
       </c>
@@ -10431,7 +10648,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
-      <c r="B40" s="21"/>
+      <c r="B40" s="18"/>
       <c r="C40" s="7" t="s">
         <v>16</v>
       </c>
@@ -10451,7 +10668,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
-      <c r="B41" s="21"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="7" t="s">
         <v>16</v>
       </c>
@@ -10471,7 +10688,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
-      <c r="B42" s="21"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="7" t="s">
         <v>16</v>
       </c>
@@ -10491,7 +10708,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
-      <c r="B43" s="21"/>
+      <c r="B43" s="18"/>
       <c r="C43" s="7" t="s">
         <v>16</v>
       </c>
@@ -10511,7 +10728,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
-      <c r="B44" s="21"/>
+      <c r="B44" s="18"/>
       <c r="C44" s="7" t="s">
         <v>16</v>
       </c>
@@ -10531,7 +10748,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -10553,7 +10770,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
-      <c r="B46" s="18"/>
+      <c r="B46" s="15"/>
       <c r="C46" s="7" t="s">
         <v>104</v>
       </c>
@@ -10573,7 +10790,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
-      <c r="B47" s="18"/>
+      <c r="B47" s="15"/>
       <c r="C47" s="7" t="s">
         <v>104</v>
       </c>
@@ -10593,7 +10810,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
-      <c r="B48" s="18"/>
+      <c r="B48" s="15"/>
       <c r="C48" s="7" t="s">
         <v>104</v>
       </c>
@@ -10613,7 +10830,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
-      <c r="B49" s="18"/>
+      <c r="B49" s="15"/>
       <c r="C49" s="7" t="s">
         <v>104</v>
       </c>
@@ -10633,7 +10850,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
-      <c r="B50" s="18"/>
+      <c r="B50" s="15"/>
       <c r="C50" s="7" t="s">
         <v>104</v>
       </c>
@@ -10653,7 +10870,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
-      <c r="B51" s="18"/>
+      <c r="B51" s="15"/>
       <c r="C51" s="7" t="s">
         <v>104</v>
       </c>
@@ -10673,7 +10890,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C52" s="7" t="s">
@@ -10695,7 +10912,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
-      <c r="B53" s="18"/>
+      <c r="B53" s="15"/>
       <c r="C53" s="7" t="s">
         <v>118</v>
       </c>
@@ -10715,7 +10932,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
-      <c r="B54" s="18"/>
+      <c r="B54" s="15"/>
       <c r="C54" s="7" t="s">
         <v>118</v>
       </c>
@@ -10735,7 +10952,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
-      <c r="B55" s="18"/>
+      <c r="B55" s="15"/>
       <c r="C55" s="7" t="s">
         <v>118</v>
       </c>
@@ -10755,7 +10972,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
-      <c r="B56" s="18"/>
+      <c r="B56" s="15"/>
       <c r="C56" s="7" t="s">
         <v>118</v>
       </c>
@@ -10775,7 +10992,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
-      <c r="B57" s="18"/>
+      <c r="B57" s="15"/>
       <c r="C57" s="7" t="s">
         <v>118</v>
       </c>
@@ -10795,7 +11012,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
-      <c r="B58" s="18"/>
+      <c r="B58" s="15"/>
       <c r="C58" s="7" t="s">
         <v>118</v>
       </c>
@@ -10815,7 +11032,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
-      <c r="B59" s="18"/>
+      <c r="B59" s="15"/>
       <c r="C59" s="7" t="s">
         <v>118</v>
       </c>
@@ -10835,7 +11052,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="7"/>
-      <c r="B60" s="18"/>
+      <c r="B60" s="15"/>
       <c r="C60" s="7" t="s">
         <v>118</v>
       </c>
@@ -10855,7 +11072,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="7"/>
-      <c r="B61" s="18"/>
+      <c r="B61" s="15"/>
       <c r="C61" s="7" t="s">
         <v>118</v>
       </c>
@@ -10875,7 +11092,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
-      <c r="B62" s="18"/>
+      <c r="B62" s="15"/>
       <c r="C62" s="7" t="s">
         <v>118</v>
       </c>
@@ -10895,7 +11112,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="7"/>
-      <c r="B63" s="18"/>
+      <c r="B63" s="15"/>
       <c r="C63" s="7" t="s">
         <v>118</v>
       </c>
@@ -10915,7 +11132,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
-      <c r="B64" s="18"/>
+      <c r="B64" s="15"/>
       <c r="C64" s="7" t="s">
         <v>118</v>
       </c>
@@ -10937,7 +11154,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="7"/>
-      <c r="B65" s="18"/>
+      <c r="B65" s="15"/>
       <c r="C65" s="7" t="s">
         <v>118</v>
       </c>
@@ -10957,7 +11174,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
-      <c r="B66" s="18"/>
+      <c r="B66" s="15"/>
       <c r="C66" s="7" t="s">
         <v>118</v>
       </c>
@@ -10979,7 +11196,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
-      <c r="B67" s="18"/>
+      <c r="B67" s="15"/>
       <c r="C67" s="7" t="s">
         <v>118</v>
       </c>
@@ -10999,7 +11216,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
-      <c r="B68" s="18"/>
+      <c r="B68" s="15"/>
       <c r="C68" s="7" t="s">
         <v>118</v>
       </c>
@@ -11019,7 +11236,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
-      <c r="B69" s="18"/>
+      <c r="B69" s="15"/>
       <c r="C69" s="7" t="s">
         <v>118</v>
       </c>
@@ -11039,7 +11256,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="7"/>
-      <c r="B70" s="18"/>
+      <c r="B70" s="15"/>
       <c r="C70" s="7" t="s">
         <v>118</v>
       </c>
@@ -11059,7 +11276,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
-      <c r="B71" s="18"/>
+      <c r="B71" s="15"/>
       <c r="C71" s="7" t="s">
         <v>118</v>
       </c>
@@ -11079,7 +11296,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
-      <c r="B72" s="18"/>
+      <c r="B72" s="15"/>
       <c r="C72" s="7" t="s">
         <v>118</v>
       </c>
@@ -11099,7 +11316,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
-      <c r="B73" s="18"/>
+      <c r="B73" s="15"/>
       <c r="C73" s="7" t="s">
         <v>118</v>
       </c>
@@ -11119,7 +11336,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
-      <c r="B74" s="18"/>
+      <c r="B74" s="15"/>
       <c r="C74" s="7" t="s">
         <v>118</v>
       </c>
@@ -11139,7 +11356,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="7"/>
-      <c r="B75" s="18"/>
+      <c r="B75" s="15"/>
       <c r="C75" s="7" t="s">
         <v>118</v>
       </c>
@@ -11159,7 +11376,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="7"/>
-      <c r="B76" s="18"/>
+      <c r="B76" s="15"/>
       <c r="C76" s="7" t="s">
         <v>118</v>
       </c>
@@ -11179,7 +11396,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
-      <c r="B77" s="18" t="s">
+      <c r="B77" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C77" s="7" t="s">
@@ -11201,7 +11418,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="7"/>
-      <c r="B78" s="18"/>
+      <c r="B78" s="15"/>
       <c r="C78" s="7" t="s">
         <v>536</v>
       </c>
@@ -11221,7 +11438,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="7"/>
-      <c r="B79" s="18"/>
+      <c r="B79" s="15"/>
       <c r="C79" s="7" t="s">
         <v>536</v>
       </c>
@@ -11241,7 +11458,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
-      <c r="B80" s="18"/>
+      <c r="B80" s="15"/>
       <c r="C80" s="7" t="s">
         <v>536</v>
       </c>
@@ -11261,7 +11478,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
-      <c r="B81" s="18"/>
+      <c r="B81" s="15"/>
       <c r="C81" s="7" t="s">
         <v>536</v>
       </c>
@@ -11281,7 +11498,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="7"/>
-      <c r="B82" s="18"/>
+      <c r="B82" s="15"/>
       <c r="C82" s="7" t="s">
         <v>536</v>
       </c>
@@ -11301,7 +11518,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="7"/>
-      <c r="B83" s="18"/>
+      <c r="B83" s="15"/>
       <c r="C83" s="7" t="s">
         <v>536</v>
       </c>
@@ -11321,7 +11538,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="7"/>
-      <c r="B84" s="18"/>
+      <c r="B84" s="15"/>
       <c r="C84" s="7" t="s">
         <v>536</v>
       </c>
@@ -11341,7 +11558,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="7"/>
-      <c r="B85" s="18"/>
+      <c r="B85" s="15"/>
       <c r="C85" s="7" t="s">
         <v>536</v>
       </c>
@@ -11361,7 +11578,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="7"/>
-      <c r="B86" s="18"/>
+      <c r="B86" s="15"/>
       <c r="C86" s="7" t="s">
         <v>536</v>
       </c>
@@ -11381,7 +11598,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="7"/>
-      <c r="B87" s="18"/>
+      <c r="B87" s="15"/>
       <c r="C87" s="7" t="s">
         <v>536</v>
       </c>
@@ -11401,7 +11618,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="7"/>
-      <c r="B88" s="18"/>
+      <c r="B88" s="15"/>
       <c r="C88" s="7" t="s">
         <v>536</v>
       </c>
@@ -11421,7 +11638,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="7"/>
-      <c r="B89" s="18"/>
+      <c r="B89" s="15"/>
       <c r="C89" s="7" t="s">
         <v>536</v>
       </c>
@@ -11441,7 +11658,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="7"/>
-      <c r="B90" s="18"/>
+      <c r="B90" s="15"/>
       <c r="C90" s="7" t="s">
         <v>536</v>
       </c>
@@ -11461,7 +11678,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="7"/>
-      <c r="B91" s="18"/>
+      <c r="B91" s="15"/>
       <c r="C91" s="7" t="s">
         <v>536</v>
       </c>
@@ -11481,7 +11698,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="7"/>
-      <c r="B92" s="18"/>
+      <c r="B92" s="15"/>
       <c r="C92" s="7" t="s">
         <v>536</v>
       </c>
@@ -11501,7 +11718,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="7"/>
-      <c r="B93" s="18"/>
+      <c r="B93" s="15"/>
       <c r="C93" s="7" t="s">
         <v>536</v>
       </c>
@@ -11521,7 +11738,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="7"/>
-      <c r="B94" s="18"/>
+      <c r="B94" s="15"/>
       <c r="C94" s="7" t="s">
         <v>536</v>
       </c>
@@ -11541,7 +11758,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="7"/>
-      <c r="B95" s="18"/>
+      <c r="B95" s="15"/>
       <c r="C95" s="7" t="s">
         <v>536</v>
       </c>
@@ -11561,7 +11778,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="7"/>
-      <c r="B96" s="18"/>
+      <c r="B96" s="15"/>
       <c r="C96" s="7" t="s">
         <v>536</v>
       </c>
@@ -11581,7 +11798,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="7"/>
-      <c r="B97" s="18"/>
+      <c r="B97" s="15"/>
       <c r="C97" s="7" t="s">
         <v>536</v>
       </c>
@@ -11601,7 +11818,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="7"/>
-      <c r="B98" s="18"/>
+      <c r="B98" s="15"/>
       <c r="C98" s="7" t="s">
         <v>536</v>
       </c>
@@ -11621,7 +11838,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="7"/>
-      <c r="B99" s="18"/>
+      <c r="B99" s="15"/>
       <c r="C99" s="7" t="s">
         <v>536</v>
       </c>
@@ -11641,7 +11858,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="7"/>
-      <c r="B100" s="18" t="s">
+      <c r="B100" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C100" s="7" t="s">
@@ -11663,7 +11880,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="7"/>
-      <c r="B101" s="18"/>
+      <c r="B101" s="15"/>
       <c r="C101" s="7" t="s">
         <v>561</v>
       </c>
@@ -11683,7 +11900,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="7"/>
-      <c r="B102" s="18"/>
+      <c r="B102" s="15"/>
       <c r="C102" s="7" t="s">
         <v>170</v>
       </c>
@@ -11703,7 +11920,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="7"/>
-      <c r="B103" s="18"/>
+      <c r="B103" s="15"/>
       <c r="C103" s="7" t="s">
         <v>170</v>
       </c>
@@ -11723,7 +11940,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="7"/>
-      <c r="B104" s="18" t="s">
+      <c r="B104" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C104" s="7" t="s">
@@ -11745,7 +11962,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="7"/>
-      <c r="B105" s="18"/>
+      <c r="B105" s="15"/>
       <c r="C105" s="7" t="s">
         <v>179</v>
       </c>
@@ -11765,7 +11982,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="7"/>
-      <c r="B106" s="18"/>
+      <c r="B106" s="15"/>
       <c r="C106" s="7" t="s">
         <v>562</v>
       </c>
@@ -11785,7 +12002,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="7"/>
-      <c r="B107" s="18"/>
+      <c r="B107" s="15"/>
       <c r="C107" s="7" t="s">
         <v>179</v>
       </c>
@@ -11805,7 +12022,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="7"/>
-      <c r="B108" s="18"/>
+      <c r="B108" s="15"/>
       <c r="C108" s="7" t="s">
         <v>179</v>
       </c>
@@ -11825,7 +12042,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="7"/>
-      <c r="B109" s="18"/>
+      <c r="B109" s="15"/>
       <c r="C109" s="7" t="s">
         <v>179</v>
       </c>
@@ -11845,7 +12062,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="7"/>
-      <c r="B110" s="18"/>
+      <c r="B110" s="15"/>
       <c r="C110" s="7" t="s">
         <v>179</v>
       </c>
@@ -11865,7 +12082,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="7"/>
-      <c r="B111" s="18"/>
+      <c r="B111" s="15"/>
       <c r="C111" s="7" t="s">
         <v>179</v>
       </c>
@@ -11885,7 +12102,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="7"/>
-      <c r="B112" s="18"/>
+      <c r="B112" s="15"/>
       <c r="C112" s="7" t="s">
         <v>179</v>
       </c>
@@ -11905,7 +12122,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="7"/>
-      <c r="B113" s="18"/>
+      <c r="B113" s="15"/>
       <c r="C113" s="7" t="s">
         <v>179</v>
       </c>
@@ -11925,7 +12142,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="7"/>
-      <c r="B114" s="18"/>
+      <c r="B114" s="15"/>
       <c r="C114" s="7" t="s">
         <v>179</v>
       </c>
@@ -11945,7 +12162,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="7"/>
-      <c r="B115" s="18"/>
+      <c r="B115" s="15"/>
       <c r="C115" s="7" t="s">
         <v>179</v>
       </c>
@@ -11965,7 +12182,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="7"/>
-      <c r="B116" s="18"/>
+      <c r="B116" s="15"/>
       <c r="C116" s="7" t="s">
         <v>179</v>
       </c>
@@ -11985,7 +12202,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="7"/>
-      <c r="B117" s="18"/>
+      <c r="B117" s="15"/>
       <c r="C117" s="7" t="s">
         <v>179</v>
       </c>
@@ -12005,7 +12222,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="7"/>
-      <c r="B118" s="18"/>
+      <c r="B118" s="15"/>
       <c r="C118" s="7" t="s">
         <v>179</v>
       </c>
@@ -12027,7 +12244,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="7"/>
-      <c r="B119" s="18"/>
+      <c r="B119" s="15"/>
       <c r="C119" s="7" t="s">
         <v>179</v>
       </c>
@@ -12047,7 +12264,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="7"/>
-      <c r="B120" s="18"/>
+      <c r="B120" s="15"/>
       <c r="C120" s="7" t="s">
         <v>179</v>
       </c>
@@ -12067,7 +12284,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="7"/>
-      <c r="B121" s="18"/>
+      <c r="B121" s="15"/>
       <c r="C121" s="7" t="s">
         <v>179</v>
       </c>
@@ -12087,7 +12304,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="7"/>
-      <c r="B122" s="18"/>
+      <c r="B122" s="15"/>
       <c r="C122" s="7" t="s">
         <v>179</v>
       </c>
@@ -12107,7 +12324,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="7"/>
-      <c r="B123" s="18"/>
+      <c r="B123" s="15"/>
       <c r="C123" s="7" t="s">
         <v>179</v>
       </c>
@@ -12127,7 +12344,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="7"/>
-      <c r="B124" s="18"/>
+      <c r="B124" s="15"/>
       <c r="C124" s="7" t="s">
         <v>179</v>
       </c>
@@ -12147,7 +12364,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="7"/>
-      <c r="B125" s="18"/>
+      <c r="B125" s="15"/>
       <c r="C125" s="7" t="s">
         <v>179</v>
       </c>
@@ -12167,7 +12384,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="7"/>
-      <c r="B126" s="18"/>
+      <c r="B126" s="15"/>
       <c r="C126" s="7" t="s">
         <v>179</v>
       </c>
@@ -12187,7 +12404,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="7"/>
-      <c r="B127" s="18"/>
+      <c r="B127" s="15"/>
       <c r="C127" s="7" t="s">
         <v>179</v>
       </c>
@@ -12207,7 +12424,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="7"/>
-      <c r="B128" s="18"/>
+      <c r="B128" s="15"/>
       <c r="C128" s="7" t="s">
         <v>179</v>
       </c>
@@ -12229,7 +12446,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="7"/>
-      <c r="B129" s="18"/>
+      <c r="B129" s="15"/>
       <c r="C129" s="7" t="s">
         <v>179</v>
       </c>
@@ -12249,7 +12466,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="7"/>
-      <c r="B130" s="18"/>
+      <c r="B130" s="15"/>
       <c r="C130" s="7" t="s">
         <v>179</v>
       </c>
@@ -12271,7 +12488,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="7"/>
-      <c r="B131" s="18"/>
+      <c r="B131" s="15"/>
       <c r="C131" s="7" t="s">
         <v>179</v>
       </c>
@@ -12293,7 +12510,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="7"/>
-      <c r="B132" s="18"/>
+      <c r="B132" s="15"/>
       <c r="C132" s="7" t="s">
         <v>179</v>
       </c>
@@ -12315,7 +12532,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="7"/>
-      <c r="B133" s="18"/>
+      <c r="B133" s="15"/>
       <c r="C133" s="7" t="s">
         <v>179</v>
       </c>
@@ -12337,7 +12554,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="7"/>
-      <c r="B134" s="18"/>
+      <c r="B134" s="15"/>
       <c r="C134" s="7" t="s">
         <v>179</v>
       </c>
@@ -12359,7 +12576,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="7"/>
-      <c r="B135" s="18"/>
+      <c r="B135" s="15"/>
       <c r="C135" s="7" t="s">
         <v>179</v>
       </c>
@@ -12381,7 +12598,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="7"/>
-      <c r="B136" s="18"/>
+      <c r="B136" s="15"/>
       <c r="C136" s="7" t="s">
         <v>179</v>
       </c>
@@ -12403,7 +12620,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="7"/>
-      <c r="B137" s="18"/>
+      <c r="B137" s="15"/>
       <c r="C137" s="7" t="s">
         <v>179</v>
       </c>
@@ -12425,7 +12642,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="7"/>
-      <c r="B138" s="18"/>
+      <c r="B138" s="15"/>
       <c r="C138" s="7" t="s">
         <v>179</v>
       </c>
@@ -12447,7 +12664,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="7"/>
-      <c r="B139" s="18"/>
+      <c r="B139" s="15"/>
       <c r="C139" s="7" t="s">
         <v>179</v>
       </c>
@@ -12469,7 +12686,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="7"/>
-      <c r="B140" s="18"/>
+      <c r="B140" s="15"/>
       <c r="C140" s="7" t="s">
         <v>179</v>
       </c>
@@ -12491,7 +12708,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="7"/>
-      <c r="B141" s="18"/>
+      <c r="B141" s="15"/>
       <c r="C141" s="7" t="s">
         <v>179</v>
       </c>
@@ -12511,7 +12728,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="7"/>
-      <c r="B142" s="18"/>
+      <c r="B142" s="15"/>
       <c r="C142" s="7" t="s">
         <v>179</v>
       </c>
@@ -12531,7 +12748,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="7"/>
-      <c r="B143" s="18"/>
+      <c r="B143" s="15"/>
       <c r="C143" s="7" t="s">
         <v>179</v>
       </c>
@@ -12551,7 +12768,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="7"/>
-      <c r="B144" s="18"/>
+      <c r="B144" s="15"/>
       <c r="C144" s="7" t="s">
         <v>179</v>
       </c>
@@ -12571,7 +12788,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="7"/>
-      <c r="B145" s="18"/>
+      <c r="B145" s="15"/>
       <c r="C145" s="7" t="s">
         <v>179</v>
       </c>
@@ -12591,7 +12808,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="7"/>
-      <c r="B146" s="18"/>
+      <c r="B146" s="15"/>
       <c r="C146" s="7" t="s">
         <v>179</v>
       </c>
@@ -12611,7 +12828,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="7"/>
-      <c r="B147" s="18"/>
+      <c r="B147" s="15"/>
       <c r="C147" s="7" t="s">
         <v>179</v>
       </c>
@@ -12631,7 +12848,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="7"/>
-      <c r="B148" s="18"/>
+      <c r="B148" s="15"/>
       <c r="C148" s="7" t="s">
         <v>179</v>
       </c>
@@ -12651,7 +12868,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="7"/>
-      <c r="B149" s="18" t="s">
+      <c r="B149" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C149" s="7" t="s">
@@ -12673,7 +12890,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="7"/>
-      <c r="B150" s="18"/>
+      <c r="B150" s="15"/>
       <c r="C150" s="7" t="s">
         <v>272</v>
       </c>
@@ -12693,7 +12910,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="7"/>
-      <c r="B151" s="18"/>
+      <c r="B151" s="15"/>
       <c r="C151" s="7" t="s">
         <v>272</v>
       </c>
@@ -12713,7 +12930,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="7"/>
-      <c r="B152" s="18"/>
+      <c r="B152" s="15"/>
       <c r="C152" s="7" t="s">
         <v>272</v>
       </c>
@@ -12733,7 +12950,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="7"/>
-      <c r="B153" s="18" t="s">
+      <c r="B153" s="15" t="s">
         <v>563</v>
       </c>
       <c r="C153" s="7" t="s">
@@ -12755,7 +12972,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="7"/>
-      <c r="B154" s="18"/>
+      <c r="B154" s="15"/>
       <c r="C154" s="7" t="s">
         <v>280</v>
       </c>
@@ -12775,7 +12992,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="7"/>
-      <c r="B155" s="18"/>
+      <c r="B155" s="15"/>
       <c r="C155" s="7" t="s">
         <v>280</v>
       </c>
@@ -12795,7 +13012,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="7"/>
-      <c r="B156" s="18"/>
+      <c r="B156" s="15"/>
       <c r="C156" s="7" t="s">
         <v>280</v>
       </c>
@@ -12815,7 +13032,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="7"/>
-      <c r="B157" s="18"/>
+      <c r="B157" s="15"/>
       <c r="C157" s="7" t="s">
         <v>280</v>
       </c>
@@ -12835,7 +13052,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="7"/>
-      <c r="B158" s="18"/>
+      <c r="B158" s="15"/>
       <c r="C158" s="7" t="s">
         <v>280</v>
       </c>
@@ -12855,7 +13072,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="7"/>
-      <c r="B159" s="18"/>
+      <c r="B159" s="15"/>
       <c r="C159" s="7" t="s">
         <v>280</v>
       </c>
@@ -12875,7 +13092,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="7"/>
-      <c r="B160" s="18"/>
+      <c r="B160" s="15"/>
       <c r="C160" s="7" t="s">
         <v>280</v>
       </c>
@@ -12895,7 +13112,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="7"/>
-      <c r="B161" s="18"/>
+      <c r="B161" s="15"/>
       <c r="C161" s="7" t="s">
         <v>280</v>
       </c>
@@ -12915,7 +13132,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="7"/>
-      <c r="B162" s="18"/>
+      <c r="B162" s="15"/>
       <c r="C162" s="7" t="s">
         <v>280</v>
       </c>
@@ -12935,7 +13152,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="7"/>
-      <c r="B163" s="18"/>
+      <c r="B163" s="15"/>
       <c r="C163" s="7" t="s">
         <v>280</v>
       </c>
@@ -12955,7 +13172,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="7"/>
-      <c r="B164" s="18"/>
+      <c r="B164" s="15"/>
       <c r="C164" s="7" t="s">
         <v>280</v>
       </c>
@@ -12975,7 +13192,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="7"/>
-      <c r="B165" s="18"/>
+      <c r="B165" s="15"/>
       <c r="C165" s="7" t="s">
         <v>280</v>
       </c>
@@ -12995,7 +13212,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="7"/>
-      <c r="B166" s="18"/>
+      <c r="B166" s="15"/>
       <c r="C166" s="7" t="s">
         <v>280</v>
       </c>
@@ -13015,7 +13232,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="7"/>
-      <c r="B167" s="18"/>
+      <c r="B167" s="15"/>
       <c r="C167" s="7" t="s">
         <v>280</v>
       </c>
@@ -13035,7 +13252,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="7"/>
-      <c r="B168" s="18"/>
+      <c r="B168" s="15"/>
       <c r="C168" s="7" t="s">
         <v>280</v>
       </c>
@@ -13055,7 +13272,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="7"/>
-      <c r="B169" s="18"/>
+      <c r="B169" s="15"/>
       <c r="C169" s="7" t="s">
         <v>280</v>
       </c>
@@ -13075,7 +13292,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="7"/>
-      <c r="B170" s="18"/>
+      <c r="B170" s="15"/>
       <c r="C170" s="7" t="s">
         <v>280</v>
       </c>
@@ -13095,7 +13312,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="7"/>
-      <c r="B171" s="18"/>
+      <c r="B171" s="15"/>
       <c r="C171" s="7" t="s">
         <v>280</v>
       </c>
@@ -13115,7 +13332,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="7"/>
-      <c r="B172" s="18"/>
+      <c r="B172" s="15"/>
       <c r="C172" s="7" t="s">
         <v>280</v>
       </c>
@@ -13135,7 +13352,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="7"/>
-      <c r="B173" s="18"/>
+      <c r="B173" s="15"/>
       <c r="C173" s="7" t="s">
         <v>280</v>
       </c>
@@ -13155,7 +13372,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="7"/>
-      <c r="B174" s="18"/>
+      <c r="B174" s="15"/>
       <c r="C174" s="7" t="s">
         <v>564</v>
       </c>
@@ -13175,7 +13392,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="7"/>
-      <c r="B175" s="18"/>
+      <c r="B175" s="15"/>
       <c r="C175" s="7" t="s">
         <v>280</v>
       </c>
@@ -13195,7 +13412,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="7"/>
-      <c r="B176" s="18"/>
+      <c r="B176" s="15"/>
       <c r="C176" s="7" t="s">
         <v>280</v>
       </c>
@@ -13215,7 +13432,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="7"/>
-      <c r="B177" s="18"/>
+      <c r="B177" s="15"/>
       <c r="C177" s="7" t="s">
         <v>280</v>
       </c>
@@ -13235,7 +13452,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="7"/>
-      <c r="B178" s="18"/>
+      <c r="B178" s="15"/>
       <c r="C178" s="7" t="s">
         <v>280</v>
       </c>
@@ -13255,7 +13472,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="7"/>
-      <c r="B179" s="18"/>
+      <c r="B179" s="15"/>
       <c r="C179" s="7" t="s">
         <v>280</v>
       </c>
@@ -13275,7 +13492,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="7"/>
-      <c r="B180" s="18"/>
+      <c r="B180" s="15"/>
       <c r="C180" s="7" t="s">
         <v>280</v>
       </c>
@@ -13295,7 +13512,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="7"/>
-      <c r="B181" s="18"/>
+      <c r="B181" s="15"/>
       <c r="C181" s="7" t="s">
         <v>280</v>
       </c>
@@ -13315,7 +13532,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="7"/>
-      <c r="B182" s="18"/>
+      <c r="B182" s="15"/>
       <c r="C182" s="7" t="s">
         <v>280</v>
       </c>
@@ -13335,7 +13552,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="7"/>
-      <c r="B183" s="18"/>
+      <c r="B183" s="15"/>
       <c r="C183" s="7" t="s">
         <v>280</v>
       </c>
@@ -13355,7 +13572,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="7"/>
-      <c r="B184" s="18"/>
+      <c r="B184" s="15"/>
       <c r="C184" s="7" t="s">
         <v>280</v>
       </c>
@@ -13375,7 +13592,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="7"/>
-      <c r="B185" s="18"/>
+      <c r="B185" s="15"/>
       <c r="C185" s="7" t="s">
         <v>280</v>
       </c>
@@ -13395,7 +13612,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="7"/>
-      <c r="B186" s="18"/>
+      <c r="B186" s="15"/>
       <c r="C186" s="7" t="s">
         <v>280</v>
       </c>
@@ -13415,7 +13632,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="7"/>
-      <c r="B187" s="18"/>
+      <c r="B187" s="15"/>
       <c r="C187" s="7" t="s">
         <v>280</v>
       </c>
@@ -13435,7 +13652,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="7"/>
-      <c r="B188" s="18"/>
+      <c r="B188" s="15"/>
       <c r="C188" s="7" t="s">
         <v>280</v>
       </c>
@@ -13455,7 +13672,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="7"/>
-      <c r="B189" s="18"/>
+      <c r="B189" s="15"/>
       <c r="C189" s="7" t="s">
         <v>280</v>
       </c>
@@ -13475,7 +13692,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="7"/>
-      <c r="B190" s="18"/>
+      <c r="B190" s="15"/>
       <c r="C190" s="7" t="s">
         <v>280</v>
       </c>
@@ -13495,7 +13712,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="7"/>
-      <c r="B191" s="18"/>
+      <c r="B191" s="15"/>
       <c r="C191" s="7" t="s">
         <v>280</v>
       </c>
@@ -13515,7 +13732,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="7"/>
-      <c r="B192" s="18"/>
+      <c r="B192" s="15"/>
       <c r="C192" s="7" t="s">
         <v>280</v>
       </c>
@@ -13535,7 +13752,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="7"/>
-      <c r="B193" s="18"/>
+      <c r="B193" s="15"/>
       <c r="C193" s="7" t="s">
         <v>280</v>
       </c>
@@ -13555,7 +13772,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="7"/>
-      <c r="B194" s="18"/>
+      <c r="B194" s="15"/>
       <c r="C194" s="7" t="s">
         <v>280</v>
       </c>
@@ -13575,7 +13792,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="7"/>
-      <c r="B195" s="18"/>
+      <c r="B195" s="15"/>
       <c r="C195" s="7" t="s">
         <v>280</v>
       </c>
@@ -13595,7 +13812,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="7"/>
-      <c r="B196" s="18"/>
+      <c r="B196" s="15"/>
       <c r="C196" s="7" t="s">
         <v>280</v>
       </c>
@@ -13615,7 +13832,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="7"/>
-      <c r="B197" s="18"/>
+      <c r="B197" s="15"/>
       <c r="C197" s="7" t="s">
         <v>280</v>
       </c>
@@ -13635,7 +13852,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="7"/>
-      <c r="B198" s="18"/>
+      <c r="B198" s="15"/>
       <c r="C198" s="7" t="s">
         <v>280</v>
       </c>
@@ -13655,7 +13872,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="7"/>
-      <c r="B199" s="18"/>
+      <c r="B199" s="15"/>
       <c r="C199" s="7" t="s">
         <v>280</v>
       </c>
@@ -13675,7 +13892,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="7"/>
-      <c r="B200" s="18"/>
+      <c r="B200" s="15"/>
       <c r="C200" s="7" t="s">
         <v>280</v>
       </c>
@@ -13695,7 +13912,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="7"/>
-      <c r="B201" s="18"/>
+      <c r="B201" s="15"/>
       <c r="C201" s="7" t="s">
         <v>280</v>
       </c>
@@ -13715,7 +13932,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="7"/>
-      <c r="B202" s="18"/>
+      <c r="B202" s="15"/>
       <c r="C202" s="7" t="s">
         <v>280</v>
       </c>
@@ -13735,7 +13952,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="7"/>
-      <c r="B203" s="18"/>
+      <c r="B203" s="15"/>
       <c r="C203" s="7" t="s">
         <v>280</v>
       </c>
@@ -13755,7 +13972,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="7"/>
-      <c r="B204" s="18"/>
+      <c r="B204" s="15"/>
       <c r="C204" s="7" t="s">
         <v>280</v>
       </c>
@@ -13775,7 +13992,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="7"/>
-      <c r="B205" s="18"/>
+      <c r="B205" s="15"/>
       <c r="C205" s="7" t="s">
         <v>280</v>
       </c>
@@ -13795,7 +14012,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="7"/>
-      <c r="B206" s="18"/>
+      <c r="B206" s="15"/>
       <c r="C206" s="7" t="s">
         <v>280</v>
       </c>
@@ -13815,7 +14032,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="7"/>
-      <c r="B207" s="18"/>
+      <c r="B207" s="15"/>
       <c r="C207" s="7" t="s">
         <v>280</v>
       </c>
@@ -13835,7 +14052,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="7"/>
-      <c r="B208" s="18"/>
+      <c r="B208" s="15"/>
       <c r="C208" s="7" t="s">
         <v>280</v>
       </c>
@@ -13855,7 +14072,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="7"/>
-      <c r="B209" s="18"/>
+      <c r="B209" s="15"/>
       <c r="C209" s="7" t="s">
         <v>280</v>
       </c>
@@ -13875,7 +14092,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="7"/>
-      <c r="B210" s="18"/>
+      <c r="B210" s="15"/>
       <c r="C210" s="7" t="s">
         <v>280</v>
       </c>
@@ -13895,7 +14112,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="7"/>
-      <c r="B211" s="18"/>
+      <c r="B211" s="15"/>
       <c r="C211" s="7" t="s">
         <v>280</v>
       </c>
@@ -13915,7 +14132,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="7"/>
-      <c r="B212" s="18"/>
+      <c r="B212" s="15"/>
       <c r="C212" s="7" t="s">
         <v>280</v>
       </c>
@@ -13935,7 +14152,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="7"/>
-      <c r="B213" s="18"/>
+      <c r="B213" s="15"/>
       <c r="C213" s="7" t="s">
         <v>280</v>
       </c>
@@ -13955,7 +14172,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="7"/>
-      <c r="B214" s="18"/>
+      <c r="B214" s="15"/>
       <c r="C214" s="7" t="s">
         <v>280</v>
       </c>
@@ -13975,7 +14192,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="7"/>
-      <c r="B215" s="18"/>
+      <c r="B215" s="15"/>
       <c r="C215" s="7" t="s">
         <v>280</v>
       </c>
@@ -13995,7 +14212,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="7"/>
-      <c r="B216" s="18"/>
+      <c r="B216" s="15"/>
       <c r="C216" s="7" t="s">
         <v>280</v>
       </c>
@@ -14015,7 +14232,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="7"/>
-      <c r="B217" s="18"/>
+      <c r="B217" s="15"/>
       <c r="C217" s="7" t="s">
         <v>280</v>
       </c>
@@ -14035,7 +14252,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="7"/>
-      <c r="B218" s="18"/>
+      <c r="B218" s="15"/>
       <c r="C218" s="7" t="s">
         <v>280</v>
       </c>
@@ -14055,7 +14272,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="7"/>
-      <c r="B219" s="18"/>
+      <c r="B219" s="15"/>
       <c r="C219" s="7" t="s">
         <v>280</v>
       </c>
@@ -14075,7 +14292,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="7"/>
-      <c r="B220" s="18"/>
+      <c r="B220" s="15"/>
       <c r="C220" s="7" t="s">
         <v>280</v>
       </c>
@@ -14237,7 +14454,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="7"/>
-      <c r="B228" s="18" t="s">
+      <c r="B228" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C228" s="7" t="s">
@@ -14259,7 +14476,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="7"/>
-      <c r="B229" s="18"/>
+      <c r="B229" s="15"/>
       <c r="C229" s="7" t="s">
         <v>430</v>
       </c>
@@ -14279,7 +14496,7 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="7"/>
-      <c r="B230" s="18"/>
+      <c r="B230" s="15"/>
       <c r="C230" s="7" t="s">
         <v>430</v>
       </c>
@@ -14299,7 +14516,7 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="7"/>
-      <c r="B231" s="18"/>
+      <c r="B231" s="15"/>
       <c r="C231" s="7" t="s">
         <v>430</v>
       </c>
@@ -14319,7 +14536,7 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="7"/>
-      <c r="B232" s="18"/>
+      <c r="B232" s="15"/>
       <c r="C232" s="7" t="s">
         <v>430</v>
       </c>
@@ -14339,7 +14556,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="7"/>
-      <c r="B233" s="18"/>
+      <c r="B233" s="15"/>
       <c r="C233" s="7" t="s">
         <v>430</v>
       </c>
@@ -14359,7 +14576,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="7"/>
-      <c r="B234" s="18"/>
+      <c r="B234" s="15"/>
       <c r="C234" s="7" t="s">
         <v>430</v>
       </c>
@@ -14379,7 +14596,7 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="7"/>
-      <c r="B235" s="18"/>
+      <c r="B235" s="15"/>
       <c r="C235" s="7" t="s">
         <v>430</v>
       </c>
@@ -14399,7 +14616,7 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="7"/>
-      <c r="B236" s="18"/>
+      <c r="B236" s="15"/>
       <c r="C236" s="7" t="s">
         <v>566</v>
       </c>
@@ -14419,7 +14636,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="7"/>
-      <c r="B237" s="18"/>
+      <c r="B237" s="15"/>
       <c r="C237" s="7" t="s">
         <v>430</v>
       </c>
@@ -14439,7 +14656,7 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="7"/>
-      <c r="B238" s="18"/>
+      <c r="B238" s="15"/>
       <c r="C238" s="7" t="s">
         <v>430</v>
       </c>
@@ -14459,7 +14676,7 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="7"/>
-      <c r="B239" s="18"/>
+      <c r="B239" s="15"/>
       <c r="C239" s="7" t="s">
         <v>430</v>
       </c>
@@ -14479,7 +14696,7 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="7"/>
-      <c r="B240" s="18"/>
+      <c r="B240" s="15"/>
       <c r="C240" s="7" t="s">
         <v>430</v>
       </c>
@@ -14499,7 +14716,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="7"/>
-      <c r="B241" s="18"/>
+      <c r="B241" s="15"/>
       <c r="C241" s="7" t="s">
         <v>430</v>
       </c>
@@ -14519,7 +14736,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="7"/>
-      <c r="B242" s="18"/>
+      <c r="B242" s="15"/>
       <c r="C242" s="7" t="s">
         <v>430</v>
       </c>
@@ -14539,7 +14756,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="7"/>
-      <c r="B243" s="18"/>
+      <c r="B243" s="15"/>
       <c r="C243" s="7" t="s">
         <v>430</v>
       </c>
@@ -14559,7 +14776,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="7"/>
-      <c r="B244" s="18"/>
+      <c r="B244" s="15"/>
       <c r="C244" s="7" t="s">
         <v>430</v>
       </c>
@@ -14579,7 +14796,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="7"/>
-      <c r="B245" s="18"/>
+      <c r="B245" s="15"/>
       <c r="C245" s="7" t="s">
         <v>430</v>
       </c>
@@ -14599,7 +14816,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="7"/>
-      <c r="B246" s="18"/>
+      <c r="B246" s="15"/>
       <c r="C246" s="7" t="s">
         <v>430</v>
       </c>
@@ -14619,7 +14836,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="7"/>
-      <c r="B247" s="18"/>
+      <c r="B247" s="15"/>
       <c r="C247" s="7" t="s">
         <v>430</v>
       </c>
@@ -14639,7 +14856,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="7"/>
-      <c r="B248" s="18"/>
+      <c r="B248" s="15"/>
       <c r="C248" s="7" t="s">
         <v>430</v>
       </c>
@@ -14659,7 +14876,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="7"/>
-      <c r="B249" s="18"/>
+      <c r="B249" s="15"/>
       <c r="C249" s="7" t="s">
         <v>430</v>
       </c>
@@ -14679,7 +14896,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="7"/>
-      <c r="B250" s="18"/>
+      <c r="B250" s="15"/>
       <c r="C250" s="7" t="s">
         <v>430</v>
       </c>
@@ -14699,7 +14916,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="7"/>
-      <c r="B251" s="18"/>
+      <c r="B251" s="15"/>
       <c r="C251" s="7" t="s">
         <v>430</v>
       </c>
@@ -14719,7 +14936,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="7"/>
-      <c r="B252" s="18"/>
+      <c r="B252" s="15"/>
       <c r="C252" s="7" t="s">
         <v>430</v>
       </c>
@@ -14739,7 +14956,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="7"/>
-      <c r="B253" s="18"/>
+      <c r="B253" s="15"/>
       <c r="C253" s="7" t="s">
         <v>430</v>
       </c>
@@ -14759,7 +14976,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="7"/>
-      <c r="B254" s="18"/>
+      <c r="B254" s="15"/>
       <c r="C254" s="7" t="s">
         <v>430</v>
       </c>
@@ -14779,7 +14996,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="7"/>
-      <c r="B255" s="18"/>
+      <c r="B255" s="15"/>
       <c r="C255" s="7" t="s">
         <v>430</v>
       </c>
@@ -14799,7 +15016,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="7"/>
-      <c r="B256" s="18"/>
+      <c r="B256" s="15"/>
       <c r="C256" s="7" t="s">
         <v>430</v>
       </c>
@@ -14819,7 +15036,7 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="7"/>
-      <c r="B257" s="18"/>
+      <c r="B257" s="15"/>
       <c r="C257" s="7" t="s">
         <v>430</v>
       </c>
@@ -14839,7 +15056,7 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="7"/>
-      <c r="B258" s="18"/>
+      <c r="B258" s="15"/>
       <c r="C258" s="7" t="s">
         <v>430</v>
       </c>
@@ -14859,7 +15076,7 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="7"/>
-      <c r="B259" s="18"/>
+      <c r="B259" s="15"/>
       <c r="C259" s="7" t="s">
         <v>430</v>
       </c>
@@ -14979,7 +15196,7 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="7"/>
-      <c r="B265" s="18" t="s">
+      <c r="B265" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C265" s="7" t="s">
@@ -15000,7 +15217,7 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="7"/>
-      <c r="B266" s="18"/>
+      <c r="B266" s="15"/>
       <c r="C266" s="7" t="s">
         <v>504</v>
       </c>
@@ -15019,7 +15236,7 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="7"/>
-      <c r="B267" s="18"/>
+      <c r="B267" s="15"/>
       <c r="C267" s="7" t="s">
         <v>504</v>
       </c>
@@ -15038,7 +15255,7 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="7"/>
-      <c r="B268" s="18"/>
+      <c r="B268" s="15"/>
       <c r="C268" s="7" t="s">
         <v>504</v>
       </c>
@@ -15057,7 +15274,7 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="7"/>
-      <c r="B269" s="18"/>
+      <c r="B269" s="15"/>
       <c r="C269" s="7" t="s">
         <v>504</v>
       </c>
@@ -15076,7 +15293,7 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="7"/>
-      <c r="B270" s="18" t="s">
+      <c r="B270" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C270" s="7" t="s">
@@ -15097,7 +15314,7 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="7"/>
-      <c r="B271" s="18"/>
+      <c r="B271" s="15"/>
       <c r="C271" s="7" t="s">
         <v>513</v>
       </c>
@@ -15116,7 +15333,7 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="7"/>
-      <c r="B272" s="18"/>
+      <c r="B272" s="15"/>
       <c r="C272" s="7" t="s">
         <v>513</v>
       </c>
@@ -15135,7 +15352,7 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="7"/>
-      <c r="B273" s="18"/>
+      <c r="B273" s="15"/>
       <c r="C273" s="7" t="s">
         <v>513</v>
       </c>
@@ -15154,7 +15371,7 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="7"/>
-      <c r="B274" s="18"/>
+      <c r="B274" s="15"/>
       <c r="C274" s="7" t="s">
         <v>513</v>
       </c>
@@ -15173,7 +15390,7 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="7"/>
-      <c r="B275" s="18"/>
+      <c r="B275" s="15"/>
       <c r="C275" s="7" t="s">
         <v>513</v>
       </c>
@@ -15192,7 +15409,7 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="7"/>
-      <c r="B276" s="18" t="s">
+      <c r="B276" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C276" s="7" t="s">
@@ -15213,7 +15430,7 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="7"/>
-      <c r="B277" s="18"/>
+      <c r="B277" s="15"/>
       <c r="C277" s="7" t="s">
         <v>526</v>
       </c>
@@ -15232,7 +15449,7 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="7"/>
-      <c r="B278" s="18"/>
+      <c r="B278" s="15"/>
       <c r="C278" s="7" t="s">
         <v>526</v>
       </c>
@@ -15251,7 +15468,7 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="7"/>
-      <c r="B279" s="18"/>
+      <c r="B279" s="15"/>
       <c r="C279" s="7" t="s">
         <v>526</v>
       </c>
@@ -15270,7 +15487,7 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="7"/>
-      <c r="B280" s="18"/>
+      <c r="B280" s="15"/>
       <c r="C280" s="7" t="s">
         <v>526</v>
       </c>
@@ -15904,6 +16121,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B276:B280"/>
+    <mergeCell ref="B153:B220"/>
+    <mergeCell ref="B221:B227"/>
+    <mergeCell ref="B228:B259"/>
+    <mergeCell ref="B260:B264"/>
+    <mergeCell ref="B265:B269"/>
+    <mergeCell ref="B270:B275"/>
     <mergeCell ref="B149:B152"/>
     <mergeCell ref="B2:B44"/>
     <mergeCell ref="B45:B51"/>
@@ -15911,13 +16135,6 @@
     <mergeCell ref="B52:B76"/>
     <mergeCell ref="B104:B148"/>
     <mergeCell ref="B77:B99"/>
-    <mergeCell ref="B276:B280"/>
-    <mergeCell ref="B153:B220"/>
-    <mergeCell ref="B221:B227"/>
-    <mergeCell ref="B228:B259"/>
-    <mergeCell ref="B260:B264"/>
-    <mergeCell ref="B265:B269"/>
-    <mergeCell ref="B270:B275"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15972,7 +16189,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>567</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -15994,7 +16211,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
-      <c r="B3" s="18"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="10" t="s">
         <v>568</v>
       </c>
@@ -16014,7 +16231,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
-      <c r="B4" s="18"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="10" t="s">
         <v>568</v>
       </c>
@@ -16034,7 +16251,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
-      <c r="B5" s="18"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="10" t="s">
         <v>568</v>
       </c>
@@ -16054,7 +16271,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
-      <c r="B6" s="18"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="10" t="s">
         <v>568</v>
       </c>
@@ -16074,7 +16291,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
-      <c r="B7" s="18"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="10" t="s">
         <v>568</v>
       </c>
@@ -16094,7 +16311,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
-      <c r="B8" s="18"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="10" t="s">
         <v>568</v>
       </c>
@@ -16114,7 +16331,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
-      <c r="B9" s="18"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="10" t="s">
         <v>568</v>
       </c>
@@ -16425,7 +16642,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="15" t="s">
         <v>567</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -16446,7 +16663,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
-      <c r="B25" s="18"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="10" t="s">
         <v>615</v>
       </c>
@@ -16465,7 +16682,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
-      <c r="B26" s="18"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="10" t="s">
         <v>615</v>
       </c>
@@ -16484,7 +16701,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
-      <c r="B27" s="18"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="10" t="s">
         <v>615</v>
       </c>
@@ -16503,7 +16720,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
-      <c r="B28" s="18"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="10" t="s">
         <v>1035</v>
       </c>
@@ -16522,7 +16739,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
-      <c r="B29" s="18"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="10" t="s">
         <v>615</v>
       </c>
@@ -16541,7 +16758,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
-      <c r="B30" s="18"/>
+      <c r="B30" s="15"/>
       <c r="C30" s="10" t="s">
         <v>615</v>
       </c>
@@ -16560,7 +16777,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="15" t="s">
         <v>1036</v>
       </c>
       <c r="C31" s="10" t="s">
@@ -16581,7 +16798,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
-      <c r="B32" s="18"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="10" t="s">
         <v>630</v>
       </c>
@@ -16600,7 +16817,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
-      <c r="B33" s="18"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="10" t="s">
         <v>630</v>
       </c>
@@ -16619,7 +16836,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
-      <c r="B34" s="18"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="10" t="s">
         <v>1037</v>
       </c>
@@ -16638,7 +16855,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
-      <c r="B35" s="18"/>
+      <c r="B35" s="15"/>
       <c r="C35" s="10" t="s">
         <v>630</v>
       </c>
@@ -16657,7 +16874,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
-      <c r="B36" s="18"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="10" t="s">
         <v>630</v>
       </c>
@@ -16676,7 +16893,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
-      <c r="B37" s="18"/>
+      <c r="B37" s="15"/>
       <c r="C37" s="10" t="s">
         <v>630</v>
       </c>
@@ -16695,7 +16912,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="15" t="s">
         <v>567</v>
       </c>
       <c r="C38" s="10" t="s">
@@ -16716,7 +16933,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
-      <c r="B39" s="18"/>
+      <c r="B39" s="15"/>
       <c r="C39" s="10" t="s">
         <v>645</v>
       </c>
@@ -16735,7 +16952,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
-      <c r="B40" s="18"/>
+      <c r="B40" s="15"/>
       <c r="C40" s="10" t="s">
         <v>645</v>
       </c>
@@ -16754,7 +16971,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
-      <c r="B41" s="18"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="10" t="s">
         <v>645</v>
       </c>
@@ -16773,7 +16990,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="15" t="s">
         <v>567</v>
       </c>
       <c r="C42" s="10" t="s">
@@ -16794,7 +17011,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
-      <c r="B43" s="18"/>
+      <c r="B43" s="15"/>
       <c r="C43" s="10" t="s">
         <v>654</v>
       </c>
@@ -16813,7 +17030,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
-      <c r="B44" s="18"/>
+      <c r="B44" s="15"/>
       <c r="C44" s="10" t="s">
         <v>654</v>
       </c>
@@ -16832,7 +17049,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
-      <c r="B45" s="18"/>
+      <c r="B45" s="15"/>
       <c r="C45" s="10" t="s">
         <v>1038</v>
       </c>
@@ -16851,7 +17068,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
-      <c r="B46" s="18"/>
+      <c r="B46" s="15"/>
       <c r="C46" s="10" t="s">
         <v>654</v>
       </c>
@@ -16870,7 +17087,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
-      <c r="B47" s="18"/>
+      <c r="B47" s="15"/>
       <c r="C47" s="10" t="s">
         <v>654</v>
       </c>
@@ -16889,7 +17106,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
-      <c r="B48" s="18"/>
+      <c r="B48" s="15"/>
       <c r="C48" s="10" t="s">
         <v>654</v>
       </c>
@@ -16908,7 +17125,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
-      <c r="B49" s="18"/>
+      <c r="B49" s="15"/>
       <c r="C49" s="10" t="s">
         <v>654</v>
       </c>
@@ -16927,7 +17144,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
-      <c r="B50" s="18"/>
+      <c r="B50" s="15"/>
       <c r="C50" s="10" t="s">
         <v>654</v>
       </c>
@@ -16946,7 +17163,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
-      <c r="B51" s="18"/>
+      <c r="B51" s="15"/>
       <c r="C51" s="10" t="s">
         <v>654</v>
       </c>
@@ -16965,7 +17182,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
-      <c r="B52" s="18"/>
+      <c r="B52" s="15"/>
       <c r="C52" s="10" t="s">
         <v>654</v>
       </c>
@@ -16984,7 +17201,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="15" t="s">
         <v>567</v>
       </c>
       <c r="C53" s="10" t="s">
@@ -17005,7 +17222,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
-      <c r="B54" s="18"/>
+      <c r="B54" s="15"/>
       <c r="C54" s="10" t="s">
         <v>676</v>
       </c>
@@ -17024,7 +17241,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
-      <c r="B55" s="18"/>
+      <c r="B55" s="15"/>
       <c r="C55" s="10" t="s">
         <v>1039</v>
       </c>
@@ -17043,7 +17260,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
-      <c r="B56" s="18"/>
+      <c r="B56" s="15"/>
       <c r="C56" s="10" t="s">
         <v>676</v>
       </c>
@@ -17062,7 +17279,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="15" t="s">
         <v>567</v>
       </c>
       <c r="C57" s="10" t="s">
@@ -17083,7 +17300,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
-      <c r="B58" s="18"/>
+      <c r="B58" s="15"/>
       <c r="C58" s="10" t="s">
         <v>684</v>
       </c>
@@ -17102,7 +17319,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
-      <c r="B59" s="18"/>
+      <c r="B59" s="15"/>
       <c r="C59" s="10" t="s">
         <v>684</v>
       </c>
@@ -17121,7 +17338,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
-      <c r="B60" s="18"/>
+      <c r="B60" s="15"/>
       <c r="C60" s="10" t="s">
         <v>684</v>
       </c>
@@ -17140,7 +17357,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="10"/>
-      <c r="B61" s="18"/>
+      <c r="B61" s="15"/>
       <c r="C61" s="10" t="s">
         <v>684</v>
       </c>
@@ -17159,7 +17376,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="10"/>
-      <c r="B62" s="18"/>
+      <c r="B62" s="15"/>
       <c r="C62" s="10" t="s">
         <v>684</v>
       </c>
@@ -17178,7 +17395,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
-      <c r="B63" s="18"/>
+      <c r="B63" s="15"/>
       <c r="C63" s="10" t="s">
         <v>684</v>
       </c>
@@ -17197,7 +17414,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="10"/>
-      <c r="B64" s="18"/>
+      <c r="B64" s="15"/>
       <c r="C64" s="10" t="s">
         <v>684</v>
       </c>
@@ -17216,7 +17433,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="10"/>
-      <c r="B65" s="18"/>
+      <c r="B65" s="15"/>
       <c r="C65" s="10" t="s">
         <v>684</v>
       </c>
@@ -17235,7 +17452,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="10"/>
-      <c r="B66" s="18"/>
+      <c r="B66" s="15"/>
       <c r="C66" s="10" t="s">
         <v>684</v>
       </c>
@@ -17254,7 +17471,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="10"/>
-      <c r="B67" s="18"/>
+      <c r="B67" s="15"/>
       <c r="C67" s="10" t="s">
         <v>684</v>
       </c>
@@ -17273,7 +17490,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="10"/>
-      <c r="B68" s="18"/>
+      <c r="B68" s="15"/>
       <c r="C68" s="10" t="s">
         <v>684</v>
       </c>
@@ -17292,7 +17509,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
-      <c r="B69" s="18"/>
+      <c r="B69" s="15"/>
       <c r="C69" s="10" t="s">
         <v>1040</v>
       </c>
@@ -17311,7 +17528,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="10"/>
-      <c r="B70" s="18"/>
+      <c r="B70" s="15"/>
       <c r="C70" s="10" t="s">
         <v>684</v>
       </c>
@@ -17330,7 +17547,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="10"/>
-      <c r="B71" s="18"/>
+      <c r="B71" s="15"/>
       <c r="C71" s="10" t="s">
         <v>684</v>
       </c>
@@ -17349,7 +17566,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="10"/>
-      <c r="B72" s="18"/>
+      <c r="B72" s="15"/>
       <c r="C72" s="10" t="s">
         <v>684</v>
       </c>
@@ -17368,7 +17585,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="10"/>
-      <c r="B73" s="18"/>
+      <c r="B73" s="15"/>
       <c r="C73" s="10" t="s">
         <v>684</v>
       </c>
@@ -17387,7 +17604,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="10"/>
-      <c r="B74" s="18"/>
+      <c r="B74" s="15"/>
       <c r="C74" s="10" t="s">
         <v>684</v>
       </c>
@@ -17406,7 +17623,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="10"/>
-      <c r="B75" s="18"/>
+      <c r="B75" s="15"/>
       <c r="C75" s="10" t="s">
         <v>684</v>
       </c>
@@ -17425,7 +17642,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="10"/>
-      <c r="B76" s="18"/>
+      <c r="B76" s="15"/>
       <c r="C76" s="10" t="s">
         <v>684</v>
       </c>
@@ -17444,7 +17661,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="10"/>
-      <c r="B77" s="18"/>
+      <c r="B77" s="15"/>
       <c r="C77" s="10" t="s">
         <v>684</v>
       </c>
@@ -17463,7 +17680,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="10"/>
-      <c r="B78" s="18" t="s">
+      <c r="B78" s="15" t="s">
         <v>567</v>
       </c>
       <c r="C78" s="10" t="s">
@@ -17487,7 +17704,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="10"/>
-      <c r="B79" s="18"/>
+      <c r="B79" s="15"/>
       <c r="C79" s="10" t="s">
         <v>727</v>
       </c>
@@ -17509,7 +17726,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="10"/>
-      <c r="B80" s="18"/>
+      <c r="B80" s="15"/>
       <c r="C80" s="10" t="s">
         <v>727</v>
       </c>
@@ -17531,7 +17748,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="10"/>
-      <c r="B81" s="18"/>
+      <c r="B81" s="15"/>
       <c r="C81" s="10" t="s">
         <v>727</v>
       </c>
@@ -17553,7 +17770,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="10"/>
-      <c r="B82" s="18"/>
+      <c r="B82" s="15"/>
       <c r="C82" s="10" t="s">
         <v>727</v>
       </c>
@@ -17575,7 +17792,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="10"/>
-      <c r="B83" s="18"/>
+      <c r="B83" s="15"/>
       <c r="C83" s="10" t="s">
         <v>727</v>
       </c>
@@ -17597,7 +17814,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="10"/>
-      <c r="B84" s="18"/>
+      <c r="B84" s="15"/>
       <c r="C84" s="10" t="s">
         <v>1041</v>
       </c>
@@ -17619,7 +17836,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="10"/>
-      <c r="B85" s="18"/>
+      <c r="B85" s="15"/>
       <c r="C85" s="10" t="s">
         <v>727</v>
       </c>
@@ -17641,7 +17858,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="10"/>
-      <c r="B86" s="18"/>
+      <c r="B86" s="15"/>
       <c r="C86" s="10" t="s">
         <v>727</v>
       </c>
@@ -17663,7 +17880,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="10"/>
-      <c r="B87" s="18"/>
+      <c r="B87" s="15"/>
       <c r="C87" s="10" t="s">
         <v>727</v>
       </c>
@@ -17685,7 +17902,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="10"/>
-      <c r="B88" s="18"/>
+      <c r="B88" s="15"/>
       <c r="C88" s="10" t="s">
         <v>727</v>
       </c>
@@ -17707,7 +17924,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="10"/>
-      <c r="B89" s="18"/>
+      <c r="B89" s="15"/>
       <c r="C89" s="10" t="s">
         <v>727</v>
       </c>
@@ -17729,7 +17946,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="10"/>
-      <c r="B90" s="18"/>
+      <c r="B90" s="15"/>
       <c r="C90" s="10" t="s">
         <v>727</v>
       </c>
@@ -17751,7 +17968,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="10"/>
-      <c r="B91" s="18"/>
+      <c r="B91" s="15"/>
       <c r="C91" s="10" t="s">
         <v>727</v>
       </c>
@@ -17773,7 +17990,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="10"/>
-      <c r="B92" s="18"/>
+      <c r="B92" s="15"/>
       <c r="C92" s="10" t="s">
         <v>727</v>
       </c>
@@ -17795,7 +18012,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="10"/>
-      <c r="B93" s="18"/>
+      <c r="B93" s="15"/>
       <c r="C93" s="10" t="s">
         <v>727</v>
       </c>
@@ -17817,7 +18034,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="10"/>
-      <c r="B94" s="18"/>
+      <c r="B94" s="15"/>
       <c r="C94" s="10" t="s">
         <v>727</v>
       </c>
@@ -18839,7 +19056,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="10"/>
-      <c r="B146" s="18" t="s">
+      <c r="B146" s="15" t="s">
         <v>1036</v>
       </c>
       <c r="C146" s="10" t="s">
@@ -18861,7 +19078,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="10"/>
-      <c r="B147" s="18"/>
+      <c r="B147" s="15"/>
       <c r="C147" s="10" t="s">
         <v>853</v>
       </c>
@@ -18881,7 +19098,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="10"/>
-      <c r="B148" s="18"/>
+      <c r="B148" s="15"/>
       <c r="C148" s="10" t="s">
         <v>853</v>
       </c>
@@ -18901,7 +19118,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="10"/>
-      <c r="B149" s="18"/>
+      <c r="B149" s="15"/>
       <c r="C149" s="10" t="s">
         <v>853</v>
       </c>
@@ -18921,7 +19138,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="10"/>
-      <c r="B150" s="18"/>
+      <c r="B150" s="15"/>
       <c r="C150" s="10" t="s">
         <v>1045</v>
       </c>
@@ -18941,7 +19158,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="10"/>
-      <c r="B151" s="18"/>
+      <c r="B151" s="15"/>
       <c r="C151" s="10" t="s">
         <v>853</v>
       </c>
@@ -18961,7 +19178,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="10"/>
-      <c r="B152" s="18"/>
+      <c r="B152" s="15"/>
       <c r="C152" s="10" t="s">
         <v>853</v>
       </c>
@@ -18981,7 +19198,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="10"/>
-      <c r="B153" s="18"/>
+      <c r="B153" s="15"/>
       <c r="C153" s="10" t="s">
         <v>853</v>
       </c>
@@ -19001,7 +19218,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="10"/>
-      <c r="B154" s="18"/>
+      <c r="B154" s="15"/>
       <c r="C154" s="10" t="s">
         <v>853</v>
       </c>
@@ -19021,7 +19238,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="10"/>
-      <c r="B155" s="18"/>
+      <c r="B155" s="15"/>
       <c r="C155" s="10" t="s">
         <v>853</v>
       </c>
@@ -19041,7 +19258,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="10"/>
-      <c r="B156" s="18" t="s">
+      <c r="B156" s="15" t="s">
         <v>567</v>
       </c>
       <c r="C156" s="10" t="s">
@@ -19063,7 +19280,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="10"/>
-      <c r="B157" s="18"/>
+      <c r="B157" s="15"/>
       <c r="C157" s="10" t="s">
         <v>874</v>
       </c>
@@ -19083,7 +19300,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="10"/>
-      <c r="B158" s="18"/>
+      <c r="B158" s="15"/>
       <c r="C158" s="10" t="s">
         <v>874</v>
       </c>
@@ -19103,7 +19320,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="10"/>
-      <c r="B159" s="18"/>
+      <c r="B159" s="15"/>
       <c r="C159" s="10" t="s">
         <v>1046</v>
       </c>
@@ -19123,7 +19340,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="10"/>
-      <c r="B160" s="18"/>
+      <c r="B160" s="15"/>
       <c r="C160" s="10" t="s">
         <v>874</v>
       </c>
@@ -19143,7 +19360,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="10"/>
-      <c r="B161" s="18"/>
+      <c r="B161" s="15"/>
       <c r="C161" s="10" t="s">
         <v>874</v>
       </c>
@@ -19162,7 +19379,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="10"/>
-      <c r="B162" s="18"/>
+      <c r="B162" s="15"/>
       <c r="C162" s="10" t="s">
         <v>874</v>
       </c>
@@ -19181,7 +19398,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="10"/>
-      <c r="B163" s="18"/>
+      <c r="B163" s="15"/>
       <c r="C163" s="10" t="s">
         <v>874</v>
       </c>
@@ -19200,7 +19417,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="10"/>
-      <c r="B164" s="18"/>
+      <c r="B164" s="15"/>
       <c r="C164" s="10" t="s">
         <v>874</v>
       </c>
@@ -19219,7 +19436,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="10"/>
-      <c r="B165" s="18"/>
+      <c r="B165" s="15"/>
       <c r="C165" s="10" t="s">
         <v>874</v>
       </c>
@@ -19238,7 +19455,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="10"/>
-      <c r="B166" s="18"/>
+      <c r="B166" s="15"/>
       <c r="C166" s="10" t="s">
         <v>874</v>
       </c>
@@ -19257,7 +19474,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="10"/>
-      <c r="B167" s="18"/>
+      <c r="B167" s="15"/>
       <c r="C167" s="10" t="s">
         <v>874</v>
       </c>
@@ -19276,7 +19493,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="10"/>
-      <c r="B168" s="18"/>
+      <c r="B168" s="15"/>
       <c r="C168" s="10" t="s">
         <v>874</v>
       </c>
@@ -19295,7 +19512,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="10"/>
-      <c r="B169" s="18"/>
+      <c r="B169" s="15"/>
       <c r="C169" s="10" t="s">
         <v>874</v>
       </c>
@@ -19314,7 +19531,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="10"/>
-      <c r="B170" s="18"/>
+      <c r="B170" s="15"/>
       <c r="C170" s="10" t="s">
         <v>874</v>
       </c>
@@ -19333,7 +19550,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="10"/>
-      <c r="B171" s="18"/>
+      <c r="B171" s="15"/>
       <c r="C171" s="10" t="s">
         <v>874</v>
       </c>
@@ -19352,7 +19569,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="10"/>
-      <c r="B172" s="18"/>
+      <c r="B172" s="15"/>
       <c r="C172" s="10" t="s">
         <v>874</v>
       </c>
@@ -19371,7 +19588,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="10"/>
-      <c r="B173" s="18"/>
+      <c r="B173" s="15"/>
       <c r="C173" s="10" t="s">
         <v>874</v>
       </c>
@@ -19391,7 +19608,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="10"/>
-      <c r="B174" s="18"/>
+      <c r="B174" s="15"/>
       <c r="C174" s="10" t="s">
         <v>874</v>
       </c>
@@ -19410,7 +19627,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="10"/>
-      <c r="B175" s="18"/>
+      <c r="B175" s="15"/>
       <c r="C175" s="10" t="s">
         <v>874</v>
       </c>
@@ -19429,7 +19646,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="10"/>
-      <c r="B176" s="18"/>
+      <c r="B176" s="15"/>
       <c r="C176" s="10" t="s">
         <v>874</v>
       </c>
@@ -19448,7 +19665,7 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="10"/>
-      <c r="B177" s="18" t="s">
+      <c r="B177" s="15" t="s">
         <v>1036</v>
       </c>
       <c r="C177" s="10" t="s">
@@ -19469,7 +19686,7 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="10"/>
-      <c r="B178" s="18"/>
+      <c r="B178" s="15"/>
       <c r="C178" s="10" t="s">
         <v>917</v>
       </c>
@@ -19488,7 +19705,7 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="10"/>
-      <c r="B179" s="18"/>
+      <c r="B179" s="15"/>
       <c r="C179" s="10" t="s">
         <v>917</v>
       </c>
@@ -19507,7 +19724,7 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="10"/>
-      <c r="B180" s="18"/>
+      <c r="B180" s="15"/>
       <c r="C180" s="10" t="s">
         <v>1047</v>
       </c>
@@ -19526,7 +19743,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="10"/>
-      <c r="B181" s="18"/>
+      <c r="B181" s="15"/>
       <c r="C181" s="10" t="s">
         <v>917</v>
       </c>
@@ -19545,7 +19762,7 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="10"/>
-      <c r="B182" s="18"/>
+      <c r="B182" s="15"/>
       <c r="C182" s="10" t="s">
         <v>917</v>
       </c>
@@ -19564,7 +19781,7 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="10"/>
-      <c r="B183" s="18"/>
+      <c r="B183" s="15"/>
       <c r="C183" s="10" t="s">
         <v>917</v>
       </c>
@@ -19583,7 +19800,7 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="10"/>
-      <c r="B184" s="18"/>
+      <c r="B184" s="15"/>
       <c r="C184" s="10" t="s">
         <v>917</v>
       </c>
@@ -19602,7 +19819,7 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="10"/>
-      <c r="B185" s="18"/>
+      <c r="B185" s="15"/>
       <c r="C185" s="10" t="s">
         <v>917</v>
       </c>
@@ -19621,7 +19838,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="10"/>
-      <c r="B186" s="18" t="s">
+      <c r="B186" s="15" t="s">
         <v>567</v>
       </c>
       <c r="C186" s="10" t="s">
@@ -19642,7 +19859,7 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="10"/>
-      <c r="B187" s="18"/>
+      <c r="B187" s="15"/>
       <c r="C187" s="10" t="s">
         <v>936</v>
       </c>
@@ -19661,7 +19878,7 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="10"/>
-      <c r="B188" s="18"/>
+      <c r="B188" s="15"/>
       <c r="C188" s="10" t="s">
         <v>936</v>
       </c>
@@ -19680,7 +19897,7 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="10"/>
-      <c r="B189" s="18"/>
+      <c r="B189" s="15"/>
       <c r="C189" s="10" t="s">
         <v>936</v>
       </c>
@@ -19699,7 +19916,7 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="10"/>
-      <c r="B190" s="18"/>
+      <c r="B190" s="15"/>
       <c r="C190" s="10" t="s">
         <v>936</v>
       </c>
@@ -19718,7 +19935,7 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="10"/>
-      <c r="B191" s="18"/>
+      <c r="B191" s="15"/>
       <c r="C191" s="10" t="s">
         <v>936</v>
       </c>
@@ -19737,7 +19954,7 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="10"/>
-      <c r="B192" s="18"/>
+      <c r="B192" s="15"/>
       <c r="C192" s="10" t="s">
         <v>936</v>
       </c>
@@ -19756,7 +19973,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="10"/>
-      <c r="B193" s="18"/>
+      <c r="B193" s="15"/>
       <c r="C193" s="10" t="s">
         <v>936</v>
       </c>
@@ -19776,7 +19993,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="10"/>
-      <c r="B194" s="18"/>
+      <c r="B194" s="15"/>
       <c r="C194" s="10" t="s">
         <v>1048</v>
       </c>
@@ -19795,7 +20012,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="10"/>
-      <c r="B195" s="18"/>
+      <c r="B195" s="15"/>
       <c r="C195" s="10" t="s">
         <v>936</v>
       </c>
@@ -19814,7 +20031,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="10"/>
-      <c r="B196" s="18"/>
+      <c r="B196" s="15"/>
       <c r="C196" s="10" t="s">
         <v>936</v>
       </c>
@@ -19833,7 +20050,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="10"/>
-      <c r="B197" s="18"/>
+      <c r="B197" s="15"/>
       <c r="C197" s="10" t="s">
         <v>936</v>
       </c>
@@ -19852,7 +20069,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="10"/>
-      <c r="B198" s="18"/>
+      <c r="B198" s="15"/>
       <c r="C198" s="10" t="s">
         <v>936</v>
       </c>
@@ -19871,7 +20088,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="10"/>
-      <c r="B199" s="18"/>
+      <c r="B199" s="15"/>
       <c r="C199" s="10" t="s">
         <v>936</v>
       </c>
@@ -19890,7 +20107,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="10"/>
-      <c r="B200" s="18" t="s">
+      <c r="B200" s="15" t="s">
         <v>1036</v>
       </c>
       <c r="C200" s="10" t="s">
@@ -19911,7 +20128,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="10"/>
-      <c r="B201" s="18"/>
+      <c r="B201" s="15"/>
       <c r="C201" s="10" t="s">
         <v>963</v>
       </c>
@@ -19930,7 +20147,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="10"/>
-      <c r="B202" s="18"/>
+      <c r="B202" s="15"/>
       <c r="C202" s="10" t="s">
         <v>963</v>
       </c>
@@ -19949,7 +20166,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="10"/>
-      <c r="B203" s="18"/>
+      <c r="B203" s="15"/>
       <c r="C203" s="10" t="s">
         <v>963</v>
       </c>
@@ -19968,7 +20185,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="10"/>
-      <c r="B204" s="18"/>
+      <c r="B204" s="15"/>
       <c r="C204" s="10" t="s">
         <v>963</v>
       </c>
@@ -19987,7 +20204,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="10"/>
-      <c r="B205" s="18"/>
+      <c r="B205" s="15"/>
       <c r="C205" s="10" t="s">
         <v>963</v>
       </c>
@@ -20006,7 +20223,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="10"/>
-      <c r="B206" s="18"/>
+      <c r="B206" s="15"/>
       <c r="C206" s="10" t="s">
         <v>1049</v>
       </c>
@@ -20025,7 +20242,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="10"/>
-      <c r="B207" s="18"/>
+      <c r="B207" s="15"/>
       <c r="C207" s="10" t="s">
         <v>963</v>
       </c>
@@ -20044,7 +20261,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="10"/>
-      <c r="B208" s="18"/>
+      <c r="B208" s="15"/>
       <c r="C208" s="10" t="s">
         <v>963</v>
       </c>
@@ -20063,7 +20280,7 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="10"/>
-      <c r="B209" s="18"/>
+      <c r="B209" s="15"/>
       <c r="C209" s="10" t="s">
         <v>963</v>
       </c>
@@ -20082,7 +20299,7 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="10"/>
-      <c r="B210" s="18"/>
+      <c r="B210" s="15"/>
       <c r="C210" s="10" t="s">
         <v>963</v>
       </c>
@@ -20101,7 +20318,7 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="10"/>
-      <c r="B211" s="18"/>
+      <c r="B211" s="15"/>
       <c r="C211" s="10" t="s">
         <v>963</v>
       </c>
@@ -20120,7 +20337,7 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="10"/>
-      <c r="B212" s="18"/>
+      <c r="B212" s="15"/>
       <c r="C212" s="10" t="s">
         <v>963</v>
       </c>
@@ -20139,7 +20356,7 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="10"/>
-      <c r="B213" s="18"/>
+      <c r="B213" s="15"/>
       <c r="C213" s="10" t="s">
         <v>963</v>
       </c>
@@ -20158,7 +20375,7 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="10"/>
-      <c r="B214" s="18"/>
+      <c r="B214" s="15"/>
       <c r="C214" s="10" t="s">
         <v>963</v>
       </c>
@@ -20177,7 +20394,7 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="10"/>
-      <c r="B215" s="18" t="s">
+      <c r="B215" s="15" t="s">
         <v>567</v>
       </c>
       <c r="C215" s="10" t="s">
@@ -20198,7 +20415,7 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="10"/>
-      <c r="B216" s="18"/>
+      <c r="B216" s="15"/>
       <c r="C216" s="10" t="s">
         <v>994</v>
       </c>
@@ -20217,7 +20434,7 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="10"/>
-      <c r="B217" s="18"/>
+      <c r="B217" s="15"/>
       <c r="C217" s="10" t="s">
         <v>994</v>
       </c>
@@ -20236,7 +20453,7 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="10"/>
-      <c r="B218" s="18"/>
+      <c r="B218" s="15"/>
       <c r="C218" s="10" t="s">
         <v>1050</v>
       </c>
@@ -20255,7 +20472,7 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="10"/>
-      <c r="B219" s="18"/>
+      <c r="B219" s="15"/>
       <c r="C219" s="10" t="s">
         <v>994</v>
       </c>
@@ -20274,7 +20491,7 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="10"/>
-      <c r="B220" s="18"/>
+      <c r="B220" s="15"/>
       <c r="C220" s="10" t="s">
         <v>994</v>
       </c>
@@ -20293,7 +20510,7 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="10"/>
-      <c r="B221" s="18"/>
+      <c r="B221" s="15"/>
       <c r="C221" s="10" t="s">
         <v>994</v>
       </c>
@@ -20312,7 +20529,7 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="10"/>
-      <c r="B222" s="18"/>
+      <c r="B222" s="15"/>
       <c r="C222" s="10" t="s">
         <v>994</v>
       </c>
@@ -20331,7 +20548,7 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="10"/>
-      <c r="B223" s="18"/>
+      <c r="B223" s="15"/>
       <c r="C223" s="10" t="s">
         <v>994</v>
       </c>
@@ -20350,7 +20567,7 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="10"/>
-      <c r="B224" s="18"/>
+      <c r="B224" s="15"/>
       <c r="C224" s="10" t="s">
         <v>994</v>
       </c>
@@ -20369,7 +20586,7 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="10"/>
-      <c r="B225" s="18"/>
+      <c r="B225" s="15"/>
       <c r="C225" s="10" t="s">
         <v>994</v>
       </c>
@@ -20388,7 +20605,7 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="10"/>
-      <c r="B226" s="18"/>
+      <c r="B226" s="15"/>
       <c r="C226" s="10" t="s">
         <v>994</v>
       </c>
@@ -20407,7 +20624,7 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="10"/>
-      <c r="B227" s="18"/>
+      <c r="B227" s="15"/>
       <c r="C227" s="10" t="s">
         <v>994</v>
       </c>
@@ -20426,7 +20643,7 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="10"/>
-      <c r="B228" s="18"/>
+      <c r="B228" s="15"/>
       <c r="C228" s="10" t="s">
         <v>994</v>
       </c>
@@ -20445,7 +20662,7 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="10"/>
-      <c r="B229" s="18"/>
+      <c r="B229" s="15"/>
       <c r="C229" s="10" t="s">
         <v>994</v>
       </c>
@@ -20464,7 +20681,7 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="10"/>
-      <c r="B230" s="18"/>
+      <c r="B230" s="15"/>
       <c r="C230" s="10" t="s">
         <v>994</v>
       </c>
@@ -20483,7 +20700,7 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="10"/>
-      <c r="B231" s="18"/>
+      <c r="B231" s="15"/>
       <c r="C231" s="10" t="s">
         <v>994</v>
       </c>
@@ -20502,7 +20719,7 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="10"/>
-      <c r="B232" s="18"/>
+      <c r="B232" s="15"/>
       <c r="C232" s="10" t="s">
         <v>994</v>
       </c>
@@ -21226,6 +21443,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B42:B52"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B57:B77"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B31:B37"/>
     <mergeCell ref="B78:B94"/>
     <mergeCell ref="B95:B138"/>
     <mergeCell ref="B139:B145"/>
@@ -21235,15 +21461,6 @@
     <mergeCell ref="B177:B185"/>
     <mergeCell ref="B186:B199"/>
     <mergeCell ref="B200:B214"/>
-    <mergeCell ref="B42:B52"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="B57:B77"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B10:B16"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="B31:B37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/api自動化測試腳清單.xlsx
+++ b/api自動化測試腳清單.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2741" uniqueCount="1119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2746" uniqueCount="1122">
   <si>
     <t>Module</t>
   </si>
@@ -3849,6 +3849,18 @@
   </si>
   <si>
     <t>EncData--&gt;RtnCode: 0 RtnMsg: 尚未啟用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateNickName_3.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驗證RtnCode:200035 RtnMsg:你輸入的格式不符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4058,6 +4070,18 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4070,23 +4094,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4393,10 +4405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H520"/>
+  <dimension ref="A1:H521"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4437,7 +4449,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="19"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="2" t="s">
         <v>1059</v>
       </c>
@@ -4459,7 +4471,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="20"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="10" t="s">
         <v>1059</v>
       </c>
@@ -4481,7 +4493,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="20"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="2" t="s">
         <v>1058</v>
       </c>
@@ -4503,7 +4515,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="20"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="2" t="s">
         <v>1056</v>
       </c>
@@ -4525,7 +4537,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="20"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="2" t="s">
         <v>1053</v>
       </c>
@@ -4547,7 +4559,7 @@
     </row>
     <row r="7" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="20"/>
+      <c r="B7" s="17"/>
       <c r="C7" t="s">
         <v>1053</v>
       </c>
@@ -4568,7 +4580,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="10" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="20"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="10" t="s">
         <v>1096</v>
       </c>
@@ -4589,7 +4601,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" s="10" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="20"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="10" t="s">
         <v>1096</v>
       </c>
@@ -4605,45 +4617,44 @@
       <c r="G9" s="13"/>
       <c r="H9" s="14"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="2" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>1070</v>
+    <row r="10" spans="1:8" s="10" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="17"/>
+      <c r="C10" s="10" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>1119</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>1105</v>
+        <v>1113</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>1054</v>
+        <v>1120</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>1062</v>
+        <v>1121</v>
       </c>
       <c r="H10" s="14">
-        <v>45027</v>
+        <v>45030</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="2" t="s">
         <v>1061</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>1063</v>
+        <v>1054</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>1075</v>
+        <v>1062</v>
       </c>
       <c r="H11" s="14">
         <v>45027</v>
@@ -4651,21 +4662,21 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="2" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>1073</v>
+      <c r="B12" s="17"/>
+      <c r="C12" s="10" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>1071</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>1054</v>
+        <v>1063</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="H12" s="14">
         <v>45027</v>
@@ -4673,43 +4684,43 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="20"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="2" t="s">
         <v>1072</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>1074</v>
+      <c r="D13" s="2" t="s">
+        <v>1073</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>1076</v>
+        <v>1054</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="H13" s="14">
-        <v>45029</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="20"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="2" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>1079</v>
+        <v>1072</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>1074</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>1083</v>
+        <v>1075</v>
       </c>
       <c r="H14" s="14">
         <v>45029</v>
@@ -4717,21 +4728,21 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="10" t="s">
+      <c r="B15" s="17"/>
+      <c r="C15" s="2" t="s">
         <v>1078</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>1080</v>
+      <c r="D15" s="2" t="s">
+        <v>1079</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H15" s="14">
         <v>45029</v>
@@ -4739,68 +4750,74 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="2" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>1086</v>
+      <c r="B16" s="17"/>
+      <c r="C16" s="10" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>1080</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>1111</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>1118</v>
+        <v>1110</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>1082</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>1117</v>
+        <v>1084</v>
       </c>
       <c r="H16" s="14">
-        <v>45030</v>
+        <v>45029</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="10" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="2" t="s">
         <v>1085</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>1087</v>
+      <c r="D17" s="2" t="s">
+        <v>1086</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>1112</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>1088</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+        <v>1111</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H17" s="14">
+        <v>45030</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="2" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E18" s="2"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>1112</v>
+      </c>
       <c r="F18" s="13" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="1"/>
+      <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="10" t="s">
+      <c r="B19" s="17"/>
+      <c r="C19" s="2" t="s">
         <v>1089</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>1092</v>
+      <c r="D19" s="2" t="s">
+        <v>1091</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="13" t="s">
@@ -4811,12 +4828,12 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="2" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>1094</v>
+      <c r="B20" s="17"/>
+      <c r="C20" s="10" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>1092</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="13" t="s">
@@ -4827,12 +4844,12 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="10" t="s">
+      <c r="B21" s="17"/>
+      <c r="C21" s="2" t="s">
         <v>1093</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>1095</v>
+      <c r="D21" s="2" t="s">
+        <v>1094</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="13" t="s">
@@ -4843,17 +4860,23 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="10" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>1095</v>
+      </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="F22" s="13" t="s">
+        <v>1090</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="20"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -4863,7 +4886,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="20"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -4873,7 +4896,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
-      <c r="B25" s="20"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -4883,7 +4906,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="20"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -4891,22 +4914,22 @@
       <c r="G26" s="2"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="20"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="1"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="17"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
-      <c r="B29" s="20"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -4916,7 +4939,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
-      <c r="B30" s="20"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -4926,7 +4949,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="B31" s="20"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -4936,7 +4959,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
-      <c r="B32" s="20"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -4946,7 +4969,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
-      <c r="B33" s="20"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -4956,7 +4979,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
-      <c r="B34" s="20"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -4966,17 +4989,17 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
-      <c r="B35" s="21"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
-      <c r="B36" s="15"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -4986,7 +5009,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
-      <c r="B37" s="15"/>
+      <c r="B37" s="19"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -4996,7 +5019,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
-      <c r="B38" s="15"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -5006,8 +5029,8 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="10"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -5016,8 +5039,8 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="2"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="10"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -5026,7 +5049,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
-      <c r="B41" s="15"/>
+      <c r="B41" s="19"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -5036,7 +5059,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
-      <c r="B42" s="15"/>
+      <c r="B42" s="19"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -5046,7 +5069,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
-      <c r="B43" s="15"/>
+      <c r="B43" s="19"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -5056,7 +5079,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
-      <c r="B44" s="15"/>
+      <c r="B44" s="19"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -5066,7 +5089,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
-      <c r="B45" s="15"/>
+      <c r="B45" s="19"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -5076,30 +5099,30 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="10"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="10"/>
+      <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="15"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="2"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="2"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="19"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
-      <c r="B49" s="15"/>
+      <c r="B49" s="19"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -5109,7 +5132,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
-      <c r="B50" s="15"/>
+      <c r="B50" s="19"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -5119,7 +5142,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
-      <c r="B51" s="15"/>
+      <c r="B51" s="19"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -5129,7 +5152,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
-      <c r="B52" s="15"/>
+      <c r="B52" s="19"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -5139,7 +5162,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
-      <c r="B53" s="15"/>
+      <c r="B53" s="19"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -5149,7 +5172,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
-      <c r="B54" s="15"/>
+      <c r="B54" s="19"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -5159,7 +5182,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
-      <c r="B55" s="15"/>
+      <c r="B55" s="19"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -5169,7 +5192,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
-      <c r="B56" s="15"/>
+      <c r="B56" s="19"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -5179,7 +5202,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
-      <c r="B57" s="15"/>
+      <c r="B57" s="19"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -5189,7 +5212,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
-      <c r="B58" s="15"/>
+      <c r="B58" s="19"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -5199,7 +5222,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
-      <c r="B59" s="15"/>
+      <c r="B59" s="19"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -5209,7 +5232,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
-      <c r="B60" s="15"/>
+      <c r="B60" s="19"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -5219,7 +5242,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
-      <c r="B61" s="15"/>
+      <c r="B61" s="19"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -5229,17 +5252,17 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
-      <c r="B62" s="15"/>
+      <c r="B62" s="19"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
-      <c r="G62" s="10"/>
+      <c r="G62" s="2"/>
       <c r="H62" s="2"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
-      <c r="B63" s="15"/>
+      <c r="B63" s="19"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -5249,7 +5272,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
-      <c r="B64" s="15"/>
+      <c r="B64" s="19"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -5259,7 +5282,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
-      <c r="B65" s="15"/>
+      <c r="B65" s="19"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -5269,7 +5292,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
-      <c r="B66" s="15"/>
+      <c r="B66" s="19"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -5279,7 +5302,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
-      <c r="B67" s="15"/>
+      <c r="B67" s="19"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -5289,17 +5312,17 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
-      <c r="B68" s="15"/>
+      <c r="B68" s="19"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="10"/>
-      <c r="H68" s="1"/>
+      <c r="H68" s="2"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
-      <c r="B69" s="15"/>
+      <c r="B69" s="19"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -5309,7 +5332,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
-      <c r="B70" s="15"/>
+      <c r="B70" s="19"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -5319,17 +5342,17 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
-      <c r="B71" s="15"/>
+      <c r="B71" s="19"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
+      <c r="G71" s="10"/>
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
-      <c r="B72" s="15"/>
+      <c r="B72" s="19"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -5339,7 +5362,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
-      <c r="B73" s="15"/>
+      <c r="B73" s="19"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -5349,7 +5372,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
-      <c r="B74" s="15"/>
+      <c r="B74" s="19"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -5359,7 +5382,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
-      <c r="B75" s="15"/>
+      <c r="B75" s="19"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -5369,7 +5392,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
-      <c r="B76" s="15"/>
+      <c r="B76" s="19"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -5379,7 +5402,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
-      <c r="B77" s="15"/>
+      <c r="B77" s="19"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -5389,7 +5412,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
-      <c r="B78" s="15"/>
+      <c r="B78" s="19"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -5399,7 +5422,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
-      <c r="B79" s="15"/>
+      <c r="B79" s="19"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -5409,7 +5432,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
-      <c r="B80" s="15"/>
+      <c r="B80" s="19"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -5419,30 +5442,30 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
-      <c r="B81" s="15"/>
-      <c r="C81" s="10"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="15"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="2"/>
-      <c r="B83" s="15"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="1"/>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="2"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="19"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
-      <c r="B84" s="15"/>
+      <c r="B84" s="19"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -5452,7 +5475,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
-      <c r="B85" s="15"/>
+      <c r="B85" s="19"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -5462,7 +5485,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
-      <c r="B86" s="15"/>
+      <c r="B86" s="19"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -5472,7 +5495,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
-      <c r="B87" s="15"/>
+      <c r="B87" s="19"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -5482,7 +5505,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
-      <c r="B88" s="15"/>
+      <c r="B88" s="19"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -5492,7 +5515,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
-      <c r="B89" s="15"/>
+      <c r="B89" s="19"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -5502,7 +5525,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
-      <c r="B90" s="15"/>
+      <c r="B90" s="19"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -5512,7 +5535,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
-      <c r="B91" s="15"/>
+      <c r="B91" s="19"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -5522,7 +5545,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
-      <c r="B92" s="15"/>
+      <c r="B92" s="19"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -5532,7 +5555,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
-      <c r="B93" s="15"/>
+      <c r="B93" s="19"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -5542,7 +5565,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
-      <c r="B94" s="15"/>
+      <c r="B94" s="19"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -5552,7 +5575,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
-      <c r="B95" s="15"/>
+      <c r="B95" s="19"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -5562,7 +5585,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
-      <c r="B96" s="15"/>
+      <c r="B96" s="19"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -5572,7 +5595,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
-      <c r="B97" s="15"/>
+      <c r="B97" s="19"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -5582,17 +5605,17 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
-      <c r="B98" s="15"/>
+      <c r="B98" s="19"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
-      <c r="G98" s="10"/>
+      <c r="G98" s="2"/>
       <c r="H98" s="1"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
-      <c r="B99" s="15"/>
+      <c r="B99" s="19"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -5602,7 +5625,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
-      <c r="B100" s="15"/>
+      <c r="B100" s="19"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -5612,17 +5635,17 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
-      <c r="B101" s="15"/>
+      <c r="B101" s="19"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="10"/>
-      <c r="H101" s="2"/>
+      <c r="H101" s="1"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
-      <c r="B102" s="15"/>
+      <c r="B102" s="19"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -5632,7 +5655,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
-      <c r="B103" s="15"/>
+      <c r="B103" s="19"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -5642,7 +5665,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
-      <c r="B104" s="15"/>
+      <c r="B104" s="19"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -5652,7 +5675,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
-      <c r="B105" s="15"/>
+      <c r="B105" s="19"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -5662,7 +5685,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
-      <c r="B106" s="15"/>
+      <c r="B106" s="19"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -5672,7 +5695,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
-      <c r="B107" s="15"/>
+      <c r="B107" s="19"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -5682,7 +5705,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
-      <c r="B108" s="15"/>
+      <c r="B108" s="19"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -5692,7 +5715,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
-      <c r="B109" s="15"/>
+      <c r="B109" s="19"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -5702,17 +5725,17 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
-      <c r="B110" s="15"/>
+      <c r="B110" s="19"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="10"/>
-      <c r="H110" s="10"/>
+      <c r="H110" s="2"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
-      <c r="B111" s="15"/>
+      <c r="B111" s="19"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -5722,7 +5745,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
-      <c r="B112" s="15"/>
+      <c r="B112" s="19"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -5732,7 +5755,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
-      <c r="B113" s="15"/>
+      <c r="B113" s="19"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -5742,7 +5765,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
-      <c r="B114" s="15"/>
+      <c r="B114" s="19"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -5752,7 +5775,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
-      <c r="B115" s="15"/>
+      <c r="B115" s="19"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -5762,17 +5785,17 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
-      <c r="B116" s="15"/>
+      <c r="B116" s="19"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="10"/>
-      <c r="H116" s="2"/>
+      <c r="H116" s="10"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
-      <c r="B117" s="15"/>
+      <c r="B117" s="19"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -5782,7 +5805,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
-      <c r="B118" s="15"/>
+      <c r="B118" s="19"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -5792,7 +5815,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
-      <c r="B119" s="15"/>
+      <c r="B119" s="19"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -5802,7 +5825,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
-      <c r="B120" s="15"/>
+      <c r="B120" s="19"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -5812,17 +5835,17 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
-      <c r="B121" s="15"/>
+      <c r="B121" s="19"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
+      <c r="G121" s="10"/>
       <c r="H121" s="2"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
-      <c r="B122" s="15"/>
+      <c r="B122" s="19"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -5832,7 +5855,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
-      <c r="B123" s="15"/>
+      <c r="B123" s="19"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -5842,7 +5865,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
-      <c r="B124" s="15"/>
+      <c r="B124" s="19"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -5852,7 +5875,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
-      <c r="B125" s="15"/>
+      <c r="B125" s="19"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -5862,8 +5885,8 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
-      <c r="B126" s="15"/>
-      <c r="C126" s="10"/>
+      <c r="B126" s="19"/>
+      <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
@@ -5872,8 +5895,8 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
-      <c r="B127" s="15"/>
-      <c r="C127" s="2"/>
+      <c r="B127" s="19"/>
+      <c r="C127" s="10"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
@@ -5882,7 +5905,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
-      <c r="B128" s="15"/>
+      <c r="B128" s="19"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -5892,7 +5915,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
-      <c r="B129" s="15"/>
+      <c r="B129" s="19"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -5902,7 +5925,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
-      <c r="B130" s="15"/>
+      <c r="B130" s="19"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -5912,7 +5935,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
-      <c r="B131" s="15"/>
+      <c r="B131" s="19"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -5922,7 +5945,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
-      <c r="B132" s="15"/>
+      <c r="B132" s="19"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -5932,7 +5955,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
-      <c r="B133" s="15"/>
+      <c r="B133" s="19"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -5942,7 +5965,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
-      <c r="B134" s="15"/>
+      <c r="B134" s="19"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -5952,7 +5975,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
-      <c r="B135" s="15"/>
+      <c r="B135" s="19"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -5962,7 +5985,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
-      <c r="B136" s="15"/>
+      <c r="B136" s="19"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -5972,7 +5995,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
-      <c r="B137" s="15"/>
+      <c r="B137" s="19"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -5982,7 +6005,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
-      <c r="B138" s="15"/>
+      <c r="B138" s="19"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -5992,7 +6015,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
-      <c r="B139" s="15"/>
+      <c r="B139" s="19"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -6002,7 +6025,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
-      <c r="B140" s="15"/>
+      <c r="B140" s="19"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -6012,27 +6035,27 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
-      <c r="B141" s="15"/>
+      <c r="B141" s="19"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
-      <c r="G141" s="10"/>
+      <c r="G141" s="2"/>
       <c r="H141" s="2"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
-      <c r="B142" s="15"/>
+      <c r="B142" s="19"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
-      <c r="G142" s="2"/>
+      <c r="G142" s="10"/>
       <c r="H142" s="2"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
-      <c r="B143" s="15"/>
+      <c r="B143" s="19"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -6042,7 +6065,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
-      <c r="B144" s="15"/>
+      <c r="B144" s="19"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -6052,7 +6075,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
-      <c r="B145" s="15"/>
+      <c r="B145" s="19"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -6062,7 +6085,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
-      <c r="B146" s="15"/>
+      <c r="B146" s="19"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -6072,7 +6095,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
-      <c r="B147" s="15"/>
+      <c r="B147" s="19"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -6082,7 +6105,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
-      <c r="B148" s="15"/>
+      <c r="B148" s="19"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -6092,7 +6115,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
-      <c r="B149" s="15"/>
+      <c r="B149" s="19"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -6102,7 +6125,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
-      <c r="B150" s="15"/>
+      <c r="B150" s="19"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -6112,7 +6135,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
-      <c r="B151" s="15"/>
+      <c r="B151" s="19"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -6122,7 +6145,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
-      <c r="B152" s="15"/>
+      <c r="B152" s="19"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -6132,7 +6155,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
-      <c r="B153" s="15"/>
+      <c r="B153" s="19"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -6142,7 +6165,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
-      <c r="B154" s="15"/>
+      <c r="B154" s="19"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -6152,7 +6175,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
-      <c r="B155" s="15"/>
+      <c r="B155" s="19"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -6162,7 +6185,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
-      <c r="B156" s="15"/>
+      <c r="B156" s="19"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -6172,7 +6195,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
-      <c r="B157" s="15"/>
+      <c r="B157" s="19"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -6182,7 +6205,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
-      <c r="B158" s="15"/>
+      <c r="B158" s="19"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -6192,7 +6215,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
-      <c r="B159" s="15"/>
+      <c r="B159" s="19"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -6202,7 +6225,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
-      <c r="B160" s="15"/>
+      <c r="B160" s="19"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -6212,7 +6235,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
-      <c r="B161" s="15"/>
+      <c r="B161" s="19"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -6222,7 +6245,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
-      <c r="B162" s="15"/>
+      <c r="B162" s="19"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -6232,7 +6255,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
-      <c r="B163" s="15"/>
+      <c r="B163" s="19"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -6242,8 +6265,8 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
-      <c r="B164" s="15"/>
-      <c r="C164" s="10"/>
+      <c r="B164" s="19"/>
+      <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
@@ -6252,27 +6275,27 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
-      <c r="B165" s="15"/>
-      <c r="C165" s="2"/>
+      <c r="B165" s="19"/>
+      <c r="C165" s="10"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
-      <c r="F165" s="5"/>
+      <c r="F165" s="2"/>
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
-      <c r="B166" s="15"/>
+      <c r="B166" s="19"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
-      <c r="F166" s="2"/>
+      <c r="F166" s="5"/>
       <c r="G166" s="2"/>
       <c r="H166" s="2"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
-      <c r="B167" s="15"/>
+      <c r="B167" s="19"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -6282,7 +6305,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
-      <c r="B168" s="15"/>
+      <c r="B168" s="19"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -6292,27 +6315,27 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
-      <c r="B169" s="15"/>
+      <c r="B169" s="19"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
-      <c r="F169" s="5"/>
+      <c r="F169" s="2"/>
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
-      <c r="B170" s="15"/>
+      <c r="B170" s="19"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
-      <c r="F170" s="2"/>
+      <c r="F170" s="5"/>
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
-      <c r="B171" s="15"/>
+      <c r="B171" s="19"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -6322,7 +6345,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
-      <c r="B172" s="15"/>
+      <c r="B172" s="19"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -6332,17 +6355,17 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
-      <c r="B173" s="15"/>
+      <c r="B173" s="19"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
-      <c r="F173" s="5"/>
+      <c r="F173" s="2"/>
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
-      <c r="B174" s="15"/>
+      <c r="B174" s="19"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -6352,17 +6375,17 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
-      <c r="B175" s="15"/>
+      <c r="B175" s="19"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
-      <c r="F175" s="2"/>
+      <c r="F175" s="5"/>
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
-      <c r="B176" s="15"/>
+      <c r="B176" s="19"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -6372,28 +6395,28 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
-      <c r="B177" s="15"/>
+      <c r="B177" s="19"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
-      <c r="F177" s="5"/>
+      <c r="F177" s="2"/>
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
-      <c r="B178" s="15"/>
-      <c r="C178" s="10"/>
+      <c r="B178" s="19"/>
+      <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
-      <c r="F178" s="2"/>
+      <c r="F178" s="5"/>
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
-      <c r="B179" s="15"/>
-      <c r="C179" s="2"/>
+      <c r="B179" s="19"/>
+      <c r="C179" s="10"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
@@ -6402,7 +6425,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
-      <c r="B180" s="15"/>
+      <c r="B180" s="19"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -6412,7 +6435,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
-      <c r="B181" s="15"/>
+      <c r="B181" s="19"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -6422,7 +6445,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
-      <c r="B182" s="15"/>
+      <c r="B182" s="19"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -6432,7 +6455,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
-      <c r="B183" s="15"/>
+      <c r="B183" s="19"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -6442,7 +6465,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
-      <c r="B184" s="15"/>
+      <c r="B184" s="19"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -6452,7 +6475,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="2"/>
-      <c r="B185" s="15"/>
+      <c r="B185" s="19"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -6462,7 +6485,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
-      <c r="B186" s="16"/>
+      <c r="B186" s="19"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -6472,7 +6495,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
-      <c r="B187" s="17"/>
+      <c r="B187" s="20"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -6482,7 +6505,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
-      <c r="B188" s="18"/>
+      <c r="B188" s="21"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -6492,7 +6515,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="2"/>
-      <c r="B189" s="18"/>
+      <c r="B189" s="22"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -6502,17 +6525,17 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
-      <c r="B190" s="18"/>
+      <c r="B190" s="22"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
-      <c r="E190" s="5"/>
+      <c r="E190" s="2"/>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
-      <c r="B191" s="18"/>
+      <c r="B191" s="22"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="5"/>
@@ -6522,7 +6545,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
-      <c r="B192" s="18"/>
+      <c r="B192" s="22"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="5"/>
@@ -6532,37 +6555,37 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
-      <c r="B193" s="18"/>
-      <c r="C193" s="10"/>
+      <c r="B193" s="22"/>
+      <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="5"/>
       <c r="F193" s="2"/>
-      <c r="G193" s="10"/>
+      <c r="G193" s="2"/>
       <c r="H193" s="2"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
-      <c r="B194" s="18"/>
-      <c r="C194" s="2"/>
+      <c r="B194" s="22"/>
+      <c r="C194" s="10"/>
       <c r="D194" s="2"/>
       <c r="E194" s="5"/>
       <c r="F194" s="2"/>
-      <c r="G194" s="2"/>
+      <c r="G194" s="10"/>
       <c r="H194" s="2"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
-      <c r="B195" s="18"/>
+      <c r="B195" s="22"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="5"/>
       <c r="F195" s="2"/>
-      <c r="G195" s="5"/>
+      <c r="G195" s="2"/>
       <c r="H195" s="2"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
-      <c r="B196" s="18"/>
+      <c r="B196" s="22"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="5"/>
@@ -6572,17 +6595,17 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
-      <c r="B197" s="18"/>
+      <c r="B197" s="22"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="5"/>
       <c r="F197" s="2"/>
       <c r="G197" s="5"/>
-      <c r="H197" s="1"/>
+      <c r="H197" s="2"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
-      <c r="B198" s="18"/>
+      <c r="B198" s="22"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="5"/>
@@ -6592,17 +6615,17 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="2"/>
-      <c r="B199" s="15"/>
+      <c r="B199" s="22"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="5"/>
       <c r="F199" s="2"/>
-      <c r="G199" s="2"/>
+      <c r="G199" s="5"/>
       <c r="H199" s="1"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
-      <c r="B200" s="15"/>
+      <c r="B200" s="19"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="5"/>
@@ -6612,7 +6635,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="2"/>
-      <c r="B201" s="15"/>
+      <c r="B201" s="19"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="5"/>
@@ -6622,7 +6645,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="2"/>
-      <c r="B202" s="15"/>
+      <c r="B202" s="19"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="5"/>
@@ -6632,7 +6655,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="2"/>
-      <c r="B203" s="15"/>
+      <c r="B203" s="19"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="5"/>
@@ -6642,7 +6665,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="2"/>
-      <c r="B204" s="15"/>
+      <c r="B204" s="19"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="5"/>
@@ -6652,7 +6675,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="2"/>
-      <c r="B205" s="15"/>
+      <c r="B205" s="19"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="5"/>
@@ -6662,8 +6685,8 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
-      <c r="B206" s="15"/>
-      <c r="C206" s="10"/>
+      <c r="B206" s="19"/>
+      <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="5"/>
       <c r="F206" s="2"/>
@@ -6672,8 +6695,8 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="2"/>
-      <c r="B207" s="15"/>
-      <c r="C207" s="2"/>
+      <c r="B207" s="19"/>
+      <c r="C207" s="10"/>
       <c r="D207" s="2"/>
       <c r="E207" s="5"/>
       <c r="F207" s="2"/>
@@ -6682,7 +6705,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="2"/>
-      <c r="B208" s="15"/>
+      <c r="B208" s="19"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="5"/>
@@ -6692,7 +6715,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="2"/>
-      <c r="B209" s="15"/>
+      <c r="B209" s="19"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="5"/>
@@ -6702,7 +6725,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="2"/>
-      <c r="B210" s="15"/>
+      <c r="B210" s="19"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="5"/>
@@ -6712,7 +6735,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="2"/>
-      <c r="B211" s="15"/>
+      <c r="B211" s="19"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="5"/>
@@ -6722,8 +6745,8 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="2"/>
-      <c r="B212" s="15"/>
-      <c r="C212" s="10"/>
+      <c r="B212" s="19"/>
+      <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="5"/>
       <c r="F212" s="2"/>
@@ -6732,17 +6755,17 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="2"/>
-      <c r="B213" s="15"/>
-      <c r="C213" s="2"/>
+      <c r="B213" s="19"/>
+      <c r="C213" s="10"/>
       <c r="D213" s="2"/>
       <c r="E213" s="5"/>
       <c r="F213" s="2"/>
       <c r="G213" s="2"/>
-      <c r="H213" s="2"/>
+      <c r="H213" s="1"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="2"/>
-      <c r="B214" s="15"/>
+      <c r="B214" s="19"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="5"/>
@@ -6752,7 +6775,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="2"/>
-      <c r="B215" s="15"/>
+      <c r="B215" s="19"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="5"/>
@@ -6762,17 +6785,17 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="2"/>
-      <c r="B216" s="15"/>
+      <c r="B216" s="19"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
-      <c r="E216" s="2"/>
+      <c r="E216" s="5"/>
       <c r="F216" s="2"/>
       <c r="G216" s="2"/>
       <c r="H216" s="2"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="2"/>
-      <c r="B217" s="15"/>
+      <c r="B217" s="19"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -6782,8 +6805,8 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="2"/>
-      <c r="B218" s="15"/>
-      <c r="C218" s="10"/>
+      <c r="B218" s="19"/>
+      <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
@@ -6792,8 +6815,8 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="2"/>
-      <c r="B219" s="15"/>
-      <c r="C219" s="2"/>
+      <c r="B219" s="19"/>
+      <c r="C219" s="10"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
@@ -6802,7 +6825,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="2"/>
-      <c r="B220" s="15"/>
+      <c r="B220" s="19"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -6812,7 +6835,7 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="2"/>
-      <c r="B221" s="15"/>
+      <c r="B221" s="19"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -6822,7 +6845,7 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="2"/>
-      <c r="B222" s="15"/>
+      <c r="B222" s="19"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -6832,7 +6855,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="2"/>
-      <c r="B223" s="15"/>
+      <c r="B223" s="19"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -6842,7 +6865,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="2"/>
-      <c r="B224" s="15"/>
+      <c r="B224" s="19"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -6852,7 +6875,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="2"/>
-      <c r="B225" s="15"/>
+      <c r="B225" s="19"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -6862,7 +6885,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="2"/>
-      <c r="B226" s="15"/>
+      <c r="B226" s="19"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -6872,7 +6895,7 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="2"/>
-      <c r="B227" s="15"/>
+      <c r="B227" s="19"/>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -6882,7 +6905,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="2"/>
-      <c r="B228" s="15"/>
+      <c r="B228" s="19"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -6892,8 +6915,8 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="2"/>
-      <c r="B229" s="15"/>
-      <c r="C229" s="10"/>
+      <c r="B229" s="19"/>
+      <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
@@ -6902,8 +6925,8 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="2"/>
-      <c r="B230" s="15"/>
-      <c r="C230" s="2"/>
+      <c r="B230" s="19"/>
+      <c r="C230" s="10"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
@@ -6912,7 +6935,7 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="2"/>
-      <c r="B231" s="15"/>
+      <c r="B231" s="19"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -6922,7 +6945,7 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="2"/>
-      <c r="B232" s="15"/>
+      <c r="B232" s="19"/>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -6932,7 +6955,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="2"/>
-      <c r="B233" s="15"/>
+      <c r="B233" s="19"/>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -6942,7 +6965,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="2"/>
-      <c r="B234" s="15"/>
+      <c r="B234" s="19"/>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
@@ -6952,7 +6975,7 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="2"/>
-      <c r="B235" s="15"/>
+      <c r="B235" s="19"/>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
@@ -6962,17 +6985,17 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="2"/>
-      <c r="B236" s="15"/>
+      <c r="B236" s="19"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
-      <c r="E236" s="5"/>
+      <c r="E236" s="2"/>
       <c r="F236" s="2"/>
       <c r="G236" s="2"/>
       <c r="H236" s="2"/>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="2"/>
-      <c r="B237" s="15"/>
+      <c r="B237" s="19"/>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="5"/>
@@ -6982,7 +7005,7 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="2"/>
-      <c r="B238" s="15"/>
+      <c r="B238" s="19"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="5"/>
@@ -6992,8 +7015,8 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="2"/>
-      <c r="B239" s="15"/>
-      <c r="C239" s="10"/>
+      <c r="B239" s="19"/>
+      <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="5"/>
       <c r="F239" s="2"/>
@@ -7002,8 +7025,8 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="2"/>
-      <c r="B240" s="15"/>
-      <c r="C240" s="2"/>
+      <c r="B240" s="19"/>
+      <c r="C240" s="10"/>
       <c r="D240" s="2"/>
       <c r="E240" s="5"/>
       <c r="F240" s="2"/>
@@ -7012,7 +7035,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="2"/>
-      <c r="B241" s="15"/>
+      <c r="B241" s="19"/>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="5"/>
@@ -7022,7 +7045,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="2"/>
-      <c r="B242" s="15"/>
+      <c r="B242" s="19"/>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="5"/>
@@ -7032,17 +7055,17 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="2"/>
-      <c r="B243" s="15"/>
+      <c r="B243" s="19"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
-      <c r="E243" s="2"/>
+      <c r="E243" s="5"/>
       <c r="F243" s="2"/>
       <c r="G243" s="2"/>
       <c r="H243" s="2"/>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="2"/>
-      <c r="B244" s="15"/>
+      <c r="B244" s="19"/>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -7052,7 +7075,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="2"/>
-      <c r="B245" s="15"/>
+      <c r="B245" s="19"/>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -7062,8 +7085,8 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="2"/>
-      <c r="B246" s="15"/>
-      <c r="C246" s="10"/>
+      <c r="B246" s="19"/>
+      <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
@@ -7072,8 +7095,8 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="2"/>
-      <c r="B247" s="15"/>
-      <c r="C247" s="2"/>
+      <c r="B247" s="19"/>
+      <c r="C247" s="10"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
@@ -7082,7 +7105,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="2"/>
-      <c r="B248" s="15"/>
+      <c r="B248" s="19"/>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -7092,7 +7115,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="2"/>
-      <c r="B249" s="15"/>
+      <c r="B249" s="19"/>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
@@ -7102,7 +7125,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="2"/>
-      <c r="B250" s="15"/>
+      <c r="B250" s="19"/>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -7112,7 +7135,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="2"/>
-      <c r="B251" s="15"/>
+      <c r="B251" s="19"/>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -7122,7 +7145,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="2"/>
-      <c r="B252" s="15"/>
+      <c r="B252" s="19"/>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -7132,7 +7155,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="2"/>
-      <c r="B253" s="15"/>
+      <c r="B253" s="19"/>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -7142,7 +7165,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="2"/>
-      <c r="B254" s="15"/>
+      <c r="B254" s="19"/>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -7152,7 +7175,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="2"/>
-      <c r="B255" s="15"/>
+      <c r="B255" s="19"/>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -7162,8 +7185,8 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="2"/>
-      <c r="B256" s="15"/>
-      <c r="C256" s="10"/>
+      <c r="B256" s="19"/>
+      <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
@@ -7172,8 +7195,8 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="2"/>
-      <c r="B257" s="15"/>
-      <c r="C257" s="2"/>
+      <c r="B257" s="19"/>
+      <c r="C257" s="10"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
       <c r="F257" s="2"/>
@@ -7182,7 +7205,7 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="2"/>
-      <c r="B258" s="15"/>
+      <c r="B258" s="19"/>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -7192,7 +7215,7 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="2"/>
-      <c r="B259" s="6"/>
+      <c r="B259" s="19"/>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -7212,7 +7235,7 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="2"/>
-      <c r="B261" s="2"/>
+      <c r="B261" s="6"/>
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
@@ -7372,13 +7395,13 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" s="2"/>
-      <c r="B277" s="1"/>
-      <c r="C277" s="1"/>
-      <c r="D277" s="1"/>
-      <c r="E277" s="1"/>
-      <c r="F277" s="1"/>
-      <c r="G277" s="1"/>
-      <c r="H277" s="1"/>
+      <c r="B277" s="2"/>
+      <c r="C277" s="2"/>
+      <c r="D277" s="2"/>
+      <c r="E277" s="2"/>
+      <c r="F277" s="2"/>
+      <c r="G277" s="2"/>
+      <c r="H277" s="2"/>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" s="2"/>
@@ -9452,13 +9475,13 @@
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A485" s="2"/>
-      <c r="B485" s="2"/>
-      <c r="C485" s="2"/>
-      <c r="D485" s="2"/>
-      <c r="E485" s="2"/>
-      <c r="F485" s="2"/>
-      <c r="G485" s="2"/>
-      <c r="H485" s="2"/>
+      <c r="B485" s="1"/>
+      <c r="C485" s="1"/>
+      <c r="D485" s="1"/>
+      <c r="E485" s="1"/>
+      <c r="F485" s="1"/>
+      <c r="G485" s="1"/>
+      <c r="H485" s="1"/>
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A486" s="2"/>
@@ -9614,11 +9637,11 @@
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
-      <c r="D501" s="1"/>
-      <c r="E501" s="1"/>
-      <c r="F501" s="1"/>
-      <c r="G501" s="1"/>
-      <c r="H501" s="1"/>
+      <c r="D501" s="2"/>
+      <c r="E501" s="2"/>
+      <c r="F501" s="2"/>
+      <c r="G501" s="2"/>
+      <c r="H501" s="2"/>
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A502" s="2"/>
@@ -9810,25 +9833,35 @@
       <c r="G520" s="1"/>
       <c r="H520" s="1"/>
     </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A521" s="2"/>
+      <c r="B521" s="2"/>
+      <c r="C521" s="2"/>
+      <c r="D521" s="1"/>
+      <c r="E521" s="1"/>
+      <c r="F521" s="1"/>
+      <c r="G521" s="1"/>
+      <c r="H521" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B2:B35"/>
-    <mergeCell ref="B36:B70"/>
-    <mergeCell ref="B166:B169"/>
-    <mergeCell ref="B170:B173"/>
-    <mergeCell ref="B71:B121"/>
-    <mergeCell ref="B162:B165"/>
-    <mergeCell ref="B122:B161"/>
-    <mergeCell ref="B199:B208"/>
-    <mergeCell ref="B209:B215"/>
-    <mergeCell ref="B216:B220"/>
-    <mergeCell ref="B252:B258"/>
-    <mergeCell ref="B174:B186"/>
-    <mergeCell ref="B221:B230"/>
-    <mergeCell ref="B231:B235"/>
-    <mergeCell ref="B236:B242"/>
-    <mergeCell ref="B243:B251"/>
-    <mergeCell ref="B187:B198"/>
+    <mergeCell ref="B200:B209"/>
+    <mergeCell ref="B210:B216"/>
+    <mergeCell ref="B217:B221"/>
+    <mergeCell ref="B253:B259"/>
+    <mergeCell ref="B175:B187"/>
+    <mergeCell ref="B222:B231"/>
+    <mergeCell ref="B232:B236"/>
+    <mergeCell ref="B237:B243"/>
+    <mergeCell ref="B244:B252"/>
+    <mergeCell ref="B188:B199"/>
+    <mergeCell ref="B2:B36"/>
+    <mergeCell ref="B37:B71"/>
+    <mergeCell ref="B167:B170"/>
+    <mergeCell ref="B171:B174"/>
+    <mergeCell ref="B72:B122"/>
+    <mergeCell ref="B163:B166"/>
+    <mergeCell ref="B123:B162"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9884,7 +9917,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -9906,7 +9939,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
-      <c r="B3" s="18"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
@@ -9926,7 +9959,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
-      <c r="B4" s="18"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
@@ -9946,7 +9979,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
-      <c r="B5" s="18"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
@@ -9966,7 +9999,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
-      <c r="B6" s="18"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
@@ -9986,7 +10019,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
-      <c r="B7" s="18"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
@@ -10006,7 +10039,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
-      <c r="B8" s="18"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
@@ -10026,7 +10059,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
-      <c r="B9" s="18"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
@@ -10046,7 +10079,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
-      <c r="B10" s="18"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="7" t="s">
         <v>16</v>
       </c>
@@ -10066,7 +10099,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
-      <c r="B11" s="18"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
@@ -10086,7 +10119,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
-      <c r="B12" s="18"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="7" t="s">
         <v>16</v>
       </c>
@@ -10108,7 +10141,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
-      <c r="B13" s="18"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="7" t="s">
         <v>16</v>
       </c>
@@ -10128,7 +10161,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
-      <c r="B14" s="18"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="7" t="s">
         <v>16</v>
       </c>
@@ -10148,7 +10181,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
-      <c r="B15" s="18"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="7" t="s">
         <v>16</v>
       </c>
@@ -10168,7 +10201,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
-      <c r="B16" s="18"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="7" t="s">
         <v>16</v>
       </c>
@@ -10188,7 +10221,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
-      <c r="B17" s="18"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="7" t="s">
         <v>16</v>
       </c>
@@ -10208,7 +10241,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
-      <c r="B18" s="18"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="7" t="s">
         <v>16</v>
       </c>
@@ -10228,7 +10261,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
-      <c r="B19" s="18"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="7" t="s">
         <v>16</v>
       </c>
@@ -10248,7 +10281,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
-      <c r="B20" s="18"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="7" t="s">
         <v>16</v>
       </c>
@@ -10268,7 +10301,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
-      <c r="B21" s="18"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="7" t="s">
         <v>16</v>
       </c>
@@ -10288,7 +10321,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
-      <c r="B22" s="18"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="7" t="s">
         <v>16</v>
       </c>
@@ -10308,7 +10341,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
-      <c r="B23" s="18"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="7" t="s">
         <v>16</v>
       </c>
@@ -10328,7 +10361,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
-      <c r="B24" s="18"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="7" t="s">
         <v>16</v>
       </c>
@@ -10348,7 +10381,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
-      <c r="B25" s="18"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="7" t="s">
         <v>16</v>
       </c>
@@ -10368,7 +10401,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
-      <c r="B26" s="18"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="7" t="s">
         <v>16</v>
       </c>
@@ -10388,7 +10421,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
-      <c r="B27" s="18"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="7" t="s">
         <v>16</v>
       </c>
@@ -10408,7 +10441,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
-      <c r="B28" s="18"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="7" t="s">
         <v>16</v>
       </c>
@@ -10428,7 +10461,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
-      <c r="B29" s="18"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="7" t="s">
         <v>16</v>
       </c>
@@ -10448,7 +10481,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
-      <c r="B30" s="18"/>
+      <c r="B30" s="22"/>
       <c r="C30" s="7" t="s">
         <v>16</v>
       </c>
@@ -10468,7 +10501,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
-      <c r="B31" s="18"/>
+      <c r="B31" s="22"/>
       <c r="C31" s="7" t="s">
         <v>16</v>
       </c>
@@ -10488,7 +10521,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
-      <c r="B32" s="18"/>
+      <c r="B32" s="22"/>
       <c r="C32" s="7" t="s">
         <v>16</v>
       </c>
@@ -10508,7 +10541,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
-      <c r="B33" s="18"/>
+      <c r="B33" s="22"/>
       <c r="C33" s="7" t="s">
         <v>16</v>
       </c>
@@ -10528,7 +10561,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
-      <c r="B34" s="18"/>
+      <c r="B34" s="22"/>
       <c r="C34" s="7" t="s">
         <v>16</v>
       </c>
@@ -10548,7 +10581,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
-      <c r="B35" s="18"/>
+      <c r="B35" s="22"/>
       <c r="C35" s="7" t="s">
         <v>16</v>
       </c>
@@ -10568,7 +10601,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
-      <c r="B36" s="18"/>
+      <c r="B36" s="22"/>
       <c r="C36" s="7" t="s">
         <v>16</v>
       </c>
@@ -10588,7 +10621,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
-      <c r="B37" s="18"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="7" t="s">
         <v>16</v>
       </c>
@@ -10608,7 +10641,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
-      <c r="B38" s="18"/>
+      <c r="B38" s="22"/>
       <c r="C38" s="7" t="s">
         <v>16</v>
       </c>
@@ -10628,7 +10661,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
-      <c r="B39" s="18"/>
+      <c r="B39" s="22"/>
       <c r="C39" s="7" t="s">
         <v>16</v>
       </c>
@@ -10648,7 +10681,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
-      <c r="B40" s="18"/>
+      <c r="B40" s="22"/>
       <c r="C40" s="7" t="s">
         <v>16</v>
       </c>
@@ -10668,7 +10701,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
-      <c r="B41" s="18"/>
+      <c r="B41" s="22"/>
       <c r="C41" s="7" t="s">
         <v>16</v>
       </c>
@@ -10688,7 +10721,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
-      <c r="B42" s="18"/>
+      <c r="B42" s="22"/>
       <c r="C42" s="7" t="s">
         <v>16</v>
       </c>
@@ -10708,7 +10741,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
-      <c r="B43" s="18"/>
+      <c r="B43" s="22"/>
       <c r="C43" s="7" t="s">
         <v>16</v>
       </c>
@@ -10728,7 +10761,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
-      <c r="B44" s="18"/>
+      <c r="B44" s="22"/>
       <c r="C44" s="7" t="s">
         <v>16</v>
       </c>
@@ -10748,7 +10781,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -10770,7 +10803,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
-      <c r="B46" s="15"/>
+      <c r="B46" s="19"/>
       <c r="C46" s="7" t="s">
         <v>104</v>
       </c>
@@ -10790,7 +10823,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
-      <c r="B47" s="15"/>
+      <c r="B47" s="19"/>
       <c r="C47" s="7" t="s">
         <v>104</v>
       </c>
@@ -10810,7 +10843,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
-      <c r="B48" s="15"/>
+      <c r="B48" s="19"/>
       <c r="C48" s="7" t="s">
         <v>104</v>
       </c>
@@ -10830,7 +10863,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
-      <c r="B49" s="15"/>
+      <c r="B49" s="19"/>
       <c r="C49" s="7" t="s">
         <v>104</v>
       </c>
@@ -10850,7 +10883,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
-      <c r="B50" s="15"/>
+      <c r="B50" s="19"/>
       <c r="C50" s="7" t="s">
         <v>104</v>
       </c>
@@ -10870,7 +10903,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
-      <c r="B51" s="15"/>
+      <c r="B51" s="19"/>
       <c r="C51" s="7" t="s">
         <v>104</v>
       </c>
@@ -10890,7 +10923,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C52" s="7" t="s">
@@ -10912,7 +10945,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
-      <c r="B53" s="15"/>
+      <c r="B53" s="19"/>
       <c r="C53" s="7" t="s">
         <v>118</v>
       </c>
@@ -10932,7 +10965,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
-      <c r="B54" s="15"/>
+      <c r="B54" s="19"/>
       <c r="C54" s="7" t="s">
         <v>118</v>
       </c>
@@ -10952,7 +10985,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
-      <c r="B55" s="15"/>
+      <c r="B55" s="19"/>
       <c r="C55" s="7" t="s">
         <v>118</v>
       </c>
@@ -10972,7 +11005,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
-      <c r="B56" s="15"/>
+      <c r="B56" s="19"/>
       <c r="C56" s="7" t="s">
         <v>118</v>
       </c>
@@ -10992,7 +11025,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
-      <c r="B57" s="15"/>
+      <c r="B57" s="19"/>
       <c r="C57" s="7" t="s">
         <v>118</v>
       </c>
@@ -11012,7 +11045,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
-      <c r="B58" s="15"/>
+      <c r="B58" s="19"/>
       <c r="C58" s="7" t="s">
         <v>118</v>
       </c>
@@ -11032,7 +11065,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
-      <c r="B59" s="15"/>
+      <c r="B59" s="19"/>
       <c r="C59" s="7" t="s">
         <v>118</v>
       </c>
@@ -11052,7 +11085,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="7"/>
-      <c r="B60" s="15"/>
+      <c r="B60" s="19"/>
       <c r="C60" s="7" t="s">
         <v>118</v>
       </c>
@@ -11072,7 +11105,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="7"/>
-      <c r="B61" s="15"/>
+      <c r="B61" s="19"/>
       <c r="C61" s="7" t="s">
         <v>118</v>
       </c>
@@ -11092,7 +11125,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
-      <c r="B62" s="15"/>
+      <c r="B62" s="19"/>
       <c r="C62" s="7" t="s">
         <v>118</v>
       </c>
@@ -11112,7 +11145,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="7"/>
-      <c r="B63" s="15"/>
+      <c r="B63" s="19"/>
       <c r="C63" s="7" t="s">
         <v>118</v>
       </c>
@@ -11132,7 +11165,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
-      <c r="B64" s="15"/>
+      <c r="B64" s="19"/>
       <c r="C64" s="7" t="s">
         <v>118</v>
       </c>
@@ -11154,7 +11187,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="7"/>
-      <c r="B65" s="15"/>
+      <c r="B65" s="19"/>
       <c r="C65" s="7" t="s">
         <v>118</v>
       </c>
@@ -11174,7 +11207,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
-      <c r="B66" s="15"/>
+      <c r="B66" s="19"/>
       <c r="C66" s="7" t="s">
         <v>118</v>
       </c>
@@ -11196,7 +11229,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
-      <c r="B67" s="15"/>
+      <c r="B67" s="19"/>
       <c r="C67" s="7" t="s">
         <v>118</v>
       </c>
@@ -11216,7 +11249,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
-      <c r="B68" s="15"/>
+      <c r="B68" s="19"/>
       <c r="C68" s="7" t="s">
         <v>118</v>
       </c>
@@ -11236,7 +11269,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
-      <c r="B69" s="15"/>
+      <c r="B69" s="19"/>
       <c r="C69" s="7" t="s">
         <v>118</v>
       </c>
@@ -11256,7 +11289,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="7"/>
-      <c r="B70" s="15"/>
+      <c r="B70" s="19"/>
       <c r="C70" s="7" t="s">
         <v>118</v>
       </c>
@@ -11276,7 +11309,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
-      <c r="B71" s="15"/>
+      <c r="B71" s="19"/>
       <c r="C71" s="7" t="s">
         <v>118</v>
       </c>
@@ -11296,7 +11329,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
-      <c r="B72" s="15"/>
+      <c r="B72" s="19"/>
       <c r="C72" s="7" t="s">
         <v>118</v>
       </c>
@@ -11316,7 +11349,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
-      <c r="B73" s="15"/>
+      <c r="B73" s="19"/>
       <c r="C73" s="7" t="s">
         <v>118</v>
       </c>
@@ -11336,7 +11369,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
-      <c r="B74" s="15"/>
+      <c r="B74" s="19"/>
       <c r="C74" s="7" t="s">
         <v>118</v>
       </c>
@@ -11356,7 +11389,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="7"/>
-      <c r="B75" s="15"/>
+      <c r="B75" s="19"/>
       <c r="C75" s="7" t="s">
         <v>118</v>
       </c>
@@ -11376,7 +11409,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="7"/>
-      <c r="B76" s="15"/>
+      <c r="B76" s="19"/>
       <c r="C76" s="7" t="s">
         <v>118</v>
       </c>
@@ -11396,7 +11429,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
-      <c r="B77" s="15" t="s">
+      <c r="B77" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C77" s="7" t="s">
@@ -11418,7 +11451,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="7"/>
-      <c r="B78" s="15"/>
+      <c r="B78" s="19"/>
       <c r="C78" s="7" t="s">
         <v>536</v>
       </c>
@@ -11438,7 +11471,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="7"/>
-      <c r="B79" s="15"/>
+      <c r="B79" s="19"/>
       <c r="C79" s="7" t="s">
         <v>536</v>
       </c>
@@ -11458,7 +11491,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
-      <c r="B80" s="15"/>
+      <c r="B80" s="19"/>
       <c r="C80" s="7" t="s">
         <v>536</v>
       </c>
@@ -11478,7 +11511,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
-      <c r="B81" s="15"/>
+      <c r="B81" s="19"/>
       <c r="C81" s="7" t="s">
         <v>536</v>
       </c>
@@ -11498,7 +11531,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="7"/>
-      <c r="B82" s="15"/>
+      <c r="B82" s="19"/>
       <c r="C82" s="7" t="s">
         <v>536</v>
       </c>
@@ -11518,7 +11551,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="7"/>
-      <c r="B83" s="15"/>
+      <c r="B83" s="19"/>
       <c r="C83" s="7" t="s">
         <v>536</v>
       </c>
@@ -11538,7 +11571,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="7"/>
-      <c r="B84" s="15"/>
+      <c r="B84" s="19"/>
       <c r="C84" s="7" t="s">
         <v>536</v>
       </c>
@@ -11558,7 +11591,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="7"/>
-      <c r="B85" s="15"/>
+      <c r="B85" s="19"/>
       <c r="C85" s="7" t="s">
         <v>536</v>
       </c>
@@ -11578,7 +11611,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="7"/>
-      <c r="B86" s="15"/>
+      <c r="B86" s="19"/>
       <c r="C86" s="7" t="s">
         <v>536</v>
       </c>
@@ -11598,7 +11631,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="7"/>
-      <c r="B87" s="15"/>
+      <c r="B87" s="19"/>
       <c r="C87" s="7" t="s">
         <v>536</v>
       </c>
@@ -11618,7 +11651,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="7"/>
-      <c r="B88" s="15"/>
+      <c r="B88" s="19"/>
       <c r="C88" s="7" t="s">
         <v>536</v>
       </c>
@@ -11638,7 +11671,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="7"/>
-      <c r="B89" s="15"/>
+      <c r="B89" s="19"/>
       <c r="C89" s="7" t="s">
         <v>536</v>
       </c>
@@ -11658,7 +11691,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="7"/>
-      <c r="B90" s="15"/>
+      <c r="B90" s="19"/>
       <c r="C90" s="7" t="s">
         <v>536</v>
       </c>
@@ -11678,7 +11711,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="7"/>
-      <c r="B91" s="15"/>
+      <c r="B91" s="19"/>
       <c r="C91" s="7" t="s">
         <v>536</v>
       </c>
@@ -11698,7 +11731,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="7"/>
-      <c r="B92" s="15"/>
+      <c r="B92" s="19"/>
       <c r="C92" s="7" t="s">
         <v>536</v>
       </c>
@@ -11718,7 +11751,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="7"/>
-      <c r="B93" s="15"/>
+      <c r="B93" s="19"/>
       <c r="C93" s="7" t="s">
         <v>536</v>
       </c>
@@ -11738,7 +11771,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="7"/>
-      <c r="B94" s="15"/>
+      <c r="B94" s="19"/>
       <c r="C94" s="7" t="s">
         <v>536</v>
       </c>
@@ -11758,7 +11791,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="7"/>
-      <c r="B95" s="15"/>
+      <c r="B95" s="19"/>
       <c r="C95" s="7" t="s">
         <v>536</v>
       </c>
@@ -11778,7 +11811,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="7"/>
-      <c r="B96" s="15"/>
+      <c r="B96" s="19"/>
       <c r="C96" s="7" t="s">
         <v>536</v>
       </c>
@@ -11798,7 +11831,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="7"/>
-      <c r="B97" s="15"/>
+      <c r="B97" s="19"/>
       <c r="C97" s="7" t="s">
         <v>536</v>
       </c>
@@ -11818,7 +11851,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="7"/>
-      <c r="B98" s="15"/>
+      <c r="B98" s="19"/>
       <c r="C98" s="7" t="s">
         <v>536</v>
       </c>
@@ -11838,7 +11871,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="7"/>
-      <c r="B99" s="15"/>
+      <c r="B99" s="19"/>
       <c r="C99" s="7" t="s">
         <v>536</v>
       </c>
@@ -11858,7 +11891,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="7"/>
-      <c r="B100" s="15" t="s">
+      <c r="B100" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C100" s="7" t="s">
@@ -11880,7 +11913,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="7"/>
-      <c r="B101" s="15"/>
+      <c r="B101" s="19"/>
       <c r="C101" s="7" t="s">
         <v>561</v>
       </c>
@@ -11900,7 +11933,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="7"/>
-      <c r="B102" s="15"/>
+      <c r="B102" s="19"/>
       <c r="C102" s="7" t="s">
         <v>170</v>
       </c>
@@ -11920,7 +11953,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="7"/>
-      <c r="B103" s="15"/>
+      <c r="B103" s="19"/>
       <c r="C103" s="7" t="s">
         <v>170</v>
       </c>
@@ -11940,7 +11973,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="7"/>
-      <c r="B104" s="15" t="s">
+      <c r="B104" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C104" s="7" t="s">
@@ -11962,7 +11995,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="7"/>
-      <c r="B105" s="15"/>
+      <c r="B105" s="19"/>
       <c r="C105" s="7" t="s">
         <v>179</v>
       </c>
@@ -11982,7 +12015,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="7"/>
-      <c r="B106" s="15"/>
+      <c r="B106" s="19"/>
       <c r="C106" s="7" t="s">
         <v>562</v>
       </c>
@@ -12002,7 +12035,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="7"/>
-      <c r="B107" s="15"/>
+      <c r="B107" s="19"/>
       <c r="C107" s="7" t="s">
         <v>179</v>
       </c>
@@ -12022,7 +12055,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="7"/>
-      <c r="B108" s="15"/>
+      <c r="B108" s="19"/>
       <c r="C108" s="7" t="s">
         <v>179</v>
       </c>
@@ -12042,7 +12075,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="7"/>
-      <c r="B109" s="15"/>
+      <c r="B109" s="19"/>
       <c r="C109" s="7" t="s">
         <v>179</v>
       </c>
@@ -12062,7 +12095,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="7"/>
-      <c r="B110" s="15"/>
+      <c r="B110" s="19"/>
       <c r="C110" s="7" t="s">
         <v>179</v>
       </c>
@@ -12082,7 +12115,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="7"/>
-      <c r="B111" s="15"/>
+      <c r="B111" s="19"/>
       <c r="C111" s="7" t="s">
         <v>179</v>
       </c>
@@ -12102,7 +12135,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="7"/>
-      <c r="B112" s="15"/>
+      <c r="B112" s="19"/>
       <c r="C112" s="7" t="s">
         <v>179</v>
       </c>
@@ -12122,7 +12155,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="7"/>
-      <c r="B113" s="15"/>
+      <c r="B113" s="19"/>
       <c r="C113" s="7" t="s">
         <v>179</v>
       </c>
@@ -12142,7 +12175,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="7"/>
-      <c r="B114" s="15"/>
+      <c r="B114" s="19"/>
       <c r="C114" s="7" t="s">
         <v>179</v>
       </c>
@@ -12162,7 +12195,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="7"/>
-      <c r="B115" s="15"/>
+      <c r="B115" s="19"/>
       <c r="C115" s="7" t="s">
         <v>179</v>
       </c>
@@ -12182,7 +12215,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="7"/>
-      <c r="B116" s="15"/>
+      <c r="B116" s="19"/>
       <c r="C116" s="7" t="s">
         <v>179</v>
       </c>
@@ -12202,7 +12235,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="7"/>
-      <c r="B117" s="15"/>
+      <c r="B117" s="19"/>
       <c r="C117" s="7" t="s">
         <v>179</v>
       </c>
@@ -12222,7 +12255,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="7"/>
-      <c r="B118" s="15"/>
+      <c r="B118" s="19"/>
       <c r="C118" s="7" t="s">
         <v>179</v>
       </c>
@@ -12244,7 +12277,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="7"/>
-      <c r="B119" s="15"/>
+      <c r="B119" s="19"/>
       <c r="C119" s="7" t="s">
         <v>179</v>
       </c>
@@ -12264,7 +12297,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="7"/>
-      <c r="B120" s="15"/>
+      <c r="B120" s="19"/>
       <c r="C120" s="7" t="s">
         <v>179</v>
       </c>
@@ -12284,7 +12317,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="7"/>
-      <c r="B121" s="15"/>
+      <c r="B121" s="19"/>
       <c r="C121" s="7" t="s">
         <v>179</v>
       </c>
@@ -12304,7 +12337,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="7"/>
-      <c r="B122" s="15"/>
+      <c r="B122" s="19"/>
       <c r="C122" s="7" t="s">
         <v>179</v>
       </c>
@@ -12324,7 +12357,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="7"/>
-      <c r="B123" s="15"/>
+      <c r="B123" s="19"/>
       <c r="C123" s="7" t="s">
         <v>179</v>
       </c>
@@ -12344,7 +12377,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="7"/>
-      <c r="B124" s="15"/>
+      <c r="B124" s="19"/>
       <c r="C124" s="7" t="s">
         <v>179</v>
       </c>
@@ -12364,7 +12397,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="7"/>
-      <c r="B125" s="15"/>
+      <c r="B125" s="19"/>
       <c r="C125" s="7" t="s">
         <v>179</v>
       </c>
@@ -12384,7 +12417,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="7"/>
-      <c r="B126" s="15"/>
+      <c r="B126" s="19"/>
       <c r="C126" s="7" t="s">
         <v>179</v>
       </c>
@@ -12404,7 +12437,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="7"/>
-      <c r="B127" s="15"/>
+      <c r="B127" s="19"/>
       <c r="C127" s="7" t="s">
         <v>179</v>
       </c>
@@ -12424,7 +12457,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="7"/>
-      <c r="B128" s="15"/>
+      <c r="B128" s="19"/>
       <c r="C128" s="7" t="s">
         <v>179</v>
       </c>
@@ -12446,7 +12479,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="7"/>
-      <c r="B129" s="15"/>
+      <c r="B129" s="19"/>
       <c r="C129" s="7" t="s">
         <v>179</v>
       </c>
@@ -12466,7 +12499,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="7"/>
-      <c r="B130" s="15"/>
+      <c r="B130" s="19"/>
       <c r="C130" s="7" t="s">
         <v>179</v>
       </c>
@@ -12488,7 +12521,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="7"/>
-      <c r="B131" s="15"/>
+      <c r="B131" s="19"/>
       <c r="C131" s="7" t="s">
         <v>179</v>
       </c>
@@ -12510,7 +12543,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="7"/>
-      <c r="B132" s="15"/>
+      <c r="B132" s="19"/>
       <c r="C132" s="7" t="s">
         <v>179</v>
       </c>
@@ -12532,7 +12565,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="7"/>
-      <c r="B133" s="15"/>
+      <c r="B133" s="19"/>
       <c r="C133" s="7" t="s">
         <v>179</v>
       </c>
@@ -12554,7 +12587,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="7"/>
-      <c r="B134" s="15"/>
+      <c r="B134" s="19"/>
       <c r="C134" s="7" t="s">
         <v>179</v>
       </c>
@@ -12576,7 +12609,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="7"/>
-      <c r="B135" s="15"/>
+      <c r="B135" s="19"/>
       <c r="C135" s="7" t="s">
         <v>179</v>
       </c>
@@ -12598,7 +12631,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="7"/>
-      <c r="B136" s="15"/>
+      <c r="B136" s="19"/>
       <c r="C136" s="7" t="s">
         <v>179</v>
       </c>
@@ -12620,7 +12653,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="7"/>
-      <c r="B137" s="15"/>
+      <c r="B137" s="19"/>
       <c r="C137" s="7" t="s">
         <v>179</v>
       </c>
@@ -12642,7 +12675,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="7"/>
-      <c r="B138" s="15"/>
+      <c r="B138" s="19"/>
       <c r="C138" s="7" t="s">
         <v>179</v>
       </c>
@@ -12664,7 +12697,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="7"/>
-      <c r="B139" s="15"/>
+      <c r="B139" s="19"/>
       <c r="C139" s="7" t="s">
         <v>179</v>
       </c>
@@ -12686,7 +12719,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="7"/>
-      <c r="B140" s="15"/>
+      <c r="B140" s="19"/>
       <c r="C140" s="7" t="s">
         <v>179</v>
       </c>
@@ -12708,7 +12741,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="7"/>
-      <c r="B141" s="15"/>
+      <c r="B141" s="19"/>
       <c r="C141" s="7" t="s">
         <v>179</v>
       </c>
@@ -12728,7 +12761,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="7"/>
-      <c r="B142" s="15"/>
+      <c r="B142" s="19"/>
       <c r="C142" s="7" t="s">
         <v>179</v>
       </c>
@@ -12748,7 +12781,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="7"/>
-      <c r="B143" s="15"/>
+      <c r="B143" s="19"/>
       <c r="C143" s="7" t="s">
         <v>179</v>
       </c>
@@ -12768,7 +12801,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="7"/>
-      <c r="B144" s="15"/>
+      <c r="B144" s="19"/>
       <c r="C144" s="7" t="s">
         <v>179</v>
       </c>
@@ -12788,7 +12821,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="7"/>
-      <c r="B145" s="15"/>
+      <c r="B145" s="19"/>
       <c r="C145" s="7" t="s">
         <v>179</v>
       </c>
@@ -12808,7 +12841,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="7"/>
-      <c r="B146" s="15"/>
+      <c r="B146" s="19"/>
       <c r="C146" s="7" t="s">
         <v>179</v>
       </c>
@@ -12828,7 +12861,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="7"/>
-      <c r="B147" s="15"/>
+      <c r="B147" s="19"/>
       <c r="C147" s="7" t="s">
         <v>179</v>
       </c>
@@ -12848,7 +12881,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="7"/>
-      <c r="B148" s="15"/>
+      <c r="B148" s="19"/>
       <c r="C148" s="7" t="s">
         <v>179</v>
       </c>
@@ -12868,7 +12901,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="7"/>
-      <c r="B149" s="15" t="s">
+      <c r="B149" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C149" s="7" t="s">
@@ -12890,7 +12923,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="7"/>
-      <c r="B150" s="15"/>
+      <c r="B150" s="19"/>
       <c r="C150" s="7" t="s">
         <v>272</v>
       </c>
@@ -12910,7 +12943,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="7"/>
-      <c r="B151" s="15"/>
+      <c r="B151" s="19"/>
       <c r="C151" s="7" t="s">
         <v>272</v>
       </c>
@@ -12930,7 +12963,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="7"/>
-      <c r="B152" s="15"/>
+      <c r="B152" s="19"/>
       <c r="C152" s="7" t="s">
         <v>272</v>
       </c>
@@ -12950,7 +12983,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="7"/>
-      <c r="B153" s="15" t="s">
+      <c r="B153" s="19" t="s">
         <v>563</v>
       </c>
       <c r="C153" s="7" t="s">
@@ -12972,7 +13005,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="7"/>
-      <c r="B154" s="15"/>
+      <c r="B154" s="19"/>
       <c r="C154" s="7" t="s">
         <v>280</v>
       </c>
@@ -12992,7 +13025,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="7"/>
-      <c r="B155" s="15"/>
+      <c r="B155" s="19"/>
       <c r="C155" s="7" t="s">
         <v>280</v>
       </c>
@@ -13012,7 +13045,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="7"/>
-      <c r="B156" s="15"/>
+      <c r="B156" s="19"/>
       <c r="C156" s="7" t="s">
         <v>280</v>
       </c>
@@ -13032,7 +13065,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="7"/>
-      <c r="B157" s="15"/>
+      <c r="B157" s="19"/>
       <c r="C157" s="7" t="s">
         <v>280</v>
       </c>
@@ -13052,7 +13085,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="7"/>
-      <c r="B158" s="15"/>
+      <c r="B158" s="19"/>
       <c r="C158" s="7" t="s">
         <v>280</v>
       </c>
@@ -13072,7 +13105,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="7"/>
-      <c r="B159" s="15"/>
+      <c r="B159" s="19"/>
       <c r="C159" s="7" t="s">
         <v>280</v>
       </c>
@@ -13092,7 +13125,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="7"/>
-      <c r="B160" s="15"/>
+      <c r="B160" s="19"/>
       <c r="C160" s="7" t="s">
         <v>280</v>
       </c>
@@ -13112,7 +13145,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="7"/>
-      <c r="B161" s="15"/>
+      <c r="B161" s="19"/>
       <c r="C161" s="7" t="s">
         <v>280</v>
       </c>
@@ -13132,7 +13165,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="7"/>
-      <c r="B162" s="15"/>
+      <c r="B162" s="19"/>
       <c r="C162" s="7" t="s">
         <v>280</v>
       </c>
@@ -13152,7 +13185,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="7"/>
-      <c r="B163" s="15"/>
+      <c r="B163" s="19"/>
       <c r="C163" s="7" t="s">
         <v>280</v>
       </c>
@@ -13172,7 +13205,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="7"/>
-      <c r="B164" s="15"/>
+      <c r="B164" s="19"/>
       <c r="C164" s="7" t="s">
         <v>280</v>
       </c>
@@ -13192,7 +13225,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="7"/>
-      <c r="B165" s="15"/>
+      <c r="B165" s="19"/>
       <c r="C165" s="7" t="s">
         <v>280</v>
       </c>
@@ -13212,7 +13245,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="7"/>
-      <c r="B166" s="15"/>
+      <c r="B166" s="19"/>
       <c r="C166" s="7" t="s">
         <v>280</v>
       </c>
@@ -13232,7 +13265,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="7"/>
-      <c r="B167" s="15"/>
+      <c r="B167" s="19"/>
       <c r="C167" s="7" t="s">
         <v>280</v>
       </c>
@@ -13252,7 +13285,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="7"/>
-      <c r="B168" s="15"/>
+      <c r="B168" s="19"/>
       <c r="C168" s="7" t="s">
         <v>280</v>
       </c>
@@ -13272,7 +13305,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="7"/>
-      <c r="B169" s="15"/>
+      <c r="B169" s="19"/>
       <c r="C169" s="7" t="s">
         <v>280</v>
       </c>
@@ -13292,7 +13325,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="7"/>
-      <c r="B170" s="15"/>
+      <c r="B170" s="19"/>
       <c r="C170" s="7" t="s">
         <v>280</v>
       </c>
@@ -13312,7 +13345,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="7"/>
-      <c r="B171" s="15"/>
+      <c r="B171" s="19"/>
       <c r="C171" s="7" t="s">
         <v>280</v>
       </c>
@@ -13332,7 +13365,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="7"/>
-      <c r="B172" s="15"/>
+      <c r="B172" s="19"/>
       <c r="C172" s="7" t="s">
         <v>280</v>
       </c>
@@ -13352,7 +13385,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="7"/>
-      <c r="B173" s="15"/>
+      <c r="B173" s="19"/>
       <c r="C173" s="7" t="s">
         <v>280</v>
       </c>
@@ -13372,7 +13405,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="7"/>
-      <c r="B174" s="15"/>
+      <c r="B174" s="19"/>
       <c r="C174" s="7" t="s">
         <v>564</v>
       </c>
@@ -13392,7 +13425,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="7"/>
-      <c r="B175" s="15"/>
+      <c r="B175" s="19"/>
       <c r="C175" s="7" t="s">
         <v>280</v>
       </c>
@@ -13412,7 +13445,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="7"/>
-      <c r="B176" s="15"/>
+      <c r="B176" s="19"/>
       <c r="C176" s="7" t="s">
         <v>280</v>
       </c>
@@ -13432,7 +13465,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="7"/>
-      <c r="B177" s="15"/>
+      <c r="B177" s="19"/>
       <c r="C177" s="7" t="s">
         <v>280</v>
       </c>
@@ -13452,7 +13485,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="7"/>
-      <c r="B178" s="15"/>
+      <c r="B178" s="19"/>
       <c r="C178" s="7" t="s">
         <v>280</v>
       </c>
@@ -13472,7 +13505,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="7"/>
-      <c r="B179" s="15"/>
+      <c r="B179" s="19"/>
       <c r="C179" s="7" t="s">
         <v>280</v>
       </c>
@@ -13492,7 +13525,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="7"/>
-      <c r="B180" s="15"/>
+      <c r="B180" s="19"/>
       <c r="C180" s="7" t="s">
         <v>280</v>
       </c>
@@ -13512,7 +13545,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="7"/>
-      <c r="B181" s="15"/>
+      <c r="B181" s="19"/>
       <c r="C181" s="7" t="s">
         <v>280</v>
       </c>
@@ -13532,7 +13565,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="7"/>
-      <c r="B182" s="15"/>
+      <c r="B182" s="19"/>
       <c r="C182" s="7" t="s">
         <v>280</v>
       </c>
@@ -13552,7 +13585,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="7"/>
-      <c r="B183" s="15"/>
+      <c r="B183" s="19"/>
       <c r="C183" s="7" t="s">
         <v>280</v>
       </c>
@@ -13572,7 +13605,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="7"/>
-      <c r="B184" s="15"/>
+      <c r="B184" s="19"/>
       <c r="C184" s="7" t="s">
         <v>280</v>
       </c>
@@ -13592,7 +13625,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="7"/>
-      <c r="B185" s="15"/>
+      <c r="B185" s="19"/>
       <c r="C185" s="7" t="s">
         <v>280</v>
       </c>
@@ -13612,7 +13645,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="7"/>
-      <c r="B186" s="15"/>
+      <c r="B186" s="19"/>
       <c r="C186" s="7" t="s">
         <v>280</v>
       </c>
@@ -13632,7 +13665,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="7"/>
-      <c r="B187" s="15"/>
+      <c r="B187" s="19"/>
       <c r="C187" s="7" t="s">
         <v>280</v>
       </c>
@@ -13652,7 +13685,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="7"/>
-      <c r="B188" s="15"/>
+      <c r="B188" s="19"/>
       <c r="C188" s="7" t="s">
         <v>280</v>
       </c>
@@ -13672,7 +13705,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="7"/>
-      <c r="B189" s="15"/>
+      <c r="B189" s="19"/>
       <c r="C189" s="7" t="s">
         <v>280</v>
       </c>
@@ -13692,7 +13725,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="7"/>
-      <c r="B190" s="15"/>
+      <c r="B190" s="19"/>
       <c r="C190" s="7" t="s">
         <v>280</v>
       </c>
@@ -13712,7 +13745,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="7"/>
-      <c r="B191" s="15"/>
+      <c r="B191" s="19"/>
       <c r="C191" s="7" t="s">
         <v>280</v>
       </c>
@@ -13732,7 +13765,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="7"/>
-      <c r="B192" s="15"/>
+      <c r="B192" s="19"/>
       <c r="C192" s="7" t="s">
         <v>280</v>
       </c>
@@ -13752,7 +13785,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="7"/>
-      <c r="B193" s="15"/>
+      <c r="B193" s="19"/>
       <c r="C193" s="7" t="s">
         <v>280</v>
       </c>
@@ -13772,7 +13805,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="7"/>
-      <c r="B194" s="15"/>
+      <c r="B194" s="19"/>
       <c r="C194" s="7" t="s">
         <v>280</v>
       </c>
@@ -13792,7 +13825,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="7"/>
-      <c r="B195" s="15"/>
+      <c r="B195" s="19"/>
       <c r="C195" s="7" t="s">
         <v>280</v>
       </c>
@@ -13812,7 +13845,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="7"/>
-      <c r="B196" s="15"/>
+      <c r="B196" s="19"/>
       <c r="C196" s="7" t="s">
         <v>280</v>
       </c>
@@ -13832,7 +13865,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="7"/>
-      <c r="B197" s="15"/>
+      <c r="B197" s="19"/>
       <c r="C197" s="7" t="s">
         <v>280</v>
       </c>
@@ -13852,7 +13885,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="7"/>
-      <c r="B198" s="15"/>
+      <c r="B198" s="19"/>
       <c r="C198" s="7" t="s">
         <v>280</v>
       </c>
@@ -13872,7 +13905,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="7"/>
-      <c r="B199" s="15"/>
+      <c r="B199" s="19"/>
       <c r="C199" s="7" t="s">
         <v>280</v>
       </c>
@@ -13892,7 +13925,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="7"/>
-      <c r="B200" s="15"/>
+      <c r="B200" s="19"/>
       <c r="C200" s="7" t="s">
         <v>280</v>
       </c>
@@ -13912,7 +13945,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="7"/>
-      <c r="B201" s="15"/>
+      <c r="B201" s="19"/>
       <c r="C201" s="7" t="s">
         <v>280</v>
       </c>
@@ -13932,7 +13965,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="7"/>
-      <c r="B202" s="15"/>
+      <c r="B202" s="19"/>
       <c r="C202" s="7" t="s">
         <v>280</v>
       </c>
@@ -13952,7 +13985,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="7"/>
-      <c r="B203" s="15"/>
+      <c r="B203" s="19"/>
       <c r="C203" s="7" t="s">
         <v>280</v>
       </c>
@@ -13972,7 +14005,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="7"/>
-      <c r="B204" s="15"/>
+      <c r="B204" s="19"/>
       <c r="C204" s="7" t="s">
         <v>280</v>
       </c>
@@ -13992,7 +14025,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="7"/>
-      <c r="B205" s="15"/>
+      <c r="B205" s="19"/>
       <c r="C205" s="7" t="s">
         <v>280</v>
       </c>
@@ -14012,7 +14045,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="7"/>
-      <c r="B206" s="15"/>
+      <c r="B206" s="19"/>
       <c r="C206" s="7" t="s">
         <v>280</v>
       </c>
@@ -14032,7 +14065,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="7"/>
-      <c r="B207" s="15"/>
+      <c r="B207" s="19"/>
       <c r="C207" s="7" t="s">
         <v>280</v>
       </c>
@@ -14052,7 +14085,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="7"/>
-      <c r="B208" s="15"/>
+      <c r="B208" s="19"/>
       <c r="C208" s="7" t="s">
         <v>280</v>
       </c>
@@ -14072,7 +14105,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="7"/>
-      <c r="B209" s="15"/>
+      <c r="B209" s="19"/>
       <c r="C209" s="7" t="s">
         <v>280</v>
       </c>
@@ -14092,7 +14125,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="7"/>
-      <c r="B210" s="15"/>
+      <c r="B210" s="19"/>
       <c r="C210" s="7" t="s">
         <v>280</v>
       </c>
@@ -14112,7 +14145,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="7"/>
-      <c r="B211" s="15"/>
+      <c r="B211" s="19"/>
       <c r="C211" s="7" t="s">
         <v>280</v>
       </c>
@@ -14132,7 +14165,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="7"/>
-      <c r="B212" s="15"/>
+      <c r="B212" s="19"/>
       <c r="C212" s="7" t="s">
         <v>280</v>
       </c>
@@ -14152,7 +14185,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="7"/>
-      <c r="B213" s="15"/>
+      <c r="B213" s="19"/>
       <c r="C213" s="7" t="s">
         <v>280</v>
       </c>
@@ -14172,7 +14205,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="7"/>
-      <c r="B214" s="15"/>
+      <c r="B214" s="19"/>
       <c r="C214" s="7" t="s">
         <v>280</v>
       </c>
@@ -14192,7 +14225,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="7"/>
-      <c r="B215" s="15"/>
+      <c r="B215" s="19"/>
       <c r="C215" s="7" t="s">
         <v>280</v>
       </c>
@@ -14212,7 +14245,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="7"/>
-      <c r="B216" s="15"/>
+      <c r="B216" s="19"/>
       <c r="C216" s="7" t="s">
         <v>280</v>
       </c>
@@ -14232,7 +14265,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="7"/>
-      <c r="B217" s="15"/>
+      <c r="B217" s="19"/>
       <c r="C217" s="7" t="s">
         <v>280</v>
       </c>
@@ -14252,7 +14285,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="7"/>
-      <c r="B218" s="15"/>
+      <c r="B218" s="19"/>
       <c r="C218" s="7" t="s">
         <v>280</v>
       </c>
@@ -14272,7 +14305,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="7"/>
-      <c r="B219" s="15"/>
+      <c r="B219" s="19"/>
       <c r="C219" s="7" t="s">
         <v>280</v>
       </c>
@@ -14292,7 +14325,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="7"/>
-      <c r="B220" s="15"/>
+      <c r="B220" s="19"/>
       <c r="C220" s="7" t="s">
         <v>280</v>
       </c>
@@ -14312,7 +14345,7 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="7"/>
-      <c r="B221" s="22" t="s">
+      <c r="B221" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C221" s="7" t="s">
@@ -14334,7 +14367,7 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="7"/>
-      <c r="B222" s="22"/>
+      <c r="B222" s="23"/>
       <c r="C222" s="7" t="s">
         <v>416</v>
       </c>
@@ -14354,7 +14387,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="7"/>
-      <c r="B223" s="22"/>
+      <c r="B223" s="23"/>
       <c r="C223" s="7" t="s">
         <v>416</v>
       </c>
@@ -14374,7 +14407,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="7"/>
-      <c r="B224" s="22"/>
+      <c r="B224" s="23"/>
       <c r="C224" s="7" t="s">
         <v>565</v>
       </c>
@@ -14394,7 +14427,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="7"/>
-      <c r="B225" s="22"/>
+      <c r="B225" s="23"/>
       <c r="C225" s="7" t="s">
         <v>416</v>
       </c>
@@ -14414,7 +14447,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="7"/>
-      <c r="B226" s="22"/>
+      <c r="B226" s="23"/>
       <c r="C226" s="7" t="s">
         <v>416</v>
       </c>
@@ -14434,7 +14467,7 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="7"/>
-      <c r="B227" s="22"/>
+      <c r="B227" s="23"/>
       <c r="C227" s="7" t="s">
         <v>416</v>
       </c>
@@ -14454,7 +14487,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="7"/>
-      <c r="B228" s="15" t="s">
+      <c r="B228" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C228" s="7" t="s">
@@ -14476,7 +14509,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="7"/>
-      <c r="B229" s="15"/>
+      <c r="B229" s="19"/>
       <c r="C229" s="7" t="s">
         <v>430</v>
       </c>
@@ -14496,7 +14529,7 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="7"/>
-      <c r="B230" s="15"/>
+      <c r="B230" s="19"/>
       <c r="C230" s="7" t="s">
         <v>430</v>
       </c>
@@ -14516,7 +14549,7 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="7"/>
-      <c r="B231" s="15"/>
+      <c r="B231" s="19"/>
       <c r="C231" s="7" t="s">
         <v>430</v>
       </c>
@@ -14536,7 +14569,7 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="7"/>
-      <c r="B232" s="15"/>
+      <c r="B232" s="19"/>
       <c r="C232" s="7" t="s">
         <v>430</v>
       </c>
@@ -14556,7 +14589,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="7"/>
-      <c r="B233" s="15"/>
+      <c r="B233" s="19"/>
       <c r="C233" s="7" t="s">
         <v>430</v>
       </c>
@@ -14576,7 +14609,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="7"/>
-      <c r="B234" s="15"/>
+      <c r="B234" s="19"/>
       <c r="C234" s="7" t="s">
         <v>430</v>
       </c>
@@ -14596,7 +14629,7 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="7"/>
-      <c r="B235" s="15"/>
+      <c r="B235" s="19"/>
       <c r="C235" s="7" t="s">
         <v>430</v>
       </c>
@@ -14616,7 +14649,7 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="7"/>
-      <c r="B236" s="15"/>
+      <c r="B236" s="19"/>
       <c r="C236" s="7" t="s">
         <v>566</v>
       </c>
@@ -14636,7 +14669,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="7"/>
-      <c r="B237" s="15"/>
+      <c r="B237" s="19"/>
       <c r="C237" s="7" t="s">
         <v>430</v>
       </c>
@@ -14656,7 +14689,7 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="7"/>
-      <c r="B238" s="15"/>
+      <c r="B238" s="19"/>
       <c r="C238" s="7" t="s">
         <v>430</v>
       </c>
@@ -14676,7 +14709,7 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="7"/>
-      <c r="B239" s="15"/>
+      <c r="B239" s="19"/>
       <c r="C239" s="7" t="s">
         <v>430</v>
       </c>
@@ -14696,7 +14729,7 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="7"/>
-      <c r="B240" s="15"/>
+      <c r="B240" s="19"/>
       <c r="C240" s="7" t="s">
         <v>430</v>
       </c>
@@ -14716,7 +14749,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="7"/>
-      <c r="B241" s="15"/>
+      <c r="B241" s="19"/>
       <c r="C241" s="7" t="s">
         <v>430</v>
       </c>
@@ -14736,7 +14769,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="7"/>
-      <c r="B242" s="15"/>
+      <c r="B242" s="19"/>
       <c r="C242" s="7" t="s">
         <v>430</v>
       </c>
@@ -14756,7 +14789,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="7"/>
-      <c r="B243" s="15"/>
+      <c r="B243" s="19"/>
       <c r="C243" s="7" t="s">
         <v>430</v>
       </c>
@@ -14776,7 +14809,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="7"/>
-      <c r="B244" s="15"/>
+      <c r="B244" s="19"/>
       <c r="C244" s="7" t="s">
         <v>430</v>
       </c>
@@ -14796,7 +14829,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="7"/>
-      <c r="B245" s="15"/>
+      <c r="B245" s="19"/>
       <c r="C245" s="7" t="s">
         <v>430</v>
       </c>
@@ -14816,7 +14849,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="7"/>
-      <c r="B246" s="15"/>
+      <c r="B246" s="19"/>
       <c r="C246" s="7" t="s">
         <v>430</v>
       </c>
@@ -14836,7 +14869,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="7"/>
-      <c r="B247" s="15"/>
+      <c r="B247" s="19"/>
       <c r="C247" s="7" t="s">
         <v>430</v>
       </c>
@@ -14856,7 +14889,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="7"/>
-      <c r="B248" s="15"/>
+      <c r="B248" s="19"/>
       <c r="C248" s="7" t="s">
         <v>430</v>
       </c>
@@ -14876,7 +14909,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="7"/>
-      <c r="B249" s="15"/>
+      <c r="B249" s="19"/>
       <c r="C249" s="7" t="s">
         <v>430</v>
       </c>
@@ -14896,7 +14929,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="7"/>
-      <c r="B250" s="15"/>
+      <c r="B250" s="19"/>
       <c r="C250" s="7" t="s">
         <v>430</v>
       </c>
@@ -14916,7 +14949,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="7"/>
-      <c r="B251" s="15"/>
+      <c r="B251" s="19"/>
       <c r="C251" s="7" t="s">
         <v>430</v>
       </c>
@@ -14936,7 +14969,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="7"/>
-      <c r="B252" s="15"/>
+      <c r="B252" s="19"/>
       <c r="C252" s="7" t="s">
         <v>430</v>
       </c>
@@ -14956,7 +14989,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="7"/>
-      <c r="B253" s="15"/>
+      <c r="B253" s="19"/>
       <c r="C253" s="7" t="s">
         <v>430</v>
       </c>
@@ -14976,7 +15009,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="7"/>
-      <c r="B254" s="15"/>
+      <c r="B254" s="19"/>
       <c r="C254" s="7" t="s">
         <v>430</v>
       </c>
@@ -14996,7 +15029,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="7"/>
-      <c r="B255" s="15"/>
+      <c r="B255" s="19"/>
       <c r="C255" s="7" t="s">
         <v>430</v>
       </c>
@@ -15016,7 +15049,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="7"/>
-      <c r="B256" s="15"/>
+      <c r="B256" s="19"/>
       <c r="C256" s="7" t="s">
         <v>430</v>
       </c>
@@ -15036,7 +15069,7 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="7"/>
-      <c r="B257" s="15"/>
+      <c r="B257" s="19"/>
       <c r="C257" s="7" t="s">
         <v>430</v>
       </c>
@@ -15056,7 +15089,7 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="7"/>
-      <c r="B258" s="15"/>
+      <c r="B258" s="19"/>
       <c r="C258" s="7" t="s">
         <v>430</v>
       </c>
@@ -15076,7 +15109,7 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="7"/>
-      <c r="B259" s="15"/>
+      <c r="B259" s="19"/>
       <c r="C259" s="7" t="s">
         <v>430</v>
       </c>
@@ -15096,7 +15129,7 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="7"/>
-      <c r="B260" s="22" t="s">
+      <c r="B260" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C260" s="7" t="s">
@@ -15118,7 +15151,7 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="7"/>
-      <c r="B261" s="22"/>
+      <c r="B261" s="23"/>
       <c r="C261" s="7" t="s">
         <v>495</v>
       </c>
@@ -15138,7 +15171,7 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="7"/>
-      <c r="B262" s="22"/>
+      <c r="B262" s="23"/>
       <c r="C262" s="7" t="s">
         <v>495</v>
       </c>
@@ -15158,7 +15191,7 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="7"/>
-      <c r="B263" s="22"/>
+      <c r="B263" s="23"/>
       <c r="C263" s="7" t="s">
         <v>495</v>
       </c>
@@ -15177,7 +15210,7 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="7"/>
-      <c r="B264" s="22"/>
+      <c r="B264" s="23"/>
       <c r="C264" s="7" t="s">
         <v>495</v>
       </c>
@@ -15196,7 +15229,7 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="7"/>
-      <c r="B265" s="15" t="s">
+      <c r="B265" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C265" s="7" t="s">
@@ -15217,7 +15250,7 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="7"/>
-      <c r="B266" s="15"/>
+      <c r="B266" s="19"/>
       <c r="C266" s="7" t="s">
         <v>504</v>
       </c>
@@ -15236,7 +15269,7 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="7"/>
-      <c r="B267" s="15"/>
+      <c r="B267" s="19"/>
       <c r="C267" s="7" t="s">
         <v>504</v>
       </c>
@@ -15255,7 +15288,7 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="7"/>
-      <c r="B268" s="15"/>
+      <c r="B268" s="19"/>
       <c r="C268" s="7" t="s">
         <v>504</v>
       </c>
@@ -15274,7 +15307,7 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="7"/>
-      <c r="B269" s="15"/>
+      <c r="B269" s="19"/>
       <c r="C269" s="7" t="s">
         <v>504</v>
       </c>
@@ -15293,7 +15326,7 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="7"/>
-      <c r="B270" s="15" t="s">
+      <c r="B270" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C270" s="7" t="s">
@@ -15314,7 +15347,7 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="7"/>
-      <c r="B271" s="15"/>
+      <c r="B271" s="19"/>
       <c r="C271" s="7" t="s">
         <v>513</v>
       </c>
@@ -15333,7 +15366,7 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="7"/>
-      <c r="B272" s="15"/>
+      <c r="B272" s="19"/>
       <c r="C272" s="7" t="s">
         <v>513</v>
       </c>
@@ -15352,7 +15385,7 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="7"/>
-      <c r="B273" s="15"/>
+      <c r="B273" s="19"/>
       <c r="C273" s="7" t="s">
         <v>513</v>
       </c>
@@ -15371,7 +15404,7 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="7"/>
-      <c r="B274" s="15"/>
+      <c r="B274" s="19"/>
       <c r="C274" s="7" t="s">
         <v>513</v>
       </c>
@@ -15390,7 +15423,7 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="7"/>
-      <c r="B275" s="15"/>
+      <c r="B275" s="19"/>
       <c r="C275" s="7" t="s">
         <v>513</v>
       </c>
@@ -15409,7 +15442,7 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="7"/>
-      <c r="B276" s="15" t="s">
+      <c r="B276" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C276" s="7" t="s">
@@ -15430,7 +15463,7 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="7"/>
-      <c r="B277" s="15"/>
+      <c r="B277" s="19"/>
       <c r="C277" s="7" t="s">
         <v>526</v>
       </c>
@@ -15449,7 +15482,7 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="7"/>
-      <c r="B278" s="15"/>
+      <c r="B278" s="19"/>
       <c r="C278" s="7" t="s">
         <v>526</v>
       </c>
@@ -15468,7 +15501,7 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="7"/>
-      <c r="B279" s="15"/>
+      <c r="B279" s="19"/>
       <c r="C279" s="7" t="s">
         <v>526</v>
       </c>
@@ -15487,7 +15520,7 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="7"/>
-      <c r="B280" s="15"/>
+      <c r="B280" s="19"/>
       <c r="C280" s="7" t="s">
         <v>526</v>
       </c>
@@ -16121,6 +16154,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B149:B152"/>
+    <mergeCell ref="B2:B44"/>
+    <mergeCell ref="B45:B51"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="B52:B76"/>
+    <mergeCell ref="B104:B148"/>
+    <mergeCell ref="B77:B99"/>
     <mergeCell ref="B276:B280"/>
     <mergeCell ref="B153:B220"/>
     <mergeCell ref="B221:B227"/>
@@ -16128,13 +16168,6 @@
     <mergeCell ref="B260:B264"/>
     <mergeCell ref="B265:B269"/>
     <mergeCell ref="B270:B275"/>
-    <mergeCell ref="B149:B152"/>
-    <mergeCell ref="B2:B44"/>
-    <mergeCell ref="B45:B51"/>
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="B52:B76"/>
-    <mergeCell ref="B104:B148"/>
-    <mergeCell ref="B77:B99"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16189,7 +16222,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="21" t="s">
         <v>567</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -16211,7 +16244,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
-      <c r="B3" s="15"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="10" t="s">
         <v>568</v>
       </c>
@@ -16231,7 +16264,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
-      <c r="B4" s="15"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="10" t="s">
         <v>568</v>
       </c>
@@ -16251,7 +16284,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
-      <c r="B5" s="15"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="10" t="s">
         <v>568</v>
       </c>
@@ -16271,7 +16304,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
-      <c r="B6" s="15"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="10" t="s">
         <v>568</v>
       </c>
@@ -16291,7 +16324,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
-      <c r="B7" s="15"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="10" t="s">
         <v>568</v>
       </c>
@@ -16311,7 +16344,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
-      <c r="B8" s="15"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="10" t="s">
         <v>568</v>
       </c>
@@ -16331,7 +16364,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
-      <c r="B9" s="15"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="10" t="s">
         <v>568</v>
       </c>
@@ -16351,7 +16384,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="24" t="s">
         <v>1033</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -16375,7 +16408,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
-      <c r="B11" s="23"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="10" t="s">
         <v>585</v>
       </c>
@@ -16397,7 +16430,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
-      <c r="B12" s="23"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="7" t="s">
         <v>1032</v>
       </c>
@@ -16419,7 +16452,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
-      <c r="B13" s="23"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="10" t="s">
         <v>585</v>
       </c>
@@ -16441,7 +16474,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
-      <c r="B14" s="23"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="10" t="s">
         <v>585</v>
       </c>
@@ -16463,7 +16496,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
-      <c r="B15" s="23"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="10" t="s">
         <v>585</v>
       </c>
@@ -16485,7 +16518,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
-      <c r="B16" s="23"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="10" t="s">
         <v>585</v>
       </c>
@@ -16507,7 +16540,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="24" t="s">
         <v>567</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -16528,7 +16561,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
-      <c r="B18" s="23"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="10" t="s">
         <v>601</v>
       </c>
@@ -16547,7 +16580,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
-      <c r="B19" s="23"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="10" t="s">
         <v>1034</v>
       </c>
@@ -16566,7 +16599,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
-      <c r="B20" s="23"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="10" t="s">
         <v>601</v>
       </c>
@@ -16585,7 +16618,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
-      <c r="B21" s="23"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="10" t="s">
         <v>601</v>
       </c>
@@ -16604,7 +16637,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
-      <c r="B22" s="23"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="10" t="s">
         <v>601</v>
       </c>
@@ -16623,7 +16656,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
-      <c r="B23" s="23"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="10" t="s">
         <v>601</v>
       </c>
@@ -16642,7 +16675,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="19" t="s">
         <v>567</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -16663,7 +16696,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
-      <c r="B25" s="15"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="10" t="s">
         <v>615</v>
       </c>
@@ -16682,7 +16715,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
-      <c r="B26" s="15"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="10" t="s">
         <v>615</v>
       </c>
@@ -16701,7 +16734,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
-      <c r="B27" s="15"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="10" t="s">
         <v>615</v>
       </c>
@@ -16720,7 +16753,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
-      <c r="B28" s="15"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="10" t="s">
         <v>1035</v>
       </c>
@@ -16739,7 +16772,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
-      <c r="B29" s="15"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="10" t="s">
         <v>615</v>
       </c>
@@ -16758,7 +16791,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
-      <c r="B30" s="15"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="10" t="s">
         <v>615</v>
       </c>
@@ -16777,7 +16810,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="19" t="s">
         <v>1036</v>
       </c>
       <c r="C31" s="10" t="s">
@@ -16798,7 +16831,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
-      <c r="B32" s="15"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="10" t="s">
         <v>630</v>
       </c>
@@ -16817,7 +16850,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
-      <c r="B33" s="15"/>
+      <c r="B33" s="19"/>
       <c r="C33" s="10" t="s">
         <v>630</v>
       </c>
@@ -16836,7 +16869,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
-      <c r="B34" s="15"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="10" t="s">
         <v>1037</v>
       </c>
@@ -16855,7 +16888,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
-      <c r="B35" s="15"/>
+      <c r="B35" s="19"/>
       <c r="C35" s="10" t="s">
         <v>630</v>
       </c>
@@ -16874,7 +16907,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
-      <c r="B36" s="15"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="10" t="s">
         <v>630</v>
       </c>
@@ -16893,7 +16926,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
-      <c r="B37" s="15"/>
+      <c r="B37" s="19"/>
       <c r="C37" s="10" t="s">
         <v>630</v>
       </c>
@@ -16912,7 +16945,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="19" t="s">
         <v>567</v>
       </c>
       <c r="C38" s="10" t="s">
@@ -16933,7 +16966,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
-      <c r="B39" s="15"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="10" t="s">
         <v>645</v>
       </c>
@@ -16952,7 +16985,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
-      <c r="B40" s="15"/>
+      <c r="B40" s="19"/>
       <c r="C40" s="10" t="s">
         <v>645</v>
       </c>
@@ -16971,7 +17004,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
-      <c r="B41" s="15"/>
+      <c r="B41" s="19"/>
       <c r="C41" s="10" t="s">
         <v>645</v>
       </c>
@@ -16990,7 +17023,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="19" t="s">
         <v>567</v>
       </c>
       <c r="C42" s="10" t="s">
@@ -17011,7 +17044,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
-      <c r="B43" s="15"/>
+      <c r="B43" s="19"/>
       <c r="C43" s="10" t="s">
         <v>654</v>
       </c>
@@ -17030,7 +17063,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
-      <c r="B44" s="15"/>
+      <c r="B44" s="19"/>
       <c r="C44" s="10" t="s">
         <v>654</v>
       </c>
@@ -17049,7 +17082,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
-      <c r="B45" s="15"/>
+      <c r="B45" s="19"/>
       <c r="C45" s="10" t="s">
         <v>1038</v>
       </c>
@@ -17068,7 +17101,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
-      <c r="B46" s="15"/>
+      <c r="B46" s="19"/>
       <c r="C46" s="10" t="s">
         <v>654</v>
       </c>
@@ -17087,7 +17120,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
-      <c r="B47" s="15"/>
+      <c r="B47" s="19"/>
       <c r="C47" s="10" t="s">
         <v>654</v>
       </c>
@@ -17106,7 +17139,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
-      <c r="B48" s="15"/>
+      <c r="B48" s="19"/>
       <c r="C48" s="10" t="s">
         <v>654</v>
       </c>
@@ -17125,7 +17158,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
-      <c r="B49" s="15"/>
+      <c r="B49" s="19"/>
       <c r="C49" s="10" t="s">
         <v>654</v>
       </c>
@@ -17144,7 +17177,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
-      <c r="B50" s="15"/>
+      <c r="B50" s="19"/>
       <c r="C50" s="10" t="s">
         <v>654</v>
       </c>
@@ -17163,7 +17196,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
-      <c r="B51" s="15"/>
+      <c r="B51" s="19"/>
       <c r="C51" s="10" t="s">
         <v>654</v>
       </c>
@@ -17182,7 +17215,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
-      <c r="B52" s="15"/>
+      <c r="B52" s="19"/>
       <c r="C52" s="10" t="s">
         <v>654</v>
       </c>
@@ -17201,7 +17234,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="19" t="s">
         <v>567</v>
       </c>
       <c r="C53" s="10" t="s">
@@ -17222,7 +17255,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
-      <c r="B54" s="15"/>
+      <c r="B54" s="19"/>
       <c r="C54" s="10" t="s">
         <v>676</v>
       </c>
@@ -17241,7 +17274,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
-      <c r="B55" s="15"/>
+      <c r="B55" s="19"/>
       <c r="C55" s="10" t="s">
         <v>1039</v>
       </c>
@@ -17260,7 +17293,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
-      <c r="B56" s="15"/>
+      <c r="B56" s="19"/>
       <c r="C56" s="10" t="s">
         <v>676</v>
       </c>
@@ -17279,7 +17312,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="19" t="s">
         <v>567</v>
       </c>
       <c r="C57" s="10" t="s">
@@ -17300,7 +17333,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
-      <c r="B58" s="15"/>
+      <c r="B58" s="19"/>
       <c r="C58" s="10" t="s">
         <v>684</v>
       </c>
@@ -17319,7 +17352,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
-      <c r="B59" s="15"/>
+      <c r="B59" s="19"/>
       <c r="C59" s="10" t="s">
         <v>684</v>
       </c>
@@ -17338,7 +17371,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
-      <c r="B60" s="15"/>
+      <c r="B60" s="19"/>
       <c r="C60" s="10" t="s">
         <v>684</v>
       </c>
@@ -17357,7 +17390,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="10"/>
-      <c r="B61" s="15"/>
+      <c r="B61" s="19"/>
       <c r="C61" s="10" t="s">
         <v>684</v>
       </c>
@@ -17376,7 +17409,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="10"/>
-      <c r="B62" s="15"/>
+      <c r="B62" s="19"/>
       <c r="C62" s="10" t="s">
         <v>684</v>
       </c>
@@ -17395,7 +17428,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
-      <c r="B63" s="15"/>
+      <c r="B63" s="19"/>
       <c r="C63" s="10" t="s">
         <v>684</v>
       </c>
@@ -17414,7 +17447,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="10"/>
-      <c r="B64" s="15"/>
+      <c r="B64" s="19"/>
       <c r="C64" s="10" t="s">
         <v>684</v>
       </c>
@@ -17433,7 +17466,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="10"/>
-      <c r="B65" s="15"/>
+      <c r="B65" s="19"/>
       <c r="C65" s="10" t="s">
         <v>684</v>
       </c>
@@ -17452,7 +17485,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="10"/>
-      <c r="B66" s="15"/>
+      <c r="B66" s="19"/>
       <c r="C66" s="10" t="s">
         <v>684</v>
       </c>
@@ -17471,7 +17504,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="10"/>
-      <c r="B67" s="15"/>
+      <c r="B67" s="19"/>
       <c r="C67" s="10" t="s">
         <v>684</v>
       </c>
@@ -17490,7 +17523,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="10"/>
-      <c r="B68" s="15"/>
+      <c r="B68" s="19"/>
       <c r="C68" s="10" t="s">
         <v>684</v>
       </c>
@@ -17509,7 +17542,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
-      <c r="B69" s="15"/>
+      <c r="B69" s="19"/>
       <c r="C69" s="10" t="s">
         <v>1040</v>
       </c>
@@ -17528,7 +17561,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="10"/>
-      <c r="B70" s="15"/>
+      <c r="B70" s="19"/>
       <c r="C70" s="10" t="s">
         <v>684</v>
       </c>
@@ -17547,7 +17580,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="10"/>
-      <c r="B71" s="15"/>
+      <c r="B71" s="19"/>
       <c r="C71" s="10" t="s">
         <v>684</v>
       </c>
@@ -17566,7 +17599,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="10"/>
-      <c r="B72" s="15"/>
+      <c r="B72" s="19"/>
       <c r="C72" s="10" t="s">
         <v>684</v>
       </c>
@@ -17585,7 +17618,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="10"/>
-      <c r="B73" s="15"/>
+      <c r="B73" s="19"/>
       <c r="C73" s="10" t="s">
         <v>684</v>
       </c>
@@ -17604,7 +17637,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="10"/>
-      <c r="B74" s="15"/>
+      <c r="B74" s="19"/>
       <c r="C74" s="10" t="s">
         <v>684</v>
       </c>
@@ -17623,7 +17656,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="10"/>
-      <c r="B75" s="15"/>
+      <c r="B75" s="19"/>
       <c r="C75" s="10" t="s">
         <v>684</v>
       </c>
@@ -17642,7 +17675,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="10"/>
-      <c r="B76" s="15"/>
+      <c r="B76" s="19"/>
       <c r="C76" s="10" t="s">
         <v>684</v>
       </c>
@@ -17661,7 +17694,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="10"/>
-      <c r="B77" s="15"/>
+      <c r="B77" s="19"/>
       <c r="C77" s="10" t="s">
         <v>684</v>
       </c>
@@ -17680,7 +17713,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="10"/>
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="19" t="s">
         <v>567</v>
       </c>
       <c r="C78" s="10" t="s">
@@ -17704,7 +17737,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="10"/>
-      <c r="B79" s="15"/>
+      <c r="B79" s="19"/>
       <c r="C79" s="10" t="s">
         <v>727</v>
       </c>
@@ -17726,7 +17759,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="10"/>
-      <c r="B80" s="15"/>
+      <c r="B80" s="19"/>
       <c r="C80" s="10" t="s">
         <v>727</v>
       </c>
@@ -17748,7 +17781,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="10"/>
-      <c r="B81" s="15"/>
+      <c r="B81" s="19"/>
       <c r="C81" s="10" t="s">
         <v>727</v>
       </c>
@@ -17770,7 +17803,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="10"/>
-      <c r="B82" s="15"/>
+      <c r="B82" s="19"/>
       <c r="C82" s="10" t="s">
         <v>727</v>
       </c>
@@ -17792,7 +17825,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="10"/>
-      <c r="B83" s="15"/>
+      <c r="B83" s="19"/>
       <c r="C83" s="10" t="s">
         <v>727</v>
       </c>
@@ -17814,7 +17847,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="10"/>
-      <c r="B84" s="15"/>
+      <c r="B84" s="19"/>
       <c r="C84" s="10" t="s">
         <v>1041</v>
       </c>
@@ -17836,7 +17869,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="10"/>
-      <c r="B85" s="15"/>
+      <c r="B85" s="19"/>
       <c r="C85" s="10" t="s">
         <v>727</v>
       </c>
@@ -17858,7 +17891,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="10"/>
-      <c r="B86" s="15"/>
+      <c r="B86" s="19"/>
       <c r="C86" s="10" t="s">
         <v>727</v>
       </c>
@@ -17880,7 +17913,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="10"/>
-      <c r="B87" s="15"/>
+      <c r="B87" s="19"/>
       <c r="C87" s="10" t="s">
         <v>727</v>
       </c>
@@ -17902,7 +17935,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="10"/>
-      <c r="B88" s="15"/>
+      <c r="B88" s="19"/>
       <c r="C88" s="10" t="s">
         <v>727</v>
       </c>
@@ -17924,7 +17957,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="10"/>
-      <c r="B89" s="15"/>
+      <c r="B89" s="19"/>
       <c r="C89" s="10" t="s">
         <v>727</v>
       </c>
@@ -17946,7 +17979,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="10"/>
-      <c r="B90" s="15"/>
+      <c r="B90" s="19"/>
       <c r="C90" s="10" t="s">
         <v>727</v>
       </c>
@@ -17968,7 +18001,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="10"/>
-      <c r="B91" s="15"/>
+      <c r="B91" s="19"/>
       <c r="C91" s="10" t="s">
         <v>727</v>
       </c>
@@ -17990,7 +18023,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="10"/>
-      <c r="B92" s="15"/>
+      <c r="B92" s="19"/>
       <c r="C92" s="10" t="s">
         <v>727</v>
       </c>
@@ -18012,7 +18045,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="10"/>
-      <c r="B93" s="15"/>
+      <c r="B93" s="19"/>
       <c r="C93" s="10" t="s">
         <v>727</v>
       </c>
@@ -18034,7 +18067,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="10"/>
-      <c r="B94" s="15"/>
+      <c r="B94" s="19"/>
       <c r="C94" s="10" t="s">
         <v>727</v>
       </c>
@@ -18056,7 +18089,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="10"/>
-      <c r="B95" s="23" t="s">
+      <c r="B95" s="24" t="s">
         <v>1036</v>
       </c>
       <c r="C95" s="10" t="s">
@@ -18077,7 +18110,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="10"/>
-      <c r="B96" s="23"/>
+      <c r="B96" s="24"/>
       <c r="C96" s="10" t="s">
         <v>749</v>
       </c>
@@ -18096,7 +18129,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="10"/>
-      <c r="B97" s="23"/>
+      <c r="B97" s="24"/>
       <c r="C97" s="10" t="s">
         <v>749</v>
       </c>
@@ -18115,7 +18148,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="10"/>
-      <c r="B98" s="23"/>
+      <c r="B98" s="24"/>
       <c r="C98" s="10" t="s">
         <v>749</v>
       </c>
@@ -18134,7 +18167,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="10"/>
-      <c r="B99" s="23"/>
+      <c r="B99" s="24"/>
       <c r="C99" s="10" t="s">
         <v>749</v>
       </c>
@@ -18153,7 +18186,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="10"/>
-      <c r="B100" s="23"/>
+      <c r="B100" s="24"/>
       <c r="C100" s="10" t="s">
         <v>749</v>
       </c>
@@ -18172,7 +18205,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="10"/>
-      <c r="B101" s="23"/>
+      <c r="B101" s="24"/>
       <c r="C101" s="10" t="s">
         <v>749</v>
       </c>
@@ -18191,7 +18224,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="10"/>
-      <c r="B102" s="23"/>
+      <c r="B102" s="24"/>
       <c r="C102" s="10" t="s">
         <v>749</v>
       </c>
@@ -18210,7 +18243,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="10"/>
-      <c r="B103" s="23"/>
+      <c r="B103" s="24"/>
       <c r="C103" s="10" t="s">
         <v>749</v>
       </c>
@@ -18229,7 +18262,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="10"/>
-      <c r="B104" s="23"/>
+      <c r="B104" s="24"/>
       <c r="C104" s="10" t="s">
         <v>749</v>
       </c>
@@ -18248,7 +18281,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="10"/>
-      <c r="B105" s="23"/>
+      <c r="B105" s="24"/>
       <c r="C105" s="10" t="s">
         <v>749</v>
       </c>
@@ -18267,7 +18300,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="10"/>
-      <c r="B106" s="23"/>
+      <c r="B106" s="24"/>
       <c r="C106" s="10" t="s">
         <v>749</v>
       </c>
@@ -18286,7 +18319,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="10"/>
-      <c r="B107" s="23"/>
+      <c r="B107" s="24"/>
       <c r="C107" s="10" t="s">
         <v>749</v>
       </c>
@@ -18305,7 +18338,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="10"/>
-      <c r="B108" s="23"/>
+      <c r="B108" s="24"/>
       <c r="C108" s="10" t="s">
         <v>749</v>
       </c>
@@ -18324,7 +18357,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="10"/>
-      <c r="B109" s="23"/>
+      <c r="B109" s="24"/>
       <c r="C109" s="10" t="s">
         <v>749</v>
       </c>
@@ -18343,7 +18376,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="10"/>
-      <c r="B110" s="23"/>
+      <c r="B110" s="24"/>
       <c r="C110" s="10" t="s">
         <v>749</v>
       </c>
@@ -18362,7 +18395,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="10"/>
-      <c r="B111" s="23"/>
+      <c r="B111" s="24"/>
       <c r="C111" s="10" t="s">
         <v>749</v>
       </c>
@@ -18381,7 +18414,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="10"/>
-      <c r="B112" s="23"/>
+      <c r="B112" s="24"/>
       <c r="C112" s="10" t="s">
         <v>749</v>
       </c>
@@ -18400,7 +18433,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="10"/>
-      <c r="B113" s="23"/>
+      <c r="B113" s="24"/>
       <c r="C113" s="10" t="s">
         <v>749</v>
       </c>
@@ -18419,7 +18452,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="10"/>
-      <c r="B114" s="23"/>
+      <c r="B114" s="24"/>
       <c r="C114" s="10" t="s">
         <v>749</v>
       </c>
@@ -18438,7 +18471,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="10"/>
-      <c r="B115" s="23"/>
+      <c r="B115" s="24"/>
       <c r="C115" s="10" t="s">
         <v>749</v>
       </c>
@@ -18457,7 +18490,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="10"/>
-      <c r="B116" s="23"/>
+      <c r="B116" s="24"/>
       <c r="C116" s="10" t="s">
         <v>749</v>
       </c>
@@ -18476,7 +18509,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="10"/>
-      <c r="B117" s="23"/>
+      <c r="B117" s="24"/>
       <c r="C117" s="10" t="s">
         <v>749</v>
       </c>
@@ -18495,7 +18528,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="10"/>
-      <c r="B118" s="23"/>
+      <c r="B118" s="24"/>
       <c r="C118" s="10" t="s">
         <v>749</v>
       </c>
@@ -18514,7 +18547,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="10"/>
-      <c r="B119" s="23"/>
+      <c r="B119" s="24"/>
       <c r="C119" s="10" t="s">
         <v>749</v>
       </c>
@@ -18533,7 +18566,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="10"/>
-      <c r="B120" s="23"/>
+      <c r="B120" s="24"/>
       <c r="C120" s="10" t="s">
         <v>749</v>
       </c>
@@ -18552,7 +18585,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="10"/>
-      <c r="B121" s="23"/>
+      <c r="B121" s="24"/>
       <c r="C121" s="10" t="s">
         <v>749</v>
       </c>
@@ -18571,7 +18604,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="10"/>
-      <c r="B122" s="23"/>
+      <c r="B122" s="24"/>
       <c r="C122" s="10" t="s">
         <v>749</v>
       </c>
@@ -18590,7 +18623,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="10"/>
-      <c r="B123" s="23"/>
+      <c r="B123" s="24"/>
       <c r="C123" s="10" t="s">
         <v>749</v>
       </c>
@@ -18609,7 +18642,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="10"/>
-      <c r="B124" s="23"/>
+      <c r="B124" s="24"/>
       <c r="C124" s="10" t="s">
         <v>749</v>
       </c>
@@ -18628,7 +18661,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="10"/>
-      <c r="B125" s="23"/>
+      <c r="B125" s="24"/>
       <c r="C125" s="10" t="s">
         <v>749</v>
       </c>
@@ -18647,7 +18680,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="10"/>
-      <c r="B126" s="23"/>
+      <c r="B126" s="24"/>
       <c r="C126" s="10" t="s">
         <v>1043</v>
       </c>
@@ -18666,7 +18699,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="10"/>
-      <c r="B127" s="23"/>
+      <c r="B127" s="24"/>
       <c r="C127" s="10" t="s">
         <v>749</v>
       </c>
@@ -18685,7 +18718,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="10"/>
-      <c r="B128" s="23"/>
+      <c r="B128" s="24"/>
       <c r="C128" s="10" t="s">
         <v>749</v>
       </c>
@@ -18704,7 +18737,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="10"/>
-      <c r="B129" s="23"/>
+      <c r="B129" s="24"/>
       <c r="C129" s="10" t="s">
         <v>749</v>
       </c>
@@ -18724,7 +18757,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="10"/>
-      <c r="B130" s="23"/>
+      <c r="B130" s="24"/>
       <c r="C130" s="10" t="s">
         <v>749</v>
       </c>
@@ -18744,7 +18777,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="10"/>
-      <c r="B131" s="23"/>
+      <c r="B131" s="24"/>
       <c r="C131" s="10" t="s">
         <v>749</v>
       </c>
@@ -18764,7 +18797,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="10"/>
-      <c r="B132" s="23"/>
+      <c r="B132" s="24"/>
       <c r="C132" s="10" t="s">
         <v>749</v>
       </c>
@@ -18784,7 +18817,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="10"/>
-      <c r="B133" s="23"/>
+      <c r="B133" s="24"/>
       <c r="C133" s="10" t="s">
         <v>749</v>
       </c>
@@ -18804,7 +18837,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="10"/>
-      <c r="B134" s="23"/>
+      <c r="B134" s="24"/>
       <c r="C134" s="10" t="s">
         <v>749</v>
       </c>
@@ -18824,7 +18857,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="10"/>
-      <c r="B135" s="23"/>
+      <c r="B135" s="24"/>
       <c r="C135" s="10" t="s">
         <v>749</v>
       </c>
@@ -18844,7 +18877,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="10"/>
-      <c r="B136" s="23"/>
+      <c r="B136" s="24"/>
       <c r="C136" s="10" t="s">
         <v>749</v>
       </c>
@@ -18864,7 +18897,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="10"/>
-      <c r="B137" s="23"/>
+      <c r="B137" s="24"/>
       <c r="C137" s="10" t="s">
         <v>749</v>
       </c>
@@ -18884,7 +18917,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="10"/>
-      <c r="B138" s="23"/>
+      <c r="B138" s="24"/>
       <c r="C138" s="10" t="s">
         <v>749</v>
       </c>
@@ -18904,7 +18937,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="10"/>
-      <c r="B139" s="23" t="s">
+      <c r="B139" s="24" t="s">
         <v>1036</v>
       </c>
       <c r="C139" s="10" t="s">
@@ -18926,7 +18959,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="10"/>
-      <c r="B140" s="23"/>
+      <c r="B140" s="24"/>
       <c r="C140" s="10" t="s">
         <v>837</v>
       </c>
@@ -18946,7 +18979,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="10"/>
-      <c r="B141" s="23"/>
+      <c r="B141" s="24"/>
       <c r="C141" s="10" t="s">
         <v>837</v>
       </c>
@@ -18968,7 +19001,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="10"/>
-      <c r="B142" s="23"/>
+      <c r="B142" s="24"/>
       <c r="C142" s="10" t="s">
         <v>1044</v>
       </c>
@@ -18990,7 +19023,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="10"/>
-      <c r="B143" s="23"/>
+      <c r="B143" s="24"/>
       <c r="C143" s="10" t="s">
         <v>837</v>
       </c>
@@ -19012,7 +19045,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="10"/>
-      <c r="B144" s="23"/>
+      <c r="B144" s="24"/>
       <c r="C144" s="10" t="s">
         <v>837</v>
       </c>
@@ -19034,7 +19067,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="10"/>
-      <c r="B145" s="23"/>
+      <c r="B145" s="24"/>
       <c r="C145" s="10" t="s">
         <v>837</v>
       </c>
@@ -19056,7 +19089,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="10"/>
-      <c r="B146" s="15" t="s">
+      <c r="B146" s="19" t="s">
         <v>1036</v>
       </c>
       <c r="C146" s="10" t="s">
@@ -19078,7 +19111,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="10"/>
-      <c r="B147" s="15"/>
+      <c r="B147" s="19"/>
       <c r="C147" s="10" t="s">
         <v>853</v>
       </c>
@@ -19098,7 +19131,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="10"/>
-      <c r="B148" s="15"/>
+      <c r="B148" s="19"/>
       <c r="C148" s="10" t="s">
         <v>853</v>
       </c>
@@ -19118,7 +19151,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="10"/>
-      <c r="B149" s="15"/>
+      <c r="B149" s="19"/>
       <c r="C149" s="10" t="s">
         <v>853</v>
       </c>
@@ -19138,7 +19171,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="10"/>
-      <c r="B150" s="15"/>
+      <c r="B150" s="19"/>
       <c r="C150" s="10" t="s">
         <v>1045</v>
       </c>
@@ -19158,7 +19191,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="10"/>
-      <c r="B151" s="15"/>
+      <c r="B151" s="19"/>
       <c r="C151" s="10" t="s">
         <v>853</v>
       </c>
@@ -19178,7 +19211,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="10"/>
-      <c r="B152" s="15"/>
+      <c r="B152" s="19"/>
       <c r="C152" s="10" t="s">
         <v>853</v>
       </c>
@@ -19198,7 +19231,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="10"/>
-      <c r="B153" s="15"/>
+      <c r="B153" s="19"/>
       <c r="C153" s="10" t="s">
         <v>853</v>
       </c>
@@ -19218,7 +19251,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="10"/>
-      <c r="B154" s="15"/>
+      <c r="B154" s="19"/>
       <c r="C154" s="10" t="s">
         <v>853</v>
       </c>
@@ -19238,7 +19271,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="10"/>
-      <c r="B155" s="15"/>
+      <c r="B155" s="19"/>
       <c r="C155" s="10" t="s">
         <v>853</v>
       </c>
@@ -19258,7 +19291,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="10"/>
-      <c r="B156" s="15" t="s">
+      <c r="B156" s="19" t="s">
         <v>567</v>
       </c>
       <c r="C156" s="10" t="s">
@@ -19280,7 +19313,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="10"/>
-      <c r="B157" s="15"/>
+      <c r="B157" s="19"/>
       <c r="C157" s="10" t="s">
         <v>874</v>
       </c>
@@ -19300,7 +19333,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="10"/>
-      <c r="B158" s="15"/>
+      <c r="B158" s="19"/>
       <c r="C158" s="10" t="s">
         <v>874</v>
       </c>
@@ -19320,7 +19353,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="10"/>
-      <c r="B159" s="15"/>
+      <c r="B159" s="19"/>
       <c r="C159" s="10" t="s">
         <v>1046</v>
       </c>
@@ -19340,7 +19373,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="10"/>
-      <c r="B160" s="15"/>
+      <c r="B160" s="19"/>
       <c r="C160" s="10" t="s">
         <v>874</v>
       </c>
@@ -19360,7 +19393,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="10"/>
-      <c r="B161" s="15"/>
+      <c r="B161" s="19"/>
       <c r="C161" s="10" t="s">
         <v>874</v>
       </c>
@@ -19379,7 +19412,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="10"/>
-      <c r="B162" s="15"/>
+      <c r="B162" s="19"/>
       <c r="C162" s="10" t="s">
         <v>874</v>
       </c>
@@ -19398,7 +19431,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="10"/>
-      <c r="B163" s="15"/>
+      <c r="B163" s="19"/>
       <c r="C163" s="10" t="s">
         <v>874</v>
       </c>
@@ -19417,7 +19450,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="10"/>
-      <c r="B164" s="15"/>
+      <c r="B164" s="19"/>
       <c r="C164" s="10" t="s">
         <v>874</v>
       </c>
@@ -19436,7 +19469,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="10"/>
-      <c r="B165" s="15"/>
+      <c r="B165" s="19"/>
       <c r="C165" s="10" t="s">
         <v>874</v>
       </c>
@@ -19455,7 +19488,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="10"/>
-      <c r="B166" s="15"/>
+      <c r="B166" s="19"/>
       <c r="C166" s="10" t="s">
         <v>874</v>
       </c>
@@ -19474,7 +19507,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="10"/>
-      <c r="B167" s="15"/>
+      <c r="B167" s="19"/>
       <c r="C167" s="10" t="s">
         <v>874</v>
       </c>
@@ -19493,7 +19526,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="10"/>
-      <c r="B168" s="15"/>
+      <c r="B168" s="19"/>
       <c r="C168" s="10" t="s">
         <v>874</v>
       </c>
@@ -19512,7 +19545,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="10"/>
-      <c r="B169" s="15"/>
+      <c r="B169" s="19"/>
       <c r="C169" s="10" t="s">
         <v>874</v>
       </c>
@@ -19531,7 +19564,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="10"/>
-      <c r="B170" s="15"/>
+      <c r="B170" s="19"/>
       <c r="C170" s="10" t="s">
         <v>874</v>
       </c>
@@ -19550,7 +19583,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="10"/>
-      <c r="B171" s="15"/>
+      <c r="B171" s="19"/>
       <c r="C171" s="10" t="s">
         <v>874</v>
       </c>
@@ -19569,7 +19602,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="10"/>
-      <c r="B172" s="15"/>
+      <c r="B172" s="19"/>
       <c r="C172" s="10" t="s">
         <v>874</v>
       </c>
@@ -19588,7 +19621,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="10"/>
-      <c r="B173" s="15"/>
+      <c r="B173" s="19"/>
       <c r="C173" s="10" t="s">
         <v>874</v>
       </c>
@@ -19608,7 +19641,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="10"/>
-      <c r="B174" s="15"/>
+      <c r="B174" s="19"/>
       <c r="C174" s="10" t="s">
         <v>874</v>
       </c>
@@ -19627,7 +19660,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="10"/>
-      <c r="B175" s="15"/>
+      <c r="B175" s="19"/>
       <c r="C175" s="10" t="s">
         <v>874</v>
       </c>
@@ -19646,7 +19679,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="10"/>
-      <c r="B176" s="15"/>
+      <c r="B176" s="19"/>
       <c r="C176" s="10" t="s">
         <v>874</v>
       </c>
@@ -19665,7 +19698,7 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="10"/>
-      <c r="B177" s="15" t="s">
+      <c r="B177" s="19" t="s">
         <v>1036</v>
       </c>
       <c r="C177" s="10" t="s">
@@ -19686,7 +19719,7 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="10"/>
-      <c r="B178" s="15"/>
+      <c r="B178" s="19"/>
       <c r="C178" s="10" t="s">
         <v>917</v>
       </c>
@@ -19705,7 +19738,7 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="10"/>
-      <c r="B179" s="15"/>
+      <c r="B179" s="19"/>
       <c r="C179" s="10" t="s">
         <v>917</v>
       </c>
@@ -19724,7 +19757,7 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="10"/>
-      <c r="B180" s="15"/>
+      <c r="B180" s="19"/>
       <c r="C180" s="10" t="s">
         <v>1047</v>
       </c>
@@ -19743,7 +19776,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="10"/>
-      <c r="B181" s="15"/>
+      <c r="B181" s="19"/>
       <c r="C181" s="10" t="s">
         <v>917</v>
       </c>
@@ -19762,7 +19795,7 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="10"/>
-      <c r="B182" s="15"/>
+      <c r="B182" s="19"/>
       <c r="C182" s="10" t="s">
         <v>917</v>
       </c>
@@ -19781,7 +19814,7 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="10"/>
-      <c r="B183" s="15"/>
+      <c r="B183" s="19"/>
       <c r="C183" s="10" t="s">
         <v>917</v>
       </c>
@@ -19800,7 +19833,7 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="10"/>
-      <c r="B184" s="15"/>
+      <c r="B184" s="19"/>
       <c r="C184" s="10" t="s">
         <v>917</v>
       </c>
@@ -19819,7 +19852,7 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="10"/>
-      <c r="B185" s="15"/>
+      <c r="B185" s="19"/>
       <c r="C185" s="10" t="s">
         <v>917</v>
       </c>
@@ -19838,7 +19871,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="10"/>
-      <c r="B186" s="15" t="s">
+      <c r="B186" s="19" t="s">
         <v>567</v>
       </c>
       <c r="C186" s="10" t="s">
@@ -19859,7 +19892,7 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="10"/>
-      <c r="B187" s="15"/>
+      <c r="B187" s="19"/>
       <c r="C187" s="10" t="s">
         <v>936</v>
       </c>
@@ -19878,7 +19911,7 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="10"/>
-      <c r="B188" s="15"/>
+      <c r="B188" s="19"/>
       <c r="C188" s="10" t="s">
         <v>936</v>
       </c>
@@ -19897,7 +19930,7 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="10"/>
-      <c r="B189" s="15"/>
+      <c r="B189" s="19"/>
       <c r="C189" s="10" t="s">
         <v>936</v>
       </c>
@@ -19916,7 +19949,7 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="10"/>
-      <c r="B190" s="15"/>
+      <c r="B190" s="19"/>
       <c r="C190" s="10" t="s">
         <v>936</v>
       </c>
@@ -19935,7 +19968,7 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="10"/>
-      <c r="B191" s="15"/>
+      <c r="B191" s="19"/>
       <c r="C191" s="10" t="s">
         <v>936</v>
       </c>
@@ -19954,7 +19987,7 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="10"/>
-      <c r="B192" s="15"/>
+      <c r="B192" s="19"/>
       <c r="C192" s="10" t="s">
         <v>936</v>
       </c>
@@ -19973,7 +20006,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="10"/>
-      <c r="B193" s="15"/>
+      <c r="B193" s="19"/>
       <c r="C193" s="10" t="s">
         <v>936</v>
       </c>
@@ -19993,7 +20026,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="10"/>
-      <c r="B194" s="15"/>
+      <c r="B194" s="19"/>
       <c r="C194" s="10" t="s">
         <v>1048</v>
       </c>
@@ -20012,7 +20045,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="10"/>
-      <c r="B195" s="15"/>
+      <c r="B195" s="19"/>
       <c r="C195" s="10" t="s">
         <v>936</v>
       </c>
@@ -20031,7 +20064,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="10"/>
-      <c r="B196" s="15"/>
+      <c r="B196" s="19"/>
       <c r="C196" s="10" t="s">
         <v>936</v>
       </c>
@@ -20050,7 +20083,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="10"/>
-      <c r="B197" s="15"/>
+      <c r="B197" s="19"/>
       <c r="C197" s="10" t="s">
         <v>936</v>
       </c>
@@ -20069,7 +20102,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="10"/>
-      <c r="B198" s="15"/>
+      <c r="B198" s="19"/>
       <c r="C198" s="10" t="s">
         <v>936</v>
       </c>
@@ -20088,7 +20121,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="10"/>
-      <c r="B199" s="15"/>
+      <c r="B199" s="19"/>
       <c r="C199" s="10" t="s">
         <v>936</v>
       </c>
@@ -20107,7 +20140,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="10"/>
-      <c r="B200" s="15" t="s">
+      <c r="B200" s="19" t="s">
         <v>1036</v>
       </c>
       <c r="C200" s="10" t="s">
@@ -20128,7 +20161,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="10"/>
-      <c r="B201" s="15"/>
+      <c r="B201" s="19"/>
       <c r="C201" s="10" t="s">
         <v>963</v>
       </c>
@@ -20147,7 +20180,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="10"/>
-      <c r="B202" s="15"/>
+      <c r="B202" s="19"/>
       <c r="C202" s="10" t="s">
         <v>963</v>
       </c>
@@ -20166,7 +20199,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="10"/>
-      <c r="B203" s="15"/>
+      <c r="B203" s="19"/>
       <c r="C203" s="10" t="s">
         <v>963</v>
       </c>
@@ -20185,7 +20218,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="10"/>
-      <c r="B204" s="15"/>
+      <c r="B204" s="19"/>
       <c r="C204" s="10" t="s">
         <v>963</v>
       </c>
@@ -20204,7 +20237,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="10"/>
-      <c r="B205" s="15"/>
+      <c r="B205" s="19"/>
       <c r="C205" s="10" t="s">
         <v>963</v>
       </c>
@@ -20223,7 +20256,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="10"/>
-      <c r="B206" s="15"/>
+      <c r="B206" s="19"/>
       <c r="C206" s="10" t="s">
         <v>1049</v>
       </c>
@@ -20242,7 +20275,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="10"/>
-      <c r="B207" s="15"/>
+      <c r="B207" s="19"/>
       <c r="C207" s="10" t="s">
         <v>963</v>
       </c>
@@ -20261,7 +20294,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="10"/>
-      <c r="B208" s="15"/>
+      <c r="B208" s="19"/>
       <c r="C208" s="10" t="s">
         <v>963</v>
       </c>
@@ -20280,7 +20313,7 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="10"/>
-      <c r="B209" s="15"/>
+      <c r="B209" s="19"/>
       <c r="C209" s="10" t="s">
         <v>963</v>
       </c>
@@ -20299,7 +20332,7 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="10"/>
-      <c r="B210" s="15"/>
+      <c r="B210" s="19"/>
       <c r="C210" s="10" t="s">
         <v>963</v>
       </c>
@@ -20318,7 +20351,7 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="10"/>
-      <c r="B211" s="15"/>
+      <c r="B211" s="19"/>
       <c r="C211" s="10" t="s">
         <v>963</v>
       </c>
@@ -20337,7 +20370,7 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="10"/>
-      <c r="B212" s="15"/>
+      <c r="B212" s="19"/>
       <c r="C212" s="10" t="s">
         <v>963</v>
       </c>
@@ -20356,7 +20389,7 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="10"/>
-      <c r="B213" s="15"/>
+      <c r="B213" s="19"/>
       <c r="C213" s="10" t="s">
         <v>963</v>
       </c>
@@ -20375,7 +20408,7 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="10"/>
-      <c r="B214" s="15"/>
+      <c r="B214" s="19"/>
       <c r="C214" s="10" t="s">
         <v>963</v>
       </c>
@@ -20394,7 +20427,7 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="10"/>
-      <c r="B215" s="15" t="s">
+      <c r="B215" s="19" t="s">
         <v>567</v>
       </c>
       <c r="C215" s="10" t="s">
@@ -20415,7 +20448,7 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="10"/>
-      <c r="B216" s="15"/>
+      <c r="B216" s="19"/>
       <c r="C216" s="10" t="s">
         <v>994</v>
       </c>
@@ -20434,7 +20467,7 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="10"/>
-      <c r="B217" s="15"/>
+      <c r="B217" s="19"/>
       <c r="C217" s="10" t="s">
         <v>994</v>
       </c>
@@ -20453,7 +20486,7 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="10"/>
-      <c r="B218" s="15"/>
+      <c r="B218" s="19"/>
       <c r="C218" s="10" t="s">
         <v>1050</v>
       </c>
@@ -20472,7 +20505,7 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="10"/>
-      <c r="B219" s="15"/>
+      <c r="B219" s="19"/>
       <c r="C219" s="10" t="s">
         <v>994</v>
       </c>
@@ -20491,7 +20524,7 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="10"/>
-      <c r="B220" s="15"/>
+      <c r="B220" s="19"/>
       <c r="C220" s="10" t="s">
         <v>994</v>
       </c>
@@ -20510,7 +20543,7 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="10"/>
-      <c r="B221" s="15"/>
+      <c r="B221" s="19"/>
       <c r="C221" s="10" t="s">
         <v>994</v>
       </c>
@@ -20529,7 +20562,7 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="10"/>
-      <c r="B222" s="15"/>
+      <c r="B222" s="19"/>
       <c r="C222" s="10" t="s">
         <v>994</v>
       </c>
@@ -20548,7 +20581,7 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="10"/>
-      <c r="B223" s="15"/>
+      <c r="B223" s="19"/>
       <c r="C223" s="10" t="s">
         <v>994</v>
       </c>
@@ -20567,7 +20600,7 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="10"/>
-      <c r="B224" s="15"/>
+      <c r="B224" s="19"/>
       <c r="C224" s="10" t="s">
         <v>994</v>
       </c>
@@ -20586,7 +20619,7 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="10"/>
-      <c r="B225" s="15"/>
+      <c r="B225" s="19"/>
       <c r="C225" s="10" t="s">
         <v>994</v>
       </c>
@@ -20605,7 +20638,7 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="10"/>
-      <c r="B226" s="15"/>
+      <c r="B226" s="19"/>
       <c r="C226" s="10" t="s">
         <v>994</v>
       </c>
@@ -20624,7 +20657,7 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="10"/>
-      <c r="B227" s="15"/>
+      <c r="B227" s="19"/>
       <c r="C227" s="10" t="s">
         <v>994</v>
       </c>
@@ -20643,7 +20676,7 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="10"/>
-      <c r="B228" s="15"/>
+      <c r="B228" s="19"/>
       <c r="C228" s="10" t="s">
         <v>994</v>
       </c>
@@ -20662,7 +20695,7 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="10"/>
-      <c r="B229" s="15"/>
+      <c r="B229" s="19"/>
       <c r="C229" s="10" t="s">
         <v>994</v>
       </c>
@@ -20681,7 +20714,7 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="10"/>
-      <c r="B230" s="15"/>
+      <c r="B230" s="19"/>
       <c r="C230" s="10" t="s">
         <v>994</v>
       </c>
@@ -20700,7 +20733,7 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="10"/>
-      <c r="B231" s="15"/>
+      <c r="B231" s="19"/>
       <c r="C231" s="10" t="s">
         <v>994</v>
       </c>
@@ -20719,7 +20752,7 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="10"/>
-      <c r="B232" s="15"/>
+      <c r="B232" s="19"/>
       <c r="C232" s="10" t="s">
         <v>994</v>
       </c>
@@ -21443,6 +21476,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B78:B94"/>
+    <mergeCell ref="B95:B138"/>
+    <mergeCell ref="B139:B145"/>
+    <mergeCell ref="B146:B155"/>
+    <mergeCell ref="B215:B232"/>
+    <mergeCell ref="B156:B176"/>
+    <mergeCell ref="B177:B185"/>
+    <mergeCell ref="B186:B199"/>
+    <mergeCell ref="B200:B214"/>
     <mergeCell ref="B42:B52"/>
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="B57:B77"/>
@@ -21452,15 +21494,6 @@
     <mergeCell ref="B17:B23"/>
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="B31:B37"/>
-    <mergeCell ref="B78:B94"/>
-    <mergeCell ref="B95:B138"/>
-    <mergeCell ref="B139:B145"/>
-    <mergeCell ref="B146:B155"/>
-    <mergeCell ref="B215:B232"/>
-    <mergeCell ref="B156:B176"/>
-    <mergeCell ref="B177:B185"/>
-    <mergeCell ref="B186:B199"/>
-    <mergeCell ref="B200:B214"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/api自動化測試腳清單.xlsx
+++ b/api自動化測試腳清單.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2746" uniqueCount="1122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2780" uniqueCount="1143">
   <si>
     <t>Module</t>
   </si>
@@ -3861,6 +3861,90 @@
   </si>
   <si>
     <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postData9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0032設定訊息已讀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0032SetReadMessage_1.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0032SetReadMessage_2.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postData10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0033刪除訊息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0033刪除訊息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0033DeleteNotifyMessage_1.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0033DeleteNotifyMessage_2.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0035刪除綁定銀行帳戶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0035DelAccountBind_1.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0035DelAccountBind_2.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0036取得綁定銀行帳號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0036GetBindAccountList_1.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0036GetBindAccountList_2.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EncData --&gt;Account Type :1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0036GetBindAccountList_3.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0036GetBindAccountList_4.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EncData --&gt;Account Type :2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postData11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postData11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4073,15 +4157,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4092,6 +4167,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4407,8 +4491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4449,7 +4533,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="16"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="2" t="s">
         <v>1059</v>
       </c>
@@ -4471,7 +4555,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="17"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="10" t="s">
         <v>1059</v>
       </c>
@@ -4493,7 +4577,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="17"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="2" t="s">
         <v>1058</v>
       </c>
@@ -4515,7 +4599,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="17"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="2" t="s">
         <v>1056</v>
       </c>
@@ -4537,7 +4621,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="17"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="2" t="s">
         <v>1053</v>
       </c>
@@ -4559,7 +4643,7 @@
     </row>
     <row r="7" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="17"/>
+      <c r="B7" s="21"/>
       <c r="C7" t="s">
         <v>1053</v>
       </c>
@@ -4580,7 +4664,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="10" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="17"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="10" t="s">
         <v>1096</v>
       </c>
@@ -4601,7 +4685,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" s="10" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="17"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="10" t="s">
         <v>1096</v>
       </c>
@@ -4618,7 +4702,7 @@
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="17"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="10" t="s">
         <v>1096</v>
       </c>
@@ -4626,7 +4710,7 @@
         <v>1119</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>1113</v>
+        <v>1122</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>1120</v>
@@ -4640,7 +4724,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="17"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="2" t="s">
         <v>1061</v>
       </c>
@@ -4662,7 +4746,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="17"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="10" t="s">
         <v>1061</v>
       </c>
@@ -4684,7 +4768,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="17"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="2" t="s">
         <v>1072</v>
       </c>
@@ -4706,7 +4790,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="17"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="2" t="s">
         <v>1072</v>
       </c>
@@ -4728,7 +4812,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="17"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="2" t="s">
         <v>1078</v>
       </c>
@@ -4750,7 +4834,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="17"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="10" t="s">
         <v>1078</v>
       </c>
@@ -4772,7 +4856,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="17"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="2" t="s">
         <v>1085</v>
       </c>
@@ -4794,7 +4878,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="17"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="10" t="s">
         <v>1085</v>
       </c>
@@ -4812,7 +4896,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="17"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="2" t="s">
         <v>1089</v>
       </c>
@@ -4828,7 +4912,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="17"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="10" t="s">
         <v>1089</v>
       </c>
@@ -4844,7 +4928,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="17"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="2" t="s">
         <v>1093</v>
       </c>
@@ -4860,7 +4944,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="17"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="10" t="s">
         <v>1093</v>
       </c>
@@ -4876,100 +4960,171 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="13" t="s">
+        <v>1090</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="10" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="13" t="s">
+        <v>1090</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>1129</v>
+      </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="F25" s="13" t="s">
+        <v>1090</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>1130</v>
+      </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="13" t="s">
+        <v>1090</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>1132</v>
+      </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="F27" s="13" t="s">
+        <v>1090</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="17"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="10" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>1090</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>1137</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="10" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>1088</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="10" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>1140</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="10" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>1088</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
-      <c r="B33" s="17"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -4979,7 +5134,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
-      <c r="B34" s="17"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -4989,7 +5144,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
-      <c r="B35" s="17"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -4999,7 +5154,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
-      <c r="B36" s="18"/>
+      <c r="B36" s="22"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -5009,7 +5164,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
-      <c r="B37" s="19"/>
+      <c r="B37" s="16"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -5019,7 +5174,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
-      <c r="B38" s="19"/>
+      <c r="B38" s="16"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -5029,7 +5184,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
-      <c r="B39" s="19"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -5039,7 +5194,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
-      <c r="B40" s="19"/>
+      <c r="B40" s="16"/>
       <c r="C40" s="10"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -5049,7 +5204,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
-      <c r="B41" s="19"/>
+      <c r="B41" s="16"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -5059,7 +5214,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
-      <c r="B42" s="19"/>
+      <c r="B42" s="16"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -5069,7 +5224,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
-      <c r="B43" s="19"/>
+      <c r="B43" s="16"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -5079,7 +5234,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
-      <c r="B44" s="19"/>
+      <c r="B44" s="16"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -5089,7 +5244,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
-      <c r="B45" s="19"/>
+      <c r="B45" s="16"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -5099,7 +5254,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
-      <c r="B46" s="19"/>
+      <c r="B46" s="16"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -5109,7 +5264,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
-      <c r="B47" s="19"/>
+      <c r="B47" s="16"/>
       <c r="C47" s="10"/>
       <c r="D47" s="2"/>
       <c r="E47" s="10"/>
@@ -5118,11 +5273,11 @@
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="19"/>
+      <c r="B48" s="16"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
-      <c r="B49" s="19"/>
+      <c r="B49" s="16"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -5132,7 +5287,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
-      <c r="B50" s="19"/>
+      <c r="B50" s="16"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -5142,7 +5297,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
-      <c r="B51" s="19"/>
+      <c r="B51" s="16"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -5152,7 +5307,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
-      <c r="B52" s="19"/>
+      <c r="B52" s="16"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -5162,7 +5317,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
-      <c r="B53" s="19"/>
+      <c r="B53" s="16"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -5172,7 +5327,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
-      <c r="B54" s="19"/>
+      <c r="B54" s="16"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -5182,7 +5337,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
-      <c r="B55" s="19"/>
+      <c r="B55" s="16"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -5192,7 +5347,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
-      <c r="B56" s="19"/>
+      <c r="B56" s="16"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -5202,7 +5357,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
-      <c r="B57" s="19"/>
+      <c r="B57" s="16"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -5212,7 +5367,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
-      <c r="B58" s="19"/>
+      <c r="B58" s="16"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -5222,7 +5377,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
-      <c r="B59" s="19"/>
+      <c r="B59" s="16"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -5232,7 +5387,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
-      <c r="B60" s="19"/>
+      <c r="B60" s="16"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -5242,7 +5397,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
-      <c r="B61" s="19"/>
+      <c r="B61" s="16"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -5252,7 +5407,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
-      <c r="B62" s="19"/>
+      <c r="B62" s="16"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -5262,7 +5417,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
-      <c r="B63" s="19"/>
+      <c r="B63" s="16"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -5272,7 +5427,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
-      <c r="B64" s="19"/>
+      <c r="B64" s="16"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -5282,7 +5437,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
-      <c r="B65" s="19"/>
+      <c r="B65" s="16"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -5292,7 +5447,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
-      <c r="B66" s="19"/>
+      <c r="B66" s="16"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -5302,7 +5457,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
-      <c r="B67" s="19"/>
+      <c r="B67" s="16"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -5312,7 +5467,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
-      <c r="B68" s="19"/>
+      <c r="B68" s="16"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -5322,7 +5477,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
-      <c r="B69" s="19"/>
+      <c r="B69" s="16"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -5332,7 +5487,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
-      <c r="B70" s="19"/>
+      <c r="B70" s="16"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -5342,7 +5497,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
-      <c r="B71" s="19"/>
+      <c r="B71" s="16"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -5352,7 +5507,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
-      <c r="B72" s="19"/>
+      <c r="B72" s="16"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -5362,7 +5517,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
-      <c r="B73" s="19"/>
+      <c r="B73" s="16"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -5372,7 +5527,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
-      <c r="B74" s="19"/>
+      <c r="B74" s="16"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -5382,7 +5537,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
-      <c r="B75" s="19"/>
+      <c r="B75" s="16"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -5392,7 +5547,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
-      <c r="B76" s="19"/>
+      <c r="B76" s="16"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -5402,7 +5557,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
-      <c r="B77" s="19"/>
+      <c r="B77" s="16"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -5412,7 +5567,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
-      <c r="B78" s="19"/>
+      <c r="B78" s="16"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -5422,7 +5577,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
-      <c r="B79" s="19"/>
+      <c r="B79" s="16"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -5432,7 +5587,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
-      <c r="B80" s="19"/>
+      <c r="B80" s="16"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -5442,7 +5597,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
-      <c r="B81" s="19"/>
+      <c r="B81" s="16"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -5452,7 +5607,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
-      <c r="B82" s="19"/>
+      <c r="B82" s="16"/>
       <c r="C82" s="10"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -5461,11 +5616,11 @@
       <c r="H82" s="1"/>
     </row>
     <row r="83" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="19"/>
+      <c r="B83" s="16"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
-      <c r="B84" s="19"/>
+      <c r="B84" s="16"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -5475,7 +5630,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
-      <c r="B85" s="19"/>
+      <c r="B85" s="16"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -5485,7 +5640,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
-      <c r="B86" s="19"/>
+      <c r="B86" s="16"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -5495,7 +5650,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
-      <c r="B87" s="19"/>
+      <c r="B87" s="16"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -5505,7 +5660,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
-      <c r="B88" s="19"/>
+      <c r="B88" s="16"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -5515,7 +5670,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
-      <c r="B89" s="19"/>
+      <c r="B89" s="16"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -5525,7 +5680,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
-      <c r="B90" s="19"/>
+      <c r="B90" s="16"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -5535,7 +5690,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
-      <c r="B91" s="19"/>
+      <c r="B91" s="16"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -5545,7 +5700,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
-      <c r="B92" s="19"/>
+      <c r="B92" s="16"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -5555,7 +5710,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
-      <c r="B93" s="19"/>
+      <c r="B93" s="16"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -5565,7 +5720,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
-      <c r="B94" s="19"/>
+      <c r="B94" s="16"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -5575,7 +5730,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
-      <c r="B95" s="19"/>
+      <c r="B95" s="16"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -5585,7 +5740,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
-      <c r="B96" s="19"/>
+      <c r="B96" s="16"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -5595,7 +5750,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
-      <c r="B97" s="19"/>
+      <c r="B97" s="16"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -5605,7 +5760,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
-      <c r="B98" s="19"/>
+      <c r="B98" s="16"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -5615,7 +5770,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
-      <c r="B99" s="19"/>
+      <c r="B99" s="16"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -5625,7 +5780,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
-      <c r="B100" s="19"/>
+      <c r="B100" s="16"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -5635,7 +5790,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
-      <c r="B101" s="19"/>
+      <c r="B101" s="16"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -5645,7 +5800,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
-      <c r="B102" s="19"/>
+      <c r="B102" s="16"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -5655,7 +5810,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
-      <c r="B103" s="19"/>
+      <c r="B103" s="16"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -5665,7 +5820,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
-      <c r="B104" s="19"/>
+      <c r="B104" s="16"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -5675,7 +5830,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
-      <c r="B105" s="19"/>
+      <c r="B105" s="16"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -5685,7 +5840,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
-      <c r="B106" s="19"/>
+      <c r="B106" s="16"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -5695,7 +5850,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
-      <c r="B107" s="19"/>
+      <c r="B107" s="16"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -5705,7 +5860,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
-      <c r="B108" s="19"/>
+      <c r="B108" s="16"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -5715,7 +5870,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
-      <c r="B109" s="19"/>
+      <c r="B109" s="16"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -5725,7 +5880,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
-      <c r="B110" s="19"/>
+      <c r="B110" s="16"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -5735,7 +5890,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
-      <c r="B111" s="19"/>
+      <c r="B111" s="16"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -5745,7 +5900,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
-      <c r="B112" s="19"/>
+      <c r="B112" s="16"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -5755,7 +5910,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
-      <c r="B113" s="19"/>
+      <c r="B113" s="16"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -5765,7 +5920,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
-      <c r="B114" s="19"/>
+      <c r="B114" s="16"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -5775,7 +5930,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
-      <c r="B115" s="19"/>
+      <c r="B115" s="16"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -5785,7 +5940,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
-      <c r="B116" s="19"/>
+      <c r="B116" s="16"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -5795,7 +5950,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
-      <c r="B117" s="19"/>
+      <c r="B117" s="16"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -5805,7 +5960,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
-      <c r="B118" s="19"/>
+      <c r="B118" s="16"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -5815,7 +5970,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
-      <c r="B119" s="19"/>
+      <c r="B119" s="16"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -5825,7 +5980,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
-      <c r="B120" s="19"/>
+      <c r="B120" s="16"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -5835,7 +5990,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
-      <c r="B121" s="19"/>
+      <c r="B121" s="16"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -5845,7 +6000,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
-      <c r="B122" s="19"/>
+      <c r="B122" s="16"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -5855,7 +6010,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
-      <c r="B123" s="19"/>
+      <c r="B123" s="16"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -5865,7 +6020,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
-      <c r="B124" s="19"/>
+      <c r="B124" s="16"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -5875,7 +6030,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
-      <c r="B125" s="19"/>
+      <c r="B125" s="16"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -5885,7 +6040,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
-      <c r="B126" s="19"/>
+      <c r="B126" s="16"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -5895,7 +6050,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
-      <c r="B127" s="19"/>
+      <c r="B127" s="16"/>
       <c r="C127" s="10"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -5905,7 +6060,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
-      <c r="B128" s="19"/>
+      <c r="B128" s="16"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -5915,7 +6070,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
-      <c r="B129" s="19"/>
+      <c r="B129" s="16"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -5925,7 +6080,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
-      <c r="B130" s="19"/>
+      <c r="B130" s="16"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -5935,7 +6090,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
-      <c r="B131" s="19"/>
+      <c r="B131" s="16"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -5945,7 +6100,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
-      <c r="B132" s="19"/>
+      <c r="B132" s="16"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -5955,7 +6110,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
-      <c r="B133" s="19"/>
+      <c r="B133" s="16"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -5965,7 +6120,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
-      <c r="B134" s="19"/>
+      <c r="B134" s="16"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -5975,7 +6130,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
-      <c r="B135" s="19"/>
+      <c r="B135" s="16"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -5985,7 +6140,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
-      <c r="B136" s="19"/>
+      <c r="B136" s="16"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -5995,7 +6150,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
-      <c r="B137" s="19"/>
+      <c r="B137" s="16"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -6005,7 +6160,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
-      <c r="B138" s="19"/>
+      <c r="B138" s="16"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -6015,7 +6170,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
-      <c r="B139" s="19"/>
+      <c r="B139" s="16"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -6025,7 +6180,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
-      <c r="B140" s="19"/>
+      <c r="B140" s="16"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -6035,7 +6190,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
-      <c r="B141" s="19"/>
+      <c r="B141" s="16"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -6045,7 +6200,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
-      <c r="B142" s="19"/>
+      <c r="B142" s="16"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -6055,7 +6210,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
-      <c r="B143" s="19"/>
+      <c r="B143" s="16"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -6065,7 +6220,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
-      <c r="B144" s="19"/>
+      <c r="B144" s="16"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -6075,7 +6230,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
-      <c r="B145" s="19"/>
+      <c r="B145" s="16"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -6085,7 +6240,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
-      <c r="B146" s="19"/>
+      <c r="B146" s="16"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -6095,7 +6250,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
-      <c r="B147" s="19"/>
+      <c r="B147" s="16"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -6105,7 +6260,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
-      <c r="B148" s="19"/>
+      <c r="B148" s="16"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -6115,7 +6270,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
-      <c r="B149" s="19"/>
+      <c r="B149" s="16"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -6125,7 +6280,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
-      <c r="B150" s="19"/>
+      <c r="B150" s="16"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -6135,7 +6290,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
-      <c r="B151" s="19"/>
+      <c r="B151" s="16"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -6145,7 +6300,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
-      <c r="B152" s="19"/>
+      <c r="B152" s="16"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -6155,7 +6310,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
-      <c r="B153" s="19"/>
+      <c r="B153" s="16"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -6165,7 +6320,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
-      <c r="B154" s="19"/>
+      <c r="B154" s="16"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -6175,7 +6330,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
-      <c r="B155" s="19"/>
+      <c r="B155" s="16"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -6185,7 +6340,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
-      <c r="B156" s="19"/>
+      <c r="B156" s="16"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -6195,7 +6350,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
-      <c r="B157" s="19"/>
+      <c r="B157" s="16"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -6205,7 +6360,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
-      <c r="B158" s="19"/>
+      <c r="B158" s="16"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -6215,7 +6370,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
-      <c r="B159" s="19"/>
+      <c r="B159" s="16"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -6225,7 +6380,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
-      <c r="B160" s="19"/>
+      <c r="B160" s="16"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -6235,7 +6390,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
-      <c r="B161" s="19"/>
+      <c r="B161" s="16"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -6245,7 +6400,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
-      <c r="B162" s="19"/>
+      <c r="B162" s="16"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -6255,7 +6410,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
-      <c r="B163" s="19"/>
+      <c r="B163" s="16"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -6265,7 +6420,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
-      <c r="B164" s="19"/>
+      <c r="B164" s="16"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -6275,7 +6430,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
-      <c r="B165" s="19"/>
+      <c r="B165" s="16"/>
       <c r="C165" s="10"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -6285,7 +6440,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
-      <c r="B166" s="19"/>
+      <c r="B166" s="16"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -6295,7 +6450,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
-      <c r="B167" s="19"/>
+      <c r="B167" s="16"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -6305,7 +6460,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
-      <c r="B168" s="19"/>
+      <c r="B168" s="16"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -6315,7 +6470,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
-      <c r="B169" s="19"/>
+      <c r="B169" s="16"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -6325,7 +6480,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
-      <c r="B170" s="19"/>
+      <c r="B170" s="16"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -6335,7 +6490,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
-      <c r="B171" s="19"/>
+      <c r="B171" s="16"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -6345,7 +6500,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
-      <c r="B172" s="19"/>
+      <c r="B172" s="16"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -6355,7 +6510,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
-      <c r="B173" s="19"/>
+      <c r="B173" s="16"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -6365,7 +6520,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
-      <c r="B174" s="19"/>
+      <c r="B174" s="16"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -6375,7 +6530,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
-      <c r="B175" s="19"/>
+      <c r="B175" s="16"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -6385,7 +6540,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
-      <c r="B176" s="19"/>
+      <c r="B176" s="16"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -6395,7 +6550,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
-      <c r="B177" s="19"/>
+      <c r="B177" s="16"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -6405,7 +6560,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
-      <c r="B178" s="19"/>
+      <c r="B178" s="16"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -6415,7 +6570,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
-      <c r="B179" s="19"/>
+      <c r="B179" s="16"/>
       <c r="C179" s="10"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -6425,7 +6580,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
-      <c r="B180" s="19"/>
+      <c r="B180" s="16"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -6435,7 +6590,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
-      <c r="B181" s="19"/>
+      <c r="B181" s="16"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -6445,7 +6600,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
-      <c r="B182" s="19"/>
+      <c r="B182" s="16"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -6455,7 +6610,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
-      <c r="B183" s="19"/>
+      <c r="B183" s="16"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -6465,7 +6620,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
-      <c r="B184" s="19"/>
+      <c r="B184" s="16"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -6475,7 +6630,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="2"/>
-      <c r="B185" s="19"/>
+      <c r="B185" s="16"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -6485,7 +6640,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
-      <c r="B186" s="19"/>
+      <c r="B186" s="16"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -6495,7 +6650,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
-      <c r="B187" s="20"/>
+      <c r="B187" s="17"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -6505,7 +6660,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
-      <c r="B188" s="21"/>
+      <c r="B188" s="18"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -6515,7 +6670,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="2"/>
-      <c r="B189" s="22"/>
+      <c r="B189" s="19"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -6525,7 +6680,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
-      <c r="B190" s="22"/>
+      <c r="B190" s="19"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -6535,7 +6690,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
-      <c r="B191" s="22"/>
+      <c r="B191" s="19"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="5"/>
@@ -6545,7 +6700,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
-      <c r="B192" s="22"/>
+      <c r="B192" s="19"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="5"/>
@@ -6555,7 +6710,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
-      <c r="B193" s="22"/>
+      <c r="B193" s="19"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="5"/>
@@ -6565,7 +6720,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
-      <c r="B194" s="22"/>
+      <c r="B194" s="19"/>
       <c r="C194" s="10"/>
       <c r="D194" s="2"/>
       <c r="E194" s="5"/>
@@ -6575,7 +6730,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
-      <c r="B195" s="22"/>
+      <c r="B195" s="19"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="5"/>
@@ -6585,7 +6740,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
-      <c r="B196" s="22"/>
+      <c r="B196" s="19"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="5"/>
@@ -6595,7 +6750,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
-      <c r="B197" s="22"/>
+      <c r="B197" s="19"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="5"/>
@@ -6605,7 +6760,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
-      <c r="B198" s="22"/>
+      <c r="B198" s="19"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="5"/>
@@ -6615,7 +6770,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="2"/>
-      <c r="B199" s="22"/>
+      <c r="B199" s="19"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="5"/>
@@ -6625,7 +6780,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
-      <c r="B200" s="19"/>
+      <c r="B200" s="16"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="5"/>
@@ -6635,7 +6790,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="2"/>
-      <c r="B201" s="19"/>
+      <c r="B201" s="16"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="5"/>
@@ -6645,7 +6800,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="2"/>
-      <c r="B202" s="19"/>
+      <c r="B202" s="16"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="5"/>
@@ -6655,7 +6810,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="2"/>
-      <c r="B203" s="19"/>
+      <c r="B203" s="16"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="5"/>
@@ -6665,7 +6820,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="2"/>
-      <c r="B204" s="19"/>
+      <c r="B204" s="16"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="5"/>
@@ -6675,7 +6830,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="2"/>
-      <c r="B205" s="19"/>
+      <c r="B205" s="16"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="5"/>
@@ -6685,7 +6840,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
-      <c r="B206" s="19"/>
+      <c r="B206" s="16"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="5"/>
@@ -6695,7 +6850,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="2"/>
-      <c r="B207" s="19"/>
+      <c r="B207" s="16"/>
       <c r="C207" s="10"/>
       <c r="D207" s="2"/>
       <c r="E207" s="5"/>
@@ -6705,7 +6860,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="2"/>
-      <c r="B208" s="19"/>
+      <c r="B208" s="16"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="5"/>
@@ -6715,7 +6870,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="2"/>
-      <c r="B209" s="19"/>
+      <c r="B209" s="16"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="5"/>
@@ -6725,7 +6880,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="2"/>
-      <c r="B210" s="19"/>
+      <c r="B210" s="16"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="5"/>
@@ -6735,7 +6890,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="2"/>
-      <c r="B211" s="19"/>
+      <c r="B211" s="16"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="5"/>
@@ -6745,7 +6900,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="2"/>
-      <c r="B212" s="19"/>
+      <c r="B212" s="16"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="5"/>
@@ -6755,7 +6910,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="2"/>
-      <c r="B213" s="19"/>
+      <c r="B213" s="16"/>
       <c r="C213" s="10"/>
       <c r="D213" s="2"/>
       <c r="E213" s="5"/>
@@ -6765,7 +6920,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="2"/>
-      <c r="B214" s="19"/>
+      <c r="B214" s="16"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="5"/>
@@ -6775,7 +6930,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="2"/>
-      <c r="B215" s="19"/>
+      <c r="B215" s="16"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="5"/>
@@ -6785,7 +6940,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="2"/>
-      <c r="B216" s="19"/>
+      <c r="B216" s="16"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="5"/>
@@ -6795,7 +6950,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="2"/>
-      <c r="B217" s="19"/>
+      <c r="B217" s="16"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -6805,7 +6960,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="2"/>
-      <c r="B218" s="19"/>
+      <c r="B218" s="16"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -6815,7 +6970,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="2"/>
-      <c r="B219" s="19"/>
+      <c r="B219" s="16"/>
       <c r="C219" s="10"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -6825,7 +6980,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="2"/>
-      <c r="B220" s="19"/>
+      <c r="B220" s="16"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -6835,7 +6990,7 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="2"/>
-      <c r="B221" s="19"/>
+      <c r="B221" s="16"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -6845,7 +7000,7 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="2"/>
-      <c r="B222" s="19"/>
+      <c r="B222" s="16"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -6855,7 +7010,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="2"/>
-      <c r="B223" s="19"/>
+      <c r="B223" s="16"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -6865,7 +7020,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="2"/>
-      <c r="B224" s="19"/>
+      <c r="B224" s="16"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -6875,7 +7030,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="2"/>
-      <c r="B225" s="19"/>
+      <c r="B225" s="16"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -6885,7 +7040,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="2"/>
-      <c r="B226" s="19"/>
+      <c r="B226" s="16"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -6895,7 +7050,7 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="2"/>
-      <c r="B227" s="19"/>
+      <c r="B227" s="16"/>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -6905,7 +7060,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="2"/>
-      <c r="B228" s="19"/>
+      <c r="B228" s="16"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -6915,7 +7070,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="2"/>
-      <c r="B229" s="19"/>
+      <c r="B229" s="16"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -6925,7 +7080,7 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="2"/>
-      <c r="B230" s="19"/>
+      <c r="B230" s="16"/>
       <c r="C230" s="10"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
@@ -6935,7 +7090,7 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="2"/>
-      <c r="B231" s="19"/>
+      <c r="B231" s="16"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -6945,7 +7100,7 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="2"/>
-      <c r="B232" s="19"/>
+      <c r="B232" s="16"/>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -6955,7 +7110,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="2"/>
-      <c r="B233" s="19"/>
+      <c r="B233" s="16"/>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -6965,7 +7120,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="2"/>
-      <c r="B234" s="19"/>
+      <c r="B234" s="16"/>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
@@ -6975,7 +7130,7 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="2"/>
-      <c r="B235" s="19"/>
+      <c r="B235" s="16"/>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
@@ -6985,7 +7140,7 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="2"/>
-      <c r="B236" s="19"/>
+      <c r="B236" s="16"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
@@ -6995,7 +7150,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="2"/>
-      <c r="B237" s="19"/>
+      <c r="B237" s="16"/>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="5"/>
@@ -7005,7 +7160,7 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="2"/>
-      <c r="B238" s="19"/>
+      <c r="B238" s="16"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="5"/>
@@ -7015,7 +7170,7 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="2"/>
-      <c r="B239" s="19"/>
+      <c r="B239" s="16"/>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="5"/>
@@ -7025,7 +7180,7 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="2"/>
-      <c r="B240" s="19"/>
+      <c r="B240" s="16"/>
       <c r="C240" s="10"/>
       <c r="D240" s="2"/>
       <c r="E240" s="5"/>
@@ -7035,7 +7190,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="2"/>
-      <c r="B241" s="19"/>
+      <c r="B241" s="16"/>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="5"/>
@@ -7045,7 +7200,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="2"/>
-      <c r="B242" s="19"/>
+      <c r="B242" s="16"/>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="5"/>
@@ -7055,7 +7210,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="2"/>
-      <c r="B243" s="19"/>
+      <c r="B243" s="16"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="5"/>
@@ -7065,7 +7220,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="2"/>
-      <c r="B244" s="19"/>
+      <c r="B244" s="16"/>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -7075,7 +7230,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="2"/>
-      <c r="B245" s="19"/>
+      <c r="B245" s="16"/>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -7085,7 +7240,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="2"/>
-      <c r="B246" s="19"/>
+      <c r="B246" s="16"/>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -7095,7 +7250,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="2"/>
-      <c r="B247" s="19"/>
+      <c r="B247" s="16"/>
       <c r="C247" s="10"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
@@ -7105,7 +7260,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="2"/>
-      <c r="B248" s="19"/>
+      <c r="B248" s="16"/>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -7115,7 +7270,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="2"/>
-      <c r="B249" s="19"/>
+      <c r="B249" s="16"/>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
@@ -7125,7 +7280,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="2"/>
-      <c r="B250" s="19"/>
+      <c r="B250" s="16"/>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -7135,7 +7290,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="2"/>
-      <c r="B251" s="19"/>
+      <c r="B251" s="16"/>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -7145,7 +7300,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="2"/>
-      <c r="B252" s="19"/>
+      <c r="B252" s="16"/>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -7155,7 +7310,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="2"/>
-      <c r="B253" s="19"/>
+      <c r="B253" s="16"/>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -7165,7 +7320,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="2"/>
-      <c r="B254" s="19"/>
+      <c r="B254" s="16"/>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -7175,7 +7330,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="2"/>
-      <c r="B255" s="19"/>
+      <c r="B255" s="16"/>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -7185,7 +7340,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="2"/>
-      <c r="B256" s="19"/>
+      <c r="B256" s="16"/>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
@@ -7195,7 +7350,7 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="2"/>
-      <c r="B257" s="19"/>
+      <c r="B257" s="16"/>
       <c r="C257" s="10"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -7205,7 +7360,7 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="2"/>
-      <c r="B258" s="19"/>
+      <c r="B258" s="16"/>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -7215,7 +7370,7 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="2"/>
-      <c r="B259" s="19"/>
+      <c r="B259" s="16"/>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -9845,6 +10000,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B2:B36"/>
+    <mergeCell ref="B37:B71"/>
+    <mergeCell ref="B167:B170"/>
+    <mergeCell ref="B171:B174"/>
+    <mergeCell ref="B72:B122"/>
+    <mergeCell ref="B163:B166"/>
+    <mergeCell ref="B123:B162"/>
     <mergeCell ref="B200:B209"/>
     <mergeCell ref="B210:B216"/>
     <mergeCell ref="B217:B221"/>
@@ -9855,13 +10017,6 @@
     <mergeCell ref="B237:B243"/>
     <mergeCell ref="B244:B252"/>
     <mergeCell ref="B188:B199"/>
-    <mergeCell ref="B2:B36"/>
-    <mergeCell ref="B37:B71"/>
-    <mergeCell ref="B167:B170"/>
-    <mergeCell ref="B171:B174"/>
-    <mergeCell ref="B72:B122"/>
-    <mergeCell ref="B163:B166"/>
-    <mergeCell ref="B123:B162"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9917,7 +10072,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -9939,7 +10094,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
-      <c r="B3" s="22"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
@@ -9959,7 +10114,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
-      <c r="B4" s="22"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
@@ -9979,7 +10134,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
-      <c r="B5" s="22"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
@@ -9999,7 +10154,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
-      <c r="B6" s="22"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
@@ -10019,7 +10174,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
-      <c r="B7" s="22"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
@@ -10039,7 +10194,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
-      <c r="B8" s="22"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
@@ -10059,7 +10214,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
-      <c r="B9" s="22"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
@@ -10079,7 +10234,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
-      <c r="B10" s="22"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="7" t="s">
         <v>16</v>
       </c>
@@ -10099,7 +10254,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
-      <c r="B11" s="22"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
@@ -10119,7 +10274,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
-      <c r="B12" s="22"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="7" t="s">
         <v>16</v>
       </c>
@@ -10141,7 +10296,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
-      <c r="B13" s="22"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="7" t="s">
         <v>16</v>
       </c>
@@ -10161,7 +10316,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
-      <c r="B14" s="22"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="7" t="s">
         <v>16</v>
       </c>
@@ -10181,7 +10336,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
-      <c r="B15" s="22"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="7" t="s">
         <v>16</v>
       </c>
@@ -10201,7 +10356,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
-      <c r="B16" s="22"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="7" t="s">
         <v>16</v>
       </c>
@@ -10221,7 +10376,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
-      <c r="B17" s="22"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="7" t="s">
         <v>16</v>
       </c>
@@ -10241,7 +10396,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
-      <c r="B18" s="22"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="7" t="s">
         <v>16</v>
       </c>
@@ -10261,7 +10416,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
-      <c r="B19" s="22"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="7" t="s">
         <v>16</v>
       </c>
@@ -10281,7 +10436,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
-      <c r="B20" s="22"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="7" t="s">
         <v>16</v>
       </c>
@@ -10301,7 +10456,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
-      <c r="B21" s="22"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="7" t="s">
         <v>16</v>
       </c>
@@ -10321,7 +10476,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
-      <c r="B22" s="22"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="7" t="s">
         <v>16</v>
       </c>
@@ -10341,7 +10496,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
-      <c r="B23" s="22"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="7" t="s">
         <v>16</v>
       </c>
@@ -10361,7 +10516,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
-      <c r="B24" s="22"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="7" t="s">
         <v>16</v>
       </c>
@@ -10381,7 +10536,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
-      <c r="B25" s="22"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="7" t="s">
         <v>16</v>
       </c>
@@ -10401,7 +10556,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
-      <c r="B26" s="22"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="7" t="s">
         <v>16</v>
       </c>
@@ -10421,7 +10576,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
-      <c r="B27" s="22"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="7" t="s">
         <v>16</v>
       </c>
@@ -10441,7 +10596,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
-      <c r="B28" s="22"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="7" t="s">
         <v>16</v>
       </c>
@@ -10461,7 +10616,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
-      <c r="B29" s="22"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="7" t="s">
         <v>16</v>
       </c>
@@ -10481,7 +10636,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
-      <c r="B30" s="22"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="7" t="s">
         <v>16</v>
       </c>
@@ -10501,7 +10656,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
-      <c r="B31" s="22"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="7" t="s">
         <v>16</v>
       </c>
@@ -10521,7 +10676,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
-      <c r="B32" s="22"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="7" t="s">
         <v>16</v>
       </c>
@@ -10541,7 +10696,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
-      <c r="B33" s="22"/>
+      <c r="B33" s="19"/>
       <c r="C33" s="7" t="s">
         <v>16</v>
       </c>
@@ -10561,7 +10716,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
-      <c r="B34" s="22"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="7" t="s">
         <v>16</v>
       </c>
@@ -10581,7 +10736,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
-      <c r="B35" s="22"/>
+      <c r="B35" s="19"/>
       <c r="C35" s="7" t="s">
         <v>16</v>
       </c>
@@ -10601,7 +10756,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
-      <c r="B36" s="22"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="7" t="s">
         <v>16</v>
       </c>
@@ -10621,7 +10776,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
-      <c r="B37" s="22"/>
+      <c r="B37" s="19"/>
       <c r="C37" s="7" t="s">
         <v>16</v>
       </c>
@@ -10641,7 +10796,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
-      <c r="B38" s="22"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="7" t="s">
         <v>16</v>
       </c>
@@ -10661,7 +10816,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
-      <c r="B39" s="22"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="7" t="s">
         <v>16</v>
       </c>
@@ -10681,7 +10836,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
-      <c r="B40" s="22"/>
+      <c r="B40" s="19"/>
       <c r="C40" s="7" t="s">
         <v>16</v>
       </c>
@@ -10701,7 +10856,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
-      <c r="B41" s="22"/>
+      <c r="B41" s="19"/>
       <c r="C41" s="7" t="s">
         <v>16</v>
       </c>
@@ -10721,7 +10876,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
-      <c r="B42" s="22"/>
+      <c r="B42" s="19"/>
       <c r="C42" s="7" t="s">
         <v>16</v>
       </c>
@@ -10741,7 +10896,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
-      <c r="B43" s="22"/>
+      <c r="B43" s="19"/>
       <c r="C43" s="7" t="s">
         <v>16</v>
       </c>
@@ -10761,7 +10916,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
-      <c r="B44" s="22"/>
+      <c r="B44" s="19"/>
       <c r="C44" s="7" t="s">
         <v>16</v>
       </c>
@@ -10781,7 +10936,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -10803,7 +10958,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
-      <c r="B46" s="19"/>
+      <c r="B46" s="16"/>
       <c r="C46" s="7" t="s">
         <v>104</v>
       </c>
@@ -10823,7 +10978,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
-      <c r="B47" s="19"/>
+      <c r="B47" s="16"/>
       <c r="C47" s="7" t="s">
         <v>104</v>
       </c>
@@ -10843,7 +10998,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
-      <c r="B48" s="19"/>
+      <c r="B48" s="16"/>
       <c r="C48" s="7" t="s">
         <v>104</v>
       </c>
@@ -10863,7 +11018,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
-      <c r="B49" s="19"/>
+      <c r="B49" s="16"/>
       <c r="C49" s="7" t="s">
         <v>104</v>
       </c>
@@ -10883,7 +11038,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
-      <c r="B50" s="19"/>
+      <c r="B50" s="16"/>
       <c r="C50" s="7" t="s">
         <v>104</v>
       </c>
@@ -10903,7 +11058,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
-      <c r="B51" s="19"/>
+      <c r="B51" s="16"/>
       <c r="C51" s="7" t="s">
         <v>104</v>
       </c>
@@ -10923,7 +11078,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C52" s="7" t="s">
@@ -10945,7 +11100,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
-      <c r="B53" s="19"/>
+      <c r="B53" s="16"/>
       <c r="C53" s="7" t="s">
         <v>118</v>
       </c>
@@ -10965,7 +11120,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
-      <c r="B54" s="19"/>
+      <c r="B54" s="16"/>
       <c r="C54" s="7" t="s">
         <v>118</v>
       </c>
@@ -10985,7 +11140,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
-      <c r="B55" s="19"/>
+      <c r="B55" s="16"/>
       <c r="C55" s="7" t="s">
         <v>118</v>
       </c>
@@ -11005,7 +11160,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
-      <c r="B56" s="19"/>
+      <c r="B56" s="16"/>
       <c r="C56" s="7" t="s">
         <v>118</v>
       </c>
@@ -11025,7 +11180,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
-      <c r="B57" s="19"/>
+      <c r="B57" s="16"/>
       <c r="C57" s="7" t="s">
         <v>118</v>
       </c>
@@ -11045,7 +11200,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
-      <c r="B58" s="19"/>
+      <c r="B58" s="16"/>
       <c r="C58" s="7" t="s">
         <v>118</v>
       </c>
@@ -11065,7 +11220,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
-      <c r="B59" s="19"/>
+      <c r="B59" s="16"/>
       <c r="C59" s="7" t="s">
         <v>118</v>
       </c>
@@ -11085,7 +11240,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="7"/>
-      <c r="B60" s="19"/>
+      <c r="B60" s="16"/>
       <c r="C60" s="7" t="s">
         <v>118</v>
       </c>
@@ -11105,7 +11260,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="7"/>
-      <c r="B61" s="19"/>
+      <c r="B61" s="16"/>
       <c r="C61" s="7" t="s">
         <v>118</v>
       </c>
@@ -11125,7 +11280,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
-      <c r="B62" s="19"/>
+      <c r="B62" s="16"/>
       <c r="C62" s="7" t="s">
         <v>118</v>
       </c>
@@ -11145,7 +11300,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="7"/>
-      <c r="B63" s="19"/>
+      <c r="B63" s="16"/>
       <c r="C63" s="7" t="s">
         <v>118</v>
       </c>
@@ -11165,7 +11320,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
-      <c r="B64" s="19"/>
+      <c r="B64" s="16"/>
       <c r="C64" s="7" t="s">
         <v>118</v>
       </c>
@@ -11187,7 +11342,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="7"/>
-      <c r="B65" s="19"/>
+      <c r="B65" s="16"/>
       <c r="C65" s="7" t="s">
         <v>118</v>
       </c>
@@ -11207,7 +11362,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
-      <c r="B66" s="19"/>
+      <c r="B66" s="16"/>
       <c r="C66" s="7" t="s">
         <v>118</v>
       </c>
@@ -11229,7 +11384,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
-      <c r="B67" s="19"/>
+      <c r="B67" s="16"/>
       <c r="C67" s="7" t="s">
         <v>118</v>
       </c>
@@ -11249,7 +11404,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
-      <c r="B68" s="19"/>
+      <c r="B68" s="16"/>
       <c r="C68" s="7" t="s">
         <v>118</v>
       </c>
@@ -11269,7 +11424,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
-      <c r="B69" s="19"/>
+      <c r="B69" s="16"/>
       <c r="C69" s="7" t="s">
         <v>118</v>
       </c>
@@ -11289,7 +11444,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="7"/>
-      <c r="B70" s="19"/>
+      <c r="B70" s="16"/>
       <c r="C70" s="7" t="s">
         <v>118</v>
       </c>
@@ -11309,7 +11464,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
-      <c r="B71" s="19"/>
+      <c r="B71" s="16"/>
       <c r="C71" s="7" t="s">
         <v>118</v>
       </c>
@@ -11329,7 +11484,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
-      <c r="B72" s="19"/>
+      <c r="B72" s="16"/>
       <c r="C72" s="7" t="s">
         <v>118</v>
       </c>
@@ -11349,7 +11504,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
-      <c r="B73" s="19"/>
+      <c r="B73" s="16"/>
       <c r="C73" s="7" t="s">
         <v>118</v>
       </c>
@@ -11369,7 +11524,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
-      <c r="B74" s="19"/>
+      <c r="B74" s="16"/>
       <c r="C74" s="7" t="s">
         <v>118</v>
       </c>
@@ -11389,7 +11544,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="7"/>
-      <c r="B75" s="19"/>
+      <c r="B75" s="16"/>
       <c r="C75" s="7" t="s">
         <v>118</v>
       </c>
@@ -11409,7 +11564,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="7"/>
-      <c r="B76" s="19"/>
+      <c r="B76" s="16"/>
       <c r="C76" s="7" t="s">
         <v>118</v>
       </c>
@@ -11429,7 +11584,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
-      <c r="B77" s="19" t="s">
+      <c r="B77" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C77" s="7" t="s">
@@ -11451,7 +11606,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="7"/>
-      <c r="B78" s="19"/>
+      <c r="B78" s="16"/>
       <c r="C78" s="7" t="s">
         <v>536</v>
       </c>
@@ -11471,7 +11626,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="7"/>
-      <c r="B79" s="19"/>
+      <c r="B79" s="16"/>
       <c r="C79" s="7" t="s">
         <v>536</v>
       </c>
@@ -11491,7 +11646,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
-      <c r="B80" s="19"/>
+      <c r="B80" s="16"/>
       <c r="C80" s="7" t="s">
         <v>536</v>
       </c>
@@ -11511,7 +11666,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
-      <c r="B81" s="19"/>
+      <c r="B81" s="16"/>
       <c r="C81" s="7" t="s">
         <v>536</v>
       </c>
@@ -11531,7 +11686,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="7"/>
-      <c r="B82" s="19"/>
+      <c r="B82" s="16"/>
       <c r="C82" s="7" t="s">
         <v>536</v>
       </c>
@@ -11551,7 +11706,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="7"/>
-      <c r="B83" s="19"/>
+      <c r="B83" s="16"/>
       <c r="C83" s="7" t="s">
         <v>536</v>
       </c>
@@ -11571,7 +11726,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="7"/>
-      <c r="B84" s="19"/>
+      <c r="B84" s="16"/>
       <c r="C84" s="7" t="s">
         <v>536</v>
       </c>
@@ -11591,7 +11746,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="7"/>
-      <c r="B85" s="19"/>
+      <c r="B85" s="16"/>
       <c r="C85" s="7" t="s">
         <v>536</v>
       </c>
@@ -11611,7 +11766,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="7"/>
-      <c r="B86" s="19"/>
+      <c r="B86" s="16"/>
       <c r="C86" s="7" t="s">
         <v>536</v>
       </c>
@@ -11631,7 +11786,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="7"/>
-      <c r="B87" s="19"/>
+      <c r="B87" s="16"/>
       <c r="C87" s="7" t="s">
         <v>536</v>
       </c>
@@ -11651,7 +11806,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="7"/>
-      <c r="B88" s="19"/>
+      <c r="B88" s="16"/>
       <c r="C88" s="7" t="s">
         <v>536</v>
       </c>
@@ -11671,7 +11826,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="7"/>
-      <c r="B89" s="19"/>
+      <c r="B89" s="16"/>
       <c r="C89" s="7" t="s">
         <v>536</v>
       </c>
@@ -11691,7 +11846,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="7"/>
-      <c r="B90" s="19"/>
+      <c r="B90" s="16"/>
       <c r="C90" s="7" t="s">
         <v>536</v>
       </c>
@@ -11711,7 +11866,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="7"/>
-      <c r="B91" s="19"/>
+      <c r="B91" s="16"/>
       <c r="C91" s="7" t="s">
         <v>536</v>
       </c>
@@ -11731,7 +11886,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="7"/>
-      <c r="B92" s="19"/>
+      <c r="B92" s="16"/>
       <c r="C92" s="7" t="s">
         <v>536</v>
       </c>
@@ -11751,7 +11906,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="7"/>
-      <c r="B93" s="19"/>
+      <c r="B93" s="16"/>
       <c r="C93" s="7" t="s">
         <v>536</v>
       </c>
@@ -11771,7 +11926,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="7"/>
-      <c r="B94" s="19"/>
+      <c r="B94" s="16"/>
       <c r="C94" s="7" t="s">
         <v>536</v>
       </c>
@@ -11791,7 +11946,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="7"/>
-      <c r="B95" s="19"/>
+      <c r="B95" s="16"/>
       <c r="C95" s="7" t="s">
         <v>536</v>
       </c>
@@ -11811,7 +11966,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="7"/>
-      <c r="B96" s="19"/>
+      <c r="B96" s="16"/>
       <c r="C96" s="7" t="s">
         <v>536</v>
       </c>
@@ -11831,7 +11986,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="7"/>
-      <c r="B97" s="19"/>
+      <c r="B97" s="16"/>
       <c r="C97" s="7" t="s">
         <v>536</v>
       </c>
@@ -11851,7 +12006,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="7"/>
-      <c r="B98" s="19"/>
+      <c r="B98" s="16"/>
       <c r="C98" s="7" t="s">
         <v>536</v>
       </c>
@@ -11871,7 +12026,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="7"/>
-      <c r="B99" s="19"/>
+      <c r="B99" s="16"/>
       <c r="C99" s="7" t="s">
         <v>536</v>
       </c>
@@ -11891,7 +12046,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="7"/>
-      <c r="B100" s="19" t="s">
+      <c r="B100" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C100" s="7" t="s">
@@ -11913,7 +12068,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="7"/>
-      <c r="B101" s="19"/>
+      <c r="B101" s="16"/>
       <c r="C101" s="7" t="s">
         <v>561</v>
       </c>
@@ -11933,7 +12088,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="7"/>
-      <c r="B102" s="19"/>
+      <c r="B102" s="16"/>
       <c r="C102" s="7" t="s">
         <v>170</v>
       </c>
@@ -11953,7 +12108,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="7"/>
-      <c r="B103" s="19"/>
+      <c r="B103" s="16"/>
       <c r="C103" s="7" t="s">
         <v>170</v>
       </c>
@@ -11973,7 +12128,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="7"/>
-      <c r="B104" s="19" t="s">
+      <c r="B104" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C104" s="7" t="s">
@@ -11995,7 +12150,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="7"/>
-      <c r="B105" s="19"/>
+      <c r="B105" s="16"/>
       <c r="C105" s="7" t="s">
         <v>179</v>
       </c>
@@ -12015,7 +12170,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="7"/>
-      <c r="B106" s="19"/>
+      <c r="B106" s="16"/>
       <c r="C106" s="7" t="s">
         <v>562</v>
       </c>
@@ -12035,7 +12190,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="7"/>
-      <c r="B107" s="19"/>
+      <c r="B107" s="16"/>
       <c r="C107" s="7" t="s">
         <v>179</v>
       </c>
@@ -12055,7 +12210,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="7"/>
-      <c r="B108" s="19"/>
+      <c r="B108" s="16"/>
       <c r="C108" s="7" t="s">
         <v>179</v>
       </c>
@@ -12075,7 +12230,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="7"/>
-      <c r="B109" s="19"/>
+      <c r="B109" s="16"/>
       <c r="C109" s="7" t="s">
         <v>179</v>
       </c>
@@ -12095,7 +12250,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="7"/>
-      <c r="B110" s="19"/>
+      <c r="B110" s="16"/>
       <c r="C110" s="7" t="s">
         <v>179</v>
       </c>
@@ -12115,7 +12270,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="7"/>
-      <c r="B111" s="19"/>
+      <c r="B111" s="16"/>
       <c r="C111" s="7" t="s">
         <v>179</v>
       </c>
@@ -12135,7 +12290,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="7"/>
-      <c r="B112" s="19"/>
+      <c r="B112" s="16"/>
       <c r="C112" s="7" t="s">
         <v>179</v>
       </c>
@@ -12155,7 +12310,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="7"/>
-      <c r="B113" s="19"/>
+      <c r="B113" s="16"/>
       <c r="C113" s="7" t="s">
         <v>179</v>
       </c>
@@ -12175,7 +12330,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="7"/>
-      <c r="B114" s="19"/>
+      <c r="B114" s="16"/>
       <c r="C114" s="7" t="s">
         <v>179</v>
       </c>
@@ -12195,7 +12350,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="7"/>
-      <c r="B115" s="19"/>
+      <c r="B115" s="16"/>
       <c r="C115" s="7" t="s">
         <v>179</v>
       </c>
@@ -12215,7 +12370,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="7"/>
-      <c r="B116" s="19"/>
+      <c r="B116" s="16"/>
       <c r="C116" s="7" t="s">
         <v>179</v>
       </c>
@@ -12235,7 +12390,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="7"/>
-      <c r="B117" s="19"/>
+      <c r="B117" s="16"/>
       <c r="C117" s="7" t="s">
         <v>179</v>
       </c>
@@ -12255,7 +12410,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="7"/>
-      <c r="B118" s="19"/>
+      <c r="B118" s="16"/>
       <c r="C118" s="7" t="s">
         <v>179</v>
       </c>
@@ -12277,7 +12432,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="7"/>
-      <c r="B119" s="19"/>
+      <c r="B119" s="16"/>
       <c r="C119" s="7" t="s">
         <v>179</v>
       </c>
@@ -12297,7 +12452,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="7"/>
-      <c r="B120" s="19"/>
+      <c r="B120" s="16"/>
       <c r="C120" s="7" t="s">
         <v>179</v>
       </c>
@@ -12317,7 +12472,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="7"/>
-      <c r="B121" s="19"/>
+      <c r="B121" s="16"/>
       <c r="C121" s="7" t="s">
         <v>179</v>
       </c>
@@ -12337,7 +12492,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="7"/>
-      <c r="B122" s="19"/>
+      <c r="B122" s="16"/>
       <c r="C122" s="7" t="s">
         <v>179</v>
       </c>
@@ -12357,7 +12512,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="7"/>
-      <c r="B123" s="19"/>
+      <c r="B123" s="16"/>
       <c r="C123" s="7" t="s">
         <v>179</v>
       </c>
@@ -12377,7 +12532,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="7"/>
-      <c r="B124" s="19"/>
+      <c r="B124" s="16"/>
       <c r="C124" s="7" t="s">
         <v>179</v>
       </c>
@@ -12397,7 +12552,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="7"/>
-      <c r="B125" s="19"/>
+      <c r="B125" s="16"/>
       <c r="C125" s="7" t="s">
         <v>179</v>
       </c>
@@ -12417,7 +12572,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="7"/>
-      <c r="B126" s="19"/>
+      <c r="B126" s="16"/>
       <c r="C126" s="7" t="s">
         <v>179</v>
       </c>
@@ -12437,7 +12592,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="7"/>
-      <c r="B127" s="19"/>
+      <c r="B127" s="16"/>
       <c r="C127" s="7" t="s">
         <v>179</v>
       </c>
@@ -12457,7 +12612,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="7"/>
-      <c r="B128" s="19"/>
+      <c r="B128" s="16"/>
       <c r="C128" s="7" t="s">
         <v>179</v>
       </c>
@@ -12479,7 +12634,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="7"/>
-      <c r="B129" s="19"/>
+      <c r="B129" s="16"/>
       <c r="C129" s="7" t="s">
         <v>179</v>
       </c>
@@ -12499,7 +12654,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="7"/>
-      <c r="B130" s="19"/>
+      <c r="B130" s="16"/>
       <c r="C130" s="7" t="s">
         <v>179</v>
       </c>
@@ -12521,7 +12676,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="7"/>
-      <c r="B131" s="19"/>
+      <c r="B131" s="16"/>
       <c r="C131" s="7" t="s">
         <v>179</v>
       </c>
@@ -12543,7 +12698,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="7"/>
-      <c r="B132" s="19"/>
+      <c r="B132" s="16"/>
       <c r="C132" s="7" t="s">
         <v>179</v>
       </c>
@@ -12565,7 +12720,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="7"/>
-      <c r="B133" s="19"/>
+      <c r="B133" s="16"/>
       <c r="C133" s="7" t="s">
         <v>179</v>
       </c>
@@ -12587,7 +12742,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="7"/>
-      <c r="B134" s="19"/>
+      <c r="B134" s="16"/>
       <c r="C134" s="7" t="s">
         <v>179</v>
       </c>
@@ -12609,7 +12764,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="7"/>
-      <c r="B135" s="19"/>
+      <c r="B135" s="16"/>
       <c r="C135" s="7" t="s">
         <v>179</v>
       </c>
@@ -12631,7 +12786,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="7"/>
-      <c r="B136" s="19"/>
+      <c r="B136" s="16"/>
       <c r="C136" s="7" t="s">
         <v>179</v>
       </c>
@@ -12653,7 +12808,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="7"/>
-      <c r="B137" s="19"/>
+      <c r="B137" s="16"/>
       <c r="C137" s="7" t="s">
         <v>179</v>
       </c>
@@ -12675,7 +12830,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="7"/>
-      <c r="B138" s="19"/>
+      <c r="B138" s="16"/>
       <c r="C138" s="7" t="s">
         <v>179</v>
       </c>
@@ -12697,7 +12852,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="7"/>
-      <c r="B139" s="19"/>
+      <c r="B139" s="16"/>
       <c r="C139" s="7" t="s">
         <v>179</v>
       </c>
@@ -12719,7 +12874,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="7"/>
-      <c r="B140" s="19"/>
+      <c r="B140" s="16"/>
       <c r="C140" s="7" t="s">
         <v>179</v>
       </c>
@@ -12741,7 +12896,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="7"/>
-      <c r="B141" s="19"/>
+      <c r="B141" s="16"/>
       <c r="C141" s="7" t="s">
         <v>179</v>
       </c>
@@ -12761,7 +12916,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="7"/>
-      <c r="B142" s="19"/>
+      <c r="B142" s="16"/>
       <c r="C142" s="7" t="s">
         <v>179</v>
       </c>
@@ -12781,7 +12936,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="7"/>
-      <c r="B143" s="19"/>
+      <c r="B143" s="16"/>
       <c r="C143" s="7" t="s">
         <v>179</v>
       </c>
@@ -12801,7 +12956,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="7"/>
-      <c r="B144" s="19"/>
+      <c r="B144" s="16"/>
       <c r="C144" s="7" t="s">
         <v>179</v>
       </c>
@@ -12821,7 +12976,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="7"/>
-      <c r="B145" s="19"/>
+      <c r="B145" s="16"/>
       <c r="C145" s="7" t="s">
         <v>179</v>
       </c>
@@ -12841,7 +12996,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="7"/>
-      <c r="B146" s="19"/>
+      <c r="B146" s="16"/>
       <c r="C146" s="7" t="s">
         <v>179</v>
       </c>
@@ -12861,7 +13016,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="7"/>
-      <c r="B147" s="19"/>
+      <c r="B147" s="16"/>
       <c r="C147" s="7" t="s">
         <v>179</v>
       </c>
@@ -12881,7 +13036,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="7"/>
-      <c r="B148" s="19"/>
+      <c r="B148" s="16"/>
       <c r="C148" s="7" t="s">
         <v>179</v>
       </c>
@@ -12901,7 +13056,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="7"/>
-      <c r="B149" s="19" t="s">
+      <c r="B149" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C149" s="7" t="s">
@@ -12923,7 +13078,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="7"/>
-      <c r="B150" s="19"/>
+      <c r="B150" s="16"/>
       <c r="C150" s="7" t="s">
         <v>272</v>
       </c>
@@ -12943,7 +13098,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="7"/>
-      <c r="B151" s="19"/>
+      <c r="B151" s="16"/>
       <c r="C151" s="7" t="s">
         <v>272</v>
       </c>
@@ -12963,7 +13118,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="7"/>
-      <c r="B152" s="19"/>
+      <c r="B152" s="16"/>
       <c r="C152" s="7" t="s">
         <v>272</v>
       </c>
@@ -12983,7 +13138,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="7"/>
-      <c r="B153" s="19" t="s">
+      <c r="B153" s="16" t="s">
         <v>563</v>
       </c>
       <c r="C153" s="7" t="s">
@@ -13005,7 +13160,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="7"/>
-      <c r="B154" s="19"/>
+      <c r="B154" s="16"/>
       <c r="C154" s="7" t="s">
         <v>280</v>
       </c>
@@ -13025,7 +13180,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="7"/>
-      <c r="B155" s="19"/>
+      <c r="B155" s="16"/>
       <c r="C155" s="7" t="s">
         <v>280</v>
       </c>
@@ -13045,7 +13200,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="7"/>
-      <c r="B156" s="19"/>
+      <c r="B156" s="16"/>
       <c r="C156" s="7" t="s">
         <v>280</v>
       </c>
@@ -13065,7 +13220,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="7"/>
-      <c r="B157" s="19"/>
+      <c r="B157" s="16"/>
       <c r="C157" s="7" t="s">
         <v>280</v>
       </c>
@@ -13085,7 +13240,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="7"/>
-      <c r="B158" s="19"/>
+      <c r="B158" s="16"/>
       <c r="C158" s="7" t="s">
         <v>280</v>
       </c>
@@ -13105,7 +13260,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="7"/>
-      <c r="B159" s="19"/>
+      <c r="B159" s="16"/>
       <c r="C159" s="7" t="s">
         <v>280</v>
       </c>
@@ -13125,7 +13280,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="7"/>
-      <c r="B160" s="19"/>
+      <c r="B160" s="16"/>
       <c r="C160" s="7" t="s">
         <v>280</v>
       </c>
@@ -13145,7 +13300,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="7"/>
-      <c r="B161" s="19"/>
+      <c r="B161" s="16"/>
       <c r="C161" s="7" t="s">
         <v>280</v>
       </c>
@@ -13165,7 +13320,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="7"/>
-      <c r="B162" s="19"/>
+      <c r="B162" s="16"/>
       <c r="C162" s="7" t="s">
         <v>280</v>
       </c>
@@ -13185,7 +13340,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="7"/>
-      <c r="B163" s="19"/>
+      <c r="B163" s="16"/>
       <c r="C163" s="7" t="s">
         <v>280</v>
       </c>
@@ -13205,7 +13360,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="7"/>
-      <c r="B164" s="19"/>
+      <c r="B164" s="16"/>
       <c r="C164" s="7" t="s">
         <v>280</v>
       </c>
@@ -13225,7 +13380,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="7"/>
-      <c r="B165" s="19"/>
+      <c r="B165" s="16"/>
       <c r="C165" s="7" t="s">
         <v>280</v>
       </c>
@@ -13245,7 +13400,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="7"/>
-      <c r="B166" s="19"/>
+      <c r="B166" s="16"/>
       <c r="C166" s="7" t="s">
         <v>280</v>
       </c>
@@ -13265,7 +13420,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="7"/>
-      <c r="B167" s="19"/>
+      <c r="B167" s="16"/>
       <c r="C167" s="7" t="s">
         <v>280</v>
       </c>
@@ -13285,7 +13440,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="7"/>
-      <c r="B168" s="19"/>
+      <c r="B168" s="16"/>
       <c r="C168" s="7" t="s">
         <v>280</v>
       </c>
@@ -13305,7 +13460,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="7"/>
-      <c r="B169" s="19"/>
+      <c r="B169" s="16"/>
       <c r="C169" s="7" t="s">
         <v>280</v>
       </c>
@@ -13325,7 +13480,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="7"/>
-      <c r="B170" s="19"/>
+      <c r="B170" s="16"/>
       <c r="C170" s="7" t="s">
         <v>280</v>
       </c>
@@ -13345,7 +13500,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="7"/>
-      <c r="B171" s="19"/>
+      <c r="B171" s="16"/>
       <c r="C171" s="7" t="s">
         <v>280</v>
       </c>
@@ -13365,7 +13520,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="7"/>
-      <c r="B172" s="19"/>
+      <c r="B172" s="16"/>
       <c r="C172" s="7" t="s">
         <v>280</v>
       </c>
@@ -13385,7 +13540,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="7"/>
-      <c r="B173" s="19"/>
+      <c r="B173" s="16"/>
       <c r="C173" s="7" t="s">
         <v>280</v>
       </c>
@@ -13405,7 +13560,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="7"/>
-      <c r="B174" s="19"/>
+      <c r="B174" s="16"/>
       <c r="C174" s="7" t="s">
         <v>564</v>
       </c>
@@ -13425,7 +13580,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="7"/>
-      <c r="B175" s="19"/>
+      <c r="B175" s="16"/>
       <c r="C175" s="7" t="s">
         <v>280</v>
       </c>
@@ -13445,7 +13600,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="7"/>
-      <c r="B176" s="19"/>
+      <c r="B176" s="16"/>
       <c r="C176" s="7" t="s">
         <v>280</v>
       </c>
@@ -13465,7 +13620,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="7"/>
-      <c r="B177" s="19"/>
+      <c r="B177" s="16"/>
       <c r="C177" s="7" t="s">
         <v>280</v>
       </c>
@@ -13485,7 +13640,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="7"/>
-      <c r="B178" s="19"/>
+      <c r="B178" s="16"/>
       <c r="C178" s="7" t="s">
         <v>280</v>
       </c>
@@ -13505,7 +13660,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="7"/>
-      <c r="B179" s="19"/>
+      <c r="B179" s="16"/>
       <c r="C179" s="7" t="s">
         <v>280</v>
       </c>
@@ -13525,7 +13680,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="7"/>
-      <c r="B180" s="19"/>
+      <c r="B180" s="16"/>
       <c r="C180" s="7" t="s">
         <v>280</v>
       </c>
@@ -13545,7 +13700,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="7"/>
-      <c r="B181" s="19"/>
+      <c r="B181" s="16"/>
       <c r="C181" s="7" t="s">
         <v>280</v>
       </c>
@@ -13565,7 +13720,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="7"/>
-      <c r="B182" s="19"/>
+      <c r="B182" s="16"/>
       <c r="C182" s="7" t="s">
         <v>280</v>
       </c>
@@ -13585,7 +13740,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="7"/>
-      <c r="B183" s="19"/>
+      <c r="B183" s="16"/>
       <c r="C183" s="7" t="s">
         <v>280</v>
       </c>
@@ -13605,7 +13760,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="7"/>
-      <c r="B184" s="19"/>
+      <c r="B184" s="16"/>
       <c r="C184" s="7" t="s">
         <v>280</v>
       </c>
@@ -13625,7 +13780,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="7"/>
-      <c r="B185" s="19"/>
+      <c r="B185" s="16"/>
       <c r="C185" s="7" t="s">
         <v>280</v>
       </c>
@@ -13645,7 +13800,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="7"/>
-      <c r="B186" s="19"/>
+      <c r="B186" s="16"/>
       <c r="C186" s="7" t="s">
         <v>280</v>
       </c>
@@ -13665,7 +13820,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="7"/>
-      <c r="B187" s="19"/>
+      <c r="B187" s="16"/>
       <c r="C187" s="7" t="s">
         <v>280</v>
       </c>
@@ -13685,7 +13840,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="7"/>
-      <c r="B188" s="19"/>
+      <c r="B188" s="16"/>
       <c r="C188" s="7" t="s">
         <v>280</v>
       </c>
@@ -13705,7 +13860,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="7"/>
-      <c r="B189" s="19"/>
+      <c r="B189" s="16"/>
       <c r="C189" s="7" t="s">
         <v>280</v>
       </c>
@@ -13725,7 +13880,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="7"/>
-      <c r="B190" s="19"/>
+      <c r="B190" s="16"/>
       <c r="C190" s="7" t="s">
         <v>280</v>
       </c>
@@ -13745,7 +13900,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="7"/>
-      <c r="B191" s="19"/>
+      <c r="B191" s="16"/>
       <c r="C191" s="7" t="s">
         <v>280</v>
       </c>
@@ -13765,7 +13920,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="7"/>
-      <c r="B192" s="19"/>
+      <c r="B192" s="16"/>
       <c r="C192" s="7" t="s">
         <v>280</v>
       </c>
@@ -13785,7 +13940,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="7"/>
-      <c r="B193" s="19"/>
+      <c r="B193" s="16"/>
       <c r="C193" s="7" t="s">
         <v>280</v>
       </c>
@@ -13805,7 +13960,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="7"/>
-      <c r="B194" s="19"/>
+      <c r="B194" s="16"/>
       <c r="C194" s="7" t="s">
         <v>280</v>
       </c>
@@ -13825,7 +13980,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="7"/>
-      <c r="B195" s="19"/>
+      <c r="B195" s="16"/>
       <c r="C195" s="7" t="s">
         <v>280</v>
       </c>
@@ -13845,7 +14000,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="7"/>
-      <c r="B196" s="19"/>
+      <c r="B196" s="16"/>
       <c r="C196" s="7" t="s">
         <v>280</v>
       </c>
@@ -13865,7 +14020,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="7"/>
-      <c r="B197" s="19"/>
+      <c r="B197" s="16"/>
       <c r="C197" s="7" t="s">
         <v>280</v>
       </c>
@@ -13885,7 +14040,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="7"/>
-      <c r="B198" s="19"/>
+      <c r="B198" s="16"/>
       <c r="C198" s="7" t="s">
         <v>280</v>
       </c>
@@ -13905,7 +14060,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="7"/>
-      <c r="B199" s="19"/>
+      <c r="B199" s="16"/>
       <c r="C199" s="7" t="s">
         <v>280</v>
       </c>
@@ -13925,7 +14080,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="7"/>
-      <c r="B200" s="19"/>
+      <c r="B200" s="16"/>
       <c r="C200" s="7" t="s">
         <v>280</v>
       </c>
@@ -13945,7 +14100,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="7"/>
-      <c r="B201" s="19"/>
+      <c r="B201" s="16"/>
       <c r="C201" s="7" t="s">
         <v>280</v>
       </c>
@@ -13965,7 +14120,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="7"/>
-      <c r="B202" s="19"/>
+      <c r="B202" s="16"/>
       <c r="C202" s="7" t="s">
         <v>280</v>
       </c>
@@ -13985,7 +14140,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="7"/>
-      <c r="B203" s="19"/>
+      <c r="B203" s="16"/>
       <c r="C203" s="7" t="s">
         <v>280</v>
       </c>
@@ -14005,7 +14160,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="7"/>
-      <c r="B204" s="19"/>
+      <c r="B204" s="16"/>
       <c r="C204" s="7" t="s">
         <v>280</v>
       </c>
@@ -14025,7 +14180,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="7"/>
-      <c r="B205" s="19"/>
+      <c r="B205" s="16"/>
       <c r="C205" s="7" t="s">
         <v>280</v>
       </c>
@@ -14045,7 +14200,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="7"/>
-      <c r="B206" s="19"/>
+      <c r="B206" s="16"/>
       <c r="C206" s="7" t="s">
         <v>280</v>
       </c>
@@ -14065,7 +14220,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="7"/>
-      <c r="B207" s="19"/>
+      <c r="B207" s="16"/>
       <c r="C207" s="7" t="s">
         <v>280</v>
       </c>
@@ -14085,7 +14240,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="7"/>
-      <c r="B208" s="19"/>
+      <c r="B208" s="16"/>
       <c r="C208" s="7" t="s">
         <v>280</v>
       </c>
@@ -14105,7 +14260,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="7"/>
-      <c r="B209" s="19"/>
+      <c r="B209" s="16"/>
       <c r="C209" s="7" t="s">
         <v>280</v>
       </c>
@@ -14125,7 +14280,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="7"/>
-      <c r="B210" s="19"/>
+      <c r="B210" s="16"/>
       <c r="C210" s="7" t="s">
         <v>280</v>
       </c>
@@ -14145,7 +14300,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="7"/>
-      <c r="B211" s="19"/>
+      <c r="B211" s="16"/>
       <c r="C211" s="7" t="s">
         <v>280</v>
       </c>
@@ -14165,7 +14320,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="7"/>
-      <c r="B212" s="19"/>
+      <c r="B212" s="16"/>
       <c r="C212" s="7" t="s">
         <v>280</v>
       </c>
@@ -14185,7 +14340,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="7"/>
-      <c r="B213" s="19"/>
+      <c r="B213" s="16"/>
       <c r="C213" s="7" t="s">
         <v>280</v>
       </c>
@@ -14205,7 +14360,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="7"/>
-      <c r="B214" s="19"/>
+      <c r="B214" s="16"/>
       <c r="C214" s="7" t="s">
         <v>280</v>
       </c>
@@ -14225,7 +14380,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="7"/>
-      <c r="B215" s="19"/>
+      <c r="B215" s="16"/>
       <c r="C215" s="7" t="s">
         <v>280</v>
       </c>
@@ -14245,7 +14400,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="7"/>
-      <c r="B216" s="19"/>
+      <c r="B216" s="16"/>
       <c r="C216" s="7" t="s">
         <v>280</v>
       </c>
@@ -14265,7 +14420,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="7"/>
-      <c r="B217" s="19"/>
+      <c r="B217" s="16"/>
       <c r="C217" s="7" t="s">
         <v>280</v>
       </c>
@@ -14285,7 +14440,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="7"/>
-      <c r="B218" s="19"/>
+      <c r="B218" s="16"/>
       <c r="C218" s="7" t="s">
         <v>280</v>
       </c>
@@ -14305,7 +14460,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="7"/>
-      <c r="B219" s="19"/>
+      <c r="B219" s="16"/>
       <c r="C219" s="7" t="s">
         <v>280</v>
       </c>
@@ -14325,7 +14480,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="7"/>
-      <c r="B220" s="19"/>
+      <c r="B220" s="16"/>
       <c r="C220" s="7" t="s">
         <v>280</v>
       </c>
@@ -14487,7 +14642,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="7"/>
-      <c r="B228" s="19" t="s">
+      <c r="B228" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C228" s="7" t="s">
@@ -14509,7 +14664,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="7"/>
-      <c r="B229" s="19"/>
+      <c r="B229" s="16"/>
       <c r="C229" s="7" t="s">
         <v>430</v>
       </c>
@@ -14529,7 +14684,7 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="7"/>
-      <c r="B230" s="19"/>
+      <c r="B230" s="16"/>
       <c r="C230" s="7" t="s">
         <v>430</v>
       </c>
@@ -14549,7 +14704,7 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="7"/>
-      <c r="B231" s="19"/>
+      <c r="B231" s="16"/>
       <c r="C231" s="7" t="s">
         <v>430</v>
       </c>
@@ -14569,7 +14724,7 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="7"/>
-      <c r="B232" s="19"/>
+      <c r="B232" s="16"/>
       <c r="C232" s="7" t="s">
         <v>430</v>
       </c>
@@ -14589,7 +14744,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="7"/>
-      <c r="B233" s="19"/>
+      <c r="B233" s="16"/>
       <c r="C233" s="7" t="s">
         <v>430</v>
       </c>
@@ -14609,7 +14764,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="7"/>
-      <c r="B234" s="19"/>
+      <c r="B234" s="16"/>
       <c r="C234" s="7" t="s">
         <v>430</v>
       </c>
@@ -14629,7 +14784,7 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="7"/>
-      <c r="B235" s="19"/>
+      <c r="B235" s="16"/>
       <c r="C235" s="7" t="s">
         <v>430</v>
       </c>
@@ -14649,7 +14804,7 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="7"/>
-      <c r="B236" s="19"/>
+      <c r="B236" s="16"/>
       <c r="C236" s="7" t="s">
         <v>566</v>
       </c>
@@ -14669,7 +14824,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="7"/>
-      <c r="B237" s="19"/>
+      <c r="B237" s="16"/>
       <c r="C237" s="7" t="s">
         <v>430</v>
       </c>
@@ -14689,7 +14844,7 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="7"/>
-      <c r="B238" s="19"/>
+      <c r="B238" s="16"/>
       <c r="C238" s="7" t="s">
         <v>430</v>
       </c>
@@ -14709,7 +14864,7 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="7"/>
-      <c r="B239" s="19"/>
+      <c r="B239" s="16"/>
       <c r="C239" s="7" t="s">
         <v>430</v>
       </c>
@@ -14729,7 +14884,7 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="7"/>
-      <c r="B240" s="19"/>
+      <c r="B240" s="16"/>
       <c r="C240" s="7" t="s">
         <v>430</v>
       </c>
@@ -14749,7 +14904,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="7"/>
-      <c r="B241" s="19"/>
+      <c r="B241" s="16"/>
       <c r="C241" s="7" t="s">
         <v>430</v>
       </c>
@@ -14769,7 +14924,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="7"/>
-      <c r="B242" s="19"/>
+      <c r="B242" s="16"/>
       <c r="C242" s="7" t="s">
         <v>430</v>
       </c>
@@ -14789,7 +14944,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="7"/>
-      <c r="B243" s="19"/>
+      <c r="B243" s="16"/>
       <c r="C243" s="7" t="s">
         <v>430</v>
       </c>
@@ -14809,7 +14964,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="7"/>
-      <c r="B244" s="19"/>
+      <c r="B244" s="16"/>
       <c r="C244" s="7" t="s">
         <v>430</v>
       </c>
@@ -14829,7 +14984,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="7"/>
-      <c r="B245" s="19"/>
+      <c r="B245" s="16"/>
       <c r="C245" s="7" t="s">
         <v>430</v>
       </c>
@@ -14849,7 +15004,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="7"/>
-      <c r="B246" s="19"/>
+      <c r="B246" s="16"/>
       <c r="C246" s="7" t="s">
         <v>430</v>
       </c>
@@ -14869,7 +15024,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="7"/>
-      <c r="B247" s="19"/>
+      <c r="B247" s="16"/>
       <c r="C247" s="7" t="s">
         <v>430</v>
       </c>
@@ -14889,7 +15044,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="7"/>
-      <c r="B248" s="19"/>
+      <c r="B248" s="16"/>
       <c r="C248" s="7" t="s">
         <v>430</v>
       </c>
@@ -14909,7 +15064,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="7"/>
-      <c r="B249" s="19"/>
+      <c r="B249" s="16"/>
       <c r="C249" s="7" t="s">
         <v>430</v>
       </c>
@@ -14929,7 +15084,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="7"/>
-      <c r="B250" s="19"/>
+      <c r="B250" s="16"/>
       <c r="C250" s="7" t="s">
         <v>430</v>
       </c>
@@ -14949,7 +15104,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="7"/>
-      <c r="B251" s="19"/>
+      <c r="B251" s="16"/>
       <c r="C251" s="7" t="s">
         <v>430</v>
       </c>
@@ -14969,7 +15124,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="7"/>
-      <c r="B252" s="19"/>
+      <c r="B252" s="16"/>
       <c r="C252" s="7" t="s">
         <v>430</v>
       </c>
@@ -14989,7 +15144,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="7"/>
-      <c r="B253" s="19"/>
+      <c r="B253" s="16"/>
       <c r="C253" s="7" t="s">
         <v>430</v>
       </c>
@@ -15009,7 +15164,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="7"/>
-      <c r="B254" s="19"/>
+      <c r="B254" s="16"/>
       <c r="C254" s="7" t="s">
         <v>430</v>
       </c>
@@ -15029,7 +15184,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="7"/>
-      <c r="B255" s="19"/>
+      <c r="B255" s="16"/>
       <c r="C255" s="7" t="s">
         <v>430</v>
       </c>
@@ -15049,7 +15204,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="7"/>
-      <c r="B256" s="19"/>
+      <c r="B256" s="16"/>
       <c r="C256" s="7" t="s">
         <v>430</v>
       </c>
@@ -15069,7 +15224,7 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="7"/>
-      <c r="B257" s="19"/>
+      <c r="B257" s="16"/>
       <c r="C257" s="7" t="s">
         <v>430</v>
       </c>
@@ -15089,7 +15244,7 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="7"/>
-      <c r="B258" s="19"/>
+      <c r="B258" s="16"/>
       <c r="C258" s="7" t="s">
         <v>430</v>
       </c>
@@ -15109,7 +15264,7 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="7"/>
-      <c r="B259" s="19"/>
+      <c r="B259" s="16"/>
       <c r="C259" s="7" t="s">
         <v>430</v>
       </c>
@@ -15229,7 +15384,7 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="7"/>
-      <c r="B265" s="19" t="s">
+      <c r="B265" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C265" s="7" t="s">
@@ -15250,7 +15405,7 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="7"/>
-      <c r="B266" s="19"/>
+      <c r="B266" s="16"/>
       <c r="C266" s="7" t="s">
         <v>504</v>
       </c>
@@ -15269,7 +15424,7 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="7"/>
-      <c r="B267" s="19"/>
+      <c r="B267" s="16"/>
       <c r="C267" s="7" t="s">
         <v>504</v>
       </c>
@@ -15288,7 +15443,7 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="7"/>
-      <c r="B268" s="19"/>
+      <c r="B268" s="16"/>
       <c r="C268" s="7" t="s">
         <v>504</v>
       </c>
@@ -15307,7 +15462,7 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="7"/>
-      <c r="B269" s="19"/>
+      <c r="B269" s="16"/>
       <c r="C269" s="7" t="s">
         <v>504</v>
       </c>
@@ -15326,7 +15481,7 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="7"/>
-      <c r="B270" s="19" t="s">
+      <c r="B270" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C270" s="7" t="s">
@@ -15347,7 +15502,7 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="7"/>
-      <c r="B271" s="19"/>
+      <c r="B271" s="16"/>
       <c r="C271" s="7" t="s">
         <v>513</v>
       </c>
@@ -15366,7 +15521,7 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="7"/>
-      <c r="B272" s="19"/>
+      <c r="B272" s="16"/>
       <c r="C272" s="7" t="s">
         <v>513</v>
       </c>
@@ -15385,7 +15540,7 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="7"/>
-      <c r="B273" s="19"/>
+      <c r="B273" s="16"/>
       <c r="C273" s="7" t="s">
         <v>513</v>
       </c>
@@ -15404,7 +15559,7 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="7"/>
-      <c r="B274" s="19"/>
+      <c r="B274" s="16"/>
       <c r="C274" s="7" t="s">
         <v>513</v>
       </c>
@@ -15423,7 +15578,7 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="7"/>
-      <c r="B275" s="19"/>
+      <c r="B275" s="16"/>
       <c r="C275" s="7" t="s">
         <v>513</v>
       </c>
@@ -15442,7 +15597,7 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="7"/>
-      <c r="B276" s="19" t="s">
+      <c r="B276" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C276" s="7" t="s">
@@ -15463,7 +15618,7 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="7"/>
-      <c r="B277" s="19"/>
+      <c r="B277" s="16"/>
       <c r="C277" s="7" t="s">
         <v>526</v>
       </c>
@@ -15482,7 +15637,7 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="7"/>
-      <c r="B278" s="19"/>
+      <c r="B278" s="16"/>
       <c r="C278" s="7" t="s">
         <v>526</v>
       </c>
@@ -15501,7 +15656,7 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="7"/>
-      <c r="B279" s="19"/>
+      <c r="B279" s="16"/>
       <c r="C279" s="7" t="s">
         <v>526</v>
       </c>
@@ -15520,7 +15675,7 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="7"/>
-      <c r="B280" s="19"/>
+      <c r="B280" s="16"/>
       <c r="C280" s="7" t="s">
         <v>526</v>
       </c>
@@ -16154,6 +16309,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B276:B280"/>
+    <mergeCell ref="B153:B220"/>
+    <mergeCell ref="B221:B227"/>
+    <mergeCell ref="B228:B259"/>
+    <mergeCell ref="B260:B264"/>
+    <mergeCell ref="B265:B269"/>
+    <mergeCell ref="B270:B275"/>
     <mergeCell ref="B149:B152"/>
     <mergeCell ref="B2:B44"/>
     <mergeCell ref="B45:B51"/>
@@ -16161,13 +16323,6 @@
     <mergeCell ref="B52:B76"/>
     <mergeCell ref="B104:B148"/>
     <mergeCell ref="B77:B99"/>
-    <mergeCell ref="B276:B280"/>
-    <mergeCell ref="B153:B220"/>
-    <mergeCell ref="B221:B227"/>
-    <mergeCell ref="B228:B259"/>
-    <mergeCell ref="B260:B264"/>
-    <mergeCell ref="B265:B269"/>
-    <mergeCell ref="B270:B275"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16222,7 +16377,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>567</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -16244,7 +16399,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
-      <c r="B3" s="19"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="10" t="s">
         <v>568</v>
       </c>
@@ -16264,7 +16419,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
-      <c r="B4" s="19"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="10" t="s">
         <v>568</v>
       </c>
@@ -16284,7 +16439,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
-      <c r="B5" s="19"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="10" t="s">
         <v>568</v>
       </c>
@@ -16304,7 +16459,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
-      <c r="B6" s="19"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="10" t="s">
         <v>568</v>
       </c>
@@ -16324,7 +16479,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
-      <c r="B7" s="19"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="10" t="s">
         <v>568</v>
       </c>
@@ -16344,7 +16499,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
-      <c r="B8" s="19"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="10" t="s">
         <v>568</v>
       </c>
@@ -16364,7 +16519,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
-      <c r="B9" s="19"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="10" t="s">
         <v>568</v>
       </c>
@@ -16675,7 +16830,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="16" t="s">
         <v>567</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -16696,7 +16851,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
-      <c r="B25" s="19"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="10" t="s">
         <v>615</v>
       </c>
@@ -16715,7 +16870,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
-      <c r="B26" s="19"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="10" t="s">
         <v>615</v>
       </c>
@@ -16734,7 +16889,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
-      <c r="B27" s="19"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="10" t="s">
         <v>615</v>
       </c>
@@ -16753,7 +16908,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
-      <c r="B28" s="19"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="10" t="s">
         <v>1035</v>
       </c>
@@ -16772,7 +16927,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
-      <c r="B29" s="19"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="10" t="s">
         <v>615</v>
       </c>
@@ -16791,7 +16946,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
-      <c r="B30" s="19"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="10" t="s">
         <v>615</v>
       </c>
@@ -16810,7 +16965,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="16" t="s">
         <v>1036</v>
       </c>
       <c r="C31" s="10" t="s">
@@ -16831,7 +16986,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
-      <c r="B32" s="19"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="10" t="s">
         <v>630</v>
       </c>
@@ -16850,7 +17005,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
-      <c r="B33" s="19"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="10" t="s">
         <v>630</v>
       </c>
@@ -16869,7 +17024,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
-      <c r="B34" s="19"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="10" t="s">
         <v>1037</v>
       </c>
@@ -16888,7 +17043,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
-      <c r="B35" s="19"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="10" t="s">
         <v>630</v>
       </c>
@@ -16907,7 +17062,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
-      <c r="B36" s="19"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="10" t="s">
         <v>630</v>
       </c>
@@ -16926,7 +17081,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
-      <c r="B37" s="19"/>
+      <c r="B37" s="16"/>
       <c r="C37" s="10" t="s">
         <v>630</v>
       </c>
@@ -16945,7 +17100,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="16" t="s">
         <v>567</v>
       </c>
       <c r="C38" s="10" t="s">
@@ -16966,7 +17121,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
-      <c r="B39" s="19"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="10" t="s">
         <v>645</v>
       </c>
@@ -16985,7 +17140,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
-      <c r="B40" s="19"/>
+      <c r="B40" s="16"/>
       <c r="C40" s="10" t="s">
         <v>645</v>
       </c>
@@ -17004,7 +17159,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
-      <c r="B41" s="19"/>
+      <c r="B41" s="16"/>
       <c r="C41" s="10" t="s">
         <v>645</v>
       </c>
@@ -17023,7 +17178,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="16" t="s">
         <v>567</v>
       </c>
       <c r="C42" s="10" t="s">
@@ -17044,7 +17199,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
-      <c r="B43" s="19"/>
+      <c r="B43" s="16"/>
       <c r="C43" s="10" t="s">
         <v>654</v>
       </c>
@@ -17063,7 +17218,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
-      <c r="B44" s="19"/>
+      <c r="B44" s="16"/>
       <c r="C44" s="10" t="s">
         <v>654</v>
       </c>
@@ -17082,7 +17237,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
-      <c r="B45" s="19"/>
+      <c r="B45" s="16"/>
       <c r="C45" s="10" t="s">
         <v>1038</v>
       </c>
@@ -17101,7 +17256,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
-      <c r="B46" s="19"/>
+      <c r="B46" s="16"/>
       <c r="C46" s="10" t="s">
         <v>654</v>
       </c>
@@ -17120,7 +17275,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
-      <c r="B47" s="19"/>
+      <c r="B47" s="16"/>
       <c r="C47" s="10" t="s">
         <v>654</v>
       </c>
@@ -17139,7 +17294,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
-      <c r="B48" s="19"/>
+      <c r="B48" s="16"/>
       <c r="C48" s="10" t="s">
         <v>654</v>
       </c>
@@ -17158,7 +17313,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
-      <c r="B49" s="19"/>
+      <c r="B49" s="16"/>
       <c r="C49" s="10" t="s">
         <v>654</v>
       </c>
@@ -17177,7 +17332,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
-      <c r="B50" s="19"/>
+      <c r="B50" s="16"/>
       <c r="C50" s="10" t="s">
         <v>654</v>
       </c>
@@ -17196,7 +17351,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
-      <c r="B51" s="19"/>
+      <c r="B51" s="16"/>
       <c r="C51" s="10" t="s">
         <v>654</v>
       </c>
@@ -17215,7 +17370,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
-      <c r="B52" s="19"/>
+      <c r="B52" s="16"/>
       <c r="C52" s="10" t="s">
         <v>654</v>
       </c>
@@ -17234,7 +17389,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="16" t="s">
         <v>567</v>
       </c>
       <c r="C53" s="10" t="s">
@@ -17255,7 +17410,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
-      <c r="B54" s="19"/>
+      <c r="B54" s="16"/>
       <c r="C54" s="10" t="s">
         <v>676</v>
       </c>
@@ -17274,7 +17429,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
-      <c r="B55" s="19"/>
+      <c r="B55" s="16"/>
       <c r="C55" s="10" t="s">
         <v>1039</v>
       </c>
@@ -17293,7 +17448,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
-      <c r="B56" s="19"/>
+      <c r="B56" s="16"/>
       <c r="C56" s="10" t="s">
         <v>676</v>
       </c>
@@ -17312,7 +17467,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
-      <c r="B57" s="19" t="s">
+      <c r="B57" s="16" t="s">
         <v>567</v>
       </c>
       <c r="C57" s="10" t="s">
@@ -17333,7 +17488,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
-      <c r="B58" s="19"/>
+      <c r="B58" s="16"/>
       <c r="C58" s="10" t="s">
         <v>684</v>
       </c>
@@ -17352,7 +17507,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
-      <c r="B59" s="19"/>
+      <c r="B59" s="16"/>
       <c r="C59" s="10" t="s">
         <v>684</v>
       </c>
@@ -17371,7 +17526,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
-      <c r="B60" s="19"/>
+      <c r="B60" s="16"/>
       <c r="C60" s="10" t="s">
         <v>684</v>
       </c>
@@ -17390,7 +17545,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="10"/>
-      <c r="B61" s="19"/>
+      <c r="B61" s="16"/>
       <c r="C61" s="10" t="s">
         <v>684</v>
       </c>
@@ -17409,7 +17564,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="10"/>
-      <c r="B62" s="19"/>
+      <c r="B62" s="16"/>
       <c r="C62" s="10" t="s">
         <v>684</v>
       </c>
@@ -17428,7 +17583,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
-      <c r="B63" s="19"/>
+      <c r="B63" s="16"/>
       <c r="C63" s="10" t="s">
         <v>684</v>
       </c>
@@ -17447,7 +17602,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="10"/>
-      <c r="B64" s="19"/>
+      <c r="B64" s="16"/>
       <c r="C64" s="10" t="s">
         <v>684</v>
       </c>
@@ -17466,7 +17621,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="10"/>
-      <c r="B65" s="19"/>
+      <c r="B65" s="16"/>
       <c r="C65" s="10" t="s">
         <v>684</v>
       </c>
@@ -17485,7 +17640,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="10"/>
-      <c r="B66" s="19"/>
+      <c r="B66" s="16"/>
       <c r="C66" s="10" t="s">
         <v>684</v>
       </c>
@@ -17504,7 +17659,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="10"/>
-      <c r="B67" s="19"/>
+      <c r="B67" s="16"/>
       <c r="C67" s="10" t="s">
         <v>684</v>
       </c>
@@ -17523,7 +17678,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="10"/>
-      <c r="B68" s="19"/>
+      <c r="B68" s="16"/>
       <c r="C68" s="10" t="s">
         <v>684</v>
       </c>
@@ -17542,7 +17697,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
-      <c r="B69" s="19"/>
+      <c r="B69" s="16"/>
       <c r="C69" s="10" t="s">
         <v>1040</v>
       </c>
@@ -17561,7 +17716,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="10"/>
-      <c r="B70" s="19"/>
+      <c r="B70" s="16"/>
       <c r="C70" s="10" t="s">
         <v>684</v>
       </c>
@@ -17580,7 +17735,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="10"/>
-      <c r="B71" s="19"/>
+      <c r="B71" s="16"/>
       <c r="C71" s="10" t="s">
         <v>684</v>
       </c>
@@ -17599,7 +17754,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="10"/>
-      <c r="B72" s="19"/>
+      <c r="B72" s="16"/>
       <c r="C72" s="10" t="s">
         <v>684</v>
       </c>
@@ -17618,7 +17773,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="10"/>
-      <c r="B73" s="19"/>
+      <c r="B73" s="16"/>
       <c r="C73" s="10" t="s">
         <v>684</v>
       </c>
@@ -17637,7 +17792,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="10"/>
-      <c r="B74" s="19"/>
+      <c r="B74" s="16"/>
       <c r="C74" s="10" t="s">
         <v>684</v>
       </c>
@@ -17656,7 +17811,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="10"/>
-      <c r="B75" s="19"/>
+      <c r="B75" s="16"/>
       <c r="C75" s="10" t="s">
         <v>684</v>
       </c>
@@ -17675,7 +17830,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="10"/>
-      <c r="B76" s="19"/>
+      <c r="B76" s="16"/>
       <c r="C76" s="10" t="s">
         <v>684</v>
       </c>
@@ -17694,7 +17849,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="10"/>
-      <c r="B77" s="19"/>
+      <c r="B77" s="16"/>
       <c r="C77" s="10" t="s">
         <v>684</v>
       </c>
@@ -17713,7 +17868,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="10"/>
-      <c r="B78" s="19" t="s">
+      <c r="B78" s="16" t="s">
         <v>567</v>
       </c>
       <c r="C78" s="10" t="s">
@@ -17737,7 +17892,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="10"/>
-      <c r="B79" s="19"/>
+      <c r="B79" s="16"/>
       <c r="C79" s="10" t="s">
         <v>727</v>
       </c>
@@ -17759,7 +17914,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="10"/>
-      <c r="B80" s="19"/>
+      <c r="B80" s="16"/>
       <c r="C80" s="10" t="s">
         <v>727</v>
       </c>
@@ -17781,7 +17936,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="10"/>
-      <c r="B81" s="19"/>
+      <c r="B81" s="16"/>
       <c r="C81" s="10" t="s">
         <v>727</v>
       </c>
@@ -17803,7 +17958,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="10"/>
-      <c r="B82" s="19"/>
+      <c r="B82" s="16"/>
       <c r="C82" s="10" t="s">
         <v>727</v>
       </c>
@@ -17825,7 +17980,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="10"/>
-      <c r="B83" s="19"/>
+      <c r="B83" s="16"/>
       <c r="C83" s="10" t="s">
         <v>727</v>
       </c>
@@ -17847,7 +18002,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="10"/>
-      <c r="B84" s="19"/>
+      <c r="B84" s="16"/>
       <c r="C84" s="10" t="s">
         <v>1041</v>
       </c>
@@ -17869,7 +18024,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="10"/>
-      <c r="B85" s="19"/>
+      <c r="B85" s="16"/>
       <c r="C85" s="10" t="s">
         <v>727</v>
       </c>
@@ -17891,7 +18046,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="10"/>
-      <c r="B86" s="19"/>
+      <c r="B86" s="16"/>
       <c r="C86" s="10" t="s">
         <v>727</v>
       </c>
@@ -17913,7 +18068,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="10"/>
-      <c r="B87" s="19"/>
+      <c r="B87" s="16"/>
       <c r="C87" s="10" t="s">
         <v>727</v>
       </c>
@@ -17935,7 +18090,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="10"/>
-      <c r="B88" s="19"/>
+      <c r="B88" s="16"/>
       <c r="C88" s="10" t="s">
         <v>727</v>
       </c>
@@ -17957,7 +18112,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="10"/>
-      <c r="B89" s="19"/>
+      <c r="B89" s="16"/>
       <c r="C89" s="10" t="s">
         <v>727</v>
       </c>
@@ -17979,7 +18134,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="10"/>
-      <c r="B90" s="19"/>
+      <c r="B90" s="16"/>
       <c r="C90" s="10" t="s">
         <v>727</v>
       </c>
@@ -18001,7 +18156,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="10"/>
-      <c r="B91" s="19"/>
+      <c r="B91" s="16"/>
       <c r="C91" s="10" t="s">
         <v>727</v>
       </c>
@@ -18023,7 +18178,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="10"/>
-      <c r="B92" s="19"/>
+      <c r="B92" s="16"/>
       <c r="C92" s="10" t="s">
         <v>727</v>
       </c>
@@ -18045,7 +18200,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="10"/>
-      <c r="B93" s="19"/>
+      <c r="B93" s="16"/>
       <c r="C93" s="10" t="s">
         <v>727</v>
       </c>
@@ -18067,7 +18222,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="10"/>
-      <c r="B94" s="19"/>
+      <c r="B94" s="16"/>
       <c r="C94" s="10" t="s">
         <v>727</v>
       </c>
@@ -19089,7 +19244,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="10"/>
-      <c r="B146" s="19" t="s">
+      <c r="B146" s="16" t="s">
         <v>1036</v>
       </c>
       <c r="C146" s="10" t="s">
@@ -19111,7 +19266,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="10"/>
-      <c r="B147" s="19"/>
+      <c r="B147" s="16"/>
       <c r="C147" s="10" t="s">
         <v>853</v>
       </c>
@@ -19131,7 +19286,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="10"/>
-      <c r="B148" s="19"/>
+      <c r="B148" s="16"/>
       <c r="C148" s="10" t="s">
         <v>853</v>
       </c>
@@ -19151,7 +19306,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="10"/>
-      <c r="B149" s="19"/>
+      <c r="B149" s="16"/>
       <c r="C149" s="10" t="s">
         <v>853</v>
       </c>
@@ -19171,7 +19326,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="10"/>
-      <c r="B150" s="19"/>
+      <c r="B150" s="16"/>
       <c r="C150" s="10" t="s">
         <v>1045</v>
       </c>
@@ -19191,7 +19346,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="10"/>
-      <c r="B151" s="19"/>
+      <c r="B151" s="16"/>
       <c r="C151" s="10" t="s">
         <v>853</v>
       </c>
@@ -19211,7 +19366,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="10"/>
-      <c r="B152" s="19"/>
+      <c r="B152" s="16"/>
       <c r="C152" s="10" t="s">
         <v>853</v>
       </c>
@@ -19231,7 +19386,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="10"/>
-      <c r="B153" s="19"/>
+      <c r="B153" s="16"/>
       <c r="C153" s="10" t="s">
         <v>853</v>
       </c>
@@ -19251,7 +19406,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="10"/>
-      <c r="B154" s="19"/>
+      <c r="B154" s="16"/>
       <c r="C154" s="10" t="s">
         <v>853</v>
       </c>
@@ -19271,7 +19426,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="10"/>
-      <c r="B155" s="19"/>
+      <c r="B155" s="16"/>
       <c r="C155" s="10" t="s">
         <v>853</v>
       </c>
@@ -19291,7 +19446,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="10"/>
-      <c r="B156" s="19" t="s">
+      <c r="B156" s="16" t="s">
         <v>567</v>
       </c>
       <c r="C156" s="10" t="s">
@@ -19313,7 +19468,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="10"/>
-      <c r="B157" s="19"/>
+      <c r="B157" s="16"/>
       <c r="C157" s="10" t="s">
         <v>874</v>
       </c>
@@ -19333,7 +19488,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="10"/>
-      <c r="B158" s="19"/>
+      <c r="B158" s="16"/>
       <c r="C158" s="10" t="s">
         <v>874</v>
       </c>
@@ -19353,7 +19508,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="10"/>
-      <c r="B159" s="19"/>
+      <c r="B159" s="16"/>
       <c r="C159" s="10" t="s">
         <v>1046</v>
       </c>
@@ -19373,7 +19528,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="10"/>
-      <c r="B160" s="19"/>
+      <c r="B160" s="16"/>
       <c r="C160" s="10" t="s">
         <v>874</v>
       </c>
@@ -19393,7 +19548,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="10"/>
-      <c r="B161" s="19"/>
+      <c r="B161" s="16"/>
       <c r="C161" s="10" t="s">
         <v>874</v>
       </c>
@@ -19412,7 +19567,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="10"/>
-      <c r="B162" s="19"/>
+      <c r="B162" s="16"/>
       <c r="C162" s="10" t="s">
         <v>874</v>
       </c>
@@ -19431,7 +19586,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="10"/>
-      <c r="B163" s="19"/>
+      <c r="B163" s="16"/>
       <c r="C163" s="10" t="s">
         <v>874</v>
       </c>
@@ -19450,7 +19605,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="10"/>
-      <c r="B164" s="19"/>
+      <c r="B164" s="16"/>
       <c r="C164" s="10" t="s">
         <v>874</v>
       </c>
@@ -19469,7 +19624,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="10"/>
-      <c r="B165" s="19"/>
+      <c r="B165" s="16"/>
       <c r="C165" s="10" t="s">
         <v>874</v>
       </c>
@@ -19488,7 +19643,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="10"/>
-      <c r="B166" s="19"/>
+      <c r="B166" s="16"/>
       <c r="C166" s="10" t="s">
         <v>874</v>
       </c>
@@ -19507,7 +19662,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="10"/>
-      <c r="B167" s="19"/>
+      <c r="B167" s="16"/>
       <c r="C167" s="10" t="s">
         <v>874</v>
       </c>
@@ -19526,7 +19681,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="10"/>
-      <c r="B168" s="19"/>
+      <c r="B168" s="16"/>
       <c r="C168" s="10" t="s">
         <v>874</v>
       </c>
@@ -19545,7 +19700,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="10"/>
-      <c r="B169" s="19"/>
+      <c r="B169" s="16"/>
       <c r="C169" s="10" t="s">
         <v>874</v>
       </c>
@@ -19564,7 +19719,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="10"/>
-      <c r="B170" s="19"/>
+      <c r="B170" s="16"/>
       <c r="C170" s="10" t="s">
         <v>874</v>
       </c>
@@ -19583,7 +19738,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="10"/>
-      <c r="B171" s="19"/>
+      <c r="B171" s="16"/>
       <c r="C171" s="10" t="s">
         <v>874</v>
       </c>
@@ -19602,7 +19757,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="10"/>
-      <c r="B172" s="19"/>
+      <c r="B172" s="16"/>
       <c r="C172" s="10" t="s">
         <v>874</v>
       </c>
@@ -19621,7 +19776,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="10"/>
-      <c r="B173" s="19"/>
+      <c r="B173" s="16"/>
       <c r="C173" s="10" t="s">
         <v>874</v>
       </c>
@@ -19641,7 +19796,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="10"/>
-      <c r="B174" s="19"/>
+      <c r="B174" s="16"/>
       <c r="C174" s="10" t="s">
         <v>874</v>
       </c>
@@ -19660,7 +19815,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="10"/>
-      <c r="B175" s="19"/>
+      <c r="B175" s="16"/>
       <c r="C175" s="10" t="s">
         <v>874</v>
       </c>
@@ -19679,7 +19834,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="10"/>
-      <c r="B176" s="19"/>
+      <c r="B176" s="16"/>
       <c r="C176" s="10" t="s">
         <v>874</v>
       </c>
@@ -19698,7 +19853,7 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="10"/>
-      <c r="B177" s="19" t="s">
+      <c r="B177" s="16" t="s">
         <v>1036</v>
       </c>
       <c r="C177" s="10" t="s">
@@ -19719,7 +19874,7 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="10"/>
-      <c r="B178" s="19"/>
+      <c r="B178" s="16"/>
       <c r="C178" s="10" t="s">
         <v>917</v>
       </c>
@@ -19738,7 +19893,7 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="10"/>
-      <c r="B179" s="19"/>
+      <c r="B179" s="16"/>
       <c r="C179" s="10" t="s">
         <v>917</v>
       </c>
@@ -19757,7 +19912,7 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="10"/>
-      <c r="B180" s="19"/>
+      <c r="B180" s="16"/>
       <c r="C180" s="10" t="s">
         <v>1047</v>
       </c>
@@ -19776,7 +19931,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="10"/>
-      <c r="B181" s="19"/>
+      <c r="B181" s="16"/>
       <c r="C181" s="10" t="s">
         <v>917</v>
       </c>
@@ -19795,7 +19950,7 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="10"/>
-      <c r="B182" s="19"/>
+      <c r="B182" s="16"/>
       <c r="C182" s="10" t="s">
         <v>917</v>
       </c>
@@ -19814,7 +19969,7 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="10"/>
-      <c r="B183" s="19"/>
+      <c r="B183" s="16"/>
       <c r="C183" s="10" t="s">
         <v>917</v>
       </c>
@@ -19833,7 +19988,7 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="10"/>
-      <c r="B184" s="19"/>
+      <c r="B184" s="16"/>
       <c r="C184" s="10" t="s">
         <v>917</v>
       </c>
@@ -19852,7 +20007,7 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="10"/>
-      <c r="B185" s="19"/>
+      <c r="B185" s="16"/>
       <c r="C185" s="10" t="s">
         <v>917</v>
       </c>
@@ -19871,7 +20026,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="10"/>
-      <c r="B186" s="19" t="s">
+      <c r="B186" s="16" t="s">
         <v>567</v>
       </c>
       <c r="C186" s="10" t="s">
@@ -19892,7 +20047,7 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="10"/>
-      <c r="B187" s="19"/>
+      <c r="B187" s="16"/>
       <c r="C187" s="10" t="s">
         <v>936</v>
       </c>
@@ -19911,7 +20066,7 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="10"/>
-      <c r="B188" s="19"/>
+      <c r="B188" s="16"/>
       <c r="C188" s="10" t="s">
         <v>936</v>
       </c>
@@ -19930,7 +20085,7 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="10"/>
-      <c r="B189" s="19"/>
+      <c r="B189" s="16"/>
       <c r="C189" s="10" t="s">
         <v>936</v>
       </c>
@@ -19949,7 +20104,7 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="10"/>
-      <c r="B190" s="19"/>
+      <c r="B190" s="16"/>
       <c r="C190" s="10" t="s">
         <v>936</v>
       </c>
@@ -19968,7 +20123,7 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="10"/>
-      <c r="B191" s="19"/>
+      <c r="B191" s="16"/>
       <c r="C191" s="10" t="s">
         <v>936</v>
       </c>
@@ -19987,7 +20142,7 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="10"/>
-      <c r="B192" s="19"/>
+      <c r="B192" s="16"/>
       <c r="C192" s="10" t="s">
         <v>936</v>
       </c>
@@ -20006,7 +20161,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="10"/>
-      <c r="B193" s="19"/>
+      <c r="B193" s="16"/>
       <c r="C193" s="10" t="s">
         <v>936</v>
       </c>
@@ -20026,7 +20181,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="10"/>
-      <c r="B194" s="19"/>
+      <c r="B194" s="16"/>
       <c r="C194" s="10" t="s">
         <v>1048</v>
       </c>
@@ -20045,7 +20200,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="10"/>
-      <c r="B195" s="19"/>
+      <c r="B195" s="16"/>
       <c r="C195" s="10" t="s">
         <v>936</v>
       </c>
@@ -20064,7 +20219,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="10"/>
-      <c r="B196" s="19"/>
+      <c r="B196" s="16"/>
       <c r="C196" s="10" t="s">
         <v>936</v>
       </c>
@@ -20083,7 +20238,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="10"/>
-      <c r="B197" s="19"/>
+      <c r="B197" s="16"/>
       <c r="C197" s="10" t="s">
         <v>936</v>
       </c>
@@ -20102,7 +20257,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="10"/>
-      <c r="B198" s="19"/>
+      <c r="B198" s="16"/>
       <c r="C198" s="10" t="s">
         <v>936</v>
       </c>
@@ -20121,7 +20276,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="10"/>
-      <c r="B199" s="19"/>
+      <c r="B199" s="16"/>
       <c r="C199" s="10" t="s">
         <v>936</v>
       </c>
@@ -20140,7 +20295,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="10"/>
-      <c r="B200" s="19" t="s">
+      <c r="B200" s="16" t="s">
         <v>1036</v>
       </c>
       <c r="C200" s="10" t="s">
@@ -20161,7 +20316,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="10"/>
-      <c r="B201" s="19"/>
+      <c r="B201" s="16"/>
       <c r="C201" s="10" t="s">
         <v>963</v>
       </c>
@@ -20180,7 +20335,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="10"/>
-      <c r="B202" s="19"/>
+      <c r="B202" s="16"/>
       <c r="C202" s="10" t="s">
         <v>963</v>
       </c>
@@ -20199,7 +20354,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="10"/>
-      <c r="B203" s="19"/>
+      <c r="B203" s="16"/>
       <c r="C203" s="10" t="s">
         <v>963</v>
       </c>
@@ -20218,7 +20373,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="10"/>
-      <c r="B204" s="19"/>
+      <c r="B204" s="16"/>
       <c r="C204" s="10" t="s">
         <v>963</v>
       </c>
@@ -20237,7 +20392,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="10"/>
-      <c r="B205" s="19"/>
+      <c r="B205" s="16"/>
       <c r="C205" s="10" t="s">
         <v>963</v>
       </c>
@@ -20256,7 +20411,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="10"/>
-      <c r="B206" s="19"/>
+      <c r="B206" s="16"/>
       <c r="C206" s="10" t="s">
         <v>1049</v>
       </c>
@@ -20275,7 +20430,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="10"/>
-      <c r="B207" s="19"/>
+      <c r="B207" s="16"/>
       <c r="C207" s="10" t="s">
         <v>963</v>
       </c>
@@ -20294,7 +20449,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="10"/>
-      <c r="B208" s="19"/>
+      <c r="B208" s="16"/>
       <c r="C208" s="10" t="s">
         <v>963</v>
       </c>
@@ -20313,7 +20468,7 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="10"/>
-      <c r="B209" s="19"/>
+      <c r="B209" s="16"/>
       <c r="C209" s="10" t="s">
         <v>963</v>
       </c>
@@ -20332,7 +20487,7 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="10"/>
-      <c r="B210" s="19"/>
+      <c r="B210" s="16"/>
       <c r="C210" s="10" t="s">
         <v>963</v>
       </c>
@@ -20351,7 +20506,7 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="10"/>
-      <c r="B211" s="19"/>
+      <c r="B211" s="16"/>
       <c r="C211" s="10" t="s">
         <v>963</v>
       </c>
@@ -20370,7 +20525,7 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="10"/>
-      <c r="B212" s="19"/>
+      <c r="B212" s="16"/>
       <c r="C212" s="10" t="s">
         <v>963</v>
       </c>
@@ -20389,7 +20544,7 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="10"/>
-      <c r="B213" s="19"/>
+      <c r="B213" s="16"/>
       <c r="C213" s="10" t="s">
         <v>963</v>
       </c>
@@ -20408,7 +20563,7 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="10"/>
-      <c r="B214" s="19"/>
+      <c r="B214" s="16"/>
       <c r="C214" s="10" t="s">
         <v>963</v>
       </c>
@@ -20427,7 +20582,7 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="10"/>
-      <c r="B215" s="19" t="s">
+      <c r="B215" s="16" t="s">
         <v>567</v>
       </c>
       <c r="C215" s="10" t="s">
@@ -20448,7 +20603,7 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="10"/>
-      <c r="B216" s="19"/>
+      <c r="B216" s="16"/>
       <c r="C216" s="10" t="s">
         <v>994</v>
       </c>
@@ -20467,7 +20622,7 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="10"/>
-      <c r="B217" s="19"/>
+      <c r="B217" s="16"/>
       <c r="C217" s="10" t="s">
         <v>994</v>
       </c>
@@ -20486,7 +20641,7 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="10"/>
-      <c r="B218" s="19"/>
+      <c r="B218" s="16"/>
       <c r="C218" s="10" t="s">
         <v>1050</v>
       </c>
@@ -20505,7 +20660,7 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="10"/>
-      <c r="B219" s="19"/>
+      <c r="B219" s="16"/>
       <c r="C219" s="10" t="s">
         <v>994</v>
       </c>
@@ -20524,7 +20679,7 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="10"/>
-      <c r="B220" s="19"/>
+      <c r="B220" s="16"/>
       <c r="C220" s="10" t="s">
         <v>994</v>
       </c>
@@ -20543,7 +20698,7 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="10"/>
-      <c r="B221" s="19"/>
+      <c r="B221" s="16"/>
       <c r="C221" s="10" t="s">
         <v>994</v>
       </c>
@@ -20562,7 +20717,7 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="10"/>
-      <c r="B222" s="19"/>
+      <c r="B222" s="16"/>
       <c r="C222" s="10" t="s">
         <v>994</v>
       </c>
@@ -20581,7 +20736,7 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="10"/>
-      <c r="B223" s="19"/>
+      <c r="B223" s="16"/>
       <c r="C223" s="10" t="s">
         <v>994</v>
       </c>
@@ -20600,7 +20755,7 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="10"/>
-      <c r="B224" s="19"/>
+      <c r="B224" s="16"/>
       <c r="C224" s="10" t="s">
         <v>994</v>
       </c>
@@ -20619,7 +20774,7 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="10"/>
-      <c r="B225" s="19"/>
+      <c r="B225" s="16"/>
       <c r="C225" s="10" t="s">
         <v>994</v>
       </c>
@@ -20638,7 +20793,7 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="10"/>
-      <c r="B226" s="19"/>
+      <c r="B226" s="16"/>
       <c r="C226" s="10" t="s">
         <v>994</v>
       </c>
@@ -20657,7 +20812,7 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="10"/>
-      <c r="B227" s="19"/>
+      <c r="B227" s="16"/>
       <c r="C227" s="10" t="s">
         <v>994</v>
       </c>
@@ -20676,7 +20831,7 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="10"/>
-      <c r="B228" s="19"/>
+      <c r="B228" s="16"/>
       <c r="C228" s="10" t="s">
         <v>994</v>
       </c>
@@ -20695,7 +20850,7 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="10"/>
-      <c r="B229" s="19"/>
+      <c r="B229" s="16"/>
       <c r="C229" s="10" t="s">
         <v>994</v>
       </c>
@@ -20714,7 +20869,7 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="10"/>
-      <c r="B230" s="19"/>
+      <c r="B230" s="16"/>
       <c r="C230" s="10" t="s">
         <v>994</v>
       </c>
@@ -20733,7 +20888,7 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="10"/>
-      <c r="B231" s="19"/>
+      <c r="B231" s="16"/>
       <c r="C231" s="10" t="s">
         <v>994</v>
       </c>
@@ -20752,7 +20907,7 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="10"/>
-      <c r="B232" s="19"/>
+      <c r="B232" s="16"/>
       <c r="C232" s="10" t="s">
         <v>994</v>
       </c>
@@ -21476,6 +21631,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B42:B52"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B57:B77"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B31:B37"/>
     <mergeCell ref="B78:B94"/>
     <mergeCell ref="B95:B138"/>
     <mergeCell ref="B139:B145"/>
@@ -21485,15 +21649,6 @@
     <mergeCell ref="B177:B185"/>
     <mergeCell ref="B186:B199"/>
     <mergeCell ref="B200:B214"/>
-    <mergeCell ref="B42:B52"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="B57:B77"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B10:B16"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="B31:B37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/api自動化測試腳清單.xlsx
+++ b/api自動化測試腳清單.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2780" uniqueCount="1143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2832" uniqueCount="1174">
   <si>
     <t>Module</t>
   </si>
@@ -3947,6 +3947,131 @@
     <t>postData11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>M0037首次登入設定帳密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0037FirstLoginSetAccount_1.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0037FirstLoginSetAccount_2.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postData12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EncData --&gt;RtnCode:20009 RtnMsg:您輸入的登入帳號已註冊，請重新輸入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0038記錄略過修改登入密碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0038SetLoginPwdIgnorDate_1.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postData13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EncData--&gt;RtnCode: 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0039記錄略過修改登入密碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0039SetSecPwdIgnorDate_1.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0039SetSecPwdIgnorDate_2.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postData14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postData14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0040記錄略過修改圖形密碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0040SetGraphicLockIgnorDate_1.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0040SetGraphicLockIgnorDate_2.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postData15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EncData--&gt;RtnCode: 1, 目前發生 RtnMsg: 訊息代碼：0000，系統發生錯誤，請重新再試。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0041取得JSON Web Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0042取得載具資訊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0042GetEInvoiceCarrierInfo_1.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0042GetEInvoiceCarrierInfo_2.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postData16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0043驗證手機條碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0043AuthCellPhoneCarrier_1.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0043AuthCellPhoneCarrier_2.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postData17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postData17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EncData--&gt;RtnMsg: 訊息代碼：0000，系統發生錯誤，請重新再試。
+Test Failed. Expected RtnCode: 1. Actual RtnCode: 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3955,7 +4080,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4008,6 +4133,23 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4023,7 +4165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -4075,32 +4217,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4108,7 +4224,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4169,20 +4285,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4491,8 +4610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4501,7 +4620,7 @@
     <col min="3" max="3" width="33.88671875" customWidth="1"/>
     <col min="4" max="4" width="35.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="53.109375" customWidth="1"/>
+    <col min="6" max="6" width="69.33203125" customWidth="1"/>
     <col min="8" max="8" width="36.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4533,7 +4652,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="20"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="2" t="s">
         <v>1059</v>
       </c>
@@ -4555,7 +4674,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="21"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="10" t="s">
         <v>1059</v>
       </c>
@@ -4577,7 +4696,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="21"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="2" t="s">
         <v>1058</v>
       </c>
@@ -4599,7 +4718,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="21"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="2" t="s">
         <v>1056</v>
       </c>
@@ -4621,7 +4740,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="21"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="2" t="s">
         <v>1053</v>
       </c>
@@ -4643,7 +4762,7 @@
     </row>
     <row r="7" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="21"/>
+      <c r="B7" s="19"/>
       <c r="C7" t="s">
         <v>1053</v>
       </c>
@@ -4664,7 +4783,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="10" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="21"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="10" t="s">
         <v>1096</v>
       </c>
@@ -4685,7 +4804,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" s="10" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="21"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="10" t="s">
         <v>1096</v>
       </c>
@@ -4702,7 +4821,7 @@
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="21"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="10" t="s">
         <v>1096</v>
       </c>
@@ -4724,7 +4843,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="21"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="2" t="s">
         <v>1061</v>
       </c>
@@ -4746,7 +4865,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="21"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="10" t="s">
         <v>1061</v>
       </c>
@@ -4768,7 +4887,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="21"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="2" t="s">
         <v>1072</v>
       </c>
@@ -4790,7 +4909,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="21"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="2" t="s">
         <v>1072</v>
       </c>
@@ -4812,7 +4931,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="21"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="2" t="s">
         <v>1078</v>
       </c>
@@ -4834,7 +4953,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="21"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="10" t="s">
         <v>1078</v>
       </c>
@@ -4856,7 +4975,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="21"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="2" t="s">
         <v>1085</v>
       </c>
@@ -4878,7 +4997,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="21"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="10" t="s">
         <v>1085</v>
       </c>
@@ -4896,7 +5015,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="21"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="2" t="s">
         <v>1089</v>
       </c>
@@ -4912,7 +5031,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="21"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="10" t="s">
         <v>1089</v>
       </c>
@@ -4928,7 +5047,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="21"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="2" t="s">
         <v>1093</v>
       </c>
@@ -4944,7 +5063,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="21"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="10" t="s">
         <v>1093</v>
       </c>
@@ -4960,7 +5079,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="21"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="2" t="s">
         <v>1123</v>
       </c>
@@ -4976,7 +5095,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="21"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="10" t="s">
         <v>1123</v>
       </c>
@@ -4992,7 +5111,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
-      <c r="B25" s="21"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="2" t="s">
         <v>1127</v>
       </c>
@@ -5008,7 +5127,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="21"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="2" t="s">
         <v>1128</v>
       </c>
@@ -5024,7 +5143,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
-      <c r="B27" s="21"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="2" t="s">
         <v>1131</v>
       </c>
@@ -5039,7 +5158,7 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="21"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="10" t="s">
         <v>1131</v>
       </c>
@@ -5052,7 +5171,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
-      <c r="B29" s="21"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="2" t="s">
         <v>1134</v>
       </c>
@@ -5070,7 +5189,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
-      <c r="B30" s="21"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="10" t="s">
         <v>1134</v>
       </c>
@@ -5088,7 +5207,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="B31" s="21"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="10" t="s">
         <v>1134</v>
       </c>
@@ -5106,7 +5225,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
-      <c r="B32" s="21"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="10" t="s">
         <v>1134</v>
       </c>
@@ -5124,141 +5243,245 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>1147</v>
+      </c>
       <c r="G33" s="2"/>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="10" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>1088</v>
+      </c>
       <c r="G34" s="2"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>1151</v>
+      </c>
       <c r="G35" s="2"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="10" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>1088</v>
+      </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="16"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>1151</v>
+      </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="16"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="C38" s="10" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>1088</v>
+      </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="16"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>1161</v>
+      </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="16"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+      <c r="C40" s="10" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>1088</v>
+      </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="16"/>
-      <c r="C41" s="2"/>
+      <c r="C41" s="23" t="s">
+        <v>1162</v>
+      </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="F41" s="13" t="s">
+        <v>1163</v>
+      </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="16"/>
-      <c r="C42" s="2"/>
+      <c r="C42" s="24" t="s">
+        <v>1162</v>
+      </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="F42" s="13" t="s">
+        <v>1090</v>
+      </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="16"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>1151</v>
+      </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="16"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="C44" s="10" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>1088</v>
+      </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="16"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>1173</v>
+      </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="16"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
+      <c r="C46" s="10" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>1088</v>
+      </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
@@ -9999,14 +10222,7 @@
       <c r="H521" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="B2:B36"/>
-    <mergeCell ref="B37:B71"/>
-    <mergeCell ref="B167:B170"/>
-    <mergeCell ref="B171:B174"/>
-    <mergeCell ref="B72:B122"/>
-    <mergeCell ref="B163:B166"/>
-    <mergeCell ref="B123:B162"/>
+  <mergeCells count="16">
     <mergeCell ref="B200:B209"/>
     <mergeCell ref="B210:B216"/>
     <mergeCell ref="B217:B221"/>
@@ -10017,6 +10233,12 @@
     <mergeCell ref="B237:B243"/>
     <mergeCell ref="B244:B252"/>
     <mergeCell ref="B188:B199"/>
+    <mergeCell ref="B167:B170"/>
+    <mergeCell ref="B171:B174"/>
+    <mergeCell ref="B72:B122"/>
+    <mergeCell ref="B163:B166"/>
+    <mergeCell ref="B123:B162"/>
+    <mergeCell ref="B2:B71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14500,7 +14722,7 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="7"/>
-      <c r="B221" s="23" t="s">
+      <c r="B221" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C221" s="7" t="s">
@@ -14522,7 +14744,7 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="7"/>
-      <c r="B222" s="23"/>
+      <c r="B222" s="20"/>
       <c r="C222" s="7" t="s">
         <v>416</v>
       </c>
@@ -14542,7 +14764,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="7"/>
-      <c r="B223" s="23"/>
+      <c r="B223" s="20"/>
       <c r="C223" s="7" t="s">
         <v>416</v>
       </c>
@@ -14562,7 +14784,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="7"/>
-      <c r="B224" s="23"/>
+      <c r="B224" s="20"/>
       <c r="C224" s="7" t="s">
         <v>565</v>
       </c>
@@ -14582,7 +14804,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="7"/>
-      <c r="B225" s="23"/>
+      <c r="B225" s="20"/>
       <c r="C225" s="7" t="s">
         <v>416</v>
       </c>
@@ -14602,7 +14824,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="7"/>
-      <c r="B226" s="23"/>
+      <c r="B226" s="20"/>
       <c r="C226" s="7" t="s">
         <v>416</v>
       </c>
@@ -14622,7 +14844,7 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="7"/>
-      <c r="B227" s="23"/>
+      <c r="B227" s="20"/>
       <c r="C227" s="7" t="s">
         <v>416</v>
       </c>
@@ -15284,7 +15506,7 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="7"/>
-      <c r="B260" s="23" t="s">
+      <c r="B260" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C260" s="7" t="s">
@@ -15306,7 +15528,7 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="7"/>
-      <c r="B261" s="23"/>
+      <c r="B261" s="20"/>
       <c r="C261" s="7" t="s">
         <v>495</v>
       </c>
@@ -15326,7 +15548,7 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="7"/>
-      <c r="B262" s="23"/>
+      <c r="B262" s="20"/>
       <c r="C262" s="7" t="s">
         <v>495</v>
       </c>
@@ -15346,7 +15568,7 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="7"/>
-      <c r="B263" s="23"/>
+      <c r="B263" s="20"/>
       <c r="C263" s="7" t="s">
         <v>495</v>
       </c>
@@ -15365,7 +15587,7 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="7"/>
-      <c r="B264" s="23"/>
+      <c r="B264" s="20"/>
       <c r="C264" s="7" t="s">
         <v>495</v>
       </c>
@@ -16309,6 +16531,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B149:B152"/>
+    <mergeCell ref="B2:B44"/>
+    <mergeCell ref="B45:B51"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="B52:B76"/>
+    <mergeCell ref="B104:B148"/>
+    <mergeCell ref="B77:B99"/>
     <mergeCell ref="B276:B280"/>
     <mergeCell ref="B153:B220"/>
     <mergeCell ref="B221:B227"/>
@@ -16316,13 +16545,6 @@
     <mergeCell ref="B260:B264"/>
     <mergeCell ref="B265:B269"/>
     <mergeCell ref="B270:B275"/>
-    <mergeCell ref="B149:B152"/>
-    <mergeCell ref="B2:B44"/>
-    <mergeCell ref="B45:B51"/>
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="B52:B76"/>
-    <mergeCell ref="B104:B148"/>
-    <mergeCell ref="B77:B99"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16539,7 +16761,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="21" t="s">
         <v>1033</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -16563,7 +16785,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
-      <c r="B11" s="24"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="10" t="s">
         <v>585</v>
       </c>
@@ -16585,7 +16807,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
-      <c r="B12" s="24"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="7" t="s">
         <v>1032</v>
       </c>
@@ -16607,7 +16829,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
-      <c r="B13" s="24"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="10" t="s">
         <v>585</v>
       </c>
@@ -16629,7 +16851,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
-      <c r="B14" s="24"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="10" t="s">
         <v>585</v>
       </c>
@@ -16651,7 +16873,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
-      <c r="B15" s="24"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="10" t="s">
         <v>585</v>
       </c>
@@ -16673,7 +16895,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
-      <c r="B16" s="24"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="10" t="s">
         <v>585</v>
       </c>
@@ -16695,7 +16917,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="21" t="s">
         <v>567</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -16716,7 +16938,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
-      <c r="B18" s="24"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="10" t="s">
         <v>601</v>
       </c>
@@ -16735,7 +16957,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
-      <c r="B19" s="24"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="10" t="s">
         <v>1034</v>
       </c>
@@ -16754,7 +16976,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
-      <c r="B20" s="24"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="10" t="s">
         <v>601</v>
       </c>
@@ -16773,7 +16995,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
-      <c r="B21" s="24"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="10" t="s">
         <v>601</v>
       </c>
@@ -16792,7 +17014,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
-      <c r="B22" s="24"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="10" t="s">
         <v>601</v>
       </c>
@@ -16811,7 +17033,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
-      <c r="B23" s="24"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="10" t="s">
         <v>601</v>
       </c>
@@ -18244,7 +18466,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="10"/>
-      <c r="B95" s="24" t="s">
+      <c r="B95" s="21" t="s">
         <v>1036</v>
       </c>
       <c r="C95" s="10" t="s">
@@ -18265,7 +18487,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="10"/>
-      <c r="B96" s="24"/>
+      <c r="B96" s="21"/>
       <c r="C96" s="10" t="s">
         <v>749</v>
       </c>
@@ -18284,7 +18506,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="10"/>
-      <c r="B97" s="24"/>
+      <c r="B97" s="21"/>
       <c r="C97" s="10" t="s">
         <v>749</v>
       </c>
@@ -18303,7 +18525,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="10"/>
-      <c r="B98" s="24"/>
+      <c r="B98" s="21"/>
       <c r="C98" s="10" t="s">
         <v>749</v>
       </c>
@@ -18322,7 +18544,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="10"/>
-      <c r="B99" s="24"/>
+      <c r="B99" s="21"/>
       <c r="C99" s="10" t="s">
         <v>749</v>
       </c>
@@ -18341,7 +18563,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="10"/>
-      <c r="B100" s="24"/>
+      <c r="B100" s="21"/>
       <c r="C100" s="10" t="s">
         <v>749</v>
       </c>
@@ -18360,7 +18582,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="10"/>
-      <c r="B101" s="24"/>
+      <c r="B101" s="21"/>
       <c r="C101" s="10" t="s">
         <v>749</v>
       </c>
@@ -18379,7 +18601,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="10"/>
-      <c r="B102" s="24"/>
+      <c r="B102" s="21"/>
       <c r="C102" s="10" t="s">
         <v>749</v>
       </c>
@@ -18398,7 +18620,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="10"/>
-      <c r="B103" s="24"/>
+      <c r="B103" s="21"/>
       <c r="C103" s="10" t="s">
         <v>749</v>
       </c>
@@ -18417,7 +18639,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="10"/>
-      <c r="B104" s="24"/>
+      <c r="B104" s="21"/>
       <c r="C104" s="10" t="s">
         <v>749</v>
       </c>
@@ -18436,7 +18658,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="10"/>
-      <c r="B105" s="24"/>
+      <c r="B105" s="21"/>
       <c r="C105" s="10" t="s">
         <v>749</v>
       </c>
@@ -18455,7 +18677,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="10"/>
-      <c r="B106" s="24"/>
+      <c r="B106" s="21"/>
       <c r="C106" s="10" t="s">
         <v>749</v>
       </c>
@@ -18474,7 +18696,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="10"/>
-      <c r="B107" s="24"/>
+      <c r="B107" s="21"/>
       <c r="C107" s="10" t="s">
         <v>749</v>
       </c>
@@ -18493,7 +18715,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="10"/>
-      <c r="B108" s="24"/>
+      <c r="B108" s="21"/>
       <c r="C108" s="10" t="s">
         <v>749</v>
       </c>
@@ -18512,7 +18734,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="10"/>
-      <c r="B109" s="24"/>
+      <c r="B109" s="21"/>
       <c r="C109" s="10" t="s">
         <v>749</v>
       </c>
@@ -18531,7 +18753,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="10"/>
-      <c r="B110" s="24"/>
+      <c r="B110" s="21"/>
       <c r="C110" s="10" t="s">
         <v>749</v>
       </c>
@@ -18550,7 +18772,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="10"/>
-      <c r="B111" s="24"/>
+      <c r="B111" s="21"/>
       <c r="C111" s="10" t="s">
         <v>749</v>
       </c>
@@ -18569,7 +18791,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="10"/>
-      <c r="B112" s="24"/>
+      <c r="B112" s="21"/>
       <c r="C112" s="10" t="s">
         <v>749</v>
       </c>
@@ -18588,7 +18810,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="10"/>
-      <c r="B113" s="24"/>
+      <c r="B113" s="21"/>
       <c r="C113" s="10" t="s">
         <v>749</v>
       </c>
@@ -18607,7 +18829,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="10"/>
-      <c r="B114" s="24"/>
+      <c r="B114" s="21"/>
       <c r="C114" s="10" t="s">
         <v>749</v>
       </c>
@@ -18626,7 +18848,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="10"/>
-      <c r="B115" s="24"/>
+      <c r="B115" s="21"/>
       <c r="C115" s="10" t="s">
         <v>749</v>
       </c>
@@ -18645,7 +18867,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="10"/>
-      <c r="B116" s="24"/>
+      <c r="B116" s="21"/>
       <c r="C116" s="10" t="s">
         <v>749</v>
       </c>
@@ -18664,7 +18886,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="10"/>
-      <c r="B117" s="24"/>
+      <c r="B117" s="21"/>
       <c r="C117" s="10" t="s">
         <v>749</v>
       </c>
@@ -18683,7 +18905,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="10"/>
-      <c r="B118" s="24"/>
+      <c r="B118" s="21"/>
       <c r="C118" s="10" t="s">
         <v>749</v>
       </c>
@@ -18702,7 +18924,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="10"/>
-      <c r="B119" s="24"/>
+      <c r="B119" s="21"/>
       <c r="C119" s="10" t="s">
         <v>749</v>
       </c>
@@ -18721,7 +18943,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="10"/>
-      <c r="B120" s="24"/>
+      <c r="B120" s="21"/>
       <c r="C120" s="10" t="s">
         <v>749</v>
       </c>
@@ -18740,7 +18962,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="10"/>
-      <c r="B121" s="24"/>
+      <c r="B121" s="21"/>
       <c r="C121" s="10" t="s">
         <v>749</v>
       </c>
@@ -18759,7 +18981,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="10"/>
-      <c r="B122" s="24"/>
+      <c r="B122" s="21"/>
       <c r="C122" s="10" t="s">
         <v>749</v>
       </c>
@@ -18778,7 +19000,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="10"/>
-      <c r="B123" s="24"/>
+      <c r="B123" s="21"/>
       <c r="C123" s="10" t="s">
         <v>749</v>
       </c>
@@ -18797,7 +19019,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="10"/>
-      <c r="B124" s="24"/>
+      <c r="B124" s="21"/>
       <c r="C124" s="10" t="s">
         <v>749</v>
       </c>
@@ -18816,7 +19038,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="10"/>
-      <c r="B125" s="24"/>
+      <c r="B125" s="21"/>
       <c r="C125" s="10" t="s">
         <v>749</v>
       </c>
@@ -18835,7 +19057,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="10"/>
-      <c r="B126" s="24"/>
+      <c r="B126" s="21"/>
       <c r="C126" s="10" t="s">
         <v>1043</v>
       </c>
@@ -18854,7 +19076,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="10"/>
-      <c r="B127" s="24"/>
+      <c r="B127" s="21"/>
       <c r="C127" s="10" t="s">
         <v>749</v>
       </c>
@@ -18873,7 +19095,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="10"/>
-      <c r="B128" s="24"/>
+      <c r="B128" s="21"/>
       <c r="C128" s="10" t="s">
         <v>749</v>
       </c>
@@ -18892,7 +19114,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="10"/>
-      <c r="B129" s="24"/>
+      <c r="B129" s="21"/>
       <c r="C129" s="10" t="s">
         <v>749</v>
       </c>
@@ -18912,7 +19134,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="10"/>
-      <c r="B130" s="24"/>
+      <c r="B130" s="21"/>
       <c r="C130" s="10" t="s">
         <v>749</v>
       </c>
@@ -18932,7 +19154,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="10"/>
-      <c r="B131" s="24"/>
+      <c r="B131" s="21"/>
       <c r="C131" s="10" t="s">
         <v>749</v>
       </c>
@@ -18952,7 +19174,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="10"/>
-      <c r="B132" s="24"/>
+      <c r="B132" s="21"/>
       <c r="C132" s="10" t="s">
         <v>749</v>
       </c>
@@ -18972,7 +19194,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="10"/>
-      <c r="B133" s="24"/>
+      <c r="B133" s="21"/>
       <c r="C133" s="10" t="s">
         <v>749</v>
       </c>
@@ -18992,7 +19214,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="10"/>
-      <c r="B134" s="24"/>
+      <c r="B134" s="21"/>
       <c r="C134" s="10" t="s">
         <v>749</v>
       </c>
@@ -19012,7 +19234,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="10"/>
-      <c r="B135" s="24"/>
+      <c r="B135" s="21"/>
       <c r="C135" s="10" t="s">
         <v>749</v>
       </c>
@@ -19032,7 +19254,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="10"/>
-      <c r="B136" s="24"/>
+      <c r="B136" s="21"/>
       <c r="C136" s="10" t="s">
         <v>749</v>
       </c>
@@ -19052,7 +19274,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="10"/>
-      <c r="B137" s="24"/>
+      <c r="B137" s="21"/>
       <c r="C137" s="10" t="s">
         <v>749</v>
       </c>
@@ -19072,7 +19294,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="10"/>
-      <c r="B138" s="24"/>
+      <c r="B138" s="21"/>
       <c r="C138" s="10" t="s">
         <v>749</v>
       </c>
@@ -19092,7 +19314,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="10"/>
-      <c r="B139" s="24" t="s">
+      <c r="B139" s="21" t="s">
         <v>1036</v>
       </c>
       <c r="C139" s="10" t="s">
@@ -19114,7 +19336,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="10"/>
-      <c r="B140" s="24"/>
+      <c r="B140" s="21"/>
       <c r="C140" s="10" t="s">
         <v>837</v>
       </c>
@@ -19134,7 +19356,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="10"/>
-      <c r="B141" s="24"/>
+      <c r="B141" s="21"/>
       <c r="C141" s="10" t="s">
         <v>837</v>
       </c>
@@ -19156,7 +19378,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="10"/>
-      <c r="B142" s="24"/>
+      <c r="B142" s="21"/>
       <c r="C142" s="10" t="s">
         <v>1044</v>
       </c>
@@ -19178,7 +19400,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="10"/>
-      <c r="B143" s="24"/>
+      <c r="B143" s="21"/>
       <c r="C143" s="10" t="s">
         <v>837</v>
       </c>
@@ -19200,7 +19422,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="10"/>
-      <c r="B144" s="24"/>
+      <c r="B144" s="21"/>
       <c r="C144" s="10" t="s">
         <v>837</v>
       </c>
@@ -19222,7 +19444,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="10"/>
-      <c r="B145" s="24"/>
+      <c r="B145" s="21"/>
       <c r="C145" s="10" t="s">
         <v>837</v>
       </c>
@@ -21631,6 +21853,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B78:B94"/>
+    <mergeCell ref="B95:B138"/>
+    <mergeCell ref="B139:B145"/>
+    <mergeCell ref="B146:B155"/>
+    <mergeCell ref="B215:B232"/>
+    <mergeCell ref="B156:B176"/>
+    <mergeCell ref="B177:B185"/>
+    <mergeCell ref="B186:B199"/>
+    <mergeCell ref="B200:B214"/>
     <mergeCell ref="B42:B52"/>
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="B57:B77"/>
@@ -21640,15 +21871,6 @@
     <mergeCell ref="B17:B23"/>
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="B31:B37"/>
-    <mergeCell ref="B78:B94"/>
-    <mergeCell ref="B95:B138"/>
-    <mergeCell ref="B139:B145"/>
-    <mergeCell ref="B146:B155"/>
-    <mergeCell ref="B215:B232"/>
-    <mergeCell ref="B156:B176"/>
-    <mergeCell ref="B177:B185"/>
-    <mergeCell ref="B186:B199"/>
-    <mergeCell ref="B200:B214"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/api自動化測試腳清單.xlsx
+++ b/api自動化測試腳清單.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2832" uniqueCount="1174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2864" uniqueCount="1193">
   <si>
     <t>Module</t>
   </si>
@@ -4070,6 +4070,64 @@
   <si>
     <t>EncData--&gt;RtnMsg: 訊息代碼：0000，系統發生錯誤，請重新再試。
 Test Failed. Expected RtnCode: 1. Actual RtnCode: 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0046取得帳戶狀態資訊</t>
+  </si>
+  <si>
+    <t>M0046GetAccountStatusInfo_1.py</t>
+  </si>
+  <si>
+    <t>postData18</t>
+  </si>
+  <si>
+    <t>EncData--&gt;RtnCode: 1</t>
+  </si>
+  <si>
+    <t>M0046GetAccountStatusInfo_2.py</t>
+  </si>
+  <si>
+    <t>Decrypted</t>
+  </si>
+  <si>
+    <t>P0006取得儲值通路清單</t>
+  </si>
+  <si>
+    <t>P0006GetListChannelInfo_1.py</t>
+  </si>
+  <si>
+    <t>postData19</t>
+  </si>
+  <si>
+    <t>P0006GetListChannelInfo_2.py</t>
+  </si>
+  <si>
+    <t>P0007產生通路儲值條碼</t>
+  </si>
+  <si>
+    <t>P0007GetTopUpBarCode_1.py</t>
+  </si>
+  <si>
+    <t>postData20</t>
+  </si>
+  <si>
+    <t>P0007GetTopUpBarCode_2.py</t>
+  </si>
+  <si>
+    <t>M0053餘額提領</t>
+  </si>
+  <si>
+    <t>M0053AddWithdrawBalance_1.py</t>
+  </si>
+  <si>
+    <t>postData21</t>
+  </si>
+  <si>
+    <t>M0053AddWithdrawBalance_2.py</t>
+  </si>
+  <si>
+    <t>EncData --&gt; 提領金額需大於手續費 Test Failed. Expected RtnCode: 1. Actual RtnCode: 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4273,24 +4331,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -4302,6 +4342,24 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4610,8 +4668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="C37" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4652,7 +4710,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="18"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="2" t="s">
         <v>1059</v>
       </c>
@@ -4674,7 +4732,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="19"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="10" t="s">
         <v>1059</v>
       </c>
@@ -4696,7 +4754,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="19"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="2" t="s">
         <v>1058</v>
       </c>
@@ -4718,7 +4776,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="19"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="2" t="s">
         <v>1056</v>
       </c>
@@ -4740,7 +4798,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="19"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="2" t="s">
         <v>1053</v>
       </c>
@@ -4762,7 +4820,7 @@
     </row>
     <row r="7" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="19"/>
+      <c r="B7" s="21"/>
       <c r="C7" t="s">
         <v>1053</v>
       </c>
@@ -4783,7 +4841,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="10" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="19"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="10" t="s">
         <v>1096</v>
       </c>
@@ -4804,7 +4862,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" s="10" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="19"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="10" t="s">
         <v>1096</v>
       </c>
@@ -4821,7 +4879,7 @@
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="19"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="10" t="s">
         <v>1096</v>
       </c>
@@ -4843,7 +4901,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="19"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="2" t="s">
         <v>1061</v>
       </c>
@@ -4865,7 +4923,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="19"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="10" t="s">
         <v>1061</v>
       </c>
@@ -4887,7 +4945,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="19"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="2" t="s">
         <v>1072</v>
       </c>
@@ -4909,7 +4967,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="19"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="2" t="s">
         <v>1072</v>
       </c>
@@ -4931,7 +4989,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="19"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="2" t="s">
         <v>1078</v>
       </c>
@@ -4953,7 +5011,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="19"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="10" t="s">
         <v>1078</v>
       </c>
@@ -4975,7 +5033,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="19"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="2" t="s">
         <v>1085</v>
       </c>
@@ -4997,7 +5055,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="19"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="10" t="s">
         <v>1085</v>
       </c>
@@ -5015,7 +5073,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="19"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="2" t="s">
         <v>1089</v>
       </c>
@@ -5031,7 +5089,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="19"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="10" t="s">
         <v>1089</v>
       </c>
@@ -5047,7 +5105,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="19"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="2" t="s">
         <v>1093</v>
       </c>
@@ -5063,7 +5121,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="19"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="10" t="s">
         <v>1093</v>
       </c>
@@ -5079,7 +5137,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="19"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="2" t="s">
         <v>1123</v>
       </c>
@@ -5095,7 +5153,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="19"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="10" t="s">
         <v>1123</v>
       </c>
@@ -5111,7 +5169,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
-      <c r="B25" s="19"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="2" t="s">
         <v>1127</v>
       </c>
@@ -5127,7 +5185,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="19"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="2" t="s">
         <v>1128</v>
       </c>
@@ -5143,7 +5201,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
-      <c r="B27" s="19"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="2" t="s">
         <v>1131</v>
       </c>
@@ -5158,7 +5216,7 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="19"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="10" t="s">
         <v>1131</v>
       </c>
@@ -5171,7 +5229,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
-      <c r="B29" s="19"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="2" t="s">
         <v>1134</v>
       </c>
@@ -5189,7 +5247,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
-      <c r="B30" s="19"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="10" t="s">
         <v>1134</v>
       </c>
@@ -5207,7 +5265,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="B31" s="19"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="10" t="s">
         <v>1134</v>
       </c>
@@ -5225,7 +5283,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
-      <c r="B32" s="19"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="10" t="s">
         <v>1134</v>
       </c>
@@ -5243,7 +5301,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
-      <c r="B33" s="19"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="2" t="s">
         <v>1143</v>
       </c>
@@ -5261,7 +5319,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
-      <c r="B34" s="19"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="10" t="s">
         <v>1143</v>
       </c>
@@ -5279,7 +5337,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
-      <c r="B35" s="19"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="2" t="s">
         <v>1148</v>
       </c>
@@ -5297,7 +5355,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
-      <c r="B36" s="19"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="10" t="s">
         <v>1148</v>
       </c>
@@ -5315,7 +5373,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
-      <c r="B37" s="16"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="2" t="s">
         <v>1152</v>
       </c>
@@ -5333,7 +5391,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
-      <c r="B38" s="16"/>
+      <c r="B38" s="22"/>
       <c r="C38" s="10" t="s">
         <v>1152</v>
       </c>
@@ -5351,7 +5409,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
-      <c r="B39" s="16"/>
+      <c r="B39" s="22"/>
       <c r="C39" s="2" t="s">
         <v>1157</v>
       </c>
@@ -5361,7 +5419,7 @@
       <c r="E39" s="10" t="s">
         <v>1160</v>
       </c>
-      <c r="F39" s="22" t="s">
+      <c r="F39" s="16" t="s">
         <v>1161</v>
       </c>
       <c r="G39" s="2"/>
@@ -5369,7 +5427,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
-      <c r="B40" s="16"/>
+      <c r="B40" s="22"/>
       <c r="C40" s="10" t="s">
         <v>1157</v>
       </c>
@@ -5387,8 +5445,8 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="23" t="s">
+      <c r="B41" s="22"/>
+      <c r="C41" s="17" t="s">
         <v>1162</v>
       </c>
       <c r="D41" s="2"/>
@@ -5401,8 +5459,8 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="24" t="s">
+      <c r="B42" s="22"/>
+      <c r="C42" s="18" t="s">
         <v>1162</v>
       </c>
       <c r="D42" s="2"/>
@@ -5415,7 +5473,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
-      <c r="B43" s="16"/>
+      <c r="B43" s="22"/>
       <c r="C43" s="2" t="s">
         <v>1164</v>
       </c>
@@ -5433,7 +5491,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
-      <c r="B44" s="16"/>
+      <c r="B44" s="22"/>
       <c r="C44" s="10" t="s">
         <v>1164</v>
       </c>
@@ -5451,7 +5509,7 @@
     </row>
     <row r="45" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
-      <c r="B45" s="16"/>
+      <c r="B45" s="22"/>
       <c r="C45" s="2" t="s">
         <v>1168</v>
       </c>
@@ -5461,7 +5519,7 @@
       <c r="E45" s="10" t="s">
         <v>1171</v>
       </c>
-      <c r="F45" s="25" t="s">
+      <c r="F45" s="19" t="s">
         <v>1173</v>
       </c>
       <c r="G45" s="2"/>
@@ -5469,7 +5527,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
-      <c r="B46" s="16"/>
+      <c r="B46" s="22"/>
       <c r="C46" s="10" t="s">
         <v>1168</v>
       </c>
@@ -5487,80 +5545,148 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="2"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="10" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>1177</v>
+      </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="16"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="10" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>1179</v>
+      </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="10" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>1177</v>
+      </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="10" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>1179</v>
+      </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="10" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>1177</v>
+      </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="10" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>1179</v>
+      </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="10" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>1192</v>
+      </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="10" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>1179</v>
+      </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
-      <c r="B55" s="16"/>
+      <c r="B55" s="22"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -5570,7 +5696,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
-      <c r="B56" s="16"/>
+      <c r="B56" s="22"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -5580,7 +5706,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
-      <c r="B57" s="16"/>
+      <c r="B57" s="22"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -5590,7 +5716,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
-      <c r="B58" s="16"/>
+      <c r="B58" s="22"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -5600,7 +5726,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
-      <c r="B59" s="16"/>
+      <c r="B59" s="22"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -5610,7 +5736,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
-      <c r="B60" s="16"/>
+      <c r="B60" s="22"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -5620,7 +5746,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
-      <c r="B61" s="16"/>
+      <c r="B61" s="22"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -5630,7 +5756,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
-      <c r="B62" s="16"/>
+      <c r="B62" s="22"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -5640,7 +5766,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
-      <c r="B63" s="16"/>
+      <c r="B63" s="22"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -5650,7 +5776,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
-      <c r="B64" s="16"/>
+      <c r="B64" s="22"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -5660,7 +5786,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
-      <c r="B65" s="16"/>
+      <c r="B65" s="22"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -5670,7 +5796,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
-      <c r="B66" s="16"/>
+      <c r="B66" s="22"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -5680,7 +5806,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
-      <c r="B67" s="16"/>
+      <c r="B67" s="22"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -5690,7 +5816,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
-      <c r="B68" s="16"/>
+      <c r="B68" s="22"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -5700,7 +5826,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
-      <c r="B69" s="16"/>
+      <c r="B69" s="22"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -5710,7 +5836,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
-      <c r="B70" s="16"/>
+      <c r="B70" s="22"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -5720,7 +5846,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
-      <c r="B71" s="16"/>
+      <c r="B71" s="22"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -5730,7 +5856,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
-      <c r="B72" s="16"/>
+      <c r="B72" s="22"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -5740,7 +5866,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
-      <c r="B73" s="16"/>
+      <c r="B73" s="22"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -5750,7 +5876,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
-      <c r="B74" s="16"/>
+      <c r="B74" s="22"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -5760,7 +5886,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
-      <c r="B75" s="16"/>
+      <c r="B75" s="22"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -5770,7 +5896,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
-      <c r="B76" s="16"/>
+      <c r="B76" s="22"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -5780,7 +5906,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
-      <c r="B77" s="16"/>
+      <c r="B77" s="22"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -5790,7 +5916,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
-      <c r="B78" s="16"/>
+      <c r="B78" s="22"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -5800,7 +5926,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
-      <c r="B79" s="16"/>
+      <c r="B79" s="22"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -5810,7 +5936,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
-      <c r="B80" s="16"/>
+      <c r="B80" s="22"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -5820,7 +5946,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
-      <c r="B81" s="16"/>
+      <c r="B81" s="22"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -5830,7 +5956,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
-      <c r="B82" s="16"/>
+      <c r="B82" s="22"/>
       <c r="C82" s="10"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -5839,11 +5965,11 @@
       <c r="H82" s="1"/>
     </row>
     <row r="83" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="16"/>
+      <c r="B83" s="22"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
-      <c r="B84" s="16"/>
+      <c r="B84" s="22"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -5853,7 +5979,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
-      <c r="B85" s="16"/>
+      <c r="B85" s="22"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -5863,7 +5989,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
-      <c r="B86" s="16"/>
+      <c r="B86" s="22"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -5873,7 +5999,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
-      <c r="B87" s="16"/>
+      <c r="B87" s="22"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -5883,7 +6009,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
-      <c r="B88" s="16"/>
+      <c r="B88" s="22"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -5893,7 +6019,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
-      <c r="B89" s="16"/>
+      <c r="B89" s="22"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -5903,7 +6029,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
-      <c r="B90" s="16"/>
+      <c r="B90" s="22"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -5913,7 +6039,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
-      <c r="B91" s="16"/>
+      <c r="B91" s="22"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -5923,7 +6049,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
-      <c r="B92" s="16"/>
+      <c r="B92" s="22"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -5933,7 +6059,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
-      <c r="B93" s="16"/>
+      <c r="B93" s="22"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -5943,7 +6069,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
-      <c r="B94" s="16"/>
+      <c r="B94" s="22"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -5953,7 +6079,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
-      <c r="B95" s="16"/>
+      <c r="B95" s="22"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -5963,7 +6089,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
-      <c r="B96" s="16"/>
+      <c r="B96" s="22"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -5973,7 +6099,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
-      <c r="B97" s="16"/>
+      <c r="B97" s="22"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -5983,7 +6109,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
-      <c r="B98" s="16"/>
+      <c r="B98" s="22"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -5993,7 +6119,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
-      <c r="B99" s="16"/>
+      <c r="B99" s="22"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -6003,7 +6129,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
-      <c r="B100" s="16"/>
+      <c r="B100" s="22"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -6013,7 +6139,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
-      <c r="B101" s="16"/>
+      <c r="B101" s="22"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -6023,7 +6149,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
-      <c r="B102" s="16"/>
+      <c r="B102" s="22"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -6033,7 +6159,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
-      <c r="B103" s="16"/>
+      <c r="B103" s="22"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -6043,7 +6169,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
-      <c r="B104" s="16"/>
+      <c r="B104" s="22"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -6053,7 +6179,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
-      <c r="B105" s="16"/>
+      <c r="B105" s="22"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -6063,7 +6189,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
-      <c r="B106" s="16"/>
+      <c r="B106" s="22"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -6073,7 +6199,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
-      <c r="B107" s="16"/>
+      <c r="B107" s="22"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -6083,7 +6209,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
-      <c r="B108" s="16"/>
+      <c r="B108" s="22"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -6093,7 +6219,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
-      <c r="B109" s="16"/>
+      <c r="B109" s="22"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -6103,7 +6229,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
-      <c r="B110" s="16"/>
+      <c r="B110" s="22"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -6113,7 +6239,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
-      <c r="B111" s="16"/>
+      <c r="B111" s="22"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -6123,7 +6249,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
-      <c r="B112" s="16"/>
+      <c r="B112" s="22"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -6133,7 +6259,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
-      <c r="B113" s="16"/>
+      <c r="B113" s="22"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -6143,7 +6269,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
-      <c r="B114" s="16"/>
+      <c r="B114" s="22"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -6153,7 +6279,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
-      <c r="B115" s="16"/>
+      <c r="B115" s="22"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -6163,7 +6289,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
-      <c r="B116" s="16"/>
+      <c r="B116" s="22"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -6173,7 +6299,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
-      <c r="B117" s="16"/>
+      <c r="B117" s="22"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -6183,7 +6309,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
-      <c r="B118" s="16"/>
+      <c r="B118" s="22"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -6193,7 +6319,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
-      <c r="B119" s="16"/>
+      <c r="B119" s="22"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -6203,7 +6329,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
-      <c r="B120" s="16"/>
+      <c r="B120" s="22"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -6213,7 +6339,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
-      <c r="B121" s="16"/>
+      <c r="B121" s="22"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -6223,7 +6349,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
-      <c r="B122" s="16"/>
+      <c r="B122" s="22"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -6233,7 +6359,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
-      <c r="B123" s="16"/>
+      <c r="B123" s="22"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -6243,7 +6369,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
-      <c r="B124" s="16"/>
+      <c r="B124" s="22"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -6253,7 +6379,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
-      <c r="B125" s="16"/>
+      <c r="B125" s="22"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -6263,7 +6389,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
-      <c r="B126" s="16"/>
+      <c r="B126" s="22"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -6273,7 +6399,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
-      <c r="B127" s="16"/>
+      <c r="B127" s="22"/>
       <c r="C127" s="10"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -6283,7 +6409,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
-      <c r="B128" s="16"/>
+      <c r="B128" s="22"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -6293,7 +6419,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
-      <c r="B129" s="16"/>
+      <c r="B129" s="22"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -6303,7 +6429,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
-      <c r="B130" s="16"/>
+      <c r="B130" s="22"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -6313,7 +6439,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
-      <c r="B131" s="16"/>
+      <c r="B131" s="22"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -6323,7 +6449,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
-      <c r="B132" s="16"/>
+      <c r="B132" s="22"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -6333,7 +6459,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
-      <c r="B133" s="16"/>
+      <c r="B133" s="22"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -6343,7 +6469,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
-      <c r="B134" s="16"/>
+      <c r="B134" s="22"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -6353,7 +6479,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
-      <c r="B135" s="16"/>
+      <c r="B135" s="22"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -6363,7 +6489,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
-      <c r="B136" s="16"/>
+      <c r="B136" s="22"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -6373,7 +6499,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
-      <c r="B137" s="16"/>
+      <c r="B137" s="22"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -6383,7 +6509,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
-      <c r="B138" s="16"/>
+      <c r="B138" s="22"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -6393,7 +6519,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
-      <c r="B139" s="16"/>
+      <c r="B139" s="22"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -6403,7 +6529,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
-      <c r="B140" s="16"/>
+      <c r="B140" s="22"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -6413,7 +6539,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
-      <c r="B141" s="16"/>
+      <c r="B141" s="22"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -6423,7 +6549,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
-      <c r="B142" s="16"/>
+      <c r="B142" s="22"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -6433,7 +6559,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
-      <c r="B143" s="16"/>
+      <c r="B143" s="22"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -6443,7 +6569,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
-      <c r="B144" s="16"/>
+      <c r="B144" s="22"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -6453,7 +6579,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
-      <c r="B145" s="16"/>
+      <c r="B145" s="22"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -6463,7 +6589,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
-      <c r="B146" s="16"/>
+      <c r="B146" s="22"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -6473,7 +6599,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
-      <c r="B147" s="16"/>
+      <c r="B147" s="22"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -6483,7 +6609,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
-      <c r="B148" s="16"/>
+      <c r="B148" s="22"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -6493,7 +6619,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
-      <c r="B149" s="16"/>
+      <c r="B149" s="22"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -6503,7 +6629,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
-      <c r="B150" s="16"/>
+      <c r="B150" s="22"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -6513,7 +6639,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
-      <c r="B151" s="16"/>
+      <c r="B151" s="22"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -6523,7 +6649,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
-      <c r="B152" s="16"/>
+      <c r="B152" s="22"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -6533,7 +6659,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
-      <c r="B153" s="16"/>
+      <c r="B153" s="22"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -6543,7 +6669,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
-      <c r="B154" s="16"/>
+      <c r="B154" s="22"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -6553,7 +6679,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
-      <c r="B155" s="16"/>
+      <c r="B155" s="22"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -6563,7 +6689,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
-      <c r="B156" s="16"/>
+      <c r="B156" s="22"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -6573,7 +6699,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
-      <c r="B157" s="16"/>
+      <c r="B157" s="22"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -6583,7 +6709,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
-      <c r="B158" s="16"/>
+      <c r="B158" s="22"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -6593,7 +6719,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
-      <c r="B159" s="16"/>
+      <c r="B159" s="22"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -6603,7 +6729,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
-      <c r="B160" s="16"/>
+      <c r="B160" s="22"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -6613,7 +6739,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
-      <c r="B161" s="16"/>
+      <c r="B161" s="22"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -6623,7 +6749,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
-      <c r="B162" s="16"/>
+      <c r="B162" s="22"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -6633,7 +6759,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
-      <c r="B163" s="16"/>
+      <c r="B163" s="22"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -6643,7 +6769,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
-      <c r="B164" s="16"/>
+      <c r="B164" s="22"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -6653,7 +6779,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
-      <c r="B165" s="16"/>
+      <c r="B165" s="22"/>
       <c r="C165" s="10"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -6663,7 +6789,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
-      <c r="B166" s="16"/>
+      <c r="B166" s="22"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -6673,7 +6799,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
-      <c r="B167" s="16"/>
+      <c r="B167" s="22"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -6683,7 +6809,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
-      <c r="B168" s="16"/>
+      <c r="B168" s="22"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -6693,7 +6819,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
-      <c r="B169" s="16"/>
+      <c r="B169" s="22"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -6703,7 +6829,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
-      <c r="B170" s="16"/>
+      <c r="B170" s="22"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -6713,7 +6839,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
-      <c r="B171" s="16"/>
+      <c r="B171" s="22"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -6723,7 +6849,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
-      <c r="B172" s="16"/>
+      <c r="B172" s="22"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -6733,7 +6859,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
-      <c r="B173" s="16"/>
+      <c r="B173" s="22"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -6743,7 +6869,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
-      <c r="B174" s="16"/>
+      <c r="B174" s="22"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -6753,7 +6879,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
-      <c r="B175" s="16"/>
+      <c r="B175" s="22"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -6763,7 +6889,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
-      <c r="B176" s="16"/>
+      <c r="B176" s="22"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -6773,7 +6899,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
-      <c r="B177" s="16"/>
+      <c r="B177" s="22"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -6783,7 +6909,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
-      <c r="B178" s="16"/>
+      <c r="B178" s="22"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -6793,7 +6919,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
-      <c r="B179" s="16"/>
+      <c r="B179" s="22"/>
       <c r="C179" s="10"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -6803,7 +6929,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
-      <c r="B180" s="16"/>
+      <c r="B180" s="22"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -6813,7 +6939,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
-      <c r="B181" s="16"/>
+      <c r="B181" s="22"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -6823,7 +6949,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
-      <c r="B182" s="16"/>
+      <c r="B182" s="22"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -6833,7 +6959,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
-      <c r="B183" s="16"/>
+      <c r="B183" s="22"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -6843,7 +6969,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
-      <c r="B184" s="16"/>
+      <c r="B184" s="22"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -6853,7 +6979,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="2"/>
-      <c r="B185" s="16"/>
+      <c r="B185" s="22"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -6863,7 +6989,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
-      <c r="B186" s="16"/>
+      <c r="B186" s="22"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -6873,7 +6999,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
-      <c r="B187" s="17"/>
+      <c r="B187" s="23"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -6883,7 +7009,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
-      <c r="B188" s="18"/>
+      <c r="B188" s="20"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -6893,7 +7019,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="2"/>
-      <c r="B189" s="19"/>
+      <c r="B189" s="21"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -6903,7 +7029,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
-      <c r="B190" s="19"/>
+      <c r="B190" s="21"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -6913,7 +7039,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
-      <c r="B191" s="19"/>
+      <c r="B191" s="21"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="5"/>
@@ -6923,7 +7049,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
-      <c r="B192" s="19"/>
+      <c r="B192" s="21"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="5"/>
@@ -6933,7 +7059,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
-      <c r="B193" s="19"/>
+      <c r="B193" s="21"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="5"/>
@@ -6943,7 +7069,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
-      <c r="B194" s="19"/>
+      <c r="B194" s="21"/>
       <c r="C194" s="10"/>
       <c r="D194" s="2"/>
       <c r="E194" s="5"/>
@@ -6953,7 +7079,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
-      <c r="B195" s="19"/>
+      <c r="B195" s="21"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="5"/>
@@ -6963,7 +7089,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
-      <c r="B196" s="19"/>
+      <c r="B196" s="21"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="5"/>
@@ -6973,7 +7099,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
-      <c r="B197" s="19"/>
+      <c r="B197" s="21"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="5"/>
@@ -6983,7 +7109,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
-      <c r="B198" s="19"/>
+      <c r="B198" s="21"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="5"/>
@@ -6993,7 +7119,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="2"/>
-      <c r="B199" s="19"/>
+      <c r="B199" s="21"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="5"/>
@@ -7003,7 +7129,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
-      <c r="B200" s="16"/>
+      <c r="B200" s="22"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="5"/>
@@ -7013,7 +7139,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="2"/>
-      <c r="B201" s="16"/>
+      <c r="B201" s="22"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="5"/>
@@ -7023,7 +7149,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="2"/>
-      <c r="B202" s="16"/>
+      <c r="B202" s="22"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="5"/>
@@ -7033,7 +7159,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="2"/>
-      <c r="B203" s="16"/>
+      <c r="B203" s="22"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="5"/>
@@ -7043,7 +7169,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="2"/>
-      <c r="B204" s="16"/>
+      <c r="B204" s="22"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="5"/>
@@ -7053,7 +7179,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="2"/>
-      <c r="B205" s="16"/>
+      <c r="B205" s="22"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="5"/>
@@ -7063,7 +7189,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
-      <c r="B206" s="16"/>
+      <c r="B206" s="22"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="5"/>
@@ -7073,7 +7199,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="2"/>
-      <c r="B207" s="16"/>
+      <c r="B207" s="22"/>
       <c r="C207" s="10"/>
       <c r="D207" s="2"/>
       <c r="E207" s="5"/>
@@ -7083,7 +7209,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="2"/>
-      <c r="B208" s="16"/>
+      <c r="B208" s="22"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="5"/>
@@ -7093,7 +7219,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="2"/>
-      <c r="B209" s="16"/>
+      <c r="B209" s="22"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="5"/>
@@ -7103,7 +7229,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="2"/>
-      <c r="B210" s="16"/>
+      <c r="B210" s="22"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="5"/>
@@ -7113,7 +7239,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="2"/>
-      <c r="B211" s="16"/>
+      <c r="B211" s="22"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="5"/>
@@ -7123,7 +7249,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="2"/>
-      <c r="B212" s="16"/>
+      <c r="B212" s="22"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="5"/>
@@ -7133,7 +7259,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="2"/>
-      <c r="B213" s="16"/>
+      <c r="B213" s="22"/>
       <c r="C213" s="10"/>
       <c r="D213" s="2"/>
       <c r="E213" s="5"/>
@@ -7143,7 +7269,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="2"/>
-      <c r="B214" s="16"/>
+      <c r="B214" s="22"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="5"/>
@@ -7153,7 +7279,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="2"/>
-      <c r="B215" s="16"/>
+      <c r="B215" s="22"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="5"/>
@@ -7163,7 +7289,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="2"/>
-      <c r="B216" s="16"/>
+      <c r="B216" s="22"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="5"/>
@@ -7173,7 +7299,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="2"/>
-      <c r="B217" s="16"/>
+      <c r="B217" s="22"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -7183,7 +7309,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="2"/>
-      <c r="B218" s="16"/>
+      <c r="B218" s="22"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -7193,7 +7319,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="2"/>
-      <c r="B219" s="16"/>
+      <c r="B219" s="22"/>
       <c r="C219" s="10"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -7203,7 +7329,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="2"/>
-      <c r="B220" s="16"/>
+      <c r="B220" s="22"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -7213,7 +7339,7 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="2"/>
-      <c r="B221" s="16"/>
+      <c r="B221" s="22"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -7223,7 +7349,7 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="2"/>
-      <c r="B222" s="16"/>
+      <c r="B222" s="22"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -7233,7 +7359,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="2"/>
-      <c r="B223" s="16"/>
+      <c r="B223" s="22"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -7243,7 +7369,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="2"/>
-      <c r="B224" s="16"/>
+      <c r="B224" s="22"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -7253,7 +7379,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="2"/>
-      <c r="B225" s="16"/>
+      <c r="B225" s="22"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -7263,7 +7389,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="2"/>
-      <c r="B226" s="16"/>
+      <c r="B226" s="22"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -7273,7 +7399,7 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="2"/>
-      <c r="B227" s="16"/>
+      <c r="B227" s="22"/>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -7283,7 +7409,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="2"/>
-      <c r="B228" s="16"/>
+      <c r="B228" s="22"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -7293,7 +7419,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="2"/>
-      <c r="B229" s="16"/>
+      <c r="B229" s="22"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -7303,7 +7429,7 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="2"/>
-      <c r="B230" s="16"/>
+      <c r="B230" s="22"/>
       <c r="C230" s="10"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
@@ -7313,7 +7439,7 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="2"/>
-      <c r="B231" s="16"/>
+      <c r="B231" s="22"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -7323,7 +7449,7 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="2"/>
-      <c r="B232" s="16"/>
+      <c r="B232" s="22"/>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -7333,7 +7459,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="2"/>
-      <c r="B233" s="16"/>
+      <c r="B233" s="22"/>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -7343,7 +7469,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="2"/>
-      <c r="B234" s="16"/>
+      <c r="B234" s="22"/>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
@@ -7353,7 +7479,7 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="2"/>
-      <c r="B235" s="16"/>
+      <c r="B235" s="22"/>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
@@ -7363,7 +7489,7 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="2"/>
-      <c r="B236" s="16"/>
+      <c r="B236" s="22"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
@@ -7373,7 +7499,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="2"/>
-      <c r="B237" s="16"/>
+      <c r="B237" s="22"/>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="5"/>
@@ -7383,7 +7509,7 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="2"/>
-      <c r="B238" s="16"/>
+      <c r="B238" s="22"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="5"/>
@@ -7393,7 +7519,7 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="2"/>
-      <c r="B239" s="16"/>
+      <c r="B239" s="22"/>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="5"/>
@@ -7403,7 +7529,7 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="2"/>
-      <c r="B240" s="16"/>
+      <c r="B240" s="22"/>
       <c r="C240" s="10"/>
       <c r="D240" s="2"/>
       <c r="E240" s="5"/>
@@ -7413,7 +7539,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="2"/>
-      <c r="B241" s="16"/>
+      <c r="B241" s="22"/>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="5"/>
@@ -7423,7 +7549,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="2"/>
-      <c r="B242" s="16"/>
+      <c r="B242" s="22"/>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="5"/>
@@ -7433,7 +7559,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="2"/>
-      <c r="B243" s="16"/>
+      <c r="B243" s="22"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="5"/>
@@ -7443,7 +7569,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="2"/>
-      <c r="B244" s="16"/>
+      <c r="B244" s="22"/>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -7453,7 +7579,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="2"/>
-      <c r="B245" s="16"/>
+      <c r="B245" s="22"/>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -7463,7 +7589,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="2"/>
-      <c r="B246" s="16"/>
+      <c r="B246" s="22"/>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -7473,7 +7599,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="2"/>
-      <c r="B247" s="16"/>
+      <c r="B247" s="22"/>
       <c r="C247" s="10"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
@@ -7483,7 +7609,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="2"/>
-      <c r="B248" s="16"/>
+      <c r="B248" s="22"/>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -7493,7 +7619,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="2"/>
-      <c r="B249" s="16"/>
+      <c r="B249" s="22"/>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
@@ -7503,7 +7629,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="2"/>
-      <c r="B250" s="16"/>
+      <c r="B250" s="22"/>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -7513,7 +7639,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="2"/>
-      <c r="B251" s="16"/>
+      <c r="B251" s="22"/>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -7523,7 +7649,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="2"/>
-      <c r="B252" s="16"/>
+      <c r="B252" s="22"/>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -7533,7 +7659,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="2"/>
-      <c r="B253" s="16"/>
+      <c r="B253" s="22"/>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -7543,7 +7669,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="2"/>
-      <c r="B254" s="16"/>
+      <c r="B254" s="22"/>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -7553,7 +7679,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="2"/>
-      <c r="B255" s="16"/>
+      <c r="B255" s="22"/>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -7563,7 +7689,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="2"/>
-      <c r="B256" s="16"/>
+      <c r="B256" s="22"/>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
@@ -7573,7 +7699,7 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="2"/>
-      <c r="B257" s="16"/>
+      <c r="B257" s="22"/>
       <c r="C257" s="10"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -7583,7 +7709,7 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="2"/>
-      <c r="B258" s="16"/>
+      <c r="B258" s="22"/>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -7593,7 +7719,7 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="2"/>
-      <c r="B259" s="16"/>
+      <c r="B259" s="22"/>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -10233,12 +10359,12 @@
     <mergeCell ref="B237:B243"/>
     <mergeCell ref="B244:B252"/>
     <mergeCell ref="B188:B199"/>
+    <mergeCell ref="B2:B71"/>
     <mergeCell ref="B167:B170"/>
     <mergeCell ref="B171:B174"/>
     <mergeCell ref="B72:B122"/>
     <mergeCell ref="B163:B166"/>
     <mergeCell ref="B123:B162"/>
-    <mergeCell ref="B2:B71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10294,7 +10420,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -10316,7 +10442,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
-      <c r="B3" s="19"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
@@ -10336,7 +10462,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
-      <c r="B4" s="19"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
@@ -10356,7 +10482,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
-      <c r="B5" s="19"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
@@ -10376,7 +10502,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
-      <c r="B6" s="19"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
@@ -10396,7 +10522,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
-      <c r="B7" s="19"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
@@ -10416,7 +10542,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
-      <c r="B8" s="19"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
@@ -10436,7 +10562,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
-      <c r="B9" s="19"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
@@ -10456,7 +10582,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
-      <c r="B10" s="19"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="7" t="s">
         <v>16</v>
       </c>
@@ -10476,7 +10602,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
-      <c r="B11" s="19"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
@@ -10496,7 +10622,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
-      <c r="B12" s="19"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="7" t="s">
         <v>16</v>
       </c>
@@ -10518,7 +10644,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
-      <c r="B13" s="19"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="7" t="s">
         <v>16</v>
       </c>
@@ -10538,7 +10664,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
-      <c r="B14" s="19"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="7" t="s">
         <v>16</v>
       </c>
@@ -10558,7 +10684,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
-      <c r="B15" s="19"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="7" t="s">
         <v>16</v>
       </c>
@@ -10578,7 +10704,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
-      <c r="B16" s="19"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="7" t="s">
         <v>16</v>
       </c>
@@ -10598,7 +10724,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
-      <c r="B17" s="19"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="7" t="s">
         <v>16</v>
       </c>
@@ -10618,7 +10744,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
-      <c r="B18" s="19"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="7" t="s">
         <v>16</v>
       </c>
@@ -10638,7 +10764,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
-      <c r="B19" s="19"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="7" t="s">
         <v>16</v>
       </c>
@@ -10658,7 +10784,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
-      <c r="B20" s="19"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="7" t="s">
         <v>16</v>
       </c>
@@ -10678,7 +10804,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
-      <c r="B21" s="19"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="7" t="s">
         <v>16</v>
       </c>
@@ -10698,7 +10824,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
-      <c r="B22" s="19"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="7" t="s">
         <v>16</v>
       </c>
@@ -10718,7 +10844,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
-      <c r="B23" s="19"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="7" t="s">
         <v>16</v>
       </c>
@@ -10738,7 +10864,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
-      <c r="B24" s="19"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="7" t="s">
         <v>16</v>
       </c>
@@ -10758,7 +10884,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
-      <c r="B25" s="19"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="7" t="s">
         <v>16</v>
       </c>
@@ -10778,7 +10904,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
-      <c r="B26" s="19"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="7" t="s">
         <v>16</v>
       </c>
@@ -10798,7 +10924,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
-      <c r="B27" s="19"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="7" t="s">
         <v>16</v>
       </c>
@@ -10818,7 +10944,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
-      <c r="B28" s="19"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="7" t="s">
         <v>16</v>
       </c>
@@ -10838,7 +10964,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
-      <c r="B29" s="19"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="7" t="s">
         <v>16</v>
       </c>
@@ -10858,7 +10984,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
-      <c r="B30" s="19"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="7" t="s">
         <v>16</v>
       </c>
@@ -10878,7 +11004,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
-      <c r="B31" s="19"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="7" t="s">
         <v>16</v>
       </c>
@@ -10898,7 +11024,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
-      <c r="B32" s="19"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="7" t="s">
         <v>16</v>
       </c>
@@ -10918,7 +11044,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
-      <c r="B33" s="19"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="7" t="s">
         <v>16</v>
       </c>
@@ -10938,7 +11064,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
-      <c r="B34" s="19"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="7" t="s">
         <v>16</v>
       </c>
@@ -10958,7 +11084,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
-      <c r="B35" s="19"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="7" t="s">
         <v>16</v>
       </c>
@@ -10978,7 +11104,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
-      <c r="B36" s="19"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="7" t="s">
         <v>16</v>
       </c>
@@ -10998,7 +11124,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
-      <c r="B37" s="19"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="7" t="s">
         <v>16</v>
       </c>
@@ -11018,7 +11144,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
-      <c r="B38" s="19"/>
+      <c r="B38" s="21"/>
       <c r="C38" s="7" t="s">
         <v>16</v>
       </c>
@@ -11038,7 +11164,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
-      <c r="B39" s="19"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="7" t="s">
         <v>16</v>
       </c>
@@ -11058,7 +11184,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
-      <c r="B40" s="19"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="7" t="s">
         <v>16</v>
       </c>
@@ -11078,7 +11204,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
-      <c r="B41" s="19"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="7" t="s">
         <v>16</v>
       </c>
@@ -11098,7 +11224,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
-      <c r="B42" s="19"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="7" t="s">
         <v>16</v>
       </c>
@@ -11118,7 +11244,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
-      <c r="B43" s="19"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="7" t="s">
         <v>16</v>
       </c>
@@ -11138,7 +11264,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
-      <c r="B44" s="19"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="7" t="s">
         <v>16</v>
       </c>
@@ -11158,7 +11284,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -11180,7 +11306,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
-      <c r="B46" s="16"/>
+      <c r="B46" s="22"/>
       <c r="C46" s="7" t="s">
         <v>104</v>
       </c>
@@ -11200,7 +11326,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
-      <c r="B47" s="16"/>
+      <c r="B47" s="22"/>
       <c r="C47" s="7" t="s">
         <v>104</v>
       </c>
@@ -11220,7 +11346,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
-      <c r="B48" s="16"/>
+      <c r="B48" s="22"/>
       <c r="C48" s="7" t="s">
         <v>104</v>
       </c>
@@ -11240,7 +11366,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
-      <c r="B49" s="16"/>
+      <c r="B49" s="22"/>
       <c r="C49" s="7" t="s">
         <v>104</v>
       </c>
@@ -11260,7 +11386,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
-      <c r="B50" s="16"/>
+      <c r="B50" s="22"/>
       <c r="C50" s="7" t="s">
         <v>104</v>
       </c>
@@ -11280,7 +11406,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
-      <c r="B51" s="16"/>
+      <c r="B51" s="22"/>
       <c r="C51" s="7" t="s">
         <v>104</v>
       </c>
@@ -11300,7 +11426,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C52" s="7" t="s">
@@ -11322,7 +11448,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
-      <c r="B53" s="16"/>
+      <c r="B53" s="22"/>
       <c r="C53" s="7" t="s">
         <v>118</v>
       </c>
@@ -11342,7 +11468,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
-      <c r="B54" s="16"/>
+      <c r="B54" s="22"/>
       <c r="C54" s="7" t="s">
         <v>118</v>
       </c>
@@ -11362,7 +11488,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
-      <c r="B55" s="16"/>
+      <c r="B55" s="22"/>
       <c r="C55" s="7" t="s">
         <v>118</v>
       </c>
@@ -11382,7 +11508,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
-      <c r="B56" s="16"/>
+      <c r="B56" s="22"/>
       <c r="C56" s="7" t="s">
         <v>118</v>
       </c>
@@ -11402,7 +11528,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
-      <c r="B57" s="16"/>
+      <c r="B57" s="22"/>
       <c r="C57" s="7" t="s">
         <v>118</v>
       </c>
@@ -11422,7 +11548,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
-      <c r="B58" s="16"/>
+      <c r="B58" s="22"/>
       <c r="C58" s="7" t="s">
         <v>118</v>
       </c>
@@ -11442,7 +11568,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
-      <c r="B59" s="16"/>
+      <c r="B59" s="22"/>
       <c r="C59" s="7" t="s">
         <v>118</v>
       </c>
@@ -11462,7 +11588,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="7"/>
-      <c r="B60" s="16"/>
+      <c r="B60" s="22"/>
       <c r="C60" s="7" t="s">
         <v>118</v>
       </c>
@@ -11482,7 +11608,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="7"/>
-      <c r="B61" s="16"/>
+      <c r="B61" s="22"/>
       <c r="C61" s="7" t="s">
         <v>118</v>
       </c>
@@ -11502,7 +11628,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
-      <c r="B62" s="16"/>
+      <c r="B62" s="22"/>
       <c r="C62" s="7" t="s">
         <v>118</v>
       </c>
@@ -11522,7 +11648,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="7"/>
-      <c r="B63" s="16"/>
+      <c r="B63" s="22"/>
       <c r="C63" s="7" t="s">
         <v>118</v>
       </c>
@@ -11542,7 +11668,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
-      <c r="B64" s="16"/>
+      <c r="B64" s="22"/>
       <c r="C64" s="7" t="s">
         <v>118</v>
       </c>
@@ -11564,7 +11690,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="7"/>
-      <c r="B65" s="16"/>
+      <c r="B65" s="22"/>
       <c r="C65" s="7" t="s">
         <v>118</v>
       </c>
@@ -11584,7 +11710,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
-      <c r="B66" s="16"/>
+      <c r="B66" s="22"/>
       <c r="C66" s="7" t="s">
         <v>118</v>
       </c>
@@ -11606,7 +11732,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
-      <c r="B67" s="16"/>
+      <c r="B67" s="22"/>
       <c r="C67" s="7" t="s">
         <v>118</v>
       </c>
@@ -11626,7 +11752,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
-      <c r="B68" s="16"/>
+      <c r="B68" s="22"/>
       <c r="C68" s="7" t="s">
         <v>118</v>
       </c>
@@ -11646,7 +11772,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
-      <c r="B69" s="16"/>
+      <c r="B69" s="22"/>
       <c r="C69" s="7" t="s">
         <v>118</v>
       </c>
@@ -11666,7 +11792,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="7"/>
-      <c r="B70" s="16"/>
+      <c r="B70" s="22"/>
       <c r="C70" s="7" t="s">
         <v>118</v>
       </c>
@@ -11686,7 +11812,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
-      <c r="B71" s="16"/>
+      <c r="B71" s="22"/>
       <c r="C71" s="7" t="s">
         <v>118</v>
       </c>
@@ -11706,7 +11832,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
-      <c r="B72" s="16"/>
+      <c r="B72" s="22"/>
       <c r="C72" s="7" t="s">
         <v>118</v>
       </c>
@@ -11726,7 +11852,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
-      <c r="B73" s="16"/>
+      <c r="B73" s="22"/>
       <c r="C73" s="7" t="s">
         <v>118</v>
       </c>
@@ -11746,7 +11872,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
-      <c r="B74" s="16"/>
+      <c r="B74" s="22"/>
       <c r="C74" s="7" t="s">
         <v>118</v>
       </c>
@@ -11766,7 +11892,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="7"/>
-      <c r="B75" s="16"/>
+      <c r="B75" s="22"/>
       <c r="C75" s="7" t="s">
         <v>118</v>
       </c>
@@ -11786,7 +11912,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="7"/>
-      <c r="B76" s="16"/>
+      <c r="B76" s="22"/>
       <c r="C76" s="7" t="s">
         <v>118</v>
       </c>
@@ -11806,7 +11932,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
-      <c r="B77" s="16" t="s">
+      <c r="B77" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C77" s="7" t="s">
@@ -11828,7 +11954,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="7"/>
-      <c r="B78" s="16"/>
+      <c r="B78" s="22"/>
       <c r="C78" s="7" t="s">
         <v>536</v>
       </c>
@@ -11848,7 +11974,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="7"/>
-      <c r="B79" s="16"/>
+      <c r="B79" s="22"/>
       <c r="C79" s="7" t="s">
         <v>536</v>
       </c>
@@ -11868,7 +11994,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
-      <c r="B80" s="16"/>
+      <c r="B80" s="22"/>
       <c r="C80" s="7" t="s">
         <v>536</v>
       </c>
@@ -11888,7 +12014,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
-      <c r="B81" s="16"/>
+      <c r="B81" s="22"/>
       <c r="C81" s="7" t="s">
         <v>536</v>
       </c>
@@ -11908,7 +12034,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="7"/>
-      <c r="B82" s="16"/>
+      <c r="B82" s="22"/>
       <c r="C82" s="7" t="s">
         <v>536</v>
       </c>
@@ -11928,7 +12054,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="7"/>
-      <c r="B83" s="16"/>
+      <c r="B83" s="22"/>
       <c r="C83" s="7" t="s">
         <v>536</v>
       </c>
@@ -11948,7 +12074,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="7"/>
-      <c r="B84" s="16"/>
+      <c r="B84" s="22"/>
       <c r="C84" s="7" t="s">
         <v>536</v>
       </c>
@@ -11968,7 +12094,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="7"/>
-      <c r="B85" s="16"/>
+      <c r="B85" s="22"/>
       <c r="C85" s="7" t="s">
         <v>536</v>
       </c>
@@ -11988,7 +12114,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="7"/>
-      <c r="B86" s="16"/>
+      <c r="B86" s="22"/>
       <c r="C86" s="7" t="s">
         <v>536</v>
       </c>
@@ -12008,7 +12134,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="7"/>
-      <c r="B87" s="16"/>
+      <c r="B87" s="22"/>
       <c r="C87" s="7" t="s">
         <v>536</v>
       </c>
@@ -12028,7 +12154,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="7"/>
-      <c r="B88" s="16"/>
+      <c r="B88" s="22"/>
       <c r="C88" s="7" t="s">
         <v>536</v>
       </c>
@@ -12048,7 +12174,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="7"/>
-      <c r="B89" s="16"/>
+      <c r="B89" s="22"/>
       <c r="C89" s="7" t="s">
         <v>536</v>
       </c>
@@ -12068,7 +12194,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="7"/>
-      <c r="B90" s="16"/>
+      <c r="B90" s="22"/>
       <c r="C90" s="7" t="s">
         <v>536</v>
       </c>
@@ -12088,7 +12214,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="7"/>
-      <c r="B91" s="16"/>
+      <c r="B91" s="22"/>
       <c r="C91" s="7" t="s">
         <v>536</v>
       </c>
@@ -12108,7 +12234,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="7"/>
-      <c r="B92" s="16"/>
+      <c r="B92" s="22"/>
       <c r="C92" s="7" t="s">
         <v>536</v>
       </c>
@@ -12128,7 +12254,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="7"/>
-      <c r="B93" s="16"/>
+      <c r="B93" s="22"/>
       <c r="C93" s="7" t="s">
         <v>536</v>
       </c>
@@ -12148,7 +12274,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="7"/>
-      <c r="B94" s="16"/>
+      <c r="B94" s="22"/>
       <c r="C94" s="7" t="s">
         <v>536</v>
       </c>
@@ -12168,7 +12294,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="7"/>
-      <c r="B95" s="16"/>
+      <c r="B95" s="22"/>
       <c r="C95" s="7" t="s">
         <v>536</v>
       </c>
@@ -12188,7 +12314,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="7"/>
-      <c r="B96" s="16"/>
+      <c r="B96" s="22"/>
       <c r="C96" s="7" t="s">
         <v>536</v>
       </c>
@@ -12208,7 +12334,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="7"/>
-      <c r="B97" s="16"/>
+      <c r="B97" s="22"/>
       <c r="C97" s="7" t="s">
         <v>536</v>
       </c>
@@ -12228,7 +12354,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="7"/>
-      <c r="B98" s="16"/>
+      <c r="B98" s="22"/>
       <c r="C98" s="7" t="s">
         <v>536</v>
       </c>
@@ -12248,7 +12374,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="7"/>
-      <c r="B99" s="16"/>
+      <c r="B99" s="22"/>
       <c r="C99" s="7" t="s">
         <v>536</v>
       </c>
@@ -12268,7 +12394,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="7"/>
-      <c r="B100" s="16" t="s">
+      <c r="B100" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C100" s="7" t="s">
@@ -12290,7 +12416,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="7"/>
-      <c r="B101" s="16"/>
+      <c r="B101" s="22"/>
       <c r="C101" s="7" t="s">
         <v>561</v>
       </c>
@@ -12310,7 +12436,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="7"/>
-      <c r="B102" s="16"/>
+      <c r="B102" s="22"/>
       <c r="C102" s="7" t="s">
         <v>170</v>
       </c>
@@ -12330,7 +12456,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="7"/>
-      <c r="B103" s="16"/>
+      <c r="B103" s="22"/>
       <c r="C103" s="7" t="s">
         <v>170</v>
       </c>
@@ -12350,7 +12476,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="7"/>
-      <c r="B104" s="16" t="s">
+      <c r="B104" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C104" s="7" t="s">
@@ -12372,7 +12498,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="7"/>
-      <c r="B105" s="16"/>
+      <c r="B105" s="22"/>
       <c r="C105" s="7" t="s">
         <v>179</v>
       </c>
@@ -12392,7 +12518,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="7"/>
-      <c r="B106" s="16"/>
+      <c r="B106" s="22"/>
       <c r="C106" s="7" t="s">
         <v>562</v>
       </c>
@@ -12412,7 +12538,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="7"/>
-      <c r="B107" s="16"/>
+      <c r="B107" s="22"/>
       <c r="C107" s="7" t="s">
         <v>179</v>
       </c>
@@ -12432,7 +12558,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="7"/>
-      <c r="B108" s="16"/>
+      <c r="B108" s="22"/>
       <c r="C108" s="7" t="s">
         <v>179</v>
       </c>
@@ -12452,7 +12578,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="7"/>
-      <c r="B109" s="16"/>
+      <c r="B109" s="22"/>
       <c r="C109" s="7" t="s">
         <v>179</v>
       </c>
@@ -12472,7 +12598,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="7"/>
-      <c r="B110" s="16"/>
+      <c r="B110" s="22"/>
       <c r="C110" s="7" t="s">
         <v>179</v>
       </c>
@@ -12492,7 +12618,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="7"/>
-      <c r="B111" s="16"/>
+      <c r="B111" s="22"/>
       <c r="C111" s="7" t="s">
         <v>179</v>
       </c>
@@ -12512,7 +12638,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="7"/>
-      <c r="B112" s="16"/>
+      <c r="B112" s="22"/>
       <c r="C112" s="7" t="s">
         <v>179</v>
       </c>
@@ -12532,7 +12658,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="7"/>
-      <c r="B113" s="16"/>
+      <c r="B113" s="22"/>
       <c r="C113" s="7" t="s">
         <v>179</v>
       </c>
@@ -12552,7 +12678,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="7"/>
-      <c r="B114" s="16"/>
+      <c r="B114" s="22"/>
       <c r="C114" s="7" t="s">
         <v>179</v>
       </c>
@@ -12572,7 +12698,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="7"/>
-      <c r="B115" s="16"/>
+      <c r="B115" s="22"/>
       <c r="C115" s="7" t="s">
         <v>179</v>
       </c>
@@ -12592,7 +12718,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="7"/>
-      <c r="B116" s="16"/>
+      <c r="B116" s="22"/>
       <c r="C116" s="7" t="s">
         <v>179</v>
       </c>
@@ -12612,7 +12738,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="7"/>
-      <c r="B117" s="16"/>
+      <c r="B117" s="22"/>
       <c r="C117" s="7" t="s">
         <v>179</v>
       </c>
@@ -12632,7 +12758,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="7"/>
-      <c r="B118" s="16"/>
+      <c r="B118" s="22"/>
       <c r="C118" s="7" t="s">
         <v>179</v>
       </c>
@@ -12654,7 +12780,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="7"/>
-      <c r="B119" s="16"/>
+      <c r="B119" s="22"/>
       <c r="C119" s="7" t="s">
         <v>179</v>
       </c>
@@ -12674,7 +12800,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="7"/>
-      <c r="B120" s="16"/>
+      <c r="B120" s="22"/>
       <c r="C120" s="7" t="s">
         <v>179</v>
       </c>
@@ -12694,7 +12820,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="7"/>
-      <c r="B121" s="16"/>
+      <c r="B121" s="22"/>
       <c r="C121" s="7" t="s">
         <v>179</v>
       </c>
@@ -12714,7 +12840,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="7"/>
-      <c r="B122" s="16"/>
+      <c r="B122" s="22"/>
       <c r="C122" s="7" t="s">
         <v>179</v>
       </c>
@@ -12734,7 +12860,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="7"/>
-      <c r="B123" s="16"/>
+      <c r="B123" s="22"/>
       <c r="C123" s="7" t="s">
         <v>179</v>
       </c>
@@ -12754,7 +12880,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="7"/>
-      <c r="B124" s="16"/>
+      <c r="B124" s="22"/>
       <c r="C124" s="7" t="s">
         <v>179</v>
       </c>
@@ -12774,7 +12900,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="7"/>
-      <c r="B125" s="16"/>
+      <c r="B125" s="22"/>
       <c r="C125" s="7" t="s">
         <v>179</v>
       </c>
@@ -12794,7 +12920,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="7"/>
-      <c r="B126" s="16"/>
+      <c r="B126" s="22"/>
       <c r="C126" s="7" t="s">
         <v>179</v>
       </c>
@@ -12814,7 +12940,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="7"/>
-      <c r="B127" s="16"/>
+      <c r="B127" s="22"/>
       <c r="C127" s="7" t="s">
         <v>179</v>
       </c>
@@ -12834,7 +12960,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="7"/>
-      <c r="B128" s="16"/>
+      <c r="B128" s="22"/>
       <c r="C128" s="7" t="s">
         <v>179</v>
       </c>
@@ -12856,7 +12982,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="7"/>
-      <c r="B129" s="16"/>
+      <c r="B129" s="22"/>
       <c r="C129" s="7" t="s">
         <v>179</v>
       </c>
@@ -12876,7 +13002,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="7"/>
-      <c r="B130" s="16"/>
+      <c r="B130" s="22"/>
       <c r="C130" s="7" t="s">
         <v>179</v>
       </c>
@@ -12898,7 +13024,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="7"/>
-      <c r="B131" s="16"/>
+      <c r="B131" s="22"/>
       <c r="C131" s="7" t="s">
         <v>179</v>
       </c>
@@ -12920,7 +13046,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="7"/>
-      <c r="B132" s="16"/>
+      <c r="B132" s="22"/>
       <c r="C132" s="7" t="s">
         <v>179</v>
       </c>
@@ -12942,7 +13068,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="7"/>
-      <c r="B133" s="16"/>
+      <c r="B133" s="22"/>
       <c r="C133" s="7" t="s">
         <v>179</v>
       </c>
@@ -12964,7 +13090,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="7"/>
-      <c r="B134" s="16"/>
+      <c r="B134" s="22"/>
       <c r="C134" s="7" t="s">
         <v>179</v>
       </c>
@@ -12986,7 +13112,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="7"/>
-      <c r="B135" s="16"/>
+      <c r="B135" s="22"/>
       <c r="C135" s="7" t="s">
         <v>179</v>
       </c>
@@ -13008,7 +13134,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="7"/>
-      <c r="B136" s="16"/>
+      <c r="B136" s="22"/>
       <c r="C136" s="7" t="s">
         <v>179</v>
       </c>
@@ -13030,7 +13156,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="7"/>
-      <c r="B137" s="16"/>
+      <c r="B137" s="22"/>
       <c r="C137" s="7" t="s">
         <v>179</v>
       </c>
@@ -13052,7 +13178,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="7"/>
-      <c r="B138" s="16"/>
+      <c r="B138" s="22"/>
       <c r="C138" s="7" t="s">
         <v>179</v>
       </c>
@@ -13074,7 +13200,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="7"/>
-      <c r="B139" s="16"/>
+      <c r="B139" s="22"/>
       <c r="C139" s="7" t="s">
         <v>179</v>
       </c>
@@ -13096,7 +13222,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="7"/>
-      <c r="B140" s="16"/>
+      <c r="B140" s="22"/>
       <c r="C140" s="7" t="s">
         <v>179</v>
       </c>
@@ -13118,7 +13244,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="7"/>
-      <c r="B141" s="16"/>
+      <c r="B141" s="22"/>
       <c r="C141" s="7" t="s">
         <v>179</v>
       </c>
@@ -13138,7 +13264,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="7"/>
-      <c r="B142" s="16"/>
+      <c r="B142" s="22"/>
       <c r="C142" s="7" t="s">
         <v>179</v>
       </c>
@@ -13158,7 +13284,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="7"/>
-      <c r="B143" s="16"/>
+      <c r="B143" s="22"/>
       <c r="C143" s="7" t="s">
         <v>179</v>
       </c>
@@ -13178,7 +13304,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="7"/>
-      <c r="B144" s="16"/>
+      <c r="B144" s="22"/>
       <c r="C144" s="7" t="s">
         <v>179</v>
       </c>
@@ -13198,7 +13324,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="7"/>
-      <c r="B145" s="16"/>
+      <c r="B145" s="22"/>
       <c r="C145" s="7" t="s">
         <v>179</v>
       </c>
@@ -13218,7 +13344,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="7"/>
-      <c r="B146" s="16"/>
+      <c r="B146" s="22"/>
       <c r="C146" s="7" t="s">
         <v>179</v>
       </c>
@@ -13238,7 +13364,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="7"/>
-      <c r="B147" s="16"/>
+      <c r="B147" s="22"/>
       <c r="C147" s="7" t="s">
         <v>179</v>
       </c>
@@ -13258,7 +13384,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="7"/>
-      <c r="B148" s="16"/>
+      <c r="B148" s="22"/>
       <c r="C148" s="7" t="s">
         <v>179</v>
       </c>
@@ -13278,7 +13404,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="7"/>
-      <c r="B149" s="16" t="s">
+      <c r="B149" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C149" s="7" t="s">
@@ -13300,7 +13426,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="7"/>
-      <c r="B150" s="16"/>
+      <c r="B150" s="22"/>
       <c r="C150" s="7" t="s">
         <v>272</v>
       </c>
@@ -13320,7 +13446,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="7"/>
-      <c r="B151" s="16"/>
+      <c r="B151" s="22"/>
       <c r="C151" s="7" t="s">
         <v>272</v>
       </c>
@@ -13340,7 +13466,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="7"/>
-      <c r="B152" s="16"/>
+      <c r="B152" s="22"/>
       <c r="C152" s="7" t="s">
         <v>272</v>
       </c>
@@ -13360,7 +13486,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="7"/>
-      <c r="B153" s="16" t="s">
+      <c r="B153" s="22" t="s">
         <v>563</v>
       </c>
       <c r="C153" s="7" t="s">
@@ -13382,7 +13508,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="7"/>
-      <c r="B154" s="16"/>
+      <c r="B154" s="22"/>
       <c r="C154" s="7" t="s">
         <v>280</v>
       </c>
@@ -13402,7 +13528,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="7"/>
-      <c r="B155" s="16"/>
+      <c r="B155" s="22"/>
       <c r="C155" s="7" t="s">
         <v>280</v>
       </c>
@@ -13422,7 +13548,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="7"/>
-      <c r="B156" s="16"/>
+      <c r="B156" s="22"/>
       <c r="C156" s="7" t="s">
         <v>280</v>
       </c>
@@ -13442,7 +13568,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="7"/>
-      <c r="B157" s="16"/>
+      <c r="B157" s="22"/>
       <c r="C157" s="7" t="s">
         <v>280</v>
       </c>
@@ -13462,7 +13588,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="7"/>
-      <c r="B158" s="16"/>
+      <c r="B158" s="22"/>
       <c r="C158" s="7" t="s">
         <v>280</v>
       </c>
@@ -13482,7 +13608,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="7"/>
-      <c r="B159" s="16"/>
+      <c r="B159" s="22"/>
       <c r="C159" s="7" t="s">
         <v>280</v>
       </c>
@@ -13502,7 +13628,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="7"/>
-      <c r="B160" s="16"/>
+      <c r="B160" s="22"/>
       <c r="C160" s="7" t="s">
         <v>280</v>
       </c>
@@ -13522,7 +13648,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="7"/>
-      <c r="B161" s="16"/>
+      <c r="B161" s="22"/>
       <c r="C161" s="7" t="s">
         <v>280</v>
       </c>
@@ -13542,7 +13668,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="7"/>
-      <c r="B162" s="16"/>
+      <c r="B162" s="22"/>
       <c r="C162" s="7" t="s">
         <v>280</v>
       </c>
@@ -13562,7 +13688,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="7"/>
-      <c r="B163" s="16"/>
+      <c r="B163" s="22"/>
       <c r="C163" s="7" t="s">
         <v>280</v>
       </c>
@@ -13582,7 +13708,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="7"/>
-      <c r="B164" s="16"/>
+      <c r="B164" s="22"/>
       <c r="C164" s="7" t="s">
         <v>280</v>
       </c>
@@ -13602,7 +13728,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="7"/>
-      <c r="B165" s="16"/>
+      <c r="B165" s="22"/>
       <c r="C165" s="7" t="s">
         <v>280</v>
       </c>
@@ -13622,7 +13748,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="7"/>
-      <c r="B166" s="16"/>
+      <c r="B166" s="22"/>
       <c r="C166" s="7" t="s">
         <v>280</v>
       </c>
@@ -13642,7 +13768,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="7"/>
-      <c r="B167" s="16"/>
+      <c r="B167" s="22"/>
       <c r="C167" s="7" t="s">
         <v>280</v>
       </c>
@@ -13662,7 +13788,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="7"/>
-      <c r="B168" s="16"/>
+      <c r="B168" s="22"/>
       <c r="C168" s="7" t="s">
         <v>280</v>
       </c>
@@ -13682,7 +13808,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="7"/>
-      <c r="B169" s="16"/>
+      <c r="B169" s="22"/>
       <c r="C169" s="7" t="s">
         <v>280</v>
       </c>
@@ -13702,7 +13828,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="7"/>
-      <c r="B170" s="16"/>
+      <c r="B170" s="22"/>
       <c r="C170" s="7" t="s">
         <v>280</v>
       </c>
@@ -13722,7 +13848,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="7"/>
-      <c r="B171" s="16"/>
+      <c r="B171" s="22"/>
       <c r="C171" s="7" t="s">
         <v>280</v>
       </c>
@@ -13742,7 +13868,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="7"/>
-      <c r="B172" s="16"/>
+      <c r="B172" s="22"/>
       <c r="C172" s="7" t="s">
         <v>280</v>
       </c>
@@ -13762,7 +13888,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="7"/>
-      <c r="B173" s="16"/>
+      <c r="B173" s="22"/>
       <c r="C173" s="7" t="s">
         <v>280</v>
       </c>
@@ -13782,7 +13908,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="7"/>
-      <c r="B174" s="16"/>
+      <c r="B174" s="22"/>
       <c r="C174" s="7" t="s">
         <v>564</v>
       </c>
@@ -13802,7 +13928,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="7"/>
-      <c r="B175" s="16"/>
+      <c r="B175" s="22"/>
       <c r="C175" s="7" t="s">
         <v>280</v>
       </c>
@@ -13822,7 +13948,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="7"/>
-      <c r="B176" s="16"/>
+      <c r="B176" s="22"/>
       <c r="C176" s="7" t="s">
         <v>280</v>
       </c>
@@ -13842,7 +13968,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="7"/>
-      <c r="B177" s="16"/>
+      <c r="B177" s="22"/>
       <c r="C177" s="7" t="s">
         <v>280</v>
       </c>
@@ -13862,7 +13988,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="7"/>
-      <c r="B178" s="16"/>
+      <c r="B178" s="22"/>
       <c r="C178" s="7" t="s">
         <v>280</v>
       </c>
@@ -13882,7 +14008,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="7"/>
-      <c r="B179" s="16"/>
+      <c r="B179" s="22"/>
       <c r="C179" s="7" t="s">
         <v>280</v>
       </c>
@@ -13902,7 +14028,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="7"/>
-      <c r="B180" s="16"/>
+      <c r="B180" s="22"/>
       <c r="C180" s="7" t="s">
         <v>280</v>
       </c>
@@ -13922,7 +14048,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="7"/>
-      <c r="B181" s="16"/>
+      <c r="B181" s="22"/>
       <c r="C181" s="7" t="s">
         <v>280</v>
       </c>
@@ -13942,7 +14068,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="7"/>
-      <c r="B182" s="16"/>
+      <c r="B182" s="22"/>
       <c r="C182" s="7" t="s">
         <v>280</v>
       </c>
@@ -13962,7 +14088,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="7"/>
-      <c r="B183" s="16"/>
+      <c r="B183" s="22"/>
       <c r="C183" s="7" t="s">
         <v>280</v>
       </c>
@@ -13982,7 +14108,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="7"/>
-      <c r="B184" s="16"/>
+      <c r="B184" s="22"/>
       <c r="C184" s="7" t="s">
         <v>280</v>
       </c>
@@ -14002,7 +14128,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="7"/>
-      <c r="B185" s="16"/>
+      <c r="B185" s="22"/>
       <c r="C185" s="7" t="s">
         <v>280</v>
       </c>
@@ -14022,7 +14148,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="7"/>
-      <c r="B186" s="16"/>
+      <c r="B186" s="22"/>
       <c r="C186" s="7" t="s">
         <v>280</v>
       </c>
@@ -14042,7 +14168,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="7"/>
-      <c r="B187" s="16"/>
+      <c r="B187" s="22"/>
       <c r="C187" s="7" t="s">
         <v>280</v>
       </c>
@@ -14062,7 +14188,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="7"/>
-      <c r="B188" s="16"/>
+      <c r="B188" s="22"/>
       <c r="C188" s="7" t="s">
         <v>280</v>
       </c>
@@ -14082,7 +14208,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="7"/>
-      <c r="B189" s="16"/>
+      <c r="B189" s="22"/>
       <c r="C189" s="7" t="s">
         <v>280</v>
       </c>
@@ -14102,7 +14228,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="7"/>
-      <c r="B190" s="16"/>
+      <c r="B190" s="22"/>
       <c r="C190" s="7" t="s">
         <v>280</v>
       </c>
@@ -14122,7 +14248,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="7"/>
-      <c r="B191" s="16"/>
+      <c r="B191" s="22"/>
       <c r="C191" s="7" t="s">
         <v>280</v>
       </c>
@@ -14142,7 +14268,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="7"/>
-      <c r="B192" s="16"/>
+      <c r="B192" s="22"/>
       <c r="C192" s="7" t="s">
         <v>280</v>
       </c>
@@ -14162,7 +14288,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="7"/>
-      <c r="B193" s="16"/>
+      <c r="B193" s="22"/>
       <c r="C193" s="7" t="s">
         <v>280</v>
       </c>
@@ -14182,7 +14308,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="7"/>
-      <c r="B194" s="16"/>
+      <c r="B194" s="22"/>
       <c r="C194" s="7" t="s">
         <v>280</v>
       </c>
@@ -14202,7 +14328,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="7"/>
-      <c r="B195" s="16"/>
+      <c r="B195" s="22"/>
       <c r="C195" s="7" t="s">
         <v>280</v>
       </c>
@@ -14222,7 +14348,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="7"/>
-      <c r="B196" s="16"/>
+      <c r="B196" s="22"/>
       <c r="C196" s="7" t="s">
         <v>280</v>
       </c>
@@ -14242,7 +14368,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="7"/>
-      <c r="B197" s="16"/>
+      <c r="B197" s="22"/>
       <c r="C197" s="7" t="s">
         <v>280</v>
       </c>
@@ -14262,7 +14388,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="7"/>
-      <c r="B198" s="16"/>
+      <c r="B198" s="22"/>
       <c r="C198" s="7" t="s">
         <v>280</v>
       </c>
@@ -14282,7 +14408,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="7"/>
-      <c r="B199" s="16"/>
+      <c r="B199" s="22"/>
       <c r="C199" s="7" t="s">
         <v>280</v>
       </c>
@@ -14302,7 +14428,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="7"/>
-      <c r="B200" s="16"/>
+      <c r="B200" s="22"/>
       <c r="C200" s="7" t="s">
         <v>280</v>
       </c>
@@ -14322,7 +14448,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="7"/>
-      <c r="B201" s="16"/>
+      <c r="B201" s="22"/>
       <c r="C201" s="7" t="s">
         <v>280</v>
       </c>
@@ -14342,7 +14468,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="7"/>
-      <c r="B202" s="16"/>
+      <c r="B202" s="22"/>
       <c r="C202" s="7" t="s">
         <v>280</v>
       </c>
@@ -14362,7 +14488,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="7"/>
-      <c r="B203" s="16"/>
+      <c r="B203" s="22"/>
       <c r="C203" s="7" t="s">
         <v>280</v>
       </c>
@@ -14382,7 +14508,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="7"/>
-      <c r="B204" s="16"/>
+      <c r="B204" s="22"/>
       <c r="C204" s="7" t="s">
         <v>280</v>
       </c>
@@ -14402,7 +14528,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="7"/>
-      <c r="B205" s="16"/>
+      <c r="B205" s="22"/>
       <c r="C205" s="7" t="s">
         <v>280</v>
       </c>
@@ -14422,7 +14548,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="7"/>
-      <c r="B206" s="16"/>
+      <c r="B206" s="22"/>
       <c r="C206" s="7" t="s">
         <v>280</v>
       </c>
@@ -14442,7 +14568,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="7"/>
-      <c r="B207" s="16"/>
+      <c r="B207" s="22"/>
       <c r="C207" s="7" t="s">
         <v>280</v>
       </c>
@@ -14462,7 +14588,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="7"/>
-      <c r="B208" s="16"/>
+      <c r="B208" s="22"/>
       <c r="C208" s="7" t="s">
         <v>280</v>
       </c>
@@ -14482,7 +14608,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="7"/>
-      <c r="B209" s="16"/>
+      <c r="B209" s="22"/>
       <c r="C209" s="7" t="s">
         <v>280</v>
       </c>
@@ -14502,7 +14628,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="7"/>
-      <c r="B210" s="16"/>
+      <c r="B210" s="22"/>
       <c r="C210" s="7" t="s">
         <v>280</v>
       </c>
@@ -14522,7 +14648,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="7"/>
-      <c r="B211" s="16"/>
+      <c r="B211" s="22"/>
       <c r="C211" s="7" t="s">
         <v>280</v>
       </c>
@@ -14542,7 +14668,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="7"/>
-      <c r="B212" s="16"/>
+      <c r="B212" s="22"/>
       <c r="C212" s="7" t="s">
         <v>280</v>
       </c>
@@ -14562,7 +14688,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="7"/>
-      <c r="B213" s="16"/>
+      <c r="B213" s="22"/>
       <c r="C213" s="7" t="s">
         <v>280</v>
       </c>
@@ -14582,7 +14708,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="7"/>
-      <c r="B214" s="16"/>
+      <c r="B214" s="22"/>
       <c r="C214" s="7" t="s">
         <v>280</v>
       </c>
@@ -14602,7 +14728,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="7"/>
-      <c r="B215" s="16"/>
+      <c r="B215" s="22"/>
       <c r="C215" s="7" t="s">
         <v>280</v>
       </c>
@@ -14622,7 +14748,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="7"/>
-      <c r="B216" s="16"/>
+      <c r="B216" s="22"/>
       <c r="C216" s="7" t="s">
         <v>280</v>
       </c>
@@ -14642,7 +14768,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="7"/>
-      <c r="B217" s="16"/>
+      <c r="B217" s="22"/>
       <c r="C217" s="7" t="s">
         <v>280</v>
       </c>
@@ -14662,7 +14788,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="7"/>
-      <c r="B218" s="16"/>
+      <c r="B218" s="22"/>
       <c r="C218" s="7" t="s">
         <v>280</v>
       </c>
@@ -14682,7 +14808,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="7"/>
-      <c r="B219" s="16"/>
+      <c r="B219" s="22"/>
       <c r="C219" s="7" t="s">
         <v>280</v>
       </c>
@@ -14702,7 +14828,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="7"/>
-      <c r="B220" s="16"/>
+      <c r="B220" s="22"/>
       <c r="C220" s="7" t="s">
         <v>280</v>
       </c>
@@ -14722,7 +14848,7 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="7"/>
-      <c r="B221" s="20" t="s">
+      <c r="B221" s="24" t="s">
         <v>15</v>
       </c>
       <c r="C221" s="7" t="s">
@@ -14744,7 +14870,7 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="7"/>
-      <c r="B222" s="20"/>
+      <c r="B222" s="24"/>
       <c r="C222" s="7" t="s">
         <v>416</v>
       </c>
@@ -14764,7 +14890,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="7"/>
-      <c r="B223" s="20"/>
+      <c r="B223" s="24"/>
       <c r="C223" s="7" t="s">
         <v>416</v>
       </c>
@@ -14784,7 +14910,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="7"/>
-      <c r="B224" s="20"/>
+      <c r="B224" s="24"/>
       <c r="C224" s="7" t="s">
         <v>565</v>
       </c>
@@ -14804,7 +14930,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="7"/>
-      <c r="B225" s="20"/>
+      <c r="B225" s="24"/>
       <c r="C225" s="7" t="s">
         <v>416</v>
       </c>
@@ -14824,7 +14950,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="7"/>
-      <c r="B226" s="20"/>
+      <c r="B226" s="24"/>
       <c r="C226" s="7" t="s">
         <v>416</v>
       </c>
@@ -14844,7 +14970,7 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="7"/>
-      <c r="B227" s="20"/>
+      <c r="B227" s="24"/>
       <c r="C227" s="7" t="s">
         <v>416</v>
       </c>
@@ -14864,7 +14990,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="7"/>
-      <c r="B228" s="16" t="s">
+      <c r="B228" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C228" s="7" t="s">
@@ -14886,7 +15012,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="7"/>
-      <c r="B229" s="16"/>
+      <c r="B229" s="22"/>
       <c r="C229" s="7" t="s">
         <v>430</v>
       </c>
@@ -14906,7 +15032,7 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="7"/>
-      <c r="B230" s="16"/>
+      <c r="B230" s="22"/>
       <c r="C230" s="7" t="s">
         <v>430</v>
       </c>
@@ -14926,7 +15052,7 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="7"/>
-      <c r="B231" s="16"/>
+      <c r="B231" s="22"/>
       <c r="C231" s="7" t="s">
         <v>430</v>
       </c>
@@ -14946,7 +15072,7 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="7"/>
-      <c r="B232" s="16"/>
+      <c r="B232" s="22"/>
       <c r="C232" s="7" t="s">
         <v>430</v>
       </c>
@@ -14966,7 +15092,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="7"/>
-      <c r="B233" s="16"/>
+      <c r="B233" s="22"/>
       <c r="C233" s="7" t="s">
         <v>430</v>
       </c>
@@ -14986,7 +15112,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="7"/>
-      <c r="B234" s="16"/>
+      <c r="B234" s="22"/>
       <c r="C234" s="7" t="s">
         <v>430</v>
       </c>
@@ -15006,7 +15132,7 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="7"/>
-      <c r="B235" s="16"/>
+      <c r="B235" s="22"/>
       <c r="C235" s="7" t="s">
         <v>430</v>
       </c>
@@ -15026,7 +15152,7 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="7"/>
-      <c r="B236" s="16"/>
+      <c r="B236" s="22"/>
       <c r="C236" s="7" t="s">
         <v>566</v>
       </c>
@@ -15046,7 +15172,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="7"/>
-      <c r="B237" s="16"/>
+      <c r="B237" s="22"/>
       <c r="C237" s="7" t="s">
         <v>430</v>
       </c>
@@ -15066,7 +15192,7 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="7"/>
-      <c r="B238" s="16"/>
+      <c r="B238" s="22"/>
       <c r="C238" s="7" t="s">
         <v>430</v>
       </c>
@@ -15086,7 +15212,7 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="7"/>
-      <c r="B239" s="16"/>
+      <c r="B239" s="22"/>
       <c r="C239" s="7" t="s">
         <v>430</v>
       </c>
@@ -15106,7 +15232,7 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="7"/>
-      <c r="B240" s="16"/>
+      <c r="B240" s="22"/>
       <c r="C240" s="7" t="s">
         <v>430</v>
       </c>
@@ -15126,7 +15252,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="7"/>
-      <c r="B241" s="16"/>
+      <c r="B241" s="22"/>
       <c r="C241" s="7" t="s">
         <v>430</v>
       </c>
@@ -15146,7 +15272,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="7"/>
-      <c r="B242" s="16"/>
+      <c r="B242" s="22"/>
       <c r="C242" s="7" t="s">
         <v>430</v>
       </c>
@@ -15166,7 +15292,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="7"/>
-      <c r="B243" s="16"/>
+      <c r="B243" s="22"/>
       <c r="C243" s="7" t="s">
         <v>430</v>
       </c>
@@ -15186,7 +15312,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="7"/>
-      <c r="B244" s="16"/>
+      <c r="B244" s="22"/>
       <c r="C244" s="7" t="s">
         <v>430</v>
       </c>
@@ -15206,7 +15332,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="7"/>
-      <c r="B245" s="16"/>
+      <c r="B245" s="22"/>
       <c r="C245" s="7" t="s">
         <v>430</v>
       </c>
@@ -15226,7 +15352,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="7"/>
-      <c r="B246" s="16"/>
+      <c r="B246" s="22"/>
       <c r="C246" s="7" t="s">
         <v>430</v>
       </c>
@@ -15246,7 +15372,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="7"/>
-      <c r="B247" s="16"/>
+      <c r="B247" s="22"/>
       <c r="C247" s="7" t="s">
         <v>430</v>
       </c>
@@ -15266,7 +15392,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="7"/>
-      <c r="B248" s="16"/>
+      <c r="B248" s="22"/>
       <c r="C248" s="7" t="s">
         <v>430</v>
       </c>
@@ -15286,7 +15412,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="7"/>
-      <c r="B249" s="16"/>
+      <c r="B249" s="22"/>
       <c r="C249" s="7" t="s">
         <v>430</v>
       </c>
@@ -15306,7 +15432,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="7"/>
-      <c r="B250" s="16"/>
+      <c r="B250" s="22"/>
       <c r="C250" s="7" t="s">
         <v>430</v>
       </c>
@@ -15326,7 +15452,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="7"/>
-      <c r="B251" s="16"/>
+      <c r="B251" s="22"/>
       <c r="C251" s="7" t="s">
         <v>430</v>
       </c>
@@ -15346,7 +15472,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="7"/>
-      <c r="B252" s="16"/>
+      <c r="B252" s="22"/>
       <c r="C252" s="7" t="s">
         <v>430</v>
       </c>
@@ -15366,7 +15492,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="7"/>
-      <c r="B253" s="16"/>
+      <c r="B253" s="22"/>
       <c r="C253" s="7" t="s">
         <v>430</v>
       </c>
@@ -15386,7 +15512,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="7"/>
-      <c r="B254" s="16"/>
+      <c r="B254" s="22"/>
       <c r="C254" s="7" t="s">
         <v>430</v>
       </c>
@@ -15406,7 +15532,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="7"/>
-      <c r="B255" s="16"/>
+      <c r="B255" s="22"/>
       <c r="C255" s="7" t="s">
         <v>430</v>
       </c>
@@ -15426,7 +15552,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="7"/>
-      <c r="B256" s="16"/>
+      <c r="B256" s="22"/>
       <c r="C256" s="7" t="s">
         <v>430</v>
       </c>
@@ -15446,7 +15572,7 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="7"/>
-      <c r="B257" s="16"/>
+      <c r="B257" s="22"/>
       <c r="C257" s="7" t="s">
         <v>430</v>
       </c>
@@ -15466,7 +15592,7 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="7"/>
-      <c r="B258" s="16"/>
+      <c r="B258" s="22"/>
       <c r="C258" s="7" t="s">
         <v>430</v>
       </c>
@@ -15486,7 +15612,7 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="7"/>
-      <c r="B259" s="16"/>
+      <c r="B259" s="22"/>
       <c r="C259" s="7" t="s">
         <v>430</v>
       </c>
@@ -15506,7 +15632,7 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="7"/>
-      <c r="B260" s="20" t="s">
+      <c r="B260" s="24" t="s">
         <v>15</v>
       </c>
       <c r="C260" s="7" t="s">
@@ -15528,7 +15654,7 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="7"/>
-      <c r="B261" s="20"/>
+      <c r="B261" s="24"/>
       <c r="C261" s="7" t="s">
         <v>495</v>
       </c>
@@ -15548,7 +15674,7 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="7"/>
-      <c r="B262" s="20"/>
+      <c r="B262" s="24"/>
       <c r="C262" s="7" t="s">
         <v>495</v>
       </c>
@@ -15568,7 +15694,7 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="7"/>
-      <c r="B263" s="20"/>
+      <c r="B263" s="24"/>
       <c r="C263" s="7" t="s">
         <v>495</v>
       </c>
@@ -15587,7 +15713,7 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="7"/>
-      <c r="B264" s="20"/>
+      <c r="B264" s="24"/>
       <c r="C264" s="7" t="s">
         <v>495</v>
       </c>
@@ -15606,7 +15732,7 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="7"/>
-      <c r="B265" s="16" t="s">
+      <c r="B265" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C265" s="7" t="s">
@@ -15627,7 +15753,7 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="7"/>
-      <c r="B266" s="16"/>
+      <c r="B266" s="22"/>
       <c r="C266" s="7" t="s">
         <v>504</v>
       </c>
@@ -15646,7 +15772,7 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="7"/>
-      <c r="B267" s="16"/>
+      <c r="B267" s="22"/>
       <c r="C267" s="7" t="s">
         <v>504</v>
       </c>
@@ -15665,7 +15791,7 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="7"/>
-      <c r="B268" s="16"/>
+      <c r="B268" s="22"/>
       <c r="C268" s="7" t="s">
         <v>504</v>
       </c>
@@ -15684,7 +15810,7 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="7"/>
-      <c r="B269" s="16"/>
+      <c r="B269" s="22"/>
       <c r="C269" s="7" t="s">
         <v>504</v>
       </c>
@@ -15703,7 +15829,7 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="7"/>
-      <c r="B270" s="16" t="s">
+      <c r="B270" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C270" s="7" t="s">
@@ -15724,7 +15850,7 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="7"/>
-      <c r="B271" s="16"/>
+      <c r="B271" s="22"/>
       <c r="C271" s="7" t="s">
         <v>513</v>
       </c>
@@ -15743,7 +15869,7 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="7"/>
-      <c r="B272" s="16"/>
+      <c r="B272" s="22"/>
       <c r="C272" s="7" t="s">
         <v>513</v>
       </c>
@@ -15762,7 +15888,7 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="7"/>
-      <c r="B273" s="16"/>
+      <c r="B273" s="22"/>
       <c r="C273" s="7" t="s">
         <v>513</v>
       </c>
@@ -15781,7 +15907,7 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="7"/>
-      <c r="B274" s="16"/>
+      <c r="B274" s="22"/>
       <c r="C274" s="7" t="s">
         <v>513</v>
       </c>
@@ -15800,7 +15926,7 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="7"/>
-      <c r="B275" s="16"/>
+      <c r="B275" s="22"/>
       <c r="C275" s="7" t="s">
         <v>513</v>
       </c>
@@ -15819,7 +15945,7 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="7"/>
-      <c r="B276" s="16" t="s">
+      <c r="B276" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C276" s="7" t="s">
@@ -15840,7 +15966,7 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="7"/>
-      <c r="B277" s="16"/>
+      <c r="B277" s="22"/>
       <c r="C277" s="7" t="s">
         <v>526</v>
       </c>
@@ -15859,7 +15985,7 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="7"/>
-      <c r="B278" s="16"/>
+      <c r="B278" s="22"/>
       <c r="C278" s="7" t="s">
         <v>526</v>
       </c>
@@ -15878,7 +16004,7 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="7"/>
-      <c r="B279" s="16"/>
+      <c r="B279" s="22"/>
       <c r="C279" s="7" t="s">
         <v>526</v>
       </c>
@@ -15897,7 +16023,7 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="7"/>
-      <c r="B280" s="16"/>
+      <c r="B280" s="22"/>
       <c r="C280" s="7" t="s">
         <v>526</v>
       </c>
@@ -16599,7 +16725,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>567</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -16621,7 +16747,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
-      <c r="B3" s="16"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="10" t="s">
         <v>568</v>
       </c>
@@ -16641,7 +16767,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
-      <c r="B4" s="16"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="10" t="s">
         <v>568</v>
       </c>
@@ -16661,7 +16787,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
-      <c r="B5" s="16"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="10" t="s">
         <v>568</v>
       </c>
@@ -16681,7 +16807,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
-      <c r="B6" s="16"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="10" t="s">
         <v>568</v>
       </c>
@@ -16701,7 +16827,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
-      <c r="B7" s="16"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="10" t="s">
         <v>568</v>
       </c>
@@ -16721,7 +16847,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
-      <c r="B8" s="16"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="10" t="s">
         <v>568</v>
       </c>
@@ -16741,7 +16867,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
-      <c r="B9" s="16"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="10" t="s">
         <v>568</v>
       </c>
@@ -16761,7 +16887,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="25" t="s">
         <v>1033</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -16785,7 +16911,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
-      <c r="B11" s="21"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="10" t="s">
         <v>585</v>
       </c>
@@ -16807,7 +16933,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
-      <c r="B12" s="21"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="7" t="s">
         <v>1032</v>
       </c>
@@ -16829,7 +16955,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
-      <c r="B13" s="21"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="10" t="s">
         <v>585</v>
       </c>
@@ -16851,7 +16977,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
-      <c r="B14" s="21"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="10" t="s">
         <v>585</v>
       </c>
@@ -16873,7 +16999,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
-      <c r="B15" s="21"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="10" t="s">
         <v>585</v>
       </c>
@@ -16895,7 +17021,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
-      <c r="B16" s="21"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="10" t="s">
         <v>585</v>
       </c>
@@ -16917,7 +17043,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="25" t="s">
         <v>567</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -16938,7 +17064,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
-      <c r="B18" s="21"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="10" t="s">
         <v>601</v>
       </c>
@@ -16957,7 +17083,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
-      <c r="B19" s="21"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="10" t="s">
         <v>1034</v>
       </c>
@@ -16976,7 +17102,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
-      <c r="B20" s="21"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="10" t="s">
         <v>601</v>
       </c>
@@ -16995,7 +17121,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
-      <c r="B21" s="21"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="10" t="s">
         <v>601</v>
       </c>
@@ -17014,7 +17140,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
-      <c r="B22" s="21"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="10" t="s">
         <v>601</v>
       </c>
@@ -17033,7 +17159,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
-      <c r="B23" s="21"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="10" t="s">
         <v>601</v>
       </c>
@@ -17052,7 +17178,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="22" t="s">
         <v>567</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -17073,7 +17199,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
-      <c r="B25" s="16"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="10" t="s">
         <v>615</v>
       </c>
@@ -17092,7 +17218,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
-      <c r="B26" s="16"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="10" t="s">
         <v>615</v>
       </c>
@@ -17111,7 +17237,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
-      <c r="B27" s="16"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="10" t="s">
         <v>615</v>
       </c>
@@ -17130,7 +17256,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
-      <c r="B28" s="16"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="10" t="s">
         <v>1035</v>
       </c>
@@ -17149,7 +17275,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
-      <c r="B29" s="16"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="10" t="s">
         <v>615</v>
       </c>
@@ -17168,7 +17294,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
-      <c r="B30" s="16"/>
+      <c r="B30" s="22"/>
       <c r="C30" s="10" t="s">
         <v>615</v>
       </c>
@@ -17187,7 +17313,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="22" t="s">
         <v>1036</v>
       </c>
       <c r="C31" s="10" t="s">
@@ -17208,7 +17334,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
-      <c r="B32" s="16"/>
+      <c r="B32" s="22"/>
       <c r="C32" s="10" t="s">
         <v>630</v>
       </c>
@@ -17227,7 +17353,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
-      <c r="B33" s="16"/>
+      <c r="B33" s="22"/>
       <c r="C33" s="10" t="s">
         <v>630</v>
       </c>
@@ -17246,7 +17372,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
-      <c r="B34" s="16"/>
+      <c r="B34" s="22"/>
       <c r="C34" s="10" t="s">
         <v>1037</v>
       </c>
@@ -17265,7 +17391,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
-      <c r="B35" s="16"/>
+      <c r="B35" s="22"/>
       <c r="C35" s="10" t="s">
         <v>630</v>
       </c>
@@ -17284,7 +17410,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
-      <c r="B36" s="16"/>
+      <c r="B36" s="22"/>
       <c r="C36" s="10" t="s">
         <v>630</v>
       </c>
@@ -17303,7 +17429,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
-      <c r="B37" s="16"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="10" t="s">
         <v>630</v>
       </c>
@@ -17322,7 +17448,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="22" t="s">
         <v>567</v>
       </c>
       <c r="C38" s="10" t="s">
@@ -17343,7 +17469,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
-      <c r="B39" s="16"/>
+      <c r="B39" s="22"/>
       <c r="C39" s="10" t="s">
         <v>645</v>
       </c>
@@ -17362,7 +17488,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
-      <c r="B40" s="16"/>
+      <c r="B40" s="22"/>
       <c r="C40" s="10" t="s">
         <v>645</v>
       </c>
@@ -17381,7 +17507,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
-      <c r="B41" s="16"/>
+      <c r="B41" s="22"/>
       <c r="C41" s="10" t="s">
         <v>645</v>
       </c>
@@ -17400,7 +17526,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="22" t="s">
         <v>567</v>
       </c>
       <c r="C42" s="10" t="s">
@@ -17421,7 +17547,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
-      <c r="B43" s="16"/>
+      <c r="B43" s="22"/>
       <c r="C43" s="10" t="s">
         <v>654</v>
       </c>
@@ -17440,7 +17566,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
-      <c r="B44" s="16"/>
+      <c r="B44" s="22"/>
       <c r="C44" s="10" t="s">
         <v>654</v>
       </c>
@@ -17459,7 +17585,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
-      <c r="B45" s="16"/>
+      <c r="B45" s="22"/>
       <c r="C45" s="10" t="s">
         <v>1038</v>
       </c>
@@ -17478,7 +17604,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
-      <c r="B46" s="16"/>
+      <c r="B46" s="22"/>
       <c r="C46" s="10" t="s">
         <v>654</v>
       </c>
@@ -17497,7 +17623,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
-      <c r="B47" s="16"/>
+      <c r="B47" s="22"/>
       <c r="C47" s="10" t="s">
         <v>654</v>
       </c>
@@ -17516,7 +17642,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
-      <c r="B48" s="16"/>
+      <c r="B48" s="22"/>
       <c r="C48" s="10" t="s">
         <v>654</v>
       </c>
@@ -17535,7 +17661,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
-      <c r="B49" s="16"/>
+      <c r="B49" s="22"/>
       <c r="C49" s="10" t="s">
         <v>654</v>
       </c>
@@ -17554,7 +17680,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
-      <c r="B50" s="16"/>
+      <c r="B50" s="22"/>
       <c r="C50" s="10" t="s">
         <v>654</v>
       </c>
@@ -17573,7 +17699,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
-      <c r="B51" s="16"/>
+      <c r="B51" s="22"/>
       <c r="C51" s="10" t="s">
         <v>654</v>
       </c>
@@ -17592,7 +17718,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
-      <c r="B52" s="16"/>
+      <c r="B52" s="22"/>
       <c r="C52" s="10" t="s">
         <v>654</v>
       </c>
@@ -17611,7 +17737,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="22" t="s">
         <v>567</v>
       </c>
       <c r="C53" s="10" t="s">
@@ -17632,7 +17758,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
-      <c r="B54" s="16"/>
+      <c r="B54" s="22"/>
       <c r="C54" s="10" t="s">
         <v>676</v>
       </c>
@@ -17651,7 +17777,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
-      <c r="B55" s="16"/>
+      <c r="B55" s="22"/>
       <c r="C55" s="10" t="s">
         <v>1039</v>
       </c>
@@ -17670,7 +17796,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
-      <c r="B56" s="16"/>
+      <c r="B56" s="22"/>
       <c r="C56" s="10" t="s">
         <v>676</v>
       </c>
@@ -17689,7 +17815,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="22" t="s">
         <v>567</v>
       </c>
       <c r="C57" s="10" t="s">
@@ -17710,7 +17836,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
-      <c r="B58" s="16"/>
+      <c r="B58" s="22"/>
       <c r="C58" s="10" t="s">
         <v>684</v>
       </c>
@@ -17729,7 +17855,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
-      <c r="B59" s="16"/>
+      <c r="B59" s="22"/>
       <c r="C59" s="10" t="s">
         <v>684</v>
       </c>
@@ -17748,7 +17874,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
-      <c r="B60" s="16"/>
+      <c r="B60" s="22"/>
       <c r="C60" s="10" t="s">
         <v>684</v>
       </c>
@@ -17767,7 +17893,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="10"/>
-      <c r="B61" s="16"/>
+      <c r="B61" s="22"/>
       <c r="C61" s="10" t="s">
         <v>684</v>
       </c>
@@ -17786,7 +17912,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="10"/>
-      <c r="B62" s="16"/>
+      <c r="B62" s="22"/>
       <c r="C62" s="10" t="s">
         <v>684</v>
       </c>
@@ -17805,7 +17931,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
-      <c r="B63" s="16"/>
+      <c r="B63" s="22"/>
       <c r="C63" s="10" t="s">
         <v>684</v>
       </c>
@@ -17824,7 +17950,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="10"/>
-      <c r="B64" s="16"/>
+      <c r="B64" s="22"/>
       <c r="C64" s="10" t="s">
         <v>684</v>
       </c>
@@ -17843,7 +17969,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="10"/>
-      <c r="B65" s="16"/>
+      <c r="B65" s="22"/>
       <c r="C65" s="10" t="s">
         <v>684</v>
       </c>
@@ -17862,7 +17988,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="10"/>
-      <c r="B66" s="16"/>
+      <c r="B66" s="22"/>
       <c r="C66" s="10" t="s">
         <v>684</v>
       </c>
@@ -17881,7 +18007,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="10"/>
-      <c r="B67" s="16"/>
+      <c r="B67" s="22"/>
       <c r="C67" s="10" t="s">
         <v>684</v>
       </c>
@@ -17900,7 +18026,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="10"/>
-      <c r="B68" s="16"/>
+      <c r="B68" s="22"/>
       <c r="C68" s="10" t="s">
         <v>684</v>
       </c>
@@ -17919,7 +18045,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
-      <c r="B69" s="16"/>
+      <c r="B69" s="22"/>
       <c r="C69" s="10" t="s">
         <v>1040</v>
       </c>
@@ -17938,7 +18064,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="10"/>
-      <c r="B70" s="16"/>
+      <c r="B70" s="22"/>
       <c r="C70" s="10" t="s">
         <v>684</v>
       </c>
@@ -17957,7 +18083,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="10"/>
-      <c r="B71" s="16"/>
+      <c r="B71" s="22"/>
       <c r="C71" s="10" t="s">
         <v>684</v>
       </c>
@@ -17976,7 +18102,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="10"/>
-      <c r="B72" s="16"/>
+      <c r="B72" s="22"/>
       <c r="C72" s="10" t="s">
         <v>684</v>
       </c>
@@ -17995,7 +18121,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="10"/>
-      <c r="B73" s="16"/>
+      <c r="B73" s="22"/>
       <c r="C73" s="10" t="s">
         <v>684</v>
       </c>
@@ -18014,7 +18140,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="10"/>
-      <c r="B74" s="16"/>
+      <c r="B74" s="22"/>
       <c r="C74" s="10" t="s">
         <v>684</v>
       </c>
@@ -18033,7 +18159,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="10"/>
-      <c r="B75" s="16"/>
+      <c r="B75" s="22"/>
       <c r="C75" s="10" t="s">
         <v>684</v>
       </c>
@@ -18052,7 +18178,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="10"/>
-      <c r="B76" s="16"/>
+      <c r="B76" s="22"/>
       <c r="C76" s="10" t="s">
         <v>684</v>
       </c>
@@ -18071,7 +18197,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="10"/>
-      <c r="B77" s="16"/>
+      <c r="B77" s="22"/>
       <c r="C77" s="10" t="s">
         <v>684</v>
       </c>
@@ -18090,7 +18216,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="10"/>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="22" t="s">
         <v>567</v>
       </c>
       <c r="C78" s="10" t="s">
@@ -18114,7 +18240,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="10"/>
-      <c r="B79" s="16"/>
+      <c r="B79" s="22"/>
       <c r="C79" s="10" t="s">
         <v>727</v>
       </c>
@@ -18136,7 +18262,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="10"/>
-      <c r="B80" s="16"/>
+      <c r="B80" s="22"/>
       <c r="C80" s="10" t="s">
         <v>727</v>
       </c>
@@ -18158,7 +18284,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="10"/>
-      <c r="B81" s="16"/>
+      <c r="B81" s="22"/>
       <c r="C81" s="10" t="s">
         <v>727</v>
       </c>
@@ -18180,7 +18306,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="10"/>
-      <c r="B82" s="16"/>
+      <c r="B82" s="22"/>
       <c r="C82" s="10" t="s">
         <v>727</v>
       </c>
@@ -18202,7 +18328,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="10"/>
-      <c r="B83" s="16"/>
+      <c r="B83" s="22"/>
       <c r="C83" s="10" t="s">
         <v>727</v>
       </c>
@@ -18224,7 +18350,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="10"/>
-      <c r="B84" s="16"/>
+      <c r="B84" s="22"/>
       <c r="C84" s="10" t="s">
         <v>1041</v>
       </c>
@@ -18246,7 +18372,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="10"/>
-      <c r="B85" s="16"/>
+      <c r="B85" s="22"/>
       <c r="C85" s="10" t="s">
         <v>727</v>
       </c>
@@ -18268,7 +18394,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="10"/>
-      <c r="B86" s="16"/>
+      <c r="B86" s="22"/>
       <c r="C86" s="10" t="s">
         <v>727</v>
       </c>
@@ -18290,7 +18416,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="10"/>
-      <c r="B87" s="16"/>
+      <c r="B87" s="22"/>
       <c r="C87" s="10" t="s">
         <v>727</v>
       </c>
@@ -18312,7 +18438,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="10"/>
-      <c r="B88" s="16"/>
+      <c r="B88" s="22"/>
       <c r="C88" s="10" t="s">
         <v>727</v>
       </c>
@@ -18334,7 +18460,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="10"/>
-      <c r="B89" s="16"/>
+      <c r="B89" s="22"/>
       <c r="C89" s="10" t="s">
         <v>727</v>
       </c>
@@ -18356,7 +18482,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="10"/>
-      <c r="B90" s="16"/>
+      <c r="B90" s="22"/>
       <c r="C90" s="10" t="s">
         <v>727</v>
       </c>
@@ -18378,7 +18504,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="10"/>
-      <c r="B91" s="16"/>
+      <c r="B91" s="22"/>
       <c r="C91" s="10" t="s">
         <v>727</v>
       </c>
@@ -18400,7 +18526,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="10"/>
-      <c r="B92" s="16"/>
+      <c r="B92" s="22"/>
       <c r="C92" s="10" t="s">
         <v>727</v>
       </c>
@@ -18422,7 +18548,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="10"/>
-      <c r="B93" s="16"/>
+      <c r="B93" s="22"/>
       <c r="C93" s="10" t="s">
         <v>727</v>
       </c>
@@ -18444,7 +18570,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="10"/>
-      <c r="B94" s="16"/>
+      <c r="B94" s="22"/>
       <c r="C94" s="10" t="s">
         <v>727</v>
       </c>
@@ -18466,7 +18592,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="10"/>
-      <c r="B95" s="21" t="s">
+      <c r="B95" s="25" t="s">
         <v>1036</v>
       </c>
       <c r="C95" s="10" t="s">
@@ -18487,7 +18613,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="10"/>
-      <c r="B96" s="21"/>
+      <c r="B96" s="25"/>
       <c r="C96" s="10" t="s">
         <v>749</v>
       </c>
@@ -18506,7 +18632,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="10"/>
-      <c r="B97" s="21"/>
+      <c r="B97" s="25"/>
       <c r="C97" s="10" t="s">
         <v>749</v>
       </c>
@@ -18525,7 +18651,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="10"/>
-      <c r="B98" s="21"/>
+      <c r="B98" s="25"/>
       <c r="C98" s="10" t="s">
         <v>749</v>
       </c>
@@ -18544,7 +18670,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="10"/>
-      <c r="B99" s="21"/>
+      <c r="B99" s="25"/>
       <c r="C99" s="10" t="s">
         <v>749</v>
       </c>
@@ -18563,7 +18689,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="10"/>
-      <c r="B100" s="21"/>
+      <c r="B100" s="25"/>
       <c r="C100" s="10" t="s">
         <v>749</v>
       </c>
@@ -18582,7 +18708,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="10"/>
-      <c r="B101" s="21"/>
+      <c r="B101" s="25"/>
       <c r="C101" s="10" t="s">
         <v>749</v>
       </c>
@@ -18601,7 +18727,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="10"/>
-      <c r="B102" s="21"/>
+      <c r="B102" s="25"/>
       <c r="C102" s="10" t="s">
         <v>749</v>
       </c>
@@ -18620,7 +18746,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="10"/>
-      <c r="B103" s="21"/>
+      <c r="B103" s="25"/>
       <c r="C103" s="10" t="s">
         <v>749</v>
       </c>
@@ -18639,7 +18765,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="10"/>
-      <c r="B104" s="21"/>
+      <c r="B104" s="25"/>
       <c r="C104" s="10" t="s">
         <v>749</v>
       </c>
@@ -18658,7 +18784,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="10"/>
-      <c r="B105" s="21"/>
+      <c r="B105" s="25"/>
       <c r="C105" s="10" t="s">
         <v>749</v>
       </c>
@@ -18677,7 +18803,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="10"/>
-      <c r="B106" s="21"/>
+      <c r="B106" s="25"/>
       <c r="C106" s="10" t="s">
         <v>749</v>
       </c>
@@ -18696,7 +18822,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="10"/>
-      <c r="B107" s="21"/>
+      <c r="B107" s="25"/>
       <c r="C107" s="10" t="s">
         <v>749</v>
       </c>
@@ -18715,7 +18841,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="10"/>
-      <c r="B108" s="21"/>
+      <c r="B108" s="25"/>
       <c r="C108" s="10" t="s">
         <v>749</v>
       </c>
@@ -18734,7 +18860,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="10"/>
-      <c r="B109" s="21"/>
+      <c r="B109" s="25"/>
       <c r="C109" s="10" t="s">
         <v>749</v>
       </c>
@@ -18753,7 +18879,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="10"/>
-      <c r="B110" s="21"/>
+      <c r="B110" s="25"/>
       <c r="C110" s="10" t="s">
         <v>749</v>
       </c>
@@ -18772,7 +18898,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="10"/>
-      <c r="B111" s="21"/>
+      <c r="B111" s="25"/>
       <c r="C111" s="10" t="s">
         <v>749</v>
       </c>
@@ -18791,7 +18917,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="10"/>
-      <c r="B112" s="21"/>
+      <c r="B112" s="25"/>
       <c r="C112" s="10" t="s">
         <v>749</v>
       </c>
@@ -18810,7 +18936,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="10"/>
-      <c r="B113" s="21"/>
+      <c r="B113" s="25"/>
       <c r="C113" s="10" t="s">
         <v>749</v>
       </c>
@@ -18829,7 +18955,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="10"/>
-      <c r="B114" s="21"/>
+      <c r="B114" s="25"/>
       <c r="C114" s="10" t="s">
         <v>749</v>
       </c>
@@ -18848,7 +18974,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="10"/>
-      <c r="B115" s="21"/>
+      <c r="B115" s="25"/>
       <c r="C115" s="10" t="s">
         <v>749</v>
       </c>
@@ -18867,7 +18993,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="10"/>
-      <c r="B116" s="21"/>
+      <c r="B116" s="25"/>
       <c r="C116" s="10" t="s">
         <v>749</v>
       </c>
@@ -18886,7 +19012,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="10"/>
-      <c r="B117" s="21"/>
+      <c r="B117" s="25"/>
       <c r="C117" s="10" t="s">
         <v>749</v>
       </c>
@@ -18905,7 +19031,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="10"/>
-      <c r="B118" s="21"/>
+      <c r="B118" s="25"/>
       <c r="C118" s="10" t="s">
         <v>749</v>
       </c>
@@ -18924,7 +19050,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="10"/>
-      <c r="B119" s="21"/>
+      <c r="B119" s="25"/>
       <c r="C119" s="10" t="s">
         <v>749</v>
       </c>
@@ -18943,7 +19069,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="10"/>
-      <c r="B120" s="21"/>
+      <c r="B120" s="25"/>
       <c r="C120" s="10" t="s">
         <v>749</v>
       </c>
@@ -18962,7 +19088,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="10"/>
-      <c r="B121" s="21"/>
+      <c r="B121" s="25"/>
       <c r="C121" s="10" t="s">
         <v>749</v>
       </c>
@@ -18981,7 +19107,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="10"/>
-      <c r="B122" s="21"/>
+      <c r="B122" s="25"/>
       <c r="C122" s="10" t="s">
         <v>749</v>
       </c>
@@ -19000,7 +19126,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="10"/>
-      <c r="B123" s="21"/>
+      <c r="B123" s="25"/>
       <c r="C123" s="10" t="s">
         <v>749</v>
       </c>
@@ -19019,7 +19145,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="10"/>
-      <c r="B124" s="21"/>
+      <c r="B124" s="25"/>
       <c r="C124" s="10" t="s">
         <v>749</v>
       </c>
@@ -19038,7 +19164,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="10"/>
-      <c r="B125" s="21"/>
+      <c r="B125" s="25"/>
       <c r="C125" s="10" t="s">
         <v>749</v>
       </c>
@@ -19057,7 +19183,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="10"/>
-      <c r="B126" s="21"/>
+      <c r="B126" s="25"/>
       <c r="C126" s="10" t="s">
         <v>1043</v>
       </c>
@@ -19076,7 +19202,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="10"/>
-      <c r="B127" s="21"/>
+      <c r="B127" s="25"/>
       <c r="C127" s="10" t="s">
         <v>749</v>
       </c>
@@ -19095,7 +19221,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="10"/>
-      <c r="B128" s="21"/>
+      <c r="B128" s="25"/>
       <c r="C128" s="10" t="s">
         <v>749</v>
       </c>
@@ -19114,7 +19240,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="10"/>
-      <c r="B129" s="21"/>
+      <c r="B129" s="25"/>
       <c r="C129" s="10" t="s">
         <v>749</v>
       </c>
@@ -19134,7 +19260,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="10"/>
-      <c r="B130" s="21"/>
+      <c r="B130" s="25"/>
       <c r="C130" s="10" t="s">
         <v>749</v>
       </c>
@@ -19154,7 +19280,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="10"/>
-      <c r="B131" s="21"/>
+      <c r="B131" s="25"/>
       <c r="C131" s="10" t="s">
         <v>749</v>
       </c>
@@ -19174,7 +19300,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="10"/>
-      <c r="B132" s="21"/>
+      <c r="B132" s="25"/>
       <c r="C132" s="10" t="s">
         <v>749</v>
       </c>
@@ -19194,7 +19320,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="10"/>
-      <c r="B133" s="21"/>
+      <c r="B133" s="25"/>
       <c r="C133" s="10" t="s">
         <v>749</v>
       </c>
@@ -19214,7 +19340,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="10"/>
-      <c r="B134" s="21"/>
+      <c r="B134" s="25"/>
       <c r="C134" s="10" t="s">
         <v>749</v>
       </c>
@@ -19234,7 +19360,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="10"/>
-      <c r="B135" s="21"/>
+      <c r="B135" s="25"/>
       <c r="C135" s="10" t="s">
         <v>749</v>
       </c>
@@ -19254,7 +19380,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="10"/>
-      <c r="B136" s="21"/>
+      <c r="B136" s="25"/>
       <c r="C136" s="10" t="s">
         <v>749</v>
       </c>
@@ -19274,7 +19400,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="10"/>
-      <c r="B137" s="21"/>
+      <c r="B137" s="25"/>
       <c r="C137" s="10" t="s">
         <v>749</v>
       </c>
@@ -19294,7 +19420,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="10"/>
-      <c r="B138" s="21"/>
+      <c r="B138" s="25"/>
       <c r="C138" s="10" t="s">
         <v>749</v>
       </c>
@@ -19314,7 +19440,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="10"/>
-      <c r="B139" s="21" t="s">
+      <c r="B139" s="25" t="s">
         <v>1036</v>
       </c>
       <c r="C139" s="10" t="s">
@@ -19336,7 +19462,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="10"/>
-      <c r="B140" s="21"/>
+      <c r="B140" s="25"/>
       <c r="C140" s="10" t="s">
         <v>837</v>
       </c>
@@ -19356,7 +19482,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="10"/>
-      <c r="B141" s="21"/>
+      <c r="B141" s="25"/>
       <c r="C141" s="10" t="s">
         <v>837</v>
       </c>
@@ -19378,7 +19504,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="10"/>
-      <c r="B142" s="21"/>
+      <c r="B142" s="25"/>
       <c r="C142" s="10" t="s">
         <v>1044</v>
       </c>
@@ -19400,7 +19526,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="10"/>
-      <c r="B143" s="21"/>
+      <c r="B143" s="25"/>
       <c r="C143" s="10" t="s">
         <v>837</v>
       </c>
@@ -19422,7 +19548,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="10"/>
-      <c r="B144" s="21"/>
+      <c r="B144" s="25"/>
       <c r="C144" s="10" t="s">
         <v>837</v>
       </c>
@@ -19444,7 +19570,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="10"/>
-      <c r="B145" s="21"/>
+      <c r="B145" s="25"/>
       <c r="C145" s="10" t="s">
         <v>837</v>
       </c>
@@ -19466,7 +19592,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="10"/>
-      <c r="B146" s="16" t="s">
+      <c r="B146" s="22" t="s">
         <v>1036</v>
       </c>
       <c r="C146" s="10" t="s">
@@ -19488,7 +19614,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="10"/>
-      <c r="B147" s="16"/>
+      <c r="B147" s="22"/>
       <c r="C147" s="10" t="s">
         <v>853</v>
       </c>
@@ -19508,7 +19634,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="10"/>
-      <c r="B148" s="16"/>
+      <c r="B148" s="22"/>
       <c r="C148" s="10" t="s">
         <v>853</v>
       </c>
@@ -19528,7 +19654,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="10"/>
-      <c r="B149" s="16"/>
+      <c r="B149" s="22"/>
       <c r="C149" s="10" t="s">
         <v>853</v>
       </c>
@@ -19548,7 +19674,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="10"/>
-      <c r="B150" s="16"/>
+      <c r="B150" s="22"/>
       <c r="C150" s="10" t="s">
         <v>1045</v>
       </c>
@@ -19568,7 +19694,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="10"/>
-      <c r="B151" s="16"/>
+      <c r="B151" s="22"/>
       <c r="C151" s="10" t="s">
         <v>853</v>
       </c>
@@ -19588,7 +19714,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="10"/>
-      <c r="B152" s="16"/>
+      <c r="B152" s="22"/>
       <c r="C152" s="10" t="s">
         <v>853</v>
       </c>
@@ -19608,7 +19734,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="10"/>
-      <c r="B153" s="16"/>
+      <c r="B153" s="22"/>
       <c r="C153" s="10" t="s">
         <v>853</v>
       </c>
@@ -19628,7 +19754,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="10"/>
-      <c r="B154" s="16"/>
+      <c r="B154" s="22"/>
       <c r="C154" s="10" t="s">
         <v>853</v>
       </c>
@@ -19648,7 +19774,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="10"/>
-      <c r="B155" s="16"/>
+      <c r="B155" s="22"/>
       <c r="C155" s="10" t="s">
         <v>853</v>
       </c>
@@ -19668,7 +19794,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="10"/>
-      <c r="B156" s="16" t="s">
+      <c r="B156" s="22" t="s">
         <v>567</v>
       </c>
       <c r="C156" s="10" t="s">
@@ -19690,7 +19816,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="10"/>
-      <c r="B157" s="16"/>
+      <c r="B157" s="22"/>
       <c r="C157" s="10" t="s">
         <v>874</v>
       </c>
@@ -19710,7 +19836,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="10"/>
-      <c r="B158" s="16"/>
+      <c r="B158" s="22"/>
       <c r="C158" s="10" t="s">
         <v>874</v>
       </c>
@@ -19730,7 +19856,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="10"/>
-      <c r="B159" s="16"/>
+      <c r="B159" s="22"/>
       <c r="C159" s="10" t="s">
         <v>1046</v>
       </c>
@@ -19750,7 +19876,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="10"/>
-      <c r="B160" s="16"/>
+      <c r="B160" s="22"/>
       <c r="C160" s="10" t="s">
         <v>874</v>
       </c>
@@ -19770,7 +19896,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="10"/>
-      <c r="B161" s="16"/>
+      <c r="B161" s="22"/>
       <c r="C161" s="10" t="s">
         <v>874</v>
       </c>
@@ -19789,7 +19915,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="10"/>
-      <c r="B162" s="16"/>
+      <c r="B162" s="22"/>
       <c r="C162" s="10" t="s">
         <v>874</v>
       </c>
@@ -19808,7 +19934,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="10"/>
-      <c r="B163" s="16"/>
+      <c r="B163" s="22"/>
       <c r="C163" s="10" t="s">
         <v>874</v>
       </c>
@@ -19827,7 +19953,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="10"/>
-      <c r="B164" s="16"/>
+      <c r="B164" s="22"/>
       <c r="C164" s="10" t="s">
         <v>874</v>
       </c>
@@ -19846,7 +19972,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="10"/>
-      <c r="B165" s="16"/>
+      <c r="B165" s="22"/>
       <c r="C165" s="10" t="s">
         <v>874</v>
       </c>
@@ -19865,7 +19991,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="10"/>
-      <c r="B166" s="16"/>
+      <c r="B166" s="22"/>
       <c r="C166" s="10" t="s">
         <v>874</v>
       </c>
@@ -19884,7 +20010,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="10"/>
-      <c r="B167" s="16"/>
+      <c r="B167" s="22"/>
       <c r="C167" s="10" t="s">
         <v>874</v>
       </c>
@@ -19903,7 +20029,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="10"/>
-      <c r="B168" s="16"/>
+      <c r="B168" s="22"/>
       <c r="C168" s="10" t="s">
         <v>874</v>
       </c>
@@ -19922,7 +20048,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="10"/>
-      <c r="B169" s="16"/>
+      <c r="B169" s="22"/>
       <c r="C169" s="10" t="s">
         <v>874</v>
       </c>
@@ -19941,7 +20067,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="10"/>
-      <c r="B170" s="16"/>
+      <c r="B170" s="22"/>
       <c r="C170" s="10" t="s">
         <v>874</v>
       </c>
@@ -19960,7 +20086,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="10"/>
-      <c r="B171" s="16"/>
+      <c r="B171" s="22"/>
       <c r="C171" s="10" t="s">
         <v>874</v>
       </c>
@@ -19979,7 +20105,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="10"/>
-      <c r="B172" s="16"/>
+      <c r="B172" s="22"/>
       <c r="C172" s="10" t="s">
         <v>874</v>
       </c>
@@ -19998,7 +20124,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="10"/>
-      <c r="B173" s="16"/>
+      <c r="B173" s="22"/>
       <c r="C173" s="10" t="s">
         <v>874</v>
       </c>
@@ -20018,7 +20144,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="10"/>
-      <c r="B174" s="16"/>
+      <c r="B174" s="22"/>
       <c r="C174" s="10" t="s">
         <v>874</v>
       </c>
@@ -20037,7 +20163,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="10"/>
-      <c r="B175" s="16"/>
+      <c r="B175" s="22"/>
       <c r="C175" s="10" t="s">
         <v>874</v>
       </c>
@@ -20056,7 +20182,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="10"/>
-      <c r="B176" s="16"/>
+      <c r="B176" s="22"/>
       <c r="C176" s="10" t="s">
         <v>874</v>
       </c>
@@ -20075,7 +20201,7 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="10"/>
-      <c r="B177" s="16" t="s">
+      <c r="B177" s="22" t="s">
         <v>1036</v>
       </c>
       <c r="C177" s="10" t="s">
@@ -20096,7 +20222,7 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="10"/>
-      <c r="B178" s="16"/>
+      <c r="B178" s="22"/>
       <c r="C178" s="10" t="s">
         <v>917</v>
       </c>
@@ -20115,7 +20241,7 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="10"/>
-      <c r="B179" s="16"/>
+      <c r="B179" s="22"/>
       <c r="C179" s="10" t="s">
         <v>917</v>
       </c>
@@ -20134,7 +20260,7 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="10"/>
-      <c r="B180" s="16"/>
+      <c r="B180" s="22"/>
       <c r="C180" s="10" t="s">
         <v>1047</v>
       </c>
@@ -20153,7 +20279,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="10"/>
-      <c r="B181" s="16"/>
+      <c r="B181" s="22"/>
       <c r="C181" s="10" t="s">
         <v>917</v>
       </c>
@@ -20172,7 +20298,7 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="10"/>
-      <c r="B182" s="16"/>
+      <c r="B182" s="22"/>
       <c r="C182" s="10" t="s">
         <v>917</v>
       </c>
@@ -20191,7 +20317,7 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="10"/>
-      <c r="B183" s="16"/>
+      <c r="B183" s="22"/>
       <c r="C183" s="10" t="s">
         <v>917</v>
       </c>
@@ -20210,7 +20336,7 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="10"/>
-      <c r="B184" s="16"/>
+      <c r="B184" s="22"/>
       <c r="C184" s="10" t="s">
         <v>917</v>
       </c>
@@ -20229,7 +20355,7 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="10"/>
-      <c r="B185" s="16"/>
+      <c r="B185" s="22"/>
       <c r="C185" s="10" t="s">
         <v>917</v>
       </c>
@@ -20248,7 +20374,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="10"/>
-      <c r="B186" s="16" t="s">
+      <c r="B186" s="22" t="s">
         <v>567</v>
       </c>
       <c r="C186" s="10" t="s">
@@ -20269,7 +20395,7 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="10"/>
-      <c r="B187" s="16"/>
+      <c r="B187" s="22"/>
       <c r="C187" s="10" t="s">
         <v>936</v>
       </c>
@@ -20288,7 +20414,7 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="10"/>
-      <c r="B188" s="16"/>
+      <c r="B188" s="22"/>
       <c r="C188" s="10" t="s">
         <v>936</v>
       </c>
@@ -20307,7 +20433,7 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="10"/>
-      <c r="B189" s="16"/>
+      <c r="B189" s="22"/>
       <c r="C189" s="10" t="s">
         <v>936</v>
       </c>
@@ -20326,7 +20452,7 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="10"/>
-      <c r="B190" s="16"/>
+      <c r="B190" s="22"/>
       <c r="C190" s="10" t="s">
         <v>936</v>
       </c>
@@ -20345,7 +20471,7 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="10"/>
-      <c r="B191" s="16"/>
+      <c r="B191" s="22"/>
       <c r="C191" s="10" t="s">
         <v>936</v>
       </c>
@@ -20364,7 +20490,7 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="10"/>
-      <c r="B192" s="16"/>
+      <c r="B192" s="22"/>
       <c r="C192" s="10" t="s">
         <v>936</v>
       </c>
@@ -20383,7 +20509,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="10"/>
-      <c r="B193" s="16"/>
+      <c r="B193" s="22"/>
       <c r="C193" s="10" t="s">
         <v>936</v>
       </c>
@@ -20403,7 +20529,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="10"/>
-      <c r="B194" s="16"/>
+      <c r="B194" s="22"/>
       <c r="C194" s="10" t="s">
         <v>1048</v>
       </c>
@@ -20422,7 +20548,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="10"/>
-      <c r="B195" s="16"/>
+      <c r="B195" s="22"/>
       <c r="C195" s="10" t="s">
         <v>936</v>
       </c>
@@ -20441,7 +20567,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="10"/>
-      <c r="B196" s="16"/>
+      <c r="B196" s="22"/>
       <c r="C196" s="10" t="s">
         <v>936</v>
       </c>
@@ -20460,7 +20586,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="10"/>
-      <c r="B197" s="16"/>
+      <c r="B197" s="22"/>
       <c r="C197" s="10" t="s">
         <v>936</v>
       </c>
@@ -20479,7 +20605,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="10"/>
-      <c r="B198" s="16"/>
+      <c r="B198" s="22"/>
       <c r="C198" s="10" t="s">
         <v>936</v>
       </c>
@@ -20498,7 +20624,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="10"/>
-      <c r="B199" s="16"/>
+      <c r="B199" s="22"/>
       <c r="C199" s="10" t="s">
         <v>936</v>
       </c>
@@ -20517,7 +20643,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="10"/>
-      <c r="B200" s="16" t="s">
+      <c r="B200" s="22" t="s">
         <v>1036</v>
       </c>
       <c r="C200" s="10" t="s">
@@ -20538,7 +20664,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="10"/>
-      <c r="B201" s="16"/>
+      <c r="B201" s="22"/>
       <c r="C201" s="10" t="s">
         <v>963</v>
       </c>
@@ -20557,7 +20683,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="10"/>
-      <c r="B202" s="16"/>
+      <c r="B202" s="22"/>
       <c r="C202" s="10" t="s">
         <v>963</v>
       </c>
@@ -20576,7 +20702,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="10"/>
-      <c r="B203" s="16"/>
+      <c r="B203" s="22"/>
       <c r="C203" s="10" t="s">
         <v>963</v>
       </c>
@@ -20595,7 +20721,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="10"/>
-      <c r="B204" s="16"/>
+      <c r="B204" s="22"/>
       <c r="C204" s="10" t="s">
         <v>963</v>
       </c>
@@ -20614,7 +20740,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="10"/>
-      <c r="B205" s="16"/>
+      <c r="B205" s="22"/>
       <c r="C205" s="10" t="s">
         <v>963</v>
       </c>
@@ -20633,7 +20759,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="10"/>
-      <c r="B206" s="16"/>
+      <c r="B206" s="22"/>
       <c r="C206" s="10" t="s">
         <v>1049</v>
       </c>
@@ -20652,7 +20778,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="10"/>
-      <c r="B207" s="16"/>
+      <c r="B207" s="22"/>
       <c r="C207" s="10" t="s">
         <v>963</v>
       </c>
@@ -20671,7 +20797,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="10"/>
-      <c r="B208" s="16"/>
+      <c r="B208" s="22"/>
       <c r="C208" s="10" t="s">
         <v>963</v>
       </c>
@@ -20690,7 +20816,7 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="10"/>
-      <c r="B209" s="16"/>
+      <c r="B209" s="22"/>
       <c r="C209" s="10" t="s">
         <v>963</v>
       </c>
@@ -20709,7 +20835,7 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="10"/>
-      <c r="B210" s="16"/>
+      <c r="B210" s="22"/>
       <c r="C210" s="10" t="s">
         <v>963</v>
       </c>
@@ -20728,7 +20854,7 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="10"/>
-      <c r="B211" s="16"/>
+      <c r="B211" s="22"/>
       <c r="C211" s="10" t="s">
         <v>963</v>
       </c>
@@ -20747,7 +20873,7 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="10"/>
-      <c r="B212" s="16"/>
+      <c r="B212" s="22"/>
       <c r="C212" s="10" t="s">
         <v>963</v>
       </c>
@@ -20766,7 +20892,7 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="10"/>
-      <c r="B213" s="16"/>
+      <c r="B213" s="22"/>
       <c r="C213" s="10" t="s">
         <v>963</v>
       </c>
@@ -20785,7 +20911,7 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="10"/>
-      <c r="B214" s="16"/>
+      <c r="B214" s="22"/>
       <c r="C214" s="10" t="s">
         <v>963</v>
       </c>
@@ -20804,7 +20930,7 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="10"/>
-      <c r="B215" s="16" t="s">
+      <c r="B215" s="22" t="s">
         <v>567</v>
       </c>
       <c r="C215" s="10" t="s">
@@ -20825,7 +20951,7 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="10"/>
-      <c r="B216" s="16"/>
+      <c r="B216" s="22"/>
       <c r="C216" s="10" t="s">
         <v>994</v>
       </c>
@@ -20844,7 +20970,7 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="10"/>
-      <c r="B217" s="16"/>
+      <c r="B217" s="22"/>
       <c r="C217" s="10" t="s">
         <v>994</v>
       </c>
@@ -20863,7 +20989,7 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="10"/>
-      <c r="B218" s="16"/>
+      <c r="B218" s="22"/>
       <c r="C218" s="10" t="s">
         <v>1050</v>
       </c>
@@ -20882,7 +21008,7 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="10"/>
-      <c r="B219" s="16"/>
+      <c r="B219" s="22"/>
       <c r="C219" s="10" t="s">
         <v>994</v>
       </c>
@@ -20901,7 +21027,7 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="10"/>
-      <c r="B220" s="16"/>
+      <c r="B220" s="22"/>
       <c r="C220" s="10" t="s">
         <v>994</v>
       </c>
@@ -20920,7 +21046,7 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="10"/>
-      <c r="B221" s="16"/>
+      <c r="B221" s="22"/>
       <c r="C221" s="10" t="s">
         <v>994</v>
       </c>
@@ -20939,7 +21065,7 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="10"/>
-      <c r="B222" s="16"/>
+      <c r="B222" s="22"/>
       <c r="C222" s="10" t="s">
         <v>994</v>
       </c>
@@ -20958,7 +21084,7 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="10"/>
-      <c r="B223" s="16"/>
+      <c r="B223" s="22"/>
       <c r="C223" s="10" t="s">
         <v>994</v>
       </c>
@@ -20977,7 +21103,7 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="10"/>
-      <c r="B224" s="16"/>
+      <c r="B224" s="22"/>
       <c r="C224" s="10" t="s">
         <v>994</v>
       </c>
@@ -20996,7 +21122,7 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="10"/>
-      <c r="B225" s="16"/>
+      <c r="B225" s="22"/>
       <c r="C225" s="10" t="s">
         <v>994</v>
       </c>
@@ -21015,7 +21141,7 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="10"/>
-      <c r="B226" s="16"/>
+      <c r="B226" s="22"/>
       <c r="C226" s="10" t="s">
         <v>994</v>
       </c>
@@ -21034,7 +21160,7 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="10"/>
-      <c r="B227" s="16"/>
+      <c r="B227" s="22"/>
       <c r="C227" s="10" t="s">
         <v>994</v>
       </c>
@@ -21053,7 +21179,7 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="10"/>
-      <c r="B228" s="16"/>
+      <c r="B228" s="22"/>
       <c r="C228" s="10" t="s">
         <v>994</v>
       </c>
@@ -21072,7 +21198,7 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="10"/>
-      <c r="B229" s="16"/>
+      <c r="B229" s="22"/>
       <c r="C229" s="10" t="s">
         <v>994</v>
       </c>
@@ -21091,7 +21217,7 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="10"/>
-      <c r="B230" s="16"/>
+      <c r="B230" s="22"/>
       <c r="C230" s="10" t="s">
         <v>994</v>
       </c>
@@ -21110,7 +21236,7 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="10"/>
-      <c r="B231" s="16"/>
+      <c r="B231" s="22"/>
       <c r="C231" s="10" t="s">
         <v>994</v>
       </c>
@@ -21129,7 +21255,7 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="10"/>
-      <c r="B232" s="16"/>
+      <c r="B232" s="22"/>
       <c r="C232" s="10" t="s">
         <v>994</v>
       </c>

--- a/api自動化測試腳清單.xlsx
+++ b/api自動化測試腳清單.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2864" uniqueCount="1193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2872" uniqueCount="1198">
   <si>
     <t>Module</t>
   </si>
@@ -4118,16 +4118,37 @@
     <t>M0053餘額提領</t>
   </si>
   <si>
+    <t>postData21</t>
+  </si>
+  <si>
+    <t>M0053AddWithdrawBalance_2.py</t>
+  </si>
+  <si>
+    <t>EncData --&gt; 提領金額需大於手續費 Test Failed. Expected RtnCode: 1. Actual RtnCode: 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0084取得線上開戶銀行清單</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>M0053AddWithdrawBalance_1.py</t>
-  </si>
-  <si>
-    <t>postData21</t>
-  </si>
-  <si>
-    <t>M0053AddWithdrawBalance_2.py</t>
-  </si>
-  <si>
-    <t>EncData --&gt; 提領金額需大於手續費 Test Failed. Expected RtnCode: 1. Actual RtnCode: 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0084GetListOnlineBankInfo_1.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0084GetListOnlineBankInfo_2.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postData22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postData22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4343,16 +4364,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4668,7 +4689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C37" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C46" workbookViewId="0">
       <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
@@ -4710,7 +4731,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="20"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="2" t="s">
         <v>1059</v>
       </c>
@@ -4732,7 +4753,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="21"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="10" t="s">
         <v>1059</v>
       </c>
@@ -4754,7 +4775,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="21"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="2" t="s">
         <v>1058</v>
       </c>
@@ -4776,7 +4797,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="21"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="2" t="s">
         <v>1056</v>
       </c>
@@ -4798,7 +4819,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="21"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="2" t="s">
         <v>1053</v>
       </c>
@@ -4820,7 +4841,7 @@
     </row>
     <row r="7" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="21"/>
+      <c r="B7" s="23"/>
       <c r="C7" t="s">
         <v>1053</v>
       </c>
@@ -4841,7 +4862,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="10" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="21"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="10" t="s">
         <v>1096</v>
       </c>
@@ -4862,7 +4883,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" s="10" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="21"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="10" t="s">
         <v>1096</v>
       </c>
@@ -4879,7 +4900,7 @@
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="21"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="10" t="s">
         <v>1096</v>
       </c>
@@ -4901,7 +4922,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="21"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="2" t="s">
         <v>1061</v>
       </c>
@@ -4923,7 +4944,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="21"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="10" t="s">
         <v>1061</v>
       </c>
@@ -4945,7 +4966,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="21"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="2" t="s">
         <v>1072</v>
       </c>
@@ -4967,7 +4988,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="21"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="2" t="s">
         <v>1072</v>
       </c>
@@ -4989,7 +5010,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="21"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="2" t="s">
         <v>1078</v>
       </c>
@@ -5011,7 +5032,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="21"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="10" t="s">
         <v>1078</v>
       </c>
@@ -5033,7 +5054,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="21"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="2" t="s">
         <v>1085</v>
       </c>
@@ -5055,7 +5076,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="21"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="10" t="s">
         <v>1085</v>
       </c>
@@ -5073,7 +5094,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="21"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="2" t="s">
         <v>1089</v>
       </c>
@@ -5089,7 +5110,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="21"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="10" t="s">
         <v>1089</v>
       </c>
@@ -5105,7 +5126,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="21"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="2" t="s">
         <v>1093</v>
       </c>
@@ -5121,7 +5142,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="21"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="10" t="s">
         <v>1093</v>
       </c>
@@ -5137,7 +5158,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="21"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="2" t="s">
         <v>1123</v>
       </c>
@@ -5153,7 +5174,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="21"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="10" t="s">
         <v>1123</v>
       </c>
@@ -5169,7 +5190,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
-      <c r="B25" s="21"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="2" t="s">
         <v>1127</v>
       </c>
@@ -5185,7 +5206,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="21"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="2" t="s">
         <v>1128</v>
       </c>
@@ -5201,7 +5222,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
-      <c r="B27" s="21"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="2" t="s">
         <v>1131</v>
       </c>
@@ -5216,7 +5237,7 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="21"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="10" t="s">
         <v>1131</v>
       </c>
@@ -5229,7 +5250,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
-      <c r="B29" s="21"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="2" t="s">
         <v>1134</v>
       </c>
@@ -5247,7 +5268,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
-      <c r="B30" s="21"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="10" t="s">
         <v>1134</v>
       </c>
@@ -5265,7 +5286,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="B31" s="21"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="10" t="s">
         <v>1134</v>
       </c>
@@ -5283,7 +5304,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
-      <c r="B32" s="21"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="10" t="s">
         <v>1134</v>
       </c>
@@ -5301,7 +5322,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
-      <c r="B33" s="21"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="2" t="s">
         <v>1143</v>
       </c>
@@ -5319,7 +5340,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
-      <c r="B34" s="21"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="10" t="s">
         <v>1143</v>
       </c>
@@ -5337,7 +5358,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
-      <c r="B35" s="21"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="2" t="s">
         <v>1148</v>
       </c>
@@ -5355,7 +5376,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
-      <c r="B36" s="21"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="10" t="s">
         <v>1148</v>
       </c>
@@ -5373,7 +5394,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
-      <c r="B37" s="22"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="2" t="s">
         <v>1152</v>
       </c>
@@ -5391,7 +5412,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
-      <c r="B38" s="22"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="10" t="s">
         <v>1152</v>
       </c>
@@ -5409,7 +5430,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
-      <c r="B39" s="22"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="2" t="s">
         <v>1157</v>
       </c>
@@ -5427,7 +5448,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
-      <c r="B40" s="22"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="10" t="s">
         <v>1157</v>
       </c>
@@ -5445,7 +5466,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
-      <c r="B41" s="22"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="17" t="s">
         <v>1162</v>
       </c>
@@ -5459,7 +5480,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
-      <c r="B42" s="22"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="18" t="s">
         <v>1162</v>
       </c>
@@ -5473,7 +5494,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
-      <c r="B43" s="22"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="2" t="s">
         <v>1164</v>
       </c>
@@ -5491,7 +5512,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
-      <c r="B44" s="22"/>
+      <c r="B44" s="20"/>
       <c r="C44" s="10" t="s">
         <v>1164</v>
       </c>
@@ -5509,7 +5530,7 @@
     </row>
     <row r="45" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
-      <c r="B45" s="22"/>
+      <c r="B45" s="20"/>
       <c r="C45" s="2" t="s">
         <v>1168</v>
       </c>
@@ -5527,7 +5548,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
-      <c r="B46" s="22"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="10" t="s">
         <v>1168</v>
       </c>
@@ -5545,7 +5566,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
-      <c r="B47" s="22"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="10" t="s">
         <v>1174</v>
       </c>
@@ -5562,7 +5583,7 @@
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="22"/>
+      <c r="B48" s="20"/>
       <c r="C48" s="10" t="s">
         <v>1174</v>
       </c>
@@ -5578,7 +5599,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
-      <c r="B49" s="22"/>
+      <c r="B49" s="20"/>
       <c r="C49" s="10" t="s">
         <v>1180</v>
       </c>
@@ -5596,7 +5617,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
-      <c r="B50" s="22"/>
+      <c r="B50" s="20"/>
       <c r="C50" s="10" t="s">
         <v>1180</v>
       </c>
@@ -5614,7 +5635,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
-      <c r="B51" s="22"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="10" t="s">
         <v>1184</v>
       </c>
@@ -5632,7 +5653,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
-      <c r="B52" s="22"/>
+      <c r="B52" s="20"/>
       <c r="C52" s="10" t="s">
         <v>1184</v>
       </c>
@@ -5650,33 +5671,33 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
-      <c r="B53" s="22"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="10" t="s">
         <v>1188</v>
       </c>
       <c r="D53" s="10" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E53" s="10" t="s">
         <v>1189</v>
       </c>
-      <c r="E53" s="10" t="s">
-        <v>1190</v>
-      </c>
       <c r="F53" s="10" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
-      <c r="B54" s="22"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="10" t="s">
         <v>1188</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>1179</v>
@@ -5686,27 +5707,43 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>1177</v>
+      </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="10" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>1179</v>
+      </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
-      <c r="B57" s="22"/>
+      <c r="B57" s="20"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -5716,7 +5753,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
-      <c r="B58" s="22"/>
+      <c r="B58" s="20"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -5726,7 +5763,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
-      <c r="B59" s="22"/>
+      <c r="B59" s="20"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -5736,7 +5773,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
-      <c r="B60" s="22"/>
+      <c r="B60" s="20"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -5746,7 +5783,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
-      <c r="B61" s="22"/>
+      <c r="B61" s="20"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -5756,7 +5793,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
-      <c r="B62" s="22"/>
+      <c r="B62" s="20"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -5766,7 +5803,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
-      <c r="B63" s="22"/>
+      <c r="B63" s="20"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -5776,7 +5813,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
-      <c r="B64" s="22"/>
+      <c r="B64" s="20"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -5786,7 +5823,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
-      <c r="B65" s="22"/>
+      <c r="B65" s="20"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -5796,7 +5833,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
-      <c r="B66" s="22"/>
+      <c r="B66" s="20"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -5806,7 +5843,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
-      <c r="B67" s="22"/>
+      <c r="B67" s="20"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -5816,7 +5853,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
-      <c r="B68" s="22"/>
+      <c r="B68" s="20"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -5826,7 +5863,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
-      <c r="B69" s="22"/>
+      <c r="B69" s="20"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -5836,7 +5873,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
-      <c r="B70" s="22"/>
+      <c r="B70" s="20"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -5846,7 +5883,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
-      <c r="B71" s="22"/>
+      <c r="B71" s="20"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -5856,7 +5893,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
-      <c r="B72" s="22"/>
+      <c r="B72" s="20"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -5866,7 +5903,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
-      <c r="B73" s="22"/>
+      <c r="B73" s="20"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -5876,7 +5913,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
-      <c r="B74" s="22"/>
+      <c r="B74" s="20"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -5886,7 +5923,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
-      <c r="B75" s="22"/>
+      <c r="B75" s="20"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -5896,7 +5933,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
-      <c r="B76" s="22"/>
+      <c r="B76" s="20"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -5906,7 +5943,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
-      <c r="B77" s="22"/>
+      <c r="B77" s="20"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -5916,7 +5953,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
-      <c r="B78" s="22"/>
+      <c r="B78" s="20"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -5926,7 +5963,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
-      <c r="B79" s="22"/>
+      <c r="B79" s="20"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -5936,7 +5973,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
-      <c r="B80" s="22"/>
+      <c r="B80" s="20"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -5946,7 +5983,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
-      <c r="B81" s="22"/>
+      <c r="B81" s="20"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -5956,7 +5993,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
-      <c r="B82" s="22"/>
+      <c r="B82" s="20"/>
       <c r="C82" s="10"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -5965,11 +6002,11 @@
       <c r="H82" s="1"/>
     </row>
     <row r="83" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="22"/>
+      <c r="B83" s="20"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
-      <c r="B84" s="22"/>
+      <c r="B84" s="20"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -5979,7 +6016,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
-      <c r="B85" s="22"/>
+      <c r="B85" s="20"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -5989,7 +6026,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
-      <c r="B86" s="22"/>
+      <c r="B86" s="20"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -5999,7 +6036,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
-      <c r="B87" s="22"/>
+      <c r="B87" s="20"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -6009,7 +6046,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
-      <c r="B88" s="22"/>
+      <c r="B88" s="20"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -6019,7 +6056,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
-      <c r="B89" s="22"/>
+      <c r="B89" s="20"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -6029,7 +6066,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
-      <c r="B90" s="22"/>
+      <c r="B90" s="20"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -6039,7 +6076,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
-      <c r="B91" s="22"/>
+      <c r="B91" s="20"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -6049,7 +6086,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
-      <c r="B92" s="22"/>
+      <c r="B92" s="20"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -6059,7 +6096,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
-      <c r="B93" s="22"/>
+      <c r="B93" s="20"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -6069,7 +6106,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
-      <c r="B94" s="22"/>
+      <c r="B94" s="20"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -6079,7 +6116,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
-      <c r="B95" s="22"/>
+      <c r="B95" s="20"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -6089,7 +6126,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
-      <c r="B96" s="22"/>
+      <c r="B96" s="20"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -6099,7 +6136,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
-      <c r="B97" s="22"/>
+      <c r="B97" s="20"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -6109,7 +6146,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
-      <c r="B98" s="22"/>
+      <c r="B98" s="20"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -6119,7 +6156,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
-      <c r="B99" s="22"/>
+      <c r="B99" s="20"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -6129,7 +6166,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
-      <c r="B100" s="22"/>
+      <c r="B100" s="20"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -6139,7 +6176,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
-      <c r="B101" s="22"/>
+      <c r="B101" s="20"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -6149,7 +6186,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
-      <c r="B102" s="22"/>
+      <c r="B102" s="20"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -6159,7 +6196,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
-      <c r="B103" s="22"/>
+      <c r="B103" s="20"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -6169,7 +6206,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
-      <c r="B104" s="22"/>
+      <c r="B104" s="20"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -6179,7 +6216,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
-      <c r="B105" s="22"/>
+      <c r="B105" s="20"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -6189,7 +6226,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
-      <c r="B106" s="22"/>
+      <c r="B106" s="20"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -6199,7 +6236,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
-      <c r="B107" s="22"/>
+      <c r="B107" s="20"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -6209,7 +6246,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
-      <c r="B108" s="22"/>
+      <c r="B108" s="20"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -6219,7 +6256,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
-      <c r="B109" s="22"/>
+      <c r="B109" s="20"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -6229,7 +6266,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
-      <c r="B110" s="22"/>
+      <c r="B110" s="20"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -6239,7 +6276,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
-      <c r="B111" s="22"/>
+      <c r="B111" s="20"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -6249,7 +6286,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
-      <c r="B112" s="22"/>
+      <c r="B112" s="20"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -6259,7 +6296,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
-      <c r="B113" s="22"/>
+      <c r="B113" s="20"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -6269,7 +6306,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
-      <c r="B114" s="22"/>
+      <c r="B114" s="20"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -6279,7 +6316,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
-      <c r="B115" s="22"/>
+      <c r="B115" s="20"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -6289,7 +6326,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
-      <c r="B116" s="22"/>
+      <c r="B116" s="20"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -6299,7 +6336,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
-      <c r="B117" s="22"/>
+      <c r="B117" s="20"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -6309,7 +6346,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
-      <c r="B118" s="22"/>
+      <c r="B118" s="20"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -6319,7 +6356,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
-      <c r="B119" s="22"/>
+      <c r="B119" s="20"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -6329,7 +6366,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
-      <c r="B120" s="22"/>
+      <c r="B120" s="20"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -6339,7 +6376,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
-      <c r="B121" s="22"/>
+      <c r="B121" s="20"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -6349,7 +6386,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
-      <c r="B122" s="22"/>
+      <c r="B122" s="20"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -6359,7 +6396,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
-      <c r="B123" s="22"/>
+      <c r="B123" s="20"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -6369,7 +6406,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
-      <c r="B124" s="22"/>
+      <c r="B124" s="20"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -6379,7 +6416,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
-      <c r="B125" s="22"/>
+      <c r="B125" s="20"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -6389,7 +6426,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
-      <c r="B126" s="22"/>
+      <c r="B126" s="20"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -6399,7 +6436,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
-      <c r="B127" s="22"/>
+      <c r="B127" s="20"/>
       <c r="C127" s="10"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -6409,7 +6446,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
-      <c r="B128" s="22"/>
+      <c r="B128" s="20"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -6419,7 +6456,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
-      <c r="B129" s="22"/>
+      <c r="B129" s="20"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -6429,7 +6466,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
-      <c r="B130" s="22"/>
+      <c r="B130" s="20"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -6439,7 +6476,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
-      <c r="B131" s="22"/>
+      <c r="B131" s="20"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -6449,7 +6486,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
-      <c r="B132" s="22"/>
+      <c r="B132" s="20"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -6459,7 +6496,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
-      <c r="B133" s="22"/>
+      <c r="B133" s="20"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -6469,7 +6506,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
-      <c r="B134" s="22"/>
+      <c r="B134" s="20"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -6479,7 +6516,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
-      <c r="B135" s="22"/>
+      <c r="B135" s="20"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -6489,7 +6526,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
-      <c r="B136" s="22"/>
+      <c r="B136" s="20"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -6499,7 +6536,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
-      <c r="B137" s="22"/>
+      <c r="B137" s="20"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -6509,7 +6546,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
-      <c r="B138" s="22"/>
+      <c r="B138" s="20"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -6519,7 +6556,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
-      <c r="B139" s="22"/>
+      <c r="B139" s="20"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -6529,7 +6566,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
-      <c r="B140" s="22"/>
+      <c r="B140" s="20"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -6539,7 +6576,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
-      <c r="B141" s="22"/>
+      <c r="B141" s="20"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -6549,7 +6586,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
-      <c r="B142" s="22"/>
+      <c r="B142" s="20"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -6559,7 +6596,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
-      <c r="B143" s="22"/>
+      <c r="B143" s="20"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -6569,7 +6606,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
-      <c r="B144" s="22"/>
+      <c r="B144" s="20"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -6579,7 +6616,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
-      <c r="B145" s="22"/>
+      <c r="B145" s="20"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -6589,7 +6626,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
-      <c r="B146" s="22"/>
+      <c r="B146" s="20"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -6599,7 +6636,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
-      <c r="B147" s="22"/>
+      <c r="B147" s="20"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -6609,7 +6646,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
-      <c r="B148" s="22"/>
+      <c r="B148" s="20"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -6619,7 +6656,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
-      <c r="B149" s="22"/>
+      <c r="B149" s="20"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -6629,7 +6666,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
-      <c r="B150" s="22"/>
+      <c r="B150" s="20"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -6639,7 +6676,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
-      <c r="B151" s="22"/>
+      <c r="B151" s="20"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -6649,7 +6686,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
-      <c r="B152" s="22"/>
+      <c r="B152" s="20"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -6659,7 +6696,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
-      <c r="B153" s="22"/>
+      <c r="B153" s="20"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -6669,7 +6706,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
-      <c r="B154" s="22"/>
+      <c r="B154" s="20"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -6679,7 +6716,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
-      <c r="B155" s="22"/>
+      <c r="B155" s="20"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -6689,7 +6726,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
-      <c r="B156" s="22"/>
+      <c r="B156" s="20"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -6699,7 +6736,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
-      <c r="B157" s="22"/>
+      <c r="B157" s="20"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -6709,7 +6746,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
-      <c r="B158" s="22"/>
+      <c r="B158" s="20"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -6719,7 +6756,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
-      <c r="B159" s="22"/>
+      <c r="B159" s="20"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -6729,7 +6766,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
-      <c r="B160" s="22"/>
+      <c r="B160" s="20"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -6739,7 +6776,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
-      <c r="B161" s="22"/>
+      <c r="B161" s="20"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -6749,7 +6786,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
-      <c r="B162" s="22"/>
+      <c r="B162" s="20"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -6759,7 +6796,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
-      <c r="B163" s="22"/>
+      <c r="B163" s="20"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -6769,7 +6806,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
-      <c r="B164" s="22"/>
+      <c r="B164" s="20"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -6779,7 +6816,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
-      <c r="B165" s="22"/>
+      <c r="B165" s="20"/>
       <c r="C165" s="10"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -6789,7 +6826,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
-      <c r="B166" s="22"/>
+      <c r="B166" s="20"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -6799,7 +6836,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
-      <c r="B167" s="22"/>
+      <c r="B167" s="20"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -6809,7 +6846,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
-      <c r="B168" s="22"/>
+      <c r="B168" s="20"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -6819,7 +6856,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
-      <c r="B169" s="22"/>
+      <c r="B169" s="20"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -6829,7 +6866,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
-      <c r="B170" s="22"/>
+      <c r="B170" s="20"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -6839,7 +6876,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
-      <c r="B171" s="22"/>
+      <c r="B171" s="20"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -6849,7 +6886,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
-      <c r="B172" s="22"/>
+      <c r="B172" s="20"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -6859,7 +6896,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
-      <c r="B173" s="22"/>
+      <c r="B173" s="20"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -6869,7 +6906,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
-      <c r="B174" s="22"/>
+      <c r="B174" s="20"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -6879,7 +6916,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
-      <c r="B175" s="22"/>
+      <c r="B175" s="20"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -6889,7 +6926,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
-      <c r="B176" s="22"/>
+      <c r="B176" s="20"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -6899,7 +6936,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
-      <c r="B177" s="22"/>
+      <c r="B177" s="20"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -6909,7 +6946,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
-      <c r="B178" s="22"/>
+      <c r="B178" s="20"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -6919,7 +6956,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
-      <c r="B179" s="22"/>
+      <c r="B179" s="20"/>
       <c r="C179" s="10"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -6929,7 +6966,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
-      <c r="B180" s="22"/>
+      <c r="B180" s="20"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -6939,7 +6976,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
-      <c r="B181" s="22"/>
+      <c r="B181" s="20"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -6949,7 +6986,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
-      <c r="B182" s="22"/>
+      <c r="B182" s="20"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -6959,7 +6996,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
-      <c r="B183" s="22"/>
+      <c r="B183" s="20"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -6969,7 +7006,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
-      <c r="B184" s="22"/>
+      <c r="B184" s="20"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -6979,7 +7016,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="2"/>
-      <c r="B185" s="22"/>
+      <c r="B185" s="20"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -6989,7 +7026,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
-      <c r="B186" s="22"/>
+      <c r="B186" s="20"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -6999,7 +7036,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
-      <c r="B187" s="23"/>
+      <c r="B187" s="21"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -7009,7 +7046,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
-      <c r="B188" s="20"/>
+      <c r="B188" s="22"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -7019,7 +7056,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="2"/>
-      <c r="B189" s="21"/>
+      <c r="B189" s="23"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -7029,7 +7066,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
-      <c r="B190" s="21"/>
+      <c r="B190" s="23"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -7039,7 +7076,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
-      <c r="B191" s="21"/>
+      <c r="B191" s="23"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="5"/>
@@ -7049,7 +7086,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
-      <c r="B192" s="21"/>
+      <c r="B192" s="23"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="5"/>
@@ -7059,7 +7096,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
-      <c r="B193" s="21"/>
+      <c r="B193" s="23"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="5"/>
@@ -7069,7 +7106,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
-      <c r="B194" s="21"/>
+      <c r="B194" s="23"/>
       <c r="C194" s="10"/>
       <c r="D194" s="2"/>
       <c r="E194" s="5"/>
@@ -7079,7 +7116,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
-      <c r="B195" s="21"/>
+      <c r="B195" s="23"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="5"/>
@@ -7089,7 +7126,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
-      <c r="B196" s="21"/>
+      <c r="B196" s="23"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="5"/>
@@ -7099,7 +7136,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
-      <c r="B197" s="21"/>
+      <c r="B197" s="23"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="5"/>
@@ -7109,7 +7146,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
-      <c r="B198" s="21"/>
+      <c r="B198" s="23"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="5"/>
@@ -7119,7 +7156,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="2"/>
-      <c r="B199" s="21"/>
+      <c r="B199" s="23"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="5"/>
@@ -7129,7 +7166,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
-      <c r="B200" s="22"/>
+      <c r="B200" s="20"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="5"/>
@@ -7139,7 +7176,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="2"/>
-      <c r="B201" s="22"/>
+      <c r="B201" s="20"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="5"/>
@@ -7149,7 +7186,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="2"/>
-      <c r="B202" s="22"/>
+      <c r="B202" s="20"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="5"/>
@@ -7159,7 +7196,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="2"/>
-      <c r="B203" s="22"/>
+      <c r="B203" s="20"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="5"/>
@@ -7169,7 +7206,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="2"/>
-      <c r="B204" s="22"/>
+      <c r="B204" s="20"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="5"/>
@@ -7179,7 +7216,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="2"/>
-      <c r="B205" s="22"/>
+      <c r="B205" s="20"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="5"/>
@@ -7189,7 +7226,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
-      <c r="B206" s="22"/>
+      <c r="B206" s="20"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="5"/>
@@ -7199,7 +7236,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="2"/>
-      <c r="B207" s="22"/>
+      <c r="B207" s="20"/>
       <c r="C207" s="10"/>
       <c r="D207" s="2"/>
       <c r="E207" s="5"/>
@@ -7209,7 +7246,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="2"/>
-      <c r="B208" s="22"/>
+      <c r="B208" s="20"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="5"/>
@@ -7219,7 +7256,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="2"/>
-      <c r="B209" s="22"/>
+      <c r="B209" s="20"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="5"/>
@@ -7229,7 +7266,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="2"/>
-      <c r="B210" s="22"/>
+      <c r="B210" s="20"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="5"/>
@@ -7239,7 +7276,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="2"/>
-      <c r="B211" s="22"/>
+      <c r="B211" s="20"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="5"/>
@@ -7249,7 +7286,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="2"/>
-      <c r="B212" s="22"/>
+      <c r="B212" s="20"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="5"/>
@@ -7259,7 +7296,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="2"/>
-      <c r="B213" s="22"/>
+      <c r="B213" s="20"/>
       <c r="C213" s="10"/>
       <c r="D213" s="2"/>
       <c r="E213" s="5"/>
@@ -7269,7 +7306,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="2"/>
-      <c r="B214" s="22"/>
+      <c r="B214" s="20"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="5"/>
@@ -7279,7 +7316,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="2"/>
-      <c r="B215" s="22"/>
+      <c r="B215" s="20"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="5"/>
@@ -7289,7 +7326,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="2"/>
-      <c r="B216" s="22"/>
+      <c r="B216" s="20"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="5"/>
@@ -7299,7 +7336,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="2"/>
-      <c r="B217" s="22"/>
+      <c r="B217" s="20"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -7309,7 +7346,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="2"/>
-      <c r="B218" s="22"/>
+      <c r="B218" s="20"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -7319,7 +7356,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="2"/>
-      <c r="B219" s="22"/>
+      <c r="B219" s="20"/>
       <c r="C219" s="10"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -7329,7 +7366,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="2"/>
-      <c r="B220" s="22"/>
+      <c r="B220" s="20"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -7339,7 +7376,7 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="2"/>
-      <c r="B221" s="22"/>
+      <c r="B221" s="20"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -7349,7 +7386,7 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="2"/>
-      <c r="B222" s="22"/>
+      <c r="B222" s="20"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -7359,7 +7396,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="2"/>
-      <c r="B223" s="22"/>
+      <c r="B223" s="20"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -7369,7 +7406,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="2"/>
-      <c r="B224" s="22"/>
+      <c r="B224" s="20"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -7379,7 +7416,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="2"/>
-      <c r="B225" s="22"/>
+      <c r="B225" s="20"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -7389,7 +7426,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="2"/>
-      <c r="B226" s="22"/>
+      <c r="B226" s="20"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -7399,7 +7436,7 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="2"/>
-      <c r="B227" s="22"/>
+      <c r="B227" s="20"/>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -7409,7 +7446,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="2"/>
-      <c r="B228" s="22"/>
+      <c r="B228" s="20"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -7419,7 +7456,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="2"/>
-      <c r="B229" s="22"/>
+      <c r="B229" s="20"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -7429,7 +7466,7 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="2"/>
-      <c r="B230" s="22"/>
+      <c r="B230" s="20"/>
       <c r="C230" s="10"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
@@ -7439,7 +7476,7 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="2"/>
-      <c r="B231" s="22"/>
+      <c r="B231" s="20"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -7449,7 +7486,7 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="2"/>
-      <c r="B232" s="22"/>
+      <c r="B232" s="20"/>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -7459,7 +7496,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="2"/>
-      <c r="B233" s="22"/>
+      <c r="B233" s="20"/>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -7469,7 +7506,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="2"/>
-      <c r="B234" s="22"/>
+      <c r="B234" s="20"/>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
@@ -7479,7 +7516,7 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="2"/>
-      <c r="B235" s="22"/>
+      <c r="B235" s="20"/>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
@@ -7489,7 +7526,7 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="2"/>
-      <c r="B236" s="22"/>
+      <c r="B236" s="20"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
@@ -7499,7 +7536,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="2"/>
-      <c r="B237" s="22"/>
+      <c r="B237" s="20"/>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="5"/>
@@ -7509,7 +7546,7 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="2"/>
-      <c r="B238" s="22"/>
+      <c r="B238" s="20"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="5"/>
@@ -7519,7 +7556,7 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="2"/>
-      <c r="B239" s="22"/>
+      <c r="B239" s="20"/>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="5"/>
@@ -7529,7 +7566,7 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="2"/>
-      <c r="B240" s="22"/>
+      <c r="B240" s="20"/>
       <c r="C240" s="10"/>
       <c r="D240" s="2"/>
       <c r="E240" s="5"/>
@@ -7539,7 +7576,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="2"/>
-      <c r="B241" s="22"/>
+      <c r="B241" s="20"/>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="5"/>
@@ -7549,7 +7586,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="2"/>
-      <c r="B242" s="22"/>
+      <c r="B242" s="20"/>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="5"/>
@@ -7559,7 +7596,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="2"/>
-      <c r="B243" s="22"/>
+      <c r="B243" s="20"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="5"/>
@@ -7569,7 +7606,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="2"/>
-      <c r="B244" s="22"/>
+      <c r="B244" s="20"/>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -7579,7 +7616,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="2"/>
-      <c r="B245" s="22"/>
+      <c r="B245" s="20"/>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -7589,7 +7626,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="2"/>
-      <c r="B246" s="22"/>
+      <c r="B246" s="20"/>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -7599,7 +7636,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="2"/>
-      <c r="B247" s="22"/>
+      <c r="B247" s="20"/>
       <c r="C247" s="10"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
@@ -7609,7 +7646,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="2"/>
-      <c r="B248" s="22"/>
+      <c r="B248" s="20"/>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -7619,7 +7656,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="2"/>
-      <c r="B249" s="22"/>
+      <c r="B249" s="20"/>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
@@ -7629,7 +7666,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="2"/>
-      <c r="B250" s="22"/>
+      <c r="B250" s="20"/>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -7639,7 +7676,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="2"/>
-      <c r="B251" s="22"/>
+      <c r="B251" s="20"/>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -7649,7 +7686,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="2"/>
-      <c r="B252" s="22"/>
+      <c r="B252" s="20"/>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -7659,7 +7696,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="2"/>
-      <c r="B253" s="22"/>
+      <c r="B253" s="20"/>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -7669,7 +7706,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="2"/>
-      <c r="B254" s="22"/>
+      <c r="B254" s="20"/>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -7679,7 +7716,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="2"/>
-      <c r="B255" s="22"/>
+      <c r="B255" s="20"/>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -7689,7 +7726,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="2"/>
-      <c r="B256" s="22"/>
+      <c r="B256" s="20"/>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
@@ -7699,7 +7736,7 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="2"/>
-      <c r="B257" s="22"/>
+      <c r="B257" s="20"/>
       <c r="C257" s="10"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -7709,7 +7746,7 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="2"/>
-      <c r="B258" s="22"/>
+      <c r="B258" s="20"/>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -7719,7 +7756,7 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="2"/>
-      <c r="B259" s="22"/>
+      <c r="B259" s="20"/>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -10349,6 +10386,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B2:B71"/>
+    <mergeCell ref="B167:B170"/>
+    <mergeCell ref="B171:B174"/>
+    <mergeCell ref="B72:B122"/>
+    <mergeCell ref="B163:B166"/>
+    <mergeCell ref="B123:B162"/>
     <mergeCell ref="B200:B209"/>
     <mergeCell ref="B210:B216"/>
     <mergeCell ref="B217:B221"/>
@@ -10359,12 +10402,6 @@
     <mergeCell ref="B237:B243"/>
     <mergeCell ref="B244:B252"/>
     <mergeCell ref="B188:B199"/>
-    <mergeCell ref="B2:B71"/>
-    <mergeCell ref="B167:B170"/>
-    <mergeCell ref="B171:B174"/>
-    <mergeCell ref="B72:B122"/>
-    <mergeCell ref="B163:B166"/>
-    <mergeCell ref="B123:B162"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10420,7 +10457,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -10442,7 +10479,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
-      <c r="B3" s="21"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
@@ -10462,7 +10499,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
-      <c r="B4" s="21"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
@@ -10482,7 +10519,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
-      <c r="B5" s="21"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
@@ -10502,7 +10539,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
-      <c r="B6" s="21"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
@@ -10522,7 +10559,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
-      <c r="B7" s="21"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
@@ -10542,7 +10579,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
-      <c r="B8" s="21"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
@@ -10562,7 +10599,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
-      <c r="B9" s="21"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
@@ -10582,7 +10619,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
-      <c r="B10" s="21"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="7" t="s">
         <v>16</v>
       </c>
@@ -10602,7 +10639,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
-      <c r="B11" s="21"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
@@ -10622,7 +10659,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
-      <c r="B12" s="21"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="7" t="s">
         <v>16</v>
       </c>
@@ -10644,7 +10681,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
-      <c r="B13" s="21"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="7" t="s">
         <v>16</v>
       </c>
@@ -10664,7 +10701,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
-      <c r="B14" s="21"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="7" t="s">
         <v>16</v>
       </c>
@@ -10684,7 +10721,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
-      <c r="B15" s="21"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="7" t="s">
         <v>16</v>
       </c>
@@ -10704,7 +10741,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
-      <c r="B16" s="21"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="7" t="s">
         <v>16</v>
       </c>
@@ -10724,7 +10761,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
-      <c r="B17" s="21"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="7" t="s">
         <v>16</v>
       </c>
@@ -10744,7 +10781,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
-      <c r="B18" s="21"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="7" t="s">
         <v>16</v>
       </c>
@@ -10764,7 +10801,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
-      <c r="B19" s="21"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="7" t="s">
         <v>16</v>
       </c>
@@ -10784,7 +10821,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
-      <c r="B20" s="21"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="7" t="s">
         <v>16</v>
       </c>
@@ -10804,7 +10841,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
-      <c r="B21" s="21"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="7" t="s">
         <v>16</v>
       </c>
@@ -10824,7 +10861,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
-      <c r="B22" s="21"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="7" t="s">
         <v>16</v>
       </c>
@@ -10844,7 +10881,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
-      <c r="B23" s="21"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="7" t="s">
         <v>16</v>
       </c>
@@ -10864,7 +10901,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
-      <c r="B24" s="21"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="7" t="s">
         <v>16</v>
       </c>
@@ -10884,7 +10921,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
-      <c r="B25" s="21"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="7" t="s">
         <v>16</v>
       </c>
@@ -10904,7 +10941,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
-      <c r="B26" s="21"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="7" t="s">
         <v>16</v>
       </c>
@@ -10924,7 +10961,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
-      <c r="B27" s="21"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="7" t="s">
         <v>16</v>
       </c>
@@ -10944,7 +10981,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
-      <c r="B28" s="21"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="7" t="s">
         <v>16</v>
       </c>
@@ -10964,7 +11001,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
-      <c r="B29" s="21"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="7" t="s">
         <v>16</v>
       </c>
@@ -10984,7 +11021,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
-      <c r="B30" s="21"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="7" t="s">
         <v>16</v>
       </c>
@@ -11004,7 +11041,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
-      <c r="B31" s="21"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="7" t="s">
         <v>16</v>
       </c>
@@ -11024,7 +11061,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
-      <c r="B32" s="21"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="7" t="s">
         <v>16</v>
       </c>
@@ -11044,7 +11081,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
-      <c r="B33" s="21"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="7" t="s">
         <v>16</v>
       </c>
@@ -11064,7 +11101,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
-      <c r="B34" s="21"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="7" t="s">
         <v>16</v>
       </c>
@@ -11084,7 +11121,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
-      <c r="B35" s="21"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="7" t="s">
         <v>16</v>
       </c>
@@ -11104,7 +11141,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
-      <c r="B36" s="21"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="7" t="s">
         <v>16</v>
       </c>
@@ -11124,7 +11161,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
-      <c r="B37" s="21"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="7" t="s">
         <v>16</v>
       </c>
@@ -11144,7 +11181,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
-      <c r="B38" s="21"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="7" t="s">
         <v>16</v>
       </c>
@@ -11164,7 +11201,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
-      <c r="B39" s="21"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="7" t="s">
         <v>16</v>
       </c>
@@ -11184,7 +11221,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
-      <c r="B40" s="21"/>
+      <c r="B40" s="23"/>
       <c r="C40" s="7" t="s">
         <v>16</v>
       </c>
@@ -11204,7 +11241,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
-      <c r="B41" s="21"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="7" t="s">
         <v>16</v>
       </c>
@@ -11224,7 +11261,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
-      <c r="B42" s="21"/>
+      <c r="B42" s="23"/>
       <c r="C42" s="7" t="s">
         <v>16</v>
       </c>
@@ -11244,7 +11281,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
-      <c r="B43" s="21"/>
+      <c r="B43" s="23"/>
       <c r="C43" s="7" t="s">
         <v>16</v>
       </c>
@@ -11264,7 +11301,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
-      <c r="B44" s="21"/>
+      <c r="B44" s="23"/>
       <c r="C44" s="7" t="s">
         <v>16</v>
       </c>
@@ -11284,7 +11321,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -11306,7 +11343,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
-      <c r="B46" s="22"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="7" t="s">
         <v>104</v>
       </c>
@@ -11326,7 +11363,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
-      <c r="B47" s="22"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="7" t="s">
         <v>104</v>
       </c>
@@ -11346,7 +11383,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
-      <c r="B48" s="22"/>
+      <c r="B48" s="20"/>
       <c r="C48" s="7" t="s">
         <v>104</v>
       </c>
@@ -11366,7 +11403,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
-      <c r="B49" s="22"/>
+      <c r="B49" s="20"/>
       <c r="C49" s="7" t="s">
         <v>104</v>
       </c>
@@ -11386,7 +11423,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
-      <c r="B50" s="22"/>
+      <c r="B50" s="20"/>
       <c r="C50" s="7" t="s">
         <v>104</v>
       </c>
@@ -11406,7 +11443,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
-      <c r="B51" s="22"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="7" t="s">
         <v>104</v>
       </c>
@@ -11426,7 +11463,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C52" s="7" t="s">
@@ -11448,7 +11485,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
-      <c r="B53" s="22"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="7" t="s">
         <v>118</v>
       </c>
@@ -11468,7 +11505,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
-      <c r="B54" s="22"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="7" t="s">
         <v>118</v>
       </c>
@@ -11488,7 +11525,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
-      <c r="B55" s="22"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="7" t="s">
         <v>118</v>
       </c>
@@ -11508,7 +11545,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
-      <c r="B56" s="22"/>
+      <c r="B56" s="20"/>
       <c r="C56" s="7" t="s">
         <v>118</v>
       </c>
@@ -11528,7 +11565,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
-      <c r="B57" s="22"/>
+      <c r="B57" s="20"/>
       <c r="C57" s="7" t="s">
         <v>118</v>
       </c>
@@ -11548,7 +11585,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
-      <c r="B58" s="22"/>
+      <c r="B58" s="20"/>
       <c r="C58" s="7" t="s">
         <v>118</v>
       </c>
@@ -11568,7 +11605,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
-      <c r="B59" s="22"/>
+      <c r="B59" s="20"/>
       <c r="C59" s="7" t="s">
         <v>118</v>
       </c>
@@ -11588,7 +11625,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="7"/>
-      <c r="B60" s="22"/>
+      <c r="B60" s="20"/>
       <c r="C60" s="7" t="s">
         <v>118</v>
       </c>
@@ -11608,7 +11645,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="7"/>
-      <c r="B61" s="22"/>
+      <c r="B61" s="20"/>
       <c r="C61" s="7" t="s">
         <v>118</v>
       </c>
@@ -11628,7 +11665,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
-      <c r="B62" s="22"/>
+      <c r="B62" s="20"/>
       <c r="C62" s="7" t="s">
         <v>118</v>
       </c>
@@ -11648,7 +11685,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="7"/>
-      <c r="B63" s="22"/>
+      <c r="B63" s="20"/>
       <c r="C63" s="7" t="s">
         <v>118</v>
       </c>
@@ -11668,7 +11705,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
-      <c r="B64" s="22"/>
+      <c r="B64" s="20"/>
       <c r="C64" s="7" t="s">
         <v>118</v>
       </c>
@@ -11690,7 +11727,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="7"/>
-      <c r="B65" s="22"/>
+      <c r="B65" s="20"/>
       <c r="C65" s="7" t="s">
         <v>118</v>
       </c>
@@ -11710,7 +11747,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
-      <c r="B66" s="22"/>
+      <c r="B66" s="20"/>
       <c r="C66" s="7" t="s">
         <v>118</v>
       </c>
@@ -11732,7 +11769,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
-      <c r="B67" s="22"/>
+      <c r="B67" s="20"/>
       <c r="C67" s="7" t="s">
         <v>118</v>
       </c>
@@ -11752,7 +11789,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
-      <c r="B68" s="22"/>
+      <c r="B68" s="20"/>
       <c r="C68" s="7" t="s">
         <v>118</v>
       </c>
@@ -11772,7 +11809,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
-      <c r="B69" s="22"/>
+      <c r="B69" s="20"/>
       <c r="C69" s="7" t="s">
         <v>118</v>
       </c>
@@ -11792,7 +11829,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="7"/>
-      <c r="B70" s="22"/>
+      <c r="B70" s="20"/>
       <c r="C70" s="7" t="s">
         <v>118</v>
       </c>
@@ -11812,7 +11849,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
-      <c r="B71" s="22"/>
+      <c r="B71" s="20"/>
       <c r="C71" s="7" t="s">
         <v>118</v>
       </c>
@@ -11832,7 +11869,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
-      <c r="B72" s="22"/>
+      <c r="B72" s="20"/>
       <c r="C72" s="7" t="s">
         <v>118</v>
       </c>
@@ -11852,7 +11889,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
-      <c r="B73" s="22"/>
+      <c r="B73" s="20"/>
       <c r="C73" s="7" t="s">
         <v>118</v>
       </c>
@@ -11872,7 +11909,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
-      <c r="B74" s="22"/>
+      <c r="B74" s="20"/>
       <c r="C74" s="7" t="s">
         <v>118</v>
       </c>
@@ -11892,7 +11929,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="7"/>
-      <c r="B75" s="22"/>
+      <c r="B75" s="20"/>
       <c r="C75" s="7" t="s">
         <v>118</v>
       </c>
@@ -11912,7 +11949,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="7"/>
-      <c r="B76" s="22"/>
+      <c r="B76" s="20"/>
       <c r="C76" s="7" t="s">
         <v>118</v>
       </c>
@@ -11932,7 +11969,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
-      <c r="B77" s="22" t="s">
+      <c r="B77" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C77" s="7" t="s">
@@ -11954,7 +11991,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="7"/>
-      <c r="B78" s="22"/>
+      <c r="B78" s="20"/>
       <c r="C78" s="7" t="s">
         <v>536</v>
       </c>
@@ -11974,7 +12011,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="7"/>
-      <c r="B79" s="22"/>
+      <c r="B79" s="20"/>
       <c r="C79" s="7" t="s">
         <v>536</v>
       </c>
@@ -11994,7 +12031,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
-      <c r="B80" s="22"/>
+      <c r="B80" s="20"/>
       <c r="C80" s="7" t="s">
         <v>536</v>
       </c>
@@ -12014,7 +12051,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
-      <c r="B81" s="22"/>
+      <c r="B81" s="20"/>
       <c r="C81" s="7" t="s">
         <v>536</v>
       </c>
@@ -12034,7 +12071,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="7"/>
-      <c r="B82" s="22"/>
+      <c r="B82" s="20"/>
       <c r="C82" s="7" t="s">
         <v>536</v>
       </c>
@@ -12054,7 +12091,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="7"/>
-      <c r="B83" s="22"/>
+      <c r="B83" s="20"/>
       <c r="C83" s="7" t="s">
         <v>536</v>
       </c>
@@ -12074,7 +12111,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="7"/>
-      <c r="B84" s="22"/>
+      <c r="B84" s="20"/>
       <c r="C84" s="7" t="s">
         <v>536</v>
       </c>
@@ -12094,7 +12131,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="7"/>
-      <c r="B85" s="22"/>
+      <c r="B85" s="20"/>
       <c r="C85" s="7" t="s">
         <v>536</v>
       </c>
@@ -12114,7 +12151,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="7"/>
-      <c r="B86" s="22"/>
+      <c r="B86" s="20"/>
       <c r="C86" s="7" t="s">
         <v>536</v>
       </c>
@@ -12134,7 +12171,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="7"/>
-      <c r="B87" s="22"/>
+      <c r="B87" s="20"/>
       <c r="C87" s="7" t="s">
         <v>536</v>
       </c>
@@ -12154,7 +12191,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="7"/>
-      <c r="B88" s="22"/>
+      <c r="B88" s="20"/>
       <c r="C88" s="7" t="s">
         <v>536</v>
       </c>
@@ -12174,7 +12211,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="7"/>
-      <c r="B89" s="22"/>
+      <c r="B89" s="20"/>
       <c r="C89" s="7" t="s">
         <v>536</v>
       </c>
@@ -12194,7 +12231,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="7"/>
-      <c r="B90" s="22"/>
+      <c r="B90" s="20"/>
       <c r="C90" s="7" t="s">
         <v>536</v>
       </c>
@@ -12214,7 +12251,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="7"/>
-      <c r="B91" s="22"/>
+      <c r="B91" s="20"/>
       <c r="C91" s="7" t="s">
         <v>536</v>
       </c>
@@ -12234,7 +12271,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="7"/>
-      <c r="B92" s="22"/>
+      <c r="B92" s="20"/>
       <c r="C92" s="7" t="s">
         <v>536</v>
       </c>
@@ -12254,7 +12291,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="7"/>
-      <c r="B93" s="22"/>
+      <c r="B93" s="20"/>
       <c r="C93" s="7" t="s">
         <v>536</v>
       </c>
@@ -12274,7 +12311,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="7"/>
-      <c r="B94" s="22"/>
+      <c r="B94" s="20"/>
       <c r="C94" s="7" t="s">
         <v>536</v>
       </c>
@@ -12294,7 +12331,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="7"/>
-      <c r="B95" s="22"/>
+      <c r="B95" s="20"/>
       <c r="C95" s="7" t="s">
         <v>536</v>
       </c>
@@ -12314,7 +12351,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="7"/>
-      <c r="B96" s="22"/>
+      <c r="B96" s="20"/>
       <c r="C96" s="7" t="s">
         <v>536</v>
       </c>
@@ -12334,7 +12371,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="7"/>
-      <c r="B97" s="22"/>
+      <c r="B97" s="20"/>
       <c r="C97" s="7" t="s">
         <v>536</v>
       </c>
@@ -12354,7 +12391,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="7"/>
-      <c r="B98" s="22"/>
+      <c r="B98" s="20"/>
       <c r="C98" s="7" t="s">
         <v>536</v>
       </c>
@@ -12374,7 +12411,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="7"/>
-      <c r="B99" s="22"/>
+      <c r="B99" s="20"/>
       <c r="C99" s="7" t="s">
         <v>536</v>
       </c>
@@ -12394,7 +12431,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="7"/>
-      <c r="B100" s="22" t="s">
+      <c r="B100" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C100" s="7" t="s">
@@ -12416,7 +12453,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="7"/>
-      <c r="B101" s="22"/>
+      <c r="B101" s="20"/>
       <c r="C101" s="7" t="s">
         <v>561</v>
       </c>
@@ -12436,7 +12473,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="7"/>
-      <c r="B102" s="22"/>
+      <c r="B102" s="20"/>
       <c r="C102" s="7" t="s">
         <v>170</v>
       </c>
@@ -12456,7 +12493,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="7"/>
-      <c r="B103" s="22"/>
+      <c r="B103" s="20"/>
       <c r="C103" s="7" t="s">
         <v>170</v>
       </c>
@@ -12476,7 +12513,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="7"/>
-      <c r="B104" s="22" t="s">
+      <c r="B104" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C104" s="7" t="s">
@@ -12498,7 +12535,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="7"/>
-      <c r="B105" s="22"/>
+      <c r="B105" s="20"/>
       <c r="C105" s="7" t="s">
         <v>179</v>
       </c>
@@ -12518,7 +12555,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="7"/>
-      <c r="B106" s="22"/>
+      <c r="B106" s="20"/>
       <c r="C106" s="7" t="s">
         <v>562</v>
       </c>
@@ -12538,7 +12575,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="7"/>
-      <c r="B107" s="22"/>
+      <c r="B107" s="20"/>
       <c r="C107" s="7" t="s">
         <v>179</v>
       </c>
@@ -12558,7 +12595,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="7"/>
-      <c r="B108" s="22"/>
+      <c r="B108" s="20"/>
       <c r="C108" s="7" t="s">
         <v>179</v>
       </c>
@@ -12578,7 +12615,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="7"/>
-      <c r="B109" s="22"/>
+      <c r="B109" s="20"/>
       <c r="C109" s="7" t="s">
         <v>179</v>
       </c>
@@ -12598,7 +12635,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="7"/>
-      <c r="B110" s="22"/>
+      <c r="B110" s="20"/>
       <c r="C110" s="7" t="s">
         <v>179</v>
       </c>
@@ -12618,7 +12655,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="7"/>
-      <c r="B111" s="22"/>
+      <c r="B111" s="20"/>
       <c r="C111" s="7" t="s">
         <v>179</v>
       </c>
@@ -12638,7 +12675,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="7"/>
-      <c r="B112" s="22"/>
+      <c r="B112" s="20"/>
       <c r="C112" s="7" t="s">
         <v>179</v>
       </c>
@@ -12658,7 +12695,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="7"/>
-      <c r="B113" s="22"/>
+      <c r="B113" s="20"/>
       <c r="C113" s="7" t="s">
         <v>179</v>
       </c>
@@ -12678,7 +12715,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="7"/>
-      <c r="B114" s="22"/>
+      <c r="B114" s="20"/>
       <c r="C114" s="7" t="s">
         <v>179</v>
       </c>
@@ -12698,7 +12735,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="7"/>
-      <c r="B115" s="22"/>
+      <c r="B115" s="20"/>
       <c r="C115" s="7" t="s">
         <v>179</v>
       </c>
@@ -12718,7 +12755,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="7"/>
-      <c r="B116" s="22"/>
+      <c r="B116" s="20"/>
       <c r="C116" s="7" t="s">
         <v>179</v>
       </c>
@@ -12738,7 +12775,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="7"/>
-      <c r="B117" s="22"/>
+      <c r="B117" s="20"/>
       <c r="C117" s="7" t="s">
         <v>179</v>
       </c>
@@ -12758,7 +12795,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="7"/>
-      <c r="B118" s="22"/>
+      <c r="B118" s="20"/>
       <c r="C118" s="7" t="s">
         <v>179</v>
       </c>
@@ -12780,7 +12817,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="7"/>
-      <c r="B119" s="22"/>
+      <c r="B119" s="20"/>
       <c r="C119" s="7" t="s">
         <v>179</v>
       </c>
@@ -12800,7 +12837,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="7"/>
-      <c r="B120" s="22"/>
+      <c r="B120" s="20"/>
       <c r="C120" s="7" t="s">
         <v>179</v>
       </c>
@@ -12820,7 +12857,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="7"/>
-      <c r="B121" s="22"/>
+      <c r="B121" s="20"/>
       <c r="C121" s="7" t="s">
         <v>179</v>
       </c>
@@ -12840,7 +12877,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="7"/>
-      <c r="B122" s="22"/>
+      <c r="B122" s="20"/>
       <c r="C122" s="7" t="s">
         <v>179</v>
       </c>
@@ -12860,7 +12897,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="7"/>
-      <c r="B123" s="22"/>
+      <c r="B123" s="20"/>
       <c r="C123" s="7" t="s">
         <v>179</v>
       </c>
@@ -12880,7 +12917,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="7"/>
-      <c r="B124" s="22"/>
+      <c r="B124" s="20"/>
       <c r="C124" s="7" t="s">
         <v>179</v>
       </c>
@@ -12900,7 +12937,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="7"/>
-      <c r="B125" s="22"/>
+      <c r="B125" s="20"/>
       <c r="C125" s="7" t="s">
         <v>179</v>
       </c>
@@ -12920,7 +12957,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="7"/>
-      <c r="B126" s="22"/>
+      <c r="B126" s="20"/>
       <c r="C126" s="7" t="s">
         <v>179</v>
       </c>
@@ -12940,7 +12977,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="7"/>
-      <c r="B127" s="22"/>
+      <c r="B127" s="20"/>
       <c r="C127" s="7" t="s">
         <v>179</v>
       </c>
@@ -12960,7 +12997,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="7"/>
-      <c r="B128" s="22"/>
+      <c r="B128" s="20"/>
       <c r="C128" s="7" t="s">
         <v>179</v>
       </c>
@@ -12982,7 +13019,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="7"/>
-      <c r="B129" s="22"/>
+      <c r="B129" s="20"/>
       <c r="C129" s="7" t="s">
         <v>179</v>
       </c>
@@ -13002,7 +13039,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="7"/>
-      <c r="B130" s="22"/>
+      <c r="B130" s="20"/>
       <c r="C130" s="7" t="s">
         <v>179</v>
       </c>
@@ -13024,7 +13061,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="7"/>
-      <c r="B131" s="22"/>
+      <c r="B131" s="20"/>
       <c r="C131" s="7" t="s">
         <v>179</v>
       </c>
@@ -13046,7 +13083,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="7"/>
-      <c r="B132" s="22"/>
+      <c r="B132" s="20"/>
       <c r="C132" s="7" t="s">
         <v>179</v>
       </c>
@@ -13068,7 +13105,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="7"/>
-      <c r="B133" s="22"/>
+      <c r="B133" s="20"/>
       <c r="C133" s="7" t="s">
         <v>179</v>
       </c>
@@ -13090,7 +13127,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="7"/>
-      <c r="B134" s="22"/>
+      <c r="B134" s="20"/>
       <c r="C134" s="7" t="s">
         <v>179</v>
       </c>
@@ -13112,7 +13149,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="7"/>
-      <c r="B135" s="22"/>
+      <c r="B135" s="20"/>
       <c r="C135" s="7" t="s">
         <v>179</v>
       </c>
@@ -13134,7 +13171,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="7"/>
-      <c r="B136" s="22"/>
+      <c r="B136" s="20"/>
       <c r="C136" s="7" t="s">
         <v>179</v>
       </c>
@@ -13156,7 +13193,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="7"/>
-      <c r="B137" s="22"/>
+      <c r="B137" s="20"/>
       <c r="C137" s="7" t="s">
         <v>179</v>
       </c>
@@ -13178,7 +13215,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="7"/>
-      <c r="B138" s="22"/>
+      <c r="B138" s="20"/>
       <c r="C138" s="7" t="s">
         <v>179</v>
       </c>
@@ -13200,7 +13237,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="7"/>
-      <c r="B139" s="22"/>
+      <c r="B139" s="20"/>
       <c r="C139" s="7" t="s">
         <v>179</v>
       </c>
@@ -13222,7 +13259,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="7"/>
-      <c r="B140" s="22"/>
+      <c r="B140" s="20"/>
       <c r="C140" s="7" t="s">
         <v>179</v>
       </c>
@@ -13244,7 +13281,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="7"/>
-      <c r="B141" s="22"/>
+      <c r="B141" s="20"/>
       <c r="C141" s="7" t="s">
         <v>179</v>
       </c>
@@ -13264,7 +13301,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="7"/>
-      <c r="B142" s="22"/>
+      <c r="B142" s="20"/>
       <c r="C142" s="7" t="s">
         <v>179</v>
       </c>
@@ -13284,7 +13321,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="7"/>
-      <c r="B143" s="22"/>
+      <c r="B143" s="20"/>
       <c r="C143" s="7" t="s">
         <v>179</v>
       </c>
@@ -13304,7 +13341,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="7"/>
-      <c r="B144" s="22"/>
+      <c r="B144" s="20"/>
       <c r="C144" s="7" t="s">
         <v>179</v>
       </c>
@@ -13324,7 +13361,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="7"/>
-      <c r="B145" s="22"/>
+      <c r="B145" s="20"/>
       <c r="C145" s="7" t="s">
         <v>179</v>
       </c>
@@ -13344,7 +13381,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="7"/>
-      <c r="B146" s="22"/>
+      <c r="B146" s="20"/>
       <c r="C146" s="7" t="s">
         <v>179</v>
       </c>
@@ -13364,7 +13401,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="7"/>
-      <c r="B147" s="22"/>
+      <c r="B147" s="20"/>
       <c r="C147" s="7" t="s">
         <v>179</v>
       </c>
@@ -13384,7 +13421,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="7"/>
-      <c r="B148" s="22"/>
+      <c r="B148" s="20"/>
       <c r="C148" s="7" t="s">
         <v>179</v>
       </c>
@@ -13404,7 +13441,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="7"/>
-      <c r="B149" s="22" t="s">
+      <c r="B149" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C149" s="7" t="s">
@@ -13426,7 +13463,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="7"/>
-      <c r="B150" s="22"/>
+      <c r="B150" s="20"/>
       <c r="C150" s="7" t="s">
         <v>272</v>
       </c>
@@ -13446,7 +13483,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="7"/>
-      <c r="B151" s="22"/>
+      <c r="B151" s="20"/>
       <c r="C151" s="7" t="s">
         <v>272</v>
       </c>
@@ -13466,7 +13503,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="7"/>
-      <c r="B152" s="22"/>
+      <c r="B152" s="20"/>
       <c r="C152" s="7" t="s">
         <v>272</v>
       </c>
@@ -13486,7 +13523,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="7"/>
-      <c r="B153" s="22" t="s">
+      <c r="B153" s="20" t="s">
         <v>563</v>
       </c>
       <c r="C153" s="7" t="s">
@@ -13508,7 +13545,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="7"/>
-      <c r="B154" s="22"/>
+      <c r="B154" s="20"/>
       <c r="C154" s="7" t="s">
         <v>280</v>
       </c>
@@ -13528,7 +13565,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="7"/>
-      <c r="B155" s="22"/>
+      <c r="B155" s="20"/>
       <c r="C155" s="7" t="s">
         <v>280</v>
       </c>
@@ -13548,7 +13585,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="7"/>
-      <c r="B156" s="22"/>
+      <c r="B156" s="20"/>
       <c r="C156" s="7" t="s">
         <v>280</v>
       </c>
@@ -13568,7 +13605,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="7"/>
-      <c r="B157" s="22"/>
+      <c r="B157" s="20"/>
       <c r="C157" s="7" t="s">
         <v>280</v>
       </c>
@@ -13588,7 +13625,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="7"/>
-      <c r="B158" s="22"/>
+      <c r="B158" s="20"/>
       <c r="C158" s="7" t="s">
         <v>280</v>
       </c>
@@ -13608,7 +13645,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="7"/>
-      <c r="B159" s="22"/>
+      <c r="B159" s="20"/>
       <c r="C159" s="7" t="s">
         <v>280</v>
       </c>
@@ -13628,7 +13665,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="7"/>
-      <c r="B160" s="22"/>
+      <c r="B160" s="20"/>
       <c r="C160" s="7" t="s">
         <v>280</v>
       </c>
@@ -13648,7 +13685,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="7"/>
-      <c r="B161" s="22"/>
+      <c r="B161" s="20"/>
       <c r="C161" s="7" t="s">
         <v>280</v>
       </c>
@@ -13668,7 +13705,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="7"/>
-      <c r="B162" s="22"/>
+      <c r="B162" s="20"/>
       <c r="C162" s="7" t="s">
         <v>280</v>
       </c>
@@ -13688,7 +13725,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="7"/>
-      <c r="B163" s="22"/>
+      <c r="B163" s="20"/>
       <c r="C163" s="7" t="s">
         <v>280</v>
       </c>
@@ -13708,7 +13745,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="7"/>
-      <c r="B164" s="22"/>
+      <c r="B164" s="20"/>
       <c r="C164" s="7" t="s">
         <v>280</v>
       </c>
@@ -13728,7 +13765,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="7"/>
-      <c r="B165" s="22"/>
+      <c r="B165" s="20"/>
       <c r="C165" s="7" t="s">
         <v>280</v>
       </c>
@@ -13748,7 +13785,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="7"/>
-      <c r="B166" s="22"/>
+      <c r="B166" s="20"/>
       <c r="C166" s="7" t="s">
         <v>280</v>
       </c>
@@ -13768,7 +13805,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="7"/>
-      <c r="B167" s="22"/>
+      <c r="B167" s="20"/>
       <c r="C167" s="7" t="s">
         <v>280</v>
       </c>
@@ -13788,7 +13825,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="7"/>
-      <c r="B168" s="22"/>
+      <c r="B168" s="20"/>
       <c r="C168" s="7" t="s">
         <v>280</v>
       </c>
@@ -13808,7 +13845,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="7"/>
-      <c r="B169" s="22"/>
+      <c r="B169" s="20"/>
       <c r="C169" s="7" t="s">
         <v>280</v>
       </c>
@@ -13828,7 +13865,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="7"/>
-      <c r="B170" s="22"/>
+      <c r="B170" s="20"/>
       <c r="C170" s="7" t="s">
         <v>280</v>
       </c>
@@ -13848,7 +13885,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="7"/>
-      <c r="B171" s="22"/>
+      <c r="B171" s="20"/>
       <c r="C171" s="7" t="s">
         <v>280</v>
       </c>
@@ -13868,7 +13905,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="7"/>
-      <c r="B172" s="22"/>
+      <c r="B172" s="20"/>
       <c r="C172" s="7" t="s">
         <v>280</v>
       </c>
@@ -13888,7 +13925,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="7"/>
-      <c r="B173" s="22"/>
+      <c r="B173" s="20"/>
       <c r="C173" s="7" t="s">
         <v>280</v>
       </c>
@@ -13908,7 +13945,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="7"/>
-      <c r="B174" s="22"/>
+      <c r="B174" s="20"/>
       <c r="C174" s="7" t="s">
         <v>564</v>
       </c>
@@ -13928,7 +13965,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="7"/>
-      <c r="B175" s="22"/>
+      <c r="B175" s="20"/>
       <c r="C175" s="7" t="s">
         <v>280</v>
       </c>
@@ -13948,7 +13985,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="7"/>
-      <c r="B176" s="22"/>
+      <c r="B176" s="20"/>
       <c r="C176" s="7" t="s">
         <v>280</v>
       </c>
@@ -13968,7 +14005,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="7"/>
-      <c r="B177" s="22"/>
+      <c r="B177" s="20"/>
       <c r="C177" s="7" t="s">
         <v>280</v>
       </c>
@@ -13988,7 +14025,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="7"/>
-      <c r="B178" s="22"/>
+      <c r="B178" s="20"/>
       <c r="C178" s="7" t="s">
         <v>280</v>
       </c>
@@ -14008,7 +14045,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="7"/>
-      <c r="B179" s="22"/>
+      <c r="B179" s="20"/>
       <c r="C179" s="7" t="s">
         <v>280</v>
       </c>
@@ -14028,7 +14065,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="7"/>
-      <c r="B180" s="22"/>
+      <c r="B180" s="20"/>
       <c r="C180" s="7" t="s">
         <v>280</v>
       </c>
@@ -14048,7 +14085,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="7"/>
-      <c r="B181" s="22"/>
+      <c r="B181" s="20"/>
       <c r="C181" s="7" t="s">
         <v>280</v>
       </c>
@@ -14068,7 +14105,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="7"/>
-      <c r="B182" s="22"/>
+      <c r="B182" s="20"/>
       <c r="C182" s="7" t="s">
         <v>280</v>
       </c>
@@ -14088,7 +14125,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="7"/>
-      <c r="B183" s="22"/>
+      <c r="B183" s="20"/>
       <c r="C183" s="7" t="s">
         <v>280</v>
       </c>
@@ -14108,7 +14145,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="7"/>
-      <c r="B184" s="22"/>
+      <c r="B184" s="20"/>
       <c r="C184" s="7" t="s">
         <v>280</v>
       </c>
@@ -14128,7 +14165,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="7"/>
-      <c r="B185" s="22"/>
+      <c r="B185" s="20"/>
       <c r="C185" s="7" t="s">
         <v>280</v>
       </c>
@@ -14148,7 +14185,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="7"/>
-      <c r="B186" s="22"/>
+      <c r="B186" s="20"/>
       <c r="C186" s="7" t="s">
         <v>280</v>
       </c>
@@ -14168,7 +14205,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="7"/>
-      <c r="B187" s="22"/>
+      <c r="B187" s="20"/>
       <c r="C187" s="7" t="s">
         <v>280</v>
       </c>
@@ -14188,7 +14225,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="7"/>
-      <c r="B188" s="22"/>
+      <c r="B188" s="20"/>
       <c r="C188" s="7" t="s">
         <v>280</v>
       </c>
@@ -14208,7 +14245,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="7"/>
-      <c r="B189" s="22"/>
+      <c r="B189" s="20"/>
       <c r="C189" s="7" t="s">
         <v>280</v>
       </c>
@@ -14228,7 +14265,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="7"/>
-      <c r="B190" s="22"/>
+      <c r="B190" s="20"/>
       <c r="C190" s="7" t="s">
         <v>280</v>
       </c>
@@ -14248,7 +14285,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="7"/>
-      <c r="B191" s="22"/>
+      <c r="B191" s="20"/>
       <c r="C191" s="7" t="s">
         <v>280</v>
       </c>
@@ -14268,7 +14305,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="7"/>
-      <c r="B192" s="22"/>
+      <c r="B192" s="20"/>
       <c r="C192" s="7" t="s">
         <v>280</v>
       </c>
@@ -14288,7 +14325,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="7"/>
-      <c r="B193" s="22"/>
+      <c r="B193" s="20"/>
       <c r="C193" s="7" t="s">
         <v>280</v>
       </c>
@@ -14308,7 +14345,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="7"/>
-      <c r="B194" s="22"/>
+      <c r="B194" s="20"/>
       <c r="C194" s="7" t="s">
         <v>280</v>
       </c>
@@ -14328,7 +14365,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="7"/>
-      <c r="B195" s="22"/>
+      <c r="B195" s="20"/>
       <c r="C195" s="7" t="s">
         <v>280</v>
       </c>
@@ -14348,7 +14385,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="7"/>
-      <c r="B196" s="22"/>
+      <c r="B196" s="20"/>
       <c r="C196" s="7" t="s">
         <v>280</v>
       </c>
@@ -14368,7 +14405,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="7"/>
-      <c r="B197" s="22"/>
+      <c r="B197" s="20"/>
       <c r="C197" s="7" t="s">
         <v>280</v>
       </c>
@@ -14388,7 +14425,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="7"/>
-      <c r="B198" s="22"/>
+      <c r="B198" s="20"/>
       <c r="C198" s="7" t="s">
         <v>280</v>
       </c>
@@ -14408,7 +14445,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="7"/>
-      <c r="B199" s="22"/>
+      <c r="B199" s="20"/>
       <c r="C199" s="7" t="s">
         <v>280</v>
       </c>
@@ -14428,7 +14465,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="7"/>
-      <c r="B200" s="22"/>
+      <c r="B200" s="20"/>
       <c r="C200" s="7" t="s">
         <v>280</v>
       </c>
@@ -14448,7 +14485,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="7"/>
-      <c r="B201" s="22"/>
+      <c r="B201" s="20"/>
       <c r="C201" s="7" t="s">
         <v>280</v>
       </c>
@@ -14468,7 +14505,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="7"/>
-      <c r="B202" s="22"/>
+      <c r="B202" s="20"/>
       <c r="C202" s="7" t="s">
         <v>280</v>
       </c>
@@ -14488,7 +14525,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="7"/>
-      <c r="B203" s="22"/>
+      <c r="B203" s="20"/>
       <c r="C203" s="7" t="s">
         <v>280</v>
       </c>
@@ -14508,7 +14545,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="7"/>
-      <c r="B204" s="22"/>
+      <c r="B204" s="20"/>
       <c r="C204" s="7" t="s">
         <v>280</v>
       </c>
@@ -14528,7 +14565,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="7"/>
-      <c r="B205" s="22"/>
+      <c r="B205" s="20"/>
       <c r="C205" s="7" t="s">
         <v>280</v>
       </c>
@@ -14548,7 +14585,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="7"/>
-      <c r="B206" s="22"/>
+      <c r="B206" s="20"/>
       <c r="C206" s="7" t="s">
         <v>280</v>
       </c>
@@ -14568,7 +14605,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="7"/>
-      <c r="B207" s="22"/>
+      <c r="B207" s="20"/>
       <c r="C207" s="7" t="s">
         <v>280</v>
       </c>
@@ -14588,7 +14625,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="7"/>
-      <c r="B208" s="22"/>
+      <c r="B208" s="20"/>
       <c r="C208" s="7" t="s">
         <v>280</v>
       </c>
@@ -14608,7 +14645,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="7"/>
-      <c r="B209" s="22"/>
+      <c r="B209" s="20"/>
       <c r="C209" s="7" t="s">
         <v>280</v>
       </c>
@@ -14628,7 +14665,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="7"/>
-      <c r="B210" s="22"/>
+      <c r="B210" s="20"/>
       <c r="C210" s="7" t="s">
         <v>280</v>
       </c>
@@ -14648,7 +14685,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="7"/>
-      <c r="B211" s="22"/>
+      <c r="B211" s="20"/>
       <c r="C211" s="7" t="s">
         <v>280</v>
       </c>
@@ -14668,7 +14705,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="7"/>
-      <c r="B212" s="22"/>
+      <c r="B212" s="20"/>
       <c r="C212" s="7" t="s">
         <v>280</v>
       </c>
@@ -14688,7 +14725,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="7"/>
-      <c r="B213" s="22"/>
+      <c r="B213" s="20"/>
       <c r="C213" s="7" t="s">
         <v>280</v>
       </c>
@@ -14708,7 +14745,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="7"/>
-      <c r="B214" s="22"/>
+      <c r="B214" s="20"/>
       <c r="C214" s="7" t="s">
         <v>280</v>
       </c>
@@ -14728,7 +14765,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="7"/>
-      <c r="B215" s="22"/>
+      <c r="B215" s="20"/>
       <c r="C215" s="7" t="s">
         <v>280</v>
       </c>
@@ -14748,7 +14785,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="7"/>
-      <c r="B216" s="22"/>
+      <c r="B216" s="20"/>
       <c r="C216" s="7" t="s">
         <v>280</v>
       </c>
@@ -14768,7 +14805,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="7"/>
-      <c r="B217" s="22"/>
+      <c r="B217" s="20"/>
       <c r="C217" s="7" t="s">
         <v>280</v>
       </c>
@@ -14788,7 +14825,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="7"/>
-      <c r="B218" s="22"/>
+      <c r="B218" s="20"/>
       <c r="C218" s="7" t="s">
         <v>280</v>
       </c>
@@ -14808,7 +14845,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="7"/>
-      <c r="B219" s="22"/>
+      <c r="B219" s="20"/>
       <c r="C219" s="7" t="s">
         <v>280</v>
       </c>
@@ -14828,7 +14865,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="7"/>
-      <c r="B220" s="22"/>
+      <c r="B220" s="20"/>
       <c r="C220" s="7" t="s">
         <v>280</v>
       </c>
@@ -14990,7 +15027,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="7"/>
-      <c r="B228" s="22" t="s">
+      <c r="B228" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C228" s="7" t="s">
@@ -15012,7 +15049,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="7"/>
-      <c r="B229" s="22"/>
+      <c r="B229" s="20"/>
       <c r="C229" s="7" t="s">
         <v>430</v>
       </c>
@@ -15032,7 +15069,7 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="7"/>
-      <c r="B230" s="22"/>
+      <c r="B230" s="20"/>
       <c r="C230" s="7" t="s">
         <v>430</v>
       </c>
@@ -15052,7 +15089,7 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="7"/>
-      <c r="B231" s="22"/>
+      <c r="B231" s="20"/>
       <c r="C231" s="7" t="s">
         <v>430</v>
       </c>
@@ -15072,7 +15109,7 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="7"/>
-      <c r="B232" s="22"/>
+      <c r="B232" s="20"/>
       <c r="C232" s="7" t="s">
         <v>430</v>
       </c>
@@ -15092,7 +15129,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="7"/>
-      <c r="B233" s="22"/>
+      <c r="B233" s="20"/>
       <c r="C233" s="7" t="s">
         <v>430</v>
       </c>
@@ -15112,7 +15149,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="7"/>
-      <c r="B234" s="22"/>
+      <c r="B234" s="20"/>
       <c r="C234" s="7" t="s">
         <v>430</v>
       </c>
@@ -15132,7 +15169,7 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="7"/>
-      <c r="B235" s="22"/>
+      <c r="B235" s="20"/>
       <c r="C235" s="7" t="s">
         <v>430</v>
       </c>
@@ -15152,7 +15189,7 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="7"/>
-      <c r="B236" s="22"/>
+      <c r="B236" s="20"/>
       <c r="C236" s="7" t="s">
         <v>566</v>
       </c>
@@ -15172,7 +15209,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="7"/>
-      <c r="B237" s="22"/>
+      <c r="B237" s="20"/>
       <c r="C237" s="7" t="s">
         <v>430</v>
       </c>
@@ -15192,7 +15229,7 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="7"/>
-      <c r="B238" s="22"/>
+      <c r="B238" s="20"/>
       <c r="C238" s="7" t="s">
         <v>430</v>
       </c>
@@ -15212,7 +15249,7 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="7"/>
-      <c r="B239" s="22"/>
+      <c r="B239" s="20"/>
       <c r="C239" s="7" t="s">
         <v>430</v>
       </c>
@@ -15232,7 +15269,7 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="7"/>
-      <c r="B240" s="22"/>
+      <c r="B240" s="20"/>
       <c r="C240" s="7" t="s">
         <v>430</v>
       </c>
@@ -15252,7 +15289,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="7"/>
-      <c r="B241" s="22"/>
+      <c r="B241" s="20"/>
       <c r="C241" s="7" t="s">
         <v>430</v>
       </c>
@@ -15272,7 +15309,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="7"/>
-      <c r="B242" s="22"/>
+      <c r="B242" s="20"/>
       <c r="C242" s="7" t="s">
         <v>430</v>
       </c>
@@ -15292,7 +15329,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="7"/>
-      <c r="B243" s="22"/>
+      <c r="B243" s="20"/>
       <c r="C243" s="7" t="s">
         <v>430</v>
       </c>
@@ -15312,7 +15349,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="7"/>
-      <c r="B244" s="22"/>
+      <c r="B244" s="20"/>
       <c r="C244" s="7" t="s">
         <v>430</v>
       </c>
@@ -15332,7 +15369,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="7"/>
-      <c r="B245" s="22"/>
+      <c r="B245" s="20"/>
       <c r="C245" s="7" t="s">
         <v>430</v>
       </c>
@@ -15352,7 +15389,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="7"/>
-      <c r="B246" s="22"/>
+      <c r="B246" s="20"/>
       <c r="C246" s="7" t="s">
         <v>430</v>
       </c>
@@ -15372,7 +15409,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="7"/>
-      <c r="B247" s="22"/>
+      <c r="B247" s="20"/>
       <c r="C247" s="7" t="s">
         <v>430</v>
       </c>
@@ -15392,7 +15429,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="7"/>
-      <c r="B248" s="22"/>
+      <c r="B248" s="20"/>
       <c r="C248" s="7" t="s">
         <v>430</v>
       </c>
@@ -15412,7 +15449,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="7"/>
-      <c r="B249" s="22"/>
+      <c r="B249" s="20"/>
       <c r="C249" s="7" t="s">
         <v>430</v>
       </c>
@@ -15432,7 +15469,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="7"/>
-      <c r="B250" s="22"/>
+      <c r="B250" s="20"/>
       <c r="C250" s="7" t="s">
         <v>430</v>
       </c>
@@ -15452,7 +15489,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="7"/>
-      <c r="B251" s="22"/>
+      <c r="B251" s="20"/>
       <c r="C251" s="7" t="s">
         <v>430</v>
       </c>
@@ -15472,7 +15509,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="7"/>
-      <c r="B252" s="22"/>
+      <c r="B252" s="20"/>
       <c r="C252" s="7" t="s">
         <v>430</v>
       </c>
@@ -15492,7 +15529,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="7"/>
-      <c r="B253" s="22"/>
+      <c r="B253" s="20"/>
       <c r="C253" s="7" t="s">
         <v>430</v>
       </c>
@@ -15512,7 +15549,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="7"/>
-      <c r="B254" s="22"/>
+      <c r="B254" s="20"/>
       <c r="C254" s="7" t="s">
         <v>430</v>
       </c>
@@ -15532,7 +15569,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="7"/>
-      <c r="B255" s="22"/>
+      <c r="B255" s="20"/>
       <c r="C255" s="7" t="s">
         <v>430</v>
       </c>
@@ -15552,7 +15589,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="7"/>
-      <c r="B256" s="22"/>
+      <c r="B256" s="20"/>
       <c r="C256" s="7" t="s">
         <v>430</v>
       </c>
@@ -15572,7 +15609,7 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="7"/>
-      <c r="B257" s="22"/>
+      <c r="B257" s="20"/>
       <c r="C257" s="7" t="s">
         <v>430</v>
       </c>
@@ -15592,7 +15629,7 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="7"/>
-      <c r="B258" s="22"/>
+      <c r="B258" s="20"/>
       <c r="C258" s="7" t="s">
         <v>430</v>
       </c>
@@ -15612,7 +15649,7 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="7"/>
-      <c r="B259" s="22"/>
+      <c r="B259" s="20"/>
       <c r="C259" s="7" t="s">
         <v>430</v>
       </c>
@@ -15732,7 +15769,7 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="7"/>
-      <c r="B265" s="22" t="s">
+      <c r="B265" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C265" s="7" t="s">
@@ -15753,7 +15790,7 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="7"/>
-      <c r="B266" s="22"/>
+      <c r="B266" s="20"/>
       <c r="C266" s="7" t="s">
         <v>504</v>
       </c>
@@ -15772,7 +15809,7 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="7"/>
-      <c r="B267" s="22"/>
+      <c r="B267" s="20"/>
       <c r="C267" s="7" t="s">
         <v>504</v>
       </c>
@@ -15791,7 +15828,7 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="7"/>
-      <c r="B268" s="22"/>
+      <c r="B268" s="20"/>
       <c r="C268" s="7" t="s">
         <v>504</v>
       </c>
@@ -15810,7 +15847,7 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="7"/>
-      <c r="B269" s="22"/>
+      <c r="B269" s="20"/>
       <c r="C269" s="7" t="s">
         <v>504</v>
       </c>
@@ -15829,7 +15866,7 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="7"/>
-      <c r="B270" s="22" t="s">
+      <c r="B270" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C270" s="7" t="s">
@@ -15850,7 +15887,7 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="7"/>
-      <c r="B271" s="22"/>
+      <c r="B271" s="20"/>
       <c r="C271" s="7" t="s">
         <v>513</v>
       </c>
@@ -15869,7 +15906,7 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="7"/>
-      <c r="B272" s="22"/>
+      <c r="B272" s="20"/>
       <c r="C272" s="7" t="s">
         <v>513</v>
       </c>
@@ -15888,7 +15925,7 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="7"/>
-      <c r="B273" s="22"/>
+      <c r="B273" s="20"/>
       <c r="C273" s="7" t="s">
         <v>513</v>
       </c>
@@ -15907,7 +15944,7 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="7"/>
-      <c r="B274" s="22"/>
+      <c r="B274" s="20"/>
       <c r="C274" s="7" t="s">
         <v>513</v>
       </c>
@@ -15926,7 +15963,7 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="7"/>
-      <c r="B275" s="22"/>
+      <c r="B275" s="20"/>
       <c r="C275" s="7" t="s">
         <v>513</v>
       </c>
@@ -15945,7 +15982,7 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="7"/>
-      <c r="B276" s="22" t="s">
+      <c r="B276" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C276" s="7" t="s">
@@ -15966,7 +16003,7 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="7"/>
-      <c r="B277" s="22"/>
+      <c r="B277" s="20"/>
       <c r="C277" s="7" t="s">
         <v>526</v>
       </c>
@@ -15985,7 +16022,7 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="7"/>
-      <c r="B278" s="22"/>
+      <c r="B278" s="20"/>
       <c r="C278" s="7" t="s">
         <v>526</v>
       </c>
@@ -16004,7 +16041,7 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="7"/>
-      <c r="B279" s="22"/>
+      <c r="B279" s="20"/>
       <c r="C279" s="7" t="s">
         <v>526</v>
       </c>
@@ -16023,7 +16060,7 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="7"/>
-      <c r="B280" s="22"/>
+      <c r="B280" s="20"/>
       <c r="C280" s="7" t="s">
         <v>526</v>
       </c>
@@ -16657,6 +16694,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B276:B280"/>
+    <mergeCell ref="B153:B220"/>
+    <mergeCell ref="B221:B227"/>
+    <mergeCell ref="B228:B259"/>
+    <mergeCell ref="B260:B264"/>
+    <mergeCell ref="B265:B269"/>
+    <mergeCell ref="B270:B275"/>
     <mergeCell ref="B149:B152"/>
     <mergeCell ref="B2:B44"/>
     <mergeCell ref="B45:B51"/>
@@ -16664,13 +16708,6 @@
     <mergeCell ref="B52:B76"/>
     <mergeCell ref="B104:B148"/>
     <mergeCell ref="B77:B99"/>
-    <mergeCell ref="B276:B280"/>
-    <mergeCell ref="B153:B220"/>
-    <mergeCell ref="B221:B227"/>
-    <mergeCell ref="B228:B259"/>
-    <mergeCell ref="B260:B264"/>
-    <mergeCell ref="B265:B269"/>
-    <mergeCell ref="B270:B275"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16725,7 +16762,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
         <v>567</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -16747,7 +16784,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
-      <c r="B3" s="22"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="10" t="s">
         <v>568</v>
       </c>
@@ -16767,7 +16804,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
-      <c r="B4" s="22"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="10" t="s">
         <v>568</v>
       </c>
@@ -16787,7 +16824,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
-      <c r="B5" s="22"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="10" t="s">
         <v>568</v>
       </c>
@@ -16807,7 +16844,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
-      <c r="B6" s="22"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="10" t="s">
         <v>568</v>
       </c>
@@ -16827,7 +16864,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
-      <c r="B7" s="22"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="10" t="s">
         <v>568</v>
       </c>
@@ -16847,7 +16884,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
-      <c r="B8" s="22"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="10" t="s">
         <v>568</v>
       </c>
@@ -16867,7 +16904,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
-      <c r="B9" s="22"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="10" t="s">
         <v>568</v>
       </c>
@@ -17178,7 +17215,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="20" t="s">
         <v>567</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -17199,7 +17236,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
-      <c r="B25" s="22"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="10" t="s">
         <v>615</v>
       </c>
@@ -17218,7 +17255,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
-      <c r="B26" s="22"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="10" t="s">
         <v>615</v>
       </c>
@@ -17237,7 +17274,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
-      <c r="B27" s="22"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="10" t="s">
         <v>615</v>
       </c>
@@ -17256,7 +17293,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
-      <c r="B28" s="22"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="10" t="s">
         <v>1035</v>
       </c>
@@ -17275,7 +17312,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
-      <c r="B29" s="22"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="10" t="s">
         <v>615</v>
       </c>
@@ -17294,7 +17331,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
-      <c r="B30" s="22"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="10" t="s">
         <v>615</v>
       </c>
@@ -17313,7 +17350,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="20" t="s">
         <v>1036</v>
       </c>
       <c r="C31" s="10" t="s">
@@ -17334,7 +17371,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
-      <c r="B32" s="22"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="10" t="s">
         <v>630</v>
       </c>
@@ -17353,7 +17390,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
-      <c r="B33" s="22"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="10" t="s">
         <v>630</v>
       </c>
@@ -17372,7 +17409,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
-      <c r="B34" s="22"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="10" t="s">
         <v>1037</v>
       </c>
@@ -17391,7 +17428,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
-      <c r="B35" s="22"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="10" t="s">
         <v>630</v>
       </c>
@@ -17410,7 +17447,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
-      <c r="B36" s="22"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="10" t="s">
         <v>630</v>
       </c>
@@ -17429,7 +17466,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
-      <c r="B37" s="22"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="10" t="s">
         <v>630</v>
       </c>
@@ -17448,7 +17485,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="20" t="s">
         <v>567</v>
       </c>
       <c r="C38" s="10" t="s">
@@ -17469,7 +17506,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
-      <c r="B39" s="22"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="10" t="s">
         <v>645</v>
       </c>
@@ -17488,7 +17525,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
-      <c r="B40" s="22"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="10" t="s">
         <v>645</v>
       </c>
@@ -17507,7 +17544,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
-      <c r="B41" s="22"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="10" t="s">
         <v>645</v>
       </c>
@@ -17526,7 +17563,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="20" t="s">
         <v>567</v>
       </c>
       <c r="C42" s="10" t="s">
@@ -17547,7 +17584,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
-      <c r="B43" s="22"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="10" t="s">
         <v>654</v>
       </c>
@@ -17566,7 +17603,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
-      <c r="B44" s="22"/>
+      <c r="B44" s="20"/>
       <c r="C44" s="10" t="s">
         <v>654</v>
       </c>
@@ -17585,7 +17622,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
-      <c r="B45" s="22"/>
+      <c r="B45" s="20"/>
       <c r="C45" s="10" t="s">
         <v>1038</v>
       </c>
@@ -17604,7 +17641,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
-      <c r="B46" s="22"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="10" t="s">
         <v>654</v>
       </c>
@@ -17623,7 +17660,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
-      <c r="B47" s="22"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="10" t="s">
         <v>654</v>
       </c>
@@ -17642,7 +17679,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
-      <c r="B48" s="22"/>
+      <c r="B48" s="20"/>
       <c r="C48" s="10" t="s">
         <v>654</v>
       </c>
@@ -17661,7 +17698,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
-      <c r="B49" s="22"/>
+      <c r="B49" s="20"/>
       <c r="C49" s="10" t="s">
         <v>654</v>
       </c>
@@ -17680,7 +17717,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
-      <c r="B50" s="22"/>
+      <c r="B50" s="20"/>
       <c r="C50" s="10" t="s">
         <v>654</v>
       </c>
@@ -17699,7 +17736,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
-      <c r="B51" s="22"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="10" t="s">
         <v>654</v>
       </c>
@@ -17718,7 +17755,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
-      <c r="B52" s="22"/>
+      <c r="B52" s="20"/>
       <c r="C52" s="10" t="s">
         <v>654</v>
       </c>
@@ -17737,7 +17774,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="20" t="s">
         <v>567</v>
       </c>
       <c r="C53" s="10" t="s">
@@ -17758,7 +17795,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
-      <c r="B54" s="22"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="10" t="s">
         <v>676</v>
       </c>
@@ -17777,7 +17814,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
-      <c r="B55" s="22"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="10" t="s">
         <v>1039</v>
       </c>
@@ -17796,7 +17833,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
-      <c r="B56" s="22"/>
+      <c r="B56" s="20"/>
       <c r="C56" s="10" t="s">
         <v>676</v>
       </c>
@@ -17815,7 +17852,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="20" t="s">
         <v>567</v>
       </c>
       <c r="C57" s="10" t="s">
@@ -17836,7 +17873,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
-      <c r="B58" s="22"/>
+      <c r="B58" s="20"/>
       <c r="C58" s="10" t="s">
         <v>684</v>
       </c>
@@ -17855,7 +17892,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
-      <c r="B59" s="22"/>
+      <c r="B59" s="20"/>
       <c r="C59" s="10" t="s">
         <v>684</v>
       </c>
@@ -17874,7 +17911,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
-      <c r="B60" s="22"/>
+      <c r="B60" s="20"/>
       <c r="C60" s="10" t="s">
         <v>684</v>
       </c>
@@ -17893,7 +17930,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="10"/>
-      <c r="B61" s="22"/>
+      <c r="B61" s="20"/>
       <c r="C61" s="10" t="s">
         <v>684</v>
       </c>
@@ -17912,7 +17949,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="10"/>
-      <c r="B62" s="22"/>
+      <c r="B62" s="20"/>
       <c r="C62" s="10" t="s">
         <v>684</v>
       </c>
@@ -17931,7 +17968,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
-      <c r="B63" s="22"/>
+      <c r="B63" s="20"/>
       <c r="C63" s="10" t="s">
         <v>684</v>
       </c>
@@ -17950,7 +17987,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="10"/>
-      <c r="B64" s="22"/>
+      <c r="B64" s="20"/>
       <c r="C64" s="10" t="s">
         <v>684</v>
       </c>
@@ -17969,7 +18006,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="10"/>
-      <c r="B65" s="22"/>
+      <c r="B65" s="20"/>
       <c r="C65" s="10" t="s">
         <v>684</v>
       </c>
@@ -17988,7 +18025,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="10"/>
-      <c r="B66" s="22"/>
+      <c r="B66" s="20"/>
       <c r="C66" s="10" t="s">
         <v>684</v>
       </c>
@@ -18007,7 +18044,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="10"/>
-      <c r="B67" s="22"/>
+      <c r="B67" s="20"/>
       <c r="C67" s="10" t="s">
         <v>684</v>
       </c>
@@ -18026,7 +18063,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="10"/>
-      <c r="B68" s="22"/>
+      <c r="B68" s="20"/>
       <c r="C68" s="10" t="s">
         <v>684</v>
       </c>
@@ -18045,7 +18082,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
-      <c r="B69" s="22"/>
+      <c r="B69" s="20"/>
       <c r="C69" s="10" t="s">
         <v>1040</v>
       </c>
@@ -18064,7 +18101,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="10"/>
-      <c r="B70" s="22"/>
+      <c r="B70" s="20"/>
       <c r="C70" s="10" t="s">
         <v>684</v>
       </c>
@@ -18083,7 +18120,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="10"/>
-      <c r="B71" s="22"/>
+      <c r="B71" s="20"/>
       <c r="C71" s="10" t="s">
         <v>684</v>
       </c>
@@ -18102,7 +18139,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="10"/>
-      <c r="B72" s="22"/>
+      <c r="B72" s="20"/>
       <c r="C72" s="10" t="s">
         <v>684</v>
       </c>
@@ -18121,7 +18158,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="10"/>
-      <c r="B73" s="22"/>
+      <c r="B73" s="20"/>
       <c r="C73" s="10" t="s">
         <v>684</v>
       </c>
@@ -18140,7 +18177,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="10"/>
-      <c r="B74" s="22"/>
+      <c r="B74" s="20"/>
       <c r="C74" s="10" t="s">
         <v>684</v>
       </c>
@@ -18159,7 +18196,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="10"/>
-      <c r="B75" s="22"/>
+      <c r="B75" s="20"/>
       <c r="C75" s="10" t="s">
         <v>684</v>
       </c>
@@ -18178,7 +18215,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="10"/>
-      <c r="B76" s="22"/>
+      <c r="B76" s="20"/>
       <c r="C76" s="10" t="s">
         <v>684</v>
       </c>
@@ -18197,7 +18234,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="10"/>
-      <c r="B77" s="22"/>
+      <c r="B77" s="20"/>
       <c r="C77" s="10" t="s">
         <v>684</v>
       </c>
@@ -18216,7 +18253,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="10"/>
-      <c r="B78" s="22" t="s">
+      <c r="B78" s="20" t="s">
         <v>567</v>
       </c>
       <c r="C78" s="10" t="s">
@@ -18240,7 +18277,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="10"/>
-      <c r="B79" s="22"/>
+      <c r="B79" s="20"/>
       <c r="C79" s="10" t="s">
         <v>727</v>
       </c>
@@ -18262,7 +18299,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="10"/>
-      <c r="B80" s="22"/>
+      <c r="B80" s="20"/>
       <c r="C80" s="10" t="s">
         <v>727</v>
       </c>
@@ -18284,7 +18321,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="10"/>
-      <c r="B81" s="22"/>
+      <c r="B81" s="20"/>
       <c r="C81" s="10" t="s">
         <v>727</v>
       </c>
@@ -18306,7 +18343,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="10"/>
-      <c r="B82" s="22"/>
+      <c r="B82" s="20"/>
       <c r="C82" s="10" t="s">
         <v>727</v>
       </c>
@@ -18328,7 +18365,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="10"/>
-      <c r="B83" s="22"/>
+      <c r="B83" s="20"/>
       <c r="C83" s="10" t="s">
         <v>727</v>
       </c>
@@ -18350,7 +18387,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="10"/>
-      <c r="B84" s="22"/>
+      <c r="B84" s="20"/>
       <c r="C84" s="10" t="s">
         <v>1041</v>
       </c>
@@ -18372,7 +18409,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="10"/>
-      <c r="B85" s="22"/>
+      <c r="B85" s="20"/>
       <c r="C85" s="10" t="s">
         <v>727</v>
       </c>
@@ -18394,7 +18431,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="10"/>
-      <c r="B86" s="22"/>
+      <c r="B86" s="20"/>
       <c r="C86" s="10" t="s">
         <v>727</v>
       </c>
@@ -18416,7 +18453,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="10"/>
-      <c r="B87" s="22"/>
+      <c r="B87" s="20"/>
       <c r="C87" s="10" t="s">
         <v>727</v>
       </c>
@@ -18438,7 +18475,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="10"/>
-      <c r="B88" s="22"/>
+      <c r="B88" s="20"/>
       <c r="C88" s="10" t="s">
         <v>727</v>
       </c>
@@ -18460,7 +18497,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="10"/>
-      <c r="B89" s="22"/>
+      <c r="B89" s="20"/>
       <c r="C89" s="10" t="s">
         <v>727</v>
       </c>
@@ -18482,7 +18519,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="10"/>
-      <c r="B90" s="22"/>
+      <c r="B90" s="20"/>
       <c r="C90" s="10" t="s">
         <v>727</v>
       </c>
@@ -18504,7 +18541,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="10"/>
-      <c r="B91" s="22"/>
+      <c r="B91" s="20"/>
       <c r="C91" s="10" t="s">
         <v>727</v>
       </c>
@@ -18526,7 +18563,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="10"/>
-      <c r="B92" s="22"/>
+      <c r="B92" s="20"/>
       <c r="C92" s="10" t="s">
         <v>727</v>
       </c>
@@ -18548,7 +18585,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="10"/>
-      <c r="B93" s="22"/>
+      <c r="B93" s="20"/>
       <c r="C93" s="10" t="s">
         <v>727</v>
       </c>
@@ -18570,7 +18607,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="10"/>
-      <c r="B94" s="22"/>
+      <c r="B94" s="20"/>
       <c r="C94" s="10" t="s">
         <v>727</v>
       </c>
@@ -19592,7 +19629,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="10"/>
-      <c r="B146" s="22" t="s">
+      <c r="B146" s="20" t="s">
         <v>1036</v>
       </c>
       <c r="C146" s="10" t="s">
@@ -19614,7 +19651,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="10"/>
-      <c r="B147" s="22"/>
+      <c r="B147" s="20"/>
       <c r="C147" s="10" t="s">
         <v>853</v>
       </c>
@@ -19634,7 +19671,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="10"/>
-      <c r="B148" s="22"/>
+      <c r="B148" s="20"/>
       <c r="C148" s="10" t="s">
         <v>853</v>
       </c>
@@ -19654,7 +19691,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="10"/>
-      <c r="B149" s="22"/>
+      <c r="B149" s="20"/>
       <c r="C149" s="10" t="s">
         <v>853</v>
       </c>
@@ -19674,7 +19711,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="10"/>
-      <c r="B150" s="22"/>
+      <c r="B150" s="20"/>
       <c r="C150" s="10" t="s">
         <v>1045</v>
       </c>
@@ -19694,7 +19731,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="10"/>
-      <c r="B151" s="22"/>
+      <c r="B151" s="20"/>
       <c r="C151" s="10" t="s">
         <v>853</v>
       </c>
@@ -19714,7 +19751,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="10"/>
-      <c r="B152" s="22"/>
+      <c r="B152" s="20"/>
       <c r="C152" s="10" t="s">
         <v>853</v>
       </c>
@@ -19734,7 +19771,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="10"/>
-      <c r="B153" s="22"/>
+      <c r="B153" s="20"/>
       <c r="C153" s="10" t="s">
         <v>853</v>
       </c>
@@ -19754,7 +19791,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="10"/>
-      <c r="B154" s="22"/>
+      <c r="B154" s="20"/>
       <c r="C154" s="10" t="s">
         <v>853</v>
       </c>
@@ -19774,7 +19811,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="10"/>
-      <c r="B155" s="22"/>
+      <c r="B155" s="20"/>
       <c r="C155" s="10" t="s">
         <v>853</v>
       </c>
@@ -19794,7 +19831,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="10"/>
-      <c r="B156" s="22" t="s">
+      <c r="B156" s="20" t="s">
         <v>567</v>
       </c>
       <c r="C156" s="10" t="s">
@@ -19816,7 +19853,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="10"/>
-      <c r="B157" s="22"/>
+      <c r="B157" s="20"/>
       <c r="C157" s="10" t="s">
         <v>874</v>
       </c>
@@ -19836,7 +19873,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="10"/>
-      <c r="B158" s="22"/>
+      <c r="B158" s="20"/>
       <c r="C158" s="10" t="s">
         <v>874</v>
       </c>
@@ -19856,7 +19893,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="10"/>
-      <c r="B159" s="22"/>
+      <c r="B159" s="20"/>
       <c r="C159" s="10" t="s">
         <v>1046</v>
       </c>
@@ -19876,7 +19913,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="10"/>
-      <c r="B160" s="22"/>
+      <c r="B160" s="20"/>
       <c r="C160" s="10" t="s">
         <v>874</v>
       </c>
@@ -19896,7 +19933,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="10"/>
-      <c r="B161" s="22"/>
+      <c r="B161" s="20"/>
       <c r="C161" s="10" t="s">
         <v>874</v>
       </c>
@@ -19915,7 +19952,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="10"/>
-      <c r="B162" s="22"/>
+      <c r="B162" s="20"/>
       <c r="C162" s="10" t="s">
         <v>874</v>
       </c>
@@ -19934,7 +19971,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="10"/>
-      <c r="B163" s="22"/>
+      <c r="B163" s="20"/>
       <c r="C163" s="10" t="s">
         <v>874</v>
       </c>
@@ -19953,7 +19990,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="10"/>
-      <c r="B164" s="22"/>
+      <c r="B164" s="20"/>
       <c r="C164" s="10" t="s">
         <v>874</v>
       </c>
@@ -19972,7 +20009,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="10"/>
-      <c r="B165" s="22"/>
+      <c r="B165" s="20"/>
       <c r="C165" s="10" t="s">
         <v>874</v>
       </c>
@@ -19991,7 +20028,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="10"/>
-      <c r="B166" s="22"/>
+      <c r="B166" s="20"/>
       <c r="C166" s="10" t="s">
         <v>874</v>
       </c>
@@ -20010,7 +20047,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="10"/>
-      <c r="B167" s="22"/>
+      <c r="B167" s="20"/>
       <c r="C167" s="10" t="s">
         <v>874</v>
       </c>
@@ -20029,7 +20066,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="10"/>
-      <c r="B168" s="22"/>
+      <c r="B168" s="20"/>
       <c r="C168" s="10" t="s">
         <v>874</v>
       </c>
@@ -20048,7 +20085,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="10"/>
-      <c r="B169" s="22"/>
+      <c r="B169" s="20"/>
       <c r="C169" s="10" t="s">
         <v>874</v>
       </c>
@@ -20067,7 +20104,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="10"/>
-      <c r="B170" s="22"/>
+      <c r="B170" s="20"/>
       <c r="C170" s="10" t="s">
         <v>874</v>
       </c>
@@ -20086,7 +20123,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="10"/>
-      <c r="B171" s="22"/>
+      <c r="B171" s="20"/>
       <c r="C171" s="10" t="s">
         <v>874</v>
       </c>
@@ -20105,7 +20142,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="10"/>
-      <c r="B172" s="22"/>
+      <c r="B172" s="20"/>
       <c r="C172" s="10" t="s">
         <v>874</v>
       </c>
@@ -20124,7 +20161,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="10"/>
-      <c r="B173" s="22"/>
+      <c r="B173" s="20"/>
       <c r="C173" s="10" t="s">
         <v>874</v>
       </c>
@@ -20144,7 +20181,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="10"/>
-      <c r="B174" s="22"/>
+      <c r="B174" s="20"/>
       <c r="C174" s="10" t="s">
         <v>874</v>
       </c>
@@ -20163,7 +20200,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="10"/>
-      <c r="B175" s="22"/>
+      <c r="B175" s="20"/>
       <c r="C175" s="10" t="s">
         <v>874</v>
       </c>
@@ -20182,7 +20219,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="10"/>
-      <c r="B176" s="22"/>
+      <c r="B176" s="20"/>
       <c r="C176" s="10" t="s">
         <v>874</v>
       </c>
@@ -20201,7 +20238,7 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="10"/>
-      <c r="B177" s="22" t="s">
+      <c r="B177" s="20" t="s">
         <v>1036</v>
       </c>
       <c r="C177" s="10" t="s">
@@ -20222,7 +20259,7 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="10"/>
-      <c r="B178" s="22"/>
+      <c r="B178" s="20"/>
       <c r="C178" s="10" t="s">
         <v>917</v>
       </c>
@@ -20241,7 +20278,7 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="10"/>
-      <c r="B179" s="22"/>
+      <c r="B179" s="20"/>
       <c r="C179" s="10" t="s">
         <v>917</v>
       </c>
@@ -20260,7 +20297,7 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="10"/>
-      <c r="B180" s="22"/>
+      <c r="B180" s="20"/>
       <c r="C180" s="10" t="s">
         <v>1047</v>
       </c>
@@ -20279,7 +20316,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="10"/>
-      <c r="B181" s="22"/>
+      <c r="B181" s="20"/>
       <c r="C181" s="10" t="s">
         <v>917</v>
       </c>
@@ -20298,7 +20335,7 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="10"/>
-      <c r="B182" s="22"/>
+      <c r="B182" s="20"/>
       <c r="C182" s="10" t="s">
         <v>917</v>
       </c>
@@ -20317,7 +20354,7 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="10"/>
-      <c r="B183" s="22"/>
+      <c r="B183" s="20"/>
       <c r="C183" s="10" t="s">
         <v>917</v>
       </c>
@@ -20336,7 +20373,7 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="10"/>
-      <c r="B184" s="22"/>
+      <c r="B184" s="20"/>
       <c r="C184" s="10" t="s">
         <v>917</v>
       </c>
@@ -20355,7 +20392,7 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="10"/>
-      <c r="B185" s="22"/>
+      <c r="B185" s="20"/>
       <c r="C185" s="10" t="s">
         <v>917</v>
       </c>
@@ -20374,7 +20411,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="10"/>
-      <c r="B186" s="22" t="s">
+      <c r="B186" s="20" t="s">
         <v>567</v>
       </c>
       <c r="C186" s="10" t="s">
@@ -20395,7 +20432,7 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="10"/>
-      <c r="B187" s="22"/>
+      <c r="B187" s="20"/>
       <c r="C187" s="10" t="s">
         <v>936</v>
       </c>
@@ -20414,7 +20451,7 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="10"/>
-      <c r="B188" s="22"/>
+      <c r="B188" s="20"/>
       <c r="C188" s="10" t="s">
         <v>936</v>
       </c>
@@ -20433,7 +20470,7 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="10"/>
-      <c r="B189" s="22"/>
+      <c r="B189" s="20"/>
       <c r="C189" s="10" t="s">
         <v>936</v>
       </c>
@@ -20452,7 +20489,7 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="10"/>
-      <c r="B190" s="22"/>
+      <c r="B190" s="20"/>
       <c r="C190" s="10" t="s">
         <v>936</v>
       </c>
@@ -20471,7 +20508,7 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="10"/>
-      <c r="B191" s="22"/>
+      <c r="B191" s="20"/>
       <c r="C191" s="10" t="s">
         <v>936</v>
       </c>
@@ -20490,7 +20527,7 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="10"/>
-      <c r="B192" s="22"/>
+      <c r="B192" s="20"/>
       <c r="C192" s="10" t="s">
         <v>936</v>
       </c>
@@ -20509,7 +20546,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="10"/>
-      <c r="B193" s="22"/>
+      <c r="B193" s="20"/>
       <c r="C193" s="10" t="s">
         <v>936</v>
       </c>
@@ -20529,7 +20566,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="10"/>
-      <c r="B194" s="22"/>
+      <c r="B194" s="20"/>
       <c r="C194" s="10" t="s">
         <v>1048</v>
       </c>
@@ -20548,7 +20585,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="10"/>
-      <c r="B195" s="22"/>
+      <c r="B195" s="20"/>
       <c r="C195" s="10" t="s">
         <v>936</v>
       </c>
@@ -20567,7 +20604,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="10"/>
-      <c r="B196" s="22"/>
+      <c r="B196" s="20"/>
       <c r="C196" s="10" t="s">
         <v>936</v>
       </c>
@@ -20586,7 +20623,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="10"/>
-      <c r="B197" s="22"/>
+      <c r="B197" s="20"/>
       <c r="C197" s="10" t="s">
         <v>936</v>
       </c>
@@ -20605,7 +20642,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="10"/>
-      <c r="B198" s="22"/>
+      <c r="B198" s="20"/>
       <c r="C198" s="10" t="s">
         <v>936</v>
       </c>
@@ -20624,7 +20661,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="10"/>
-      <c r="B199" s="22"/>
+      <c r="B199" s="20"/>
       <c r="C199" s="10" t="s">
         <v>936</v>
       </c>
@@ -20643,7 +20680,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="10"/>
-      <c r="B200" s="22" t="s">
+      <c r="B200" s="20" t="s">
         <v>1036</v>
       </c>
       <c r="C200" s="10" t="s">
@@ -20664,7 +20701,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="10"/>
-      <c r="B201" s="22"/>
+      <c r="B201" s="20"/>
       <c r="C201" s="10" t="s">
         <v>963</v>
       </c>
@@ -20683,7 +20720,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="10"/>
-      <c r="B202" s="22"/>
+      <c r="B202" s="20"/>
       <c r="C202" s="10" t="s">
         <v>963</v>
       </c>
@@ -20702,7 +20739,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="10"/>
-      <c r="B203" s="22"/>
+      <c r="B203" s="20"/>
       <c r="C203" s="10" t="s">
         <v>963</v>
       </c>
@@ -20721,7 +20758,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="10"/>
-      <c r="B204" s="22"/>
+      <c r="B204" s="20"/>
       <c r="C204" s="10" t="s">
         <v>963</v>
       </c>
@@ -20740,7 +20777,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="10"/>
-      <c r="B205" s="22"/>
+      <c r="B205" s="20"/>
       <c r="C205" s="10" t="s">
         <v>963</v>
       </c>
@@ -20759,7 +20796,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="10"/>
-      <c r="B206" s="22"/>
+      <c r="B206" s="20"/>
       <c r="C206" s="10" t="s">
         <v>1049</v>
       </c>
@@ -20778,7 +20815,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="10"/>
-      <c r="B207" s="22"/>
+      <c r="B207" s="20"/>
       <c r="C207" s="10" t="s">
         <v>963</v>
       </c>
@@ -20797,7 +20834,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="10"/>
-      <c r="B208" s="22"/>
+      <c r="B208" s="20"/>
       <c r="C208" s="10" t="s">
         <v>963</v>
       </c>
@@ -20816,7 +20853,7 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="10"/>
-      <c r="B209" s="22"/>
+      <c r="B209" s="20"/>
       <c r="C209" s="10" t="s">
         <v>963</v>
       </c>
@@ -20835,7 +20872,7 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="10"/>
-      <c r="B210" s="22"/>
+      <c r="B210" s="20"/>
       <c r="C210" s="10" t="s">
         <v>963</v>
       </c>
@@ -20854,7 +20891,7 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="10"/>
-      <c r="B211" s="22"/>
+      <c r="B211" s="20"/>
       <c r="C211" s="10" t="s">
         <v>963</v>
       </c>
@@ -20873,7 +20910,7 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="10"/>
-      <c r="B212" s="22"/>
+      <c r="B212" s="20"/>
       <c r="C212" s="10" t="s">
         <v>963</v>
       </c>
@@ -20892,7 +20929,7 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="10"/>
-      <c r="B213" s="22"/>
+      <c r="B213" s="20"/>
       <c r="C213" s="10" t="s">
         <v>963</v>
       </c>
@@ -20911,7 +20948,7 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="10"/>
-      <c r="B214" s="22"/>
+      <c r="B214" s="20"/>
       <c r="C214" s="10" t="s">
         <v>963</v>
       </c>
@@ -20930,7 +20967,7 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="10"/>
-      <c r="B215" s="22" t="s">
+      <c r="B215" s="20" t="s">
         <v>567</v>
       </c>
       <c r="C215" s="10" t="s">
@@ -20951,7 +20988,7 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="10"/>
-      <c r="B216" s="22"/>
+      <c r="B216" s="20"/>
       <c r="C216" s="10" t="s">
         <v>994</v>
       </c>
@@ -20970,7 +21007,7 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="10"/>
-      <c r="B217" s="22"/>
+      <c r="B217" s="20"/>
       <c r="C217" s="10" t="s">
         <v>994</v>
       </c>
@@ -20989,7 +21026,7 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="10"/>
-      <c r="B218" s="22"/>
+      <c r="B218" s="20"/>
       <c r="C218" s="10" t="s">
         <v>1050</v>
       </c>
@@ -21008,7 +21045,7 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="10"/>
-      <c r="B219" s="22"/>
+      <c r="B219" s="20"/>
       <c r="C219" s="10" t="s">
         <v>994</v>
       </c>
@@ -21027,7 +21064,7 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="10"/>
-      <c r="B220" s="22"/>
+      <c r="B220" s="20"/>
       <c r="C220" s="10" t="s">
         <v>994</v>
       </c>
@@ -21046,7 +21083,7 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="10"/>
-      <c r="B221" s="22"/>
+      <c r="B221" s="20"/>
       <c r="C221" s="10" t="s">
         <v>994</v>
       </c>
@@ -21065,7 +21102,7 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="10"/>
-      <c r="B222" s="22"/>
+      <c r="B222" s="20"/>
       <c r="C222" s="10" t="s">
         <v>994</v>
       </c>
@@ -21084,7 +21121,7 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="10"/>
-      <c r="B223" s="22"/>
+      <c r="B223" s="20"/>
       <c r="C223" s="10" t="s">
         <v>994</v>
       </c>
@@ -21103,7 +21140,7 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="10"/>
-      <c r="B224" s="22"/>
+      <c r="B224" s="20"/>
       <c r="C224" s="10" t="s">
         <v>994</v>
       </c>
@@ -21122,7 +21159,7 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="10"/>
-      <c r="B225" s="22"/>
+      <c r="B225" s="20"/>
       <c r="C225" s="10" t="s">
         <v>994</v>
       </c>
@@ -21141,7 +21178,7 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="10"/>
-      <c r="B226" s="22"/>
+      <c r="B226" s="20"/>
       <c r="C226" s="10" t="s">
         <v>994</v>
       </c>
@@ -21160,7 +21197,7 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="10"/>
-      <c r="B227" s="22"/>
+      <c r="B227" s="20"/>
       <c r="C227" s="10" t="s">
         <v>994</v>
       </c>
@@ -21179,7 +21216,7 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="10"/>
-      <c r="B228" s="22"/>
+      <c r="B228" s="20"/>
       <c r="C228" s="10" t="s">
         <v>994</v>
       </c>
@@ -21198,7 +21235,7 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="10"/>
-      <c r="B229" s="22"/>
+      <c r="B229" s="20"/>
       <c r="C229" s="10" t="s">
         <v>994</v>
       </c>
@@ -21217,7 +21254,7 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="10"/>
-      <c r="B230" s="22"/>
+      <c r="B230" s="20"/>
       <c r="C230" s="10" t="s">
         <v>994</v>
       </c>
@@ -21236,7 +21273,7 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="10"/>
-      <c r="B231" s="22"/>
+      <c r="B231" s="20"/>
       <c r="C231" s="10" t="s">
         <v>994</v>
       </c>
@@ -21255,7 +21292,7 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="10"/>
-      <c r="B232" s="22"/>
+      <c r="B232" s="20"/>
       <c r="C232" s="10" t="s">
         <v>994</v>
       </c>
@@ -21979,6 +22016,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B42:B52"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B57:B77"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B31:B37"/>
     <mergeCell ref="B78:B94"/>
     <mergeCell ref="B95:B138"/>
     <mergeCell ref="B139:B145"/>
@@ -21988,15 +22034,6 @@
     <mergeCell ref="B177:B185"/>
     <mergeCell ref="B186:B199"/>
     <mergeCell ref="B200:B214"/>
-    <mergeCell ref="B42:B52"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="B57:B77"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B10:B16"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="B31:B37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/api自動化測試腳清單.xlsx
+++ b/api自動化測試腳清單.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2872" uniqueCount="1198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2902" uniqueCount="1217">
   <si>
     <t>Module</t>
   </si>
@@ -4149,6 +4149,82 @@
   </si>
   <si>
     <t>postData22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EncData   BankCode = "812"  --&gt;此BankCode驗證未成年; Bankcode = 007 RtnMsg: 訊息代碼：7455，銀行端交易處理失敗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0027BankAccountAuth_3.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0027BankAccountAuth_4.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postData5_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EncData --&gt;Bank Code =2 非合作銀行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decrypted  --&gt;訊息代碼：0000，系統發生錯誤，請重新再試</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0089取得icash2.0綁定icashpay列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0089ICash2BindList_1.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postData23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postData23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0093取得行銷活動清單</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0093取得行銷活動清單</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0093GetMainCampaignList_1.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0093GetMainCampaignList_2.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postData24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0096ICash2BindInfo_1.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0096ICash2BindInfo_2.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postData25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postData25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4303,7 +4379,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4364,16 +4440,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4381,6 +4457,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4687,10 +4766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H521"/>
+  <dimension ref="A1:H523"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C46" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="D43" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63:F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4699,7 +4778,7 @@
     <col min="3" max="3" width="33.88671875" customWidth="1"/>
     <col min="4" max="4" width="35.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="69.33203125" customWidth="1"/>
+    <col min="6" max="6" width="89.77734375" customWidth="1"/>
     <col min="8" max="8" width="36.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4731,7 +4810,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="22"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="2" t="s">
         <v>1059</v>
       </c>
@@ -4753,7 +4832,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="23"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="10" t="s">
         <v>1059</v>
       </c>
@@ -4775,7 +4854,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="23"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="2" t="s">
         <v>1058</v>
       </c>
@@ -4797,7 +4876,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="23"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="2" t="s">
         <v>1056</v>
       </c>
@@ -4819,7 +4898,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="23"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="2" t="s">
         <v>1053</v>
       </c>
@@ -4841,7 +4920,7 @@
     </row>
     <row r="7" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="23"/>
+      <c r="B7" s="21"/>
       <c r="C7" t="s">
         <v>1053</v>
       </c>
@@ -4862,7 +4941,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="10" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="23"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="10" t="s">
         <v>1096</v>
       </c>
@@ -4883,7 +4962,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" s="10" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="23"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="10" t="s">
         <v>1096</v>
       </c>
@@ -4900,7 +4979,7 @@
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="23"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="10" t="s">
         <v>1096</v>
       </c>
@@ -4922,7 +5001,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="23"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="2" t="s">
         <v>1061</v>
       </c>
@@ -4944,7 +5023,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="23"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="10" t="s">
         <v>1061</v>
       </c>
@@ -4966,7 +5045,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="23"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="2" t="s">
         <v>1072</v>
       </c>
@@ -4976,8 +5055,8 @@
       <c r="E13" s="10" t="s">
         <v>1107</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>1054</v>
+      <c r="F13" s="16" t="s">
+        <v>1198</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>1077</v>
@@ -4988,7 +5067,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="23"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="2" t="s">
         <v>1072</v>
       </c>
@@ -5008,130 +5087,132 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="2" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>1079</v>
+    <row r="15" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="21"/>
+      <c r="C15" s="10" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>1199</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>1109</v>
+        <v>1201</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>1081</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>1083</v>
-      </c>
-      <c r="H15" s="14">
-        <v>45029</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="23"/>
+        <v>1202</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="21"/>
       <c r="C16" s="10" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>1080</v>
+        <v>1200</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>1110</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>1082</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>1084</v>
-      </c>
-      <c r="H16" s="14">
-        <v>45029</v>
-      </c>
+        <v>1201</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="23"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="2" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>1111</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>1118</v>
+        <v>1109</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>1081</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>1117</v>
+        <v>1083</v>
       </c>
       <c r="H17" s="14">
-        <v>45030</v>
+        <v>45029</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="23"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="10" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>1088</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+        <v>1082</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H18" s="14">
+        <v>45029</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="23"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="2" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="13" t="s">
-        <v>1090</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="1"/>
+        <v>1086</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H19" s="14">
+        <v>45030</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="23"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="10" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E20" s="2"/>
+        <v>1087</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>1112</v>
+      </c>
       <c r="F20" s="13" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="1"/>
+      <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="23"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="2" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="13" t="s">
@@ -5142,12 +5223,12 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="23"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="10" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="13" t="s">
@@ -5158,14 +5239,14 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="23"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="2" t="s">
-        <v>1123</v>
+        <v>1093</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>1124</v>
-      </c>
-      <c r="E23" s="10"/>
+        <v>1094</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="13" t="s">
         <v>1090</v>
       </c>
@@ -5174,14 +5255,14 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="23"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="10" t="s">
-        <v>1123</v>
+        <v>1093</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>1125</v>
-      </c>
-      <c r="E24" s="10"/>
+        <v>1095</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" s="13" t="s">
         <v>1090</v>
       </c>
@@ -5190,14 +5271,14 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
-      <c r="B25" s="23"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="2" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>1129</v>
-      </c>
-      <c r="E25" s="2"/>
+        <v>1124</v>
+      </c>
+      <c r="E25" s="10"/>
       <c r="F25" s="13" t="s">
         <v>1090</v>
       </c>
@@ -5206,14 +5287,14 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="2" t="s">
-        <v>1128</v>
+      <c r="B26" s="21"/>
+      <c r="C26" s="10" t="s">
+        <v>1123</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>1130</v>
-      </c>
-      <c r="E26" s="2"/>
+        <v>1125</v>
+      </c>
+      <c r="E26" s="10"/>
       <c r="F26" s="13" t="s">
         <v>1090</v>
       </c>
@@ -5222,12 +5303,12 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
-      <c r="B27" s="23"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="2" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="13" t="s">
@@ -5236,83 +5317,79 @@
       <c r="G27" s="2"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="23"/>
-      <c r="C28" s="10" t="s">
-        <v>1131</v>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="2" t="s">
+        <v>1128</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>1133</v>
-      </c>
+        <v>1130</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="F28" s="13" t="s">
         <v>1090</v>
       </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
-      <c r="B29" s="23"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="2" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>1135</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>1126</v>
-      </c>
+        <v>1132</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" s="13" t="s">
-        <v>1137</v>
+        <v>1090</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="23"/>
+    <row r="30" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="21"/>
       <c r="C30" s="10" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>1136</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>1126</v>
+        <v>1133</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>1088</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="1"/>
+        <v>1090</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="10" t="s">
+      <c r="B31" s="21"/>
+      <c r="C31" s="2" t="s">
         <v>1134</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>1138</v>
+      <c r="D31" s="2" t="s">
+        <v>1135</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>1141</v>
+        <v>1126</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
-      <c r="B32" s="23"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="10" t="s">
         <v>1134</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>1142</v>
+        <v>1126</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>1088</v>
@@ -5322,33 +5399,33 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="2" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>1144</v>
+      <c r="B33" s="21"/>
+      <c r="C33" s="10" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>1138</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
-      <c r="B34" s="23"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="10" t="s">
-        <v>1143</v>
+        <v>1134</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>1088</v>
@@ -5358,69 +5435,69 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
-      <c r="B35" s="23"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="2" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
-      <c r="B36" s="23"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="10" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>1088</v>
       </c>
       <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+      <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
-      <c r="B37" s="20"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="2" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>1151</v>
       </c>
       <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
-      <c r="B38" s="20"/>
+      <c r="B38" s="21"/>
       <c r="C38" s="10" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>1088</v>
@@ -5430,33 +5507,33 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
-      <c r="B39" s="20"/>
+      <c r="B39" s="22"/>
       <c r="C39" s="2" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>1160</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>1161</v>
+        <v>1155</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>1151</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
-      <c r="B40" s="20"/>
+      <c r="B40" s="22"/>
       <c r="C40" s="10" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="F40" s="13" t="s">
         <v>1088</v>
@@ -5466,97 +5543,97 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="17" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="13" t="s">
-        <v>1163</v>
+      <c r="B41" s="22"/>
+      <c r="C41" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>1161</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="18" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="10" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>1160</v>
+      </c>
       <c r="F42" s="13" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="2" t="s">
-        <v>1164</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>1165</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>1167</v>
-      </c>
+      <c r="B43" s="22"/>
+      <c r="C43" s="17" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
       <c r="F43" s="13" t="s">
-        <v>1151</v>
+        <v>1163</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="10" t="s">
-        <v>1164</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>1166</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>1167</v>
-      </c>
+      <c r="B44" s="22"/>
+      <c r="C44" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
       <c r="F44" s="13" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
-      <c r="B45" s="20"/>
+      <c r="B45" s="22"/>
       <c r="C45" s="2" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>1171</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>1173</v>
+        <v>1167</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>1151</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
-      <c r="B46" s="20"/>
+      <c r="B46" s="22"/>
       <c r="C46" s="10" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="F46" s="13" t="s">
         <v>1088</v>
@@ -5564,50 +5641,53 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="10" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>1175</v>
+      <c r="B47" s="22"/>
+      <c r="C47" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>1169</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>1176</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>1177</v>
+        <v>1171</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>1173</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="20"/>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="2"/>
+      <c r="B48" s="22"/>
       <c r="C48" s="10" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>1178</v>
+        <v>1170</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>1176</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>1179</v>
-      </c>
+        <v>1172</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
-      <c r="B49" s="20"/>
+      <c r="B49" s="22"/>
       <c r="C49" s="10" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>1177</v>
@@ -5615,35 +5695,32 @@
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="2"/>
-      <c r="B50" s="20"/>
+    <row r="50" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="22"/>
       <c r="C50" s="10" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>1179</v>
       </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
-      <c r="B51" s="20"/>
+      <c r="B51" s="22"/>
       <c r="C51" s="10" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>1177</v>
@@ -5653,15 +5730,15 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
-      <c r="B52" s="20"/>
+      <c r="B52" s="22"/>
       <c r="C52" s="10" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>1179</v>
@@ -5671,33 +5748,33 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
-      <c r="B53" s="20"/>
+      <c r="B53" s="22"/>
       <c r="C53" s="10" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>1191</v>
+        <v>1177</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
-      <c r="B54" s="20"/>
+      <c r="B54" s="22"/>
       <c r="C54" s="10" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>1179</v>
@@ -5707,33 +5784,33 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="2" t="s">
-        <v>1192</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>1194</v>
+      <c r="B55" s="22"/>
+      <c r="C55" s="10" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>1193</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>1177</v>
+        <v>1191</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
-      <c r="B56" s="20"/>
+      <c r="B56" s="22"/>
       <c r="C56" s="10" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>1197</v>
+        <v>1189</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>1179</v>
@@ -5743,87 +5820,155 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>1177</v>
+      </c>
       <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
+      <c r="H57" s="26">
+        <v>45036</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="10" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>1179</v>
+      </c>
       <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
+      <c r="H58" s="26">
+        <v>45036</v>
+      </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>1177</v>
+      </c>
       <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
+      <c r="H59" s="26">
+        <v>45037</v>
+      </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>1179</v>
+      </c>
       <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
+      <c r="H60" s="26">
+        <v>45037</v>
+      </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>1177</v>
+      </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>1179</v>
+      </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
-      <c r="B63" s="20"/>
+      <c r="B63" s="22"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="10"/>
+      <c r="D63" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G63" s="2"/>
       <c r="H63" s="2"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
-      <c r="B64" s="20"/>
+      <c r="B64" s="22"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="10"/>
+      <c r="D64" s="10" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G64" s="2"/>
       <c r="H64" s="2"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
-      <c r="B65" s="20"/>
+      <c r="B65" s="22"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -5833,7 +5978,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
-      <c r="B66" s="20"/>
+      <c r="B66" s="22"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -5843,7 +5988,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
-      <c r="B67" s="20"/>
+      <c r="B67" s="22"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -5853,7 +5998,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
-      <c r="B68" s="20"/>
+      <c r="B68" s="22"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -5863,27 +6008,27 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
-      <c r="B69" s="20"/>
+      <c r="B69" s="22"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="10"/>
-      <c r="H69" s="1"/>
+      <c r="H69" s="2"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
-      <c r="B70" s="20"/>
+      <c r="B70" s="22"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="10"/>
-      <c r="H70" s="1"/>
+      <c r="H70" s="2"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
-      <c r="B71" s="20"/>
+      <c r="B71" s="22"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -5893,27 +6038,27 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
-      <c r="B72" s="20"/>
+      <c r="B72" s="22"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
+      <c r="G72" s="10"/>
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
-      <c r="B73" s="20"/>
+      <c r="B73" s="22"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
+      <c r="G73" s="10"/>
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
-      <c r="B74" s="20"/>
+      <c r="B74" s="22"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -5923,7 +6068,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
-      <c r="B75" s="20"/>
+      <c r="B75" s="22"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -5933,7 +6078,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
-      <c r="B76" s="20"/>
+      <c r="B76" s="22"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -5943,7 +6088,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
-      <c r="B77" s="20"/>
+      <c r="B77" s="22"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -5953,7 +6098,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
-      <c r="B78" s="20"/>
+      <c r="B78" s="22"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -5963,7 +6108,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
-      <c r="B79" s="20"/>
+      <c r="B79" s="22"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -5973,7 +6118,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
-      <c r="B80" s="20"/>
+      <c r="B80" s="22"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -5983,7 +6128,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
-      <c r="B81" s="20"/>
+      <c r="B81" s="22"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -5993,40 +6138,40 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="10"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="20"/>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="2"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="1"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="2"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="10"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="2"/>
-      <c r="B85" s="20"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="1"/>
+    <row r="85" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="22"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
-      <c r="B86" s="20"/>
+      <c r="B86" s="22"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -6036,7 +6181,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
-      <c r="B87" s="20"/>
+      <c r="B87" s="22"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -6046,7 +6191,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
-      <c r="B88" s="20"/>
+      <c r="B88" s="22"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -6056,7 +6201,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
-      <c r="B89" s="20"/>
+      <c r="B89" s="22"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -6066,7 +6211,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
-      <c r="B90" s="20"/>
+      <c r="B90" s="22"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -6076,7 +6221,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
-      <c r="B91" s="20"/>
+      <c r="B91" s="22"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -6086,7 +6231,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
-      <c r="B92" s="20"/>
+      <c r="B92" s="22"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -6096,7 +6241,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
-      <c r="B93" s="20"/>
+      <c r="B93" s="22"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -6106,7 +6251,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
-      <c r="B94" s="20"/>
+      <c r="B94" s="22"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -6116,7 +6261,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
-      <c r="B95" s="20"/>
+      <c r="B95" s="22"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -6126,7 +6271,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
-      <c r="B96" s="20"/>
+      <c r="B96" s="22"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -6136,7 +6281,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
-      <c r="B97" s="20"/>
+      <c r="B97" s="22"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -6146,7 +6291,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
-      <c r="B98" s="20"/>
+      <c r="B98" s="22"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -6156,27 +6301,27 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
-      <c r="B99" s="20"/>
+      <c r="B99" s="22"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
-      <c r="G99" s="10"/>
+      <c r="G99" s="2"/>
       <c r="H99" s="1"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
-      <c r="B100" s="20"/>
+      <c r="B100" s="22"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
-      <c r="G100" s="10"/>
+      <c r="G100" s="2"/>
       <c r="H100" s="1"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
-      <c r="B101" s="20"/>
+      <c r="B101" s="22"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -6186,27 +6331,27 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
-      <c r="B102" s="20"/>
+      <c r="B102" s="22"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="10"/>
-      <c r="H102" s="2"/>
+      <c r="H102" s="1"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
-      <c r="B103" s="20"/>
+      <c r="B103" s="22"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="10"/>
-      <c r="H103" s="2"/>
+      <c r="H103" s="1"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
-      <c r="B104" s="20"/>
+      <c r="B104" s="22"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -6216,7 +6361,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
-      <c r="B105" s="20"/>
+      <c r="B105" s="22"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -6226,7 +6371,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
-      <c r="B106" s="20"/>
+      <c r="B106" s="22"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -6236,7 +6381,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
-      <c r="B107" s="20"/>
+      <c r="B107" s="22"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -6246,7 +6391,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
-      <c r="B108" s="20"/>
+      <c r="B108" s="22"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -6256,7 +6401,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
-      <c r="B109" s="20"/>
+      <c r="B109" s="22"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -6266,7 +6411,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
-      <c r="B110" s="20"/>
+      <c r="B110" s="22"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -6276,27 +6421,27 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
-      <c r="B111" s="20"/>
+      <c r="B111" s="22"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
       <c r="G111" s="10"/>
-      <c r="H111" s="10"/>
+      <c r="H111" s="2"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
-      <c r="B112" s="20"/>
+      <c r="B112" s="22"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="10"/>
-      <c r="H112" s="10"/>
+      <c r="H112" s="2"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
-      <c r="B113" s="20"/>
+      <c r="B113" s="22"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -6306,7 +6451,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
-      <c r="B114" s="20"/>
+      <c r="B114" s="22"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -6316,7 +6461,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
-      <c r="B115" s="20"/>
+      <c r="B115" s="22"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -6326,7 +6471,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
-      <c r="B116" s="20"/>
+      <c r="B116" s="22"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -6336,27 +6481,27 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
-      <c r="B117" s="20"/>
+      <c r="B117" s="22"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
       <c r="G117" s="10"/>
-      <c r="H117" s="2"/>
+      <c r="H117" s="10"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
-      <c r="B118" s="20"/>
+      <c r="B118" s="22"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="10"/>
-      <c r="H118" s="2"/>
+      <c r="H118" s="10"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
-      <c r="B119" s="20"/>
+      <c r="B119" s="22"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -6366,7 +6511,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
-      <c r="B120" s="20"/>
+      <c r="B120" s="22"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -6376,7 +6521,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
-      <c r="B121" s="20"/>
+      <c r="B121" s="22"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -6386,27 +6531,27 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
-      <c r="B122" s="20"/>
+      <c r="B122" s="22"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
+      <c r="G122" s="10"/>
       <c r="H122" s="2"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
-      <c r="B123" s="20"/>
+      <c r="B123" s="22"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
+      <c r="G123" s="10"/>
       <c r="H123" s="2"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
-      <c r="B124" s="20"/>
+      <c r="B124" s="22"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -6416,7 +6561,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
-      <c r="B125" s="20"/>
+      <c r="B125" s="22"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -6426,7 +6571,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
-      <c r="B126" s="20"/>
+      <c r="B126" s="22"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -6436,8 +6581,8 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
-      <c r="B127" s="20"/>
-      <c r="C127" s="10"/>
+      <c r="B127" s="22"/>
+      <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
@@ -6446,7 +6591,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
-      <c r="B128" s="20"/>
+      <c r="B128" s="22"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -6456,8 +6601,8 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
-      <c r="B129" s="20"/>
-      <c r="C129" s="2"/>
+      <c r="B129" s="22"/>
+      <c r="C129" s="10"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
@@ -6466,7 +6611,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
-      <c r="B130" s="20"/>
+      <c r="B130" s="22"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -6476,7 +6621,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
-      <c r="B131" s="20"/>
+      <c r="B131" s="22"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -6486,7 +6631,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
-      <c r="B132" s="20"/>
+      <c r="B132" s="22"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -6496,7 +6641,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
-      <c r="B133" s="20"/>
+      <c r="B133" s="22"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -6506,7 +6651,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
-      <c r="B134" s="20"/>
+      <c r="B134" s="22"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -6516,7 +6661,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
-      <c r="B135" s="20"/>
+      <c r="B135" s="22"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -6526,7 +6671,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
-      <c r="B136" s="20"/>
+      <c r="B136" s="22"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -6536,7 +6681,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
-      <c r="B137" s="20"/>
+      <c r="B137" s="22"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -6546,7 +6691,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
-      <c r="B138" s="20"/>
+      <c r="B138" s="22"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -6556,7 +6701,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
-      <c r="B139" s="20"/>
+      <c r="B139" s="22"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -6566,7 +6711,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
-      <c r="B140" s="20"/>
+      <c r="B140" s="22"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -6576,7 +6721,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
-      <c r="B141" s="20"/>
+      <c r="B141" s="22"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -6586,17 +6731,17 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
-      <c r="B142" s="20"/>
+      <c r="B142" s="22"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
-      <c r="G142" s="10"/>
+      <c r="G142" s="2"/>
       <c r="H142" s="2"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
-      <c r="B143" s="20"/>
+      <c r="B143" s="22"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -6606,17 +6751,17 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
-      <c r="B144" s="20"/>
+      <c r="B144" s="22"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
-      <c r="G144" s="2"/>
+      <c r="G144" s="10"/>
       <c r="H144" s="2"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
-      <c r="B145" s="20"/>
+      <c r="B145" s="22"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -6626,7 +6771,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
-      <c r="B146" s="20"/>
+      <c r="B146" s="22"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -6636,7 +6781,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
-      <c r="B147" s="20"/>
+      <c r="B147" s="22"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -6646,7 +6791,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
-      <c r="B148" s="20"/>
+      <c r="B148" s="22"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -6656,7 +6801,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
-      <c r="B149" s="20"/>
+      <c r="B149" s="22"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -6666,7 +6811,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
-      <c r="B150" s="20"/>
+      <c r="B150" s="22"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -6676,7 +6821,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
-      <c r="B151" s="20"/>
+      <c r="B151" s="22"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -6686,7 +6831,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
-      <c r="B152" s="20"/>
+      <c r="B152" s="22"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -6696,7 +6841,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
-      <c r="B153" s="20"/>
+      <c r="B153" s="22"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -6706,7 +6851,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
-      <c r="B154" s="20"/>
+      <c r="B154" s="22"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -6716,7 +6861,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
-      <c r="B155" s="20"/>
+      <c r="B155" s="22"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -6726,7 +6871,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
-      <c r="B156" s="20"/>
+      <c r="B156" s="22"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -6736,7 +6881,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
-      <c r="B157" s="20"/>
+      <c r="B157" s="22"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -6746,7 +6891,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
-      <c r="B158" s="20"/>
+      <c r="B158" s="22"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -6756,7 +6901,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
-      <c r="B159" s="20"/>
+      <c r="B159" s="22"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -6766,7 +6911,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
-      <c r="B160" s="20"/>
+      <c r="B160" s="22"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -6776,7 +6921,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
-      <c r="B161" s="20"/>
+      <c r="B161" s="22"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -6786,7 +6931,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
-      <c r="B162" s="20"/>
+      <c r="B162" s="22"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -6796,7 +6941,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
-      <c r="B163" s="20"/>
+      <c r="B163" s="22"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -6806,7 +6951,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
-      <c r="B164" s="20"/>
+      <c r="B164" s="22"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -6816,8 +6961,8 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
-      <c r="B165" s="20"/>
-      <c r="C165" s="10"/>
+      <c r="B165" s="22"/>
+      <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
@@ -6826,18 +6971,18 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
-      <c r="B166" s="20"/>
+      <c r="B166" s="22"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
-      <c r="F166" s="5"/>
+      <c r="F166" s="2"/>
       <c r="G166" s="2"/>
       <c r="H166" s="2"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
-      <c r="B167" s="20"/>
-      <c r="C167" s="2"/>
+      <c r="B167" s="22"/>
+      <c r="C167" s="10"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
@@ -6846,17 +6991,17 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
-      <c r="B168" s="20"/>
+      <c r="B168" s="22"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
-      <c r="F168" s="2"/>
+      <c r="F168" s="5"/>
       <c r="G168" s="2"/>
       <c r="H168" s="2"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
-      <c r="B169" s="20"/>
+      <c r="B169" s="22"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -6866,17 +7011,17 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
-      <c r="B170" s="20"/>
+      <c r="B170" s="22"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
-      <c r="F170" s="5"/>
+      <c r="F170" s="2"/>
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
-      <c r="B171" s="20"/>
+      <c r="B171" s="22"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -6886,17 +7031,17 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
-      <c r="B172" s="20"/>
+      <c r="B172" s="22"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
-      <c r="F172" s="2"/>
+      <c r="F172" s="5"/>
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
-      <c r="B173" s="20"/>
+      <c r="B173" s="22"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -6906,58 +7051,58 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
-      <c r="B174" s="20"/>
+      <c r="B174" s="22"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
-      <c r="F174" s="5"/>
+      <c r="F174" s="2"/>
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
-      <c r="B175" s="20"/>
+      <c r="B175" s="22"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
-      <c r="F175" s="5"/>
+      <c r="F175" s="2"/>
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
-      <c r="B176" s="20"/>
+      <c r="B176" s="22"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
-      <c r="F176" s="2"/>
+      <c r="F176" s="5"/>
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
-      <c r="B177" s="20"/>
+      <c r="B177" s="22"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
-      <c r="F177" s="2"/>
+      <c r="F177" s="5"/>
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
-      <c r="B178" s="20"/>
+      <c r="B178" s="22"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
-      <c r="F178" s="5"/>
+      <c r="F178" s="2"/>
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
-      <c r="B179" s="20"/>
-      <c r="C179" s="10"/>
+      <c r="B179" s="22"/>
+      <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
@@ -6966,18 +7111,18 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
-      <c r="B180" s="20"/>
+      <c r="B180" s="22"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
-      <c r="F180" s="2"/>
+      <c r="F180" s="5"/>
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
-      <c r="B181" s="20"/>
-      <c r="C181" s="2"/>
+      <c r="B181" s="22"/>
+      <c r="C181" s="10"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
@@ -6986,7 +7131,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
-      <c r="B182" s="20"/>
+      <c r="B182" s="22"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -6996,7 +7141,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
-      <c r="B183" s="20"/>
+      <c r="B183" s="22"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -7006,7 +7151,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
-      <c r="B184" s="20"/>
+      <c r="B184" s="22"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -7016,7 +7161,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="2"/>
-      <c r="B185" s="20"/>
+      <c r="B185" s="22"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -7026,7 +7171,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
-      <c r="B186" s="20"/>
+      <c r="B186" s="22"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -7036,7 +7181,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
-      <c r="B187" s="21"/>
+      <c r="B187" s="22"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -7066,7 +7211,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
-      <c r="B190" s="23"/>
+      <c r="B190" s="20"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -7076,27 +7221,27 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
-      <c r="B191" s="23"/>
+      <c r="B191" s="21"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
-      <c r="E191" s="5"/>
+      <c r="E191" s="2"/>
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
-      <c r="B192" s="23"/>
+      <c r="B192" s="21"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
-      <c r="E192" s="5"/>
+      <c r="E192" s="2"/>
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
       <c r="H192" s="2"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
-      <c r="B193" s="23"/>
+      <c r="B193" s="21"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="5"/>
@@ -7106,17 +7251,17 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
-      <c r="B194" s="23"/>
-      <c r="C194" s="10"/>
+      <c r="B194" s="21"/>
+      <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="5"/>
       <c r="F194" s="2"/>
-      <c r="G194" s="10"/>
+      <c r="G194" s="2"/>
       <c r="H194" s="2"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
-      <c r="B195" s="23"/>
+      <c r="B195" s="21"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="5"/>
@@ -7126,67 +7271,67 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
-      <c r="B196" s="23"/>
-      <c r="C196" s="2"/>
+      <c r="B196" s="21"/>
+      <c r="C196" s="10"/>
       <c r="D196" s="2"/>
       <c r="E196" s="5"/>
       <c r="F196" s="2"/>
-      <c r="G196" s="5"/>
+      <c r="G196" s="10"/>
       <c r="H196" s="2"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
-      <c r="B197" s="23"/>
+      <c r="B197" s="21"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="5"/>
       <c r="F197" s="2"/>
-      <c r="G197" s="5"/>
+      <c r="G197" s="2"/>
       <c r="H197" s="2"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
-      <c r="B198" s="23"/>
+      <c r="B198" s="21"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="5"/>
       <c r="F198" s="2"/>
       <c r="G198" s="5"/>
-      <c r="H198" s="1"/>
+      <c r="H198" s="2"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="2"/>
-      <c r="B199" s="23"/>
+      <c r="B199" s="21"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="5"/>
       <c r="F199" s="2"/>
       <c r="G199" s="5"/>
-      <c r="H199" s="1"/>
+      <c r="H199" s="2"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
-      <c r="B200" s="20"/>
+      <c r="B200" s="21"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="5"/>
       <c r="F200" s="2"/>
-      <c r="G200" s="2"/>
+      <c r="G200" s="5"/>
       <c r="H200" s="1"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="2"/>
-      <c r="B201" s="20"/>
+      <c r="B201" s="21"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="5"/>
       <c r="F201" s="2"/>
-      <c r="G201" s="2"/>
+      <c r="G201" s="5"/>
       <c r="H201" s="1"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="2"/>
-      <c r="B202" s="20"/>
+      <c r="B202" s="22"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="5"/>
@@ -7196,7 +7341,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="2"/>
-      <c r="B203" s="20"/>
+      <c r="B203" s="22"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="5"/>
@@ -7206,7 +7351,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="2"/>
-      <c r="B204" s="20"/>
+      <c r="B204" s="22"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="5"/>
@@ -7216,7 +7361,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="2"/>
-      <c r="B205" s="20"/>
+      <c r="B205" s="22"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="5"/>
@@ -7226,7 +7371,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
-      <c r="B206" s="20"/>
+      <c r="B206" s="22"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="5"/>
@@ -7236,8 +7381,8 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="2"/>
-      <c r="B207" s="20"/>
-      <c r="C207" s="10"/>
+      <c r="B207" s="22"/>
+      <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="5"/>
       <c r="F207" s="2"/>
@@ -7246,7 +7391,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="2"/>
-      <c r="B208" s="20"/>
+      <c r="B208" s="22"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="5"/>
@@ -7256,8 +7401,8 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="2"/>
-      <c r="B209" s="20"/>
-      <c r="C209" s="2"/>
+      <c r="B209" s="22"/>
+      <c r="C209" s="10"/>
       <c r="D209" s="2"/>
       <c r="E209" s="5"/>
       <c r="F209" s="2"/>
@@ -7266,7 +7411,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="2"/>
-      <c r="B210" s="20"/>
+      <c r="B210" s="22"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="5"/>
@@ -7276,7 +7421,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="2"/>
-      <c r="B211" s="20"/>
+      <c r="B211" s="22"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="5"/>
@@ -7286,7 +7431,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="2"/>
-      <c r="B212" s="20"/>
+      <c r="B212" s="22"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="5"/>
@@ -7296,8 +7441,8 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="2"/>
-      <c r="B213" s="20"/>
-      <c r="C213" s="10"/>
+      <c r="B213" s="22"/>
+      <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="5"/>
       <c r="F213" s="2"/>
@@ -7306,27 +7451,27 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="2"/>
-      <c r="B214" s="20"/>
+      <c r="B214" s="22"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="5"/>
       <c r="F214" s="2"/>
       <c r="G214" s="2"/>
-      <c r="H214" s="2"/>
+      <c r="H214" s="1"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="2"/>
-      <c r="B215" s="20"/>
-      <c r="C215" s="2"/>
+      <c r="B215" s="22"/>
+      <c r="C215" s="10"/>
       <c r="D215" s="2"/>
       <c r="E215" s="5"/>
       <c r="F215" s="2"/>
       <c r="G215" s="2"/>
-      <c r="H215" s="2"/>
+      <c r="H215" s="1"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="2"/>
-      <c r="B216" s="20"/>
+      <c r="B216" s="22"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="5"/>
@@ -7336,28 +7481,28 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="2"/>
-      <c r="B217" s="20"/>
+      <c r="B217" s="22"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
-      <c r="E217" s="2"/>
+      <c r="E217" s="5"/>
       <c r="F217" s="2"/>
       <c r="G217" s="2"/>
       <c r="H217" s="2"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="2"/>
-      <c r="B218" s="20"/>
+      <c r="B218" s="22"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
-      <c r="E218" s="2"/>
+      <c r="E218" s="5"/>
       <c r="F218" s="2"/>
       <c r="G218" s="2"/>
       <c r="H218" s="2"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="2"/>
-      <c r="B219" s="20"/>
-      <c r="C219" s="10"/>
+      <c r="B219" s="22"/>
+      <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
@@ -7366,7 +7511,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="2"/>
-      <c r="B220" s="20"/>
+      <c r="B220" s="22"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -7376,8 +7521,8 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="2"/>
-      <c r="B221" s="20"/>
-      <c r="C221" s="2"/>
+      <c r="B221" s="22"/>
+      <c r="C221" s="10"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
@@ -7386,7 +7531,7 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="2"/>
-      <c r="B222" s="20"/>
+      <c r="B222" s="22"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -7396,7 +7541,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="2"/>
-      <c r="B223" s="20"/>
+      <c r="B223" s="22"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -7406,7 +7551,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="2"/>
-      <c r="B224" s="20"/>
+      <c r="B224" s="22"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -7416,7 +7561,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="2"/>
-      <c r="B225" s="20"/>
+      <c r="B225" s="22"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -7426,7 +7571,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="2"/>
-      <c r="B226" s="20"/>
+      <c r="B226" s="22"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -7436,7 +7581,7 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="2"/>
-      <c r="B227" s="20"/>
+      <c r="B227" s="22"/>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -7446,7 +7591,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="2"/>
-      <c r="B228" s="20"/>
+      <c r="B228" s="22"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -7456,7 +7601,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="2"/>
-      <c r="B229" s="20"/>
+      <c r="B229" s="22"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -7466,8 +7611,8 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="2"/>
-      <c r="B230" s="20"/>
-      <c r="C230" s="10"/>
+      <c r="B230" s="22"/>
+      <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
@@ -7476,7 +7621,7 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="2"/>
-      <c r="B231" s="20"/>
+      <c r="B231" s="22"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -7486,8 +7631,8 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="2"/>
-      <c r="B232" s="20"/>
-      <c r="C232" s="2"/>
+      <c r="B232" s="22"/>
+      <c r="C232" s="10"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
@@ -7496,7 +7641,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="2"/>
-      <c r="B233" s="20"/>
+      <c r="B233" s="22"/>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -7506,7 +7651,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="2"/>
-      <c r="B234" s="20"/>
+      <c r="B234" s="22"/>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
@@ -7516,7 +7661,7 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="2"/>
-      <c r="B235" s="20"/>
+      <c r="B235" s="22"/>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
@@ -7526,7 +7671,7 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="2"/>
-      <c r="B236" s="20"/>
+      <c r="B236" s="22"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
@@ -7536,27 +7681,27 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="2"/>
-      <c r="B237" s="20"/>
+      <c r="B237" s="22"/>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
-      <c r="E237" s="5"/>
+      <c r="E237" s="2"/>
       <c r="F237" s="2"/>
       <c r="G237" s="2"/>
       <c r="H237" s="2"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="2"/>
-      <c r="B238" s="20"/>
+      <c r="B238" s="22"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
-      <c r="E238" s="5"/>
+      <c r="E238" s="2"/>
       <c r="F238" s="2"/>
       <c r="G238" s="2"/>
       <c r="H238" s="2"/>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="2"/>
-      <c r="B239" s="20"/>
+      <c r="B239" s="22"/>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="5"/>
@@ -7566,8 +7711,8 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="2"/>
-      <c r="B240" s="20"/>
-      <c r="C240" s="10"/>
+      <c r="B240" s="22"/>
+      <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="5"/>
       <c r="F240" s="2"/>
@@ -7576,7 +7721,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="2"/>
-      <c r="B241" s="20"/>
+      <c r="B241" s="22"/>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="5"/>
@@ -7586,8 +7731,8 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="2"/>
-      <c r="B242" s="20"/>
-      <c r="C242" s="2"/>
+      <c r="B242" s="22"/>
+      <c r="C242" s="10"/>
       <c r="D242" s="2"/>
       <c r="E242" s="5"/>
       <c r="F242" s="2"/>
@@ -7596,7 +7741,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="2"/>
-      <c r="B243" s="20"/>
+      <c r="B243" s="22"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="5"/>
@@ -7606,27 +7751,27 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="2"/>
-      <c r="B244" s="20"/>
+      <c r="B244" s="22"/>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
-      <c r="E244" s="2"/>
+      <c r="E244" s="5"/>
       <c r="F244" s="2"/>
       <c r="G244" s="2"/>
       <c r="H244" s="2"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="2"/>
-      <c r="B245" s="20"/>
+      <c r="B245" s="22"/>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
-      <c r="E245" s="2"/>
+      <c r="E245" s="5"/>
       <c r="F245" s="2"/>
       <c r="G245" s="2"/>
       <c r="H245" s="2"/>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="2"/>
-      <c r="B246" s="20"/>
+      <c r="B246" s="22"/>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -7636,8 +7781,8 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="2"/>
-      <c r="B247" s="20"/>
-      <c r="C247" s="10"/>
+      <c r="B247" s="22"/>
+      <c r="C247" s="2"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
@@ -7646,7 +7791,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="2"/>
-      <c r="B248" s="20"/>
+      <c r="B248" s="22"/>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -7656,8 +7801,8 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="2"/>
-      <c r="B249" s="20"/>
-      <c r="C249" s="2"/>
+      <c r="B249" s="22"/>
+      <c r="C249" s="10"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
@@ -7666,7 +7811,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="2"/>
-      <c r="B250" s="20"/>
+      <c r="B250" s="22"/>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -7676,7 +7821,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="2"/>
-      <c r="B251" s="20"/>
+      <c r="B251" s="22"/>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -7686,7 +7831,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="2"/>
-      <c r="B252" s="20"/>
+      <c r="B252" s="22"/>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -7696,7 +7841,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="2"/>
-      <c r="B253" s="20"/>
+      <c r="B253" s="22"/>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -7706,7 +7851,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="2"/>
-      <c r="B254" s="20"/>
+      <c r="B254" s="22"/>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -7716,7 +7861,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="2"/>
-      <c r="B255" s="20"/>
+      <c r="B255" s="22"/>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -7726,7 +7871,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="2"/>
-      <c r="B256" s="20"/>
+      <c r="B256" s="22"/>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
@@ -7736,8 +7881,8 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="2"/>
-      <c r="B257" s="20"/>
-      <c r="C257" s="10"/>
+      <c r="B257" s="22"/>
+      <c r="C257" s="2"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
       <c r="F257" s="2"/>
@@ -7746,7 +7891,7 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="2"/>
-      <c r="B258" s="20"/>
+      <c r="B258" s="22"/>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -7756,8 +7901,8 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="2"/>
-      <c r="B259" s="20"/>
-      <c r="C259" s="2"/>
+      <c r="B259" s="22"/>
+      <c r="C259" s="10"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
       <c r="F259" s="2"/>
@@ -7766,7 +7911,7 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="2"/>
-      <c r="B260" s="6"/>
+      <c r="B260" s="22"/>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
@@ -7776,7 +7921,7 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="2"/>
-      <c r="B261" s="6"/>
+      <c r="B261" s="22"/>
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
@@ -7786,7 +7931,7 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="2"/>
-      <c r="B262" s="2"/>
+      <c r="B262" s="6"/>
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
@@ -7796,7 +7941,7 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="2"/>
-      <c r="B263" s="2"/>
+      <c r="B263" s="6"/>
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -7946,23 +8091,23 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" s="2"/>
-      <c r="B278" s="1"/>
-      <c r="C278" s="1"/>
-      <c r="D278" s="1"/>
-      <c r="E278" s="1"/>
-      <c r="F278" s="1"/>
-      <c r="G278" s="1"/>
-      <c r="H278" s="1"/>
+      <c r="B278" s="2"/>
+      <c r="C278" s="2"/>
+      <c r="D278" s="2"/>
+      <c r="E278" s="2"/>
+      <c r="F278" s="2"/>
+      <c r="G278" s="2"/>
+      <c r="H278" s="2"/>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" s="2"/>
-      <c r="B279" s="1"/>
-      <c r="C279" s="1"/>
-      <c r="D279" s="1"/>
-      <c r="E279" s="1"/>
-      <c r="F279" s="1"/>
-      <c r="G279" s="1"/>
-      <c r="H279" s="1"/>
+      <c r="B279" s="2"/>
+      <c r="C279" s="2"/>
+      <c r="D279" s="2"/>
+      <c r="E279" s="2"/>
+      <c r="F279" s="2"/>
+      <c r="G279" s="2"/>
+      <c r="H279" s="2"/>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" s="2"/>
@@ -10026,23 +10171,23 @@
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A486" s="2"/>
-      <c r="B486" s="2"/>
-      <c r="C486" s="2"/>
-      <c r="D486" s="2"/>
-      <c r="E486" s="2"/>
-      <c r="F486" s="2"/>
-      <c r="G486" s="2"/>
-      <c r="H486" s="2"/>
+      <c r="B486" s="1"/>
+      <c r="C486" s="1"/>
+      <c r="D486" s="1"/>
+      <c r="E486" s="1"/>
+      <c r="F486" s="1"/>
+      <c r="G486" s="1"/>
+      <c r="H486" s="1"/>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A487" s="2"/>
-      <c r="B487" s="2"/>
-      <c r="C487" s="2"/>
-      <c r="D487" s="2"/>
-      <c r="E487" s="2"/>
-      <c r="F487" s="2"/>
-      <c r="G487" s="2"/>
-      <c r="H487" s="2"/>
+      <c r="B487" s="1"/>
+      <c r="C487" s="1"/>
+      <c r="D487" s="1"/>
+      <c r="E487" s="1"/>
+      <c r="F487" s="1"/>
+      <c r="G487" s="1"/>
+      <c r="H487" s="1"/>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A488" s="2"/>
@@ -10188,21 +10333,21 @@
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
-      <c r="D502" s="1"/>
-      <c r="E502" s="1"/>
-      <c r="F502" s="1"/>
-      <c r="G502" s="1"/>
-      <c r="H502" s="1"/>
+      <c r="D502" s="2"/>
+      <c r="E502" s="2"/>
+      <c r="F502" s="2"/>
+      <c r="G502" s="2"/>
+      <c r="H502" s="2"/>
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
-      <c r="D503" s="1"/>
-      <c r="E503" s="1"/>
-      <c r="F503" s="1"/>
-      <c r="G503" s="1"/>
-      <c r="H503" s="1"/>
+      <c r="D503" s="2"/>
+      <c r="E503" s="2"/>
+      <c r="F503" s="2"/>
+      <c r="G503" s="2"/>
+      <c r="H503" s="2"/>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A504" s="2"/>
@@ -10384,24 +10529,44 @@
       <c r="G521" s="1"/>
       <c r="H521" s="1"/>
     </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A522" s="2"/>
+      <c r="B522" s="2"/>
+      <c r="C522" s="2"/>
+      <c r="D522" s="1"/>
+      <c r="E522" s="1"/>
+      <c r="F522" s="1"/>
+      <c r="G522" s="1"/>
+      <c r="H522" s="1"/>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A523" s="2"/>
+      <c r="B523" s="2"/>
+      <c r="C523" s="2"/>
+      <c r="D523" s="1"/>
+      <c r="E523" s="1"/>
+      <c r="F523" s="1"/>
+      <c r="G523" s="1"/>
+      <c r="H523" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B2:B71"/>
-    <mergeCell ref="B167:B170"/>
-    <mergeCell ref="B171:B174"/>
-    <mergeCell ref="B72:B122"/>
-    <mergeCell ref="B163:B166"/>
-    <mergeCell ref="B123:B162"/>
-    <mergeCell ref="B200:B209"/>
-    <mergeCell ref="B210:B216"/>
-    <mergeCell ref="B217:B221"/>
-    <mergeCell ref="B253:B259"/>
-    <mergeCell ref="B175:B187"/>
-    <mergeCell ref="B222:B231"/>
-    <mergeCell ref="B232:B236"/>
-    <mergeCell ref="B237:B243"/>
-    <mergeCell ref="B244:B252"/>
-    <mergeCell ref="B188:B199"/>
+    <mergeCell ref="B202:B211"/>
+    <mergeCell ref="B212:B218"/>
+    <mergeCell ref="B219:B223"/>
+    <mergeCell ref="B255:B261"/>
+    <mergeCell ref="B177:B189"/>
+    <mergeCell ref="B224:B233"/>
+    <mergeCell ref="B234:B238"/>
+    <mergeCell ref="B239:B245"/>
+    <mergeCell ref="B246:B254"/>
+    <mergeCell ref="B190:B201"/>
+    <mergeCell ref="B2:B73"/>
+    <mergeCell ref="B169:B172"/>
+    <mergeCell ref="B173:B176"/>
+    <mergeCell ref="B74:B124"/>
+    <mergeCell ref="B165:B168"/>
+    <mergeCell ref="B125:B164"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10457,7 +10622,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -10479,7 +10644,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
-      <c r="B3" s="23"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
@@ -10499,7 +10664,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
-      <c r="B4" s="23"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
@@ -10519,7 +10684,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
-      <c r="B5" s="23"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
@@ -10539,7 +10704,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
-      <c r="B6" s="23"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
@@ -10559,7 +10724,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
-      <c r="B7" s="23"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
@@ -10579,7 +10744,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
-      <c r="B8" s="23"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
@@ -10599,7 +10764,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
-      <c r="B9" s="23"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
@@ -10619,7 +10784,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
-      <c r="B10" s="23"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="7" t="s">
         <v>16</v>
       </c>
@@ -10639,7 +10804,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
-      <c r="B11" s="23"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
@@ -10659,7 +10824,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
-      <c r="B12" s="23"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="7" t="s">
         <v>16</v>
       </c>
@@ -10681,7 +10846,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
-      <c r="B13" s="23"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="7" t="s">
         <v>16</v>
       </c>
@@ -10701,7 +10866,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
-      <c r="B14" s="23"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="7" t="s">
         <v>16</v>
       </c>
@@ -10721,7 +10886,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
-      <c r="B15" s="23"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="7" t="s">
         <v>16</v>
       </c>
@@ -10741,7 +10906,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
-      <c r="B16" s="23"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="7" t="s">
         <v>16</v>
       </c>
@@ -10761,7 +10926,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
-      <c r="B17" s="23"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="7" t="s">
         <v>16</v>
       </c>
@@ -10781,7 +10946,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
-      <c r="B18" s="23"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="7" t="s">
         <v>16</v>
       </c>
@@ -10801,7 +10966,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
-      <c r="B19" s="23"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="7" t="s">
         <v>16</v>
       </c>
@@ -10821,7 +10986,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
-      <c r="B20" s="23"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="7" t="s">
         <v>16</v>
       </c>
@@ -10841,7 +11006,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
-      <c r="B21" s="23"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="7" t="s">
         <v>16</v>
       </c>
@@ -10861,7 +11026,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
-      <c r="B22" s="23"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="7" t="s">
         <v>16</v>
       </c>
@@ -10881,7 +11046,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
-      <c r="B23" s="23"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="7" t="s">
         <v>16</v>
       </c>
@@ -10901,7 +11066,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
-      <c r="B24" s="23"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="7" t="s">
         <v>16</v>
       </c>
@@ -10921,7 +11086,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
-      <c r="B25" s="23"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="7" t="s">
         <v>16</v>
       </c>
@@ -10941,7 +11106,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
-      <c r="B26" s="23"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="7" t="s">
         <v>16</v>
       </c>
@@ -10961,7 +11126,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
-      <c r="B27" s="23"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="7" t="s">
         <v>16</v>
       </c>
@@ -10981,7 +11146,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
-      <c r="B28" s="23"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="7" t="s">
         <v>16</v>
       </c>
@@ -11001,7 +11166,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
-      <c r="B29" s="23"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="7" t="s">
         <v>16</v>
       </c>
@@ -11021,7 +11186,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
-      <c r="B30" s="23"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="7" t="s">
         <v>16</v>
       </c>
@@ -11041,7 +11206,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
-      <c r="B31" s="23"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="7" t="s">
         <v>16</v>
       </c>
@@ -11061,7 +11226,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
-      <c r="B32" s="23"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="7" t="s">
         <v>16</v>
       </c>
@@ -11081,7 +11246,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
-      <c r="B33" s="23"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="7" t="s">
         <v>16</v>
       </c>
@@ -11101,7 +11266,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
-      <c r="B34" s="23"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="7" t="s">
         <v>16</v>
       </c>
@@ -11121,7 +11286,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
-      <c r="B35" s="23"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="7" t="s">
         <v>16</v>
       </c>
@@ -11141,7 +11306,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
-      <c r="B36" s="23"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="7" t="s">
         <v>16</v>
       </c>
@@ -11161,7 +11326,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
-      <c r="B37" s="23"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="7" t="s">
         <v>16</v>
       </c>
@@ -11181,7 +11346,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
-      <c r="B38" s="23"/>
+      <c r="B38" s="21"/>
       <c r="C38" s="7" t="s">
         <v>16</v>
       </c>
@@ -11201,7 +11366,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
-      <c r="B39" s="23"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="7" t="s">
         <v>16</v>
       </c>
@@ -11221,7 +11386,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
-      <c r="B40" s="23"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="7" t="s">
         <v>16</v>
       </c>
@@ -11241,7 +11406,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
-      <c r="B41" s="23"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="7" t="s">
         <v>16</v>
       </c>
@@ -11261,7 +11426,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
-      <c r="B42" s="23"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="7" t="s">
         <v>16</v>
       </c>
@@ -11281,7 +11446,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
-      <c r="B43" s="23"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="7" t="s">
         <v>16</v>
       </c>
@@ -11301,7 +11466,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
-      <c r="B44" s="23"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="7" t="s">
         <v>16</v>
       </c>
@@ -11321,7 +11486,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -11343,7 +11508,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
-      <c r="B46" s="20"/>
+      <c r="B46" s="22"/>
       <c r="C46" s="7" t="s">
         <v>104</v>
       </c>
@@ -11363,7 +11528,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
-      <c r="B47" s="20"/>
+      <c r="B47" s="22"/>
       <c r="C47" s="7" t="s">
         <v>104</v>
       </c>
@@ -11383,7 +11548,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
-      <c r="B48" s="20"/>
+      <c r="B48" s="22"/>
       <c r="C48" s="7" t="s">
         <v>104</v>
       </c>
@@ -11403,7 +11568,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
-      <c r="B49" s="20"/>
+      <c r="B49" s="22"/>
       <c r="C49" s="7" t="s">
         <v>104</v>
       </c>
@@ -11423,7 +11588,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
-      <c r="B50" s="20"/>
+      <c r="B50" s="22"/>
       <c r="C50" s="7" t="s">
         <v>104</v>
       </c>
@@ -11443,7 +11608,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
-      <c r="B51" s="20"/>
+      <c r="B51" s="22"/>
       <c r="C51" s="7" t="s">
         <v>104</v>
       </c>
@@ -11463,7 +11628,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C52" s="7" t="s">
@@ -11485,7 +11650,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
-      <c r="B53" s="20"/>
+      <c r="B53" s="22"/>
       <c r="C53" s="7" t="s">
         <v>118</v>
       </c>
@@ -11505,7 +11670,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
-      <c r="B54" s="20"/>
+      <c r="B54" s="22"/>
       <c r="C54" s="7" t="s">
         <v>118</v>
       </c>
@@ -11525,7 +11690,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
-      <c r="B55" s="20"/>
+      <c r="B55" s="22"/>
       <c r="C55" s="7" t="s">
         <v>118</v>
       </c>
@@ -11545,7 +11710,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
-      <c r="B56" s="20"/>
+      <c r="B56" s="22"/>
       <c r="C56" s="7" t="s">
         <v>118</v>
       </c>
@@ -11565,7 +11730,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
-      <c r="B57" s="20"/>
+      <c r="B57" s="22"/>
       <c r="C57" s="7" t="s">
         <v>118</v>
       </c>
@@ -11585,7 +11750,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
-      <c r="B58" s="20"/>
+      <c r="B58" s="22"/>
       <c r="C58" s="7" t="s">
         <v>118</v>
       </c>
@@ -11605,7 +11770,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
-      <c r="B59" s="20"/>
+      <c r="B59" s="22"/>
       <c r="C59" s="7" t="s">
         <v>118</v>
       </c>
@@ -11625,7 +11790,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="7"/>
-      <c r="B60" s="20"/>
+      <c r="B60" s="22"/>
       <c r="C60" s="7" t="s">
         <v>118</v>
       </c>
@@ -11645,7 +11810,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="7"/>
-      <c r="B61" s="20"/>
+      <c r="B61" s="22"/>
       <c r="C61" s="7" t="s">
         <v>118</v>
       </c>
@@ -11665,7 +11830,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
-      <c r="B62" s="20"/>
+      <c r="B62" s="22"/>
       <c r="C62" s="7" t="s">
         <v>118</v>
       </c>
@@ -11685,7 +11850,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="7"/>
-      <c r="B63" s="20"/>
+      <c r="B63" s="22"/>
       <c r="C63" s="7" t="s">
         <v>118</v>
       </c>
@@ -11705,7 +11870,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
-      <c r="B64" s="20"/>
+      <c r="B64" s="22"/>
       <c r="C64" s="7" t="s">
         <v>118</v>
       </c>
@@ -11727,7 +11892,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="7"/>
-      <c r="B65" s="20"/>
+      <c r="B65" s="22"/>
       <c r="C65" s="7" t="s">
         <v>118</v>
       </c>
@@ -11747,7 +11912,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
-      <c r="B66" s="20"/>
+      <c r="B66" s="22"/>
       <c r="C66" s="7" t="s">
         <v>118</v>
       </c>
@@ -11769,7 +11934,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
-      <c r="B67" s="20"/>
+      <c r="B67" s="22"/>
       <c r="C67" s="7" t="s">
         <v>118</v>
       </c>
@@ -11789,7 +11954,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
-      <c r="B68" s="20"/>
+      <c r="B68" s="22"/>
       <c r="C68" s="7" t="s">
         <v>118</v>
       </c>
@@ -11809,7 +11974,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
-      <c r="B69" s="20"/>
+      <c r="B69" s="22"/>
       <c r="C69" s="7" t="s">
         <v>118</v>
       </c>
@@ -11829,7 +11994,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="7"/>
-      <c r="B70" s="20"/>
+      <c r="B70" s="22"/>
       <c r="C70" s="7" t="s">
         <v>118</v>
       </c>
@@ -11849,7 +12014,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
-      <c r="B71" s="20"/>
+      <c r="B71" s="22"/>
       <c r="C71" s="7" t="s">
         <v>118</v>
       </c>
@@ -11869,7 +12034,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
-      <c r="B72" s="20"/>
+      <c r="B72" s="22"/>
       <c r="C72" s="7" t="s">
         <v>118</v>
       </c>
@@ -11889,7 +12054,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
-      <c r="B73" s="20"/>
+      <c r="B73" s="22"/>
       <c r="C73" s="7" t="s">
         <v>118</v>
       </c>
@@ -11909,7 +12074,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
-      <c r="B74" s="20"/>
+      <c r="B74" s="22"/>
       <c r="C74" s="7" t="s">
         <v>118</v>
       </c>
@@ -11929,7 +12094,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="7"/>
-      <c r="B75" s="20"/>
+      <c r="B75" s="22"/>
       <c r="C75" s="7" t="s">
         <v>118</v>
       </c>
@@ -11949,7 +12114,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="7"/>
-      <c r="B76" s="20"/>
+      <c r="B76" s="22"/>
       <c r="C76" s="7" t="s">
         <v>118</v>
       </c>
@@ -11969,7 +12134,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
-      <c r="B77" s="20" t="s">
+      <c r="B77" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C77" s="7" t="s">
@@ -11991,7 +12156,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="7"/>
-      <c r="B78" s="20"/>
+      <c r="B78" s="22"/>
       <c r="C78" s="7" t="s">
         <v>536</v>
       </c>
@@ -12011,7 +12176,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="7"/>
-      <c r="B79" s="20"/>
+      <c r="B79" s="22"/>
       <c r="C79" s="7" t="s">
         <v>536</v>
       </c>
@@ -12031,7 +12196,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
-      <c r="B80" s="20"/>
+      <c r="B80" s="22"/>
       <c r="C80" s="7" t="s">
         <v>536</v>
       </c>
@@ -12051,7 +12216,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
-      <c r="B81" s="20"/>
+      <c r="B81" s="22"/>
       <c r="C81" s="7" t="s">
         <v>536</v>
       </c>
@@ -12071,7 +12236,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="7"/>
-      <c r="B82" s="20"/>
+      <c r="B82" s="22"/>
       <c r="C82" s="7" t="s">
         <v>536</v>
       </c>
@@ -12091,7 +12256,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="7"/>
-      <c r="B83" s="20"/>
+      <c r="B83" s="22"/>
       <c r="C83" s="7" t="s">
         <v>536</v>
       </c>
@@ -12111,7 +12276,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="7"/>
-      <c r="B84" s="20"/>
+      <c r="B84" s="22"/>
       <c r="C84" s="7" t="s">
         <v>536</v>
       </c>
@@ -12131,7 +12296,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="7"/>
-      <c r="B85" s="20"/>
+      <c r="B85" s="22"/>
       <c r="C85" s="7" t="s">
         <v>536</v>
       </c>
@@ -12151,7 +12316,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="7"/>
-      <c r="B86" s="20"/>
+      <c r="B86" s="22"/>
       <c r="C86" s="7" t="s">
         <v>536</v>
       </c>
@@ -12171,7 +12336,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="7"/>
-      <c r="B87" s="20"/>
+      <c r="B87" s="22"/>
       <c r="C87" s="7" t="s">
         <v>536</v>
       </c>
@@ -12191,7 +12356,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="7"/>
-      <c r="B88" s="20"/>
+      <c r="B88" s="22"/>
       <c r="C88" s="7" t="s">
         <v>536</v>
       </c>
@@ -12211,7 +12376,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="7"/>
-      <c r="B89" s="20"/>
+      <c r="B89" s="22"/>
       <c r="C89" s="7" t="s">
         <v>536</v>
       </c>
@@ -12231,7 +12396,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="7"/>
-      <c r="B90" s="20"/>
+      <c r="B90" s="22"/>
       <c r="C90" s="7" t="s">
         <v>536</v>
       </c>
@@ -12251,7 +12416,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="7"/>
-      <c r="B91" s="20"/>
+      <c r="B91" s="22"/>
       <c r="C91" s="7" t="s">
         <v>536</v>
       </c>
@@ -12271,7 +12436,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="7"/>
-      <c r="B92" s="20"/>
+      <c r="B92" s="22"/>
       <c r="C92" s="7" t="s">
         <v>536</v>
       </c>
@@ -12291,7 +12456,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="7"/>
-      <c r="B93" s="20"/>
+      <c r="B93" s="22"/>
       <c r="C93" s="7" t="s">
         <v>536</v>
       </c>
@@ -12311,7 +12476,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="7"/>
-      <c r="B94" s="20"/>
+      <c r="B94" s="22"/>
       <c r="C94" s="7" t="s">
         <v>536</v>
       </c>
@@ -12331,7 +12496,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="7"/>
-      <c r="B95" s="20"/>
+      <c r="B95" s="22"/>
       <c r="C95" s="7" t="s">
         <v>536</v>
       </c>
@@ -12351,7 +12516,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="7"/>
-      <c r="B96" s="20"/>
+      <c r="B96" s="22"/>
       <c r="C96" s="7" t="s">
         <v>536</v>
       </c>
@@ -12371,7 +12536,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="7"/>
-      <c r="B97" s="20"/>
+      <c r="B97" s="22"/>
       <c r="C97" s="7" t="s">
         <v>536</v>
       </c>
@@ -12391,7 +12556,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="7"/>
-      <c r="B98" s="20"/>
+      <c r="B98" s="22"/>
       <c r="C98" s="7" t="s">
         <v>536</v>
       </c>
@@ -12411,7 +12576,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="7"/>
-      <c r="B99" s="20"/>
+      <c r="B99" s="22"/>
       <c r="C99" s="7" t="s">
         <v>536</v>
       </c>
@@ -12431,7 +12596,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="7"/>
-      <c r="B100" s="20" t="s">
+      <c r="B100" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C100" s="7" t="s">
@@ -12453,7 +12618,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="7"/>
-      <c r="B101" s="20"/>
+      <c r="B101" s="22"/>
       <c r="C101" s="7" t="s">
         <v>561</v>
       </c>
@@ -12473,7 +12638,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="7"/>
-      <c r="B102" s="20"/>
+      <c r="B102" s="22"/>
       <c r="C102" s="7" t="s">
         <v>170</v>
       </c>
@@ -12493,7 +12658,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="7"/>
-      <c r="B103" s="20"/>
+      <c r="B103" s="22"/>
       <c r="C103" s="7" t="s">
         <v>170</v>
       </c>
@@ -12513,7 +12678,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="7"/>
-      <c r="B104" s="20" t="s">
+      <c r="B104" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C104" s="7" t="s">
@@ -12535,7 +12700,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="7"/>
-      <c r="B105" s="20"/>
+      <c r="B105" s="22"/>
       <c r="C105" s="7" t="s">
         <v>179</v>
       </c>
@@ -12555,7 +12720,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="7"/>
-      <c r="B106" s="20"/>
+      <c r="B106" s="22"/>
       <c r="C106" s="7" t="s">
         <v>562</v>
       </c>
@@ -12575,7 +12740,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="7"/>
-      <c r="B107" s="20"/>
+      <c r="B107" s="22"/>
       <c r="C107" s="7" t="s">
         <v>179</v>
       </c>
@@ -12595,7 +12760,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="7"/>
-      <c r="B108" s="20"/>
+      <c r="B108" s="22"/>
       <c r="C108" s="7" t="s">
         <v>179</v>
       </c>
@@ -12615,7 +12780,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="7"/>
-      <c r="B109" s="20"/>
+      <c r="B109" s="22"/>
       <c r="C109" s="7" t="s">
         <v>179</v>
       </c>
@@ -12635,7 +12800,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="7"/>
-      <c r="B110" s="20"/>
+      <c r="B110" s="22"/>
       <c r="C110" s="7" t="s">
         <v>179</v>
       </c>
@@ -12655,7 +12820,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="7"/>
-      <c r="B111" s="20"/>
+      <c r="B111" s="22"/>
       <c r="C111" s="7" t="s">
         <v>179</v>
       </c>
@@ -12675,7 +12840,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="7"/>
-      <c r="B112" s="20"/>
+      <c r="B112" s="22"/>
       <c r="C112" s="7" t="s">
         <v>179</v>
       </c>
@@ -12695,7 +12860,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="7"/>
-      <c r="B113" s="20"/>
+      <c r="B113" s="22"/>
       <c r="C113" s="7" t="s">
         <v>179</v>
       </c>
@@ -12715,7 +12880,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="7"/>
-      <c r="B114" s="20"/>
+      <c r="B114" s="22"/>
       <c r="C114" s="7" t="s">
         <v>179</v>
       </c>
@@ -12735,7 +12900,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="7"/>
-      <c r="B115" s="20"/>
+      <c r="B115" s="22"/>
       <c r="C115" s="7" t="s">
         <v>179</v>
       </c>
@@ -12755,7 +12920,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="7"/>
-      <c r="B116" s="20"/>
+      <c r="B116" s="22"/>
       <c r="C116" s="7" t="s">
         <v>179</v>
       </c>
@@ -12775,7 +12940,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="7"/>
-      <c r="B117" s="20"/>
+      <c r="B117" s="22"/>
       <c r="C117" s="7" t="s">
         <v>179</v>
       </c>
@@ -12795,7 +12960,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="7"/>
-      <c r="B118" s="20"/>
+      <c r="B118" s="22"/>
       <c r="C118" s="7" t="s">
         <v>179</v>
       </c>
@@ -12817,7 +12982,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="7"/>
-      <c r="B119" s="20"/>
+      <c r="B119" s="22"/>
       <c r="C119" s="7" t="s">
         <v>179</v>
       </c>
@@ -12837,7 +13002,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="7"/>
-      <c r="B120" s="20"/>
+      <c r="B120" s="22"/>
       <c r="C120" s="7" t="s">
         <v>179</v>
       </c>
@@ -12857,7 +13022,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="7"/>
-      <c r="B121" s="20"/>
+      <c r="B121" s="22"/>
       <c r="C121" s="7" t="s">
         <v>179</v>
       </c>
@@ -12877,7 +13042,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="7"/>
-      <c r="B122" s="20"/>
+      <c r="B122" s="22"/>
       <c r="C122" s="7" t="s">
         <v>179</v>
       </c>
@@ -12897,7 +13062,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="7"/>
-      <c r="B123" s="20"/>
+      <c r="B123" s="22"/>
       <c r="C123" s="7" t="s">
         <v>179</v>
       </c>
@@ -12917,7 +13082,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="7"/>
-      <c r="B124" s="20"/>
+      <c r="B124" s="22"/>
       <c r="C124" s="7" t="s">
         <v>179</v>
       </c>
@@ -12937,7 +13102,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="7"/>
-      <c r="B125" s="20"/>
+      <c r="B125" s="22"/>
       <c r="C125" s="7" t="s">
         <v>179</v>
       </c>
@@ -12957,7 +13122,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="7"/>
-      <c r="B126" s="20"/>
+      <c r="B126" s="22"/>
       <c r="C126" s="7" t="s">
         <v>179</v>
       </c>
@@ -12977,7 +13142,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="7"/>
-      <c r="B127" s="20"/>
+      <c r="B127" s="22"/>
       <c r="C127" s="7" t="s">
         <v>179</v>
       </c>
@@ -12997,7 +13162,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="7"/>
-      <c r="B128" s="20"/>
+      <c r="B128" s="22"/>
       <c r="C128" s="7" t="s">
         <v>179</v>
       </c>
@@ -13019,7 +13184,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="7"/>
-      <c r="B129" s="20"/>
+      <c r="B129" s="22"/>
       <c r="C129" s="7" t="s">
         <v>179</v>
       </c>
@@ -13039,7 +13204,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="7"/>
-      <c r="B130" s="20"/>
+      <c r="B130" s="22"/>
       <c r="C130" s="7" t="s">
         <v>179</v>
       </c>
@@ -13061,7 +13226,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="7"/>
-      <c r="B131" s="20"/>
+      <c r="B131" s="22"/>
       <c r="C131" s="7" t="s">
         <v>179</v>
       </c>
@@ -13083,7 +13248,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="7"/>
-      <c r="B132" s="20"/>
+      <c r="B132" s="22"/>
       <c r="C132" s="7" t="s">
         <v>179</v>
       </c>
@@ -13105,7 +13270,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="7"/>
-      <c r="B133" s="20"/>
+      <c r="B133" s="22"/>
       <c r="C133" s="7" t="s">
         <v>179</v>
       </c>
@@ -13127,7 +13292,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="7"/>
-      <c r="B134" s="20"/>
+      <c r="B134" s="22"/>
       <c r="C134" s="7" t="s">
         <v>179</v>
       </c>
@@ -13149,7 +13314,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="7"/>
-      <c r="B135" s="20"/>
+      <c r="B135" s="22"/>
       <c r="C135" s="7" t="s">
         <v>179</v>
       </c>
@@ -13171,7 +13336,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="7"/>
-      <c r="B136" s="20"/>
+      <c r="B136" s="22"/>
       <c r="C136" s="7" t="s">
         <v>179</v>
       </c>
@@ -13193,7 +13358,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="7"/>
-      <c r="B137" s="20"/>
+      <c r="B137" s="22"/>
       <c r="C137" s="7" t="s">
         <v>179</v>
       </c>
@@ -13215,7 +13380,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="7"/>
-      <c r="B138" s="20"/>
+      <c r="B138" s="22"/>
       <c r="C138" s="7" t="s">
         <v>179</v>
       </c>
@@ -13237,7 +13402,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="7"/>
-      <c r="B139" s="20"/>
+      <c r="B139" s="22"/>
       <c r="C139" s="7" t="s">
         <v>179</v>
       </c>
@@ -13259,7 +13424,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="7"/>
-      <c r="B140" s="20"/>
+      <c r="B140" s="22"/>
       <c r="C140" s="7" t="s">
         <v>179</v>
       </c>
@@ -13281,7 +13446,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="7"/>
-      <c r="B141" s="20"/>
+      <c r="B141" s="22"/>
       <c r="C141" s="7" t="s">
         <v>179</v>
       </c>
@@ -13301,7 +13466,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="7"/>
-      <c r="B142" s="20"/>
+      <c r="B142" s="22"/>
       <c r="C142" s="7" t="s">
         <v>179</v>
       </c>
@@ -13321,7 +13486,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="7"/>
-      <c r="B143" s="20"/>
+      <c r="B143" s="22"/>
       <c r="C143" s="7" t="s">
         <v>179</v>
       </c>
@@ -13341,7 +13506,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="7"/>
-      <c r="B144" s="20"/>
+      <c r="B144" s="22"/>
       <c r="C144" s="7" t="s">
         <v>179</v>
       </c>
@@ -13361,7 +13526,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="7"/>
-      <c r="B145" s="20"/>
+      <c r="B145" s="22"/>
       <c r="C145" s="7" t="s">
         <v>179</v>
       </c>
@@ -13381,7 +13546,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="7"/>
-      <c r="B146" s="20"/>
+      <c r="B146" s="22"/>
       <c r="C146" s="7" t="s">
         <v>179</v>
       </c>
@@ -13401,7 +13566,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="7"/>
-      <c r="B147" s="20"/>
+      <c r="B147" s="22"/>
       <c r="C147" s="7" t="s">
         <v>179</v>
       </c>
@@ -13421,7 +13586,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="7"/>
-      <c r="B148" s="20"/>
+      <c r="B148" s="22"/>
       <c r="C148" s="7" t="s">
         <v>179</v>
       </c>
@@ -13441,7 +13606,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="7"/>
-      <c r="B149" s="20" t="s">
+      <c r="B149" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C149" s="7" t="s">
@@ -13463,7 +13628,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="7"/>
-      <c r="B150" s="20"/>
+      <c r="B150" s="22"/>
       <c r="C150" s="7" t="s">
         <v>272</v>
       </c>
@@ -13483,7 +13648,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="7"/>
-      <c r="B151" s="20"/>
+      <c r="B151" s="22"/>
       <c r="C151" s="7" t="s">
         <v>272</v>
       </c>
@@ -13503,7 +13668,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="7"/>
-      <c r="B152" s="20"/>
+      <c r="B152" s="22"/>
       <c r="C152" s="7" t="s">
         <v>272</v>
       </c>
@@ -13523,7 +13688,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="7"/>
-      <c r="B153" s="20" t="s">
+      <c r="B153" s="22" t="s">
         <v>563</v>
       </c>
       <c r="C153" s="7" t="s">
@@ -13545,7 +13710,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="7"/>
-      <c r="B154" s="20"/>
+      <c r="B154" s="22"/>
       <c r="C154" s="7" t="s">
         <v>280</v>
       </c>
@@ -13565,7 +13730,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="7"/>
-      <c r="B155" s="20"/>
+      <c r="B155" s="22"/>
       <c r="C155" s="7" t="s">
         <v>280</v>
       </c>
@@ -13585,7 +13750,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="7"/>
-      <c r="B156" s="20"/>
+      <c r="B156" s="22"/>
       <c r="C156" s="7" t="s">
         <v>280</v>
       </c>
@@ -13605,7 +13770,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="7"/>
-      <c r="B157" s="20"/>
+      <c r="B157" s="22"/>
       <c r="C157" s="7" t="s">
         <v>280</v>
       </c>
@@ -13625,7 +13790,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="7"/>
-      <c r="B158" s="20"/>
+      <c r="B158" s="22"/>
       <c r="C158" s="7" t="s">
         <v>280</v>
       </c>
@@ -13645,7 +13810,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="7"/>
-      <c r="B159" s="20"/>
+      <c r="B159" s="22"/>
       <c r="C159" s="7" t="s">
         <v>280</v>
       </c>
@@ -13665,7 +13830,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="7"/>
-      <c r="B160" s="20"/>
+      <c r="B160" s="22"/>
       <c r="C160" s="7" t="s">
         <v>280</v>
       </c>
@@ -13685,7 +13850,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="7"/>
-      <c r="B161" s="20"/>
+      <c r="B161" s="22"/>
       <c r="C161" s="7" t="s">
         <v>280</v>
       </c>
@@ -13705,7 +13870,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="7"/>
-      <c r="B162" s="20"/>
+      <c r="B162" s="22"/>
       <c r="C162" s="7" t="s">
         <v>280</v>
       </c>
@@ -13725,7 +13890,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="7"/>
-      <c r="B163" s="20"/>
+      <c r="B163" s="22"/>
       <c r="C163" s="7" t="s">
         <v>280</v>
       </c>
@@ -13745,7 +13910,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="7"/>
-      <c r="B164" s="20"/>
+      <c r="B164" s="22"/>
       <c r="C164" s="7" t="s">
         <v>280</v>
       </c>
@@ -13765,7 +13930,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="7"/>
-      <c r="B165" s="20"/>
+      <c r="B165" s="22"/>
       <c r="C165" s="7" t="s">
         <v>280</v>
       </c>
@@ -13785,7 +13950,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="7"/>
-      <c r="B166" s="20"/>
+      <c r="B166" s="22"/>
       <c r="C166" s="7" t="s">
         <v>280</v>
       </c>
@@ -13805,7 +13970,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="7"/>
-      <c r="B167" s="20"/>
+      <c r="B167" s="22"/>
       <c r="C167" s="7" t="s">
         <v>280</v>
       </c>
@@ -13825,7 +13990,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="7"/>
-      <c r="B168" s="20"/>
+      <c r="B168" s="22"/>
       <c r="C168" s="7" t="s">
         <v>280</v>
       </c>
@@ -13845,7 +14010,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="7"/>
-      <c r="B169" s="20"/>
+      <c r="B169" s="22"/>
       <c r="C169" s="7" t="s">
         <v>280</v>
       </c>
@@ -13865,7 +14030,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="7"/>
-      <c r="B170" s="20"/>
+      <c r="B170" s="22"/>
       <c r="C170" s="7" t="s">
         <v>280</v>
       </c>
@@ -13885,7 +14050,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="7"/>
-      <c r="B171" s="20"/>
+      <c r="B171" s="22"/>
       <c r="C171" s="7" t="s">
         <v>280</v>
       </c>
@@ -13905,7 +14070,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="7"/>
-      <c r="B172" s="20"/>
+      <c r="B172" s="22"/>
       <c r="C172" s="7" t="s">
         <v>280</v>
       </c>
@@ -13925,7 +14090,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="7"/>
-      <c r="B173" s="20"/>
+      <c r="B173" s="22"/>
       <c r="C173" s="7" t="s">
         <v>280</v>
       </c>
@@ -13945,7 +14110,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="7"/>
-      <c r="B174" s="20"/>
+      <c r="B174" s="22"/>
       <c r="C174" s="7" t="s">
         <v>564</v>
       </c>
@@ -13965,7 +14130,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="7"/>
-      <c r="B175" s="20"/>
+      <c r="B175" s="22"/>
       <c r="C175" s="7" t="s">
         <v>280</v>
       </c>
@@ -13985,7 +14150,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="7"/>
-      <c r="B176" s="20"/>
+      <c r="B176" s="22"/>
       <c r="C176" s="7" t="s">
         <v>280</v>
       </c>
@@ -14005,7 +14170,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="7"/>
-      <c r="B177" s="20"/>
+      <c r="B177" s="22"/>
       <c r="C177" s="7" t="s">
         <v>280</v>
       </c>
@@ -14025,7 +14190,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="7"/>
-      <c r="B178" s="20"/>
+      <c r="B178" s="22"/>
       <c r="C178" s="7" t="s">
         <v>280</v>
       </c>
@@ -14045,7 +14210,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="7"/>
-      <c r="B179" s="20"/>
+      <c r="B179" s="22"/>
       <c r="C179" s="7" t="s">
         <v>280</v>
       </c>
@@ -14065,7 +14230,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="7"/>
-      <c r="B180" s="20"/>
+      <c r="B180" s="22"/>
       <c r="C180" s="7" t="s">
         <v>280</v>
       </c>
@@ -14085,7 +14250,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="7"/>
-      <c r="B181" s="20"/>
+      <c r="B181" s="22"/>
       <c r="C181" s="7" t="s">
         <v>280</v>
       </c>
@@ -14105,7 +14270,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="7"/>
-      <c r="B182" s="20"/>
+      <c r="B182" s="22"/>
       <c r="C182" s="7" t="s">
         <v>280</v>
       </c>
@@ -14125,7 +14290,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="7"/>
-      <c r="B183" s="20"/>
+      <c r="B183" s="22"/>
       <c r="C183" s="7" t="s">
         <v>280</v>
       </c>
@@ -14145,7 +14310,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="7"/>
-      <c r="B184" s="20"/>
+      <c r="B184" s="22"/>
       <c r="C184" s="7" t="s">
         <v>280</v>
       </c>
@@ -14165,7 +14330,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="7"/>
-      <c r="B185" s="20"/>
+      <c r="B185" s="22"/>
       <c r="C185" s="7" t="s">
         <v>280</v>
       </c>
@@ -14185,7 +14350,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="7"/>
-      <c r="B186" s="20"/>
+      <c r="B186" s="22"/>
       <c r="C186" s="7" t="s">
         <v>280</v>
       </c>
@@ -14205,7 +14370,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="7"/>
-      <c r="B187" s="20"/>
+      <c r="B187" s="22"/>
       <c r="C187" s="7" t="s">
         <v>280</v>
       </c>
@@ -14225,7 +14390,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="7"/>
-      <c r="B188" s="20"/>
+      <c r="B188" s="22"/>
       <c r="C188" s="7" t="s">
         <v>280</v>
       </c>
@@ -14245,7 +14410,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="7"/>
-      <c r="B189" s="20"/>
+      <c r="B189" s="22"/>
       <c r="C189" s="7" t="s">
         <v>280</v>
       </c>
@@ -14265,7 +14430,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="7"/>
-      <c r="B190" s="20"/>
+      <c r="B190" s="22"/>
       <c r="C190" s="7" t="s">
         <v>280</v>
       </c>
@@ -14285,7 +14450,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="7"/>
-      <c r="B191" s="20"/>
+      <c r="B191" s="22"/>
       <c r="C191" s="7" t="s">
         <v>280</v>
       </c>
@@ -14305,7 +14470,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="7"/>
-      <c r="B192" s="20"/>
+      <c r="B192" s="22"/>
       <c r="C192" s="7" t="s">
         <v>280</v>
       </c>
@@ -14325,7 +14490,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="7"/>
-      <c r="B193" s="20"/>
+      <c r="B193" s="22"/>
       <c r="C193" s="7" t="s">
         <v>280</v>
       </c>
@@ -14345,7 +14510,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="7"/>
-      <c r="B194" s="20"/>
+      <c r="B194" s="22"/>
       <c r="C194" s="7" t="s">
         <v>280</v>
       </c>
@@ -14365,7 +14530,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="7"/>
-      <c r="B195" s="20"/>
+      <c r="B195" s="22"/>
       <c r="C195" s="7" t="s">
         <v>280</v>
       </c>
@@ -14385,7 +14550,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="7"/>
-      <c r="B196" s="20"/>
+      <c r="B196" s="22"/>
       <c r="C196" s="7" t="s">
         <v>280</v>
       </c>
@@ -14405,7 +14570,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="7"/>
-      <c r="B197" s="20"/>
+      <c r="B197" s="22"/>
       <c r="C197" s="7" t="s">
         <v>280</v>
       </c>
@@ -14425,7 +14590,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="7"/>
-      <c r="B198" s="20"/>
+      <c r="B198" s="22"/>
       <c r="C198" s="7" t="s">
         <v>280</v>
       </c>
@@ -14445,7 +14610,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="7"/>
-      <c r="B199" s="20"/>
+      <c r="B199" s="22"/>
       <c r="C199" s="7" t="s">
         <v>280</v>
       </c>
@@ -14465,7 +14630,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="7"/>
-      <c r="B200" s="20"/>
+      <c r="B200" s="22"/>
       <c r="C200" s="7" t="s">
         <v>280</v>
       </c>
@@ -14485,7 +14650,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="7"/>
-      <c r="B201" s="20"/>
+      <c r="B201" s="22"/>
       <c r="C201" s="7" t="s">
         <v>280</v>
       </c>
@@ -14505,7 +14670,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="7"/>
-      <c r="B202" s="20"/>
+      <c r="B202" s="22"/>
       <c r="C202" s="7" t="s">
         <v>280</v>
       </c>
@@ -14525,7 +14690,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="7"/>
-      <c r="B203" s="20"/>
+      <c r="B203" s="22"/>
       <c r="C203" s="7" t="s">
         <v>280</v>
       </c>
@@ -14545,7 +14710,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="7"/>
-      <c r="B204" s="20"/>
+      <c r="B204" s="22"/>
       <c r="C204" s="7" t="s">
         <v>280</v>
       </c>
@@ -14565,7 +14730,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="7"/>
-      <c r="B205" s="20"/>
+      <c r="B205" s="22"/>
       <c r="C205" s="7" t="s">
         <v>280</v>
       </c>
@@ -14585,7 +14750,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="7"/>
-      <c r="B206" s="20"/>
+      <c r="B206" s="22"/>
       <c r="C206" s="7" t="s">
         <v>280</v>
       </c>
@@ -14605,7 +14770,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="7"/>
-      <c r="B207" s="20"/>
+      <c r="B207" s="22"/>
       <c r="C207" s="7" t="s">
         <v>280</v>
       </c>
@@ -14625,7 +14790,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="7"/>
-      <c r="B208" s="20"/>
+      <c r="B208" s="22"/>
       <c r="C208" s="7" t="s">
         <v>280</v>
       </c>
@@ -14645,7 +14810,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="7"/>
-      <c r="B209" s="20"/>
+      <c r="B209" s="22"/>
       <c r="C209" s="7" t="s">
         <v>280</v>
       </c>
@@ -14665,7 +14830,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="7"/>
-      <c r="B210" s="20"/>
+      <c r="B210" s="22"/>
       <c r="C210" s="7" t="s">
         <v>280</v>
       </c>
@@ -14685,7 +14850,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="7"/>
-      <c r="B211" s="20"/>
+      <c r="B211" s="22"/>
       <c r="C211" s="7" t="s">
         <v>280</v>
       </c>
@@ -14705,7 +14870,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="7"/>
-      <c r="B212" s="20"/>
+      <c r="B212" s="22"/>
       <c r="C212" s="7" t="s">
         <v>280</v>
       </c>
@@ -14725,7 +14890,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="7"/>
-      <c r="B213" s="20"/>
+      <c r="B213" s="22"/>
       <c r="C213" s="7" t="s">
         <v>280</v>
       </c>
@@ -14745,7 +14910,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="7"/>
-      <c r="B214" s="20"/>
+      <c r="B214" s="22"/>
       <c r="C214" s="7" t="s">
         <v>280</v>
       </c>
@@ -14765,7 +14930,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="7"/>
-      <c r="B215" s="20"/>
+      <c r="B215" s="22"/>
       <c r="C215" s="7" t="s">
         <v>280</v>
       </c>
@@ -14785,7 +14950,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="7"/>
-      <c r="B216" s="20"/>
+      <c r="B216" s="22"/>
       <c r="C216" s="7" t="s">
         <v>280</v>
       </c>
@@ -14805,7 +14970,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="7"/>
-      <c r="B217" s="20"/>
+      <c r="B217" s="22"/>
       <c r="C217" s="7" t="s">
         <v>280</v>
       </c>
@@ -14825,7 +14990,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="7"/>
-      <c r="B218" s="20"/>
+      <c r="B218" s="22"/>
       <c r="C218" s="7" t="s">
         <v>280</v>
       </c>
@@ -14845,7 +15010,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="7"/>
-      <c r="B219" s="20"/>
+      <c r="B219" s="22"/>
       <c r="C219" s="7" t="s">
         <v>280</v>
       </c>
@@ -14865,7 +15030,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="7"/>
-      <c r="B220" s="20"/>
+      <c r="B220" s="22"/>
       <c r="C220" s="7" t="s">
         <v>280</v>
       </c>
@@ -15027,7 +15192,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="7"/>
-      <c r="B228" s="20" t="s">
+      <c r="B228" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C228" s="7" t="s">
@@ -15049,7 +15214,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="7"/>
-      <c r="B229" s="20"/>
+      <c r="B229" s="22"/>
       <c r="C229" s="7" t="s">
         <v>430</v>
       </c>
@@ -15069,7 +15234,7 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="7"/>
-      <c r="B230" s="20"/>
+      <c r="B230" s="22"/>
       <c r="C230" s="7" t="s">
         <v>430</v>
       </c>
@@ -15089,7 +15254,7 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="7"/>
-      <c r="B231" s="20"/>
+      <c r="B231" s="22"/>
       <c r="C231" s="7" t="s">
         <v>430</v>
       </c>
@@ -15109,7 +15274,7 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="7"/>
-      <c r="B232" s="20"/>
+      <c r="B232" s="22"/>
       <c r="C232" s="7" t="s">
         <v>430</v>
       </c>
@@ -15129,7 +15294,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="7"/>
-      <c r="B233" s="20"/>
+      <c r="B233" s="22"/>
       <c r="C233" s="7" t="s">
         <v>430</v>
       </c>
@@ -15149,7 +15314,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="7"/>
-      <c r="B234" s="20"/>
+      <c r="B234" s="22"/>
       <c r="C234" s="7" t="s">
         <v>430</v>
       </c>
@@ -15169,7 +15334,7 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="7"/>
-      <c r="B235" s="20"/>
+      <c r="B235" s="22"/>
       <c r="C235" s="7" t="s">
         <v>430</v>
       </c>
@@ -15189,7 +15354,7 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="7"/>
-      <c r="B236" s="20"/>
+      <c r="B236" s="22"/>
       <c r="C236" s="7" t="s">
         <v>566</v>
       </c>
@@ -15209,7 +15374,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="7"/>
-      <c r="B237" s="20"/>
+      <c r="B237" s="22"/>
       <c r="C237" s="7" t="s">
         <v>430</v>
       </c>
@@ -15229,7 +15394,7 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="7"/>
-      <c r="B238" s="20"/>
+      <c r="B238" s="22"/>
       <c r="C238" s="7" t="s">
         <v>430</v>
       </c>
@@ -15249,7 +15414,7 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="7"/>
-      <c r="B239" s="20"/>
+      <c r="B239" s="22"/>
       <c r="C239" s="7" t="s">
         <v>430</v>
       </c>
@@ -15269,7 +15434,7 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="7"/>
-      <c r="B240" s="20"/>
+      <c r="B240" s="22"/>
       <c r="C240" s="7" t="s">
         <v>430</v>
       </c>
@@ -15289,7 +15454,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="7"/>
-      <c r="B241" s="20"/>
+      <c r="B241" s="22"/>
       <c r="C241" s="7" t="s">
         <v>430</v>
       </c>
@@ -15309,7 +15474,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="7"/>
-      <c r="B242" s="20"/>
+      <c r="B242" s="22"/>
       <c r="C242" s="7" t="s">
         <v>430</v>
       </c>
@@ -15329,7 +15494,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="7"/>
-      <c r="B243" s="20"/>
+      <c r="B243" s="22"/>
       <c r="C243" s="7" t="s">
         <v>430</v>
       </c>
@@ -15349,7 +15514,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="7"/>
-      <c r="B244" s="20"/>
+      <c r="B244" s="22"/>
       <c r="C244" s="7" t="s">
         <v>430</v>
       </c>
@@ -15369,7 +15534,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="7"/>
-      <c r="B245" s="20"/>
+      <c r="B245" s="22"/>
       <c r="C245" s="7" t="s">
         <v>430</v>
       </c>
@@ -15389,7 +15554,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="7"/>
-      <c r="B246" s="20"/>
+      <c r="B246" s="22"/>
       <c r="C246" s="7" t="s">
         <v>430</v>
       </c>
@@ -15409,7 +15574,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="7"/>
-      <c r="B247" s="20"/>
+      <c r="B247" s="22"/>
       <c r="C247" s="7" t="s">
         <v>430</v>
       </c>
@@ -15429,7 +15594,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="7"/>
-      <c r="B248" s="20"/>
+      <c r="B248" s="22"/>
       <c r="C248" s="7" t="s">
         <v>430</v>
       </c>
@@ -15449,7 +15614,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="7"/>
-      <c r="B249" s="20"/>
+      <c r="B249" s="22"/>
       <c r="C249" s="7" t="s">
         <v>430</v>
       </c>
@@ -15469,7 +15634,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="7"/>
-      <c r="B250" s="20"/>
+      <c r="B250" s="22"/>
       <c r="C250" s="7" t="s">
         <v>430</v>
       </c>
@@ -15489,7 +15654,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="7"/>
-      <c r="B251" s="20"/>
+      <c r="B251" s="22"/>
       <c r="C251" s="7" t="s">
         <v>430</v>
       </c>
@@ -15509,7 +15674,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="7"/>
-      <c r="B252" s="20"/>
+      <c r="B252" s="22"/>
       <c r="C252" s="7" t="s">
         <v>430</v>
       </c>
@@ -15529,7 +15694,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="7"/>
-      <c r="B253" s="20"/>
+      <c r="B253" s="22"/>
       <c r="C253" s="7" t="s">
         <v>430</v>
       </c>
@@ -15549,7 +15714,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="7"/>
-      <c r="B254" s="20"/>
+      <c r="B254" s="22"/>
       <c r="C254" s="7" t="s">
         <v>430</v>
       </c>
@@ -15569,7 +15734,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="7"/>
-      <c r="B255" s="20"/>
+      <c r="B255" s="22"/>
       <c r="C255" s="7" t="s">
         <v>430</v>
       </c>
@@ -15589,7 +15754,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="7"/>
-      <c r="B256" s="20"/>
+      <c r="B256" s="22"/>
       <c r="C256" s="7" t="s">
         <v>430</v>
       </c>
@@ -15609,7 +15774,7 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="7"/>
-      <c r="B257" s="20"/>
+      <c r="B257" s="22"/>
       <c r="C257" s="7" t="s">
         <v>430</v>
       </c>
@@ -15629,7 +15794,7 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="7"/>
-      <c r="B258" s="20"/>
+      <c r="B258" s="22"/>
       <c r="C258" s="7" t="s">
         <v>430</v>
       </c>
@@ -15649,7 +15814,7 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="7"/>
-      <c r="B259" s="20"/>
+      <c r="B259" s="22"/>
       <c r="C259" s="7" t="s">
         <v>430</v>
       </c>
@@ -15769,7 +15934,7 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="7"/>
-      <c r="B265" s="20" t="s">
+      <c r="B265" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C265" s="7" t="s">
@@ -15790,7 +15955,7 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="7"/>
-      <c r="B266" s="20"/>
+      <c r="B266" s="22"/>
       <c r="C266" s="7" t="s">
         <v>504</v>
       </c>
@@ -15809,7 +15974,7 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="7"/>
-      <c r="B267" s="20"/>
+      <c r="B267" s="22"/>
       <c r="C267" s="7" t="s">
         <v>504</v>
       </c>
@@ -15828,7 +15993,7 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="7"/>
-      <c r="B268" s="20"/>
+      <c r="B268" s="22"/>
       <c r="C268" s="7" t="s">
         <v>504</v>
       </c>
@@ -15847,7 +16012,7 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="7"/>
-      <c r="B269" s="20"/>
+      <c r="B269" s="22"/>
       <c r="C269" s="7" t="s">
         <v>504</v>
       </c>
@@ -15866,7 +16031,7 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="7"/>
-      <c r="B270" s="20" t="s">
+      <c r="B270" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C270" s="7" t="s">
@@ -15887,7 +16052,7 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="7"/>
-      <c r="B271" s="20"/>
+      <c r="B271" s="22"/>
       <c r="C271" s="7" t="s">
         <v>513</v>
       </c>
@@ -15906,7 +16071,7 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="7"/>
-      <c r="B272" s="20"/>
+      <c r="B272" s="22"/>
       <c r="C272" s="7" t="s">
         <v>513</v>
       </c>
@@ -15925,7 +16090,7 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="7"/>
-      <c r="B273" s="20"/>
+      <c r="B273" s="22"/>
       <c r="C273" s="7" t="s">
         <v>513</v>
       </c>
@@ -15944,7 +16109,7 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="7"/>
-      <c r="B274" s="20"/>
+      <c r="B274" s="22"/>
       <c r="C274" s="7" t="s">
         <v>513</v>
       </c>
@@ -15963,7 +16128,7 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="7"/>
-      <c r="B275" s="20"/>
+      <c r="B275" s="22"/>
       <c r="C275" s="7" t="s">
         <v>513</v>
       </c>
@@ -15982,7 +16147,7 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="7"/>
-      <c r="B276" s="20" t="s">
+      <c r="B276" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C276" s="7" t="s">
@@ -16003,7 +16168,7 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="7"/>
-      <c r="B277" s="20"/>
+      <c r="B277" s="22"/>
       <c r="C277" s="7" t="s">
         <v>526</v>
       </c>
@@ -16022,7 +16187,7 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="7"/>
-      <c r="B278" s="20"/>
+      <c r="B278" s="22"/>
       <c r="C278" s="7" t="s">
         <v>526</v>
       </c>
@@ -16041,7 +16206,7 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="7"/>
-      <c r="B279" s="20"/>
+      <c r="B279" s="22"/>
       <c r="C279" s="7" t="s">
         <v>526</v>
       </c>
@@ -16060,7 +16225,7 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="7"/>
-      <c r="B280" s="20"/>
+      <c r="B280" s="22"/>
       <c r="C280" s="7" t="s">
         <v>526</v>
       </c>
@@ -16694,6 +16859,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B149:B152"/>
+    <mergeCell ref="B2:B44"/>
+    <mergeCell ref="B45:B51"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="B52:B76"/>
+    <mergeCell ref="B104:B148"/>
+    <mergeCell ref="B77:B99"/>
     <mergeCell ref="B276:B280"/>
     <mergeCell ref="B153:B220"/>
     <mergeCell ref="B221:B227"/>
@@ -16701,13 +16873,6 @@
     <mergeCell ref="B260:B264"/>
     <mergeCell ref="B265:B269"/>
     <mergeCell ref="B270:B275"/>
-    <mergeCell ref="B149:B152"/>
-    <mergeCell ref="B2:B44"/>
-    <mergeCell ref="B45:B51"/>
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="B52:B76"/>
-    <mergeCell ref="B104:B148"/>
-    <mergeCell ref="B77:B99"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16762,7 +16927,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>567</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -16784,7 +16949,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
-      <c r="B3" s="20"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="10" t="s">
         <v>568</v>
       </c>
@@ -16804,7 +16969,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
-      <c r="B4" s="20"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="10" t="s">
         <v>568</v>
       </c>
@@ -16824,7 +16989,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
-      <c r="B5" s="20"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="10" t="s">
         <v>568</v>
       </c>
@@ -16844,7 +17009,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
-      <c r="B6" s="20"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="10" t="s">
         <v>568</v>
       </c>
@@ -16864,7 +17029,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
-      <c r="B7" s="20"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="10" t="s">
         <v>568</v>
       </c>
@@ -16884,7 +17049,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
-      <c r="B8" s="20"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="10" t="s">
         <v>568</v>
       </c>
@@ -16904,7 +17069,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
-      <c r="B9" s="20"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="10" t="s">
         <v>568</v>
       </c>
@@ -17215,7 +17380,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="22" t="s">
         <v>567</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -17236,7 +17401,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
-      <c r="B25" s="20"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="10" t="s">
         <v>615</v>
       </c>
@@ -17255,7 +17420,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
-      <c r="B26" s="20"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="10" t="s">
         <v>615</v>
       </c>
@@ -17274,7 +17439,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
-      <c r="B27" s="20"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="10" t="s">
         <v>615</v>
       </c>
@@ -17293,7 +17458,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
-      <c r="B28" s="20"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="10" t="s">
         <v>1035</v>
       </c>
@@ -17312,7 +17477,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
-      <c r="B29" s="20"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="10" t="s">
         <v>615</v>
       </c>
@@ -17331,7 +17496,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
-      <c r="B30" s="20"/>
+      <c r="B30" s="22"/>
       <c r="C30" s="10" t="s">
         <v>615</v>
       </c>
@@ -17350,7 +17515,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="22" t="s">
         <v>1036</v>
       </c>
       <c r="C31" s="10" t="s">
@@ -17371,7 +17536,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
-      <c r="B32" s="20"/>
+      <c r="B32" s="22"/>
       <c r="C32" s="10" t="s">
         <v>630</v>
       </c>
@@ -17390,7 +17555,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
-      <c r="B33" s="20"/>
+      <c r="B33" s="22"/>
       <c r="C33" s="10" t="s">
         <v>630</v>
       </c>
@@ -17409,7 +17574,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
-      <c r="B34" s="20"/>
+      <c r="B34" s="22"/>
       <c r="C34" s="10" t="s">
         <v>1037</v>
       </c>
@@ -17428,7 +17593,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
-      <c r="B35" s="20"/>
+      <c r="B35" s="22"/>
       <c r="C35" s="10" t="s">
         <v>630</v>
       </c>
@@ -17447,7 +17612,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
-      <c r="B36" s="20"/>
+      <c r="B36" s="22"/>
       <c r="C36" s="10" t="s">
         <v>630</v>
       </c>
@@ -17466,7 +17631,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
-      <c r="B37" s="20"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="10" t="s">
         <v>630</v>
       </c>
@@ -17485,7 +17650,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="22" t="s">
         <v>567</v>
       </c>
       <c r="C38" s="10" t="s">
@@ -17506,7 +17671,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
-      <c r="B39" s="20"/>
+      <c r="B39" s="22"/>
       <c r="C39" s="10" t="s">
         <v>645</v>
       </c>
@@ -17525,7 +17690,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
-      <c r="B40" s="20"/>
+      <c r="B40" s="22"/>
       <c r="C40" s="10" t="s">
         <v>645</v>
       </c>
@@ -17544,7 +17709,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
-      <c r="B41" s="20"/>
+      <c r="B41" s="22"/>
       <c r="C41" s="10" t="s">
         <v>645</v>
       </c>
@@ -17563,7 +17728,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="22" t="s">
         <v>567</v>
       </c>
       <c r="C42" s="10" t="s">
@@ -17584,7 +17749,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
-      <c r="B43" s="20"/>
+      <c r="B43" s="22"/>
       <c r="C43" s="10" t="s">
         <v>654</v>
       </c>
@@ -17603,7 +17768,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
-      <c r="B44" s="20"/>
+      <c r="B44" s="22"/>
       <c r="C44" s="10" t="s">
         <v>654</v>
       </c>
@@ -17622,7 +17787,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
-      <c r="B45" s="20"/>
+      <c r="B45" s="22"/>
       <c r="C45" s="10" t="s">
         <v>1038</v>
       </c>
@@ -17641,7 +17806,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
-      <c r="B46" s="20"/>
+      <c r="B46" s="22"/>
       <c r="C46" s="10" t="s">
         <v>654</v>
       </c>
@@ -17660,7 +17825,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
-      <c r="B47" s="20"/>
+      <c r="B47" s="22"/>
       <c r="C47" s="10" t="s">
         <v>654</v>
       </c>
@@ -17679,7 +17844,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
-      <c r="B48" s="20"/>
+      <c r="B48" s="22"/>
       <c r="C48" s="10" t="s">
         <v>654</v>
       </c>
@@ -17698,7 +17863,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
-      <c r="B49" s="20"/>
+      <c r="B49" s="22"/>
       <c r="C49" s="10" t="s">
         <v>654</v>
       </c>
@@ -17717,7 +17882,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
-      <c r="B50" s="20"/>
+      <c r="B50" s="22"/>
       <c r="C50" s="10" t="s">
         <v>654</v>
       </c>
@@ -17736,7 +17901,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
-      <c r="B51" s="20"/>
+      <c r="B51" s="22"/>
       <c r="C51" s="10" t="s">
         <v>654</v>
       </c>
@@ -17755,7 +17920,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
-      <c r="B52" s="20"/>
+      <c r="B52" s="22"/>
       <c r="C52" s="10" t="s">
         <v>654</v>
       </c>
@@ -17774,7 +17939,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="22" t="s">
         <v>567</v>
       </c>
       <c r="C53" s="10" t="s">
@@ -17795,7 +17960,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
-      <c r="B54" s="20"/>
+      <c r="B54" s="22"/>
       <c r="C54" s="10" t="s">
         <v>676</v>
       </c>
@@ -17814,7 +17979,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
-      <c r="B55" s="20"/>
+      <c r="B55" s="22"/>
       <c r="C55" s="10" t="s">
         <v>1039</v>
       </c>
@@ -17833,7 +17998,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
-      <c r="B56" s="20"/>
+      <c r="B56" s="22"/>
       <c r="C56" s="10" t="s">
         <v>676</v>
       </c>
@@ -17852,7 +18017,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="22" t="s">
         <v>567</v>
       </c>
       <c r="C57" s="10" t="s">
@@ -17873,7 +18038,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
-      <c r="B58" s="20"/>
+      <c r="B58" s="22"/>
       <c r="C58" s="10" t="s">
         <v>684</v>
       </c>
@@ -17892,7 +18057,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
-      <c r="B59" s="20"/>
+      <c r="B59" s="22"/>
       <c r="C59" s="10" t="s">
         <v>684</v>
       </c>
@@ -17911,7 +18076,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
-      <c r="B60" s="20"/>
+      <c r="B60" s="22"/>
       <c r="C60" s="10" t="s">
         <v>684</v>
       </c>
@@ -17930,7 +18095,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="10"/>
-      <c r="B61" s="20"/>
+      <c r="B61" s="22"/>
       <c r="C61" s="10" t="s">
         <v>684</v>
       </c>
@@ -17949,7 +18114,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="10"/>
-      <c r="B62" s="20"/>
+      <c r="B62" s="22"/>
       <c r="C62" s="10" t="s">
         <v>684</v>
       </c>
@@ -17968,7 +18133,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
-      <c r="B63" s="20"/>
+      <c r="B63" s="22"/>
       <c r="C63" s="10" t="s">
         <v>684</v>
       </c>
@@ -17987,7 +18152,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="10"/>
-      <c r="B64" s="20"/>
+      <c r="B64" s="22"/>
       <c r="C64" s="10" t="s">
         <v>684</v>
       </c>
@@ -18006,7 +18171,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="10"/>
-      <c r="B65" s="20"/>
+      <c r="B65" s="22"/>
       <c r="C65" s="10" t="s">
         <v>684</v>
       </c>
@@ -18025,7 +18190,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="10"/>
-      <c r="B66" s="20"/>
+      <c r="B66" s="22"/>
       <c r="C66" s="10" t="s">
         <v>684</v>
       </c>
@@ -18044,7 +18209,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="10"/>
-      <c r="B67" s="20"/>
+      <c r="B67" s="22"/>
       <c r="C67" s="10" t="s">
         <v>684</v>
       </c>
@@ -18063,7 +18228,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="10"/>
-      <c r="B68" s="20"/>
+      <c r="B68" s="22"/>
       <c r="C68" s="10" t="s">
         <v>684</v>
       </c>
@@ -18082,7 +18247,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
-      <c r="B69" s="20"/>
+      <c r="B69" s="22"/>
       <c r="C69" s="10" t="s">
         <v>1040</v>
       </c>
@@ -18101,7 +18266,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="10"/>
-      <c r="B70" s="20"/>
+      <c r="B70" s="22"/>
       <c r="C70" s="10" t="s">
         <v>684</v>
       </c>
@@ -18120,7 +18285,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="10"/>
-      <c r="B71" s="20"/>
+      <c r="B71" s="22"/>
       <c r="C71" s="10" t="s">
         <v>684</v>
       </c>
@@ -18139,7 +18304,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="10"/>
-      <c r="B72" s="20"/>
+      <c r="B72" s="22"/>
       <c r="C72" s="10" t="s">
         <v>684</v>
       </c>
@@ -18158,7 +18323,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="10"/>
-      <c r="B73" s="20"/>
+      <c r="B73" s="22"/>
       <c r="C73" s="10" t="s">
         <v>684</v>
       </c>
@@ -18177,7 +18342,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="10"/>
-      <c r="B74" s="20"/>
+      <c r="B74" s="22"/>
       <c r="C74" s="10" t="s">
         <v>684</v>
       </c>
@@ -18196,7 +18361,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="10"/>
-      <c r="B75" s="20"/>
+      <c r="B75" s="22"/>
       <c r="C75" s="10" t="s">
         <v>684</v>
       </c>
@@ -18215,7 +18380,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="10"/>
-      <c r="B76" s="20"/>
+      <c r="B76" s="22"/>
       <c r="C76" s="10" t="s">
         <v>684</v>
       </c>
@@ -18234,7 +18399,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="10"/>
-      <c r="B77" s="20"/>
+      <c r="B77" s="22"/>
       <c r="C77" s="10" t="s">
         <v>684</v>
       </c>
@@ -18253,7 +18418,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="10"/>
-      <c r="B78" s="20" t="s">
+      <c r="B78" s="22" t="s">
         <v>567</v>
       </c>
       <c r="C78" s="10" t="s">
@@ -18277,7 +18442,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="10"/>
-      <c r="B79" s="20"/>
+      <c r="B79" s="22"/>
       <c r="C79" s="10" t="s">
         <v>727</v>
       </c>
@@ -18299,7 +18464,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="10"/>
-      <c r="B80" s="20"/>
+      <c r="B80" s="22"/>
       <c r="C80" s="10" t="s">
         <v>727</v>
       </c>
@@ -18321,7 +18486,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="10"/>
-      <c r="B81" s="20"/>
+      <c r="B81" s="22"/>
       <c r="C81" s="10" t="s">
         <v>727</v>
       </c>
@@ -18343,7 +18508,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="10"/>
-      <c r="B82" s="20"/>
+      <c r="B82" s="22"/>
       <c r="C82" s="10" t="s">
         <v>727</v>
       </c>
@@ -18365,7 +18530,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="10"/>
-      <c r="B83" s="20"/>
+      <c r="B83" s="22"/>
       <c r="C83" s="10" t="s">
         <v>727</v>
       </c>
@@ -18387,7 +18552,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="10"/>
-      <c r="B84" s="20"/>
+      <c r="B84" s="22"/>
       <c r="C84" s="10" t="s">
         <v>1041</v>
       </c>
@@ -18409,7 +18574,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="10"/>
-      <c r="B85" s="20"/>
+      <c r="B85" s="22"/>
       <c r="C85" s="10" t="s">
         <v>727</v>
       </c>
@@ -18431,7 +18596,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="10"/>
-      <c r="B86" s="20"/>
+      <c r="B86" s="22"/>
       <c r="C86" s="10" t="s">
         <v>727</v>
       </c>
@@ -18453,7 +18618,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="10"/>
-      <c r="B87" s="20"/>
+      <c r="B87" s="22"/>
       <c r="C87" s="10" t="s">
         <v>727</v>
       </c>
@@ -18475,7 +18640,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="10"/>
-      <c r="B88" s="20"/>
+      <c r="B88" s="22"/>
       <c r="C88" s="10" t="s">
         <v>727</v>
       </c>
@@ -18497,7 +18662,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="10"/>
-      <c r="B89" s="20"/>
+      <c r="B89" s="22"/>
       <c r="C89" s="10" t="s">
         <v>727</v>
       </c>
@@ -18519,7 +18684,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="10"/>
-      <c r="B90" s="20"/>
+      <c r="B90" s="22"/>
       <c r="C90" s="10" t="s">
         <v>727</v>
       </c>
@@ -18541,7 +18706,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="10"/>
-      <c r="B91" s="20"/>
+      <c r="B91" s="22"/>
       <c r="C91" s="10" t="s">
         <v>727</v>
       </c>
@@ -18563,7 +18728,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="10"/>
-      <c r="B92" s="20"/>
+      <c r="B92" s="22"/>
       <c r="C92" s="10" t="s">
         <v>727</v>
       </c>
@@ -18585,7 +18750,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="10"/>
-      <c r="B93" s="20"/>
+      <c r="B93" s="22"/>
       <c r="C93" s="10" t="s">
         <v>727</v>
       </c>
@@ -18607,7 +18772,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="10"/>
-      <c r="B94" s="20"/>
+      <c r="B94" s="22"/>
       <c r="C94" s="10" t="s">
         <v>727</v>
       </c>
@@ -19629,7 +19794,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="10"/>
-      <c r="B146" s="20" t="s">
+      <c r="B146" s="22" t="s">
         <v>1036</v>
       </c>
       <c r="C146" s="10" t="s">
@@ -19651,7 +19816,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="10"/>
-      <c r="B147" s="20"/>
+      <c r="B147" s="22"/>
       <c r="C147" s="10" t="s">
         <v>853</v>
       </c>
@@ -19671,7 +19836,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="10"/>
-      <c r="B148" s="20"/>
+      <c r="B148" s="22"/>
       <c r="C148" s="10" t="s">
         <v>853</v>
       </c>
@@ -19691,7 +19856,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="10"/>
-      <c r="B149" s="20"/>
+      <c r="B149" s="22"/>
       <c r="C149" s="10" t="s">
         <v>853</v>
       </c>
@@ -19711,7 +19876,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="10"/>
-      <c r="B150" s="20"/>
+      <c r="B150" s="22"/>
       <c r="C150" s="10" t="s">
         <v>1045</v>
       </c>
@@ -19731,7 +19896,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="10"/>
-      <c r="B151" s="20"/>
+      <c r="B151" s="22"/>
       <c r="C151" s="10" t="s">
         <v>853</v>
       </c>
@@ -19751,7 +19916,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="10"/>
-      <c r="B152" s="20"/>
+      <c r="B152" s="22"/>
       <c r="C152" s="10" t="s">
         <v>853</v>
       </c>
@@ -19771,7 +19936,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="10"/>
-      <c r="B153" s="20"/>
+      <c r="B153" s="22"/>
       <c r="C153" s="10" t="s">
         <v>853</v>
       </c>
@@ -19791,7 +19956,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="10"/>
-      <c r="B154" s="20"/>
+      <c r="B154" s="22"/>
       <c r="C154" s="10" t="s">
         <v>853</v>
       </c>
@@ -19811,7 +19976,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="10"/>
-      <c r="B155" s="20"/>
+      <c r="B155" s="22"/>
       <c r="C155" s="10" t="s">
         <v>853</v>
       </c>
@@ -19831,7 +19996,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="10"/>
-      <c r="B156" s="20" t="s">
+      <c r="B156" s="22" t="s">
         <v>567</v>
       </c>
       <c r="C156" s="10" t="s">
@@ -19853,7 +20018,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="10"/>
-      <c r="B157" s="20"/>
+      <c r="B157" s="22"/>
       <c r="C157" s="10" t="s">
         <v>874</v>
       </c>
@@ -19873,7 +20038,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="10"/>
-      <c r="B158" s="20"/>
+      <c r="B158" s="22"/>
       <c r="C158" s="10" t="s">
         <v>874</v>
       </c>
@@ -19893,7 +20058,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="10"/>
-      <c r="B159" s="20"/>
+      <c r="B159" s="22"/>
       <c r="C159" s="10" t="s">
         <v>1046</v>
       </c>
@@ -19913,7 +20078,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="10"/>
-      <c r="B160" s="20"/>
+      <c r="B160" s="22"/>
       <c r="C160" s="10" t="s">
         <v>874</v>
       </c>
@@ -19933,7 +20098,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="10"/>
-      <c r="B161" s="20"/>
+      <c r="B161" s="22"/>
       <c r="C161" s="10" t="s">
         <v>874</v>
       </c>
@@ -19952,7 +20117,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="10"/>
-      <c r="B162" s="20"/>
+      <c r="B162" s="22"/>
       <c r="C162" s="10" t="s">
         <v>874</v>
       </c>
@@ -19971,7 +20136,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="10"/>
-      <c r="B163" s="20"/>
+      <c r="B163" s="22"/>
       <c r="C163" s="10" t="s">
         <v>874</v>
       </c>
@@ -19990,7 +20155,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="10"/>
-      <c r="B164" s="20"/>
+      <c r="B164" s="22"/>
       <c r="C164" s="10" t="s">
         <v>874</v>
       </c>
@@ -20009,7 +20174,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="10"/>
-      <c r="B165" s="20"/>
+      <c r="B165" s="22"/>
       <c r="C165" s="10" t="s">
         <v>874</v>
       </c>
@@ -20028,7 +20193,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="10"/>
-      <c r="B166" s="20"/>
+      <c r="B166" s="22"/>
       <c r="C166" s="10" t="s">
         <v>874</v>
       </c>
@@ -20047,7 +20212,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="10"/>
-      <c r="B167" s="20"/>
+      <c r="B167" s="22"/>
       <c r="C167" s="10" t="s">
         <v>874</v>
       </c>
@@ -20066,7 +20231,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="10"/>
-      <c r="B168" s="20"/>
+      <c r="B168" s="22"/>
       <c r="C168" s="10" t="s">
         <v>874</v>
       </c>
@@ -20085,7 +20250,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="10"/>
-      <c r="B169" s="20"/>
+      <c r="B169" s="22"/>
       <c r="C169" s="10" t="s">
         <v>874</v>
       </c>
@@ -20104,7 +20269,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="10"/>
-      <c r="B170" s="20"/>
+      <c r="B170" s="22"/>
       <c r="C170" s="10" t="s">
         <v>874</v>
       </c>
@@ -20123,7 +20288,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="10"/>
-      <c r="B171" s="20"/>
+      <c r="B171" s="22"/>
       <c r="C171" s="10" t="s">
         <v>874</v>
       </c>
@@ -20142,7 +20307,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="10"/>
-      <c r="B172" s="20"/>
+      <c r="B172" s="22"/>
       <c r="C172" s="10" t="s">
         <v>874</v>
       </c>
@@ -20161,7 +20326,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="10"/>
-      <c r="B173" s="20"/>
+      <c r="B173" s="22"/>
       <c r="C173" s="10" t="s">
         <v>874</v>
       </c>
@@ -20181,7 +20346,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="10"/>
-      <c r="B174" s="20"/>
+      <c r="B174" s="22"/>
       <c r="C174" s="10" t="s">
         <v>874</v>
       </c>
@@ -20200,7 +20365,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="10"/>
-      <c r="B175" s="20"/>
+      <c r="B175" s="22"/>
       <c r="C175" s="10" t="s">
         <v>874</v>
       </c>
@@ -20219,7 +20384,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="10"/>
-      <c r="B176" s="20"/>
+      <c r="B176" s="22"/>
       <c r="C176" s="10" t="s">
         <v>874</v>
       </c>
@@ -20238,7 +20403,7 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="10"/>
-      <c r="B177" s="20" t="s">
+      <c r="B177" s="22" t="s">
         <v>1036</v>
       </c>
       <c r="C177" s="10" t="s">
@@ -20259,7 +20424,7 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="10"/>
-      <c r="B178" s="20"/>
+      <c r="B178" s="22"/>
       <c r="C178" s="10" t="s">
         <v>917</v>
       </c>
@@ -20278,7 +20443,7 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="10"/>
-      <c r="B179" s="20"/>
+      <c r="B179" s="22"/>
       <c r="C179" s="10" t="s">
         <v>917</v>
       </c>
@@ -20297,7 +20462,7 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="10"/>
-      <c r="B180" s="20"/>
+      <c r="B180" s="22"/>
       <c r="C180" s="10" t="s">
         <v>1047</v>
       </c>
@@ -20316,7 +20481,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="10"/>
-      <c r="B181" s="20"/>
+      <c r="B181" s="22"/>
       <c r="C181" s="10" t="s">
         <v>917</v>
       </c>
@@ -20335,7 +20500,7 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="10"/>
-      <c r="B182" s="20"/>
+      <c r="B182" s="22"/>
       <c r="C182" s="10" t="s">
         <v>917</v>
       </c>
@@ -20354,7 +20519,7 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="10"/>
-      <c r="B183" s="20"/>
+      <c r="B183" s="22"/>
       <c r="C183" s="10" t="s">
         <v>917</v>
       </c>
@@ -20373,7 +20538,7 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="10"/>
-      <c r="B184" s="20"/>
+      <c r="B184" s="22"/>
       <c r="C184" s="10" t="s">
         <v>917</v>
       </c>
@@ -20392,7 +20557,7 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="10"/>
-      <c r="B185" s="20"/>
+      <c r="B185" s="22"/>
       <c r="C185" s="10" t="s">
         <v>917</v>
       </c>
@@ -20411,7 +20576,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="10"/>
-      <c r="B186" s="20" t="s">
+      <c r="B186" s="22" t="s">
         <v>567</v>
       </c>
       <c r="C186" s="10" t="s">
@@ -20432,7 +20597,7 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="10"/>
-      <c r="B187" s="20"/>
+      <c r="B187" s="22"/>
       <c r="C187" s="10" t="s">
         <v>936</v>
       </c>
@@ -20451,7 +20616,7 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="10"/>
-      <c r="B188" s="20"/>
+      <c r="B188" s="22"/>
       <c r="C188" s="10" t="s">
         <v>936</v>
       </c>
@@ -20470,7 +20635,7 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="10"/>
-      <c r="B189" s="20"/>
+      <c r="B189" s="22"/>
       <c r="C189" s="10" t="s">
         <v>936</v>
       </c>
@@ -20489,7 +20654,7 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="10"/>
-      <c r="B190" s="20"/>
+      <c r="B190" s="22"/>
       <c r="C190" s="10" t="s">
         <v>936</v>
       </c>
@@ -20508,7 +20673,7 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="10"/>
-      <c r="B191" s="20"/>
+      <c r="B191" s="22"/>
       <c r="C191" s="10" t="s">
         <v>936</v>
       </c>
@@ -20527,7 +20692,7 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="10"/>
-      <c r="B192" s="20"/>
+      <c r="B192" s="22"/>
       <c r="C192" s="10" t="s">
         <v>936</v>
       </c>
@@ -20546,7 +20711,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="10"/>
-      <c r="B193" s="20"/>
+      <c r="B193" s="22"/>
       <c r="C193" s="10" t="s">
         <v>936</v>
       </c>
@@ -20566,7 +20731,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="10"/>
-      <c r="B194" s="20"/>
+      <c r="B194" s="22"/>
       <c r="C194" s="10" t="s">
         <v>1048</v>
       </c>
@@ -20585,7 +20750,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="10"/>
-      <c r="B195" s="20"/>
+      <c r="B195" s="22"/>
       <c r="C195" s="10" t="s">
         <v>936</v>
       </c>
@@ -20604,7 +20769,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="10"/>
-      <c r="B196" s="20"/>
+      <c r="B196" s="22"/>
       <c r="C196" s="10" t="s">
         <v>936</v>
       </c>
@@ -20623,7 +20788,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="10"/>
-      <c r="B197" s="20"/>
+      <c r="B197" s="22"/>
       <c r="C197" s="10" t="s">
         <v>936</v>
       </c>
@@ -20642,7 +20807,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="10"/>
-      <c r="B198" s="20"/>
+      <c r="B198" s="22"/>
       <c r="C198" s="10" t="s">
         <v>936</v>
       </c>
@@ -20661,7 +20826,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="10"/>
-      <c r="B199" s="20"/>
+      <c r="B199" s="22"/>
       <c r="C199" s="10" t="s">
         <v>936</v>
       </c>
@@ -20680,7 +20845,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="10"/>
-      <c r="B200" s="20" t="s">
+      <c r="B200" s="22" t="s">
         <v>1036</v>
       </c>
       <c r="C200" s="10" t="s">
@@ -20701,7 +20866,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="10"/>
-      <c r="B201" s="20"/>
+      <c r="B201" s="22"/>
       <c r="C201" s="10" t="s">
         <v>963</v>
       </c>
@@ -20720,7 +20885,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="10"/>
-      <c r="B202" s="20"/>
+      <c r="B202" s="22"/>
       <c r="C202" s="10" t="s">
         <v>963</v>
       </c>
@@ -20739,7 +20904,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="10"/>
-      <c r="B203" s="20"/>
+      <c r="B203" s="22"/>
       <c r="C203" s="10" t="s">
         <v>963</v>
       </c>
@@ -20758,7 +20923,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="10"/>
-      <c r="B204" s="20"/>
+      <c r="B204" s="22"/>
       <c r="C204" s="10" t="s">
         <v>963</v>
       </c>
@@ -20777,7 +20942,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="10"/>
-      <c r="B205" s="20"/>
+      <c r="B205" s="22"/>
       <c r="C205" s="10" t="s">
         <v>963</v>
       </c>
@@ -20796,7 +20961,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="10"/>
-      <c r="B206" s="20"/>
+      <c r="B206" s="22"/>
       <c r="C206" s="10" t="s">
         <v>1049</v>
       </c>
@@ -20815,7 +20980,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="10"/>
-      <c r="B207" s="20"/>
+      <c r="B207" s="22"/>
       <c r="C207" s="10" t="s">
         <v>963</v>
       </c>
@@ -20834,7 +20999,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="10"/>
-      <c r="B208" s="20"/>
+      <c r="B208" s="22"/>
       <c r="C208" s="10" t="s">
         <v>963</v>
       </c>
@@ -20853,7 +21018,7 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="10"/>
-      <c r="B209" s="20"/>
+      <c r="B209" s="22"/>
       <c r="C209" s="10" t="s">
         <v>963</v>
       </c>
@@ -20872,7 +21037,7 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="10"/>
-      <c r="B210" s="20"/>
+      <c r="B210" s="22"/>
       <c r="C210" s="10" t="s">
         <v>963</v>
       </c>
@@ -20891,7 +21056,7 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="10"/>
-      <c r="B211" s="20"/>
+      <c r="B211" s="22"/>
       <c r="C211" s="10" t="s">
         <v>963</v>
       </c>
@@ -20910,7 +21075,7 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="10"/>
-      <c r="B212" s="20"/>
+      <c r="B212" s="22"/>
       <c r="C212" s="10" t="s">
         <v>963</v>
       </c>
@@ -20929,7 +21094,7 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="10"/>
-      <c r="B213" s="20"/>
+      <c r="B213" s="22"/>
       <c r="C213" s="10" t="s">
         <v>963</v>
       </c>
@@ -20948,7 +21113,7 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="10"/>
-      <c r="B214" s="20"/>
+      <c r="B214" s="22"/>
       <c r="C214" s="10" t="s">
         <v>963</v>
       </c>
@@ -20967,7 +21132,7 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="10"/>
-      <c r="B215" s="20" t="s">
+      <c r="B215" s="22" t="s">
         <v>567</v>
       </c>
       <c r="C215" s="10" t="s">
@@ -20988,7 +21153,7 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="10"/>
-      <c r="B216" s="20"/>
+      <c r="B216" s="22"/>
       <c r="C216" s="10" t="s">
         <v>994</v>
       </c>
@@ -21007,7 +21172,7 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="10"/>
-      <c r="B217" s="20"/>
+      <c r="B217" s="22"/>
       <c r="C217" s="10" t="s">
         <v>994</v>
       </c>
@@ -21026,7 +21191,7 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="10"/>
-      <c r="B218" s="20"/>
+      <c r="B218" s="22"/>
       <c r="C218" s="10" t="s">
         <v>1050</v>
       </c>
@@ -21045,7 +21210,7 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="10"/>
-      <c r="B219" s="20"/>
+      <c r="B219" s="22"/>
       <c r="C219" s="10" t="s">
         <v>994</v>
       </c>
@@ -21064,7 +21229,7 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="10"/>
-      <c r="B220" s="20"/>
+      <c r="B220" s="22"/>
       <c r="C220" s="10" t="s">
         <v>994</v>
       </c>
@@ -21083,7 +21248,7 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="10"/>
-      <c r="B221" s="20"/>
+      <c r="B221" s="22"/>
       <c r="C221" s="10" t="s">
         <v>994</v>
       </c>
@@ -21102,7 +21267,7 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="10"/>
-      <c r="B222" s="20"/>
+      <c r="B222" s="22"/>
       <c r="C222" s="10" t="s">
         <v>994</v>
       </c>
@@ -21121,7 +21286,7 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="10"/>
-      <c r="B223" s="20"/>
+      <c r="B223" s="22"/>
       <c r="C223" s="10" t="s">
         <v>994</v>
       </c>
@@ -21140,7 +21305,7 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="10"/>
-      <c r="B224" s="20"/>
+      <c r="B224" s="22"/>
       <c r="C224" s="10" t="s">
         <v>994</v>
       </c>
@@ -21159,7 +21324,7 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="10"/>
-      <c r="B225" s="20"/>
+      <c r="B225" s="22"/>
       <c r="C225" s="10" t="s">
         <v>994</v>
       </c>
@@ -21178,7 +21343,7 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="10"/>
-      <c r="B226" s="20"/>
+      <c r="B226" s="22"/>
       <c r="C226" s="10" t="s">
         <v>994</v>
       </c>
@@ -21197,7 +21362,7 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="10"/>
-      <c r="B227" s="20"/>
+      <c r="B227" s="22"/>
       <c r="C227" s="10" t="s">
         <v>994</v>
       </c>
@@ -21216,7 +21381,7 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="10"/>
-      <c r="B228" s="20"/>
+      <c r="B228" s="22"/>
       <c r="C228" s="10" t="s">
         <v>994</v>
       </c>
@@ -21235,7 +21400,7 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="10"/>
-      <c r="B229" s="20"/>
+      <c r="B229" s="22"/>
       <c r="C229" s="10" t="s">
         <v>994</v>
       </c>
@@ -21254,7 +21419,7 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="10"/>
-      <c r="B230" s="20"/>
+      <c r="B230" s="22"/>
       <c r="C230" s="10" t="s">
         <v>994</v>
       </c>
@@ -21273,7 +21438,7 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="10"/>
-      <c r="B231" s="20"/>
+      <c r="B231" s="22"/>
       <c r="C231" s="10" t="s">
         <v>994</v>
       </c>
@@ -21292,7 +21457,7 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="10"/>
-      <c r="B232" s="20"/>
+      <c r="B232" s="22"/>
       <c r="C232" s="10" t="s">
         <v>994</v>
       </c>
@@ -22016,6 +22181,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B78:B94"/>
+    <mergeCell ref="B95:B138"/>
+    <mergeCell ref="B139:B145"/>
+    <mergeCell ref="B146:B155"/>
+    <mergeCell ref="B215:B232"/>
+    <mergeCell ref="B156:B176"/>
+    <mergeCell ref="B177:B185"/>
+    <mergeCell ref="B186:B199"/>
+    <mergeCell ref="B200:B214"/>
     <mergeCell ref="B42:B52"/>
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="B57:B77"/>
@@ -22025,15 +22199,6 @@
     <mergeCell ref="B17:B23"/>
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="B31:B37"/>
-    <mergeCell ref="B78:B94"/>
-    <mergeCell ref="B95:B138"/>
-    <mergeCell ref="B139:B145"/>
-    <mergeCell ref="B146:B155"/>
-    <mergeCell ref="B215:B232"/>
-    <mergeCell ref="B156:B176"/>
-    <mergeCell ref="B177:B185"/>
-    <mergeCell ref="B186:B199"/>
-    <mergeCell ref="B200:B214"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/api自動化測試腳清單.xlsx
+++ b/api自動化測試腳清單.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2902" uniqueCount="1217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2908" uniqueCount="1221">
   <si>
     <t>Module</t>
   </si>
@@ -4225,6 +4225,22 @@
   </si>
   <si>
     <t>postData25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M101QueryMemberOpPoint_1.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M101QueryMemberOpPoint_2.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postData26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postData26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4440,11 +4456,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4452,14 +4465,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4768,8 +4784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H523"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D43" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63:F64"/>
+    <sheetView tabSelected="1" topLeftCell="D55" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65:F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4810,7 +4826,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="20"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="2" t="s">
         <v>1059</v>
       </c>
@@ -4832,7 +4848,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="21"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="10" t="s">
         <v>1059</v>
       </c>
@@ -4854,7 +4870,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="21"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="2" t="s">
         <v>1058</v>
       </c>
@@ -4876,7 +4892,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="21"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="2" t="s">
         <v>1056</v>
       </c>
@@ -4898,7 +4914,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="21"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="2" t="s">
         <v>1053</v>
       </c>
@@ -4920,7 +4936,7 @@
     </row>
     <row r="7" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="21"/>
+      <c r="B7" s="24"/>
       <c r="C7" t="s">
         <v>1053</v>
       </c>
@@ -4941,7 +4957,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="10" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="21"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="10" t="s">
         <v>1096</v>
       </c>
@@ -4962,7 +4978,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" s="10" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="21"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="10" t="s">
         <v>1096</v>
       </c>
@@ -4979,7 +4995,7 @@
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="21"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="10" t="s">
         <v>1096</v>
       </c>
@@ -5001,7 +5017,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="21"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="2" t="s">
         <v>1061</v>
       </c>
@@ -5023,7 +5039,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="21"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="10" t="s">
         <v>1061</v>
       </c>
@@ -5045,7 +5061,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="21"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="2" t="s">
         <v>1072</v>
       </c>
@@ -5067,7 +5083,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="21"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="2" t="s">
         <v>1072</v>
       </c>
@@ -5088,7 +5104,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="21"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="10" t="s">
         <v>1072</v>
       </c>
@@ -5105,7 +5121,7 @@
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="21"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="10" t="s">
         <v>1072</v>
       </c>
@@ -5123,7 +5139,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="21"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="2" t="s">
         <v>1078</v>
       </c>
@@ -5145,7 +5161,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="21"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="10" t="s">
         <v>1078</v>
       </c>
@@ -5167,7 +5183,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="21"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="2" t="s">
         <v>1085</v>
       </c>
@@ -5189,7 +5205,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="21"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="10" t="s">
         <v>1085</v>
       </c>
@@ -5207,7 +5223,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="21"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="2" t="s">
         <v>1089</v>
       </c>
@@ -5223,7 +5239,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="21"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="10" t="s">
         <v>1089</v>
       </c>
@@ -5239,7 +5255,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="21"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="2" t="s">
         <v>1093</v>
       </c>
@@ -5255,7 +5271,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="21"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="10" t="s">
         <v>1093</v>
       </c>
@@ -5271,7 +5287,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
-      <c r="B25" s="21"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="2" t="s">
         <v>1123</v>
       </c>
@@ -5287,7 +5303,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="21"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="10" t="s">
         <v>1123</v>
       </c>
@@ -5303,7 +5319,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
-      <c r="B27" s="21"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="2" t="s">
         <v>1127</v>
       </c>
@@ -5319,7 +5335,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
-      <c r="B28" s="21"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="2" t="s">
         <v>1128</v>
       </c>
@@ -5335,7 +5351,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
-      <c r="B29" s="21"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="2" t="s">
         <v>1131</v>
       </c>
@@ -5350,7 +5366,7 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="21"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="10" t="s">
         <v>1131</v>
       </c>
@@ -5363,7 +5379,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="B31" s="21"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="2" t="s">
         <v>1134</v>
       </c>
@@ -5381,7 +5397,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
-      <c r="B32" s="21"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="10" t="s">
         <v>1134</v>
       </c>
@@ -5399,7 +5415,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
-      <c r="B33" s="21"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="10" t="s">
         <v>1134</v>
       </c>
@@ -5417,7 +5433,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
-      <c r="B34" s="21"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="10" t="s">
         <v>1134</v>
       </c>
@@ -5435,7 +5451,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
-      <c r="B35" s="21"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="2" t="s">
         <v>1143</v>
       </c>
@@ -5453,7 +5469,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
-      <c r="B36" s="21"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="10" t="s">
         <v>1143</v>
       </c>
@@ -5471,7 +5487,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
-      <c r="B37" s="21"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="2" t="s">
         <v>1148</v>
       </c>
@@ -5489,7 +5505,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
-      <c r="B38" s="21"/>
+      <c r="B38" s="24"/>
       <c r="C38" s="10" t="s">
         <v>1148</v>
       </c>
@@ -5507,7 +5523,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
-      <c r="B39" s="22"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="2" t="s">
         <v>1152</v>
       </c>
@@ -5525,7 +5541,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
-      <c r="B40" s="22"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="10" t="s">
         <v>1152</v>
       </c>
@@ -5543,7 +5559,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
-      <c r="B41" s="22"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="2" t="s">
         <v>1157</v>
       </c>
@@ -5561,7 +5577,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
-      <c r="B42" s="22"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="10" t="s">
         <v>1157</v>
       </c>
@@ -5579,7 +5595,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
-      <c r="B43" s="22"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="17" t="s">
         <v>1162</v>
       </c>
@@ -5593,7 +5609,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
-      <c r="B44" s="22"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="18" t="s">
         <v>1162</v>
       </c>
@@ -5607,7 +5623,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
-      <c r="B45" s="22"/>
+      <c r="B45" s="21"/>
       <c r="C45" s="2" t="s">
         <v>1164</v>
       </c>
@@ -5625,7 +5641,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
-      <c r="B46" s="22"/>
+      <c r="B46" s="21"/>
       <c r="C46" s="10" t="s">
         <v>1164</v>
       </c>
@@ -5643,7 +5659,7 @@
     </row>
     <row r="47" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
-      <c r="B47" s="22"/>
+      <c r="B47" s="21"/>
       <c r="C47" s="2" t="s">
         <v>1168</v>
       </c>
@@ -5661,7 +5677,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
-      <c r="B48" s="22"/>
+      <c r="B48" s="21"/>
       <c r="C48" s="10" t="s">
         <v>1168</v>
       </c>
@@ -5679,7 +5695,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
-      <c r="B49" s="22"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="10" t="s">
         <v>1174</v>
       </c>
@@ -5696,7 +5712,7 @@
       <c r="H49" s="2"/>
     </row>
     <row r="50" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="22"/>
+      <c r="B50" s="21"/>
       <c r="C50" s="10" t="s">
         <v>1174</v>
       </c>
@@ -5712,7 +5728,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
-      <c r="B51" s="22"/>
+      <c r="B51" s="21"/>
       <c r="C51" s="10" t="s">
         <v>1180</v>
       </c>
@@ -5730,7 +5746,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
-      <c r="B52" s="22"/>
+      <c r="B52" s="21"/>
       <c r="C52" s="10" t="s">
         <v>1180</v>
       </c>
@@ -5748,7 +5764,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
-      <c r="B53" s="22"/>
+      <c r="B53" s="21"/>
       <c r="C53" s="10" t="s">
         <v>1184</v>
       </c>
@@ -5766,7 +5782,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
-      <c r="B54" s="22"/>
+      <c r="B54" s="21"/>
       <c r="C54" s="10" t="s">
         <v>1184</v>
       </c>
@@ -5784,7 +5800,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
-      <c r="B55" s="22"/>
+      <c r="B55" s="21"/>
       <c r="C55" s="10" t="s">
         <v>1188</v>
       </c>
@@ -5802,7 +5818,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
-      <c r="B56" s="22"/>
+      <c r="B56" s="21"/>
       <c r="C56" s="10" t="s">
         <v>1188</v>
       </c>
@@ -5820,7 +5836,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
-      <c r="B57" s="22"/>
+      <c r="B57" s="21"/>
       <c r="C57" s="2" t="s">
         <v>1192</v>
       </c>
@@ -5834,13 +5850,13 @@
         <v>1177</v>
       </c>
       <c r="G57" s="2"/>
-      <c r="H57" s="26">
+      <c r="H57" s="20">
         <v>45036</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
-      <c r="B58" s="22"/>
+      <c r="B58" s="21"/>
       <c r="C58" s="10" t="s">
         <v>1192</v>
       </c>
@@ -5854,13 +5870,13 @@
         <v>1179</v>
       </c>
       <c r="G58" s="2"/>
-      <c r="H58" s="26">
+      <c r="H58" s="20">
         <v>45036</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
-      <c r="B59" s="22"/>
+      <c r="B59" s="21"/>
       <c r="C59" s="2" t="s">
         <v>1204</v>
       </c>
@@ -5874,13 +5890,13 @@
         <v>1177</v>
       </c>
       <c r="G59" s="2"/>
-      <c r="H59" s="26">
+      <c r="H59" s="20">
         <v>45037</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
-      <c r="B60" s="22"/>
+      <c r="B60" s="21"/>
       <c r="C60" s="10" t="s">
         <v>1204</v>
       </c>
@@ -5894,13 +5910,13 @@
         <v>1179</v>
       </c>
       <c r="G60" s="2"/>
-      <c r="H60" s="26">
+      <c r="H60" s="20">
         <v>45037</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
-      <c r="B61" s="22"/>
+      <c r="B61" s="21"/>
       <c r="C61" s="2" t="s">
         <v>1208</v>
       </c>
@@ -5918,7 +5934,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
-      <c r="B62" s="22"/>
+      <c r="B62" s="21"/>
       <c r="C62" s="2" t="s">
         <v>1209</v>
       </c>
@@ -5936,7 +5952,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
-      <c r="B63" s="22"/>
+      <c r="B63" s="21"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
         <v>1213</v>
@@ -5952,7 +5968,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
-      <c r="B64" s="22"/>
+      <c r="B64" s="21"/>
       <c r="C64" s="2"/>
       <c r="D64" s="10" t="s">
         <v>1214</v>
@@ -5968,27 +5984,39 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
-      <c r="B65" s="22"/>
+      <c r="B65" s="21"/>
       <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
+      <c r="D65" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>1177</v>
+      </c>
       <c r="G65" s="10"/>
       <c r="H65" s="2"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
-      <c r="B66" s="22"/>
+      <c r="B66" s="21"/>
       <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
+      <c r="D66" s="10" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>1179</v>
+      </c>
       <c r="G66" s="10"/>
       <c r="H66" s="2"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
-      <c r="B67" s="22"/>
+      <c r="B67" s="21"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -5998,7 +6026,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
-      <c r="B68" s="22"/>
+      <c r="B68" s="21"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -6008,7 +6036,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
-      <c r="B69" s="22"/>
+      <c r="B69" s="21"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -6018,7 +6046,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
-      <c r="B70" s="22"/>
+      <c r="B70" s="21"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -6028,7 +6056,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
-      <c r="B71" s="22"/>
+      <c r="B71" s="21"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -6038,7 +6066,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
-      <c r="B72" s="22"/>
+      <c r="B72" s="21"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -6048,7 +6076,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
-      <c r="B73" s="22"/>
+      <c r="B73" s="21"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -6058,7 +6086,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
-      <c r="B74" s="22"/>
+      <c r="B74" s="21"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -6068,7 +6096,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
-      <c r="B75" s="22"/>
+      <c r="B75" s="21"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -6078,7 +6106,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
-      <c r="B76" s="22"/>
+      <c r="B76" s="21"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -6088,7 +6116,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
-      <c r="B77" s="22"/>
+      <c r="B77" s="21"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -6098,7 +6126,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
-      <c r="B78" s="22"/>
+      <c r="B78" s="21"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -6108,7 +6136,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
-      <c r="B79" s="22"/>
+      <c r="B79" s="21"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -6118,7 +6146,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
-      <c r="B80" s="22"/>
+      <c r="B80" s="21"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -6128,7 +6156,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
-      <c r="B81" s="22"/>
+      <c r="B81" s="21"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -6138,7 +6166,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
-      <c r="B82" s="22"/>
+      <c r="B82" s="21"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -6148,7 +6176,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
-      <c r="B83" s="22"/>
+      <c r="B83" s="21"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -6158,7 +6186,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
-      <c r="B84" s="22"/>
+      <c r="B84" s="21"/>
       <c r="C84" s="10"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -6167,11 +6195,11 @@
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="22"/>
+      <c r="B85" s="21"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
-      <c r="B86" s="22"/>
+      <c r="B86" s="21"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -6181,7 +6209,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
-      <c r="B87" s="22"/>
+      <c r="B87" s="21"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -6191,7 +6219,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
-      <c r="B88" s="22"/>
+      <c r="B88" s="21"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -6201,7 +6229,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
-      <c r="B89" s="22"/>
+      <c r="B89" s="21"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -6211,7 +6239,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
-      <c r="B90" s="22"/>
+      <c r="B90" s="21"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -6221,7 +6249,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
-      <c r="B91" s="22"/>
+      <c r="B91" s="21"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -6231,7 +6259,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
-      <c r="B92" s="22"/>
+      <c r="B92" s="21"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -6241,7 +6269,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
-      <c r="B93" s="22"/>
+      <c r="B93" s="21"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -6251,7 +6279,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
-      <c r="B94" s="22"/>
+      <c r="B94" s="21"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -6261,7 +6289,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
-      <c r="B95" s="22"/>
+      <c r="B95" s="21"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -6271,7 +6299,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
-      <c r="B96" s="22"/>
+      <c r="B96" s="21"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -6281,7 +6309,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
-      <c r="B97" s="22"/>
+      <c r="B97" s="21"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -6291,7 +6319,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
-      <c r="B98" s="22"/>
+      <c r="B98" s="21"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -6301,7 +6329,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
-      <c r="B99" s="22"/>
+      <c r="B99" s="21"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -6311,7 +6339,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
-      <c r="B100" s="22"/>
+      <c r="B100" s="21"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -6321,7 +6349,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
-      <c r="B101" s="22"/>
+      <c r="B101" s="21"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -6331,7 +6359,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
-      <c r="B102" s="22"/>
+      <c r="B102" s="21"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -6341,7 +6369,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
-      <c r="B103" s="22"/>
+      <c r="B103" s="21"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -6351,7 +6379,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
-      <c r="B104" s="22"/>
+      <c r="B104" s="21"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -6361,7 +6389,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
-      <c r="B105" s="22"/>
+      <c r="B105" s="21"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -6371,7 +6399,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
-      <c r="B106" s="22"/>
+      <c r="B106" s="21"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -6381,7 +6409,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
-      <c r="B107" s="22"/>
+      <c r="B107" s="21"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -6391,7 +6419,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
-      <c r="B108" s="22"/>
+      <c r="B108" s="21"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -6401,7 +6429,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
-      <c r="B109" s="22"/>
+      <c r="B109" s="21"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -6411,7 +6439,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
-      <c r="B110" s="22"/>
+      <c r="B110" s="21"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -6421,7 +6449,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
-      <c r="B111" s="22"/>
+      <c r="B111" s="21"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -6431,7 +6459,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
-      <c r="B112" s="22"/>
+      <c r="B112" s="21"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -6441,7 +6469,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
-      <c r="B113" s="22"/>
+      <c r="B113" s="21"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -6451,7 +6479,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
-      <c r="B114" s="22"/>
+      <c r="B114" s="21"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -6461,7 +6489,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
-      <c r="B115" s="22"/>
+      <c r="B115" s="21"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -6471,7 +6499,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
-      <c r="B116" s="22"/>
+      <c r="B116" s="21"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -6481,7 +6509,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
-      <c r="B117" s="22"/>
+      <c r="B117" s="21"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -6491,7 +6519,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
-      <c r="B118" s="22"/>
+      <c r="B118" s="21"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -6501,7 +6529,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
-      <c r="B119" s="22"/>
+      <c r="B119" s="21"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -6511,7 +6539,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
-      <c r="B120" s="22"/>
+      <c r="B120" s="21"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -6521,7 +6549,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
-      <c r="B121" s="22"/>
+      <c r="B121" s="21"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -6531,7 +6559,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
-      <c r="B122" s="22"/>
+      <c r="B122" s="21"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -6541,7 +6569,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
-      <c r="B123" s="22"/>
+      <c r="B123" s="21"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -6551,7 +6579,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
-      <c r="B124" s="22"/>
+      <c r="B124" s="21"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -6561,7 +6589,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
-      <c r="B125" s="22"/>
+      <c r="B125" s="21"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -6571,7 +6599,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
-      <c r="B126" s="22"/>
+      <c r="B126" s="21"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -6581,7 +6609,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
-      <c r="B127" s="22"/>
+      <c r="B127" s="21"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -6591,7 +6619,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
-      <c r="B128" s="22"/>
+      <c r="B128" s="21"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -6601,7 +6629,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
-      <c r="B129" s="22"/>
+      <c r="B129" s="21"/>
       <c r="C129" s="10"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -6611,7 +6639,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
-      <c r="B130" s="22"/>
+      <c r="B130" s="21"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -6621,7 +6649,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
-      <c r="B131" s="22"/>
+      <c r="B131" s="21"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -6631,7 +6659,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
-      <c r="B132" s="22"/>
+      <c r="B132" s="21"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -6641,7 +6669,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
-      <c r="B133" s="22"/>
+      <c r="B133" s="21"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -6651,7 +6679,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
-      <c r="B134" s="22"/>
+      <c r="B134" s="21"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -6661,7 +6689,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
-      <c r="B135" s="22"/>
+      <c r="B135" s="21"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -6671,7 +6699,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
-      <c r="B136" s="22"/>
+      <c r="B136" s="21"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -6681,7 +6709,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
-      <c r="B137" s="22"/>
+      <c r="B137" s="21"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -6691,7 +6719,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
-      <c r="B138" s="22"/>
+      <c r="B138" s="21"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -6701,7 +6729,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
-      <c r="B139" s="22"/>
+      <c r="B139" s="21"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -6711,7 +6739,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
-      <c r="B140" s="22"/>
+      <c r="B140" s="21"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -6721,7 +6749,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
-      <c r="B141" s="22"/>
+      <c r="B141" s="21"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -6731,7 +6759,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
-      <c r="B142" s="22"/>
+      <c r="B142" s="21"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -6741,7 +6769,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
-      <c r="B143" s="22"/>
+      <c r="B143" s="21"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -6751,7 +6779,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
-      <c r="B144" s="22"/>
+      <c r="B144" s="21"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -6761,7 +6789,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
-      <c r="B145" s="22"/>
+      <c r="B145" s="21"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -6771,7 +6799,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
-      <c r="B146" s="22"/>
+      <c r="B146" s="21"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -6781,7 +6809,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
-      <c r="B147" s="22"/>
+      <c r="B147" s="21"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -6791,7 +6819,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
-      <c r="B148" s="22"/>
+      <c r="B148" s="21"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -6801,7 +6829,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
-      <c r="B149" s="22"/>
+      <c r="B149" s="21"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -6811,7 +6839,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
-      <c r="B150" s="22"/>
+      <c r="B150" s="21"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -6821,7 +6849,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
-      <c r="B151" s="22"/>
+      <c r="B151" s="21"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -6831,7 +6859,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
-      <c r="B152" s="22"/>
+      <c r="B152" s="21"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -6841,7 +6869,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
-      <c r="B153" s="22"/>
+      <c r="B153" s="21"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -6851,7 +6879,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
-      <c r="B154" s="22"/>
+      <c r="B154" s="21"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -6861,7 +6889,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
-      <c r="B155" s="22"/>
+      <c r="B155" s="21"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -6871,7 +6899,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
-      <c r="B156" s="22"/>
+      <c r="B156" s="21"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -6881,7 +6909,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
-      <c r="B157" s="22"/>
+      <c r="B157" s="21"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -6891,7 +6919,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
-      <c r="B158" s="22"/>
+      <c r="B158" s="21"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -6901,7 +6929,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
-      <c r="B159" s="22"/>
+      <c r="B159" s="21"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -6911,7 +6939,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
-      <c r="B160" s="22"/>
+      <c r="B160" s="21"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -6921,7 +6949,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
-      <c r="B161" s="22"/>
+      <c r="B161" s="21"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -6931,7 +6959,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
-      <c r="B162" s="22"/>
+      <c r="B162" s="21"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -6941,7 +6969,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
-      <c r="B163" s="22"/>
+      <c r="B163" s="21"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -6951,7 +6979,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
-      <c r="B164" s="22"/>
+      <c r="B164" s="21"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -6961,7 +6989,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
-      <c r="B165" s="22"/>
+      <c r="B165" s="21"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -6971,7 +6999,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
-      <c r="B166" s="22"/>
+      <c r="B166" s="21"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -6981,7 +7009,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
-      <c r="B167" s="22"/>
+      <c r="B167" s="21"/>
       <c r="C167" s="10"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -6991,7 +7019,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
-      <c r="B168" s="22"/>
+      <c r="B168" s="21"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -7001,7 +7029,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
-      <c r="B169" s="22"/>
+      <c r="B169" s="21"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -7011,7 +7039,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
-      <c r="B170" s="22"/>
+      <c r="B170" s="21"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -7021,7 +7049,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
-      <c r="B171" s="22"/>
+      <c r="B171" s="21"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -7031,7 +7059,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
-      <c r="B172" s="22"/>
+      <c r="B172" s="21"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -7041,7 +7069,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
-      <c r="B173" s="22"/>
+      <c r="B173" s="21"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -7051,7 +7079,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
-      <c r="B174" s="22"/>
+      <c r="B174" s="21"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -7061,7 +7089,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
-      <c r="B175" s="22"/>
+      <c r="B175" s="21"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -7071,7 +7099,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
-      <c r="B176" s="22"/>
+      <c r="B176" s="21"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -7081,7 +7109,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
-      <c r="B177" s="22"/>
+      <c r="B177" s="21"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -7091,7 +7119,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
-      <c r="B178" s="22"/>
+      <c r="B178" s="21"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -7101,7 +7129,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
-      <c r="B179" s="22"/>
+      <c r="B179" s="21"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -7111,7 +7139,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
-      <c r="B180" s="22"/>
+      <c r="B180" s="21"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -7121,7 +7149,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
-      <c r="B181" s="22"/>
+      <c r="B181" s="21"/>
       <c r="C181" s="10"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -7131,7 +7159,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
-      <c r="B182" s="22"/>
+      <c r="B182" s="21"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -7141,7 +7169,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
-      <c r="B183" s="22"/>
+      <c r="B183" s="21"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -7151,7 +7179,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
-      <c r="B184" s="22"/>
+      <c r="B184" s="21"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -7161,7 +7189,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="2"/>
-      <c r="B185" s="22"/>
+      <c r="B185" s="21"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -7171,7 +7199,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
-      <c r="B186" s="22"/>
+      <c r="B186" s="21"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -7181,7 +7209,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
-      <c r="B187" s="22"/>
+      <c r="B187" s="21"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -7191,7 +7219,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
-      <c r="B188" s="22"/>
+      <c r="B188" s="21"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -7201,7 +7229,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="2"/>
-      <c r="B189" s="23"/>
+      <c r="B189" s="22"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -7211,7 +7239,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
-      <c r="B190" s="20"/>
+      <c r="B190" s="23"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -7221,7 +7249,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
-      <c r="B191" s="21"/>
+      <c r="B191" s="24"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -7231,7 +7259,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
-      <c r="B192" s="21"/>
+      <c r="B192" s="24"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
@@ -7241,7 +7269,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
-      <c r="B193" s="21"/>
+      <c r="B193" s="24"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="5"/>
@@ -7251,7 +7279,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
-      <c r="B194" s="21"/>
+      <c r="B194" s="24"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="5"/>
@@ -7261,7 +7289,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
-      <c r="B195" s="21"/>
+      <c r="B195" s="24"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="5"/>
@@ -7271,7 +7299,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
-      <c r="B196" s="21"/>
+      <c r="B196" s="24"/>
       <c r="C196" s="10"/>
       <c r="D196" s="2"/>
       <c r="E196" s="5"/>
@@ -7281,7 +7309,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
-      <c r="B197" s="21"/>
+      <c r="B197" s="24"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="5"/>
@@ -7291,7 +7319,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
-      <c r="B198" s="21"/>
+      <c r="B198" s="24"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="5"/>
@@ -7301,7 +7329,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="2"/>
-      <c r="B199" s="21"/>
+      <c r="B199" s="24"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="5"/>
@@ -7311,7 +7339,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
-      <c r="B200" s="21"/>
+      <c r="B200" s="24"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="5"/>
@@ -7321,7 +7349,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="2"/>
-      <c r="B201" s="21"/>
+      <c r="B201" s="24"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="5"/>
@@ -7331,7 +7359,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="2"/>
-      <c r="B202" s="22"/>
+      <c r="B202" s="21"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="5"/>
@@ -7341,7 +7369,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="2"/>
-      <c r="B203" s="22"/>
+      <c r="B203" s="21"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="5"/>
@@ -7351,7 +7379,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="2"/>
-      <c r="B204" s="22"/>
+      <c r="B204" s="21"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="5"/>
@@ -7361,7 +7389,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="2"/>
-      <c r="B205" s="22"/>
+      <c r="B205" s="21"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="5"/>
@@ -7371,7 +7399,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
-      <c r="B206" s="22"/>
+      <c r="B206" s="21"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="5"/>
@@ -7381,7 +7409,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="2"/>
-      <c r="B207" s="22"/>
+      <c r="B207" s="21"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="5"/>
@@ -7391,7 +7419,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="2"/>
-      <c r="B208" s="22"/>
+      <c r="B208" s="21"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="5"/>
@@ -7401,7 +7429,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="2"/>
-      <c r="B209" s="22"/>
+      <c r="B209" s="21"/>
       <c r="C209" s="10"/>
       <c r="D209" s="2"/>
       <c r="E209" s="5"/>
@@ -7411,7 +7439,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="2"/>
-      <c r="B210" s="22"/>
+      <c r="B210" s="21"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="5"/>
@@ -7421,7 +7449,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="2"/>
-      <c r="B211" s="22"/>
+      <c r="B211" s="21"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="5"/>
@@ -7431,7 +7459,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="2"/>
-      <c r="B212" s="22"/>
+      <c r="B212" s="21"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="5"/>
@@ -7441,7 +7469,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="2"/>
-      <c r="B213" s="22"/>
+      <c r="B213" s="21"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="5"/>
@@ -7451,7 +7479,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="2"/>
-      <c r="B214" s="22"/>
+      <c r="B214" s="21"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="5"/>
@@ -7461,7 +7489,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="2"/>
-      <c r="B215" s="22"/>
+      <c r="B215" s="21"/>
       <c r="C215" s="10"/>
       <c r="D215" s="2"/>
       <c r="E215" s="5"/>
@@ -7471,7 +7499,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="2"/>
-      <c r="B216" s="22"/>
+      <c r="B216" s="21"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="5"/>
@@ -7481,7 +7509,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="2"/>
-      <c r="B217" s="22"/>
+      <c r="B217" s="21"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="5"/>
@@ -7491,7 +7519,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="2"/>
-      <c r="B218" s="22"/>
+      <c r="B218" s="21"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="5"/>
@@ -7501,7 +7529,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="2"/>
-      <c r="B219" s="22"/>
+      <c r="B219" s="21"/>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -7511,7 +7539,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="2"/>
-      <c r="B220" s="22"/>
+      <c r="B220" s="21"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -7521,7 +7549,7 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="2"/>
-      <c r="B221" s="22"/>
+      <c r="B221" s="21"/>
       <c r="C221" s="10"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -7531,7 +7559,7 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="2"/>
-      <c r="B222" s="22"/>
+      <c r="B222" s="21"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -7541,7 +7569,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="2"/>
-      <c r="B223" s="22"/>
+      <c r="B223" s="21"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -7551,7 +7579,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="2"/>
-      <c r="B224" s="22"/>
+      <c r="B224" s="21"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -7561,7 +7589,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="2"/>
-      <c r="B225" s="22"/>
+      <c r="B225" s="21"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -7571,7 +7599,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="2"/>
-      <c r="B226" s="22"/>
+      <c r="B226" s="21"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -7581,7 +7609,7 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="2"/>
-      <c r="B227" s="22"/>
+      <c r="B227" s="21"/>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -7591,7 +7619,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="2"/>
-      <c r="B228" s="22"/>
+      <c r="B228" s="21"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -7601,7 +7629,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="2"/>
-      <c r="B229" s="22"/>
+      <c r="B229" s="21"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -7611,7 +7639,7 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="2"/>
-      <c r="B230" s="22"/>
+      <c r="B230" s="21"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
@@ -7621,7 +7649,7 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="2"/>
-      <c r="B231" s="22"/>
+      <c r="B231" s="21"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -7631,7 +7659,7 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="2"/>
-      <c r="B232" s="22"/>
+      <c r="B232" s="21"/>
       <c r="C232" s="10"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -7641,7 +7669,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="2"/>
-      <c r="B233" s="22"/>
+      <c r="B233" s="21"/>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -7651,7 +7679,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="2"/>
-      <c r="B234" s="22"/>
+      <c r="B234" s="21"/>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
@@ -7661,7 +7689,7 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="2"/>
-      <c r="B235" s="22"/>
+      <c r="B235" s="21"/>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
@@ -7671,7 +7699,7 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="2"/>
-      <c r="B236" s="22"/>
+      <c r="B236" s="21"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
@@ -7681,7 +7709,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="2"/>
-      <c r="B237" s="22"/>
+      <c r="B237" s="21"/>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
@@ -7691,7 +7719,7 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="2"/>
-      <c r="B238" s="22"/>
+      <c r="B238" s="21"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -7701,7 +7729,7 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="2"/>
-      <c r="B239" s="22"/>
+      <c r="B239" s="21"/>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="5"/>
@@ -7711,7 +7739,7 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="2"/>
-      <c r="B240" s="22"/>
+      <c r="B240" s="21"/>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="5"/>
@@ -7721,7 +7749,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="2"/>
-      <c r="B241" s="22"/>
+      <c r="B241" s="21"/>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="5"/>
@@ -7731,7 +7759,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="2"/>
-      <c r="B242" s="22"/>
+      <c r="B242" s="21"/>
       <c r="C242" s="10"/>
       <c r="D242" s="2"/>
       <c r="E242" s="5"/>
@@ -7741,7 +7769,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="2"/>
-      <c r="B243" s="22"/>
+      <c r="B243" s="21"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="5"/>
@@ -7751,7 +7779,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="2"/>
-      <c r="B244" s="22"/>
+      <c r="B244" s="21"/>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="5"/>
@@ -7761,7 +7789,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="2"/>
-      <c r="B245" s="22"/>
+      <c r="B245" s="21"/>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="5"/>
@@ -7771,7 +7799,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="2"/>
-      <c r="B246" s="22"/>
+      <c r="B246" s="21"/>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -7781,7 +7809,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="2"/>
-      <c r="B247" s="22"/>
+      <c r="B247" s="21"/>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
@@ -7791,7 +7819,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="2"/>
-      <c r="B248" s="22"/>
+      <c r="B248" s="21"/>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -7801,7 +7829,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="2"/>
-      <c r="B249" s="22"/>
+      <c r="B249" s="21"/>
       <c r="C249" s="10"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
@@ -7811,7 +7839,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="2"/>
-      <c r="B250" s="22"/>
+      <c r="B250" s="21"/>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -7821,7 +7849,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="2"/>
-      <c r="B251" s="22"/>
+      <c r="B251" s="21"/>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -7831,7 +7859,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="2"/>
-      <c r="B252" s="22"/>
+      <c r="B252" s="21"/>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -7841,7 +7869,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="2"/>
-      <c r="B253" s="22"/>
+      <c r="B253" s="21"/>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -7851,7 +7879,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="2"/>
-      <c r="B254" s="22"/>
+      <c r="B254" s="21"/>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -7861,7 +7889,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="2"/>
-      <c r="B255" s="22"/>
+      <c r="B255" s="21"/>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -7871,7 +7899,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="2"/>
-      <c r="B256" s="22"/>
+      <c r="B256" s="21"/>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
@@ -7881,7 +7909,7 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="2"/>
-      <c r="B257" s="22"/>
+      <c r="B257" s="21"/>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -7891,7 +7919,7 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="2"/>
-      <c r="B258" s="22"/>
+      <c r="B258" s="21"/>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -7901,7 +7929,7 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="2"/>
-      <c r="B259" s="22"/>
+      <c r="B259" s="21"/>
       <c r="C259" s="10"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -7911,7 +7939,7 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="2"/>
-      <c r="B260" s="22"/>
+      <c r="B260" s="21"/>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
@@ -7921,7 +7949,7 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="2"/>
-      <c r="B261" s="22"/>
+      <c r="B261" s="21"/>
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
@@ -10551,6 +10579,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B2:B73"/>
+    <mergeCell ref="B169:B172"/>
+    <mergeCell ref="B173:B176"/>
+    <mergeCell ref="B74:B124"/>
+    <mergeCell ref="B165:B168"/>
+    <mergeCell ref="B125:B164"/>
     <mergeCell ref="B202:B211"/>
     <mergeCell ref="B212:B218"/>
     <mergeCell ref="B219:B223"/>
@@ -10561,12 +10595,6 @@
     <mergeCell ref="B239:B245"/>
     <mergeCell ref="B246:B254"/>
     <mergeCell ref="B190:B201"/>
-    <mergeCell ref="B2:B73"/>
-    <mergeCell ref="B169:B172"/>
-    <mergeCell ref="B173:B176"/>
-    <mergeCell ref="B74:B124"/>
-    <mergeCell ref="B165:B168"/>
-    <mergeCell ref="B125:B164"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10622,7 +10650,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -10644,7 +10672,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
-      <c r="B3" s="21"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
@@ -10664,7 +10692,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
-      <c r="B4" s="21"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
@@ -10684,7 +10712,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
-      <c r="B5" s="21"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
@@ -10704,7 +10732,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
-      <c r="B6" s="21"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
@@ -10724,7 +10752,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
-      <c r="B7" s="21"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
@@ -10744,7 +10772,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
-      <c r="B8" s="21"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
@@ -10764,7 +10792,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
-      <c r="B9" s="21"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
@@ -10784,7 +10812,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
-      <c r="B10" s="21"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="7" t="s">
         <v>16</v>
       </c>
@@ -10804,7 +10832,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
-      <c r="B11" s="21"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
@@ -10824,7 +10852,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
-      <c r="B12" s="21"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="7" t="s">
         <v>16</v>
       </c>
@@ -10846,7 +10874,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
-      <c r="B13" s="21"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="7" t="s">
         <v>16</v>
       </c>
@@ -10866,7 +10894,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
-      <c r="B14" s="21"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="7" t="s">
         <v>16</v>
       </c>
@@ -10886,7 +10914,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
-      <c r="B15" s="21"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="7" t="s">
         <v>16</v>
       </c>
@@ -10906,7 +10934,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
-      <c r="B16" s="21"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="7" t="s">
         <v>16</v>
       </c>
@@ -10926,7 +10954,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
-      <c r="B17" s="21"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="7" t="s">
         <v>16</v>
       </c>
@@ -10946,7 +10974,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
-      <c r="B18" s="21"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="7" t="s">
         <v>16</v>
       </c>
@@ -10966,7 +10994,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
-      <c r="B19" s="21"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="7" t="s">
         <v>16</v>
       </c>
@@ -10986,7 +11014,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
-      <c r="B20" s="21"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="7" t="s">
         <v>16</v>
       </c>
@@ -11006,7 +11034,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
-      <c r="B21" s="21"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="7" t="s">
         <v>16</v>
       </c>
@@ -11026,7 +11054,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
-      <c r="B22" s="21"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="7" t="s">
         <v>16</v>
       </c>
@@ -11046,7 +11074,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
-      <c r="B23" s="21"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="7" t="s">
         <v>16</v>
       </c>
@@ -11066,7 +11094,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
-      <c r="B24" s="21"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="7" t="s">
         <v>16</v>
       </c>
@@ -11086,7 +11114,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
-      <c r="B25" s="21"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="7" t="s">
         <v>16</v>
       </c>
@@ -11106,7 +11134,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
-      <c r="B26" s="21"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="7" t="s">
         <v>16</v>
       </c>
@@ -11126,7 +11154,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
-      <c r="B27" s="21"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="7" t="s">
         <v>16</v>
       </c>
@@ -11146,7 +11174,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
-      <c r="B28" s="21"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="7" t="s">
         <v>16</v>
       </c>
@@ -11166,7 +11194,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
-      <c r="B29" s="21"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="7" t="s">
         <v>16</v>
       </c>
@@ -11186,7 +11214,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
-      <c r="B30" s="21"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="7" t="s">
         <v>16</v>
       </c>
@@ -11206,7 +11234,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
-      <c r="B31" s="21"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="7" t="s">
         <v>16</v>
       </c>
@@ -11226,7 +11254,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
-      <c r="B32" s="21"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="7" t="s">
         <v>16</v>
       </c>
@@ -11246,7 +11274,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
-      <c r="B33" s="21"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="7" t="s">
         <v>16</v>
       </c>
@@ -11266,7 +11294,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
-      <c r="B34" s="21"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="7" t="s">
         <v>16</v>
       </c>
@@ -11286,7 +11314,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
-      <c r="B35" s="21"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="7" t="s">
         <v>16</v>
       </c>
@@ -11306,7 +11334,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
-      <c r="B36" s="21"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="7" t="s">
         <v>16</v>
       </c>
@@ -11326,7 +11354,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
-      <c r="B37" s="21"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="7" t="s">
         <v>16</v>
       </c>
@@ -11346,7 +11374,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
-      <c r="B38" s="21"/>
+      <c r="B38" s="24"/>
       <c r="C38" s="7" t="s">
         <v>16</v>
       </c>
@@ -11366,7 +11394,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
-      <c r="B39" s="21"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="7" t="s">
         <v>16</v>
       </c>
@@ -11386,7 +11414,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
-      <c r="B40" s="21"/>
+      <c r="B40" s="24"/>
       <c r="C40" s="7" t="s">
         <v>16</v>
       </c>
@@ -11406,7 +11434,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
-      <c r="B41" s="21"/>
+      <c r="B41" s="24"/>
       <c r="C41" s="7" t="s">
         <v>16</v>
       </c>
@@ -11426,7 +11454,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
-      <c r="B42" s="21"/>
+      <c r="B42" s="24"/>
       <c r="C42" s="7" t="s">
         <v>16</v>
       </c>
@@ -11446,7 +11474,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
-      <c r="B43" s="21"/>
+      <c r="B43" s="24"/>
       <c r="C43" s="7" t="s">
         <v>16</v>
       </c>
@@ -11466,7 +11494,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
-      <c r="B44" s="21"/>
+      <c r="B44" s="24"/>
       <c r="C44" s="7" t="s">
         <v>16</v>
       </c>
@@ -11486,7 +11514,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -11508,7 +11536,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
-      <c r="B46" s="22"/>
+      <c r="B46" s="21"/>
       <c r="C46" s="7" t="s">
         <v>104</v>
       </c>
@@ -11528,7 +11556,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
-      <c r="B47" s="22"/>
+      <c r="B47" s="21"/>
       <c r="C47" s="7" t="s">
         <v>104</v>
       </c>
@@ -11548,7 +11576,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
-      <c r="B48" s="22"/>
+      <c r="B48" s="21"/>
       <c r="C48" s="7" t="s">
         <v>104</v>
       </c>
@@ -11568,7 +11596,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
-      <c r="B49" s="22"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="7" t="s">
         <v>104</v>
       </c>
@@ -11588,7 +11616,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
-      <c r="B50" s="22"/>
+      <c r="B50" s="21"/>
       <c r="C50" s="7" t="s">
         <v>104</v>
       </c>
@@ -11608,7 +11636,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
-      <c r="B51" s="22"/>
+      <c r="B51" s="21"/>
       <c r="C51" s="7" t="s">
         <v>104</v>
       </c>
@@ -11628,7 +11656,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C52" s="7" t="s">
@@ -11650,7 +11678,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
-      <c r="B53" s="22"/>
+      <c r="B53" s="21"/>
       <c r="C53" s="7" t="s">
         <v>118</v>
       </c>
@@ -11670,7 +11698,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
-      <c r="B54" s="22"/>
+      <c r="B54" s="21"/>
       <c r="C54" s="7" t="s">
         <v>118</v>
       </c>
@@ -11690,7 +11718,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
-      <c r="B55" s="22"/>
+      <c r="B55" s="21"/>
       <c r="C55" s="7" t="s">
         <v>118</v>
       </c>
@@ -11710,7 +11738,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
-      <c r="B56" s="22"/>
+      <c r="B56" s="21"/>
       <c r="C56" s="7" t="s">
         <v>118</v>
       </c>
@@ -11730,7 +11758,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
-      <c r="B57" s="22"/>
+      <c r="B57" s="21"/>
       <c r="C57" s="7" t="s">
         <v>118</v>
       </c>
@@ -11750,7 +11778,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
-      <c r="B58" s="22"/>
+      <c r="B58" s="21"/>
       <c r="C58" s="7" t="s">
         <v>118</v>
       </c>
@@ -11770,7 +11798,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
-      <c r="B59" s="22"/>
+      <c r="B59" s="21"/>
       <c r="C59" s="7" t="s">
         <v>118</v>
       </c>
@@ -11790,7 +11818,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="7"/>
-      <c r="B60" s="22"/>
+      <c r="B60" s="21"/>
       <c r="C60" s="7" t="s">
         <v>118</v>
       </c>
@@ -11810,7 +11838,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="7"/>
-      <c r="B61" s="22"/>
+      <c r="B61" s="21"/>
       <c r="C61" s="7" t="s">
         <v>118</v>
       </c>
@@ -11830,7 +11858,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
-      <c r="B62" s="22"/>
+      <c r="B62" s="21"/>
       <c r="C62" s="7" t="s">
         <v>118</v>
       </c>
@@ -11850,7 +11878,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="7"/>
-      <c r="B63" s="22"/>
+      <c r="B63" s="21"/>
       <c r="C63" s="7" t="s">
         <v>118</v>
       </c>
@@ -11870,7 +11898,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
-      <c r="B64" s="22"/>
+      <c r="B64" s="21"/>
       <c r="C64" s="7" t="s">
         <v>118</v>
       </c>
@@ -11892,7 +11920,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="7"/>
-      <c r="B65" s="22"/>
+      <c r="B65" s="21"/>
       <c r="C65" s="7" t="s">
         <v>118</v>
       </c>
@@ -11912,7 +11940,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
-      <c r="B66" s="22"/>
+      <c r="B66" s="21"/>
       <c r="C66" s="7" t="s">
         <v>118</v>
       </c>
@@ -11934,7 +11962,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
-      <c r="B67" s="22"/>
+      <c r="B67" s="21"/>
       <c r="C67" s="7" t="s">
         <v>118</v>
       </c>
@@ -11954,7 +11982,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
-      <c r="B68" s="22"/>
+      <c r="B68" s="21"/>
       <c r="C68" s="7" t="s">
         <v>118</v>
       </c>
@@ -11974,7 +12002,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
-      <c r="B69" s="22"/>
+      <c r="B69" s="21"/>
       <c r="C69" s="7" t="s">
         <v>118</v>
       </c>
@@ -11994,7 +12022,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="7"/>
-      <c r="B70" s="22"/>
+      <c r="B70" s="21"/>
       <c r="C70" s="7" t="s">
         <v>118</v>
       </c>
@@ -12014,7 +12042,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
-      <c r="B71" s="22"/>
+      <c r="B71" s="21"/>
       <c r="C71" s="7" t="s">
         <v>118</v>
       </c>
@@ -12034,7 +12062,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
-      <c r="B72" s="22"/>
+      <c r="B72" s="21"/>
       <c r="C72" s="7" t="s">
         <v>118</v>
       </c>
@@ -12054,7 +12082,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
-      <c r="B73" s="22"/>
+      <c r="B73" s="21"/>
       <c r="C73" s="7" t="s">
         <v>118</v>
       </c>
@@ -12074,7 +12102,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
-      <c r="B74" s="22"/>
+      <c r="B74" s="21"/>
       <c r="C74" s="7" t="s">
         <v>118</v>
       </c>
@@ -12094,7 +12122,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="7"/>
-      <c r="B75" s="22"/>
+      <c r="B75" s="21"/>
       <c r="C75" s="7" t="s">
         <v>118</v>
       </c>
@@ -12114,7 +12142,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="7"/>
-      <c r="B76" s="22"/>
+      <c r="B76" s="21"/>
       <c r="C76" s="7" t="s">
         <v>118</v>
       </c>
@@ -12134,7 +12162,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
-      <c r="B77" s="22" t="s">
+      <c r="B77" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C77" s="7" t="s">
@@ -12156,7 +12184,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="7"/>
-      <c r="B78" s="22"/>
+      <c r="B78" s="21"/>
       <c r="C78" s="7" t="s">
         <v>536</v>
       </c>
@@ -12176,7 +12204,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="7"/>
-      <c r="B79" s="22"/>
+      <c r="B79" s="21"/>
       <c r="C79" s="7" t="s">
         <v>536</v>
       </c>
@@ -12196,7 +12224,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
-      <c r="B80" s="22"/>
+      <c r="B80" s="21"/>
       <c r="C80" s="7" t="s">
         <v>536</v>
       </c>
@@ -12216,7 +12244,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
-      <c r="B81" s="22"/>
+      <c r="B81" s="21"/>
       <c r="C81" s="7" t="s">
         <v>536</v>
       </c>
@@ -12236,7 +12264,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="7"/>
-      <c r="B82" s="22"/>
+      <c r="B82" s="21"/>
       <c r="C82" s="7" t="s">
         <v>536</v>
       </c>
@@ -12256,7 +12284,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="7"/>
-      <c r="B83" s="22"/>
+      <c r="B83" s="21"/>
       <c r="C83" s="7" t="s">
         <v>536</v>
       </c>
@@ -12276,7 +12304,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="7"/>
-      <c r="B84" s="22"/>
+      <c r="B84" s="21"/>
       <c r="C84" s="7" t="s">
         <v>536</v>
       </c>
@@ -12296,7 +12324,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="7"/>
-      <c r="B85" s="22"/>
+      <c r="B85" s="21"/>
       <c r="C85" s="7" t="s">
         <v>536</v>
       </c>
@@ -12316,7 +12344,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="7"/>
-      <c r="B86" s="22"/>
+      <c r="B86" s="21"/>
       <c r="C86" s="7" t="s">
         <v>536</v>
       </c>
@@ -12336,7 +12364,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="7"/>
-      <c r="B87" s="22"/>
+      <c r="B87" s="21"/>
       <c r="C87" s="7" t="s">
         <v>536</v>
       </c>
@@ -12356,7 +12384,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="7"/>
-      <c r="B88" s="22"/>
+      <c r="B88" s="21"/>
       <c r="C88" s="7" t="s">
         <v>536</v>
       </c>
@@ -12376,7 +12404,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="7"/>
-      <c r="B89" s="22"/>
+      <c r="B89" s="21"/>
       <c r="C89" s="7" t="s">
         <v>536</v>
       </c>
@@ -12396,7 +12424,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="7"/>
-      <c r="B90" s="22"/>
+      <c r="B90" s="21"/>
       <c r="C90" s="7" t="s">
         <v>536</v>
       </c>
@@ -12416,7 +12444,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="7"/>
-      <c r="B91" s="22"/>
+      <c r="B91" s="21"/>
       <c r="C91" s="7" t="s">
         <v>536</v>
       </c>
@@ -12436,7 +12464,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="7"/>
-      <c r="B92" s="22"/>
+      <c r="B92" s="21"/>
       <c r="C92" s="7" t="s">
         <v>536</v>
       </c>
@@ -12456,7 +12484,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="7"/>
-      <c r="B93" s="22"/>
+      <c r="B93" s="21"/>
       <c r="C93" s="7" t="s">
         <v>536</v>
       </c>
@@ -12476,7 +12504,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="7"/>
-      <c r="B94" s="22"/>
+      <c r="B94" s="21"/>
       <c r="C94" s="7" t="s">
         <v>536</v>
       </c>
@@ -12496,7 +12524,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="7"/>
-      <c r="B95" s="22"/>
+      <c r="B95" s="21"/>
       <c r="C95" s="7" t="s">
         <v>536</v>
       </c>
@@ -12516,7 +12544,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="7"/>
-      <c r="B96" s="22"/>
+      <c r="B96" s="21"/>
       <c r="C96" s="7" t="s">
         <v>536</v>
       </c>
@@ -12536,7 +12564,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="7"/>
-      <c r="B97" s="22"/>
+      <c r="B97" s="21"/>
       <c r="C97" s="7" t="s">
         <v>536</v>
       </c>
@@ -12556,7 +12584,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="7"/>
-      <c r="B98" s="22"/>
+      <c r="B98" s="21"/>
       <c r="C98" s="7" t="s">
         <v>536</v>
       </c>
@@ -12576,7 +12604,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="7"/>
-      <c r="B99" s="22"/>
+      <c r="B99" s="21"/>
       <c r="C99" s="7" t="s">
         <v>536</v>
       </c>
@@ -12596,7 +12624,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="7"/>
-      <c r="B100" s="22" t="s">
+      <c r="B100" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C100" s="7" t="s">
@@ -12618,7 +12646,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="7"/>
-      <c r="B101" s="22"/>
+      <c r="B101" s="21"/>
       <c r="C101" s="7" t="s">
         <v>561</v>
       </c>
@@ -12638,7 +12666,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="7"/>
-      <c r="B102" s="22"/>
+      <c r="B102" s="21"/>
       <c r="C102" s="7" t="s">
         <v>170</v>
       </c>
@@ -12658,7 +12686,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="7"/>
-      <c r="B103" s="22"/>
+      <c r="B103" s="21"/>
       <c r="C103" s="7" t="s">
         <v>170</v>
       </c>
@@ -12678,7 +12706,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="7"/>
-      <c r="B104" s="22" t="s">
+      <c r="B104" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C104" s="7" t="s">
@@ -12700,7 +12728,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="7"/>
-      <c r="B105" s="22"/>
+      <c r="B105" s="21"/>
       <c r="C105" s="7" t="s">
         <v>179</v>
       </c>
@@ -12720,7 +12748,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="7"/>
-      <c r="B106" s="22"/>
+      <c r="B106" s="21"/>
       <c r="C106" s="7" t="s">
         <v>562</v>
       </c>
@@ -12740,7 +12768,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="7"/>
-      <c r="B107" s="22"/>
+      <c r="B107" s="21"/>
       <c r="C107" s="7" t="s">
         <v>179</v>
       </c>
@@ -12760,7 +12788,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="7"/>
-      <c r="B108" s="22"/>
+      <c r="B108" s="21"/>
       <c r="C108" s="7" t="s">
         <v>179</v>
       </c>
@@ -12780,7 +12808,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="7"/>
-      <c r="B109" s="22"/>
+      <c r="B109" s="21"/>
       <c r="C109" s="7" t="s">
         <v>179</v>
       </c>
@@ -12800,7 +12828,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="7"/>
-      <c r="B110" s="22"/>
+      <c r="B110" s="21"/>
       <c r="C110" s="7" t="s">
         <v>179</v>
       </c>
@@ -12820,7 +12848,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="7"/>
-      <c r="B111" s="22"/>
+      <c r="B111" s="21"/>
       <c r="C111" s="7" t="s">
         <v>179</v>
       </c>
@@ -12840,7 +12868,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="7"/>
-      <c r="B112" s="22"/>
+      <c r="B112" s="21"/>
       <c r="C112" s="7" t="s">
         <v>179</v>
       </c>
@@ -12860,7 +12888,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="7"/>
-      <c r="B113" s="22"/>
+      <c r="B113" s="21"/>
       <c r="C113" s="7" t="s">
         <v>179</v>
       </c>
@@ -12880,7 +12908,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="7"/>
-      <c r="B114" s="22"/>
+      <c r="B114" s="21"/>
       <c r="C114" s="7" t="s">
         <v>179</v>
       </c>
@@ -12900,7 +12928,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="7"/>
-      <c r="B115" s="22"/>
+      <c r="B115" s="21"/>
       <c r="C115" s="7" t="s">
         <v>179</v>
       </c>
@@ -12920,7 +12948,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="7"/>
-      <c r="B116" s="22"/>
+      <c r="B116" s="21"/>
       <c r="C116" s="7" t="s">
         <v>179</v>
       </c>
@@ -12940,7 +12968,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="7"/>
-      <c r="B117" s="22"/>
+      <c r="B117" s="21"/>
       <c r="C117" s="7" t="s">
         <v>179</v>
       </c>
@@ -12960,7 +12988,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="7"/>
-      <c r="B118" s="22"/>
+      <c r="B118" s="21"/>
       <c r="C118" s="7" t="s">
         <v>179</v>
       </c>
@@ -12982,7 +13010,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="7"/>
-      <c r="B119" s="22"/>
+      <c r="B119" s="21"/>
       <c r="C119" s="7" t="s">
         <v>179</v>
       </c>
@@ -13002,7 +13030,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="7"/>
-      <c r="B120" s="22"/>
+      <c r="B120" s="21"/>
       <c r="C120" s="7" t="s">
         <v>179</v>
       </c>
@@ -13022,7 +13050,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="7"/>
-      <c r="B121" s="22"/>
+      <c r="B121" s="21"/>
       <c r="C121" s="7" t="s">
         <v>179</v>
       </c>
@@ -13042,7 +13070,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="7"/>
-      <c r="B122" s="22"/>
+      <c r="B122" s="21"/>
       <c r="C122" s="7" t="s">
         <v>179</v>
       </c>
@@ -13062,7 +13090,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="7"/>
-      <c r="B123" s="22"/>
+      <c r="B123" s="21"/>
       <c r="C123" s="7" t="s">
         <v>179</v>
       </c>
@@ -13082,7 +13110,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="7"/>
-      <c r="B124" s="22"/>
+      <c r="B124" s="21"/>
       <c r="C124" s="7" t="s">
         <v>179</v>
       </c>
@@ -13102,7 +13130,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="7"/>
-      <c r="B125" s="22"/>
+      <c r="B125" s="21"/>
       <c r="C125" s="7" t="s">
         <v>179</v>
       </c>
@@ -13122,7 +13150,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="7"/>
-      <c r="B126" s="22"/>
+      <c r="B126" s="21"/>
       <c r="C126" s="7" t="s">
         <v>179</v>
       </c>
@@ -13142,7 +13170,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="7"/>
-      <c r="B127" s="22"/>
+      <c r="B127" s="21"/>
       <c r="C127" s="7" t="s">
         <v>179</v>
       </c>
@@ -13162,7 +13190,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="7"/>
-      <c r="B128" s="22"/>
+      <c r="B128" s="21"/>
       <c r="C128" s="7" t="s">
         <v>179</v>
       </c>
@@ -13184,7 +13212,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="7"/>
-      <c r="B129" s="22"/>
+      <c r="B129" s="21"/>
       <c r="C129" s="7" t="s">
         <v>179</v>
       </c>
@@ -13204,7 +13232,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="7"/>
-      <c r="B130" s="22"/>
+      <c r="B130" s="21"/>
       <c r="C130" s="7" t="s">
         <v>179</v>
       </c>
@@ -13226,7 +13254,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="7"/>
-      <c r="B131" s="22"/>
+      <c r="B131" s="21"/>
       <c r="C131" s="7" t="s">
         <v>179</v>
       </c>
@@ -13248,7 +13276,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="7"/>
-      <c r="B132" s="22"/>
+      <c r="B132" s="21"/>
       <c r="C132" s="7" t="s">
         <v>179</v>
       </c>
@@ -13270,7 +13298,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="7"/>
-      <c r="B133" s="22"/>
+      <c r="B133" s="21"/>
       <c r="C133" s="7" t="s">
         <v>179</v>
       </c>
@@ -13292,7 +13320,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="7"/>
-      <c r="B134" s="22"/>
+      <c r="B134" s="21"/>
       <c r="C134" s="7" t="s">
         <v>179</v>
       </c>
@@ -13314,7 +13342,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="7"/>
-      <c r="B135" s="22"/>
+      <c r="B135" s="21"/>
       <c r="C135" s="7" t="s">
         <v>179</v>
       </c>
@@ -13336,7 +13364,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="7"/>
-      <c r="B136" s="22"/>
+      <c r="B136" s="21"/>
       <c r="C136" s="7" t="s">
         <v>179</v>
       </c>
@@ -13358,7 +13386,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="7"/>
-      <c r="B137" s="22"/>
+      <c r="B137" s="21"/>
       <c r="C137" s="7" t="s">
         <v>179</v>
       </c>
@@ -13380,7 +13408,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="7"/>
-      <c r="B138" s="22"/>
+      <c r="B138" s="21"/>
       <c r="C138" s="7" t="s">
         <v>179</v>
       </c>
@@ -13402,7 +13430,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="7"/>
-      <c r="B139" s="22"/>
+      <c r="B139" s="21"/>
       <c r="C139" s="7" t="s">
         <v>179</v>
       </c>
@@ -13424,7 +13452,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="7"/>
-      <c r="B140" s="22"/>
+      <c r="B140" s="21"/>
       <c r="C140" s="7" t="s">
         <v>179</v>
       </c>
@@ -13446,7 +13474,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="7"/>
-      <c r="B141" s="22"/>
+      <c r="B141" s="21"/>
       <c r="C141" s="7" t="s">
         <v>179</v>
       </c>
@@ -13466,7 +13494,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="7"/>
-      <c r="B142" s="22"/>
+      <c r="B142" s="21"/>
       <c r="C142" s="7" t="s">
         <v>179</v>
       </c>
@@ -13486,7 +13514,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="7"/>
-      <c r="B143" s="22"/>
+      <c r="B143" s="21"/>
       <c r="C143" s="7" t="s">
         <v>179</v>
       </c>
@@ -13506,7 +13534,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="7"/>
-      <c r="B144" s="22"/>
+      <c r="B144" s="21"/>
       <c r="C144" s="7" t="s">
         <v>179</v>
       </c>
@@ -13526,7 +13554,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="7"/>
-      <c r="B145" s="22"/>
+      <c r="B145" s="21"/>
       <c r="C145" s="7" t="s">
         <v>179</v>
       </c>
@@ -13546,7 +13574,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="7"/>
-      <c r="B146" s="22"/>
+      <c r="B146" s="21"/>
       <c r="C146" s="7" t="s">
         <v>179</v>
       </c>
@@ -13566,7 +13594,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="7"/>
-      <c r="B147" s="22"/>
+      <c r="B147" s="21"/>
       <c r="C147" s="7" t="s">
         <v>179</v>
       </c>
@@ -13586,7 +13614,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="7"/>
-      <c r="B148" s="22"/>
+      <c r="B148" s="21"/>
       <c r="C148" s="7" t="s">
         <v>179</v>
       </c>
@@ -13606,7 +13634,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="7"/>
-      <c r="B149" s="22" t="s">
+      <c r="B149" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C149" s="7" t="s">
@@ -13628,7 +13656,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="7"/>
-      <c r="B150" s="22"/>
+      <c r="B150" s="21"/>
       <c r="C150" s="7" t="s">
         <v>272</v>
       </c>
@@ -13648,7 +13676,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="7"/>
-      <c r="B151" s="22"/>
+      <c r="B151" s="21"/>
       <c r="C151" s="7" t="s">
         <v>272</v>
       </c>
@@ -13668,7 +13696,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="7"/>
-      <c r="B152" s="22"/>
+      <c r="B152" s="21"/>
       <c r="C152" s="7" t="s">
         <v>272</v>
       </c>
@@ -13688,7 +13716,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="7"/>
-      <c r="B153" s="22" t="s">
+      <c r="B153" s="21" t="s">
         <v>563</v>
       </c>
       <c r="C153" s="7" t="s">
@@ -13710,7 +13738,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="7"/>
-      <c r="B154" s="22"/>
+      <c r="B154" s="21"/>
       <c r="C154" s="7" t="s">
         <v>280</v>
       </c>
@@ -13730,7 +13758,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="7"/>
-      <c r="B155" s="22"/>
+      <c r="B155" s="21"/>
       <c r="C155" s="7" t="s">
         <v>280</v>
       </c>
@@ -13750,7 +13778,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="7"/>
-      <c r="B156" s="22"/>
+      <c r="B156" s="21"/>
       <c r="C156" s="7" t="s">
         <v>280</v>
       </c>
@@ -13770,7 +13798,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="7"/>
-      <c r="B157" s="22"/>
+      <c r="B157" s="21"/>
       <c r="C157" s="7" t="s">
         <v>280</v>
       </c>
@@ -13790,7 +13818,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="7"/>
-      <c r="B158" s="22"/>
+      <c r="B158" s="21"/>
       <c r="C158" s="7" t="s">
         <v>280</v>
       </c>
@@ -13810,7 +13838,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="7"/>
-      <c r="B159" s="22"/>
+      <c r="B159" s="21"/>
       <c r="C159" s="7" t="s">
         <v>280</v>
       </c>
@@ -13830,7 +13858,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="7"/>
-      <c r="B160" s="22"/>
+      <c r="B160" s="21"/>
       <c r="C160" s="7" t="s">
         <v>280</v>
       </c>
@@ -13850,7 +13878,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="7"/>
-      <c r="B161" s="22"/>
+      <c r="B161" s="21"/>
       <c r="C161" s="7" t="s">
         <v>280</v>
       </c>
@@ -13870,7 +13898,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="7"/>
-      <c r="B162" s="22"/>
+      <c r="B162" s="21"/>
       <c r="C162" s="7" t="s">
         <v>280</v>
       </c>
@@ -13890,7 +13918,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="7"/>
-      <c r="B163" s="22"/>
+      <c r="B163" s="21"/>
       <c r="C163" s="7" t="s">
         <v>280</v>
       </c>
@@ -13910,7 +13938,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="7"/>
-      <c r="B164" s="22"/>
+      <c r="B164" s="21"/>
       <c r="C164" s="7" t="s">
         <v>280</v>
       </c>
@@ -13930,7 +13958,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="7"/>
-      <c r="B165" s="22"/>
+      <c r="B165" s="21"/>
       <c r="C165" s="7" t="s">
         <v>280</v>
       </c>
@@ -13950,7 +13978,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="7"/>
-      <c r="B166" s="22"/>
+      <c r="B166" s="21"/>
       <c r="C166" s="7" t="s">
         <v>280</v>
       </c>
@@ -13970,7 +13998,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="7"/>
-      <c r="B167" s="22"/>
+      <c r="B167" s="21"/>
       <c r="C167" s="7" t="s">
         <v>280</v>
       </c>
@@ -13990,7 +14018,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="7"/>
-      <c r="B168" s="22"/>
+      <c r="B168" s="21"/>
       <c r="C168" s="7" t="s">
         <v>280</v>
       </c>
@@ -14010,7 +14038,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="7"/>
-      <c r="B169" s="22"/>
+      <c r="B169" s="21"/>
       <c r="C169" s="7" t="s">
         <v>280</v>
       </c>
@@ -14030,7 +14058,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="7"/>
-      <c r="B170" s="22"/>
+      <c r="B170" s="21"/>
       <c r="C170" s="7" t="s">
         <v>280</v>
       </c>
@@ -14050,7 +14078,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="7"/>
-      <c r="B171" s="22"/>
+      <c r="B171" s="21"/>
       <c r="C171" s="7" t="s">
         <v>280</v>
       </c>
@@ -14070,7 +14098,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="7"/>
-      <c r="B172" s="22"/>
+      <c r="B172" s="21"/>
       <c r="C172" s="7" t="s">
         <v>280</v>
       </c>
@@ -14090,7 +14118,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="7"/>
-      <c r="B173" s="22"/>
+      <c r="B173" s="21"/>
       <c r="C173" s="7" t="s">
         <v>280</v>
       </c>
@@ -14110,7 +14138,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="7"/>
-      <c r="B174" s="22"/>
+      <c r="B174" s="21"/>
       <c r="C174" s="7" t="s">
         <v>564</v>
       </c>
@@ -14130,7 +14158,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="7"/>
-      <c r="B175" s="22"/>
+      <c r="B175" s="21"/>
       <c r="C175" s="7" t="s">
         <v>280</v>
       </c>
@@ -14150,7 +14178,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="7"/>
-      <c r="B176" s="22"/>
+      <c r="B176" s="21"/>
       <c r="C176" s="7" t="s">
         <v>280</v>
       </c>
@@ -14170,7 +14198,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="7"/>
-      <c r="B177" s="22"/>
+      <c r="B177" s="21"/>
       <c r="C177" s="7" t="s">
         <v>280</v>
       </c>
@@ -14190,7 +14218,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="7"/>
-      <c r="B178" s="22"/>
+      <c r="B178" s="21"/>
       <c r="C178" s="7" t="s">
         <v>280</v>
       </c>
@@ -14210,7 +14238,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="7"/>
-      <c r="B179" s="22"/>
+      <c r="B179" s="21"/>
       <c r="C179" s="7" t="s">
         <v>280</v>
       </c>
@@ -14230,7 +14258,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="7"/>
-      <c r="B180" s="22"/>
+      <c r="B180" s="21"/>
       <c r="C180" s="7" t="s">
         <v>280</v>
       </c>
@@ -14250,7 +14278,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="7"/>
-      <c r="B181" s="22"/>
+      <c r="B181" s="21"/>
       <c r="C181" s="7" t="s">
         <v>280</v>
       </c>
@@ -14270,7 +14298,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="7"/>
-      <c r="B182" s="22"/>
+      <c r="B182" s="21"/>
       <c r="C182" s="7" t="s">
         <v>280</v>
       </c>
@@ -14290,7 +14318,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="7"/>
-      <c r="B183" s="22"/>
+      <c r="B183" s="21"/>
       <c r="C183" s="7" t="s">
         <v>280</v>
       </c>
@@ -14310,7 +14338,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="7"/>
-      <c r="B184" s="22"/>
+      <c r="B184" s="21"/>
       <c r="C184" s="7" t="s">
         <v>280</v>
       </c>
@@ -14330,7 +14358,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="7"/>
-      <c r="B185" s="22"/>
+      <c r="B185" s="21"/>
       <c r="C185" s="7" t="s">
         <v>280</v>
       </c>
@@ -14350,7 +14378,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="7"/>
-      <c r="B186" s="22"/>
+      <c r="B186" s="21"/>
       <c r="C186" s="7" t="s">
         <v>280</v>
       </c>
@@ -14370,7 +14398,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="7"/>
-      <c r="B187" s="22"/>
+      <c r="B187" s="21"/>
       <c r="C187" s="7" t="s">
         <v>280</v>
       </c>
@@ -14390,7 +14418,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="7"/>
-      <c r="B188" s="22"/>
+      <c r="B188" s="21"/>
       <c r="C188" s="7" t="s">
         <v>280</v>
       </c>
@@ -14410,7 +14438,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="7"/>
-      <c r="B189" s="22"/>
+      <c r="B189" s="21"/>
       <c r="C189" s="7" t="s">
         <v>280</v>
       </c>
@@ -14430,7 +14458,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="7"/>
-      <c r="B190" s="22"/>
+      <c r="B190" s="21"/>
       <c r="C190" s="7" t="s">
         <v>280</v>
       </c>
@@ -14450,7 +14478,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="7"/>
-      <c r="B191" s="22"/>
+      <c r="B191" s="21"/>
       <c r="C191" s="7" t="s">
         <v>280</v>
       </c>
@@ -14470,7 +14498,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="7"/>
-      <c r="B192" s="22"/>
+      <c r="B192" s="21"/>
       <c r="C192" s="7" t="s">
         <v>280</v>
       </c>
@@ -14490,7 +14518,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="7"/>
-      <c r="B193" s="22"/>
+      <c r="B193" s="21"/>
       <c r="C193" s="7" t="s">
         <v>280</v>
       </c>
@@ -14510,7 +14538,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="7"/>
-      <c r="B194" s="22"/>
+      <c r="B194" s="21"/>
       <c r="C194" s="7" t="s">
         <v>280</v>
       </c>
@@ -14530,7 +14558,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="7"/>
-      <c r="B195" s="22"/>
+      <c r="B195" s="21"/>
       <c r="C195" s="7" t="s">
         <v>280</v>
       </c>
@@ -14550,7 +14578,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="7"/>
-      <c r="B196" s="22"/>
+      <c r="B196" s="21"/>
       <c r="C196" s="7" t="s">
         <v>280</v>
       </c>
@@ -14570,7 +14598,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="7"/>
-      <c r="B197" s="22"/>
+      <c r="B197" s="21"/>
       <c r="C197" s="7" t="s">
         <v>280</v>
       </c>
@@ -14590,7 +14618,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="7"/>
-      <c r="B198" s="22"/>
+      <c r="B198" s="21"/>
       <c r="C198" s="7" t="s">
         <v>280</v>
       </c>
@@ -14610,7 +14638,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="7"/>
-      <c r="B199" s="22"/>
+      <c r="B199" s="21"/>
       <c r="C199" s="7" t="s">
         <v>280</v>
       </c>
@@ -14630,7 +14658,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="7"/>
-      <c r="B200" s="22"/>
+      <c r="B200" s="21"/>
       <c r="C200" s="7" t="s">
         <v>280</v>
       </c>
@@ -14650,7 +14678,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="7"/>
-      <c r="B201" s="22"/>
+      <c r="B201" s="21"/>
       <c r="C201" s="7" t="s">
         <v>280</v>
       </c>
@@ -14670,7 +14698,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="7"/>
-      <c r="B202" s="22"/>
+      <c r="B202" s="21"/>
       <c r="C202" s="7" t="s">
         <v>280</v>
       </c>
@@ -14690,7 +14718,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="7"/>
-      <c r="B203" s="22"/>
+      <c r="B203" s="21"/>
       <c r="C203" s="7" t="s">
         <v>280</v>
       </c>
@@ -14710,7 +14738,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="7"/>
-      <c r="B204" s="22"/>
+      <c r="B204" s="21"/>
       <c r="C204" s="7" t="s">
         <v>280</v>
       </c>
@@ -14730,7 +14758,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="7"/>
-      <c r="B205" s="22"/>
+      <c r="B205" s="21"/>
       <c r="C205" s="7" t="s">
         <v>280</v>
       </c>
@@ -14750,7 +14778,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="7"/>
-      <c r="B206" s="22"/>
+      <c r="B206" s="21"/>
       <c r="C206" s="7" t="s">
         <v>280</v>
       </c>
@@ -14770,7 +14798,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="7"/>
-      <c r="B207" s="22"/>
+      <c r="B207" s="21"/>
       <c r="C207" s="7" t="s">
         <v>280</v>
       </c>
@@ -14790,7 +14818,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="7"/>
-      <c r="B208" s="22"/>
+      <c r="B208" s="21"/>
       <c r="C208" s="7" t="s">
         <v>280</v>
       </c>
@@ -14810,7 +14838,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="7"/>
-      <c r="B209" s="22"/>
+      <c r="B209" s="21"/>
       <c r="C209" s="7" t="s">
         <v>280</v>
       </c>
@@ -14830,7 +14858,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="7"/>
-      <c r="B210" s="22"/>
+      <c r="B210" s="21"/>
       <c r="C210" s="7" t="s">
         <v>280</v>
       </c>
@@ -14850,7 +14878,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="7"/>
-      <c r="B211" s="22"/>
+      <c r="B211" s="21"/>
       <c r="C211" s="7" t="s">
         <v>280</v>
       </c>
@@ -14870,7 +14898,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="7"/>
-      <c r="B212" s="22"/>
+      <c r="B212" s="21"/>
       <c r="C212" s="7" t="s">
         <v>280</v>
       </c>
@@ -14890,7 +14918,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="7"/>
-      <c r="B213" s="22"/>
+      <c r="B213" s="21"/>
       <c r="C213" s="7" t="s">
         <v>280</v>
       </c>
@@ -14910,7 +14938,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="7"/>
-      <c r="B214" s="22"/>
+      <c r="B214" s="21"/>
       <c r="C214" s="7" t="s">
         <v>280</v>
       </c>
@@ -14930,7 +14958,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="7"/>
-      <c r="B215" s="22"/>
+      <c r="B215" s="21"/>
       <c r="C215" s="7" t="s">
         <v>280</v>
       </c>
@@ -14950,7 +14978,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="7"/>
-      <c r="B216" s="22"/>
+      <c r="B216" s="21"/>
       <c r="C216" s="7" t="s">
         <v>280</v>
       </c>
@@ -14970,7 +14998,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="7"/>
-      <c r="B217" s="22"/>
+      <c r="B217" s="21"/>
       <c r="C217" s="7" t="s">
         <v>280</v>
       </c>
@@ -14990,7 +15018,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="7"/>
-      <c r="B218" s="22"/>
+      <c r="B218" s="21"/>
       <c r="C218" s="7" t="s">
         <v>280</v>
       </c>
@@ -15010,7 +15038,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="7"/>
-      <c r="B219" s="22"/>
+      <c r="B219" s="21"/>
       <c r="C219" s="7" t="s">
         <v>280</v>
       </c>
@@ -15030,7 +15058,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="7"/>
-      <c r="B220" s="22"/>
+      <c r="B220" s="21"/>
       <c r="C220" s="7" t="s">
         <v>280</v>
       </c>
@@ -15050,7 +15078,7 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="7"/>
-      <c r="B221" s="24" t="s">
+      <c r="B221" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C221" s="7" t="s">
@@ -15072,7 +15100,7 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="7"/>
-      <c r="B222" s="24"/>
+      <c r="B222" s="25"/>
       <c r="C222" s="7" t="s">
         <v>416</v>
       </c>
@@ -15092,7 +15120,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="7"/>
-      <c r="B223" s="24"/>
+      <c r="B223" s="25"/>
       <c r="C223" s="7" t="s">
         <v>416</v>
       </c>
@@ -15112,7 +15140,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="7"/>
-      <c r="B224" s="24"/>
+      <c r="B224" s="25"/>
       <c r="C224" s="7" t="s">
         <v>565</v>
       </c>
@@ -15132,7 +15160,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="7"/>
-      <c r="B225" s="24"/>
+      <c r="B225" s="25"/>
       <c r="C225" s="7" t="s">
         <v>416</v>
       </c>
@@ -15152,7 +15180,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="7"/>
-      <c r="B226" s="24"/>
+      <c r="B226" s="25"/>
       <c r="C226" s="7" t="s">
         <v>416</v>
       </c>
@@ -15172,7 +15200,7 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="7"/>
-      <c r="B227" s="24"/>
+      <c r="B227" s="25"/>
       <c r="C227" s="7" t="s">
         <v>416</v>
       </c>
@@ -15192,7 +15220,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="7"/>
-      <c r="B228" s="22" t="s">
+      <c r="B228" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C228" s="7" t="s">
@@ -15214,7 +15242,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="7"/>
-      <c r="B229" s="22"/>
+      <c r="B229" s="21"/>
       <c r="C229" s="7" t="s">
         <v>430</v>
       </c>
@@ -15234,7 +15262,7 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="7"/>
-      <c r="B230" s="22"/>
+      <c r="B230" s="21"/>
       <c r="C230" s="7" t="s">
         <v>430</v>
       </c>
@@ -15254,7 +15282,7 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="7"/>
-      <c r="B231" s="22"/>
+      <c r="B231" s="21"/>
       <c r="C231" s="7" t="s">
         <v>430</v>
       </c>
@@ -15274,7 +15302,7 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="7"/>
-      <c r="B232" s="22"/>
+      <c r="B232" s="21"/>
       <c r="C232" s="7" t="s">
         <v>430</v>
       </c>
@@ -15294,7 +15322,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="7"/>
-      <c r="B233" s="22"/>
+      <c r="B233" s="21"/>
       <c r="C233" s="7" t="s">
         <v>430</v>
       </c>
@@ -15314,7 +15342,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="7"/>
-      <c r="B234" s="22"/>
+      <c r="B234" s="21"/>
       <c r="C234" s="7" t="s">
         <v>430</v>
       </c>
@@ -15334,7 +15362,7 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="7"/>
-      <c r="B235" s="22"/>
+      <c r="B235" s="21"/>
       <c r="C235" s="7" t="s">
         <v>430</v>
       </c>
@@ -15354,7 +15382,7 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="7"/>
-      <c r="B236" s="22"/>
+      <c r="B236" s="21"/>
       <c r="C236" s="7" t="s">
         <v>566</v>
       </c>
@@ -15374,7 +15402,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="7"/>
-      <c r="B237" s="22"/>
+      <c r="B237" s="21"/>
       <c r="C237" s="7" t="s">
         <v>430</v>
       </c>
@@ -15394,7 +15422,7 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="7"/>
-      <c r="B238" s="22"/>
+      <c r="B238" s="21"/>
       <c r="C238" s="7" t="s">
         <v>430</v>
       </c>
@@ -15414,7 +15442,7 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="7"/>
-      <c r="B239" s="22"/>
+      <c r="B239" s="21"/>
       <c r="C239" s="7" t="s">
         <v>430</v>
       </c>
@@ -15434,7 +15462,7 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="7"/>
-      <c r="B240" s="22"/>
+      <c r="B240" s="21"/>
       <c r="C240" s="7" t="s">
         <v>430</v>
       </c>
@@ -15454,7 +15482,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="7"/>
-      <c r="B241" s="22"/>
+      <c r="B241" s="21"/>
       <c r="C241" s="7" t="s">
         <v>430</v>
       </c>
@@ -15474,7 +15502,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="7"/>
-      <c r="B242" s="22"/>
+      <c r="B242" s="21"/>
       <c r="C242" s="7" t="s">
         <v>430</v>
       </c>
@@ -15494,7 +15522,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="7"/>
-      <c r="B243" s="22"/>
+      <c r="B243" s="21"/>
       <c r="C243" s="7" t="s">
         <v>430</v>
       </c>
@@ -15514,7 +15542,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="7"/>
-      <c r="B244" s="22"/>
+      <c r="B244" s="21"/>
       <c r="C244" s="7" t="s">
         <v>430</v>
       </c>
@@ -15534,7 +15562,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="7"/>
-      <c r="B245" s="22"/>
+      <c r="B245" s="21"/>
       <c r="C245" s="7" t="s">
         <v>430</v>
       </c>
@@ -15554,7 +15582,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="7"/>
-      <c r="B246" s="22"/>
+      <c r="B246" s="21"/>
       <c r="C246" s="7" t="s">
         <v>430</v>
       </c>
@@ -15574,7 +15602,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="7"/>
-      <c r="B247" s="22"/>
+      <c r="B247" s="21"/>
       <c r="C247" s="7" t="s">
         <v>430</v>
       </c>
@@ -15594,7 +15622,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="7"/>
-      <c r="B248" s="22"/>
+      <c r="B248" s="21"/>
       <c r="C248" s="7" t="s">
         <v>430</v>
       </c>
@@ -15614,7 +15642,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="7"/>
-      <c r="B249" s="22"/>
+      <c r="B249" s="21"/>
       <c r="C249" s="7" t="s">
         <v>430</v>
       </c>
@@ -15634,7 +15662,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="7"/>
-      <c r="B250" s="22"/>
+      <c r="B250" s="21"/>
       <c r="C250" s="7" t="s">
         <v>430</v>
       </c>
@@ -15654,7 +15682,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="7"/>
-      <c r="B251" s="22"/>
+      <c r="B251" s="21"/>
       <c r="C251" s="7" t="s">
         <v>430</v>
       </c>
@@ -15674,7 +15702,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="7"/>
-      <c r="B252" s="22"/>
+      <c r="B252" s="21"/>
       <c r="C252" s="7" t="s">
         <v>430</v>
       </c>
@@ -15694,7 +15722,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="7"/>
-      <c r="B253" s="22"/>
+      <c r="B253" s="21"/>
       <c r="C253" s="7" t="s">
         <v>430</v>
       </c>
@@ -15714,7 +15742,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="7"/>
-      <c r="B254" s="22"/>
+      <c r="B254" s="21"/>
       <c r="C254" s="7" t="s">
         <v>430</v>
       </c>
@@ -15734,7 +15762,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="7"/>
-      <c r="B255" s="22"/>
+      <c r="B255" s="21"/>
       <c r="C255" s="7" t="s">
         <v>430</v>
       </c>
@@ -15754,7 +15782,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="7"/>
-      <c r="B256" s="22"/>
+      <c r="B256" s="21"/>
       <c r="C256" s="7" t="s">
         <v>430</v>
       </c>
@@ -15774,7 +15802,7 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="7"/>
-      <c r="B257" s="22"/>
+      <c r="B257" s="21"/>
       <c r="C257" s="7" t="s">
         <v>430</v>
       </c>
@@ -15794,7 +15822,7 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="7"/>
-      <c r="B258" s="22"/>
+      <c r="B258" s="21"/>
       <c r="C258" s="7" t="s">
         <v>430</v>
       </c>
@@ -15814,7 +15842,7 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="7"/>
-      <c r="B259" s="22"/>
+      <c r="B259" s="21"/>
       <c r="C259" s="7" t="s">
         <v>430</v>
       </c>
@@ -15834,7 +15862,7 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="7"/>
-      <c r="B260" s="24" t="s">
+      <c r="B260" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C260" s="7" t="s">
@@ -15856,7 +15884,7 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="7"/>
-      <c r="B261" s="24"/>
+      <c r="B261" s="25"/>
       <c r="C261" s="7" t="s">
         <v>495</v>
       </c>
@@ -15876,7 +15904,7 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="7"/>
-      <c r="B262" s="24"/>
+      <c r="B262" s="25"/>
       <c r="C262" s="7" t="s">
         <v>495</v>
       </c>
@@ -15896,7 +15924,7 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="7"/>
-      <c r="B263" s="24"/>
+      <c r="B263" s="25"/>
       <c r="C263" s="7" t="s">
         <v>495</v>
       </c>
@@ -15915,7 +15943,7 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="7"/>
-      <c r="B264" s="24"/>
+      <c r="B264" s="25"/>
       <c r="C264" s="7" t="s">
         <v>495</v>
       </c>
@@ -15934,7 +15962,7 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="7"/>
-      <c r="B265" s="22" t="s">
+      <c r="B265" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C265" s="7" t="s">
@@ -15955,7 +15983,7 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="7"/>
-      <c r="B266" s="22"/>
+      <c r="B266" s="21"/>
       <c r="C266" s="7" t="s">
         <v>504</v>
       </c>
@@ -15974,7 +16002,7 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="7"/>
-      <c r="B267" s="22"/>
+      <c r="B267" s="21"/>
       <c r="C267" s="7" t="s">
         <v>504</v>
       </c>
@@ -15993,7 +16021,7 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="7"/>
-      <c r="B268" s="22"/>
+      <c r="B268" s="21"/>
       <c r="C268" s="7" t="s">
         <v>504</v>
       </c>
@@ -16012,7 +16040,7 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="7"/>
-      <c r="B269" s="22"/>
+      <c r="B269" s="21"/>
       <c r="C269" s="7" t="s">
         <v>504</v>
       </c>
@@ -16031,7 +16059,7 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="7"/>
-      <c r="B270" s="22" t="s">
+      <c r="B270" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C270" s="7" t="s">
@@ -16052,7 +16080,7 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="7"/>
-      <c r="B271" s="22"/>
+      <c r="B271" s="21"/>
       <c r="C271" s="7" t="s">
         <v>513</v>
       </c>
@@ -16071,7 +16099,7 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="7"/>
-      <c r="B272" s="22"/>
+      <c r="B272" s="21"/>
       <c r="C272" s="7" t="s">
         <v>513</v>
       </c>
@@ -16090,7 +16118,7 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="7"/>
-      <c r="B273" s="22"/>
+      <c r="B273" s="21"/>
       <c r="C273" s="7" t="s">
         <v>513</v>
       </c>
@@ -16109,7 +16137,7 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="7"/>
-      <c r="B274" s="22"/>
+      <c r="B274" s="21"/>
       <c r="C274" s="7" t="s">
         <v>513</v>
       </c>
@@ -16128,7 +16156,7 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="7"/>
-      <c r="B275" s="22"/>
+      <c r="B275" s="21"/>
       <c r="C275" s="7" t="s">
         <v>513</v>
       </c>
@@ -16147,7 +16175,7 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="7"/>
-      <c r="B276" s="22" t="s">
+      <c r="B276" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C276" s="7" t="s">
@@ -16168,7 +16196,7 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="7"/>
-      <c r="B277" s="22"/>
+      <c r="B277" s="21"/>
       <c r="C277" s="7" t="s">
         <v>526</v>
       </c>
@@ -16187,7 +16215,7 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="7"/>
-      <c r="B278" s="22"/>
+      <c r="B278" s="21"/>
       <c r="C278" s="7" t="s">
         <v>526</v>
       </c>
@@ -16206,7 +16234,7 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="7"/>
-      <c r="B279" s="22"/>
+      <c r="B279" s="21"/>
       <c r="C279" s="7" t="s">
         <v>526</v>
       </c>
@@ -16225,7 +16253,7 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="7"/>
-      <c r="B280" s="22"/>
+      <c r="B280" s="21"/>
       <c r="C280" s="7" t="s">
         <v>526</v>
       </c>
@@ -16859,6 +16887,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B276:B280"/>
+    <mergeCell ref="B153:B220"/>
+    <mergeCell ref="B221:B227"/>
+    <mergeCell ref="B228:B259"/>
+    <mergeCell ref="B260:B264"/>
+    <mergeCell ref="B265:B269"/>
+    <mergeCell ref="B270:B275"/>
     <mergeCell ref="B149:B152"/>
     <mergeCell ref="B2:B44"/>
     <mergeCell ref="B45:B51"/>
@@ -16866,13 +16901,6 @@
     <mergeCell ref="B52:B76"/>
     <mergeCell ref="B104:B148"/>
     <mergeCell ref="B77:B99"/>
-    <mergeCell ref="B276:B280"/>
-    <mergeCell ref="B153:B220"/>
-    <mergeCell ref="B221:B227"/>
-    <mergeCell ref="B228:B259"/>
-    <mergeCell ref="B260:B264"/>
-    <mergeCell ref="B265:B269"/>
-    <mergeCell ref="B270:B275"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16927,7 +16955,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="23" t="s">
         <v>567</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -16949,7 +16977,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
-      <c r="B3" s="22"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="10" t="s">
         <v>568</v>
       </c>
@@ -16969,7 +16997,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
-      <c r="B4" s="22"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="10" t="s">
         <v>568</v>
       </c>
@@ -16989,7 +17017,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
-      <c r="B5" s="22"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="10" t="s">
         <v>568</v>
       </c>
@@ -17009,7 +17037,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
-      <c r="B6" s="22"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="10" t="s">
         <v>568</v>
       </c>
@@ -17029,7 +17057,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
-      <c r="B7" s="22"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="10" t="s">
         <v>568</v>
       </c>
@@ -17049,7 +17077,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
-      <c r="B8" s="22"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="10" t="s">
         <v>568</v>
       </c>
@@ -17069,7 +17097,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
-      <c r="B9" s="22"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="10" t="s">
         <v>568</v>
       </c>
@@ -17089,7 +17117,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="26" t="s">
         <v>1033</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -17113,7 +17141,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
-      <c r="B11" s="25"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="10" t="s">
         <v>585</v>
       </c>
@@ -17135,7 +17163,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
-      <c r="B12" s="25"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="7" t="s">
         <v>1032</v>
       </c>
@@ -17157,7 +17185,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
-      <c r="B13" s="25"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="10" t="s">
         <v>585</v>
       </c>
@@ -17179,7 +17207,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
-      <c r="B14" s="25"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="10" t="s">
         <v>585</v>
       </c>
@@ -17201,7 +17229,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
-      <c r="B15" s="25"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="10" t="s">
         <v>585</v>
       </c>
@@ -17223,7 +17251,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
-      <c r="B16" s="25"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="10" t="s">
         <v>585</v>
       </c>
@@ -17245,7 +17273,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="26" t="s">
         <v>567</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -17266,7 +17294,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
-      <c r="B18" s="25"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="10" t="s">
         <v>601</v>
       </c>
@@ -17285,7 +17313,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
-      <c r="B19" s="25"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="10" t="s">
         <v>1034</v>
       </c>
@@ -17304,7 +17332,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
-      <c r="B20" s="25"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="10" t="s">
         <v>601</v>
       </c>
@@ -17323,7 +17351,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
-      <c r="B21" s="25"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="10" t="s">
         <v>601</v>
       </c>
@@ -17342,7 +17370,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
-      <c r="B22" s="25"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="10" t="s">
         <v>601</v>
       </c>
@@ -17361,7 +17389,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
-      <c r="B23" s="25"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="10" t="s">
         <v>601</v>
       </c>
@@ -17380,7 +17408,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="21" t="s">
         <v>567</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -17401,7 +17429,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
-      <c r="B25" s="22"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="10" t="s">
         <v>615</v>
       </c>
@@ -17420,7 +17448,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
-      <c r="B26" s="22"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="10" t="s">
         <v>615</v>
       </c>
@@ -17439,7 +17467,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
-      <c r="B27" s="22"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="10" t="s">
         <v>615</v>
       </c>
@@ -17458,7 +17486,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
-      <c r="B28" s="22"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="10" t="s">
         <v>1035</v>
       </c>
@@ -17477,7 +17505,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
-      <c r="B29" s="22"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="10" t="s">
         <v>615</v>
       </c>
@@ -17496,7 +17524,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
-      <c r="B30" s="22"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="10" t="s">
         <v>615</v>
       </c>
@@ -17515,7 +17543,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="21" t="s">
         <v>1036</v>
       </c>
       <c r="C31" s="10" t="s">
@@ -17536,7 +17564,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
-      <c r="B32" s="22"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="10" t="s">
         <v>630</v>
       </c>
@@ -17555,7 +17583,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
-      <c r="B33" s="22"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="10" t="s">
         <v>630</v>
       </c>
@@ -17574,7 +17602,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
-      <c r="B34" s="22"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="10" t="s">
         <v>1037</v>
       </c>
@@ -17593,7 +17621,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
-      <c r="B35" s="22"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="10" t="s">
         <v>630</v>
       </c>
@@ -17612,7 +17640,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
-      <c r="B36" s="22"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="10" t="s">
         <v>630</v>
       </c>
@@ -17631,7 +17659,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
-      <c r="B37" s="22"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="10" t="s">
         <v>630</v>
       </c>
@@ -17650,7 +17678,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="21" t="s">
         <v>567</v>
       </c>
       <c r="C38" s="10" t="s">
@@ -17671,7 +17699,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
-      <c r="B39" s="22"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="10" t="s">
         <v>645</v>
       </c>
@@ -17690,7 +17718,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
-      <c r="B40" s="22"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="10" t="s">
         <v>645</v>
       </c>
@@ -17709,7 +17737,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
-      <c r="B41" s="22"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="10" t="s">
         <v>645</v>
       </c>
@@ -17728,7 +17756,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="21" t="s">
         <v>567</v>
       </c>
       <c r="C42" s="10" t="s">
@@ -17749,7 +17777,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
-      <c r="B43" s="22"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="10" t="s">
         <v>654</v>
       </c>
@@ -17768,7 +17796,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
-      <c r="B44" s="22"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="10" t="s">
         <v>654</v>
       </c>
@@ -17787,7 +17815,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
-      <c r="B45" s="22"/>
+      <c r="B45" s="21"/>
       <c r="C45" s="10" t="s">
         <v>1038</v>
       </c>
@@ -17806,7 +17834,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
-      <c r="B46" s="22"/>
+      <c r="B46" s="21"/>
       <c r="C46" s="10" t="s">
         <v>654</v>
       </c>
@@ -17825,7 +17853,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
-      <c r="B47" s="22"/>
+      <c r="B47" s="21"/>
       <c r="C47" s="10" t="s">
         <v>654</v>
       </c>
@@ -17844,7 +17872,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
-      <c r="B48" s="22"/>
+      <c r="B48" s="21"/>
       <c r="C48" s="10" t="s">
         <v>654</v>
       </c>
@@ -17863,7 +17891,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
-      <c r="B49" s="22"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="10" t="s">
         <v>654</v>
       </c>
@@ -17882,7 +17910,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
-      <c r="B50" s="22"/>
+      <c r="B50" s="21"/>
       <c r="C50" s="10" t="s">
         <v>654</v>
       </c>
@@ -17901,7 +17929,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
-      <c r="B51" s="22"/>
+      <c r="B51" s="21"/>
       <c r="C51" s="10" t="s">
         <v>654</v>
       </c>
@@ -17920,7 +17948,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
-      <c r="B52" s="22"/>
+      <c r="B52" s="21"/>
       <c r="C52" s="10" t="s">
         <v>654</v>
       </c>
@@ -17939,7 +17967,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="21" t="s">
         <v>567</v>
       </c>
       <c r="C53" s="10" t="s">
@@ -17960,7 +17988,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
-      <c r="B54" s="22"/>
+      <c r="B54" s="21"/>
       <c r="C54" s="10" t="s">
         <v>676</v>
       </c>
@@ -17979,7 +18007,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
-      <c r="B55" s="22"/>
+      <c r="B55" s="21"/>
       <c r="C55" s="10" t="s">
         <v>1039</v>
       </c>
@@ -17998,7 +18026,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
-      <c r="B56" s="22"/>
+      <c r="B56" s="21"/>
       <c r="C56" s="10" t="s">
         <v>676</v>
       </c>
@@ -18017,7 +18045,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="21" t="s">
         <v>567</v>
       </c>
       <c r="C57" s="10" t="s">
@@ -18038,7 +18066,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
-      <c r="B58" s="22"/>
+      <c r="B58" s="21"/>
       <c r="C58" s="10" t="s">
         <v>684</v>
       </c>
@@ -18057,7 +18085,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
-      <c r="B59" s="22"/>
+      <c r="B59" s="21"/>
       <c r="C59" s="10" t="s">
         <v>684</v>
       </c>
@@ -18076,7 +18104,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
-      <c r="B60" s="22"/>
+      <c r="B60" s="21"/>
       <c r="C60" s="10" t="s">
         <v>684</v>
       </c>
@@ -18095,7 +18123,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="10"/>
-      <c r="B61" s="22"/>
+      <c r="B61" s="21"/>
       <c r="C61" s="10" t="s">
         <v>684</v>
       </c>
@@ -18114,7 +18142,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="10"/>
-      <c r="B62" s="22"/>
+      <c r="B62" s="21"/>
       <c r="C62" s="10" t="s">
         <v>684</v>
       </c>
@@ -18133,7 +18161,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
-      <c r="B63" s="22"/>
+      <c r="B63" s="21"/>
       <c r="C63" s="10" t="s">
         <v>684</v>
       </c>
@@ -18152,7 +18180,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="10"/>
-      <c r="B64" s="22"/>
+      <c r="B64" s="21"/>
       <c r="C64" s="10" t="s">
         <v>684</v>
       </c>
@@ -18171,7 +18199,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="10"/>
-      <c r="B65" s="22"/>
+      <c r="B65" s="21"/>
       <c r="C65" s="10" t="s">
         <v>684</v>
       </c>
@@ -18190,7 +18218,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="10"/>
-      <c r="B66" s="22"/>
+      <c r="B66" s="21"/>
       <c r="C66" s="10" t="s">
         <v>684</v>
       </c>
@@ -18209,7 +18237,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="10"/>
-      <c r="B67" s="22"/>
+      <c r="B67" s="21"/>
       <c r="C67" s="10" t="s">
         <v>684</v>
       </c>
@@ -18228,7 +18256,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="10"/>
-      <c r="B68" s="22"/>
+      <c r="B68" s="21"/>
       <c r="C68" s="10" t="s">
         <v>684</v>
       </c>
@@ -18247,7 +18275,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
-      <c r="B69" s="22"/>
+      <c r="B69" s="21"/>
       <c r="C69" s="10" t="s">
         <v>1040</v>
       </c>
@@ -18266,7 +18294,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="10"/>
-      <c r="B70" s="22"/>
+      <c r="B70" s="21"/>
       <c r="C70" s="10" t="s">
         <v>684</v>
       </c>
@@ -18285,7 +18313,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="10"/>
-      <c r="B71" s="22"/>
+      <c r="B71" s="21"/>
       <c r="C71" s="10" t="s">
         <v>684</v>
       </c>
@@ -18304,7 +18332,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="10"/>
-      <c r="B72" s="22"/>
+      <c r="B72" s="21"/>
       <c r="C72" s="10" t="s">
         <v>684</v>
       </c>
@@ -18323,7 +18351,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="10"/>
-      <c r="B73" s="22"/>
+      <c r="B73" s="21"/>
       <c r="C73" s="10" t="s">
         <v>684</v>
       </c>
@@ -18342,7 +18370,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="10"/>
-      <c r="B74" s="22"/>
+      <c r="B74" s="21"/>
       <c r="C74" s="10" t="s">
         <v>684</v>
       </c>
@@ -18361,7 +18389,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="10"/>
-      <c r="B75" s="22"/>
+      <c r="B75" s="21"/>
       <c r="C75" s="10" t="s">
         <v>684</v>
       </c>
@@ -18380,7 +18408,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="10"/>
-      <c r="B76" s="22"/>
+      <c r="B76" s="21"/>
       <c r="C76" s="10" t="s">
         <v>684</v>
       </c>
@@ -18399,7 +18427,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="10"/>
-      <c r="B77" s="22"/>
+      <c r="B77" s="21"/>
       <c r="C77" s="10" t="s">
         <v>684</v>
       </c>
@@ -18418,7 +18446,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="10"/>
-      <c r="B78" s="22" t="s">
+      <c r="B78" s="21" t="s">
         <v>567</v>
       </c>
       <c r="C78" s="10" t="s">
@@ -18442,7 +18470,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="10"/>
-      <c r="B79" s="22"/>
+      <c r="B79" s="21"/>
       <c r="C79" s="10" t="s">
         <v>727</v>
       </c>
@@ -18464,7 +18492,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="10"/>
-      <c r="B80" s="22"/>
+      <c r="B80" s="21"/>
       <c r="C80" s="10" t="s">
         <v>727</v>
       </c>
@@ -18486,7 +18514,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="10"/>
-      <c r="B81" s="22"/>
+      <c r="B81" s="21"/>
       <c r="C81" s="10" t="s">
         <v>727</v>
       </c>
@@ -18508,7 +18536,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="10"/>
-      <c r="B82" s="22"/>
+      <c r="B82" s="21"/>
       <c r="C82" s="10" t="s">
         <v>727</v>
       </c>
@@ -18530,7 +18558,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="10"/>
-      <c r="B83" s="22"/>
+      <c r="B83" s="21"/>
       <c r="C83" s="10" t="s">
         <v>727</v>
       </c>
@@ -18552,7 +18580,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="10"/>
-      <c r="B84" s="22"/>
+      <c r="B84" s="21"/>
       <c r="C84" s="10" t="s">
         <v>1041</v>
       </c>
@@ -18574,7 +18602,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="10"/>
-      <c r="B85" s="22"/>
+      <c r="B85" s="21"/>
       <c r="C85" s="10" t="s">
         <v>727</v>
       </c>
@@ -18596,7 +18624,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="10"/>
-      <c r="B86" s="22"/>
+      <c r="B86" s="21"/>
       <c r="C86" s="10" t="s">
         <v>727</v>
       </c>
@@ -18618,7 +18646,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="10"/>
-      <c r="B87" s="22"/>
+      <c r="B87" s="21"/>
       <c r="C87" s="10" t="s">
         <v>727</v>
       </c>
@@ -18640,7 +18668,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="10"/>
-      <c r="B88" s="22"/>
+      <c r="B88" s="21"/>
       <c r="C88" s="10" t="s">
         <v>727</v>
       </c>
@@ -18662,7 +18690,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="10"/>
-      <c r="B89" s="22"/>
+      <c r="B89" s="21"/>
       <c r="C89" s="10" t="s">
         <v>727</v>
       </c>
@@ -18684,7 +18712,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="10"/>
-      <c r="B90" s="22"/>
+      <c r="B90" s="21"/>
       <c r="C90" s="10" t="s">
         <v>727</v>
       </c>
@@ -18706,7 +18734,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="10"/>
-      <c r="B91" s="22"/>
+      <c r="B91" s="21"/>
       <c r="C91" s="10" t="s">
         <v>727</v>
       </c>
@@ -18728,7 +18756,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="10"/>
-      <c r="B92" s="22"/>
+      <c r="B92" s="21"/>
       <c r="C92" s="10" t="s">
         <v>727</v>
       </c>
@@ -18750,7 +18778,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="10"/>
-      <c r="B93" s="22"/>
+      <c r="B93" s="21"/>
       <c r="C93" s="10" t="s">
         <v>727</v>
       </c>
@@ -18772,7 +18800,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="10"/>
-      <c r="B94" s="22"/>
+      <c r="B94" s="21"/>
       <c r="C94" s="10" t="s">
         <v>727</v>
       </c>
@@ -18794,7 +18822,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="10"/>
-      <c r="B95" s="25" t="s">
+      <c r="B95" s="26" t="s">
         <v>1036</v>
       </c>
       <c r="C95" s="10" t="s">
@@ -18815,7 +18843,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="10"/>
-      <c r="B96" s="25"/>
+      <c r="B96" s="26"/>
       <c r="C96" s="10" t="s">
         <v>749</v>
       </c>
@@ -18834,7 +18862,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="10"/>
-      <c r="B97" s="25"/>
+      <c r="B97" s="26"/>
       <c r="C97" s="10" t="s">
         <v>749</v>
       </c>
@@ -18853,7 +18881,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="10"/>
-      <c r="B98" s="25"/>
+      <c r="B98" s="26"/>
       <c r="C98" s="10" t="s">
         <v>749</v>
       </c>
@@ -18872,7 +18900,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="10"/>
-      <c r="B99" s="25"/>
+      <c r="B99" s="26"/>
       <c r="C99" s="10" t="s">
         <v>749</v>
       </c>
@@ -18891,7 +18919,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="10"/>
-      <c r="B100" s="25"/>
+      <c r="B100" s="26"/>
       <c r="C100" s="10" t="s">
         <v>749</v>
       </c>
@@ -18910,7 +18938,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="10"/>
-      <c r="B101" s="25"/>
+      <c r="B101" s="26"/>
       <c r="C101" s="10" t="s">
         <v>749</v>
       </c>
@@ -18929,7 +18957,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="10"/>
-      <c r="B102" s="25"/>
+      <c r="B102" s="26"/>
       <c r="C102" s="10" t="s">
         <v>749</v>
       </c>
@@ -18948,7 +18976,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="10"/>
-      <c r="B103" s="25"/>
+      <c r="B103" s="26"/>
       <c r="C103" s="10" t="s">
         <v>749</v>
       </c>
@@ -18967,7 +18995,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="10"/>
-      <c r="B104" s="25"/>
+      <c r="B104" s="26"/>
       <c r="C104" s="10" t="s">
         <v>749</v>
       </c>
@@ -18986,7 +19014,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="10"/>
-      <c r="B105" s="25"/>
+      <c r="B105" s="26"/>
       <c r="C105" s="10" t="s">
         <v>749</v>
       </c>
@@ -19005,7 +19033,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="10"/>
-      <c r="B106" s="25"/>
+      <c r="B106" s="26"/>
       <c r="C106" s="10" t="s">
         <v>749</v>
       </c>
@@ -19024,7 +19052,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="10"/>
-      <c r="B107" s="25"/>
+      <c r="B107" s="26"/>
       <c r="C107" s="10" t="s">
         <v>749</v>
       </c>
@@ -19043,7 +19071,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="10"/>
-      <c r="B108" s="25"/>
+      <c r="B108" s="26"/>
       <c r="C108" s="10" t="s">
         <v>749</v>
       </c>
@@ -19062,7 +19090,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="10"/>
-      <c r="B109" s="25"/>
+      <c r="B109" s="26"/>
       <c r="C109" s="10" t="s">
         <v>749</v>
       </c>
@@ -19081,7 +19109,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="10"/>
-      <c r="B110" s="25"/>
+      <c r="B110" s="26"/>
       <c r="C110" s="10" t="s">
         <v>749</v>
       </c>
@@ -19100,7 +19128,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="10"/>
-      <c r="B111" s="25"/>
+      <c r="B111" s="26"/>
       <c r="C111" s="10" t="s">
         <v>749</v>
       </c>
@@ -19119,7 +19147,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="10"/>
-      <c r="B112" s="25"/>
+      <c r="B112" s="26"/>
       <c r="C112" s="10" t="s">
         <v>749</v>
       </c>
@@ -19138,7 +19166,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="10"/>
-      <c r="B113" s="25"/>
+      <c r="B113" s="26"/>
       <c r="C113" s="10" t="s">
         <v>749</v>
       </c>
@@ -19157,7 +19185,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="10"/>
-      <c r="B114" s="25"/>
+      <c r="B114" s="26"/>
       <c r="C114" s="10" t="s">
         <v>749</v>
       </c>
@@ -19176,7 +19204,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="10"/>
-      <c r="B115" s="25"/>
+      <c r="B115" s="26"/>
       <c r="C115" s="10" t="s">
         <v>749</v>
       </c>
@@ -19195,7 +19223,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="10"/>
-      <c r="B116" s="25"/>
+      <c r="B116" s="26"/>
       <c r="C116" s="10" t="s">
         <v>749</v>
       </c>
@@ -19214,7 +19242,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="10"/>
-      <c r="B117" s="25"/>
+      <c r="B117" s="26"/>
       <c r="C117" s="10" t="s">
         <v>749</v>
       </c>
@@ -19233,7 +19261,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="10"/>
-      <c r="B118" s="25"/>
+      <c r="B118" s="26"/>
       <c r="C118" s="10" t="s">
         <v>749</v>
       </c>
@@ -19252,7 +19280,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="10"/>
-      <c r="B119" s="25"/>
+      <c r="B119" s="26"/>
       <c r="C119" s="10" t="s">
         <v>749</v>
       </c>
@@ -19271,7 +19299,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="10"/>
-      <c r="B120" s="25"/>
+      <c r="B120" s="26"/>
       <c r="C120" s="10" t="s">
         <v>749</v>
       </c>
@@ -19290,7 +19318,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="10"/>
-      <c r="B121" s="25"/>
+      <c r="B121" s="26"/>
       <c r="C121" s="10" t="s">
         <v>749</v>
       </c>
@@ -19309,7 +19337,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="10"/>
-      <c r="B122" s="25"/>
+      <c r="B122" s="26"/>
       <c r="C122" s="10" t="s">
         <v>749</v>
       </c>
@@ -19328,7 +19356,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="10"/>
-      <c r="B123" s="25"/>
+      <c r="B123" s="26"/>
       <c r="C123" s="10" t="s">
         <v>749</v>
       </c>
@@ -19347,7 +19375,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="10"/>
-      <c r="B124" s="25"/>
+      <c r="B124" s="26"/>
       <c r="C124" s="10" t="s">
         <v>749</v>
       </c>
@@ -19366,7 +19394,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="10"/>
-      <c r="B125" s="25"/>
+      <c r="B125" s="26"/>
       <c r="C125" s="10" t="s">
         <v>749</v>
       </c>
@@ -19385,7 +19413,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="10"/>
-      <c r="B126" s="25"/>
+      <c r="B126" s="26"/>
       <c r="C126" s="10" t="s">
         <v>1043</v>
       </c>
@@ -19404,7 +19432,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="10"/>
-      <c r="B127" s="25"/>
+      <c r="B127" s="26"/>
       <c r="C127" s="10" t="s">
         <v>749</v>
       </c>
@@ -19423,7 +19451,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="10"/>
-      <c r="B128" s="25"/>
+      <c r="B128" s="26"/>
       <c r="C128" s="10" t="s">
         <v>749</v>
       </c>
@@ -19442,7 +19470,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="10"/>
-      <c r="B129" s="25"/>
+      <c r="B129" s="26"/>
       <c r="C129" s="10" t="s">
         <v>749</v>
       </c>
@@ -19462,7 +19490,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="10"/>
-      <c r="B130" s="25"/>
+      <c r="B130" s="26"/>
       <c r="C130" s="10" t="s">
         <v>749</v>
       </c>
@@ -19482,7 +19510,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="10"/>
-      <c r="B131" s="25"/>
+      <c r="B131" s="26"/>
       <c r="C131" s="10" t="s">
         <v>749</v>
       </c>
@@ -19502,7 +19530,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="10"/>
-      <c r="B132" s="25"/>
+      <c r="B132" s="26"/>
       <c r="C132" s="10" t="s">
         <v>749</v>
       </c>
@@ -19522,7 +19550,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="10"/>
-      <c r="B133" s="25"/>
+      <c r="B133" s="26"/>
       <c r="C133" s="10" t="s">
         <v>749</v>
       </c>
@@ -19542,7 +19570,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="10"/>
-      <c r="B134" s="25"/>
+      <c r="B134" s="26"/>
       <c r="C134" s="10" t="s">
         <v>749</v>
       </c>
@@ -19562,7 +19590,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="10"/>
-      <c r="B135" s="25"/>
+      <c r="B135" s="26"/>
       <c r="C135" s="10" t="s">
         <v>749</v>
       </c>
@@ -19582,7 +19610,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="10"/>
-      <c r="B136" s="25"/>
+      <c r="B136" s="26"/>
       <c r="C136" s="10" t="s">
         <v>749</v>
       </c>
@@ -19602,7 +19630,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="10"/>
-      <c r="B137" s="25"/>
+      <c r="B137" s="26"/>
       <c r="C137" s="10" t="s">
         <v>749</v>
       </c>
@@ -19622,7 +19650,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="10"/>
-      <c r="B138" s="25"/>
+      <c r="B138" s="26"/>
       <c r="C138" s="10" t="s">
         <v>749</v>
       </c>
@@ -19642,7 +19670,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="10"/>
-      <c r="B139" s="25" t="s">
+      <c r="B139" s="26" t="s">
         <v>1036</v>
       </c>
       <c r="C139" s="10" t="s">
@@ -19664,7 +19692,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="10"/>
-      <c r="B140" s="25"/>
+      <c r="B140" s="26"/>
       <c r="C140" s="10" t="s">
         <v>837</v>
       </c>
@@ -19684,7 +19712,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="10"/>
-      <c r="B141" s="25"/>
+      <c r="B141" s="26"/>
       <c r="C141" s="10" t="s">
         <v>837</v>
       </c>
@@ -19706,7 +19734,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="10"/>
-      <c r="B142" s="25"/>
+      <c r="B142" s="26"/>
       <c r="C142" s="10" t="s">
         <v>1044</v>
       </c>
@@ -19728,7 +19756,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="10"/>
-      <c r="B143" s="25"/>
+      <c r="B143" s="26"/>
       <c r="C143" s="10" t="s">
         <v>837</v>
       </c>
@@ -19750,7 +19778,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="10"/>
-      <c r="B144" s="25"/>
+      <c r="B144" s="26"/>
       <c r="C144" s="10" t="s">
         <v>837</v>
       </c>
@@ -19772,7 +19800,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="10"/>
-      <c r="B145" s="25"/>
+      <c r="B145" s="26"/>
       <c r="C145" s="10" t="s">
         <v>837</v>
       </c>
@@ -19794,7 +19822,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="10"/>
-      <c r="B146" s="22" t="s">
+      <c r="B146" s="21" t="s">
         <v>1036</v>
       </c>
       <c r="C146" s="10" t="s">
@@ -19816,7 +19844,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="10"/>
-      <c r="B147" s="22"/>
+      <c r="B147" s="21"/>
       <c r="C147" s="10" t="s">
         <v>853</v>
       </c>
@@ -19836,7 +19864,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="10"/>
-      <c r="B148" s="22"/>
+      <c r="B148" s="21"/>
       <c r="C148" s="10" t="s">
         <v>853</v>
       </c>
@@ -19856,7 +19884,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="10"/>
-      <c r="B149" s="22"/>
+      <c r="B149" s="21"/>
       <c r="C149" s="10" t="s">
         <v>853</v>
       </c>
@@ -19876,7 +19904,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="10"/>
-      <c r="B150" s="22"/>
+      <c r="B150" s="21"/>
       <c r="C150" s="10" t="s">
         <v>1045</v>
       </c>
@@ -19896,7 +19924,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="10"/>
-      <c r="B151" s="22"/>
+      <c r="B151" s="21"/>
       <c r="C151" s="10" t="s">
         <v>853</v>
       </c>
@@ -19916,7 +19944,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="10"/>
-      <c r="B152" s="22"/>
+      <c r="B152" s="21"/>
       <c r="C152" s="10" t="s">
         <v>853</v>
       </c>
@@ -19936,7 +19964,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="10"/>
-      <c r="B153" s="22"/>
+      <c r="B153" s="21"/>
       <c r="C153" s="10" t="s">
         <v>853</v>
       </c>
@@ -19956,7 +19984,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="10"/>
-      <c r="B154" s="22"/>
+      <c r="B154" s="21"/>
       <c r="C154" s="10" t="s">
         <v>853</v>
       </c>
@@ -19976,7 +20004,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="10"/>
-      <c r="B155" s="22"/>
+      <c r="B155" s="21"/>
       <c r="C155" s="10" t="s">
         <v>853</v>
       </c>
@@ -19996,7 +20024,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="10"/>
-      <c r="B156" s="22" t="s">
+      <c r="B156" s="21" t="s">
         <v>567</v>
       </c>
       <c r="C156" s="10" t="s">
@@ -20018,7 +20046,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="10"/>
-      <c r="B157" s="22"/>
+      <c r="B157" s="21"/>
       <c r="C157" s="10" t="s">
         <v>874</v>
       </c>
@@ -20038,7 +20066,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="10"/>
-      <c r="B158" s="22"/>
+      <c r="B158" s="21"/>
       <c r="C158" s="10" t="s">
         <v>874</v>
       </c>
@@ -20058,7 +20086,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="10"/>
-      <c r="B159" s="22"/>
+      <c r="B159" s="21"/>
       <c r="C159" s="10" t="s">
         <v>1046</v>
       </c>
@@ -20078,7 +20106,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="10"/>
-      <c r="B160" s="22"/>
+      <c r="B160" s="21"/>
       <c r="C160" s="10" t="s">
         <v>874</v>
       </c>
@@ -20098,7 +20126,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="10"/>
-      <c r="B161" s="22"/>
+      <c r="B161" s="21"/>
       <c r="C161" s="10" t="s">
         <v>874</v>
       </c>
@@ -20117,7 +20145,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="10"/>
-      <c r="B162" s="22"/>
+      <c r="B162" s="21"/>
       <c r="C162" s="10" t="s">
         <v>874</v>
       </c>
@@ -20136,7 +20164,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="10"/>
-      <c r="B163" s="22"/>
+      <c r="B163" s="21"/>
       <c r="C163" s="10" t="s">
         <v>874</v>
       </c>
@@ -20155,7 +20183,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="10"/>
-      <c r="B164" s="22"/>
+      <c r="B164" s="21"/>
       <c r="C164" s="10" t="s">
         <v>874</v>
       </c>
@@ -20174,7 +20202,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="10"/>
-      <c r="B165" s="22"/>
+      <c r="B165" s="21"/>
       <c r="C165" s="10" t="s">
         <v>874</v>
       </c>
@@ -20193,7 +20221,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="10"/>
-      <c r="B166" s="22"/>
+      <c r="B166" s="21"/>
       <c r="C166" s="10" t="s">
         <v>874</v>
       </c>
@@ -20212,7 +20240,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="10"/>
-      <c r="B167" s="22"/>
+      <c r="B167" s="21"/>
       <c r="C167" s="10" t="s">
         <v>874</v>
       </c>
@@ -20231,7 +20259,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="10"/>
-      <c r="B168" s="22"/>
+      <c r="B168" s="21"/>
       <c r="C168" s="10" t="s">
         <v>874</v>
       </c>
@@ -20250,7 +20278,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="10"/>
-      <c r="B169" s="22"/>
+      <c r="B169" s="21"/>
       <c r="C169" s="10" t="s">
         <v>874</v>
       </c>
@@ -20269,7 +20297,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="10"/>
-      <c r="B170" s="22"/>
+      <c r="B170" s="21"/>
       <c r="C170" s="10" t="s">
         <v>874</v>
       </c>
@@ -20288,7 +20316,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="10"/>
-      <c r="B171" s="22"/>
+      <c r="B171" s="21"/>
       <c r="C171" s="10" t="s">
         <v>874</v>
       </c>
@@ -20307,7 +20335,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="10"/>
-      <c r="B172" s="22"/>
+      <c r="B172" s="21"/>
       <c r="C172" s="10" t="s">
         <v>874</v>
       </c>
@@ -20326,7 +20354,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="10"/>
-      <c r="B173" s="22"/>
+      <c r="B173" s="21"/>
       <c r="C173" s="10" t="s">
         <v>874</v>
       </c>
@@ -20346,7 +20374,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="10"/>
-      <c r="B174" s="22"/>
+      <c r="B174" s="21"/>
       <c r="C174" s="10" t="s">
         <v>874</v>
       </c>
@@ -20365,7 +20393,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="10"/>
-      <c r="B175" s="22"/>
+      <c r="B175" s="21"/>
       <c r="C175" s="10" t="s">
         <v>874</v>
       </c>
@@ -20384,7 +20412,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="10"/>
-      <c r="B176" s="22"/>
+      <c r="B176" s="21"/>
       <c r="C176" s="10" t="s">
         <v>874</v>
       </c>
@@ -20403,7 +20431,7 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="10"/>
-      <c r="B177" s="22" t="s">
+      <c r="B177" s="21" t="s">
         <v>1036</v>
       </c>
       <c r="C177" s="10" t="s">
@@ -20424,7 +20452,7 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="10"/>
-      <c r="B178" s="22"/>
+      <c r="B178" s="21"/>
       <c r="C178" s="10" t="s">
         <v>917</v>
       </c>
@@ -20443,7 +20471,7 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="10"/>
-      <c r="B179" s="22"/>
+      <c r="B179" s="21"/>
       <c r="C179" s="10" t="s">
         <v>917</v>
       </c>
@@ -20462,7 +20490,7 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="10"/>
-      <c r="B180" s="22"/>
+      <c r="B180" s="21"/>
       <c r="C180" s="10" t="s">
         <v>1047</v>
       </c>
@@ -20481,7 +20509,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="10"/>
-      <c r="B181" s="22"/>
+      <c r="B181" s="21"/>
       <c r="C181" s="10" t="s">
         <v>917</v>
       </c>
@@ -20500,7 +20528,7 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="10"/>
-      <c r="B182" s="22"/>
+      <c r="B182" s="21"/>
       <c r="C182" s="10" t="s">
         <v>917</v>
       </c>
@@ -20519,7 +20547,7 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="10"/>
-      <c r="B183" s="22"/>
+      <c r="B183" s="21"/>
       <c r="C183" s="10" t="s">
         <v>917</v>
       </c>
@@ -20538,7 +20566,7 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="10"/>
-      <c r="B184" s="22"/>
+      <c r="B184" s="21"/>
       <c r="C184" s="10" t="s">
         <v>917</v>
       </c>
@@ -20557,7 +20585,7 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="10"/>
-      <c r="B185" s="22"/>
+      <c r="B185" s="21"/>
       <c r="C185" s="10" t="s">
         <v>917</v>
       </c>
@@ -20576,7 +20604,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="10"/>
-      <c r="B186" s="22" t="s">
+      <c r="B186" s="21" t="s">
         <v>567</v>
       </c>
       <c r="C186" s="10" t="s">
@@ -20597,7 +20625,7 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="10"/>
-      <c r="B187" s="22"/>
+      <c r="B187" s="21"/>
       <c r="C187" s="10" t="s">
         <v>936</v>
       </c>
@@ -20616,7 +20644,7 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="10"/>
-      <c r="B188" s="22"/>
+      <c r="B188" s="21"/>
       <c r="C188" s="10" t="s">
         <v>936</v>
       </c>
@@ -20635,7 +20663,7 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="10"/>
-      <c r="B189" s="22"/>
+      <c r="B189" s="21"/>
       <c r="C189" s="10" t="s">
         <v>936</v>
       </c>
@@ -20654,7 +20682,7 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="10"/>
-      <c r="B190" s="22"/>
+      <c r="B190" s="21"/>
       <c r="C190" s="10" t="s">
         <v>936</v>
       </c>
@@ -20673,7 +20701,7 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="10"/>
-      <c r="B191" s="22"/>
+      <c r="B191" s="21"/>
       <c r="C191" s="10" t="s">
         <v>936</v>
       </c>
@@ -20692,7 +20720,7 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="10"/>
-      <c r="B192" s="22"/>
+      <c r="B192" s="21"/>
       <c r="C192" s="10" t="s">
         <v>936</v>
       </c>
@@ -20711,7 +20739,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="10"/>
-      <c r="B193" s="22"/>
+      <c r="B193" s="21"/>
       <c r="C193" s="10" t="s">
         <v>936</v>
       </c>
@@ -20731,7 +20759,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="10"/>
-      <c r="B194" s="22"/>
+      <c r="B194" s="21"/>
       <c r="C194" s="10" t="s">
         <v>1048</v>
       </c>
@@ -20750,7 +20778,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="10"/>
-      <c r="B195" s="22"/>
+      <c r="B195" s="21"/>
       <c r="C195" s="10" t="s">
         <v>936</v>
       </c>
@@ -20769,7 +20797,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="10"/>
-      <c r="B196" s="22"/>
+      <c r="B196" s="21"/>
       <c r="C196" s="10" t="s">
         <v>936</v>
       </c>
@@ -20788,7 +20816,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="10"/>
-      <c r="B197" s="22"/>
+      <c r="B197" s="21"/>
       <c r="C197" s="10" t="s">
         <v>936</v>
       </c>
@@ -20807,7 +20835,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="10"/>
-      <c r="B198" s="22"/>
+      <c r="B198" s="21"/>
       <c r="C198" s="10" t="s">
         <v>936</v>
       </c>
@@ -20826,7 +20854,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="10"/>
-      <c r="B199" s="22"/>
+      <c r="B199" s="21"/>
       <c r="C199" s="10" t="s">
         <v>936</v>
       </c>
@@ -20845,7 +20873,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="10"/>
-      <c r="B200" s="22" t="s">
+      <c r="B200" s="21" t="s">
         <v>1036</v>
       </c>
       <c r="C200" s="10" t="s">
@@ -20866,7 +20894,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="10"/>
-      <c r="B201" s="22"/>
+      <c r="B201" s="21"/>
       <c r="C201" s="10" t="s">
         <v>963</v>
       </c>
@@ -20885,7 +20913,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="10"/>
-      <c r="B202" s="22"/>
+      <c r="B202" s="21"/>
       <c r="C202" s="10" t="s">
         <v>963</v>
       </c>
@@ -20904,7 +20932,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="10"/>
-      <c r="B203" s="22"/>
+      <c r="B203" s="21"/>
       <c r="C203" s="10" t="s">
         <v>963</v>
       </c>
@@ -20923,7 +20951,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="10"/>
-      <c r="B204" s="22"/>
+      <c r="B204" s="21"/>
       <c r="C204" s="10" t="s">
         <v>963</v>
       </c>
@@ -20942,7 +20970,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="10"/>
-      <c r="B205" s="22"/>
+      <c r="B205" s="21"/>
       <c r="C205" s="10" t="s">
         <v>963</v>
       </c>
@@ -20961,7 +20989,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="10"/>
-      <c r="B206" s="22"/>
+      <c r="B206" s="21"/>
       <c r="C206" s="10" t="s">
         <v>1049</v>
       </c>
@@ -20980,7 +21008,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="10"/>
-      <c r="B207" s="22"/>
+      <c r="B207" s="21"/>
       <c r="C207" s="10" t="s">
         <v>963</v>
       </c>
@@ -20999,7 +21027,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="10"/>
-      <c r="B208" s="22"/>
+      <c r="B208" s="21"/>
       <c r="C208" s="10" t="s">
         <v>963</v>
       </c>
@@ -21018,7 +21046,7 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="10"/>
-      <c r="B209" s="22"/>
+      <c r="B209" s="21"/>
       <c r="C209" s="10" t="s">
         <v>963</v>
       </c>
@@ -21037,7 +21065,7 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="10"/>
-      <c r="B210" s="22"/>
+      <c r="B210" s="21"/>
       <c r="C210" s="10" t="s">
         <v>963</v>
       </c>
@@ -21056,7 +21084,7 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="10"/>
-      <c r="B211" s="22"/>
+      <c r="B211" s="21"/>
       <c r="C211" s="10" t="s">
         <v>963</v>
       </c>
@@ -21075,7 +21103,7 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="10"/>
-      <c r="B212" s="22"/>
+      <c r="B212" s="21"/>
       <c r="C212" s="10" t="s">
         <v>963</v>
       </c>
@@ -21094,7 +21122,7 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="10"/>
-      <c r="B213" s="22"/>
+      <c r="B213" s="21"/>
       <c r="C213" s="10" t="s">
         <v>963</v>
       </c>
@@ -21113,7 +21141,7 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="10"/>
-      <c r="B214" s="22"/>
+      <c r="B214" s="21"/>
       <c r="C214" s="10" t="s">
         <v>963</v>
       </c>
@@ -21132,7 +21160,7 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="10"/>
-      <c r="B215" s="22" t="s">
+      <c r="B215" s="21" t="s">
         <v>567</v>
       </c>
       <c r="C215" s="10" t="s">
@@ -21153,7 +21181,7 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="10"/>
-      <c r="B216" s="22"/>
+      <c r="B216" s="21"/>
       <c r="C216" s="10" t="s">
         <v>994</v>
       </c>
@@ -21172,7 +21200,7 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="10"/>
-      <c r="B217" s="22"/>
+      <c r="B217" s="21"/>
       <c r="C217" s="10" t="s">
         <v>994</v>
       </c>
@@ -21191,7 +21219,7 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="10"/>
-      <c r="B218" s="22"/>
+      <c r="B218" s="21"/>
       <c r="C218" s="10" t="s">
         <v>1050</v>
       </c>
@@ -21210,7 +21238,7 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="10"/>
-      <c r="B219" s="22"/>
+      <c r="B219" s="21"/>
       <c r="C219" s="10" t="s">
         <v>994</v>
       </c>
@@ -21229,7 +21257,7 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="10"/>
-      <c r="B220" s="22"/>
+      <c r="B220" s="21"/>
       <c r="C220" s="10" t="s">
         <v>994</v>
       </c>
@@ -21248,7 +21276,7 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="10"/>
-      <c r="B221" s="22"/>
+      <c r="B221" s="21"/>
       <c r="C221" s="10" t="s">
         <v>994</v>
       </c>
@@ -21267,7 +21295,7 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="10"/>
-      <c r="B222" s="22"/>
+      <c r="B222" s="21"/>
       <c r="C222" s="10" t="s">
         <v>994</v>
       </c>
@@ -21286,7 +21314,7 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="10"/>
-      <c r="B223" s="22"/>
+      <c r="B223" s="21"/>
       <c r="C223" s="10" t="s">
         <v>994</v>
       </c>
@@ -21305,7 +21333,7 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="10"/>
-      <c r="B224" s="22"/>
+      <c r="B224" s="21"/>
       <c r="C224" s="10" t="s">
         <v>994</v>
       </c>
@@ -21324,7 +21352,7 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="10"/>
-      <c r="B225" s="22"/>
+      <c r="B225" s="21"/>
       <c r="C225" s="10" t="s">
         <v>994</v>
       </c>
@@ -21343,7 +21371,7 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="10"/>
-      <c r="B226" s="22"/>
+      <c r="B226" s="21"/>
       <c r="C226" s="10" t="s">
         <v>994</v>
       </c>
@@ -21362,7 +21390,7 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="10"/>
-      <c r="B227" s="22"/>
+      <c r="B227" s="21"/>
       <c r="C227" s="10" t="s">
         <v>994</v>
       </c>
@@ -21381,7 +21409,7 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="10"/>
-      <c r="B228" s="22"/>
+      <c r="B228" s="21"/>
       <c r="C228" s="10" t="s">
         <v>994</v>
       </c>
@@ -21400,7 +21428,7 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="10"/>
-      <c r="B229" s="22"/>
+      <c r="B229" s="21"/>
       <c r="C229" s="10" t="s">
         <v>994</v>
       </c>
@@ -21419,7 +21447,7 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="10"/>
-      <c r="B230" s="22"/>
+      <c r="B230" s="21"/>
       <c r="C230" s="10" t="s">
         <v>994</v>
       </c>
@@ -21438,7 +21466,7 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="10"/>
-      <c r="B231" s="22"/>
+      <c r="B231" s="21"/>
       <c r="C231" s="10" t="s">
         <v>994</v>
       </c>
@@ -21457,7 +21485,7 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="10"/>
-      <c r="B232" s="22"/>
+      <c r="B232" s="21"/>
       <c r="C232" s="10" t="s">
         <v>994</v>
       </c>
@@ -22181,6 +22209,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B42:B52"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B57:B77"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B31:B37"/>
     <mergeCell ref="B78:B94"/>
     <mergeCell ref="B95:B138"/>
     <mergeCell ref="B139:B145"/>
@@ -22190,15 +22227,6 @@
     <mergeCell ref="B177:B185"/>
     <mergeCell ref="B186:B199"/>
     <mergeCell ref="B200:B214"/>
-    <mergeCell ref="B42:B52"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="B57:B77"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B10:B16"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="B31:B37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/api自動化測試腳清單.xlsx
+++ b/api自動化測試腳清單.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2908" uniqueCount="1221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2942" uniqueCount="1240">
   <si>
     <t>Module</t>
   </si>
@@ -4241,6 +4241,82 @@
   </si>
   <si>
     <t>postData26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M103HomeBankChkAgreedTerms_1.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M103HomeBankChkAgreedTerms_2.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postData27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postData27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0140GetBankDiscount_1.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postData28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postData28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0142getOnlinePaymentBillList_1.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0142getOnlinePaymentBillList_2.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0143getOnlinePaymentBitsList_1.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0143getOnlinePaymentBitsList_2.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0144GetCommonBillList_1.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0148GetWaitPaymentBillList_1.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0148GetWaitPaymentBillList_2.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0144GetCommonBillList_2.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0149CheckIsOP_1.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0149CheckIsOP_2.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postData29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postData29</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4459,16 +4535,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4784,8 +4860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H523"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D55" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65:F66"/>
+    <sheetView tabSelected="1" topLeftCell="D61" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79:F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4826,7 +4902,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="23"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="2" t="s">
         <v>1059</v>
       </c>
@@ -4848,7 +4924,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="24"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="10" t="s">
         <v>1059</v>
       </c>
@@ -4870,7 +4946,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="24"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="2" t="s">
         <v>1058</v>
       </c>
@@ -4892,7 +4968,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="24"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="2" t="s">
         <v>1056</v>
       </c>
@@ -4914,7 +4990,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="24"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="2" t="s">
         <v>1053</v>
       </c>
@@ -4936,7 +5012,7 @@
     </row>
     <row r="7" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="24"/>
+      <c r="B7" s="22"/>
       <c r="C7" t="s">
         <v>1053</v>
       </c>
@@ -4957,7 +5033,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="10" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="10" t="s">
         <v>1096</v>
       </c>
@@ -4978,7 +5054,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" s="10" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="24"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="10" t="s">
         <v>1096</v>
       </c>
@@ -4995,7 +5071,7 @@
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="24"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="10" t="s">
         <v>1096</v>
       </c>
@@ -5017,7 +5093,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="24"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="2" t="s">
         <v>1061</v>
       </c>
@@ -5039,7 +5115,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="24"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="10" t="s">
         <v>1061</v>
       </c>
@@ -5061,7 +5137,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="24"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="2" t="s">
         <v>1072</v>
       </c>
@@ -5083,7 +5159,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="24"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="2" t="s">
         <v>1072</v>
       </c>
@@ -5104,7 +5180,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="24"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="10" t="s">
         <v>1072</v>
       </c>
@@ -5121,7 +5197,7 @@
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="24"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="10" t="s">
         <v>1072</v>
       </c>
@@ -5139,7 +5215,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="24"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="2" t="s">
         <v>1078</v>
       </c>
@@ -5161,7 +5237,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="24"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="10" t="s">
         <v>1078</v>
       </c>
@@ -5183,7 +5259,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="24"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="2" t="s">
         <v>1085</v>
       </c>
@@ -5205,7 +5281,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="24"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="10" t="s">
         <v>1085</v>
       </c>
@@ -5223,7 +5299,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="24"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="2" t="s">
         <v>1089</v>
       </c>
@@ -5239,7 +5315,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="24"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="10" t="s">
         <v>1089</v>
       </c>
@@ -5255,7 +5331,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="24"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="2" t="s">
         <v>1093</v>
       </c>
@@ -5271,7 +5347,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="24"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="10" t="s">
         <v>1093</v>
       </c>
@@ -5287,7 +5363,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
-      <c r="B25" s="24"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="2" t="s">
         <v>1123</v>
       </c>
@@ -5303,7 +5379,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="24"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="10" t="s">
         <v>1123</v>
       </c>
@@ -5319,7 +5395,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
-      <c r="B27" s="24"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="2" t="s">
         <v>1127</v>
       </c>
@@ -5335,7 +5411,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
-      <c r="B28" s="24"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="2" t="s">
         <v>1128</v>
       </c>
@@ -5351,7 +5427,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
-      <c r="B29" s="24"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="2" t="s">
         <v>1131</v>
       </c>
@@ -5366,7 +5442,7 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="24"/>
+      <c r="B30" s="22"/>
       <c r="C30" s="10" t="s">
         <v>1131</v>
       </c>
@@ -5379,7 +5455,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="B31" s="24"/>
+      <c r="B31" s="22"/>
       <c r="C31" s="2" t="s">
         <v>1134</v>
       </c>
@@ -5397,7 +5473,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
-      <c r="B32" s="24"/>
+      <c r="B32" s="22"/>
       <c r="C32" s="10" t="s">
         <v>1134</v>
       </c>
@@ -5415,7 +5491,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
-      <c r="B33" s="24"/>
+      <c r="B33" s="22"/>
       <c r="C33" s="10" t="s">
         <v>1134</v>
       </c>
@@ -5433,7 +5509,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
-      <c r="B34" s="24"/>
+      <c r="B34" s="22"/>
       <c r="C34" s="10" t="s">
         <v>1134</v>
       </c>
@@ -5451,7 +5527,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
-      <c r="B35" s="24"/>
+      <c r="B35" s="22"/>
       <c r="C35" s="2" t="s">
         <v>1143</v>
       </c>
@@ -5469,7 +5545,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
-      <c r="B36" s="24"/>
+      <c r="B36" s="22"/>
       <c r="C36" s="10" t="s">
         <v>1143</v>
       </c>
@@ -5487,7 +5563,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
-      <c r="B37" s="24"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="2" t="s">
         <v>1148</v>
       </c>
@@ -5505,7 +5581,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
-      <c r="B38" s="24"/>
+      <c r="B38" s="22"/>
       <c r="C38" s="10" t="s">
         <v>1148</v>
       </c>
@@ -5523,7 +5599,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
-      <c r="B39" s="21"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="2" t="s">
         <v>1152</v>
       </c>
@@ -5541,7 +5617,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
-      <c r="B40" s="21"/>
+      <c r="B40" s="23"/>
       <c r="C40" s="10" t="s">
         <v>1152</v>
       </c>
@@ -5559,7 +5635,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
-      <c r="B41" s="21"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="2" t="s">
         <v>1157</v>
       </c>
@@ -5577,7 +5653,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
-      <c r="B42" s="21"/>
+      <c r="B42" s="23"/>
       <c r="C42" s="10" t="s">
         <v>1157</v>
       </c>
@@ -5595,7 +5671,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
-      <c r="B43" s="21"/>
+      <c r="B43" s="23"/>
       <c r="C43" s="17" t="s">
         <v>1162</v>
       </c>
@@ -5609,7 +5685,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
-      <c r="B44" s="21"/>
+      <c r="B44" s="23"/>
       <c r="C44" s="18" t="s">
         <v>1162</v>
       </c>
@@ -5623,7 +5699,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
-      <c r="B45" s="21"/>
+      <c r="B45" s="23"/>
       <c r="C45" s="2" t="s">
         <v>1164</v>
       </c>
@@ -5641,7 +5717,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
-      <c r="B46" s="21"/>
+      <c r="B46" s="23"/>
       <c r="C46" s="10" t="s">
         <v>1164</v>
       </c>
@@ -5659,7 +5735,7 @@
     </row>
     <row r="47" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
-      <c r="B47" s="21"/>
+      <c r="B47" s="23"/>
       <c r="C47" s="2" t="s">
         <v>1168</v>
       </c>
@@ -5677,7 +5753,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
-      <c r="B48" s="21"/>
+      <c r="B48" s="23"/>
       <c r="C48" s="10" t="s">
         <v>1168</v>
       </c>
@@ -5695,7 +5771,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
-      <c r="B49" s="21"/>
+      <c r="B49" s="23"/>
       <c r="C49" s="10" t="s">
         <v>1174</v>
       </c>
@@ -5712,7 +5788,7 @@
       <c r="H49" s="2"/>
     </row>
     <row r="50" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="21"/>
+      <c r="B50" s="23"/>
       <c r="C50" s="10" t="s">
         <v>1174</v>
       </c>
@@ -5728,7 +5804,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
-      <c r="B51" s="21"/>
+      <c r="B51" s="23"/>
       <c r="C51" s="10" t="s">
         <v>1180</v>
       </c>
@@ -5746,7 +5822,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
-      <c r="B52" s="21"/>
+      <c r="B52" s="23"/>
       <c r="C52" s="10" t="s">
         <v>1180</v>
       </c>
@@ -5764,7 +5840,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
-      <c r="B53" s="21"/>
+      <c r="B53" s="23"/>
       <c r="C53" s="10" t="s">
         <v>1184</v>
       </c>
@@ -5782,7 +5858,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
-      <c r="B54" s="21"/>
+      <c r="B54" s="23"/>
       <c r="C54" s="10" t="s">
         <v>1184</v>
       </c>
@@ -5800,7 +5876,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
-      <c r="B55" s="21"/>
+      <c r="B55" s="23"/>
       <c r="C55" s="10" t="s">
         <v>1188</v>
       </c>
@@ -5818,7 +5894,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
-      <c r="B56" s="21"/>
+      <c r="B56" s="23"/>
       <c r="C56" s="10" t="s">
         <v>1188</v>
       </c>
@@ -5836,7 +5912,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
-      <c r="B57" s="21"/>
+      <c r="B57" s="23"/>
       <c r="C57" s="2" t="s">
         <v>1192</v>
       </c>
@@ -5856,7 +5932,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
-      <c r="B58" s="21"/>
+      <c r="B58" s="23"/>
       <c r="C58" s="10" t="s">
         <v>1192</v>
       </c>
@@ -5876,7 +5952,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
-      <c r="B59" s="21"/>
+      <c r="B59" s="23"/>
       <c r="C59" s="2" t="s">
         <v>1204</v>
       </c>
@@ -5896,7 +5972,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
-      <c r="B60" s="21"/>
+      <c r="B60" s="23"/>
       <c r="C60" s="10" t="s">
         <v>1204</v>
       </c>
@@ -5916,7 +5992,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
-      <c r="B61" s="21"/>
+      <c r="B61" s="23"/>
       <c r="C61" s="2" t="s">
         <v>1208</v>
       </c>
@@ -5934,7 +6010,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
-      <c r="B62" s="21"/>
+      <c r="B62" s="23"/>
       <c r="C62" s="2" t="s">
         <v>1209</v>
       </c>
@@ -5952,7 +6028,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
-      <c r="B63" s="21"/>
+      <c r="B63" s="23"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
         <v>1213</v>
@@ -5968,7 +6044,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
-      <c r="B64" s="21"/>
+      <c r="B64" s="23"/>
       <c r="C64" s="2"/>
       <c r="D64" s="10" t="s">
         <v>1214</v>
@@ -5984,7 +6060,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
-      <c r="B65" s="21"/>
+      <c r="B65" s="23"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
         <v>1217</v>
@@ -6000,7 +6076,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
-      <c r="B66" s="21"/>
+      <c r="B66" s="23"/>
       <c r="C66" s="2"/>
       <c r="D66" s="10" t="s">
         <v>1218</v>
@@ -6016,147 +6092,215 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
-      <c r="B67" s="21"/>
+      <c r="B67" s="23"/>
       <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
+      <c r="D67" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>1177</v>
+      </c>
       <c r="G67" s="10"/>
       <c r="H67" s="2"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
-      <c r="B68" s="21"/>
+      <c r="B68" s="23"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
+      <c r="D68" s="10" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>1179</v>
+      </c>
       <c r="G68" s="10"/>
       <c r="H68" s="2"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
-      <c r="B69" s="21"/>
+      <c r="B69" s="23"/>
       <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
+      <c r="D69" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>1177</v>
+      </c>
       <c r="G69" s="10"/>
       <c r="H69" s="2"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
-      <c r="B70" s="21"/>
+      <c r="B70" s="23"/>
       <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
+      <c r="D70" s="10" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>1179</v>
+      </c>
       <c r="G70" s="10"/>
       <c r="H70" s="2"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
-      <c r="B71" s="21"/>
+      <c r="B71" s="23"/>
       <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
+      <c r="D71" s="2" t="s">
+        <v>1228</v>
+      </c>
       <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
+      <c r="F71" s="13" t="s">
+        <v>1090</v>
+      </c>
       <c r="G71" s="10"/>
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
-      <c r="B72" s="21"/>
+      <c r="B72" s="23"/>
       <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
+      <c r="D72" s="10" t="s">
+        <v>1229</v>
+      </c>
       <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
+      <c r="F72" s="13" t="s">
+        <v>1090</v>
+      </c>
       <c r="G72" s="10"/>
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
-      <c r="B73" s="21"/>
+      <c r="B73" s="23"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
+      <c r="D73" s="2" t="s">
+        <v>1230</v>
+      </c>
       <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
+      <c r="F73" s="13" t="s">
+        <v>1090</v>
+      </c>
       <c r="G73" s="10"/>
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
-      <c r="B74" s="21"/>
+      <c r="B74" s="23"/>
       <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
+      <c r="D74" s="10" t="s">
+        <v>1231</v>
+      </c>
       <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
+      <c r="F74" s="13" t="s">
+        <v>1090</v>
+      </c>
       <c r="G74" s="2"/>
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
-      <c r="B75" s="21"/>
+      <c r="B75" s="23"/>
       <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
+      <c r="D75" s="2" t="s">
+        <v>1232</v>
+      </c>
       <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
+      <c r="F75" s="13" t="s">
+        <v>1090</v>
+      </c>
       <c r="G75" s="2"/>
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
-      <c r="B76" s="21"/>
+      <c r="B76" s="23"/>
       <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
+      <c r="D76" s="10" t="s">
+        <v>1235</v>
+      </c>
       <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
+      <c r="F76" s="13" t="s">
+        <v>1090</v>
+      </c>
       <c r="G76" s="2"/>
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
-      <c r="B77" s="21"/>
+      <c r="B77" s="23"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
+      <c r="D77" s="2" t="s">
+        <v>1233</v>
+      </c>
       <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
+      <c r="F77" s="13" t="s">
+        <v>1090</v>
+      </c>
       <c r="G77" s="2"/>
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
-      <c r="B78" s="21"/>
+      <c r="B78" s="23"/>
       <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
+      <c r="D78" s="10" t="s">
+        <v>1234</v>
+      </c>
       <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
+      <c r="F78" s="13" t="s">
+        <v>1090</v>
+      </c>
       <c r="G78" s="2"/>
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
-      <c r="B79" s="21"/>
+      <c r="B79" s="23"/>
       <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
+      <c r="D79" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>1177</v>
+      </c>
       <c r="G79" s="2"/>
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
-      <c r="B80" s="21"/>
+      <c r="B80" s="23"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
+      <c r="D80" s="10" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>1179</v>
+      </c>
       <c r="G80" s="2"/>
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
-      <c r="B81" s="21"/>
+      <c r="B81" s="23"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -6166,7 +6310,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
-      <c r="B82" s="21"/>
+      <c r="B82" s="23"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -6176,7 +6320,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
-      <c r="B83" s="21"/>
+      <c r="B83" s="23"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -6186,7 +6330,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
-      <c r="B84" s="21"/>
+      <c r="B84" s="23"/>
       <c r="C84" s="10"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -6195,11 +6339,11 @@
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="21"/>
+      <c r="B85" s="23"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
-      <c r="B86" s="21"/>
+      <c r="B86" s="23"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -6209,7 +6353,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
-      <c r="B87" s="21"/>
+      <c r="B87" s="23"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -6219,7 +6363,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
-      <c r="B88" s="21"/>
+      <c r="B88" s="23"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -6229,7 +6373,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
-      <c r="B89" s="21"/>
+      <c r="B89" s="23"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -6239,7 +6383,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
-      <c r="B90" s="21"/>
+      <c r="B90" s="23"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -6249,7 +6393,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
-      <c r="B91" s="21"/>
+      <c r="B91" s="23"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -6259,7 +6403,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
-      <c r="B92" s="21"/>
+      <c r="B92" s="23"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -6269,7 +6413,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
-      <c r="B93" s="21"/>
+      <c r="B93" s="23"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -6279,7 +6423,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
-      <c r="B94" s="21"/>
+      <c r="B94" s="23"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -6289,7 +6433,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
-      <c r="B95" s="21"/>
+      <c r="B95" s="23"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -6299,7 +6443,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
-      <c r="B96" s="21"/>
+      <c r="B96" s="23"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -6309,7 +6453,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
-      <c r="B97" s="21"/>
+      <c r="B97" s="23"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -6319,7 +6463,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
-      <c r="B98" s="21"/>
+      <c r="B98" s="23"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -6329,7 +6473,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
-      <c r="B99" s="21"/>
+      <c r="B99" s="23"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -6339,7 +6483,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
-      <c r="B100" s="21"/>
+      <c r="B100" s="23"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -6349,7 +6493,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
-      <c r="B101" s="21"/>
+      <c r="B101" s="23"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -6359,7 +6503,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
-      <c r="B102" s="21"/>
+      <c r="B102" s="23"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -6369,7 +6513,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
-      <c r="B103" s="21"/>
+      <c r="B103" s="23"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -6379,7 +6523,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
-      <c r="B104" s="21"/>
+      <c r="B104" s="23"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -6389,7 +6533,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
-      <c r="B105" s="21"/>
+      <c r="B105" s="23"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -6399,7 +6543,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
-      <c r="B106" s="21"/>
+      <c r="B106" s="23"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -6409,7 +6553,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
-      <c r="B107" s="21"/>
+      <c r="B107" s="23"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -6419,7 +6563,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
-      <c r="B108" s="21"/>
+      <c r="B108" s="23"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -6429,7 +6573,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
-      <c r="B109" s="21"/>
+      <c r="B109" s="23"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -6439,7 +6583,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
-      <c r="B110" s="21"/>
+      <c r="B110" s="23"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -6449,7 +6593,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
-      <c r="B111" s="21"/>
+      <c r="B111" s="23"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -6459,7 +6603,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
-      <c r="B112" s="21"/>
+      <c r="B112" s="23"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -6469,7 +6613,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
-      <c r="B113" s="21"/>
+      <c r="B113" s="23"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -6479,7 +6623,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
-      <c r="B114" s="21"/>
+      <c r="B114" s="23"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -6489,7 +6633,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
-      <c r="B115" s="21"/>
+      <c r="B115" s="23"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -6499,7 +6643,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
-      <c r="B116" s="21"/>
+      <c r="B116" s="23"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -6509,7 +6653,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
-      <c r="B117" s="21"/>
+      <c r="B117" s="23"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -6519,7 +6663,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
-      <c r="B118" s="21"/>
+      <c r="B118" s="23"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -6529,7 +6673,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
-      <c r="B119" s="21"/>
+      <c r="B119" s="23"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -6539,7 +6683,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
-      <c r="B120" s="21"/>
+      <c r="B120" s="23"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -6549,7 +6693,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
-      <c r="B121" s="21"/>
+      <c r="B121" s="23"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -6559,7 +6703,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
-      <c r="B122" s="21"/>
+      <c r="B122" s="23"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -6569,7 +6713,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
-      <c r="B123" s="21"/>
+      <c r="B123" s="23"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -6579,7 +6723,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
-      <c r="B124" s="21"/>
+      <c r="B124" s="23"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -6589,7 +6733,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
-      <c r="B125" s="21"/>
+      <c r="B125" s="23"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -6599,7 +6743,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
-      <c r="B126" s="21"/>
+      <c r="B126" s="23"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -6609,7 +6753,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
-      <c r="B127" s="21"/>
+      <c r="B127" s="23"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -6619,7 +6763,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
-      <c r="B128" s="21"/>
+      <c r="B128" s="23"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -6629,7 +6773,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
-      <c r="B129" s="21"/>
+      <c r="B129" s="23"/>
       <c r="C129" s="10"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -6639,7 +6783,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
-      <c r="B130" s="21"/>
+      <c r="B130" s="23"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -6649,7 +6793,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
-      <c r="B131" s="21"/>
+      <c r="B131" s="23"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -6659,7 +6803,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
-      <c r="B132" s="21"/>
+      <c r="B132" s="23"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -6669,7 +6813,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
-      <c r="B133" s="21"/>
+      <c r="B133" s="23"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -6679,7 +6823,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
-      <c r="B134" s="21"/>
+      <c r="B134" s="23"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -6689,7 +6833,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
-      <c r="B135" s="21"/>
+      <c r="B135" s="23"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -6699,7 +6843,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
-      <c r="B136" s="21"/>
+      <c r="B136" s="23"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -6709,7 +6853,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
-      <c r="B137" s="21"/>
+      <c r="B137" s="23"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -6719,7 +6863,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
-      <c r="B138" s="21"/>
+      <c r="B138" s="23"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -6729,7 +6873,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
-      <c r="B139" s="21"/>
+      <c r="B139" s="23"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -6739,7 +6883,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
-      <c r="B140" s="21"/>
+      <c r="B140" s="23"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -6749,7 +6893,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
-      <c r="B141" s="21"/>
+      <c r="B141" s="23"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -6759,7 +6903,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
-      <c r="B142" s="21"/>
+      <c r="B142" s="23"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -6769,7 +6913,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
-      <c r="B143" s="21"/>
+      <c r="B143" s="23"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -6779,7 +6923,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
-      <c r="B144" s="21"/>
+      <c r="B144" s="23"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -6789,7 +6933,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
-      <c r="B145" s="21"/>
+      <c r="B145" s="23"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -6799,7 +6943,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
-      <c r="B146" s="21"/>
+      <c r="B146" s="23"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -6809,7 +6953,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
-      <c r="B147" s="21"/>
+      <c r="B147" s="23"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -6819,7 +6963,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
-      <c r="B148" s="21"/>
+      <c r="B148" s="23"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -6829,7 +6973,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
-      <c r="B149" s="21"/>
+      <c r="B149" s="23"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -6839,7 +6983,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
-      <c r="B150" s="21"/>
+      <c r="B150" s="23"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -6849,7 +6993,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
-      <c r="B151" s="21"/>
+      <c r="B151" s="23"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -6859,7 +7003,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
-      <c r="B152" s="21"/>
+      <c r="B152" s="23"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -6869,7 +7013,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
-      <c r="B153" s="21"/>
+      <c r="B153" s="23"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -6879,7 +7023,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
-      <c r="B154" s="21"/>
+      <c r="B154" s="23"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -6889,7 +7033,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
-      <c r="B155" s="21"/>
+      <c r="B155" s="23"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -6899,7 +7043,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
-      <c r="B156" s="21"/>
+      <c r="B156" s="23"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -6909,7 +7053,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
-      <c r="B157" s="21"/>
+      <c r="B157" s="23"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -6919,7 +7063,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
-      <c r="B158" s="21"/>
+      <c r="B158" s="23"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -6929,7 +7073,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
-      <c r="B159" s="21"/>
+      <c r="B159" s="23"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -6939,7 +7083,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
-      <c r="B160" s="21"/>
+      <c r="B160" s="23"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -6949,7 +7093,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
-      <c r="B161" s="21"/>
+      <c r="B161" s="23"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -6959,7 +7103,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
-      <c r="B162" s="21"/>
+      <c r="B162" s="23"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -6969,7 +7113,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
-      <c r="B163" s="21"/>
+      <c r="B163" s="23"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -6979,7 +7123,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
-      <c r="B164" s="21"/>
+      <c r="B164" s="23"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -6989,7 +7133,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
-      <c r="B165" s="21"/>
+      <c r="B165" s="23"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -6999,7 +7143,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
-      <c r="B166" s="21"/>
+      <c r="B166" s="23"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -7009,7 +7153,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
-      <c r="B167" s="21"/>
+      <c r="B167" s="23"/>
       <c r="C167" s="10"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -7019,7 +7163,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
-      <c r="B168" s="21"/>
+      <c r="B168" s="23"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -7029,7 +7173,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
-      <c r="B169" s="21"/>
+      <c r="B169" s="23"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -7039,7 +7183,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
-      <c r="B170" s="21"/>
+      <c r="B170" s="23"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -7049,7 +7193,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
-      <c r="B171" s="21"/>
+      <c r="B171" s="23"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -7059,7 +7203,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
-      <c r="B172" s="21"/>
+      <c r="B172" s="23"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -7069,7 +7213,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
-      <c r="B173" s="21"/>
+      <c r="B173" s="23"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -7079,7 +7223,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
-      <c r="B174" s="21"/>
+      <c r="B174" s="23"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -7089,7 +7233,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
-      <c r="B175" s="21"/>
+      <c r="B175" s="23"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -7099,7 +7243,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
-      <c r="B176" s="21"/>
+      <c r="B176" s="23"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -7109,7 +7253,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
-      <c r="B177" s="21"/>
+      <c r="B177" s="23"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -7119,7 +7263,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
-      <c r="B178" s="21"/>
+      <c r="B178" s="23"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -7129,7 +7273,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
-      <c r="B179" s="21"/>
+      <c r="B179" s="23"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -7139,7 +7283,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
-      <c r="B180" s="21"/>
+      <c r="B180" s="23"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -7149,7 +7293,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
-      <c r="B181" s="21"/>
+      <c r="B181" s="23"/>
       <c r="C181" s="10"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -7159,7 +7303,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
-      <c r="B182" s="21"/>
+      <c r="B182" s="23"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -7169,7 +7313,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
-      <c r="B183" s="21"/>
+      <c r="B183" s="23"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -7179,7 +7323,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
-      <c r="B184" s="21"/>
+      <c r="B184" s="23"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -7189,7 +7333,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="2"/>
-      <c r="B185" s="21"/>
+      <c r="B185" s="23"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -7199,7 +7343,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
-      <c r="B186" s="21"/>
+      <c r="B186" s="23"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -7209,7 +7353,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
-      <c r="B187" s="21"/>
+      <c r="B187" s="23"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -7219,7 +7363,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
-      <c r="B188" s="21"/>
+      <c r="B188" s="23"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -7229,7 +7373,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="2"/>
-      <c r="B189" s="22"/>
+      <c r="B189" s="24"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -7239,7 +7383,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
-      <c r="B190" s="23"/>
+      <c r="B190" s="21"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -7249,7 +7393,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
-      <c r="B191" s="24"/>
+      <c r="B191" s="22"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -7259,7 +7403,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
-      <c r="B192" s="24"/>
+      <c r="B192" s="22"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
@@ -7269,7 +7413,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
-      <c r="B193" s="24"/>
+      <c r="B193" s="22"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="5"/>
@@ -7279,7 +7423,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
-      <c r="B194" s="24"/>
+      <c r="B194" s="22"/>
       